--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="مهر96" sheetId="26" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="758">
   <si>
     <t>18/1/95</t>
   </si>
@@ -1792,9 +1792,6 @@
     <t>لاستیک جلو</t>
   </si>
   <si>
-    <t>25/2/96</t>
-  </si>
-  <si>
     <t>فیلتر هوا</t>
   </si>
   <si>
@@ -1804,9 +1801,6 @@
     <t>فیلتر روغن</t>
   </si>
   <si>
-    <t>20/2/96</t>
-  </si>
-  <si>
     <t>15/4/93</t>
   </si>
   <si>
@@ -2294,6 +2288,30 @@
   </si>
   <si>
     <t>5/7/1396</t>
+  </si>
+  <si>
+    <t>10/7/1396</t>
+  </si>
+  <si>
+    <t>11/7/1396</t>
+  </si>
+  <si>
+    <t>4/7/1396</t>
+  </si>
+  <si>
+    <t>حقوق شهریور مریم</t>
+  </si>
+  <si>
+    <t>با احتساب حقوق شهریور</t>
+  </si>
+  <si>
+    <t>بلبرینگ چرخ جلو سمت شاگرد</t>
+  </si>
+  <si>
+    <t>13/7/1396</t>
+  </si>
+  <si>
+    <t>15/7/96</t>
   </si>
 </sst>
 </file>
@@ -2658,7 +2676,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2989,7 +3027,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3051,7 +3089,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B2" s="3">
         <f>'شهریور 96'!B24</f>
@@ -3086,7 +3124,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B3" s="40">
         <v>771374</v>
@@ -3099,7 +3137,7 @@
         <v>650677</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -3119,25 +3157,27 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>666</v>
+        <v>752</v>
       </c>
       <c r="B4" s="18">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="C4" s="18">
         <v>0</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="11"/>
+        <v>2500000</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>753</v>
+      </c>
       <c r="F4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>65000000</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
@@ -3145,7 +3185,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>65000000</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -3159,7 +3199,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -3881,7 +3921,7 @@
       </c>
       <c r="B24" s="3">
         <f>SUM(B2:B22)</f>
-        <v>84703483</v>
+        <v>87203483</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C22)</f>
@@ -3889,7 +3929,7 @@
       </c>
       <c r="D24" s="3">
         <f>SUM(D2:D22)</f>
-        <v>71659485</v>
+        <v>74159485</v>
       </c>
       <c r="E24" s="2"/>
       <c r="O24">
@@ -3905,7 +3945,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G25" s="18">
         <f>SUM(G2:G23)</f>
-        <v>2540333116</v>
+        <v>2605333116</v>
       </c>
       <c r="H25" s="18">
         <f>SUM(H2:H23)</f>
@@ -3913,7 +3953,7 @@
       </c>
       <c r="I25" s="18">
         <f>SUM(I2:I23)</f>
-        <v>2149133873</v>
+        <v>2214133873</v>
       </c>
       <c r="O25">
         <v>22</v>
@@ -3994,15 +4034,15 @@
       </c>
       <c r="G30" s="18">
         <f>G25*11/36500</f>
-        <v>765579.84317808214</v>
+        <v>785168.8842739726</v>
       </c>
       <c r="H30" s="18">
         <f>G30*H25/G25</f>
-        <v>117895.66227397259</v>
+        <v>117895.6622739726</v>
       </c>
       <c r="I30" s="18">
         <f>G30*I25/G25</f>
-        <v>647684.1809041095</v>
+        <v>667273.22199999995</v>
       </c>
       <c r="O30">
         <v>27</v>
@@ -4019,7 +4059,7 @@
         <v>-30000</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>414</v>
@@ -4046,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="O32">
         <v>29</v>
@@ -4063,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="O33">
         <v>30</v>
@@ -4080,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="P34" t="s">
         <v>60</v>
@@ -4094,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -4102,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -4110,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -15390,7 +15430,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
+      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15467,7 +15507,7 @@
       </c>
       <c r="G2" s="37">
         <f>G3+F2</f>
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H2" s="37">
         <f>IF(B2&gt;0,1,0)</f>
@@ -15475,11 +15515,11 @@
       </c>
       <c r="I2" s="11">
         <f>B2*(G2-H2)</f>
-        <v>8867700</v>
+        <v>8917800</v>
       </c>
       <c r="J2" s="54">
         <f>C2*(G2-H2)</f>
-        <v>8867700</v>
+        <v>8917800</v>
       </c>
       <c r="K2" s="54">
         <f>D2*(G2-H2)</f>
@@ -15508,7 +15548,7 @@
       </c>
       <c r="G3" s="37">
         <f t="shared" ref="G3:G66" si="1">G4+F3</f>
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H3" s="37">
         <f t="shared" ref="H3:H66" si="2">IF(B3&gt;0,1,0)</f>
@@ -15516,15 +15556,15 @@
       </c>
       <c r="I3" s="11">
         <f t="shared" ref="I3:I66" si="3">B3*(G3-H3)</f>
-        <v>10547000000</v>
+        <v>10606700000</v>
       </c>
       <c r="J3" s="54">
         <f t="shared" ref="J3:J66" si="4">C3*(G3-H3)</f>
-        <v>6035110000</v>
+        <v>6069271000</v>
       </c>
       <c r="K3" s="54">
         <f t="shared" ref="K3:K66" si="5">D3*(G3-H3)</f>
-        <v>4511890000</v>
+        <v>4537429000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -15549,7 +15589,7 @@
       </c>
       <c r="G4" s="37">
         <f t="shared" si="1"/>
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H4" s="37">
         <f t="shared" si="2"/>
@@ -15561,11 +15601,11 @@
       </c>
       <c r="J4" s="54">
         <f t="shared" si="4"/>
-        <v>4513500</v>
+        <v>4539000</v>
       </c>
       <c r="K4" s="54">
         <f t="shared" si="5"/>
-        <v>-4513500</v>
+        <v>-4539000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -15590,7 +15630,7 @@
       </c>
       <c r="G5" s="37">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H5" s="37">
         <f t="shared" si="2"/>
@@ -15598,7 +15638,7 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" si="3"/>
-        <v>1056000000</v>
+        <v>1062000000</v>
       </c>
       <c r="J5" s="54">
         <f t="shared" si="4"/>
@@ -15606,7 +15646,7 @@
       </c>
       <c r="K5" s="54">
         <f t="shared" si="5"/>
-        <v>1056000000</v>
+        <v>1062000000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -15631,7 +15671,7 @@
       </c>
       <c r="G6" s="37">
         <f t="shared" si="1"/>
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H6" s="37">
         <f t="shared" si="2"/>
@@ -15639,7 +15679,7 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" si="3"/>
-        <v>-2610000</v>
+        <v>-2625000</v>
       </c>
       <c r="J6" s="54">
         <f t="shared" si="4"/>
@@ -15647,7 +15687,7 @@
       </c>
       <c r="K6" s="54">
         <f t="shared" si="5"/>
-        <v>-2610000</v>
+        <v>-2625000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -15672,7 +15712,7 @@
       </c>
       <c r="G7" s="37">
         <f t="shared" si="1"/>
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H7" s="37">
         <f t="shared" si="2"/>
@@ -15680,7 +15720,7 @@
       </c>
       <c r="I7" s="11">
         <f t="shared" si="3"/>
-        <v>-621859000</v>
+        <v>-625460500</v>
       </c>
       <c r="J7" s="54">
         <f t="shared" si="4"/>
@@ -15688,7 +15728,7 @@
       </c>
       <c r="K7" s="54">
         <f t="shared" si="5"/>
-        <v>-621859000</v>
+        <v>-625460500</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -15713,7 +15753,7 @@
       </c>
       <c r="G8" s="37">
         <f t="shared" si="1"/>
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H8" s="37">
         <f t="shared" si="2"/>
@@ -15721,7 +15761,7 @@
       </c>
       <c r="I8" s="11">
         <f t="shared" si="3"/>
-        <v>-103400000</v>
+        <v>-104000000</v>
       </c>
       <c r="J8" s="54">
         <f t="shared" si="4"/>
@@ -15729,7 +15769,7 @@
       </c>
       <c r="K8" s="54">
         <f t="shared" si="5"/>
-        <v>-103400000</v>
+        <v>-104000000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -15754,7 +15794,7 @@
       </c>
       <c r="G9" s="37">
         <f t="shared" si="1"/>
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H9" s="37">
         <f t="shared" si="2"/>
@@ -15762,7 +15802,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" si="3"/>
-        <v>-363332500</v>
+        <v>-365449000</v>
       </c>
       <c r="J9" s="54">
         <f t="shared" si="4"/>
@@ -15770,7 +15810,7 @@
       </c>
       <c r="K9" s="54">
         <f t="shared" si="5"/>
-        <v>-363332500</v>
+        <v>-365449000</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -15795,7 +15835,7 @@
       </c>
       <c r="G10" s="37">
         <f t="shared" si="1"/>
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H10" s="37">
         <f t="shared" si="2"/>
@@ -15803,7 +15843,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" si="3"/>
-        <v>-101200000</v>
+        <v>-101800000</v>
       </c>
       <c r="J10" s="54">
         <f t="shared" si="4"/>
@@ -15811,7 +15851,7 @@
       </c>
       <c r="K10" s="54">
         <f t="shared" si="5"/>
-        <v>-101200000</v>
+        <v>-101800000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -15836,7 +15876,7 @@
       </c>
       <c r="G11" s="37">
         <f t="shared" si="1"/>
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H11" s="37">
         <f t="shared" si="2"/>
@@ -15844,7 +15884,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" si="3"/>
-        <v>505000000</v>
+        <v>508000000</v>
       </c>
       <c r="J11" s="54">
         <f t="shared" si="4"/>
@@ -15852,7 +15892,7 @@
       </c>
       <c r="K11" s="54">
         <f t="shared" si="5"/>
-        <v>505000000</v>
+        <v>508000000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -15877,7 +15917,7 @@
       </c>
       <c r="G12" s="37">
         <f t="shared" si="1"/>
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H12" s="37">
         <f t="shared" si="2"/>
@@ -15885,7 +15925,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" si="3"/>
-        <v>-150600000</v>
+        <v>-151500000</v>
       </c>
       <c r="J12" s="54">
         <f t="shared" si="4"/>
@@ -15893,7 +15933,7 @@
       </c>
       <c r="K12" s="54">
         <f t="shared" si="5"/>
-        <v>-150600000</v>
+        <v>-151500000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -15918,7 +15958,7 @@
       </c>
       <c r="G13" s="37">
         <f t="shared" si="1"/>
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="H13" s="37">
         <f t="shared" si="2"/>
@@ -15926,7 +15966,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" si="3"/>
-        <v>-30814000</v>
+        <v>-31000000</v>
       </c>
       <c r="J13" s="54">
         <f t="shared" si="4"/>
@@ -15934,7 +15974,7 @@
       </c>
       <c r="K13" s="54">
         <f t="shared" si="5"/>
-        <v>-30814000</v>
+        <v>-31000000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -15959,7 +15999,7 @@
       </c>
       <c r="G14" s="37">
         <f t="shared" si="1"/>
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="H14" s="37">
         <f t="shared" si="2"/>
@@ -15967,7 +16007,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" si="3"/>
-        <v>992000000</v>
+        <v>998000000</v>
       </c>
       <c r="J14" s="54">
         <f t="shared" si="4"/>
@@ -15975,7 +16015,7 @@
       </c>
       <c r="K14" s="54">
         <f t="shared" si="5"/>
-        <v>992000000</v>
+        <v>998000000</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -16000,7 +16040,7 @@
       </c>
       <c r="G15" s="37">
         <f t="shared" si="1"/>
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H15" s="37">
         <f t="shared" si="2"/>
@@ -16008,7 +16048,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" si="3"/>
-        <v>891000000</v>
+        <v>896400000</v>
       </c>
       <c r="J15" s="54">
         <f t="shared" si="4"/>
@@ -16016,7 +16056,7 @@
       </c>
       <c r="K15" s="54">
         <f t="shared" si="5"/>
-        <v>891000000</v>
+        <v>896400000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -16041,7 +16081,7 @@
       </c>
       <c r="G16" s="37">
         <f t="shared" si="1"/>
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H16" s="37">
         <f t="shared" si="2"/>
@@ -16049,7 +16089,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" si="3"/>
-        <v>-99200000</v>
+        <v>-99800000</v>
       </c>
       <c r="J16" s="54">
         <f t="shared" si="4"/>
@@ -16057,7 +16097,7 @@
       </c>
       <c r="K16" s="54">
         <f t="shared" si="5"/>
-        <v>-99200000</v>
+        <v>-99800000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -16082,7 +16122,7 @@
       </c>
       <c r="G17" s="37">
         <f t="shared" si="1"/>
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H17" s="37">
         <f t="shared" si="2"/>
@@ -16090,7 +16130,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" si="3"/>
-        <v>-984000000</v>
+        <v>-990000000</v>
       </c>
       <c r="J17" s="54">
         <f t="shared" si="4"/>
@@ -16098,7 +16138,7 @@
       </c>
       <c r="K17" s="54">
         <f t="shared" si="5"/>
-        <v>-984000000</v>
+        <v>-990000000</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -16126,7 +16166,7 @@
       </c>
       <c r="G18" s="37">
         <f t="shared" si="1"/>
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H18" s="37">
         <f t="shared" si="2"/>
@@ -16134,7 +16174,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" si="3"/>
-        <v>-147300000</v>
+        <v>-148200000</v>
       </c>
       <c r="J18" s="54">
         <f t="shared" si="4"/>
@@ -16142,7 +16182,7 @@
       </c>
       <c r="K18" s="54">
         <f t="shared" si="5"/>
-        <v>-147300000</v>
+        <v>-148200000</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -16167,7 +16207,7 @@
       </c>
       <c r="G19" s="37">
         <f t="shared" si="1"/>
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="H19" s="37">
         <f t="shared" si="2"/>
@@ -16175,7 +16215,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" si="3"/>
-        <v>-98000000</v>
+        <v>-98600000</v>
       </c>
       <c r="J19" s="54">
         <f t="shared" si="4"/>
@@ -16183,7 +16223,7 @@
       </c>
       <c r="K19" s="54">
         <f t="shared" si="5"/>
-        <v>-98000000</v>
+        <v>-98600000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -16208,7 +16248,7 @@
       </c>
       <c r="G20" s="37">
         <f t="shared" si="1"/>
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H20" s="37">
         <f t="shared" si="2"/>
@@ -16216,15 +16256,15 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" si="3"/>
-        <v>132020343</v>
+        <v>132833610</v>
       </c>
       <c r="J20" s="54">
         <f t="shared" si="4"/>
-        <v>71809124</v>
+        <v>72251480</v>
       </c>
       <c r="K20" s="54">
         <f t="shared" si="5"/>
-        <v>60211219</v>
+        <v>60582130</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -16249,7 +16289,7 @@
       </c>
       <c r="G21" s="37">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="H21" s="37">
         <f t="shared" si="2"/>
@@ -16257,7 +16297,7 @@
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>-731770200</v>
+        <v>-736287300</v>
       </c>
       <c r="J21" s="54">
         <f t="shared" si="4"/>
@@ -16265,7 +16305,7 @@
       </c>
       <c r="K21" s="54">
         <f t="shared" si="5"/>
-        <v>-731770200</v>
+        <v>-736287300</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -16290,7 +16330,7 @@
       </c>
       <c r="G22" s="37">
         <f t="shared" si="1"/>
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H22" s="37">
         <f t="shared" si="2"/>
@@ -16298,7 +16338,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" si="3"/>
-        <v>1446000000</v>
+        <v>1455000000</v>
       </c>
       <c r="J22" s="54">
         <f t="shared" si="4"/>
@@ -16306,7 +16346,7 @@
       </c>
       <c r="K22" s="54">
         <f t="shared" si="5"/>
-        <v>1446000000</v>
+        <v>1455000000</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -16331,7 +16371,7 @@
       </c>
       <c r="G23" s="37">
         <f t="shared" si="1"/>
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H23" s="37">
         <f t="shared" si="2"/>
@@ -16339,7 +16379,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" si="3"/>
-        <v>481000000</v>
+        <v>484000000</v>
       </c>
       <c r="J23" s="54">
         <f t="shared" si="4"/>
@@ -16347,7 +16387,7 @@
       </c>
       <c r="K23" s="54">
         <f t="shared" si="5"/>
-        <v>481000000</v>
+        <v>484000000</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -16372,7 +16412,7 @@
       </c>
       <c r="G24" s="37">
         <f t="shared" si="1"/>
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="H24" s="37">
         <f t="shared" si="2"/>
@@ -16380,7 +16420,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" si="3"/>
-        <v>-1443432900</v>
+        <v>-1452435600</v>
       </c>
       <c r="J24" s="54">
         <f t="shared" si="4"/>
@@ -16388,7 +16428,7 @@
       </c>
       <c r="K24" s="54">
         <f t="shared" si="5"/>
-        <v>-1443432900</v>
+        <v>-1452435600</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -16413,7 +16453,7 @@
       </c>
       <c r="G25" s="37">
         <f t="shared" si="1"/>
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H25" s="37">
         <f t="shared" si="2"/>
@@ -16421,7 +16461,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" si="3"/>
-        <v>697500000</v>
+        <v>702000000</v>
       </c>
       <c r="J25" s="54">
         <f t="shared" si="4"/>
@@ -16429,7 +16469,7 @@
       </c>
       <c r="K25" s="54">
         <f t="shared" si="5"/>
-        <v>697500000</v>
+        <v>702000000</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -16454,7 +16494,7 @@
       </c>
       <c r="G26" s="37">
         <f t="shared" si="1"/>
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H26" s="37">
         <f t="shared" si="2"/>
@@ -16462,7 +16502,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" si="3"/>
-        <v>-75112000</v>
+        <v>-75604000</v>
       </c>
       <c r="J26" s="54">
         <f t="shared" si="4"/>
@@ -16470,7 +16510,7 @@
       </c>
       <c r="K26" s="54">
         <f t="shared" si="5"/>
-        <v>-75112000</v>
+        <v>-75604000</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -16495,7 +16535,7 @@
       </c>
       <c r="G27" s="37">
         <f t="shared" si="1"/>
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H27" s="37">
         <f t="shared" si="2"/>
@@ -16503,15 +16543,15 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" si="3"/>
-        <v>90923208</v>
+        <v>91521387</v>
       </c>
       <c r="J27" s="54">
         <f t="shared" si="4"/>
-        <v>48980328</v>
+        <v>49302567</v>
       </c>
       <c r="K27" s="54">
         <f t="shared" si="5"/>
-        <v>41942880</v>
+        <v>42218820</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -16536,7 +16576,7 @@
       </c>
       <c r="G28" s="37">
         <f t="shared" si="1"/>
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H28" s="37">
         <f t="shared" si="2"/>
@@ -16544,11 +16584,11 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" si="3"/>
-        <v>-100555000</v>
+        <v>-101218000</v>
       </c>
       <c r="J28" s="54">
         <f t="shared" si="4"/>
-        <v>-100555000</v>
+        <v>-101218000</v>
       </c>
       <c r="K28" s="54">
         <f t="shared" si="5"/>
@@ -16577,7 +16617,7 @@
       </c>
       <c r="G29" s="37">
         <f t="shared" si="1"/>
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H29" s="37">
         <f t="shared" si="2"/>
@@ -16585,7 +16625,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" si="3"/>
-        <v>-227727500</v>
+        <v>-229229000</v>
       </c>
       <c r="J29" s="54">
         <f t="shared" si="4"/>
@@ -16593,7 +16633,7 @@
       </c>
       <c r="K29" s="54">
         <f t="shared" si="5"/>
-        <v>-227727500</v>
+        <v>-229229000</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -16618,7 +16658,7 @@
       </c>
       <c r="G30" s="37">
         <f t="shared" si="1"/>
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H30" s="37">
         <f t="shared" si="2"/>
@@ -16626,11 +16666,11 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" si="3"/>
-        <v>-6825000000</v>
+        <v>-6870000000</v>
       </c>
       <c r="J30" s="54">
         <f t="shared" si="4"/>
-        <v>-6825000000</v>
+        <v>-6870000000</v>
       </c>
       <c r="K30" s="54">
         <f t="shared" si="5"/>
@@ -16659,7 +16699,7 @@
       </c>
       <c r="G31" s="37">
         <f t="shared" si="1"/>
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H31" s="37">
         <f t="shared" si="2"/>
@@ -16667,7 +16707,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" si="3"/>
-        <v>-1318774200</v>
+        <v>-1327806900</v>
       </c>
       <c r="J31" s="54">
         <f t="shared" si="4"/>
@@ -16675,7 +16715,7 @@
       </c>
       <c r="K31" s="54">
         <f t="shared" si="5"/>
-        <v>-1318774200</v>
+        <v>-1327806900</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -16700,7 +16740,7 @@
       </c>
       <c r="G32" s="37">
         <f t="shared" si="1"/>
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H32" s="37">
         <f t="shared" si="2"/>
@@ -16708,7 +16748,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" si="3"/>
-        <v>-1310572400</v>
+        <v>-1319590100</v>
       </c>
       <c r="J32" s="54">
         <f t="shared" si="4"/>
@@ -16716,7 +16756,7 @@
       </c>
       <c r="K32" s="54">
         <f t="shared" si="5"/>
-        <v>-1310572400</v>
+        <v>-1319590100</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -16741,7 +16781,7 @@
       </c>
       <c r="G33" s="37">
         <f t="shared" si="1"/>
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H33" s="37">
         <f t="shared" si="2"/>
@@ -16749,7 +16789,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" si="3"/>
-        <v>-389542500</v>
+        <v>-392229000</v>
       </c>
       <c r="J33" s="54">
         <f t="shared" si="4"/>
@@ -16757,7 +16797,7 @@
       </c>
       <c r="K33" s="54">
         <f t="shared" si="5"/>
-        <v>-389542500</v>
+        <v>-392229000</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -16782,7 +16822,7 @@
       </c>
       <c r="G34" s="37">
         <f t="shared" si="1"/>
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H34" s="37">
         <f t="shared" si="2"/>
@@ -16794,11 +16834,11 @@
       </c>
       <c r="J34" s="54">
         <f t="shared" si="4"/>
-        <v>435000000</v>
+        <v>438000000</v>
       </c>
       <c r="K34" s="54">
         <f t="shared" si="5"/>
-        <v>-435000000</v>
+        <v>-438000000</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -16823,7 +16863,7 @@
       </c>
       <c r="G35" s="37">
         <f t="shared" si="1"/>
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H35" s="37">
         <f t="shared" si="2"/>
@@ -16831,15 +16871,15 @@
       </c>
       <c r="I35" s="11">
         <f t="shared" si="3"/>
-        <v>22300600</v>
+        <v>22458016</v>
       </c>
       <c r="J35" s="54">
         <f t="shared" si="4"/>
-        <v>-9206775</v>
+        <v>-9271764</v>
       </c>
       <c r="K35" s="54">
         <f t="shared" si="5"/>
-        <v>31507375</v>
+        <v>31729780</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -16864,7 +16904,7 @@
       </c>
       <c r="G36" s="37">
         <f t="shared" si="1"/>
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" si="2"/>
@@ -16876,11 +16916,11 @@
       </c>
       <c r="J36" s="54">
         <f t="shared" si="4"/>
-        <v>9228438</v>
+        <v>9293427</v>
       </c>
       <c r="K36" s="54">
         <f t="shared" si="5"/>
-        <v>-9228438</v>
+        <v>-9293427</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -16905,7 +16945,7 @@
       </c>
       <c r="G37" s="37">
         <f t="shared" si="1"/>
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H37" s="37">
         <f t="shared" si="2"/>
@@ -16913,7 +16953,7 @@
       </c>
       <c r="I37" s="11">
         <f t="shared" si="3"/>
-        <v>-22880000</v>
+        <v>-23045000</v>
       </c>
       <c r="J37" s="54">
         <f t="shared" si="4"/>
@@ -16921,7 +16961,7 @@
       </c>
       <c r="K37" s="54">
         <f t="shared" si="5"/>
-        <v>-22880000</v>
+        <v>-23045000</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -16946,7 +16986,7 @@
       </c>
       <c r="G38" s="37">
         <f t="shared" si="1"/>
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H38" s="37">
         <f t="shared" si="2"/>
@@ -16954,11 +16994,11 @@
       </c>
       <c r="I38" s="11">
         <f t="shared" si="3"/>
-        <v>1242000000</v>
+        <v>1251000000</v>
       </c>
       <c r="J38" s="54">
         <f t="shared" si="4"/>
-        <v>1242000000</v>
+        <v>1251000000</v>
       </c>
       <c r="K38" s="54">
         <f t="shared" si="5"/>
@@ -16987,7 +17027,7 @@
       </c>
       <c r="G39" s="37">
         <f t="shared" si="1"/>
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H39" s="37">
         <f t="shared" si="2"/>
@@ -16995,11 +17035,11 @@
       </c>
       <c r="I39" s="11">
         <f t="shared" si="3"/>
-        <v>1032500000</v>
+        <v>1040000000</v>
       </c>
       <c r="J39" s="54">
         <f t="shared" si="4"/>
-        <v>1032500000</v>
+        <v>1040000000</v>
       </c>
       <c r="K39" s="54">
         <f t="shared" si="5"/>
@@ -17028,7 +17068,7 @@
       </c>
       <c r="G40" s="37">
         <f t="shared" si="1"/>
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H40" s="37">
         <f t="shared" si="2"/>
@@ -17036,7 +17076,7 @@
       </c>
       <c r="I40" s="11">
         <f t="shared" si="3"/>
-        <v>-20700000</v>
+        <v>-20850000</v>
       </c>
       <c r="J40" s="54">
         <f t="shared" si="4"/>
@@ -17044,7 +17084,7 @@
       </c>
       <c r="K40" s="54">
         <f t="shared" si="5"/>
-        <v>-20700000</v>
+        <v>-20850000</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -17069,7 +17109,7 @@
       </c>
       <c r="G41" s="37">
         <f t="shared" si="1"/>
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H41" s="37">
         <f t="shared" si="2"/>
@@ -17077,7 +17117,7 @@
       </c>
       <c r="I41" s="11">
         <f t="shared" si="3"/>
-        <v>1239000000</v>
+        <v>1248000000</v>
       </c>
       <c r="J41" s="54">
         <f t="shared" si="4"/>
@@ -17085,7 +17125,7 @@
       </c>
       <c r="K41" s="54">
         <f t="shared" si="5"/>
-        <v>1239000000</v>
+        <v>1248000000</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -17110,7 +17150,7 @@
       </c>
       <c r="G42" s="37">
         <f t="shared" si="1"/>
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H42" s="37">
         <f t="shared" si="2"/>
@@ -17118,7 +17158,7 @@
       </c>
       <c r="I42" s="11">
         <f t="shared" si="3"/>
-        <v>-36661200</v>
+        <v>-36928800</v>
       </c>
       <c r="J42" s="54">
         <f t="shared" si="4"/>
@@ -17126,7 +17166,7 @@
       </c>
       <c r="K42" s="54">
         <f t="shared" si="5"/>
-        <v>-36661200</v>
+        <v>-36928800</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -17151,7 +17191,7 @@
       </c>
       <c r="G43" s="37">
         <f t="shared" si="1"/>
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H43" s="37">
         <f t="shared" si="2"/>
@@ -17159,7 +17199,7 @@
       </c>
       <c r="I43" s="11">
         <f t="shared" si="3"/>
-        <v>-81400000</v>
+        <v>-82000000</v>
       </c>
       <c r="J43" s="54">
         <f t="shared" si="4"/>
@@ -17167,7 +17207,7 @@
       </c>
       <c r="K43" s="54">
         <f t="shared" si="5"/>
-        <v>-81400000</v>
+        <v>-82000000</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -17192,7 +17232,7 @@
       </c>
       <c r="G44" s="37">
         <f t="shared" si="1"/>
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H44" s="37">
         <f t="shared" si="2"/>
@@ -17200,7 +17240,7 @@
       </c>
       <c r="I44" s="11">
         <f t="shared" si="3"/>
-        <v>-81000000</v>
+        <v>-81600000</v>
       </c>
       <c r="J44" s="54">
         <f t="shared" si="4"/>
@@ -17208,7 +17248,7 @@
       </c>
       <c r="K44" s="54">
         <f t="shared" si="5"/>
-        <v>-81000000</v>
+        <v>-81600000</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -17233,7 +17273,7 @@
       </c>
       <c r="G45" s="37">
         <f t="shared" si="1"/>
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H45" s="37">
         <f t="shared" si="2"/>
@@ -17241,7 +17281,7 @@
       </c>
       <c r="I45" s="11">
         <f t="shared" si="3"/>
-        <v>-226800000</v>
+        <v>-228480000</v>
       </c>
       <c r="J45" s="54">
         <f t="shared" si="4"/>
@@ -17249,7 +17289,7 @@
       </c>
       <c r="K45" s="54">
         <f t="shared" si="5"/>
-        <v>-226800000</v>
+        <v>-228480000</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -17274,7 +17314,7 @@
       </c>
       <c r="G46" s="37">
         <f t="shared" si="1"/>
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H46" s="37">
         <f t="shared" si="2"/>
@@ -17282,7 +17322,7 @@
       </c>
       <c r="I46" s="11">
         <f t="shared" si="3"/>
-        <v>-282905500</v>
+        <v>-285022000</v>
       </c>
       <c r="J46" s="54">
         <f t="shared" si="4"/>
@@ -17290,7 +17330,7 @@
       </c>
       <c r="K46" s="54">
         <f t="shared" si="5"/>
-        <v>-282905500</v>
+        <v>-285022000</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -17315,7 +17355,7 @@
       </c>
       <c r="G47" s="37">
         <f t="shared" si="1"/>
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H47" s="37">
         <f t="shared" si="2"/>
@@ -17323,15 +17363,15 @@
       </c>
       <c r="I47" s="11">
         <f t="shared" si="3"/>
-        <v>16234376</v>
+        <v>16357988</v>
       </c>
       <c r="J47" s="54">
         <f t="shared" si="4"/>
-        <v>2644922</v>
+        <v>2665061</v>
       </c>
       <c r="K47" s="54">
         <f t="shared" si="5"/>
-        <v>13589454</v>
+        <v>13692927</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -17356,7 +17396,7 @@
       </c>
       <c r="G48" s="37">
         <f t="shared" si="1"/>
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H48" s="37">
         <f t="shared" si="2"/>
@@ -17364,7 +17404,7 @@
       </c>
       <c r="I48" s="11">
         <f t="shared" si="3"/>
-        <v>671651800</v>
+        <v>676765900</v>
       </c>
       <c r="J48" s="54">
         <f t="shared" si="4"/>
@@ -17372,7 +17412,7 @@
       </c>
       <c r="K48" s="54">
         <f t="shared" si="5"/>
-        <v>671651800</v>
+        <v>676765900</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -17397,7 +17437,7 @@
       </c>
       <c r="G49" s="37">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H49" s="37">
         <f t="shared" si="2"/>
@@ -17405,7 +17445,7 @@
       </c>
       <c r="I49" s="11">
         <f t="shared" si="3"/>
-        <v>-59830000</v>
+        <v>-60295000</v>
       </c>
       <c r="J49" s="54">
         <f t="shared" si="4"/>
@@ -17413,7 +17453,7 @@
       </c>
       <c r="K49" s="54">
         <f t="shared" si="5"/>
-        <v>-59830000</v>
+        <v>-60295000</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -17438,7 +17478,7 @@
       </c>
       <c r="G50" s="37">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H50" s="37">
         <f t="shared" si="2"/>
@@ -17446,7 +17486,7 @@
       </c>
       <c r="I50" s="11">
         <f t="shared" si="3"/>
-        <v>-53268000</v>
+        <v>-53682000</v>
       </c>
       <c r="J50" s="54">
         <f t="shared" si="4"/>
@@ -17454,7 +17494,7 @@
       </c>
       <c r="K50" s="54">
         <f t="shared" si="5"/>
-        <v>-53268000</v>
+        <v>-53682000</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -17479,7 +17519,7 @@
       </c>
       <c r="G51" s="37">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H51" s="37">
         <f t="shared" si="2"/>
@@ -17487,7 +17527,7 @@
       </c>
       <c r="I51" s="11">
         <f t="shared" si="3"/>
-        <v>-285640000</v>
+        <v>-287860000</v>
       </c>
       <c r="J51" s="54">
         <f t="shared" si="4"/>
@@ -17495,7 +17535,7 @@
       </c>
       <c r="K51" s="54">
         <f t="shared" si="5"/>
-        <v>-285640000</v>
+        <v>-287860000</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -17520,7 +17560,7 @@
       </c>
       <c r="G52" s="37">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H52" s="37">
         <f t="shared" si="2"/>
@@ -17528,7 +17568,7 @@
       </c>
       <c r="I52" s="11">
         <f t="shared" si="3"/>
-        <v>-77200000</v>
+        <v>-77800000</v>
       </c>
       <c r="J52" s="54">
         <f t="shared" si="4"/>
@@ -17536,7 +17576,7 @@
       </c>
       <c r="K52" s="54">
         <f t="shared" si="5"/>
-        <v>-77200000</v>
+        <v>-77800000</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -17561,7 +17601,7 @@
       </c>
       <c r="G53" s="37">
         <f t="shared" si="1"/>
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H53" s="37">
         <f t="shared" si="2"/>
@@ -17569,7 +17609,7 @@
       </c>
       <c r="I53" s="11">
         <f t="shared" si="3"/>
-        <v>-406175000</v>
+        <v>-409340000</v>
       </c>
       <c r="J53" s="54">
         <f t="shared" si="4"/>
@@ -17577,7 +17617,7 @@
       </c>
       <c r="K53" s="54">
         <f t="shared" si="5"/>
-        <v>-406175000</v>
+        <v>-409340000</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -17602,7 +17642,7 @@
       </c>
       <c r="G54" s="37">
         <f t="shared" si="1"/>
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H54" s="37">
         <f t="shared" si="2"/>
@@ -17610,7 +17650,7 @@
       </c>
       <c r="I54" s="11">
         <f t="shared" si="3"/>
-        <v>-77000000</v>
+        <v>-77600000</v>
       </c>
       <c r="J54" s="54">
         <f t="shared" si="4"/>
@@ -17618,7 +17658,7 @@
       </c>
       <c r="K54" s="54">
         <f t="shared" si="5"/>
-        <v>-77000000</v>
+        <v>-77600000</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -17643,7 +17683,7 @@
       </c>
       <c r="G55" s="37">
         <f t="shared" si="1"/>
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H55" s="37">
         <f t="shared" si="2"/>
@@ -17651,7 +17691,7 @@
       </c>
       <c r="I55" s="11">
         <f t="shared" si="3"/>
-        <v>-385192500</v>
+        <v>-388194000</v>
       </c>
       <c r="J55" s="54">
         <f t="shared" si="4"/>
@@ -17659,7 +17699,7 @@
       </c>
       <c r="K55" s="54">
         <f t="shared" si="5"/>
-        <v>-385192500</v>
+        <v>-388194000</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -17684,7 +17724,7 @@
       </c>
       <c r="G56" s="37">
         <f t="shared" si="1"/>
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H56" s="37">
         <f t="shared" si="2"/>
@@ -17692,7 +17732,7 @@
       </c>
       <c r="I56" s="11">
         <f t="shared" si="3"/>
-        <v>-14630000</v>
+        <v>-14744000</v>
       </c>
       <c r="J56" s="54">
         <f t="shared" si="4"/>
@@ -17700,7 +17740,7 @@
       </c>
       <c r="K56" s="54">
         <f t="shared" si="5"/>
-        <v>-14630000</v>
+        <v>-14744000</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -17725,7 +17765,7 @@
       </c>
       <c r="G57" s="37">
         <f t="shared" si="1"/>
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H57" s="37">
         <f t="shared" si="2"/>
@@ -17733,7 +17773,7 @@
       </c>
       <c r="I57" s="11">
         <f t="shared" si="3"/>
-        <v>-40425000</v>
+        <v>-40740000</v>
       </c>
       <c r="J57" s="54">
         <f t="shared" si="4"/>
@@ -17741,7 +17781,7 @@
       </c>
       <c r="K57" s="54">
         <f t="shared" si="5"/>
-        <v>-40425000</v>
+        <v>-40740000</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -17766,7 +17806,7 @@
       </c>
       <c r="G58" s="37">
         <f t="shared" si="1"/>
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H58" s="37">
         <f t="shared" si="2"/>
@@ -17774,7 +17814,7 @@
       </c>
       <c r="I58" s="11">
         <f t="shared" si="3"/>
-        <v>-23100000</v>
+        <v>-23280000</v>
       </c>
       <c r="J58" s="54">
         <f t="shared" si="4"/>
@@ -17782,7 +17822,7 @@
       </c>
       <c r="K58" s="54">
         <f t="shared" si="5"/>
-        <v>-23100000</v>
+        <v>-23280000</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -17807,7 +17847,7 @@
       </c>
       <c r="G59" s="37">
         <f t="shared" si="1"/>
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H59" s="37">
         <f t="shared" si="2"/>
@@ -17815,11 +17855,11 @@
       </c>
       <c r="I59" s="11">
         <f t="shared" si="3"/>
-        <v>381000000</v>
+        <v>384000000</v>
       </c>
       <c r="J59" s="54">
         <f t="shared" si="4"/>
-        <v>381000000</v>
+        <v>384000000</v>
       </c>
       <c r="K59" s="54">
         <f t="shared" si="5"/>
@@ -17848,7 +17888,7 @@
       </c>
       <c r="G60" s="37">
         <f t="shared" si="1"/>
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H60" s="37">
         <f t="shared" si="2"/>
@@ -17856,11 +17896,11 @@
       </c>
       <c r="I60" s="11">
         <f t="shared" si="3"/>
-        <v>1330000000</v>
+        <v>1340500000</v>
       </c>
       <c r="J60" s="54">
         <f t="shared" si="4"/>
-        <v>1330000000</v>
+        <v>1340500000</v>
       </c>
       <c r="K60" s="54">
         <f t="shared" si="5"/>
@@ -17889,7 +17929,7 @@
       </c>
       <c r="G61" s="37">
         <f t="shared" si="1"/>
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H61" s="37">
         <f t="shared" si="2"/>
@@ -17897,11 +17937,11 @@
       </c>
       <c r="I61" s="11">
         <f t="shared" si="3"/>
-        <v>378000000</v>
+        <v>381000000</v>
       </c>
       <c r="J61" s="54">
         <f t="shared" si="4"/>
-        <v>378000000</v>
+        <v>381000000</v>
       </c>
       <c r="K61" s="54">
         <f t="shared" si="5"/>
@@ -17930,7 +17970,7 @@
       </c>
       <c r="G62" s="37">
         <f t="shared" si="1"/>
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H62" s="37">
         <f t="shared" si="2"/>
@@ -17938,11 +17978,11 @@
       </c>
       <c r="I62" s="11">
         <f t="shared" si="3"/>
-        <v>1134000000</v>
+        <v>1143000000</v>
       </c>
       <c r="J62" s="54">
         <f t="shared" si="4"/>
-        <v>1134000000</v>
+        <v>1143000000</v>
       </c>
       <c r="K62" s="54">
         <f t="shared" si="5"/>
@@ -17971,7 +18011,7 @@
       </c>
       <c r="G63" s="37">
         <f t="shared" si="1"/>
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H63" s="37">
         <f t="shared" si="2"/>
@@ -17979,7 +18019,7 @@
       </c>
       <c r="I63" s="11">
         <f t="shared" si="3"/>
-        <v>-75400000</v>
+        <v>-76000000</v>
       </c>
       <c r="J63" s="54">
         <f t="shared" si="4"/>
@@ -17987,7 +18027,7 @@
       </c>
       <c r="K63" s="54">
         <f t="shared" si="5"/>
-        <v>-75400000</v>
+        <v>-76000000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -18012,7 +18052,7 @@
       </c>
       <c r="G64" s="37">
         <f t="shared" si="1"/>
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H64" s="37">
         <f t="shared" si="2"/>
@@ -18020,7 +18060,7 @@
       </c>
       <c r="I64" s="11">
         <f t="shared" si="3"/>
-        <v>-18600000</v>
+        <v>-18750000</v>
       </c>
       <c r="J64" s="54">
         <f t="shared" si="4"/>
@@ -18028,7 +18068,7 @@
       </c>
       <c r="K64" s="54">
         <f t="shared" si="5"/>
-        <v>-18600000</v>
+        <v>-18750000</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -18053,7 +18093,7 @@
       </c>
       <c r="G65" s="37">
         <f t="shared" si="1"/>
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H65" s="37">
         <f t="shared" si="2"/>
@@ -18061,7 +18101,7 @@
       </c>
       <c r="I65" s="11">
         <f t="shared" si="3"/>
-        <v>-73600000</v>
+        <v>-74200000</v>
       </c>
       <c r="J65" s="54">
         <f t="shared" si="4"/>
@@ -18069,7 +18109,7 @@
       </c>
       <c r="K65" s="54">
         <f t="shared" si="5"/>
-        <v>-73600000</v>
+        <v>-74200000</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -18094,7 +18134,7 @@
       </c>
       <c r="G66" s="37">
         <f t="shared" si="1"/>
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H66" s="37">
         <f t="shared" si="2"/>
@@ -18102,7 +18142,7 @@
       </c>
       <c r="I66" s="11">
         <f t="shared" si="3"/>
-        <v>-62050000</v>
+        <v>-62560000</v>
       </c>
       <c r="J66" s="54">
         <f t="shared" si="4"/>
@@ -18110,7 +18150,7 @@
       </c>
       <c r="K66" s="54">
         <f t="shared" si="5"/>
-        <v>-62050000</v>
+        <v>-62560000</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -18135,7 +18175,7 @@
       </c>
       <c r="G67" s="37">
         <f t="shared" ref="G67:G142" si="7">G68+F67</f>
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H67" s="37">
         <f t="shared" ref="H67:H130" si="8">IF(B67&gt;0,1,0)</f>
@@ -18143,15 +18183,15 @@
       </c>
       <c r="I67" s="11">
         <f t="shared" ref="I67:I119" si="9">B67*(G67-H67)</f>
-        <v>33150975</v>
+        <v>33424950</v>
       </c>
       <c r="J67" s="54">
         <f t="shared" ref="J67:J130" si="10">C67*(G67-H67)</f>
-        <v>23857449</v>
+        <v>24054618</v>
       </c>
       <c r="K67" s="54">
         <f t="shared" ref="K67:K130" si="11">D67*(G67-H67)</f>
-        <v>9293526</v>
+        <v>9370332</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -18176,7 +18216,7 @@
       </c>
       <c r="G68" s="37">
         <f t="shared" si="7"/>
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H68" s="37">
         <f t="shared" si="8"/>
@@ -18184,7 +18224,7 @@
       </c>
       <c r="I68" s="11">
         <f t="shared" si="9"/>
-        <v>-50170000</v>
+        <v>-50605000</v>
       </c>
       <c r="J68" s="54">
         <f t="shared" si="10"/>
@@ -18192,7 +18232,7 @@
       </c>
       <c r="K68" s="54">
         <f t="shared" si="11"/>
-        <v>-50170000</v>
+        <v>-50605000</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -18217,7 +18257,7 @@
       </c>
       <c r="G69" s="37">
         <f t="shared" si="7"/>
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H69" s="37">
         <f t="shared" si="8"/>
@@ -18225,7 +18265,7 @@
       </c>
       <c r="I69" s="11">
         <f t="shared" si="9"/>
-        <v>331240000</v>
+        <v>334180000</v>
       </c>
       <c r="J69" s="54">
         <f t="shared" si="10"/>
@@ -18233,7 +18273,7 @@
       </c>
       <c r="K69" s="54">
         <f t="shared" si="11"/>
-        <v>331240000</v>
+        <v>334180000</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -18258,7 +18298,7 @@
       </c>
       <c r="G70" s="37">
         <f t="shared" si="7"/>
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H70" s="37">
         <f t="shared" si="8"/>
@@ -18266,7 +18306,7 @@
       </c>
       <c r="I70" s="11">
         <f t="shared" si="9"/>
-        <v>-15456000</v>
+        <v>-15594000</v>
       </c>
       <c r="J70" s="54">
         <f t="shared" si="10"/>
@@ -18274,7 +18314,7 @@
       </c>
       <c r="K70" s="54">
         <f t="shared" si="11"/>
-        <v>-15456000</v>
+        <v>-15594000</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -18299,7 +18339,7 @@
       </c>
       <c r="G71" s="37">
         <f t="shared" si="7"/>
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H71" s="37">
         <f t="shared" si="8"/>
@@ -18307,15 +18347,15 @@
       </c>
       <c r="I71" s="11">
         <f t="shared" si="9"/>
-        <v>38407554</v>
+        <v>38753568</v>
       </c>
       <c r="J71" s="54">
         <f t="shared" si="10"/>
-        <v>34569396</v>
+        <v>34880832</v>
       </c>
       <c r="K71" s="54">
         <f t="shared" si="11"/>
-        <v>3838158</v>
+        <v>3872736</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -18340,7 +18380,7 @@
       </c>
       <c r="G72" s="37">
         <f t="shared" si="7"/>
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H72" s="37">
         <f t="shared" si="8"/>
@@ -18348,7 +18388,7 @@
       </c>
       <c r="I72" s="11">
         <f t="shared" si="9"/>
-        <v>-50605677</v>
+        <v>-51061584</v>
       </c>
       <c r="J72" s="54">
         <f t="shared" si="10"/>
@@ -18356,7 +18396,7 @@
       </c>
       <c r="K72" s="54">
         <f t="shared" si="11"/>
-        <v>-50605677</v>
+        <v>-51061584</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -18381,7 +18421,7 @@
       </c>
       <c r="G73" s="37">
         <f t="shared" si="7"/>
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H73" s="37">
         <f t="shared" si="8"/>
@@ -18389,7 +18429,7 @@
       </c>
       <c r="I73" s="11">
         <f t="shared" si="9"/>
-        <v>-267426000</v>
+        <v>-269842500</v>
       </c>
       <c r="J73" s="54">
         <f t="shared" si="10"/>
@@ -18397,7 +18437,7 @@
       </c>
       <c r="K73" s="54">
         <f t="shared" si="11"/>
-        <v>-267426000</v>
+        <v>-269842500</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -18422,7 +18462,7 @@
       </c>
       <c r="G74" s="37">
         <f t="shared" si="7"/>
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H74" s="37">
         <f t="shared" si="8"/>
@@ -18430,7 +18470,7 @@
       </c>
       <c r="I74" s="11">
         <f t="shared" si="9"/>
-        <v>2266380000</v>
+        <v>2287365000</v>
       </c>
       <c r="J74" s="54">
         <f t="shared" si="10"/>
@@ -18438,7 +18478,7 @@
       </c>
       <c r="K74" s="54">
         <f t="shared" si="11"/>
-        <v>2266380000</v>
+        <v>2287365000</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -18463,7 +18503,7 @@
       </c>
       <c r="G75" s="37">
         <f t="shared" si="7"/>
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H75" s="37">
         <f t="shared" si="8"/>
@@ -18471,7 +18511,7 @@
       </c>
       <c r="I75" s="11">
         <f t="shared" si="9"/>
-        <v>969000000</v>
+        <v>978000000</v>
       </c>
       <c r="J75" s="54">
         <f t="shared" si="10"/>
@@ -18479,7 +18519,7 @@
       </c>
       <c r="K75" s="54">
         <f t="shared" si="11"/>
-        <v>969000000</v>
+        <v>978000000</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -18504,7 +18544,7 @@
       </c>
       <c r="G76" s="37">
         <f t="shared" si="7"/>
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H76" s="37">
         <f t="shared" si="8"/>
@@ -18512,7 +18552,7 @@
       </c>
       <c r="I76" s="11">
         <f t="shared" si="9"/>
-        <v>963000000</v>
+        <v>972000000</v>
       </c>
       <c r="J76" s="54">
         <f t="shared" si="10"/>
@@ -18520,7 +18560,7 @@
       </c>
       <c r="K76" s="54">
         <f t="shared" si="11"/>
-        <v>963000000</v>
+        <v>972000000</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -18545,7 +18585,7 @@
       </c>
       <c r="G77" s="37">
         <f t="shared" si="7"/>
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H77" s="37">
         <f t="shared" si="8"/>
@@ -18553,7 +18593,7 @@
       </c>
       <c r="I77" s="11">
         <f t="shared" si="9"/>
-        <v>960000000</v>
+        <v>969000000</v>
       </c>
       <c r="J77" s="54">
         <f t="shared" si="10"/>
@@ -18561,7 +18601,7 @@
       </c>
       <c r="K77" s="54">
         <f t="shared" si="11"/>
-        <v>960000000</v>
+        <v>969000000</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -18586,7 +18626,7 @@
       </c>
       <c r="G78" s="37">
         <f t="shared" si="7"/>
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H78" s="37">
         <f t="shared" si="8"/>
@@ -18594,11 +18634,11 @@
       </c>
       <c r="I78" s="11">
         <f t="shared" si="9"/>
-        <v>-1024000000</v>
+        <v>-1033600000</v>
       </c>
       <c r="J78" s="54">
         <f t="shared" si="10"/>
-        <v>-1024000000</v>
+        <v>-1033600000</v>
       </c>
       <c r="K78" s="54">
         <f t="shared" si="11"/>
@@ -18627,7 +18667,7 @@
       </c>
       <c r="G79" s="37">
         <f t="shared" si="7"/>
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H79" s="37">
         <f t="shared" si="8"/>
@@ -18635,11 +18675,11 @@
       </c>
       <c r="I79" s="11">
         <f t="shared" si="9"/>
-        <v>-255200000</v>
+        <v>-257600000</v>
       </c>
       <c r="J79" s="54">
         <f t="shared" si="10"/>
-        <v>-255200000</v>
+        <v>-257600000</v>
       </c>
       <c r="K79" s="54">
         <f t="shared" si="11"/>
@@ -18668,7 +18708,7 @@
       </c>
       <c r="G80" s="37">
         <f t="shared" si="7"/>
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H80" s="37">
         <f t="shared" si="8"/>
@@ -18676,7 +18716,7 @@
       </c>
       <c r="I80" s="11">
         <f t="shared" si="9"/>
-        <v>-15388974</v>
+        <v>-15534153</v>
       </c>
       <c r="J80" s="54">
         <f t="shared" si="10"/>
@@ -18684,7 +18724,7 @@
       </c>
       <c r="K80" s="54">
         <f t="shared" si="11"/>
-        <v>-15388974</v>
+        <v>-15534153</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -18709,7 +18749,7 @@
       </c>
       <c r="G81" s="37">
         <f t="shared" si="7"/>
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H81" s="37">
         <f t="shared" si="8"/>
@@ -18717,7 +18757,7 @@
       </c>
       <c r="I81" s="11">
         <f t="shared" si="9"/>
-        <v>-44380000</v>
+        <v>-44800000</v>
       </c>
       <c r="J81" s="54">
         <f t="shared" si="10"/>
@@ -18725,7 +18765,7 @@
       </c>
       <c r="K81" s="54">
         <f t="shared" si="11"/>
-        <v>-44380000</v>
+        <v>-44800000</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -18750,7 +18790,7 @@
       </c>
       <c r="G82" s="37">
         <f t="shared" si="7"/>
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H82" s="37">
         <f t="shared" si="8"/>
@@ -18758,7 +18798,7 @@
       </c>
       <c r="I82" s="11">
         <f t="shared" si="9"/>
-        <v>-79000000</v>
+        <v>-79750000</v>
       </c>
       <c r="J82" s="54">
         <f t="shared" si="10"/>
@@ -18766,7 +18806,7 @@
       </c>
       <c r="K82" s="54">
         <f t="shared" si="11"/>
-        <v>-79000000</v>
+        <v>-79750000</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -18791,7 +18831,7 @@
       </c>
       <c r="G83" s="37">
         <f t="shared" si="7"/>
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H83" s="37">
         <f t="shared" si="8"/>
@@ -18799,7 +18839,7 @@
       </c>
       <c r="I83" s="11">
         <f t="shared" si="9"/>
-        <v>-63000000</v>
+        <v>-63600000</v>
       </c>
       <c r="J83" s="54">
         <f t="shared" si="10"/>
@@ -18807,7 +18847,7 @@
       </c>
       <c r="K83" s="54">
         <f t="shared" si="11"/>
-        <v>-63000000</v>
+        <v>-63600000</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -18832,7 +18872,7 @@
       </c>
       <c r="G84" s="37">
         <f t="shared" si="7"/>
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H84" s="37">
         <f t="shared" si="8"/>
@@ -18840,7 +18880,7 @@
       </c>
       <c r="I84" s="11">
         <f t="shared" si="9"/>
-        <v>508547200</v>
+        <v>513452800</v>
       </c>
       <c r="J84" s="54">
         <f t="shared" si="10"/>
@@ -18848,7 +18888,7 @@
       </c>
       <c r="K84" s="54">
         <f t="shared" si="11"/>
-        <v>508547200</v>
+        <v>513452800</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -18862,7 +18902,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="3">
-        <f t="shared" ref="D85:D128" si="12">B85-C85</f>
+        <f t="shared" ref="D85:D129" si="12">B85-C85</f>
         <v>2500000</v>
       </c>
       <c r="E85" s="20" t="s">
@@ -18873,7 +18913,7 @@
       </c>
       <c r="G85" s="37">
         <f t="shared" si="7"/>
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H85" s="37">
         <f t="shared" si="8"/>
@@ -18881,7 +18921,7 @@
       </c>
       <c r="I85" s="11">
         <f t="shared" si="9"/>
-        <v>767500000</v>
+        <v>775000000</v>
       </c>
       <c r="J85" s="54">
         <f t="shared" si="10"/>
@@ -18889,7 +18929,7 @@
       </c>
       <c r="K85" s="54">
         <f t="shared" si="11"/>
-        <v>767500000</v>
+        <v>775000000</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -18914,7 +18954,7 @@
       </c>
       <c r="G86" s="37">
         <f t="shared" si="7"/>
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H86" s="37">
         <f t="shared" si="8"/>
@@ -18922,15 +18962,15 @@
       </c>
       <c r="I86" s="11">
         <f t="shared" si="9"/>
-        <v>56448900</v>
+        <v>57007800</v>
       </c>
       <c r="J86" s="54">
         <f t="shared" si="10"/>
-        <v>25739850</v>
+        <v>25994700</v>
       </c>
       <c r="K86" s="54">
         <f t="shared" si="11"/>
-        <v>30709050</v>
+        <v>31013100</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -18955,7 +18995,7 @@
       </c>
       <c r="G87" s="37">
         <f t="shared" si="7"/>
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H87" s="37">
         <f t="shared" si="8"/>
@@ -18963,7 +19003,7 @@
       </c>
       <c r="I87" s="11">
         <f t="shared" si="9"/>
-        <v>-60200000</v>
+        <v>-60800000</v>
       </c>
       <c r="J87" s="54">
         <f t="shared" si="10"/>
@@ -18971,7 +19011,7 @@
       </c>
       <c r="K87" s="54">
         <f t="shared" si="11"/>
-        <v>-60200000</v>
+        <v>-60800000</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -18996,7 +19036,7 @@
       </c>
       <c r="G88" s="37">
         <f t="shared" si="7"/>
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H88" s="37">
         <f t="shared" si="8"/>
@@ -19004,15 +19044,15 @@
       </c>
       <c r="I88" s="11">
         <f t="shared" si="9"/>
-        <v>-35400000</v>
+        <v>-35754000</v>
       </c>
       <c r="J88" s="54">
         <f t="shared" si="10"/>
-        <v>-20700000</v>
+        <v>-20907000</v>
       </c>
       <c r="K88" s="54">
         <f t="shared" si="11"/>
-        <v>-14700000</v>
+        <v>-14847000</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -19037,7 +19077,7 @@
       </c>
       <c r="G89" s="37">
         <f t="shared" si="7"/>
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H89" s="37">
         <f t="shared" si="8"/>
@@ -19045,7 +19085,7 @@
       </c>
       <c r="I89" s="11">
         <f t="shared" si="9"/>
-        <v>-934662800</v>
+        <v>-944265500</v>
       </c>
       <c r="J89" s="54">
         <f t="shared" si="10"/>
@@ -19053,7 +19093,7 @@
       </c>
       <c r="K89" s="54">
         <f t="shared" si="11"/>
-        <v>-934662800</v>
+        <v>-944265500</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -19078,7 +19118,7 @@
       </c>
       <c r="G90" s="37">
         <f t="shared" si="7"/>
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H90" s="37">
         <f t="shared" si="8"/>
@@ -19086,7 +19126,7 @@
       </c>
       <c r="I90" s="11">
         <f t="shared" si="9"/>
-        <v>-931461900</v>
+        <v>-941064600</v>
       </c>
       <c r="J90" s="54">
         <f t="shared" si="10"/>
@@ -19094,7 +19134,7 @@
       </c>
       <c r="K90" s="54">
         <f t="shared" si="11"/>
-        <v>-931461900</v>
+        <v>-941064600</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -19119,7 +19159,7 @@
       </c>
       <c r="G91" s="37">
         <f t="shared" si="7"/>
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H91" s="37">
         <f t="shared" si="8"/>
@@ -19127,7 +19167,7 @@
       </c>
       <c r="I91" s="11">
         <f t="shared" si="9"/>
-        <v>-928261000</v>
+        <v>-937863700</v>
       </c>
       <c r="J91" s="54">
         <f t="shared" si="10"/>
@@ -19135,7 +19175,7 @@
       </c>
       <c r="K91" s="54">
         <f t="shared" si="11"/>
-        <v>-928261000</v>
+        <v>-937863700</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -19160,7 +19200,7 @@
       </c>
       <c r="G92" s="37">
         <f t="shared" si="7"/>
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H92" s="37">
         <f t="shared" si="8"/>
@@ -19168,7 +19208,7 @@
       </c>
       <c r="I92" s="11">
         <f t="shared" si="9"/>
-        <v>-925060100</v>
+        <v>-934662800</v>
       </c>
       <c r="J92" s="54">
         <f t="shared" si="10"/>
@@ -19176,7 +19216,7 @@
       </c>
       <c r="K92" s="54">
         <f t="shared" si="11"/>
-        <v>-925060100</v>
+        <v>-934662800</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -19201,7 +19241,7 @@
       </c>
       <c r="G93" s="37">
         <f t="shared" si="7"/>
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H93" s="37">
         <f t="shared" si="8"/>
@@ -19209,7 +19249,7 @@
       </c>
       <c r="I93" s="11">
         <f t="shared" si="9"/>
-        <v>-921859200</v>
+        <v>-931461900</v>
       </c>
       <c r="J93" s="54">
         <f t="shared" si="10"/>
@@ -19217,7 +19257,7 @@
       </c>
       <c r="K93" s="54">
         <f t="shared" si="11"/>
-        <v>-921859200</v>
+        <v>-931461900</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -19242,7 +19282,7 @@
       </c>
       <c r="G94" s="37">
         <f t="shared" si="7"/>
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H94" s="37">
         <f t="shared" si="8"/>
@@ -19250,7 +19290,7 @@
       </c>
       <c r="I94" s="11">
         <f t="shared" si="9"/>
-        <v>-918658300</v>
+        <v>-928261000</v>
       </c>
       <c r="J94" s="54">
         <f t="shared" si="10"/>
@@ -19258,7 +19298,7 @@
       </c>
       <c r="K94" s="54">
         <f t="shared" si="11"/>
-        <v>-918658300</v>
+        <v>-928261000</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -19283,7 +19323,7 @@
       </c>
       <c r="G95" s="37">
         <f t="shared" si="7"/>
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H95" s="37">
         <f t="shared" si="8"/>
@@ -19291,7 +19331,7 @@
       </c>
       <c r="I95" s="11">
         <f t="shared" si="9"/>
-        <v>-341029860</v>
+        <v>-344619648</v>
       </c>
       <c r="J95" s="54">
         <f t="shared" si="10"/>
@@ -19299,7 +19339,7 @@
       </c>
       <c r="K95" s="54">
         <f t="shared" si="11"/>
-        <v>-341029860</v>
+        <v>-344619648</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -19324,7 +19364,7 @@
       </c>
       <c r="G96" s="37">
         <f t="shared" si="7"/>
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H96" s="37">
         <f t="shared" si="8"/>
@@ -19332,7 +19372,7 @@
       </c>
       <c r="I96" s="11">
         <f t="shared" si="9"/>
-        <v>-55000000</v>
+        <v>-55600000</v>
       </c>
       <c r="J96" s="54">
         <f t="shared" si="10"/>
@@ -19340,7 +19380,7 @@
       </c>
       <c r="K96" s="54">
         <f t="shared" si="11"/>
-        <v>-55000000</v>
+        <v>-55600000</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -19365,7 +19405,7 @@
       </c>
       <c r="G97" s="37">
         <f t="shared" si="7"/>
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H97" s="37">
         <f t="shared" si="8"/>
@@ -19373,15 +19413,15 @@
       </c>
       <c r="I97" s="11">
         <f t="shared" si="9"/>
-        <v>43559334</v>
+        <v>44038008</v>
       </c>
       <c r="J97" s="54">
         <f t="shared" si="10"/>
-        <v>18816798</v>
+        <v>19023576</v>
       </c>
       <c r="K97" s="54">
         <f t="shared" si="11"/>
-        <v>24742536</v>
+        <v>25014432</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -19406,7 +19446,7 @@
       </c>
       <c r="G98" s="37">
         <f t="shared" si="7"/>
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H98" s="37">
         <f t="shared" si="8"/>
@@ -19414,7 +19454,7 @@
       </c>
       <c r="I98" s="11">
         <f t="shared" si="9"/>
-        <v>30650624</v>
+        <v>30993728</v>
       </c>
       <c r="J98" s="54">
         <f t="shared" si="10"/>
@@ -19422,7 +19462,7 @@
       </c>
       <c r="K98" s="54">
         <f t="shared" si="11"/>
-        <v>30650624</v>
+        <v>30993728</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -19447,7 +19487,7 @@
       </c>
       <c r="G99" s="37">
         <f t="shared" si="7"/>
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H99" s="37">
         <f t="shared" si="8"/>
@@ -19455,7 +19495,7 @@
       </c>
       <c r="I99" s="11">
         <f t="shared" si="9"/>
-        <v>-352450000</v>
+        <v>-356425000</v>
       </c>
       <c r="J99" s="54">
         <f t="shared" si="10"/>
@@ -19463,7 +19503,7 @@
       </c>
       <c r="K99" s="54">
         <f t="shared" si="11"/>
-        <v>-352450000</v>
+        <v>-356425000</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -19488,7 +19528,7 @@
       </c>
       <c r="G100" s="37">
         <f t="shared" si="7"/>
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H100" s="37">
         <f t="shared" si="8"/>
@@ -19496,7 +19536,7 @@
       </c>
       <c r="I100" s="11">
         <f t="shared" si="9"/>
-        <v>344500000</v>
+        <v>348475000</v>
       </c>
       <c r="J100" s="54">
         <f t="shared" si="10"/>
@@ -19504,7 +19544,7 @@
       </c>
       <c r="K100" s="54">
         <f t="shared" si="11"/>
-        <v>344500000</v>
+        <v>348475000</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -19529,7 +19569,7 @@
       </c>
       <c r="G101" s="37">
         <f t="shared" si="7"/>
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H101" s="37">
         <f t="shared" si="8"/>
@@ -19537,11 +19577,11 @@
       </c>
       <c r="I101" s="11">
         <f t="shared" si="9"/>
-        <v>16243335</v>
+        <v>16443870</v>
       </c>
       <c r="J101" s="54">
         <f t="shared" si="10"/>
-        <v>16243335</v>
+        <v>16443870</v>
       </c>
       <c r="K101" s="54">
         <f t="shared" si="11"/>
@@ -19570,7 +19610,7 @@
       </c>
       <c r="G102" s="37">
         <f t="shared" si="7"/>
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H102" s="37">
         <f t="shared" si="8"/>
@@ -19578,7 +19618,7 @@
       </c>
       <c r="I102" s="11">
         <f t="shared" si="9"/>
-        <v>720000000</v>
+        <v>729000000</v>
       </c>
       <c r="J102" s="54">
         <f t="shared" si="10"/>
@@ -19586,7 +19626,7 @@
       </c>
       <c r="K102" s="54">
         <f t="shared" si="11"/>
-        <v>720000000</v>
+        <v>729000000</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -19611,7 +19651,7 @@
       </c>
       <c r="G103" s="37">
         <f t="shared" si="7"/>
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H103" s="37">
         <f t="shared" si="8"/>
@@ -19619,11 +19659,11 @@
       </c>
       <c r="I103" s="11">
         <f t="shared" si="9"/>
-        <v>-234000000</v>
+        <v>-237000000</v>
       </c>
       <c r="J103" s="54">
         <f t="shared" si="10"/>
-        <v>-234000000</v>
+        <v>-237000000</v>
       </c>
       <c r="K103" s="54">
         <f t="shared" si="11"/>
@@ -19652,7 +19692,7 @@
       </c>
       <c r="G104" s="37">
         <f t="shared" si="7"/>
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H104" s="37">
         <f t="shared" si="8"/>
@@ -19660,11 +19700,11 @@
       </c>
       <c r="I104" s="11">
         <f t="shared" si="9"/>
-        <v>669000000</v>
+        <v>678000000</v>
       </c>
       <c r="J104" s="54">
         <f t="shared" si="10"/>
-        <v>669000000</v>
+        <v>678000000</v>
       </c>
       <c r="K104" s="54">
         <f t="shared" si="11"/>
@@ -19693,7 +19733,7 @@
       </c>
       <c r="G105" s="37">
         <f t="shared" si="7"/>
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H105" s="37">
         <f t="shared" si="8"/>
@@ -19701,11 +19741,11 @@
       </c>
       <c r="I105" s="11">
         <f t="shared" si="9"/>
-        <v>248640000</v>
+        <v>252000000</v>
       </c>
       <c r="J105" s="54">
         <f t="shared" si="10"/>
-        <v>248640000</v>
+        <v>252000000</v>
       </c>
       <c r="K105" s="54">
         <f t="shared" si="11"/>
@@ -19734,7 +19774,7 @@
       </c>
       <c r="G106" s="37">
         <f t="shared" si="7"/>
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H106" s="37">
         <f t="shared" si="8"/>
@@ -19742,7 +19782,7 @@
       </c>
       <c r="I106" s="11">
         <f t="shared" si="9"/>
-        <v>-669000000</v>
+        <v>-678000000</v>
       </c>
       <c r="J106" s="54">
         <f t="shared" si="10"/>
@@ -19750,7 +19790,7 @@
       </c>
       <c r="K106" s="54">
         <f t="shared" si="11"/>
-        <v>-669000000</v>
+        <v>-678000000</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -19775,7 +19815,7 @@
       </c>
       <c r="G107" s="37">
         <f t="shared" si="7"/>
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H107" s="37">
         <f t="shared" si="8"/>
@@ -19783,15 +19823,15 @@
       </c>
       <c r="I107" s="11">
         <f t="shared" si="9"/>
-        <v>19275222</v>
+        <v>19546704</v>
       </c>
       <c r="J107" s="54">
         <f t="shared" si="10"/>
-        <v>15999495</v>
+        <v>16224840</v>
       </c>
       <c r="K107" s="54">
         <f t="shared" si="11"/>
-        <v>3275727</v>
+        <v>3321864</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -19816,7 +19856,7 @@
       </c>
       <c r="G108" s="37">
         <f t="shared" si="7"/>
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H108" s="37">
         <f t="shared" si="8"/>
@@ -19824,7 +19864,7 @@
       </c>
       <c r="I108" s="11">
         <f t="shared" si="9"/>
-        <v>-360548400</v>
+        <v>-365650500</v>
       </c>
       <c r="J108" s="54">
         <f t="shared" si="10"/>
@@ -19832,7 +19872,7 @@
       </c>
       <c r="K108" s="54">
         <f t="shared" si="11"/>
-        <v>-360548400</v>
+        <v>-365650500</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -19857,7 +19897,7 @@
       </c>
       <c r="G109" s="37">
         <f t="shared" si="7"/>
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H109" s="37">
         <f t="shared" si="8"/>
@@ -19865,7 +19905,7 @@
       </c>
       <c r="I109" s="11">
         <f t="shared" si="9"/>
-        <v>-208104000</v>
+        <v>-211105500</v>
       </c>
       <c r="J109" s="54">
         <f t="shared" si="10"/>
@@ -19873,7 +19913,7 @@
       </c>
       <c r="K109" s="54">
         <f t="shared" si="11"/>
-        <v>-208104000</v>
+        <v>-211105500</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -19898,7 +19938,7 @@
       </c>
       <c r="G110" s="37">
         <f t="shared" si="7"/>
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H110" s="37">
         <f t="shared" si="8"/>
@@ -19906,7 +19946,7 @@
       </c>
       <c r="I110" s="11">
         <f t="shared" si="9"/>
-        <v>4080000000</v>
+        <v>4140000000</v>
       </c>
       <c r="J110" s="54">
         <f t="shared" si="10"/>
@@ -19914,7 +19954,7 @@
       </c>
       <c r="K110" s="54">
         <f t="shared" si="11"/>
-        <v>4080000000</v>
+        <v>4140000000</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -19939,7 +19979,7 @@
       </c>
       <c r="G111" s="37">
         <f t="shared" si="7"/>
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H111" s="37">
         <f t="shared" si="8"/>
@@ -19947,15 +19987,15 @@
       </c>
       <c r="I111" s="11">
         <f t="shared" si="9"/>
-        <v>32140752</v>
+        <v>32664786</v>
       </c>
       <c r="J111" s="54">
         <f t="shared" si="10"/>
-        <v>16074792</v>
+        <v>16336881</v>
       </c>
       <c r="K111" s="54">
         <f t="shared" si="11"/>
-        <v>16065960</v>
+        <v>16327905</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -19980,7 +20020,7 @@
       </c>
       <c r="G112" s="37">
         <f t="shared" si="7"/>
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H112" s="37">
         <f t="shared" si="8"/>
@@ -19988,7 +20028,7 @@
       </c>
       <c r="I112" s="11">
         <f t="shared" si="9"/>
-        <v>-4799600000</v>
+        <v>-4884800000</v>
       </c>
       <c r="J112" s="54">
         <f t="shared" si="10"/>
@@ -19996,7 +20036,7 @@
       </c>
       <c r="K112" s="54">
         <f t="shared" si="11"/>
-        <v>-4799600000</v>
+        <v>-4884800000</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -20021,7 +20061,7 @@
       </c>
       <c r="G113" s="37">
         <f t="shared" si="7"/>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H113" s="37">
         <f t="shared" si="8"/>
@@ -20029,15 +20069,15 @@
       </c>
       <c r="I113" s="11">
         <f t="shared" si="9"/>
-        <v>24945120</v>
+        <v>25434240</v>
       </c>
       <c r="J113" s="54">
         <f t="shared" si="10"/>
-        <v>18744183</v>
+        <v>19111716</v>
       </c>
       <c r="K113" s="54">
         <f t="shared" si="11"/>
-        <v>6200937</v>
+        <v>6322524</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -20062,7 +20102,7 @@
       </c>
       <c r="G114" s="37">
         <f t="shared" si="7"/>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H114" s="37">
         <f t="shared" si="8"/>
@@ -20070,15 +20110,15 @@
       </c>
       <c r="I114" s="11">
         <f t="shared" si="9"/>
-        <v>-877800</v>
+        <v>-894900</v>
       </c>
       <c r="J114" s="54">
         <f t="shared" si="10"/>
-        <v>-385000</v>
+        <v>-392500</v>
       </c>
       <c r="K114" s="54">
         <f t="shared" si="11"/>
-        <v>-492800</v>
+        <v>-502400</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -20103,7 +20143,7 @@
       </c>
       <c r="G115" s="37">
         <f t="shared" si="7"/>
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H115" s="37">
         <f t="shared" si="8"/>
@@ -20115,11 +20155,11 @@
       </c>
       <c r="J115" s="54">
         <f t="shared" si="10"/>
-        <v>70500000</v>
+        <v>72000000</v>
       </c>
       <c r="K115" s="54">
         <f t="shared" si="11"/>
-        <v>-70500000</v>
+        <v>-72000000</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -20144,7 +20184,7 @@
       </c>
       <c r="G116" s="37">
         <f t="shared" si="7"/>
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H116" s="37">
         <f t="shared" si="8"/>
@@ -20152,7 +20192,7 @@
       </c>
       <c r="I116" s="11">
         <f t="shared" si="9"/>
-        <v>-21280000</v>
+        <v>-21760000</v>
       </c>
       <c r="J116" s="54">
         <f t="shared" si="10"/>
@@ -20160,7 +20200,7 @@
       </c>
       <c r="K116" s="54">
         <f t="shared" si="11"/>
-        <v>-21280000</v>
+        <v>-21760000</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -20185,7 +20225,7 @@
       </c>
       <c r="G117" s="37">
         <f t="shared" si="7"/>
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H117" s="37">
         <f t="shared" si="8"/>
@@ -20193,21 +20233,21 @@
       </c>
       <c r="I117" s="11">
         <f t="shared" si="9"/>
-        <v>182040</v>
+        <v>186480</v>
       </c>
       <c r="J117" s="54">
         <f t="shared" si="10"/>
-        <v>13153743</v>
+        <v>13474566</v>
       </c>
       <c r="K117" s="54">
         <f t="shared" si="11"/>
-        <v>-12971703</v>
+        <v>-13288086</v>
       </c>
       <c r="N117" s="3"/>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B118" s="18">
         <v>39399500</v>
@@ -20220,14 +20260,14 @@
         <v>39399500</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F118" s="37">
         <v>9</v>
       </c>
       <c r="G118" s="37">
         <f t="shared" si="7"/>
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H118" s="37">
         <f t="shared" si="8"/>
@@ -20235,7 +20275,7 @@
       </c>
       <c r="I118" s="11">
         <f t="shared" si="9"/>
-        <v>3979349500</v>
+        <v>4097548000</v>
       </c>
       <c r="J118" s="54">
         <f t="shared" si="10"/>
@@ -20243,13 +20283,13 @@
       </c>
       <c r="K118" s="54">
         <f t="shared" si="11"/>
-        <v>3979349500</v>
+        <v>4097548000</v>
       </c>
       <c r="O118" s="7"/>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B119" s="40">
         <v>95521</v>
@@ -20262,14 +20302,14 @@
         <v>-14533</v>
       </c>
       <c r="E119" s="23" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F119" s="37">
         <v>4</v>
       </c>
       <c r="G119" s="37">
         <f t="shared" si="7"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H119" s="37">
         <f t="shared" si="8"/>
@@ -20277,20 +20317,20 @@
       </c>
       <c r="I119" s="11">
         <f t="shared" si="9"/>
-        <v>8787932</v>
+        <v>9074495</v>
       </c>
       <c r="J119" s="54">
         <f t="shared" si="10"/>
-        <v>10124968</v>
+        <v>10455130</v>
       </c>
       <c r="K119" s="54">
         <f t="shared" si="11"/>
-        <v>-1337036</v>
+        <v>-1380635</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B120" s="18">
         <v>2000000</v>
@@ -20303,14 +20343,14 @@
         <v>2000000</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F120" s="11">
         <v>26</v>
       </c>
       <c r="G120" s="37">
         <f t="shared" si="7"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H120" s="11">
         <f t="shared" si="8"/>
@@ -20318,7 +20358,7 @@
       </c>
       <c r="I120" s="11">
         <f t="shared" ref="I120:I142" si="13">B120*(G120-H120)</f>
-        <v>176000000</v>
+        <v>182000000</v>
       </c>
       <c r="J120" s="11">
         <f t="shared" si="10"/>
@@ -20326,13 +20366,13 @@
       </c>
       <c r="K120" s="11">
         <f t="shared" si="11"/>
-        <v>176000000</v>
+        <v>182000000</v>
       </c>
       <c r="N120" s="7"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B121" s="18">
         <v>2600000</v>
@@ -20345,14 +20385,14 @@
         <v>2600000</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F121" s="11">
         <v>1</v>
       </c>
       <c r="G121" s="37">
         <f t="shared" si="7"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H121" s="11">
         <f t="shared" si="8"/>
@@ -20360,7 +20400,7 @@
       </c>
       <c r="I121" s="11">
         <f t="shared" si="13"/>
-        <v>161200000</v>
+        <v>169000000</v>
       </c>
       <c r="J121" s="11">
         <f t="shared" si="10"/>
@@ -20368,12 +20408,12 @@
       </c>
       <c r="K121" s="11">
         <f t="shared" si="11"/>
-        <v>161200000</v>
+        <v>169000000</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B122" s="40">
         <v>384551</v>
@@ -20386,14 +20426,14 @@
         <v>273643</v>
       </c>
       <c r="E122" s="23" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F122" s="11">
         <v>1</v>
       </c>
       <c r="G122" s="37">
         <f t="shared" si="7"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H122" s="11">
         <f t="shared" si="8"/>
@@ -20401,15 +20441,15 @@
       </c>
       <c r="I122" s="11">
         <f t="shared" si="13"/>
-        <v>23457611</v>
+        <v>24611264</v>
       </c>
       <c r="J122" s="11">
         <f t="shared" si="10"/>
-        <v>6765388</v>
+        <v>7098112</v>
       </c>
       <c r="K122" s="11">
         <f t="shared" si="11"/>
-        <v>16692223</v>
+        <v>17513152</v>
       </c>
       <c r="N122" t="s">
         <v>25</v>
@@ -20417,7 +20457,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B123" s="18">
         <v>0</v>
@@ -20430,14 +20470,14 @@
         <v>-800000</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F123" s="11">
         <v>14</v>
       </c>
       <c r="G123" s="37">
         <f t="shared" si="7"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H123" s="11">
         <f t="shared" si="8"/>
@@ -20449,16 +20489,16 @@
       </c>
       <c r="J123" s="11">
         <f t="shared" si="10"/>
-        <v>48800000</v>
+        <v>51200000</v>
       </c>
       <c r="K123" s="11">
         <f t="shared" si="11"/>
-        <v>-48800000</v>
+        <v>-51200000</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B124" s="18">
         <v>-3000000</v>
@@ -20471,14 +20511,14 @@
         <v>-3000000</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F124" s="11">
         <v>15</v>
       </c>
       <c r="G124" s="37">
         <f t="shared" si="7"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H124" s="11">
         <f t="shared" si="8"/>
@@ -20486,7 +20526,7 @@
       </c>
       <c r="I124" s="11">
         <f t="shared" si="13"/>
-        <v>-141000000</v>
+        <v>-150000000</v>
       </c>
       <c r="J124" s="11">
         <f t="shared" si="10"/>
@@ -20494,12 +20534,12 @@
       </c>
       <c r="K124" s="11">
         <f t="shared" si="11"/>
-        <v>-141000000</v>
+        <v>-150000000</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B125" s="18">
         <v>400710</v>
@@ -20512,14 +20552,14 @@
         <v>281835</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F125" s="11">
         <v>0</v>
       </c>
       <c r="G125" s="37">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H125" s="11">
         <f t="shared" si="8"/>
@@ -20527,20 +20567,20 @@
       </c>
       <c r="I125" s="11">
         <f t="shared" si="13"/>
-        <v>12422010</v>
+        <v>13624140</v>
       </c>
       <c r="J125" s="11">
         <f t="shared" si="10"/>
-        <v>3685125</v>
+        <v>4041750</v>
       </c>
       <c r="K125" s="11">
         <f t="shared" si="11"/>
-        <v>8736885</v>
+        <v>9582390</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B126" s="18">
         <v>42000000</v>
@@ -20560,7 +20600,7 @@
       </c>
       <c r="G126" s="37">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H126" s="11">
         <f t="shared" si="8"/>
@@ -20568,7 +20608,7 @@
       </c>
       <c r="I126" s="11">
         <f t="shared" si="13"/>
-        <v>1302000000</v>
+        <v>1428000000</v>
       </c>
       <c r="J126" s="11">
         <f t="shared" si="10"/>
@@ -20576,12 +20616,12 @@
       </c>
       <c r="K126" s="11">
         <f t="shared" si="11"/>
-        <v>1302000000</v>
+        <v>1428000000</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B127" s="18">
         <v>-5000</v>
@@ -20601,7 +20641,7 @@
       </c>
       <c r="G127" s="37">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H127" s="11">
         <f t="shared" si="8"/>
@@ -20609,7 +20649,7 @@
       </c>
       <c r="I127" s="11">
         <f t="shared" si="13"/>
-        <v>-35000</v>
+        <v>-50000</v>
       </c>
       <c r="J127" s="11">
         <f t="shared" si="10"/>
@@ -20617,12 +20657,12 @@
       </c>
       <c r="K127" s="11">
         <f t="shared" si="11"/>
-        <v>-35000</v>
+        <v>-50000</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B128" s="18">
         <v>771374</v>
@@ -20635,14 +20675,14 @@
         <v>650677</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F128" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G128" s="37">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H128" s="11">
         <f t="shared" si="8"/>
@@ -20650,31 +20690,44 @@
       </c>
       <c r="I128" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2314122</v>
       </c>
       <c r="J128" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>362091</v>
       </c>
       <c r="K128" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1952031</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="11"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
+      <c r="A129" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="B129" s="18">
+        <v>2500000</v>
+      </c>
+      <c r="C129" s="18">
+        <v>0</v>
+      </c>
+      <c r="D129" s="18">
+        <f t="shared" si="12"/>
+        <v>2500000</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="F129" s="11">
+        <v>1</v>
+      </c>
       <c r="G129" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" s="11">
         <f t="shared" si="13"/>
@@ -21065,7 +21118,7 @@
       <c r="A143" s="11"/>
       <c r="B143" s="29">
         <f>SUM(B2:B142)</f>
-        <v>84703482</v>
+        <v>87203482</v>
       </c>
       <c r="C143" s="29">
         <f>SUM(C2:C141)</f>
@@ -21073,7 +21126,7 @@
       </c>
       <c r="D143" s="29">
         <f>SUM(D2:D141)</f>
-        <v>71659484</v>
+        <v>74159484</v>
       </c>
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
@@ -21081,15 +21134,15 @@
       <c r="H143" s="11"/>
       <c r="I143" s="29">
         <f>SUM(I2:I142)</f>
-        <v>10847651725</v>
+        <v>11101762171</v>
       </c>
       <c r="J143" s="29">
         <f>SUM(J2:J142)</f>
-        <v>4885321759</v>
+        <v>4924453753</v>
       </c>
       <c r="K143" s="29">
         <f>SUM(K2:K142)</f>
-        <v>5962329966</v>
+        <v>6177308418</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -21141,15 +21194,15 @@
       <c r="H146" s="11"/>
       <c r="I146" s="3">
         <f>I143/G2</f>
-        <v>20390322.791353382</v>
+        <v>20750957.328971963</v>
       </c>
       <c r="J146" s="29">
         <f>J143/G2</f>
-        <v>9182935.6372180451</v>
+        <v>9204586.454205608</v>
       </c>
       <c r="K146" s="29">
         <f>K143/G2</f>
-        <v>11207387.154135339</v>
+        <v>11546370.874766355</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -21174,11 +21227,11 @@
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J150">
         <f>J143/I143*1448696</f>
-        <v>652431.16855102242</v>
+        <v>642603.97081749805</v>
       </c>
       <c r="K150">
         <f>K143/I143*1448696</f>
-        <v>796264.83144897758</v>
+        <v>806092.02918250195</v>
       </c>
     </row>
   </sheetData>
@@ -23803,7 +23856,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B4" s="18">
         <v>39399500</v>
@@ -23816,7 +23869,7 @@
         <v>39399500</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -24779,7 +24832,7 @@
         <v>1000000</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -24787,7 +24840,7 @@
         <v>600000</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -24795,7 +24848,7 @@
         <v>-40000</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.25">
@@ -24911,7 +24964,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B2" s="3">
         <f>'خرداد 96'!B24</f>
@@ -24955,7 +25008,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B3" s="40">
         <v>95521</v>
@@ -24968,7 +25021,7 @@
         <v>-14533</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -24997,7 +25050,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B4" s="18">
         <v>2000000</v>
@@ -25010,7 +25063,7 @@
         <v>2000000</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F4">
         <v>26</v>
@@ -25039,7 +25092,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B5" s="18">
         <v>2600000</v>
@@ -25052,7 +25105,7 @@
         <v>2600000</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -25900,7 +25953,7 @@
         <v>1342800</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>414</v>
@@ -25927,7 +25980,7 @@
         <v>-44000</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -25944,7 +25997,7 @@
         <v>-25000</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -25958,7 +26011,7 @@
         <v>-13000</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -25966,7 +26019,7 @@
         <v>200000</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -25974,7 +26027,7 @@
         <v>-120000</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -25982,7 +26035,7 @@
         <v>200000</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -26105,7 +26158,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B2" s="3">
         <f>'تیر 96'!B24</f>
@@ -26149,7 +26202,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B3" s="40">
         <v>384551</v>
@@ -26162,7 +26215,7 @@
         <v>273643</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -26191,7 +26244,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -26204,7 +26257,7 @@
         <v>-800000</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -26233,7 +26286,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B5" s="18">
         <v>-3000000</v>
@@ -26246,7 +26299,7 @@
         <v>-3000000</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F5">
         <v>16</v>
@@ -27094,7 +27147,7 @@
         <v>-65000</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>414</v>
@@ -27121,7 +27174,7 @@
         <v>-28000</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -27138,7 +27191,7 @@
         <v>100000</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -27152,7 +27205,7 @@
         <v>200000</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -27160,7 +27213,7 @@
         <v>27470</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -27168,7 +27221,7 @@
         <v>334000</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -27176,7 +27229,7 @@
         <v>400000</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -27184,7 +27237,7 @@
         <v>200000</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.25">
@@ -27285,7 +27338,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B2" s="3">
         <f>'مرداد 96'!B24</f>
@@ -27329,7 +27382,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B3" s="40">
         <v>400710</v>
@@ -27342,7 +27395,7 @@
         <v>281835</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -27371,7 +27424,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B4" s="18">
         <v>42000000</v>
@@ -27413,7 +27466,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B5" s="18">
         <v>-5000</v>
@@ -28274,7 +28327,7 @@
         <v>-3000000</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>414</v>
@@ -28301,7 +28354,7 @@
         <v>200000</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -28318,7 +28371,7 @@
         <v>2200700</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -28332,7 +28385,7 @@
         <v>-2000000</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -28340,7 +28393,7 @@
         <v>141950</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -28348,7 +28401,7 @@
         <v>800500</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -28356,7 +28409,7 @@
         <v>-100000</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -28814,10 +28867,10 @@
         <v>410021971552</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="N9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="O9" t="s">
         <v>295</v>
@@ -30169,13 +30222,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B54" s="39">
         <v>-1000396</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D54" s="11">
         <v>6</v>
@@ -30195,13 +30248,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B55" s="39">
         <v>-40000000</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D55" s="11">
         <v>9</v>
@@ -30221,13 +30274,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B56" s="39">
         <v>865652</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D56" s="11">
         <v>27</v>
@@ -30247,13 +30300,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B57" s="39">
         <v>-50200000</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D57" s="11">
         <v>1</v>
@@ -30273,13 +30326,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B58" s="39">
         <v>-12200500</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D58" s="11">
         <v>3</v>
@@ -30299,13 +30352,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B59" s="39">
         <v>534906</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D59" s="11">
         <v>1</v>
@@ -30325,13 +30378,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B60" s="39">
         <v>-338000</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -30351,13 +30404,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B61" s="39">
         <v>-150000</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D61" s="11">
         <v>4</v>
@@ -30377,7 +30430,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B62" s="39">
         <v>-100000</v>
@@ -30403,7 +30456,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B63" s="39">
         <v>-200000</v>
@@ -30435,7 +30488,7 @@
         <v>-87000</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D64" s="11">
         <v>4</v>
@@ -30455,13 +30508,13 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B65" s="39">
         <v>-27470</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D65" s="11">
         <v>1</v>
@@ -30481,13 +30534,13 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B66" s="39">
         <v>-334000</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D66" s="11">
         <v>5</v>
@@ -30507,13 +30560,13 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B67" s="39">
         <v>-20000</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D67" s="11">
         <v>1</v>
@@ -30533,13 +30586,13 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B68" s="39">
         <v>-300500</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D68" s="11">
         <v>0</v>
@@ -30559,13 +30612,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B69" s="39">
         <v>-100000</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D69" s="11">
         <v>5</v>
@@ -30585,7 +30638,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B70" s="39">
         <v>-200000</v>
@@ -30611,13 +30664,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B71" s="39">
         <v>15389</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D71" s="11">
         <v>0</v>
@@ -30637,13 +30690,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B72" s="39">
         <v>4000000</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D72" s="11">
         <v>0</v>
@@ -30663,13 +30716,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B73" s="39">
         <v>2600000</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D73" s="11">
         <v>0</v>
@@ -30692,13 +30745,13 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B74" s="39">
         <v>3000000</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D74" s="11">
         <v>3</v>
@@ -30718,7 +30771,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B75" s="39">
         <v>-200000</v>
@@ -30744,13 +30797,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B76" s="39">
         <v>-2000700</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D76" s="11">
         <v>0</v>
@@ -30770,7 +30823,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B77" s="39">
         <v>-200000</v>
@@ -30796,13 +30849,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B78" s="39">
         <v>2000000</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D78" s="11">
         <v>8</v>
@@ -30825,13 +30878,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B79" s="39">
         <v>-1000500</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D79" s="11">
         <v>0</v>
@@ -30851,13 +30904,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B80" s="39">
         <v>-141950</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D80" s="11">
         <v>3</v>
@@ -30877,13 +30930,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B81" s="39">
         <v>-900500</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D81" s="11">
         <v>10</v>
@@ -30903,13 +30956,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B82" s="39">
         <v>81251</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D82" s="11">
         <v>1</v>
@@ -31123,7 +31176,7 @@
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="102" spans="7:7" x14ac:dyDescent="0.25">
@@ -31141,9 +31194,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G149" sqref="G149"/>
+      <selection pane="bottomLeft" activeCell="B145" sqref="B145:B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31193,7 +31246,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -31201,7 +31254,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>46706100</v>
+        <v>47673100</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -31219,7 +31272,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -31227,7 +31280,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1443000000</v>
+        <v>1473000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -31243,7 +31296,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -31251,7 +31304,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-95800000</v>
+        <v>-97800000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -31267,7 +31320,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -31275,7 +31328,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-47700000</v>
+        <v>-48700000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -31291,7 +31344,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -31299,7 +31352,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-26180000</v>
+        <v>-26730000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -31315,7 +31368,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -31323,7 +31376,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-95000000</v>
+        <v>-97000000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -31339,7 +31392,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -31347,7 +31400,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-94200000</v>
+        <v>-96200000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -31363,7 +31416,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -31371,7 +31424,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-438180500</v>
+        <v>-447685500</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -31387,7 +31440,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -31395,7 +31448,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>918000000</v>
+        <v>938000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -31411,7 +31464,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -31419,7 +31472,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-487770000</v>
+        <v>-498420000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -31435,7 +31488,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -31443,7 +31496,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-20475000</v>
+        <v>-20925000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -31459,7 +31512,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -31467,7 +31520,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-908317800</v>
+        <v>-928324800</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -31483,7 +31536,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -31491,7 +31544,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-90000000</v>
+        <v>-92000000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -31507,7 +31560,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -31515,7 +31568,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>894000000</v>
+        <v>914000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -31531,7 +31584,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -31539,7 +31592,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>894000000</v>
+        <v>914000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -31555,7 +31608,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -31563,7 +31616,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>536400000</v>
+        <v>548400000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -31579,7 +31632,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -31587,7 +31640,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>447000000</v>
+        <v>457000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -31603,7 +31656,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -31611,7 +31664,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1338000000</v>
+        <v>1368000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -31630,7 +31683,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -31638,7 +31691,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-193416900</v>
+        <v>-197743900</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -31654,7 +31707,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -31662,7 +31715,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-193416900</v>
+        <v>-197743900</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -31678,7 +31731,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -31686,7 +31739,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-193416900</v>
+        <v>-197743900</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -31702,7 +31755,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -31710,7 +31763,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-193416900</v>
+        <v>-197743900</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -31726,7 +31779,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -31734,7 +31787,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-193416900</v>
+        <v>-197743900</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -31750,7 +31803,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -31758,7 +31811,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-89400000</v>
+        <v>-91400000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -31774,7 +31827,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -31782,7 +31835,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1335000000</v>
+        <v>1365000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -31798,7 +31851,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -31806,7 +31859,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-88800000</v>
+        <v>-90800000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -31822,7 +31875,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -31830,7 +31883,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>884000000</v>
+        <v>904000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -31846,7 +31899,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -31854,7 +31907,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-3094353600</v>
+        <v>-3164361600</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -31870,7 +31923,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -31878,7 +31931,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1323396900</v>
+        <v>-1353405900</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -31894,7 +31947,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -31902,7 +31955,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-746196000</v>
+        <v>-763155000</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -31918,7 +31971,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -31926,7 +31979,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>433514800</v>
+        <v>443457800</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -31942,7 +31995,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -31950,7 +32003,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>15089130</v>
+        <v>15440040</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>381</v>
@@ -31968,7 +32021,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -31976,7 +32029,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-365500000</v>
+        <v>-374000000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -31992,7 +32045,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -32000,7 +32053,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-80391000</v>
+        <v>-82296000</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -32016,7 +32069,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -32024,7 +32077,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>84000000</v>
+        <v>86000000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -32040,7 +32093,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -32048,7 +32101,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-84200000</v>
+        <v>-86200000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -32064,7 +32117,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -32072,7 +32125,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>119720788</v>
+        <v>122728848</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>401</v>
@@ -32090,7 +32143,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -32098,7 +32151,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-37810000</v>
+        <v>-38760000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -32114,7 +32167,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -32122,7 +32175,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-35064994</v>
+        <v>-35946024</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -32138,7 +32191,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -32146,7 +32199,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-47160000</v>
+        <v>-48360000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -32162,7 +32215,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -32170,7 +32223,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>370075480</v>
+        <v>380077520</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>402</v>
@@ -32188,7 +32241,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -32196,7 +32249,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-29360000</v>
+        <v>-30160000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -32212,7 +32265,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -32220,7 +32273,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-76603527</v>
+        <v>-78713817</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -32236,7 +32289,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -32244,7 +32297,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-72400000</v>
+        <v>-74400000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -32260,7 +32313,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -32268,7 +32321,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-34295000</v>
+        <v>-35245000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -32284,7 +32337,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -32292,7 +32345,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-16155000</v>
+        <v>-16605000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -32308,7 +32361,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -32316,7 +32369,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-23040620</v>
+        <v>-23682420</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -32332,7 +32385,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -32340,7 +32393,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-9784304</v>
+        <v>-10059144</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -32356,7 +32409,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -32364,7 +32417,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-50055000</v>
+        <v>-51465000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -32380,7 +32433,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -32388,7 +32441,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-9494830</v>
+        <v>-9762290</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -32404,7 +32457,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -32412,7 +32465,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-18868200</v>
+        <v>-19401200</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -32428,7 +32481,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -32436,7 +32489,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>352000000</v>
+        <v>362000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -32452,7 +32505,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -32460,7 +32513,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-7287000</v>
+        <v>-7497000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -32476,7 +32529,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -32484,7 +32537,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-339253000</v>
+        <v>-349058000</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -32500,7 +32553,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -32508,7 +32561,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-15570000</v>
+        <v>-16020000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -32524,7 +32577,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -32532,7 +32585,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>997722748</v>
+        <v>1027774638</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>403</v>
@@ -32550,7 +32603,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -32558,7 +32611,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>664000000</v>
+        <v>684000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -32574,7 +32627,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -32582,7 +32635,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>662000000</v>
+        <v>682000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -32598,7 +32651,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -32606,7 +32659,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-2324498000</v>
+        <v>-2394513000</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -32622,7 +32675,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -32630,7 +32683,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>921000000</v>
+        <v>951000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -32646,7 +32699,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -32654,7 +32707,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-8322463</v>
+        <v>-8593553</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -32670,7 +32723,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -32678,7 +32731,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-10127623</v>
+        <v>-10457513</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -32694,7 +32747,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -32702,7 +32755,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>918000000</v>
+        <v>948000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -32718,7 +32771,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -32726,7 +32779,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>908820000</v>
+        <v>938520000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -32742,7 +32795,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -32750,7 +32803,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>306000000</v>
+        <v>316000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -32766,7 +32819,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -32774,7 +32827,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F158" si="5">B67*(D67-E67)</f>
-        <v>9180000</v>
+        <v>9480000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -32790,7 +32843,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -32798,7 +32851,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>9150000000</v>
+        <v>9450000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -32814,7 +32867,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -32822,7 +32875,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-61000000</v>
+        <v>-63000000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -32838,7 +32891,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -32846,7 +32899,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>425600000</v>
+        <v>439600000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -32862,7 +32915,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -32870,7 +32923,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>790400000</v>
+        <v>816400000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -32886,7 +32939,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -32894,7 +32947,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-305000000</v>
+        <v>-315000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -32910,7 +32963,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -32918,7 +32971,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>4530000000</v>
+        <v>4680000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -32934,7 +32987,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -32942,7 +32995,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-4471251600</v>
+        <v>-4621293600</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -32958,7 +33011,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -32966,7 +33019,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-888000000</v>
+        <v>-918000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -32982,7 +33035,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -32990,7 +33043,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-59200000</v>
+        <v>-61200000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -33006,7 +33059,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -33014,7 +33067,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-3552888000</v>
+        <v>-3672918000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -33030,7 +33083,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -33038,7 +33091,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-876262800</v>
+        <v>-906271800</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -33054,7 +33107,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -33062,7 +33115,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>6578000000</v>
+        <v>6808000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -33078,7 +33131,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -33086,7 +33139,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-169341000</v>
+        <v>-175346000</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -33102,7 +33155,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -33110,7 +33163,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-56400000</v>
+        <v>-58400000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -33126,7 +33179,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -33134,7 +33187,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>79301880</v>
+        <v>82134090</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -33152,7 +33205,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -33160,7 +33213,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-56200000</v>
+        <v>-58200000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -33176,7 +33229,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -33184,7 +33237,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>556000000</v>
+        <v>576000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -33200,7 +33253,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -33208,7 +33261,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-55200000</v>
+        <v>-57200000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -33224,7 +33277,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -33232,7 +33285,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-54000000</v>
+        <v>-56000000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -33248,7 +33301,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -33256,7 +33309,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-355100000</v>
+        <v>-368350000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -33272,7 +33325,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -33280,7 +33333,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-126500000</v>
+        <v>-131500000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -33296,7 +33349,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -33304,7 +33357,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-30360000</v>
+        <v>-31560000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -33320,7 +33373,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -33328,7 +33381,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>107051250</v>
+        <v>111333300</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -33346,7 +33399,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -33354,7 +33407,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-744496000</v>
+        <v>-774516000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>343</v>
@@ -33372,7 +33425,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -33380,7 +33433,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-50430000</v>
+        <v>-52480000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>344</v>
@@ -33398,7 +33451,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -33406,7 +33459,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-86223000</v>
+        <v>-89728000</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>341</v>
@@ -33424,7 +33477,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -33432,7 +33485,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>234000000</v>
+        <v>244000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>339</v>
@@ -33450,7 +33503,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -33458,7 +33511,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>2061000000</v>
+        <v>2151000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>351</v>
@@ -33477,7 +33530,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -33485,7 +33538,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-5928000000</v>
+        <v>-6188000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>353</v>
@@ -33503,7 +33556,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -33511,7 +33564,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-5928000000</v>
+        <v>-6188000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -33527,7 +33580,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -33535,7 +33588,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>5902000000</v>
+        <v>6162000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -33551,7 +33604,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -33559,7 +33612,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-45600000</v>
+        <v>-47600000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -33578,7 +33631,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -33586,7 +33639,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>6570000000</v>
+        <v>6862000000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -33602,7 +33655,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -33610,7 +33663,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>87987900</v>
+        <v>91987350</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>406</v>
@@ -33628,7 +33681,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -33636,7 +33689,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>438000000</v>
+        <v>458000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>408</v>
@@ -33654,7 +33707,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -33662,7 +33715,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>1635000000</v>
+        <v>1710000000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>416</v>
@@ -33680,7 +33733,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -33688,7 +33741,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-14454000000</v>
+        <v>-15114000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>430</v>
@@ -33706,7 +33759,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -33714,7 +33767,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-31755000</v>
+        <v>-33205000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>431</v>
@@ -33732,7 +33785,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -33740,7 +33793,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>1296000000</v>
+        <v>1356000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>432</v>
@@ -33758,7 +33811,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -33766,7 +33819,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-1291268500</v>
+        <v>-1351327500</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>442</v>
@@ -33784,7 +33837,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -33792,7 +33845,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>1266000000</v>
+        <v>1326000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>450</v>
@@ -33810,7 +33863,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -33818,7 +33871,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-24000000</v>
+        <v>-25200000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>471</v>
@@ -33836,7 +33889,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -33844,7 +33897,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>792000000</v>
+        <v>832000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>473</v>
@@ -33862,7 +33915,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -33870,7 +33923,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>551600000</v>
+        <v>579600000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>478</v>
@@ -33888,7 +33941,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -33896,7 +33949,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-38800000</v>
+        <v>-40800000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>484</v>
@@ -33914,7 +33967,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -33922,7 +33975,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>13883520</v>
+        <v>14606620</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>513</v>
@@ -33940,7 +33993,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -33948,7 +34001,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-35200000</v>
+        <v>-37200000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>471</v>
@@ -33969,7 +34022,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -33977,7 +34030,7 @@
       </c>
       <c r="F115" s="23">
         <f t="shared" si="5"/>
-        <v>-1925000000</v>
+        <v>-2035000000</v>
       </c>
       <c r="G115" s="23" t="s">
         <v>514</v>
@@ -33995,7 +34048,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -34003,7 +34056,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-35000000</v>
+        <v>-37000000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>471</v>
@@ -34024,7 +34077,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -34032,7 +34085,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-77936500</v>
+        <v>-82441500</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>516</v>
@@ -34050,7 +34103,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -34058,7 +34111,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-34600000</v>
+        <v>-36600000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>517</v>
@@ -34079,7 +34132,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -34087,7 +34140,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-25809850</v>
+        <v>-27355350</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>520</v>
@@ -34105,7 +34158,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -34113,7 +34166,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-53440</v>
+        <v>-56640</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>521</v>
@@ -34131,7 +34184,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -34139,7 +34192,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-71712000</v>
+        <v>-76032000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>523</v>
@@ -34157,7 +34210,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -34165,7 +34218,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>11772837</v>
+        <v>12513267</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>525</v>
@@ -34183,7 +34236,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -34191,7 +34244,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-7228000</v>
+        <v>-7748000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>552</v>
@@ -34199,7 +34252,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B124" s="3">
         <v>1187</v>
@@ -34209,7 +34262,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -34217,15 +34270,15 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>115139</v>
+        <v>127009</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B125" s="3">
         <v>2400000</v>
@@ -34235,7 +34288,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -34243,15 +34296,15 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>230400000</v>
+        <v>254400000</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B126" s="3">
         <v>1342800</v>
@@ -34261,7 +34314,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -34269,15 +34322,15 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>126223200</v>
+        <v>139651200</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B127" s="3">
         <v>1342800</v>
@@ -34287,7 +34340,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -34295,15 +34348,15 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>126223200</v>
+        <v>139651200</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B128" s="3">
         <v>-200000</v>
@@ -34313,7 +34366,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -34321,7 +34374,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-16600000</v>
+        <v>-18600000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -34329,7 +34382,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B129" s="3">
         <v>-15618</v>
@@ -34339,7 +34392,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -34347,10 +34400,10 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-1265058</v>
+        <v>-1421238</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="K129" t="s">
         <v>25</v>
@@ -34358,7 +34411,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B130" s="3">
         <v>-200000</v>
@@ -34368,7 +34421,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -34376,7 +34429,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-16000000</v>
+        <v>-18000000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>517</v>
@@ -34384,7 +34437,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B131" s="3">
         <v>-200000</v>
@@ -34394,7 +34447,7 @@
       </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D158" si="6">D132+C131</f>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E158" si="7">IF(B131&gt;0,1,0)</f>
@@ -34402,15 +34455,15 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-15800000</v>
+        <v>-17800000</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B132" s="3">
         <v>-390000</v>
@@ -34420,7 +34473,7 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -34428,15 +34481,15 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>-30420000</v>
+        <v>-34320000</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B133" s="3">
         <v>-24500</v>
@@ -34446,7 +34499,7 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -34454,15 +34507,15 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>-1911000</v>
+        <v>-2156000</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B134" s="3">
         <v>-95000</v>
@@ -34472,7 +34525,7 @@
       </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -34480,7 +34533,7 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>-7315000</v>
+        <v>-8265000</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>471</v>
@@ -34488,7 +34541,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B135" s="3">
         <v>-200000</v>
@@ -34498,7 +34551,7 @@
       </c>
       <c r="D135" s="11">
         <f t="shared" si="6"/>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="7"/>
@@ -34506,15 +34559,15 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="5"/>
-        <v>-14600000</v>
+        <v>-16600000</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B136" s="3">
         <v>50000000</v>
@@ -34524,7 +34577,7 @@
       </c>
       <c r="D136" s="11">
         <f t="shared" si="6"/>
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="7"/>
@@ -34532,15 +34585,15 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="5"/>
-        <v>3500000000</v>
+        <v>4000000000</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B137" s="3">
         <v>12000000</v>
@@ -34550,7 +34603,7 @@
       </c>
       <c r="D137" s="11">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E137" s="11">
         <f t="shared" si="7"/>
@@ -34558,15 +34611,15 @@
       </c>
       <c r="F137" s="11">
         <f t="shared" si="5"/>
-        <v>828000000</v>
+        <v>948000000</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B138" s="3">
         <v>2000000</v>
@@ -34576,7 +34629,7 @@
       </c>
       <c r="D138" s="11">
         <f t="shared" si="6"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E138" s="11">
         <f t="shared" si="7"/>
@@ -34584,15 +34637,15 @@
       </c>
       <c r="F138" s="11">
         <f t="shared" si="5"/>
-        <v>134000000</v>
+        <v>154000000</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B139" s="3">
         <v>87538</v>
@@ -34602,7 +34655,7 @@
       </c>
       <c r="D139" s="11">
         <f t="shared" si="6"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E139" s="11">
         <f t="shared" si="7"/>
@@ -34610,7 +34663,7 @@
       </c>
       <c r="F139" s="11">
         <f t="shared" si="5"/>
-        <v>5777508</v>
+        <v>6652888</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>381</v>
@@ -34618,7 +34671,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B140" s="3">
         <v>-3000900</v>
@@ -34628,7 +34681,7 @@
       </c>
       <c r="D140" s="11">
         <f t="shared" si="6"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E140" s="11">
         <f t="shared" si="7"/>
@@ -34636,15 +34689,15 @@
       </c>
       <c r="F140" s="11">
         <f t="shared" si="5"/>
-        <v>-162048600</v>
+        <v>-192057600</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B141" s="3">
         <v>-3000900</v>
@@ -34654,7 +34707,7 @@
       </c>
       <c r="D141" s="11">
         <f t="shared" si="6"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E141" s="11">
         <f t="shared" si="7"/>
@@ -34662,10 +34715,10 @@
       </c>
       <c r="F141" s="11">
         <f t="shared" si="5"/>
-        <v>-159047700</v>
+        <v>-189056700</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K141" t="s">
         <v>25</v>
@@ -34673,7 +34726,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B142" s="3">
         <v>602025</v>
@@ -34683,7 +34736,7 @@
       </c>
       <c r="D142" s="11">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E142" s="11">
         <f t="shared" si="7"/>
@@ -34691,15 +34744,15 @@
       </c>
       <c r="F142" s="11">
         <f t="shared" si="5"/>
-        <v>21070875</v>
+        <v>27091125</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B143" s="3">
         <v>-46000000</v>
@@ -34709,7 +34762,7 @@
       </c>
       <c r="D143" s="11">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E143" s="11">
         <f t="shared" si="7"/>
@@ -34717,15 +34770,15 @@
       </c>
       <c r="F143" s="11">
         <f t="shared" si="5"/>
-        <v>-1656000000</v>
+        <v>-2116000000</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B144" s="3">
         <v>154107</v>
@@ -34735,7 +34788,7 @@
       </c>
       <c r="D144" s="11">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E144" s="11">
         <f t="shared" si="7"/>
@@ -34743,15 +34796,15 @@
       </c>
       <c r="F144" s="11">
         <f t="shared" si="5"/>
-        <v>616428</v>
+        <v>2157498</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B145" s="3">
         <v>3000000</v>
@@ -34761,7 +34814,7 @@
       </c>
       <c r="D145" s="11">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E145" s="11">
         <f t="shared" si="7"/>
@@ -34769,25 +34822,25 @@
       </c>
       <c r="F145" s="11">
         <f t="shared" si="5"/>
-        <v>9000000</v>
+        <v>39000000</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B146" s="3">
         <v>-200000</v>
       </c>
       <c r="C146" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D146" s="11">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E146" s="11">
         <f t="shared" si="7"/>
@@ -34795,21 +34848,25 @@
       </c>
       <c r="F146" s="11">
         <f t="shared" si="5"/>
-        <v>-200000</v>
+        <v>-2200000</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="11"/>
-      <c r="B147" s="3"/>
+      <c r="A147" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="B147" s="3">
+        <v>-200000</v>
+      </c>
       <c r="C147" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E147" s="11">
         <f t="shared" si="7"/>
@@ -34817,22 +34874,28 @@
       </c>
       <c r="F147" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G147" s="11"/>
+        <v>-1200000</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="K147" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="11"/>
-      <c r="B148" s="3"/>
+      <c r="A148" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="B148" s="3">
+        <v>-200000</v>
+      </c>
       <c r="C148" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D148" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E148" s="11">
         <f t="shared" si="7"/>
@@ -34840,19 +34903,25 @@
       </c>
       <c r="F148" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G148" s="11"/>
+        <v>-1000000</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="11"/>
-      <c r="B149" s="3"/>
+      <c r="A149" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B149" s="3">
+        <v>-200000</v>
+      </c>
       <c r="C149" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" s="11">
         <f t="shared" si="7"/>
@@ -34860,9 +34929,11 @@
       </c>
       <c r="F149" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G149" s="11"/>
+        <v>-200000</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
@@ -35063,14 +35134,14 @@
       <c r="A160" s="11"/>
       <c r="B160" s="29">
         <f>SUM(B2:B158)</f>
-        <v>19449443</v>
+        <v>18849443</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
       <c r="F160" s="29">
         <f>SUM(F2:F158)</f>
-        <v>7213134874</v>
+        <v>7405229304</v>
       </c>
       <c r="G160" s="11"/>
     </row>
@@ -35104,7 +35175,7 @@
       <c r="E163" s="11"/>
       <c r="F163" s="3">
         <f>F160/D2</f>
-        <v>14903171.227272727</v>
+        <v>14990342.720647773</v>
       </c>
       <c r="G163" s="11"/>
     </row>
@@ -35138,8 +35209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35151,7 +35222,7 @@
     <col min="5" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
@@ -35212,7 +35283,7 @@
         <v>152000000</v>
       </c>
       <c r="G2" s="29">
-        <f t="shared" ref="G2:G8" si="0">E2-F2</f>
+        <f t="shared" ref="G2:G9" si="0">E2-F2</f>
         <v>0</v>
       </c>
       <c r="H2" s="11" t="s">
@@ -35311,7 +35382,7 @@
         <v>-1243924</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
@@ -35347,7 +35418,7 @@
         <v>-3575109.4299999774</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>8</v>
@@ -35389,10 +35460,10 @@
         <v>6508326.9409000278</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J7" s="60" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="K7" s="44">
         <f>2*(J31+L31)</f>
@@ -35427,18 +35498,17 @@
         <v>183781930.11741301</v>
       </c>
       <c r="F8" s="71">
-        <f>K23</f>
-        <v>174017123.32876712</v>
+        <v>177000000</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" si="0"/>
-        <v>9764806.7886458933</v>
+        <v>6781930.1174130142</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>25</v>
+        <v>754</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="K8" s="44">
         <f>J31+L31</f>
@@ -35471,19 +35541,25 @@
         <f t="shared" si="3"/>
         <v>189527533.01343325</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="3">
+        <f>K23</f>
+        <v>175917123.32876712</v>
+      </c>
+      <c r="G9" s="29">
+        <f t="shared" si="0"/>
+        <v>13610409.684666127</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="J9" s="19" t="s">
         <v>301</v>
       </c>
       <c r="K9" s="44">
         <f>'مسکن ایلیا'!B160</f>
-        <v>19449443</v>
+        <v>18849443</v>
       </c>
       <c r="L9" s="3">
         <f>K9-M9</f>
-        <v>19449443</v>
+        <v>18849443</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -35554,14 +35630,14 @@
       </c>
       <c r="K11" s="44">
         <f>سارا!D143</f>
-        <v>71659484</v>
+        <v>74159484</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="5"/>
-        <v>71659484</v>
+        <v>74159484</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -35661,7 +35737,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="J14" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K14" s="44">
         <v>1000000</v>
@@ -36109,19 +36185,19 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="J23" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>174017123.32876712</v>
+        <v>175917123.32876712</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>61821251.219178081</v>
+        <v>61221251.219178081</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
-        <v>112195872.10958904</v>
+        <v>114695872.10958904</v>
       </c>
       <c r="N23" s="25"/>
       <c r="O23" s="11" t="s">
@@ -36161,19 +36237,19 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="J24" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>100084411</v>
+        <v>101984411</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
-        <v>20099443</v>
+        <v>19499443</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
-        <v>79984968</v>
+        <v>82484968</v>
       </c>
       <c r="N24" s="25"/>
       <c r="O24" s="11"/>
@@ -36480,7 +36556,7 @@
       <c r="H32" s="11"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="L32" s="56"/>
       <c r="M32" s="56"/>
@@ -36522,7 +36598,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="K33" s="76" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L33" s="7">
         <f>M31-L31</f>
@@ -36862,10 +36938,10 @@
         <v>3000000</v>
       </c>
       <c r="T42" s="73" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="U42" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -36901,10 +36977,10 @@
         <v>1000000</v>
       </c>
       <c r="T43" s="73" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="U43" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -37049,7 +37125,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="P48" s="33" t="s">
         <v>329</v>
@@ -37437,17 +37513,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:G6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G62">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38371,8 +38447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38385,13 +38461,14 @@
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.28515625" customWidth="1"/>
-    <col min="21" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -38860,13 +38937,13 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G28" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>180</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>581</v>
@@ -38875,10 +38952,10 @@
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G29" s="11">
         <f>$I$41-I29</f>
-        <v>56500</v>
+        <v>59500</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I29" s="11">
         <v>165000</v>
@@ -38889,11 +38966,11 @@
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G30" s="11">
-        <f t="shared" ref="G30:G37" si="6">$I$41-I30</f>
-        <v>21500</v>
+        <f t="shared" ref="G30:G38" si="6">$I$41-I30</f>
+        <v>24500</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I30" s="11">
         <v>200000</v>
@@ -38905,13 +38982,13 @@
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G31" s="11">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>584</v>
+        <v>757</v>
       </c>
       <c r="I31" s="11">
-        <v>217500</v>
+        <v>224500</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>491</v>
@@ -38920,7 +38997,7 @@
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G32" s="11">
         <f t="shared" si="6"/>
-        <v>36500</v>
+        <v>39500</v>
       </c>
       <c r="H32" s="63">
         <v>34617</v>
@@ -38935,46 +39012,46 @@
     <row r="33" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G33" s="11">
         <f t="shared" si="6"/>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>588</v>
+        <v>757</v>
       </c>
       <c r="I33" s="11">
-        <v>217000</v>
+        <v>224500</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="34" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G34" s="11">
         <f t="shared" si="6"/>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>588</v>
+        <v>757</v>
       </c>
       <c r="I34" s="11">
-        <v>217000</v>
+        <v>224500</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="35" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G35" s="11">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>584</v>
+        <v>757</v>
       </c>
       <c r="I35" s="11">
-        <v>217500</v>
+        <v>224500</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="36" spans="6:23" ht="75" x14ac:dyDescent="0.25">
@@ -38983,41 +39060,50 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="6"/>
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I36" s="11">
         <v>219000</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="O36" s="22" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="37" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G37" s="11">
         <f t="shared" si="6"/>
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I37" s="11">
         <v>218000</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="38" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
+      <c r="G38" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="I38" s="11">
+        <v>224500</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="39" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G39" s="11"/>
@@ -39031,47 +39117,47 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="O40" t="s">
+        <v>651</v>
+      </c>
+      <c r="P40" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>649</v>
+      </c>
+      <c r="R40" t="s">
+        <v>652</v>
+      </c>
+      <c r="S40" t="s">
+        <v>696</v>
+      </c>
+      <c r="T40" t="s">
+        <v>697</v>
+      </c>
+      <c r="U40" t="s">
         <v>653</v>
       </c>
-      <c r="P40" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>651</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="V40" t="s">
         <v>654</v>
       </c>
-      <c r="S40" t="s">
-        <v>698</v>
-      </c>
-      <c r="T40" t="s">
-        <v>699</v>
-      </c>
-      <c r="U40" t="s">
+      <c r="W40" t="s">
         <v>655</v>
-      </c>
-      <c r="V40" t="s">
-        <v>656</v>
-      </c>
-      <c r="W40" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="41" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11">
-        <v>221500</v>
+        <v>224500</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M41" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="N41" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="O41" s="18">
         <v>8000000000</v>
@@ -39113,10 +39199,10 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="M42" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="N42" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="O42" s="18">
         <v>6300000000</v>
@@ -39179,19 +39265,19 @@
     </row>
     <row r="50" spans="15:21" x14ac:dyDescent="0.25">
       <c r="P50" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="Q50" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="R50" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="S50" t="s">
         <v>282</v>
       </c>
       <c r="U50" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="51" spans="15:21" x14ac:dyDescent="0.25">
@@ -39204,10 +39290,10 @@
     </row>
     <row r="52" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O52" s="72" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="P52" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="Q52" s="18">
         <v>5500000</v>
@@ -39226,10 +39312,10 @@
     </row>
     <row r="53" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O53" s="72" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="P53" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="Q53" s="18">
         <v>5500000</v>
@@ -39244,10 +39330,10 @@
     </row>
     <row r="54" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O54" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="P54" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="Q54" s="18">
         <v>5500000</v>
@@ -39262,10 +39348,10 @@
     </row>
     <row r="55" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O55" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="P55" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Q55" s="18">
         <v>5500000</v>
@@ -39284,10 +39370,10 @@
     </row>
     <row r="56" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O56" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="P56" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="Q56" s="18">
         <v>5500000</v>
@@ -39302,10 +39388,10 @@
     </row>
     <row r="57" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O57" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="P57" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="Q57" s="18">
         <v>0</v>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="756">
   <si>
     <t>18/1/95</t>
   </si>
@@ -1432,9 +1432,6 @@
     <t>حساب علی سید الشهدا</t>
   </si>
   <si>
-    <t>حقوق بدون گرفتن وام</t>
-  </si>
-  <si>
     <t>میزان محقق شده</t>
   </si>
   <si>
@@ -1642,15 +1639,6 @@
     <t>با احتساب حقوق فروردین</t>
   </si>
   <si>
-    <t>پرداختی</t>
-  </si>
-  <si>
-    <t>سود 18 درصد</t>
-  </si>
-  <si>
-    <t>سود 24 درصد</t>
-  </si>
-  <si>
     <t>16/2/1396</t>
   </si>
   <si>
@@ -1963,9 +1951,6 @@
     <t>انتقال به کارت ایلیا 12 میلیون و 200 هم نقدی</t>
   </si>
   <si>
-    <t>182 تا آخر مرداد</t>
-  </si>
-  <si>
     <t>31/4/1396</t>
   </si>
   <si>
@@ -2182,9 +2167,6 @@
     <t>تاریخ 28/5 از عابربانک</t>
   </si>
   <si>
-    <t>213 تا آخر شهریور</t>
-  </si>
-  <si>
     <t>انتقال 42 به کارت سارا و 4 به کارت مریم</t>
   </si>
   <si>
@@ -2312,6 +2294,18 @@
   </si>
   <si>
     <t>15/7/96</t>
+  </si>
+  <si>
+    <t>16/7/1396</t>
+  </si>
+  <si>
+    <t>حواله اچ سی علی مهر انصراف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حقوق </t>
+  </si>
+  <si>
+    <t>15/8/1396</t>
   </si>
 </sst>
 </file>
@@ -2669,34 +2663,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3089,7 +3063,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B2" s="3">
         <f>'شهریور 96'!B24</f>
@@ -3124,7 +3098,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B3" s="40">
         <v>771374</v>
@@ -3137,7 +3111,7 @@
         <v>650677</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -3157,7 +3131,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B4" s="18">
         <v>2500000</v>
@@ -3170,7 +3144,7 @@
         <v>2500000</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F4">
         <v>26</v>
@@ -3199,7 +3173,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -4059,7 +4033,7 @@
         <v>-30000</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>414</v>
@@ -4086,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="O32">
         <v>29</v>
@@ -4103,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="O33">
         <v>30</v>
@@ -4120,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="P34" t="s">
         <v>60</v>
@@ -4134,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -4142,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -4150,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -15327,7 +15301,7 @@
         <v>50000</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.25">
@@ -15335,7 +15309,7 @@
         <v>-102000</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.25">
@@ -15343,7 +15317,7 @@
         <v>660000</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.25">
@@ -15351,7 +15325,7 @@
         <v>1000000</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.25">
@@ -15359,7 +15333,7 @@
         <v>-509000</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
@@ -15367,7 +15341,7 @@
         <v>-168500</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.25">
@@ -15461,7 +15435,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>25</v>
@@ -15482,7 +15456,7 @@
         <v>36</v>
       </c>
       <c r="K1" s="54" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -19959,7 +19933,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B111" s="40">
         <v>174678</v>
@@ -19972,7 +19946,7 @@
         <v>87315</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F111" s="37">
         <v>16</v>
@@ -20000,7 +19974,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B112" s="18">
         <v>-28400000</v>
@@ -20013,7 +19987,7 @@
         <v>-28400000</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F112" s="37">
         <v>15</v>
@@ -20041,7 +20015,7 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B113" s="40">
         <v>163040</v>
@@ -20054,7 +20028,7 @@
         <v>40529</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F113" s="37">
         <v>0</v>
@@ -20082,7 +20056,7 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B114" s="18">
         <v>-5700</v>
@@ -20095,7 +20069,7 @@
         <v>-3200</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F114" s="37">
         <v>13</v>
@@ -20123,7 +20097,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B115" s="18">
         <v>0</v>
@@ -20136,7 +20110,7 @@
         <v>-500000</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F115" s="37">
         <v>8</v>
@@ -20164,7 +20138,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B116" s="18">
         <v>-160000</v>
@@ -20177,7 +20151,7 @@
         <v>-160000</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F116" s="37">
         <v>9</v>
@@ -20205,7 +20179,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B117" s="40">
         <v>1480</v>
@@ -20218,7 +20192,7 @@
         <v>-105461</v>
       </c>
       <c r="E117" s="23" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F117" s="37">
         <v>22</v>
@@ -20247,7 +20221,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B118" s="18">
         <v>39399500</v>
@@ -20260,7 +20234,7 @@
         <v>39399500</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F118" s="37">
         <v>9</v>
@@ -20289,7 +20263,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B119" s="40">
         <v>95521</v>
@@ -20302,7 +20276,7 @@
         <v>-14533</v>
       </c>
       <c r="E119" s="23" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F119" s="37">
         <v>4</v>
@@ -20330,7 +20304,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B120" s="18">
         <v>2000000</v>
@@ -20343,7 +20317,7 @@
         <v>2000000</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F120" s="11">
         <v>26</v>
@@ -20372,7 +20346,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B121" s="18">
         <v>2600000</v>
@@ -20385,7 +20359,7 @@
         <v>2600000</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F121" s="11">
         <v>1</v>
@@ -20413,7 +20387,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B122" s="40">
         <v>384551</v>
@@ -20426,7 +20400,7 @@
         <v>273643</v>
       </c>
       <c r="E122" s="23" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F122" s="11">
         <v>1</v>
@@ -20457,7 +20431,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B123" s="18">
         <v>0</v>
@@ -20470,7 +20444,7 @@
         <v>-800000</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F123" s="11">
         <v>14</v>
@@ -20498,7 +20472,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B124" s="18">
         <v>-3000000</v>
@@ -20511,7 +20485,7 @@
         <v>-3000000</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F124" s="11">
         <v>15</v>
@@ -20539,7 +20513,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B125" s="18">
         <v>400710</v>
@@ -20552,7 +20526,7 @@
         <v>281835</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F125" s="11">
         <v>0</v>
@@ -20580,7 +20554,7 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B126" s="18">
         <v>42000000</v>
@@ -20593,7 +20567,7 @@
         <v>42000000</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F126" s="11">
         <v>25</v>
@@ -20621,7 +20595,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B127" s="18">
         <v>-5000</v>
@@ -20662,7 +20636,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B128" s="18">
         <v>771374</v>
@@ -20675,7 +20649,7 @@
         <v>650677</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="F128" s="11">
         <v>3</v>
@@ -20703,7 +20677,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B129" s="18">
         <v>2500000</v>
@@ -20716,7 +20690,7 @@
         <v>2500000</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F129" s="11">
         <v>1</v>
@@ -21151,23 +21125,23 @@
         <v>283</v>
       </c>
       <c r="C144" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D144" s="11" t="s">
         <v>503</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>504</v>
       </c>
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
       <c r="I144" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="J144" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="J144" s="11" t="s">
+      <c r="K144" s="11" t="s">
         <v>501</v>
-      </c>
-      <c r="K144" s="11" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -21215,13 +21189,13 @@
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
       <c r="I147" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="J147" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="J147" s="11" t="s">
+      <c r="K147" s="11" t="s">
         <v>507</v>
-      </c>
-      <c r="K147" s="11" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -21350,7 +21324,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B3" s="40">
         <v>174678</v>
@@ -21363,7 +21337,7 @@
         <v>87315</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -21392,7 +21366,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B4" s="18">
         <v>-28400000</v>
@@ -21405,7 +21379,7 @@
         <v>-28400000</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -22293,7 +22267,7 @@
         <v>-110000</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>414</v>
@@ -22320,7 +22294,7 @@
         <v>220000</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -22337,7 +22311,7 @@
         <v>-450000</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -22571,7 +22545,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B3" s="40">
         <v>163040</v>
@@ -22584,7 +22558,7 @@
         <v>40529</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -22613,7 +22587,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B4" s="18">
         <v>-5700</v>
@@ -22626,7 +22600,7 @@
         <v>-3200</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F4">
         <v>31</v>
@@ -22655,7 +22629,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -22668,7 +22642,7 @@
         <v>-500000</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F5">
         <v>17</v>
@@ -22697,7 +22671,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B6" s="18">
         <v>-160000</v>
@@ -22710,7 +22684,7 @@
         <v>-160000</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -23562,7 +23536,7 @@
         <v>150000</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>414</v>
@@ -23589,7 +23563,7 @@
         <v>200000</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -23603,7 +23577,7 @@
         <v>620000</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
@@ -23611,7 +23585,7 @@
         <v>5000</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
@@ -23619,7 +23593,7 @@
         <v>-800000</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
@@ -23635,7 +23609,7 @@
         <v>160000</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
@@ -23643,7 +23617,7 @@
         <v>200000</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
@@ -23651,7 +23625,7 @@
         <v>255000</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
@@ -23659,7 +23633,7 @@
         <v>-200000</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
@@ -23770,7 +23744,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B2" s="3">
         <f>'اردیبهشت 96'!B25</f>
@@ -23814,7 +23788,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B3" s="40">
         <v>1481</v>
@@ -23827,7 +23801,7 @@
         <v>-105460</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -23856,7 +23830,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B4" s="18">
         <v>39399500</v>
@@ -23869,7 +23843,7 @@
         <v>39399500</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -24758,7 +24732,7 @@
         <v>200000</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>414</v>
@@ -24785,7 +24759,7 @@
         <v>-50000</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -24802,7 +24776,7 @@
         <v>120000</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -24816,7 +24790,7 @@
         <v>-40000</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -24824,7 +24798,7 @@
         <v>200000</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -24832,7 +24806,7 @@
         <v>1000000</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -24840,7 +24814,7 @@
         <v>600000</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -24848,7 +24822,7 @@
         <v>-40000</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.25">
@@ -24964,7 +24938,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B2" s="3">
         <f>'خرداد 96'!B24</f>
@@ -25008,7 +24982,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B3" s="40">
         <v>95521</v>
@@ -25021,7 +24995,7 @@
         <v>-14533</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -25050,7 +25024,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B4" s="18">
         <v>2000000</v>
@@ -25063,7 +25037,7 @@
         <v>2000000</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F4">
         <v>26</v>
@@ -25092,7 +25066,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B5" s="18">
         <v>2600000</v>
@@ -25105,7 +25079,7 @@
         <v>2600000</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -25953,7 +25927,7 @@
         <v>1342800</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>414</v>
@@ -25980,7 +25954,7 @@
         <v>-44000</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -25997,7 +25971,7 @@
         <v>-25000</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -26011,7 +25985,7 @@
         <v>-13000</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -26019,7 +25993,7 @@
         <v>200000</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -26027,7 +26001,7 @@
         <v>-120000</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -26035,7 +26009,7 @@
         <v>200000</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -26158,7 +26132,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B2" s="3">
         <f>'تیر 96'!B24</f>
@@ -26202,7 +26176,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B3" s="40">
         <v>384551</v>
@@ -26215,7 +26189,7 @@
         <v>273643</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -26244,7 +26218,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -26257,7 +26231,7 @@
         <v>-800000</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -26286,7 +26260,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B5" s="18">
         <v>-3000000</v>
@@ -26299,7 +26273,7 @@
         <v>-3000000</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F5">
         <v>16</v>
@@ -27147,7 +27121,7 @@
         <v>-65000</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>414</v>
@@ -27174,7 +27148,7 @@
         <v>-28000</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -27191,7 +27165,7 @@
         <v>100000</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -27205,7 +27179,7 @@
         <v>200000</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -27213,7 +27187,7 @@
         <v>27470</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -27221,7 +27195,7 @@
         <v>334000</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -27229,7 +27203,7 @@
         <v>400000</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -27237,7 +27211,7 @@
         <v>200000</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.25">
@@ -27338,7 +27312,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B2" s="3">
         <f>'مرداد 96'!B24</f>
@@ -27382,7 +27356,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B3" s="40">
         <v>400710</v>
@@ -27395,7 +27369,7 @@
         <v>281835</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -27424,7 +27398,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B4" s="18">
         <v>42000000</v>
@@ -27437,7 +27411,7 @@
         <v>42000000</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -27466,7 +27440,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B5" s="18">
         <v>-5000</v>
@@ -28327,7 +28301,7 @@
         <v>-3000000</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>414</v>
@@ -28354,7 +28328,7 @@
         <v>200000</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -28371,7 +28345,7 @@
         <v>2200700</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -28385,7 +28359,7 @@
         <v>-2000000</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -28393,7 +28367,7 @@
         <v>141950</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -28401,7 +28375,7 @@
         <v>800500</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -28409,7 +28383,7 @@
         <v>-100000</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -28867,10 +28841,10 @@
         <v>410021971552</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="N9" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="O9" t="s">
         <v>295</v>
@@ -29662,13 +29636,13 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B33" s="39">
         <v>327005</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D33" s="11">
         <v>18</v>
@@ -29695,13 +29669,13 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B34" s="39">
         <v>28400000</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D34" s="11">
         <v>0</v>
@@ -29724,13 +29698,13 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B35" s="61">
         <v>11000000</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D35" s="11">
         <v>15</v>
@@ -29750,13 +29724,13 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B36" s="39">
         <v>418701</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D36" s="11">
         <v>0</v>
@@ -29776,13 +29750,13 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B37" s="39">
         <v>-900</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D37" s="11">
         <v>1</v>
@@ -29803,13 +29777,13 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B38" s="61">
         <v>2000000</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D38" s="11">
         <v>0</v>
@@ -29831,13 +29805,13 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B39" s="39">
         <v>2000000</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D39" s="11">
         <v>14</v>
@@ -29857,13 +29831,13 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B40" s="39">
         <v>-200000</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D40" s="11">
         <v>0</v>
@@ -29883,13 +29857,13 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B41" s="39">
         <v>-620000</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D41" s="11">
         <v>0</v>
@@ -29909,13 +29883,13 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B42" s="39">
         <v>-120000</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -29936,13 +29910,13 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B43" s="39">
         <v>650000</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D43" s="11">
         <v>0</v>
@@ -29962,7 +29936,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B44" s="39">
         <v>-5000</v>
@@ -29988,13 +29962,13 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B45" s="39">
         <v>29000000</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D45" s="11">
         <v>4</v>
@@ -30014,13 +29988,13 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B46" s="39">
         <v>-200000</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D46" s="11">
         <v>3</v>
@@ -30040,13 +30014,13 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B47" s="39">
         <v>-200000</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D47" s="11">
         <v>1</v>
@@ -30066,7 +30040,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B48" s="39">
         <v>-200000</v>
@@ -30092,13 +30066,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B49" s="39">
         <v>3000000</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D49" s="11">
         <v>0</v>
@@ -30118,13 +30092,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B50" s="61">
         <v>3000000</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D50" s="11">
         <v>1</v>
@@ -30144,13 +30118,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B51" s="39">
         <v>765797</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D51" s="11">
         <v>0</v>
@@ -30170,7 +30144,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B52" s="39">
         <v>-200000</v>
@@ -30196,13 +30170,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B53" s="39">
         <v>-400500</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D53" s="11">
         <v>9</v>
@@ -30222,13 +30196,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B54" s="39">
         <v>-1000396</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D54" s="11">
         <v>6</v>
@@ -30248,13 +30222,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B55" s="39">
         <v>-40000000</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D55" s="11">
         <v>9</v>
@@ -30274,13 +30248,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B56" s="39">
         <v>865652</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D56" s="11">
         <v>27</v>
@@ -30300,13 +30274,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B57" s="39">
         <v>-50200000</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D57" s="11">
         <v>1</v>
@@ -30326,13 +30300,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B58" s="39">
         <v>-12200500</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D58" s="11">
         <v>3</v>
@@ -30352,13 +30326,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B59" s="39">
         <v>534906</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D59" s="11">
         <v>1</v>
@@ -30378,13 +30352,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B60" s="39">
         <v>-338000</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -30404,13 +30378,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B61" s="39">
         <v>-150000</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D61" s="11">
         <v>4</v>
@@ -30430,7 +30404,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B62" s="39">
         <v>-100000</v>
@@ -30456,7 +30430,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B63" s="39">
         <v>-200000</v>
@@ -30488,7 +30462,7 @@
         <v>-87000</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D64" s="11">
         <v>4</v>
@@ -30508,13 +30482,13 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B65" s="39">
         <v>-27470</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D65" s="11">
         <v>1</v>
@@ -30534,13 +30508,13 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B66" s="39">
         <v>-334000</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D66" s="11">
         <v>5</v>
@@ -30560,13 +30534,13 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B67" s="39">
         <v>-20000</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D67" s="11">
         <v>1</v>
@@ -30586,13 +30560,13 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B68" s="39">
         <v>-300500</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D68" s="11">
         <v>0</v>
@@ -30612,13 +30586,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B69" s="39">
         <v>-100000</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D69" s="11">
         <v>5</v>
@@ -30638,7 +30612,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B70" s="39">
         <v>-200000</v>
@@ -30664,13 +30638,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B71" s="39">
         <v>15389</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D71" s="11">
         <v>0</v>
@@ -30690,13 +30664,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B72" s="39">
         <v>4000000</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D72" s="11">
         <v>0</v>
@@ -30716,13 +30690,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B73" s="39">
         <v>2600000</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D73" s="11">
         <v>0</v>
@@ -30745,13 +30719,13 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B74" s="39">
         <v>3000000</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="D74" s="11">
         <v>3</v>
@@ -30771,7 +30745,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B75" s="39">
         <v>-200000</v>
@@ -30797,13 +30771,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B76" s="39">
         <v>-2000700</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="D76" s="11">
         <v>0</v>
@@ -30823,7 +30797,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B77" s="39">
         <v>-200000</v>
@@ -30849,13 +30823,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B78" s="39">
         <v>2000000</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="D78" s="11">
         <v>8</v>
@@ -30878,13 +30852,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B79" s="39">
         <v>-1000500</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="D79" s="11">
         <v>0</v>
@@ -30904,13 +30878,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B80" s="39">
         <v>-141950</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="D80" s="11">
         <v>3</v>
@@ -30930,13 +30904,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B81" s="39">
         <v>-900500</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D81" s="11">
         <v>10</v>
@@ -30956,13 +30930,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B82" s="39">
         <v>81251</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D82" s="11">
         <v>1</v>
@@ -31176,7 +31150,7 @@
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="102" spans="7:7" x14ac:dyDescent="0.25">
@@ -31196,7 +31170,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B145" sqref="B145:B149"/>
+      <selection pane="bottomLeft" activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31246,7 +31220,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -31254,7 +31228,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>47673100</v>
+        <v>47769800</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -31272,7 +31246,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -31280,7 +31254,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1473000000</v>
+        <v>1476000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -31296,7 +31270,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -31304,7 +31278,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-97800000</v>
+        <v>-98000000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -31320,7 +31294,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -31328,7 +31302,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-48700000</v>
+        <v>-48800000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -31344,7 +31318,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -31352,7 +31326,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-26730000</v>
+        <v>-26785000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -31368,7 +31342,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -31376,7 +31350,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-97000000</v>
+        <v>-97200000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -31392,7 +31366,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -31400,7 +31374,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-96200000</v>
+        <v>-96400000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -31416,7 +31390,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -31424,7 +31398,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-447685500</v>
+        <v>-448636000</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -31440,7 +31414,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -31448,7 +31422,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>938000000</v>
+        <v>940000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -31464,7 +31438,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -31472,7 +31446,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-498420000</v>
+        <v>-499485000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -31488,7 +31462,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -31496,7 +31470,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-20925000</v>
+        <v>-20970000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -31512,7 +31486,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -31520,7 +31494,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-928324800</v>
+        <v>-930325500</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -31536,7 +31510,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -31544,7 +31518,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-92000000</v>
+        <v>-92200000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -31560,7 +31534,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -31568,7 +31542,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>914000000</v>
+        <v>916000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -31584,7 +31558,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -31592,7 +31566,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>914000000</v>
+        <v>916000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -31608,7 +31582,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -31616,7 +31590,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>548400000</v>
+        <v>549600000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -31632,7 +31606,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -31640,7 +31614,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>457000000</v>
+        <v>458000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -31656,7 +31630,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -31664,7 +31638,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1368000000</v>
+        <v>1371000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -31683,7 +31657,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -31691,7 +31665,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-197743900</v>
+        <v>-198176600</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -31707,7 +31681,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -31715,7 +31689,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-197743900</v>
+        <v>-198176600</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -31731,7 +31705,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -31739,7 +31713,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-197743900</v>
+        <v>-198176600</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -31755,7 +31729,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -31763,7 +31737,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-197743900</v>
+        <v>-198176600</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -31779,7 +31753,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -31787,7 +31761,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-197743900</v>
+        <v>-198176600</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -31803,7 +31777,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -31811,7 +31785,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-91400000</v>
+        <v>-91600000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -31827,7 +31801,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -31835,7 +31809,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1365000000</v>
+        <v>1368000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -31851,7 +31825,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -31859,7 +31833,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-90800000</v>
+        <v>-91000000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -31875,7 +31849,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -31883,7 +31857,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>904000000</v>
+        <v>906000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -31899,7 +31873,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -31907,7 +31881,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-3164361600</v>
+        <v>-3171362400</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -31923,7 +31897,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -31931,7 +31905,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1353405900</v>
+        <v>-1356406800</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -31947,7 +31921,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -31955,7 +31929,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-763155000</v>
+        <v>-764850900</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -31971,7 +31945,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -31979,7 +31953,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>443457800</v>
+        <v>444452100</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -31995,7 +31969,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -32003,7 +31977,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>15440040</v>
+        <v>15475131</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>381</v>
@@ -32021,7 +31995,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -32029,7 +32003,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-374000000</v>
+        <v>-374850000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -32045,7 +32019,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -32053,7 +32027,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-82296000</v>
+        <v>-82486500</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -32069,7 +32043,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -32077,7 +32051,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>86000000</v>
+        <v>86200000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -32093,7 +32067,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -32101,7 +32075,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-86200000</v>
+        <v>-86400000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -32117,7 +32091,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -32125,7 +32099,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>122728848</v>
+        <v>123029654</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>401</v>
@@ -32143,7 +32117,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -32151,7 +32125,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-38760000</v>
+        <v>-38855000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -32167,7 +32141,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -32175,7 +32149,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-35946024</v>
+        <v>-36034127</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -32191,7 +32165,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -32199,7 +32173,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-48360000</v>
+        <v>-48480000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -32215,7 +32189,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -32223,7 +32197,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>380077520</v>
+        <v>381077724</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>402</v>
@@ -32241,7 +32215,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -32249,7 +32223,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-30160000</v>
+        <v>-30240000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -32265,7 +32239,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -32273,7 +32247,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-78713817</v>
+        <v>-78924846</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -32289,7 +32263,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -32297,7 +32271,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-74400000</v>
+        <v>-74600000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -32313,7 +32287,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -32321,7 +32295,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-35245000</v>
+        <v>-35340000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -32337,7 +32311,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -32345,7 +32319,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-16605000</v>
+        <v>-16650000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -32361,7 +32335,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -32369,7 +32343,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-23682420</v>
+        <v>-23746600</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -32385,7 +32359,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -32393,7 +32367,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-10059144</v>
+        <v>-10086628</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -32409,7 +32383,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -32417,7 +32391,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-51465000</v>
+        <v>-51606000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -32433,7 +32407,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -32441,7 +32415,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-9762290</v>
+        <v>-9789036</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -32457,7 +32431,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -32465,7 +32439,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-19401200</v>
+        <v>-19454500</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -32481,7 +32455,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -32489,7 +32463,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>362000000</v>
+        <v>363000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -32505,7 +32479,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -32513,7 +32487,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-7497000</v>
+        <v>-7518000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -32529,7 +32503,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -32537,7 +32511,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-349058000</v>
+        <v>-350038500</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -32553,7 +32527,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -32561,7 +32535,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-16020000</v>
+        <v>-16065000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -32577,7 +32551,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -32585,7 +32559,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>1027774638</v>
+        <v>1030779827</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>403</v>
@@ -32603,7 +32577,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -32611,7 +32585,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>684000000</v>
+        <v>686000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -32627,7 +32601,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -32635,7 +32609,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>682000000</v>
+        <v>684000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -32651,7 +32625,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -32659,7 +32633,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-2394513000</v>
+        <v>-2401514500</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -32675,7 +32649,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -32683,7 +32657,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>951000000</v>
+        <v>954000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -32699,7 +32673,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -32707,7 +32681,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-8593553</v>
+        <v>-8620662</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -32723,7 +32697,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -32731,7 +32705,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-10457513</v>
+        <v>-10490502</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -32747,7 +32721,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -32755,7 +32729,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>948000000</v>
+        <v>951000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -32771,7 +32745,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -32779,7 +32753,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>938520000</v>
+        <v>941490000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -32795,7 +32769,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -32803,7 +32777,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>316000000</v>
+        <v>317000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -32819,7 +32793,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -32827,7 +32801,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F158" si="5">B67*(D67-E67)</f>
-        <v>9480000</v>
+        <v>9510000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -32843,7 +32817,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -32851,7 +32825,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>9450000000</v>
+        <v>9480000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -32867,7 +32841,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -32875,7 +32849,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-63000000</v>
+        <v>-63200000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -32891,7 +32865,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -32899,7 +32873,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>439600000</v>
+        <v>441000000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -32915,7 +32889,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -32923,7 +32897,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>816400000</v>
+        <v>819000000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -32939,7 +32913,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -32947,7 +32921,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-315000000</v>
+        <v>-316000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -32963,7 +32937,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -32971,7 +32945,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>4680000000</v>
+        <v>4695000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -32987,7 +32961,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -32995,7 +32969,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-4621293600</v>
+        <v>-4636297800</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -33011,7 +32985,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -33019,7 +32993,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-918000000</v>
+        <v>-921000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -33035,7 +33009,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -33043,7 +33017,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-61200000</v>
+        <v>-61400000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -33059,7 +33033,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -33067,7 +33041,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-3672918000</v>
+        <v>-3684921000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -33083,7 +33057,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -33091,7 +33065,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-906271800</v>
+        <v>-909272700</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -33107,7 +33081,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -33115,7 +33089,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>6808000000</v>
+        <v>6831000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -33131,7 +33105,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -33139,7 +33113,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-175346000</v>
+        <v>-175946500</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -33155,7 +33129,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -33163,7 +33137,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-58400000</v>
+        <v>-58600000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -33179,7 +33153,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -33187,7 +33161,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>82134090</v>
+        <v>82417311</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -33205,7 +33179,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -33213,7 +33187,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-58200000</v>
+        <v>-58400000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -33229,7 +33203,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -33237,7 +33211,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>576000000</v>
+        <v>578000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -33253,7 +33227,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -33261,7 +33235,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-57200000</v>
+        <v>-57400000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -33277,7 +33251,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -33285,7 +33259,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-56000000</v>
+        <v>-56200000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -33301,7 +33275,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -33309,7 +33283,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-368350000</v>
+        <v>-369675000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -33325,7 +33299,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -33333,7 +33307,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-131500000</v>
+        <v>-132000000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -33349,7 +33323,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -33357,7 +33331,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-31560000</v>
+        <v>-31680000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -33373,7 +33347,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -33381,7 +33355,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>111333300</v>
+        <v>111761505</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -33399,7 +33373,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -33407,7 +33381,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-774516000</v>
+        <v>-777518000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>343</v>
@@ -33425,7 +33399,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -33433,7 +33407,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-52480000</v>
+        <v>-52685000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>344</v>
@@ -33451,7 +33425,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -33459,7 +33433,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-89728000</v>
+        <v>-90078500</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>341</v>
@@ -33477,7 +33451,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -33485,7 +33459,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>244000000</v>
+        <v>245000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>339</v>
@@ -33503,7 +33477,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -33511,7 +33485,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>2151000000</v>
+        <v>2160000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>351</v>
@@ -33530,7 +33504,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -33538,7 +33512,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-6188000000</v>
+        <v>-6214000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>353</v>
@@ -33556,7 +33530,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -33564,7 +33538,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-6188000000</v>
+        <v>-6214000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -33580,7 +33554,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -33588,7 +33562,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>6162000000</v>
+        <v>6188000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -33604,7 +33578,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -33612,7 +33586,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-47600000</v>
+        <v>-47800000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -33631,7 +33605,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -33639,7 +33613,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>6862000000</v>
+        <v>6891200000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -33655,7 +33629,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -33663,7 +33637,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>91987350</v>
+        <v>92387295</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>406</v>
@@ -33681,7 +33655,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -33689,7 +33663,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>458000000</v>
+        <v>460000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>408</v>
@@ -33707,7 +33681,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -33715,7 +33689,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>1710000000</v>
+        <v>1717500000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>416</v>
@@ -33733,7 +33707,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -33741,7 +33715,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-15114000000</v>
+        <v>-15180000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>430</v>
@@ -33759,7 +33733,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -33767,7 +33741,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-33205000</v>
+        <v>-33350000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>431</v>
@@ -33785,7 +33759,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -33793,7 +33767,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>1356000000</v>
+        <v>1362000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>432</v>
@@ -33811,7 +33785,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -33819,7 +33793,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-1351327500</v>
+        <v>-1357333400</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>442</v>
@@ -33837,7 +33811,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -33845,7 +33819,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>1326000000</v>
+        <v>1332000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>450</v>
@@ -33853,7 +33827,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B109" s="3">
         <v>-120000</v>
@@ -33863,7 +33837,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -33871,15 +33845,15 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-25200000</v>
+        <v>-25320000</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B110" s="3">
         <v>4000000</v>
@@ -33889,7 +33863,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -33897,15 +33871,15 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>832000000</v>
+        <v>836000000</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B111" s="3">
         <v>2800000</v>
@@ -33915,7 +33889,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -33923,15 +33897,15 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>579600000</v>
+        <v>582400000</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B112" s="3">
         <v>-200000</v>
@@ -33941,7 +33915,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -33949,15 +33923,15 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-40800000</v>
+        <v>-41000000</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B113" s="3">
         <v>72310</v>
@@ -33967,7 +33941,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -33975,15 +33949,15 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>14606620</v>
+        <v>14678930</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B114" s="3">
         <v>-200000</v>
@@ -33993,7 +33967,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -34001,10 +33975,10 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-37200000</v>
+        <v>-37400000</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J114" t="s">
         <v>25</v>
@@ -34012,7 +33986,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B115" s="36">
         <v>-11000000</v>
@@ -34022,7 +33996,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -34030,15 +34004,15 @@
       </c>
       <c r="F115" s="23">
         <f t="shared" si="5"/>
-        <v>-2035000000</v>
+        <v>-2046000000</v>
       </c>
       <c r="G115" s="23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B116" s="3">
         <v>-200000</v>
@@ -34048,7 +34022,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -34056,10 +34030,10 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-37000000</v>
+        <v>-37200000</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I116" t="s">
         <v>25</v>
@@ -34067,7 +34041,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B117" s="3">
         <v>-450500</v>
@@ -34077,7 +34051,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -34085,15 +34059,15 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-82441500</v>
+        <v>-82892000</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B118" s="3">
         <v>-200000</v>
@@ -34103,7 +34077,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -34111,10 +34085,10 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-36600000</v>
+        <v>-36800000</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J118" t="s">
         <v>25</v>
@@ -34122,7 +34096,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B119" s="3">
         <v>-154550</v>
@@ -34132,7 +34106,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -34140,15 +34114,15 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-27355350</v>
+        <v>-27509900</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B120" s="3">
         <v>-320</v>
@@ -34158,7 +34132,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -34166,15 +34140,15 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-56640</v>
+        <v>-56960</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B121" s="3">
         <v>-432000</v>
@@ -34184,7 +34158,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -34192,15 +34166,15 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-76032000</v>
+        <v>-76464000</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B122" s="3">
         <v>74043</v>
@@ -34210,7 +34184,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -34218,15 +34192,15 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>12513267</v>
+        <v>12587310</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B123" s="3">
         <v>-52000</v>
@@ -34236,7 +34210,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -34244,15 +34218,15 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-7748000</v>
+        <v>-7800000</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B124" s="3">
         <v>1187</v>
@@ -34262,7 +34236,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -34270,15 +34244,15 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>127009</v>
+        <v>128196</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B125" s="3">
         <v>2400000</v>
@@ -34288,7 +34262,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -34296,15 +34270,15 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>254400000</v>
+        <v>256800000</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B126" s="3">
         <v>1342800</v>
@@ -34314,7 +34288,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -34322,15 +34296,15 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>139651200</v>
+        <v>140994000</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B127" s="3">
         <v>1342800</v>
@@ -34340,7 +34314,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -34348,15 +34322,15 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>139651200</v>
+        <v>140994000</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B128" s="3">
         <v>-200000</v>
@@ -34366,7 +34340,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -34374,7 +34348,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-18600000</v>
+        <v>-18800000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -34382,7 +34356,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B129" s="3">
         <v>-15618</v>
@@ -34392,7 +34366,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -34400,10 +34374,10 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-1421238</v>
+        <v>-1436856</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="K129" t="s">
         <v>25</v>
@@ -34411,7 +34385,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B130" s="3">
         <v>-200000</v>
@@ -34421,7 +34395,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -34429,15 +34403,15 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-18000000</v>
+        <v>-18200000</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B131" s="3">
         <v>-200000</v>
@@ -34447,7 +34421,7 @@
       </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D158" si="6">D132+C131</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E158" si="7">IF(B131&gt;0,1,0)</f>
@@ -34455,15 +34429,15 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-17800000</v>
+        <v>-18000000</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B132" s="3">
         <v>-390000</v>
@@ -34473,7 +34447,7 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -34481,15 +34455,15 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>-34320000</v>
+        <v>-34710000</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B133" s="3">
         <v>-24500</v>
@@ -34499,7 +34473,7 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -34507,15 +34481,15 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>-2156000</v>
+        <v>-2180500</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B134" s="3">
         <v>-95000</v>
@@ -34525,7 +34499,7 @@
       </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -34533,15 +34507,15 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>-8265000</v>
+        <v>-8360000</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B135" s="3">
         <v>-200000</v>
@@ -34551,7 +34525,7 @@
       </c>
       <c r="D135" s="11">
         <f t="shared" si="6"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="7"/>
@@ -34559,15 +34533,15 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="5"/>
-        <v>-16600000</v>
+        <v>-16800000</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B136" s="3">
         <v>50000000</v>
@@ -34577,7 +34551,7 @@
       </c>
       <c r="D136" s="11">
         <f t="shared" si="6"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="7"/>
@@ -34585,15 +34559,15 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="5"/>
-        <v>4000000000</v>
+        <v>4050000000</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B137" s="3">
         <v>12000000</v>
@@ -34603,7 +34577,7 @@
       </c>
       <c r="D137" s="11">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E137" s="11">
         <f t="shared" si="7"/>
@@ -34611,15 +34585,15 @@
       </c>
       <c r="F137" s="11">
         <f t="shared" si="5"/>
-        <v>948000000</v>
+        <v>960000000</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B138" s="3">
         <v>2000000</v>
@@ -34629,7 +34603,7 @@
       </c>
       <c r="D138" s="11">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E138" s="11">
         <f t="shared" si="7"/>
@@ -34637,15 +34611,15 @@
       </c>
       <c r="F138" s="11">
         <f t="shared" si="5"/>
-        <v>154000000</v>
+        <v>156000000</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B139" s="3">
         <v>87538</v>
@@ -34655,7 +34629,7 @@
       </c>
       <c r="D139" s="11">
         <f t="shared" si="6"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E139" s="11">
         <f t="shared" si="7"/>
@@ -34663,7 +34637,7 @@
       </c>
       <c r="F139" s="11">
         <f t="shared" si="5"/>
-        <v>6652888</v>
+        <v>6740426</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>381</v>
@@ -34671,7 +34645,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B140" s="3">
         <v>-3000900</v>
@@ -34681,7 +34655,7 @@
       </c>
       <c r="D140" s="11">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E140" s="11">
         <f t="shared" si="7"/>
@@ -34689,15 +34663,15 @@
       </c>
       <c r="F140" s="11">
         <f t="shared" si="5"/>
-        <v>-192057600</v>
+        <v>-195058500</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B141" s="3">
         <v>-3000900</v>
@@ -34707,7 +34681,7 @@
       </c>
       <c r="D141" s="11">
         <f t="shared" si="6"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E141" s="11">
         <f t="shared" si="7"/>
@@ -34715,10 +34689,10 @@
       </c>
       <c r="F141" s="11">
         <f t="shared" si="5"/>
-        <v>-189056700</v>
+        <v>-192057600</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="K141" t="s">
         <v>25</v>
@@ -34726,7 +34700,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B142" s="3">
         <v>602025</v>
@@ -34736,7 +34710,7 @@
       </c>
       <c r="D142" s="11">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E142" s="11">
         <f t="shared" si="7"/>
@@ -34744,15 +34718,15 @@
       </c>
       <c r="F142" s="11">
         <f t="shared" si="5"/>
-        <v>27091125</v>
+        <v>27693150</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B143" s="3">
         <v>-46000000</v>
@@ -34762,7 +34736,7 @@
       </c>
       <c r="D143" s="11">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E143" s="11">
         <f t="shared" si="7"/>
@@ -34770,15 +34744,15 @@
       </c>
       <c r="F143" s="11">
         <f t="shared" si="5"/>
-        <v>-2116000000</v>
+        <v>-2162000000</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B144" s="3">
         <v>154107</v>
@@ -34788,7 +34762,7 @@
       </c>
       <c r="D144" s="11">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E144" s="11">
         <f t="shared" si="7"/>
@@ -34796,15 +34770,15 @@
       </c>
       <c r="F144" s="11">
         <f t="shared" si="5"/>
-        <v>2157498</v>
+        <v>2311605</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B145" s="3">
         <v>3000000</v>
@@ -34814,7 +34788,7 @@
       </c>
       <c r="D145" s="11">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E145" s="11">
         <f t="shared" si="7"/>
@@ -34822,15 +34796,15 @@
       </c>
       <c r="F145" s="11">
         <f t="shared" si="5"/>
-        <v>39000000</v>
+        <v>42000000</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B146" s="3">
         <v>-200000</v>
@@ -34840,7 +34814,7 @@
       </c>
       <c r="D146" s="11">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E146" s="11">
         <f t="shared" si="7"/>
@@ -34848,7 +34822,7 @@
       </c>
       <c r="F146" s="11">
         <f t="shared" si="5"/>
-        <v>-2200000</v>
+        <v>-2400000</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>158</v>
@@ -34856,7 +34830,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B147" s="3">
         <v>-200000</v>
@@ -34866,7 +34840,7 @@
       </c>
       <c r="D147" s="11">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E147" s="11">
         <f t="shared" si="7"/>
@@ -34874,7 +34848,7 @@
       </c>
       <c r="F147" s="11">
         <f t="shared" si="5"/>
-        <v>-1200000</v>
+        <v>-1400000</v>
       </c>
       <c r="G147" s="11" t="s">
         <v>158</v>
@@ -34885,7 +34859,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B148" s="3">
         <v>-200000</v>
@@ -34895,7 +34869,7 @@
       </c>
       <c r="D148" s="11">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E148" s="11">
         <f t="shared" si="7"/>
@@ -34903,7 +34877,7 @@
       </c>
       <c r="F148" s="11">
         <f t="shared" si="5"/>
-        <v>-1000000</v>
+        <v>-1200000</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>158</v>
@@ -34911,7 +34885,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B149" s="3">
         <v>-200000</v>
@@ -34921,7 +34895,7 @@
       </c>
       <c r="D149" s="11">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E149" s="11">
         <f t="shared" si="7"/>
@@ -34929,31 +34903,37 @@
       </c>
       <c r="F149" s="11">
         <f t="shared" si="5"/>
-        <v>-200000</v>
+        <v>-400000</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="11"/>
-      <c r="B150" s="3"/>
+      <c r="A150" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="B150" s="3">
+        <v>24073400</v>
+      </c>
       <c r="C150" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G150" s="11"/>
+      <c r="G150" s="11" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
@@ -35134,14 +35114,14 @@
       <c r="A160" s="11"/>
       <c r="B160" s="29">
         <f>SUM(B2:B158)</f>
-        <v>18849443</v>
+        <v>42922843</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
       <c r="F160" s="29">
         <f>SUM(F2:F158)</f>
-        <v>7405229304</v>
+        <v>7424078747</v>
       </c>
       <c r="G160" s="11"/>
     </row>
@@ -35175,7 +35155,7 @@
       <c r="E163" s="11"/>
       <c r="F163" s="3">
         <f>F160/D2</f>
-        <v>14990342.720647773</v>
+        <v>14998138.882828282</v>
       </c>
       <c r="G163" s="11"/>
     </row>
@@ -35197,7 +35177,7 @@
     </row>
     <row r="172" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="E172" s="22" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -35209,8 +35189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35241,19 +35221,19 @@
         <v>452</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>464</v>
+        <v>754</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>453</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>465</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>466</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>8</v>
@@ -35287,7 +35267,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K2" s="11">
         <v>1.01</v>
@@ -35322,7 +35302,7 @@
         <v>26000</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -35352,7 +35332,7 @@
         <v>-794700</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -35382,7 +35362,7 @@
         <v>-1243924</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
@@ -35418,7 +35398,7 @@
         <v>-3575109.4299999774</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>8</v>
@@ -35460,18 +35440,17 @@
         <v>6508326.9409000278</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="J7" s="60" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="K7" s="44">
-        <f>2*(J31+L31)</f>
-        <v>48621808.219178081</v>
+        <v>24300000</v>
       </c>
       <c r="L7" s="3">
         <f>K7</f>
-        <v>48621808.219178081</v>
+        <v>24300000</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" ref="M7:M8" si="4">K7-L7</f>
@@ -35505,21 +35484,20 @@
         <v>6781930.1174130142</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="K8" s="44">
-        <f>J31+L31</f>
-        <v>24310904.10958904</v>
+        <v>24300000</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="4"/>
-        <v>24310904.10958904</v>
+        <v>24300000</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -35543,11 +35521,11 @@
       </c>
       <c r="F9" s="3">
         <f>K23</f>
-        <v>175917123.32876712</v>
+        <v>175257811</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="0"/>
-        <v>13610409.684666127</v>
+        <v>14269722.013433248</v>
       </c>
       <c r="H9" s="11"/>
       <c r="J9" s="19" t="s">
@@ -35555,11 +35533,11 @@
       </c>
       <c r="K9" s="44">
         <f>'مسکن ایلیا'!B160</f>
-        <v>18849443</v>
+        <v>42922843</v>
       </c>
       <c r="L9" s="3">
         <f>K9-M9</f>
-        <v>18849443</v>
+        <v>42922843</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -35737,7 +35715,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="J14" s="2" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="K14" s="44">
         <v>1000000</v>
@@ -35833,14 +35811,14 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="J16" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K16" s="44">
-        <v>600000</v>
+        <v>200000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>600000</v>
+        <v>200000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="5"/>
@@ -35889,7 +35867,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="J17" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K17" s="44">
         <v>150000</v>
@@ -36185,19 +36163,19 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="J23" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>175917123.32876712</v>
+        <v>175257811</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>61221251.219178081</v>
+        <v>60572843</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
-        <v>114695872.10958904</v>
+        <v>114684968</v>
       </c>
       <c r="N23" s="25"/>
       <c r="O23" s="11" t="s">
@@ -36237,15 +36215,15 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="J24" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>101984411</v>
+        <v>125657811</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
-        <v>19499443</v>
+        <v>43172843</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
@@ -36390,6 +36368,11 @@
       <c r="F28" s="3"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
       <c r="Q28" s="25"/>
@@ -36422,6 +36405,11 @@
       <c r="F29" s="3"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
       <c r="O29" s="25"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="11" t="s">
@@ -36456,18 +36444,10 @@
       <c r="F30" s="3"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="J30" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>536</v>
-      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
       <c r="N30" s="25"/>
       <c r="P30" s="1" t="s">
         <v>310</v>
@@ -36505,20 +36485,10 @@
       <c r="F31" s="3"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="J31" s="44">
-        <v>22000000</v>
-      </c>
-      <c r="K31" s="11">
-        <v>213</v>
-      </c>
-      <c r="L31" s="44">
-        <f>J31*0.18*K31/365</f>
-        <v>2310904.1095890412</v>
-      </c>
-      <c r="M31" s="44">
-        <f>J31*0.24*K31/365</f>
-        <v>3081205.4794520549</v>
-      </c>
+      <c r="J31" s="56"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
       <c r="N31" s="25"/>
       <c r="P31" s="1" t="s">
         <v>326</v>
@@ -36555,9 +36525,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="25" t="s">
-        <v>641</v>
-      </c>
+      <c r="K32" s="25"/>
       <c r="L32" s="56"/>
       <c r="M32" s="56"/>
       <c r="N32" s="56"/>
@@ -36597,13 +36565,11 @@
       <c r="F33" s="3"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
-      <c r="K33" s="76" t="s">
-        <v>714</v>
-      </c>
-      <c r="L33" s="7">
-        <f>M31-L31</f>
-        <v>770301.36986301374</v>
-      </c>
+      <c r="J33" s="25"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
       <c r="O33" s="31" t="s">
         <v>25</v>
       </c>
@@ -36614,10 +36580,10 @@
         <v>150000</v>
       </c>
       <c r="S33" s="49" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="T33" s="49" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -36642,6 +36608,11 @@
       <c r="F34" s="3"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
       <c r="O34" s="25"/>
       <c r="P34" s="32" t="s">
         <v>313</v>
@@ -36650,10 +36621,10 @@
         <v>300000</v>
       </c>
       <c r="S34" s="57">
-        <v>600000</v>
+        <v>500000</v>
       </c>
       <c r="T34" s="58" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -36689,7 +36660,7 @@
         <v>500000</v>
       </c>
       <c r="T35" s="49" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -36714,10 +36685,6 @@
       <c r="F36" s="3"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
-      <c r="L36">
-        <f>J31*K31*0.16/365</f>
-        <v>2054136.98630137</v>
-      </c>
       <c r="O36" s="25"/>
       <c r="P36" s="32" t="s">
         <v>315</v>
@@ -36729,7 +36696,7 @@
         <v>130000</v>
       </c>
       <c r="T36" s="49" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="V36" t="s">
         <v>25</v>
@@ -36757,6 +36724,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
+      <c r="J37" s="25"/>
       <c r="O37" s="25"/>
       <c r="P37" s="18" t="s">
         <v>316</v>
@@ -36768,7 +36736,7 @@
         <v>250000</v>
       </c>
       <c r="T37" s="49" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -36793,6 +36761,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
+      <c r="J38" s="25"/>
       <c r="O38" s="25"/>
       <c r="P38" s="33" t="s">
         <v>317</v>
@@ -36801,7 +36770,7 @@
         <v>200000</v>
       </c>
       <c r="S38" s="48">
-        <v>280000</v>
+        <v>180000</v>
       </c>
       <c r="T38" s="49" t="s">
         <v>319</v>
@@ -36829,7 +36798,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="J39" s="44"/>
+      <c r="J39" s="56"/>
       <c r="O39" s="25"/>
       <c r="P39" s="33" t="s">
         <v>318</v>
@@ -36839,7 +36808,7 @@
       </c>
       <c r="S39" s="48">
         <f>SUM(S34:S38)</f>
-        <v>1760000</v>
+        <v>1560000</v>
       </c>
       <c r="T39" s="49" t="s">
         <v>6</v>
@@ -36867,6 +36836,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
+      <c r="J40" s="25"/>
       <c r="O40" s="25"/>
       <c r="P40" s="33" t="s">
         <v>320</v>
@@ -36938,10 +36908,10 @@
         <v>3000000</v>
       </c>
       <c r="T42" s="73" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="U42" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -36977,10 +36947,10 @@
         <v>1000000</v>
       </c>
       <c r="T43" s="73" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="U43" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -37125,7 +37095,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="P48" s="33" t="s">
         <v>329</v>
@@ -37186,7 +37156,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="P50" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q50" s="3">
         <v>500000</v>
@@ -37215,7 +37185,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="P51" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q51" s="3">
         <v>1200000</v>
@@ -37513,17 +37483,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:G6">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G62">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37726,13 +37696,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B8" s="3">
         <v>54417</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -38447,8 +38417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView tabSelected="1" topLeftCell="G34" workbookViewId="0">
+      <selection activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38600,7 +38570,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B7" s="18">
         <v>-4000000</v>
@@ -38610,7 +38580,7 @@
         <v>500000</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -38937,16 +38907,16 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G28" s="11" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>180</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
@@ -38955,13 +38925,13 @@
         <v>59500</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="I29" s="11">
         <v>165000</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
@@ -38970,13 +38940,13 @@
         <v>24500</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I30" s="11">
         <v>200000</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
@@ -38985,13 +38955,13 @@
         <v>0</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="I31" s="11">
         <v>224500</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
@@ -39006,7 +38976,7 @@
         <v>185000</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="33" spans="6:23" x14ac:dyDescent="0.25">
@@ -39015,13 +38985,13 @@
         <v>0</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="I33" s="11">
         <v>224500</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="34" spans="6:23" x14ac:dyDescent="0.25">
@@ -39030,13 +39000,13 @@
         <v>0</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="I34" s="11">
         <v>224500</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="6:23" x14ac:dyDescent="0.25">
@@ -39045,13 +39015,13 @@
         <v>0</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="I35" s="11">
         <v>224500</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="6:23" ht="75" x14ac:dyDescent="0.25">
@@ -39063,16 +39033,16 @@
         <v>5500</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="I36" s="11">
         <v>219000</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="O36" s="22" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="6:23" x14ac:dyDescent="0.25">
@@ -39081,13 +39051,13 @@
         <v>6500</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="I37" s="11">
         <v>218000</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="38" spans="6:23" x14ac:dyDescent="0.25">
@@ -39096,13 +39066,13 @@
         <v>0</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="I38" s="11">
         <v>224500</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="39" spans="6:23" x14ac:dyDescent="0.25">
@@ -39117,31 +39087,31 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="O40" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="P40" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>644</v>
+      </c>
+      <c r="R40" t="s">
+        <v>647</v>
+      </c>
+      <c r="S40" t="s">
+        <v>691</v>
+      </c>
+      <c r="T40" t="s">
+        <v>692</v>
+      </c>
+      <c r="U40" t="s">
+        <v>648</v>
+      </c>
+      <c r="V40" t="s">
+        <v>649</v>
+      </c>
+      <c r="W40" t="s">
         <v>650</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>649</v>
-      </c>
-      <c r="R40" t="s">
-        <v>652</v>
-      </c>
-      <c r="S40" t="s">
-        <v>696</v>
-      </c>
-      <c r="T40" t="s">
-        <v>697</v>
-      </c>
-      <c r="U40" t="s">
-        <v>653</v>
-      </c>
-      <c r="V40" t="s">
-        <v>654</v>
-      </c>
-      <c r="W40" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="41" spans="6:23" x14ac:dyDescent="0.25">
@@ -39151,13 +39121,13 @@
         <v>224500</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="M41" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="N41" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="O41" s="18">
         <v>8000000000</v>
@@ -39199,10 +39169,10 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="M42" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="N42" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="O42" s="18">
         <v>6300000000</v>
@@ -39265,19 +39235,19 @@
     </row>
     <row r="50" spans="15:21" x14ac:dyDescent="0.25">
       <c r="P50" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="Q50" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="R50" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="S50" t="s">
         <v>282</v>
       </c>
       <c r="U50" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="51" spans="15:21" x14ac:dyDescent="0.25">
@@ -39290,10 +39260,10 @@
     </row>
     <row r="52" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O52" s="72" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="P52" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="Q52" s="18">
         <v>5500000</v>
@@ -39307,15 +39277,15 @@
       </c>
       <c r="U52" s="7">
         <f>U51-S63</f>
-        <v>1979278000</v>
+        <v>733778000</v>
       </c>
     </row>
     <row r="53" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O53" s="72" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="P53" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="Q53" s="18">
         <v>5500000</v>
@@ -39330,10 +39300,10 @@
     </row>
     <row r="54" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O54" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="P54" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="Q54" s="18">
         <v>5500000</v>
@@ -39348,10 +39318,10 @@
     </row>
     <row r="55" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O55" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="P55" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="Q55" s="18">
         <v>5500000</v>
@@ -39365,43 +39335,43 @@
       </c>
       <c r="U55" s="7">
         <f>U52/120</f>
-        <v>16493983.333333334</v>
+        <v>6114816.666666667</v>
       </c>
     </row>
     <row r="56" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O56" t="s">
-        <v>668</v>
+        <v>755</v>
       </c>
       <c r="P56" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Q56" s="18">
         <v>5500000</v>
       </c>
       <c r="R56">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="S56" s="18">
         <f t="shared" si="7"/>
-        <v>335500000</v>
+        <v>165000000</v>
       </c>
     </row>
     <row r="57" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O57" t="s">
+        <v>752</v>
+      </c>
+      <c r="P57" t="s">
         <v>665</v>
       </c>
-      <c r="P57" t="s">
-        <v>670</v>
-      </c>
       <c r="Q57" s="18">
-        <v>0</v>
+        <v>24000000</v>
       </c>
       <c r="R57">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="S57" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1416000000</v>
       </c>
     </row>
     <row r="58" spans="15:21" x14ac:dyDescent="0.25">
@@ -39429,7 +39399,7 @@
     <row r="63" spans="15:21" x14ac:dyDescent="0.25">
       <c r="S63" s="7">
         <f>SUM(S51:S58)</f>
-        <v>1677500000</v>
+        <v>2923000000</v>
       </c>
       <c r="T63" t="s">
         <v>6</v>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="مهر96" sheetId="26" r:id="rId1"/>
@@ -15403,8 +15403,8 @@
   <dimension ref="A1:O150"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="G2" s="37">
         <f>G3+F2</f>
-        <v>535</v>
+        <v>575</v>
       </c>
       <c r="H2" s="37">
         <f>IF(B2&gt;0,1,0)</f>
@@ -15489,11 +15489,11 @@
       </c>
       <c r="I2" s="11">
         <f>B2*(G2-H2)</f>
-        <v>8917800</v>
+        <v>9585800</v>
       </c>
       <c r="J2" s="54">
         <f>C2*(G2-H2)</f>
-        <v>8917800</v>
+        <v>9585800</v>
       </c>
       <c r="K2" s="54">
         <f>D2*(G2-H2)</f>
@@ -15522,7 +15522,7 @@
       </c>
       <c r="G3" s="37">
         <f t="shared" ref="G3:G66" si="1">G4+F3</f>
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="H3" s="37">
         <f t="shared" ref="H3:H66" si="2">IF(B3&gt;0,1,0)</f>
@@ -15530,15 +15530,15 @@
       </c>
       <c r="I3" s="11">
         <f t="shared" ref="I3:I66" si="3">B3*(G3-H3)</f>
-        <v>10606700000</v>
+        <v>11402700000</v>
       </c>
       <c r="J3" s="54">
         <f t="shared" ref="J3:J66" si="4">C3*(G3-H3)</f>
-        <v>6069271000</v>
+        <v>6524751000</v>
       </c>
       <c r="K3" s="54">
         <f t="shared" ref="K3:K66" si="5">D3*(G3-H3)</f>
-        <v>4537429000</v>
+        <v>4877949000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -15563,7 +15563,7 @@
       </c>
       <c r="G4" s="37">
         <f t="shared" si="1"/>
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="H4" s="37">
         <f t="shared" si="2"/>
@@ -15575,11 +15575,11 @@
       </c>
       <c r="J4" s="54">
         <f t="shared" si="4"/>
-        <v>4539000</v>
+        <v>4879000</v>
       </c>
       <c r="K4" s="54">
         <f t="shared" si="5"/>
-        <v>-4539000</v>
+        <v>-4879000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -15604,7 +15604,7 @@
       </c>
       <c r="G5" s="37">
         <f t="shared" si="1"/>
-        <v>532</v>
+        <v>572</v>
       </c>
       <c r="H5" s="37">
         <f t="shared" si="2"/>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" si="3"/>
-        <v>1062000000</v>
+        <v>1142000000</v>
       </c>
       <c r="J5" s="54">
         <f t="shared" si="4"/>
@@ -15620,7 +15620,7 @@
       </c>
       <c r="K5" s="54">
         <f t="shared" si="5"/>
-        <v>1062000000</v>
+        <v>1142000000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -15645,7 +15645,7 @@
       </c>
       <c r="G6" s="37">
         <f t="shared" si="1"/>
-        <v>525</v>
+        <v>565</v>
       </c>
       <c r="H6" s="37">
         <f t="shared" si="2"/>
@@ -15653,7 +15653,7 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" si="3"/>
-        <v>-2625000</v>
+        <v>-2825000</v>
       </c>
       <c r="J6" s="54">
         <f t="shared" si="4"/>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="K6" s="54">
         <f t="shared" si="5"/>
-        <v>-2625000</v>
+        <v>-2825000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -15686,7 +15686,7 @@
       </c>
       <c r="G7" s="37">
         <f t="shared" si="1"/>
-        <v>521</v>
+        <v>561</v>
       </c>
       <c r="H7" s="37">
         <f t="shared" si="2"/>
@@ -15694,7 +15694,7 @@
       </c>
       <c r="I7" s="11">
         <f t="shared" si="3"/>
-        <v>-625460500</v>
+        <v>-673480500</v>
       </c>
       <c r="J7" s="54">
         <f t="shared" si="4"/>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="K7" s="54">
         <f t="shared" si="5"/>
-        <v>-625460500</v>
+        <v>-673480500</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -15727,7 +15727,7 @@
       </c>
       <c r="G8" s="37">
         <f t="shared" si="1"/>
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="H8" s="37">
         <f t="shared" si="2"/>
@@ -15735,7 +15735,7 @@
       </c>
       <c r="I8" s="11">
         <f t="shared" si="3"/>
-        <v>-104000000</v>
+        <v>-112000000</v>
       </c>
       <c r="J8" s="54">
         <f t="shared" si="4"/>
@@ -15743,7 +15743,7 @@
       </c>
       <c r="K8" s="54">
         <f t="shared" si="5"/>
-        <v>-104000000</v>
+        <v>-112000000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -15768,7 +15768,7 @@
       </c>
       <c r="G9" s="37">
         <f t="shared" si="1"/>
-        <v>518</v>
+        <v>558</v>
       </c>
       <c r="H9" s="37">
         <f t="shared" si="2"/>
@@ -15776,7 +15776,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" si="3"/>
-        <v>-365449000</v>
+        <v>-393669000</v>
       </c>
       <c r="J9" s="54">
         <f t="shared" si="4"/>
@@ -15784,7 +15784,7 @@
       </c>
       <c r="K9" s="54">
         <f t="shared" si="5"/>
-        <v>-365449000</v>
+        <v>-393669000</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -15809,7 +15809,7 @@
       </c>
       <c r="G10" s="37">
         <f t="shared" si="1"/>
-        <v>509</v>
+        <v>549</v>
       </c>
       <c r="H10" s="37">
         <f t="shared" si="2"/>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" si="3"/>
-        <v>-101800000</v>
+        <v>-109800000</v>
       </c>
       <c r="J10" s="54">
         <f t="shared" si="4"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="K10" s="54">
         <f t="shared" si="5"/>
-        <v>-101800000</v>
+        <v>-109800000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -15850,7 +15850,7 @@
       </c>
       <c r="G11" s="37">
         <f t="shared" si="1"/>
-        <v>509</v>
+        <v>549</v>
       </c>
       <c r="H11" s="37">
         <f t="shared" si="2"/>
@@ -15858,7 +15858,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" si="3"/>
-        <v>508000000</v>
+        <v>548000000</v>
       </c>
       <c r="J11" s="54">
         <f t="shared" si="4"/>
@@ -15866,7 +15866,7 @@
       </c>
       <c r="K11" s="54">
         <f t="shared" si="5"/>
-        <v>508000000</v>
+        <v>548000000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="G12" s="37">
         <f t="shared" si="1"/>
-        <v>505</v>
+        <v>545</v>
       </c>
       <c r="H12" s="37">
         <f t="shared" si="2"/>
@@ -15899,7 +15899,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" si="3"/>
-        <v>-151500000</v>
+        <v>-163500000</v>
       </c>
       <c r="J12" s="54">
         <f t="shared" si="4"/>
@@ -15907,7 +15907,7 @@
       </c>
       <c r="K12" s="54">
         <f t="shared" si="5"/>
-        <v>-151500000</v>
+        <v>-163500000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -15932,7 +15932,7 @@
       </c>
       <c r="G13" s="37">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="H13" s="37">
         <f t="shared" si="2"/>
@@ -15940,7 +15940,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" si="3"/>
-        <v>-31000000</v>
+        <v>-33480000</v>
       </c>
       <c r="J13" s="54">
         <f t="shared" si="4"/>
@@ -15948,7 +15948,7 @@
       </c>
       <c r="K13" s="54">
         <f t="shared" si="5"/>
-        <v>-31000000</v>
+        <v>-33480000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -15973,7 +15973,7 @@
       </c>
       <c r="G14" s="37">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="H14" s="37">
         <f t="shared" si="2"/>
@@ -15981,7 +15981,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" si="3"/>
-        <v>998000000</v>
+        <v>1078000000</v>
       </c>
       <c r="J14" s="54">
         <f t="shared" si="4"/>
@@ -15989,7 +15989,7 @@
       </c>
       <c r="K14" s="54">
         <f t="shared" si="5"/>
-        <v>998000000</v>
+        <v>1078000000</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -16014,7 +16014,7 @@
       </c>
       <c r="G15" s="37">
         <f t="shared" si="1"/>
-        <v>499</v>
+        <v>539</v>
       </c>
       <c r="H15" s="37">
         <f t="shared" si="2"/>
@@ -16022,7 +16022,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" si="3"/>
-        <v>896400000</v>
+        <v>968400000</v>
       </c>
       <c r="J15" s="54">
         <f t="shared" si="4"/>
@@ -16030,7 +16030,7 @@
       </c>
       <c r="K15" s="54">
         <f t="shared" si="5"/>
-        <v>896400000</v>
+        <v>968400000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -16055,7 +16055,7 @@
       </c>
       <c r="G16" s="37">
         <f t="shared" si="1"/>
-        <v>499</v>
+        <v>539</v>
       </c>
       <c r="H16" s="37">
         <f t="shared" si="2"/>
@@ -16063,7 +16063,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" si="3"/>
-        <v>-99800000</v>
+        <v>-107800000</v>
       </c>
       <c r="J16" s="54">
         <f t="shared" si="4"/>
@@ -16071,7 +16071,7 @@
       </c>
       <c r="K16" s="54">
         <f t="shared" si="5"/>
-        <v>-99800000</v>
+        <v>-107800000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -16096,7 +16096,7 @@
       </c>
       <c r="G17" s="37">
         <f t="shared" si="1"/>
-        <v>495</v>
+        <v>535</v>
       </c>
       <c r="H17" s="37">
         <f t="shared" si="2"/>
@@ -16104,7 +16104,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" si="3"/>
-        <v>-990000000</v>
+        <v>-1070000000</v>
       </c>
       <c r="J17" s="54">
         <f t="shared" si="4"/>
@@ -16112,7 +16112,7 @@
       </c>
       <c r="K17" s="54">
         <f t="shared" si="5"/>
-        <v>-990000000</v>
+        <v>-1070000000</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -16140,7 +16140,7 @@
       </c>
       <c r="G18" s="37">
         <f t="shared" si="1"/>
-        <v>494</v>
+        <v>534</v>
       </c>
       <c r="H18" s="37">
         <f t="shared" si="2"/>
@@ -16148,7 +16148,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" si="3"/>
-        <v>-148200000</v>
+        <v>-160200000</v>
       </c>
       <c r="J18" s="54">
         <f t="shared" si="4"/>
@@ -16156,7 +16156,7 @@
       </c>
       <c r="K18" s="54">
         <f t="shared" si="5"/>
-        <v>-148200000</v>
+        <v>-160200000</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -16181,7 +16181,7 @@
       </c>
       <c r="G19" s="37">
         <f t="shared" si="1"/>
-        <v>493</v>
+        <v>533</v>
       </c>
       <c r="H19" s="37">
         <f t="shared" si="2"/>
@@ -16189,7 +16189,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" si="3"/>
-        <v>-98600000</v>
+        <v>-106600000</v>
       </c>
       <c r="J19" s="54">
         <f t="shared" si="4"/>
@@ -16197,7 +16197,7 @@
       </c>
       <c r="K19" s="54">
         <f t="shared" si="5"/>
-        <v>-98600000</v>
+        <v>-106600000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -16222,7 +16222,7 @@
       </c>
       <c r="G20" s="37">
         <f t="shared" si="1"/>
-        <v>491</v>
+        <v>531</v>
       </c>
       <c r="H20" s="37">
         <f t="shared" si="2"/>
@@ -16230,15 +16230,15 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" si="3"/>
-        <v>132833610</v>
+        <v>143677170</v>
       </c>
       <c r="J20" s="54">
         <f t="shared" si="4"/>
-        <v>72251480</v>
+        <v>78149560</v>
       </c>
       <c r="K20" s="54">
         <f t="shared" si="5"/>
-        <v>60582130</v>
+        <v>65527610</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -16263,7 +16263,7 @@
       </c>
       <c r="G21" s="37">
         <f t="shared" si="1"/>
-        <v>489</v>
+        <v>529</v>
       </c>
       <c r="H21" s="37">
         <f t="shared" si="2"/>
@@ -16271,7 +16271,7 @@
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>-736287300</v>
+        <v>-796515300</v>
       </c>
       <c r="J21" s="54">
         <f t="shared" si="4"/>
@@ -16279,7 +16279,7 @@
       </c>
       <c r="K21" s="54">
         <f t="shared" si="5"/>
-        <v>-736287300</v>
+        <v>-796515300</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="G22" s="37">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>526</v>
       </c>
       <c r="H22" s="37">
         <f t="shared" si="2"/>
@@ -16312,7 +16312,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" si="3"/>
-        <v>1455000000</v>
+        <v>1575000000</v>
       </c>
       <c r="J22" s="54">
         <f t="shared" si="4"/>
@@ -16320,7 +16320,7 @@
       </c>
       <c r="K22" s="54">
         <f t="shared" si="5"/>
-        <v>1455000000</v>
+        <v>1575000000</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -16345,7 +16345,7 @@
       </c>
       <c r="G23" s="37">
         <f t="shared" si="1"/>
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="H23" s="37">
         <f t="shared" si="2"/>
@@ -16353,7 +16353,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" si="3"/>
-        <v>484000000</v>
+        <v>524000000</v>
       </c>
       <c r="J23" s="54">
         <f t="shared" si="4"/>
@@ -16361,7 +16361,7 @@
       </c>
       <c r="K23" s="54">
         <f t="shared" si="5"/>
-        <v>484000000</v>
+        <v>524000000</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -16386,7 +16386,7 @@
       </c>
       <c r="G24" s="37">
         <f t="shared" si="1"/>
-        <v>484</v>
+        <v>524</v>
       </c>
       <c r="H24" s="37">
         <f t="shared" si="2"/>
@@ -16394,7 +16394,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" si="3"/>
-        <v>-1452435600</v>
+        <v>-1572471600</v>
       </c>
       <c r="J24" s="54">
         <f t="shared" si="4"/>
@@ -16402,7 +16402,7 @@
       </c>
       <c r="K24" s="54">
         <f t="shared" si="5"/>
-        <v>-1452435600</v>
+        <v>-1572471600</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -16427,7 +16427,7 @@
       </c>
       <c r="G25" s="37">
         <f t="shared" si="1"/>
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="H25" s="37">
         <f t="shared" si="2"/>
@@ -16435,7 +16435,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" si="3"/>
-        <v>702000000</v>
+        <v>762000000</v>
       </c>
       <c r="J25" s="54">
         <f t="shared" si="4"/>
@@ -16443,7 +16443,7 @@
       </c>
       <c r="K25" s="54">
         <f t="shared" si="5"/>
-        <v>702000000</v>
+        <v>762000000</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -16468,7 +16468,7 @@
       </c>
       <c r="G26" s="37">
         <f t="shared" si="1"/>
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="H26" s="37">
         <f t="shared" si="2"/>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" si="3"/>
-        <v>-75604000</v>
+        <v>-82164000</v>
       </c>
       <c r="J26" s="54">
         <f t="shared" si="4"/>
@@ -16484,7 +16484,7 @@
       </c>
       <c r="K26" s="54">
         <f t="shared" si="5"/>
-        <v>-75604000</v>
+        <v>-82164000</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -16509,7 +16509,7 @@
       </c>
       <c r="G27" s="37">
         <f t="shared" si="1"/>
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="H27" s="37">
         <f t="shared" si="2"/>
@@ -16517,15 +16517,15 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" si="3"/>
-        <v>91521387</v>
+        <v>99497107</v>
       </c>
       <c r="J27" s="54">
         <f t="shared" si="4"/>
-        <v>49302567</v>
+        <v>53599087</v>
       </c>
       <c r="K27" s="54">
         <f t="shared" si="5"/>
-        <v>42218820</v>
+        <v>45898020</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -16550,7 +16550,7 @@
       </c>
       <c r="G28" s="37">
         <f t="shared" si="1"/>
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="H28" s="37">
         <f t="shared" si="2"/>
@@ -16558,11 +16558,11 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" si="3"/>
-        <v>-101218000</v>
+        <v>-110058000</v>
       </c>
       <c r="J28" s="54">
         <f t="shared" si="4"/>
-        <v>-101218000</v>
+        <v>-110058000</v>
       </c>
       <c r="K28" s="54">
         <f t="shared" si="5"/>
@@ -16591,7 +16591,7 @@
       </c>
       <c r="G29" s="37">
         <f t="shared" si="1"/>
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="H29" s="37">
         <f t="shared" si="2"/>
@@ -16599,7 +16599,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" si="3"/>
-        <v>-229229000</v>
+        <v>-249249000</v>
       </c>
       <c r="J29" s="54">
         <f t="shared" si="4"/>
@@ -16607,7 +16607,7 @@
       </c>
       <c r="K29" s="54">
         <f t="shared" si="5"/>
-        <v>-229229000</v>
+        <v>-249249000</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -16632,7 +16632,7 @@
       </c>
       <c r="G30" s="37">
         <f t="shared" si="1"/>
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="H30" s="37">
         <f t="shared" si="2"/>
@@ -16640,11 +16640,11 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" si="3"/>
-        <v>-6870000000</v>
+        <v>-7470000000</v>
       </c>
       <c r="J30" s="54">
         <f t="shared" si="4"/>
-        <v>-6870000000</v>
+        <v>-7470000000</v>
       </c>
       <c r="K30" s="54">
         <f t="shared" si="5"/>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="G31" s="37">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="H31" s="37">
         <f t="shared" si="2"/>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" si="3"/>
-        <v>-1327806900</v>
+        <v>-1448242900</v>
       </c>
       <c r="J31" s="54">
         <f t="shared" si="4"/>
@@ -16689,7 +16689,7 @@
       </c>
       <c r="K31" s="54">
         <f t="shared" si="5"/>
-        <v>-1327806900</v>
+        <v>-1448242900</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -16714,7 +16714,7 @@
       </c>
       <c r="G32" s="37">
         <f t="shared" si="1"/>
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="H32" s="37">
         <f t="shared" si="2"/>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" si="3"/>
-        <v>-1319590100</v>
+        <v>-1439826100</v>
       </c>
       <c r="J32" s="54">
         <f t="shared" si="4"/>
@@ -16730,7 +16730,7 @@
       </c>
       <c r="K32" s="54">
         <f t="shared" si="5"/>
-        <v>-1319590100</v>
+        <v>-1439826100</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -16755,7 +16755,7 @@
       </c>
       <c r="G33" s="37">
         <f t="shared" si="1"/>
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="H33" s="37">
         <f t="shared" si="2"/>
@@ -16763,7 +16763,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" si="3"/>
-        <v>-392229000</v>
+        <v>-428049000</v>
       </c>
       <c r="J33" s="54">
         <f t="shared" si="4"/>
@@ -16771,7 +16771,7 @@
       </c>
       <c r="K33" s="54">
         <f t="shared" si="5"/>
-        <v>-392229000</v>
+        <v>-428049000</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -16796,7 +16796,7 @@
       </c>
       <c r="G34" s="37">
         <f t="shared" si="1"/>
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="H34" s="37">
         <f t="shared" si="2"/>
@@ -16808,11 +16808,11 @@
       </c>
       <c r="J34" s="54">
         <f t="shared" si="4"/>
-        <v>438000000</v>
+        <v>478000000</v>
       </c>
       <c r="K34" s="54">
         <f t="shared" si="5"/>
-        <v>-438000000</v>
+        <v>-478000000</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -16837,7 +16837,7 @@
       </c>
       <c r="G35" s="37">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="H35" s="37">
         <f t="shared" si="2"/>
@@ -16845,15 +16845,15 @@
       </c>
       <c r="I35" s="11">
         <f t="shared" si="3"/>
-        <v>22458016</v>
+        <v>24556896</v>
       </c>
       <c r="J35" s="54">
         <f t="shared" si="4"/>
-        <v>-9271764</v>
+        <v>-10138284</v>
       </c>
       <c r="K35" s="54">
         <f t="shared" si="5"/>
-        <v>31729780</v>
+        <v>34695180</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -16878,7 +16878,7 @@
       </c>
       <c r="G36" s="37">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" si="2"/>
@@ -16890,11 +16890,11 @@
       </c>
       <c r="J36" s="54">
         <f t="shared" si="4"/>
-        <v>9293427</v>
+        <v>10159947</v>
       </c>
       <c r="K36" s="54">
         <f t="shared" si="5"/>
-        <v>-9293427</v>
+        <v>-10159947</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -16919,7 +16919,7 @@
       </c>
       <c r="G37" s="37">
         <f t="shared" si="1"/>
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="H37" s="37">
         <f t="shared" si="2"/>
@@ -16927,7 +16927,7 @@
       </c>
       <c r="I37" s="11">
         <f t="shared" si="3"/>
-        <v>-23045000</v>
+        <v>-25245000</v>
       </c>
       <c r="J37" s="54">
         <f t="shared" si="4"/>
@@ -16935,7 +16935,7 @@
       </c>
       <c r="K37" s="54">
         <f t="shared" si="5"/>
-        <v>-23045000</v>
+        <v>-25245000</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -16960,7 +16960,7 @@
       </c>
       <c r="G38" s="37">
         <f t="shared" si="1"/>
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="H38" s="37">
         <f t="shared" si="2"/>
@@ -16968,11 +16968,11 @@
       </c>
       <c r="I38" s="11">
         <f t="shared" si="3"/>
-        <v>1251000000</v>
+        <v>1371000000</v>
       </c>
       <c r="J38" s="54">
         <f t="shared" si="4"/>
-        <v>1251000000</v>
+        <v>1371000000</v>
       </c>
       <c r="K38" s="54">
         <f t="shared" si="5"/>
@@ -17001,7 +17001,7 @@
       </c>
       <c r="G39" s="37">
         <f t="shared" si="1"/>
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="H39" s="37">
         <f t="shared" si="2"/>
@@ -17009,11 +17009,11 @@
       </c>
       <c r="I39" s="11">
         <f t="shared" si="3"/>
-        <v>1040000000</v>
+        <v>1140000000</v>
       </c>
       <c r="J39" s="54">
         <f t="shared" si="4"/>
-        <v>1040000000</v>
+        <v>1140000000</v>
       </c>
       <c r="K39" s="54">
         <f t="shared" si="5"/>
@@ -17042,7 +17042,7 @@
       </c>
       <c r="G40" s="37">
         <f t="shared" si="1"/>
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="H40" s="37">
         <f t="shared" si="2"/>
@@ -17050,7 +17050,7 @@
       </c>
       <c r="I40" s="11">
         <f t="shared" si="3"/>
-        <v>-20850000</v>
+        <v>-22850000</v>
       </c>
       <c r="J40" s="54">
         <f t="shared" si="4"/>
@@ -17058,7 +17058,7 @@
       </c>
       <c r="K40" s="54">
         <f t="shared" si="5"/>
-        <v>-20850000</v>
+        <v>-22850000</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -17083,7 +17083,7 @@
       </c>
       <c r="G41" s="37">
         <f t="shared" si="1"/>
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="H41" s="37">
         <f t="shared" si="2"/>
@@ -17091,7 +17091,7 @@
       </c>
       <c r="I41" s="11">
         <f t="shared" si="3"/>
-        <v>1248000000</v>
+        <v>1368000000</v>
       </c>
       <c r="J41" s="54">
         <f t="shared" si="4"/>
@@ -17099,7 +17099,7 @@
       </c>
       <c r="K41" s="54">
         <f t="shared" si="5"/>
-        <v>1248000000</v>
+        <v>1368000000</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="G42" s="37">
         <f t="shared" si="1"/>
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="H42" s="37">
         <f t="shared" si="2"/>
@@ -17132,7 +17132,7 @@
       </c>
       <c r="I42" s="11">
         <f t="shared" si="3"/>
-        <v>-36928800</v>
+        <v>-40496800</v>
       </c>
       <c r="J42" s="54">
         <f t="shared" si="4"/>
@@ -17140,7 +17140,7 @@
       </c>
       <c r="K42" s="54">
         <f t="shared" si="5"/>
-        <v>-36928800</v>
+        <v>-40496800</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -17165,7 +17165,7 @@
       </c>
       <c r="G43" s="37">
         <f t="shared" si="1"/>
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="H43" s="37">
         <f t="shared" si="2"/>
@@ -17173,7 +17173,7 @@
       </c>
       <c r="I43" s="11">
         <f t="shared" si="3"/>
-        <v>-82000000</v>
+        <v>-90000000</v>
       </c>
       <c r="J43" s="54">
         <f t="shared" si="4"/>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="K43" s="54">
         <f t="shared" si="5"/>
-        <v>-82000000</v>
+        <v>-90000000</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -17206,7 +17206,7 @@
       </c>
       <c r="G44" s="37">
         <f t="shared" si="1"/>
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="H44" s="37">
         <f t="shared" si="2"/>
@@ -17214,7 +17214,7 @@
       </c>
       <c r="I44" s="11">
         <f t="shared" si="3"/>
-        <v>-81600000</v>
+        <v>-89600000</v>
       </c>
       <c r="J44" s="54">
         <f t="shared" si="4"/>
@@ -17222,7 +17222,7 @@
       </c>
       <c r="K44" s="54">
         <f t="shared" si="5"/>
-        <v>-81600000</v>
+        <v>-89600000</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -17247,7 +17247,7 @@
       </c>
       <c r="G45" s="37">
         <f t="shared" si="1"/>
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="H45" s="37">
         <f t="shared" si="2"/>
@@ -17255,7 +17255,7 @@
       </c>
       <c r="I45" s="11">
         <f t="shared" si="3"/>
-        <v>-228480000</v>
+        <v>-250880000</v>
       </c>
       <c r="J45" s="54">
         <f t="shared" si="4"/>
@@ -17263,7 +17263,7 @@
       </c>
       <c r="K45" s="54">
         <f t="shared" si="5"/>
-        <v>-228480000</v>
+        <v>-250880000</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -17288,7 +17288,7 @@
       </c>
       <c r="G46" s="37">
         <f t="shared" si="1"/>
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="H46" s="37">
         <f t="shared" si="2"/>
@@ -17296,7 +17296,7 @@
       </c>
       <c r="I46" s="11">
         <f t="shared" si="3"/>
-        <v>-285022000</v>
+        <v>-313242000</v>
       </c>
       <c r="J46" s="54">
         <f t="shared" si="4"/>
@@ -17304,7 +17304,7 @@
       </c>
       <c r="K46" s="54">
         <f t="shared" si="5"/>
-        <v>-285022000</v>
+        <v>-313242000</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -17329,7 +17329,7 @@
       </c>
       <c r="G47" s="37">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="H47" s="37">
         <f t="shared" si="2"/>
@@ -17337,15 +17337,15 @@
       </c>
       <c r="I47" s="11">
         <f t="shared" si="3"/>
-        <v>16357988</v>
+        <v>18006148</v>
       </c>
       <c r="J47" s="54">
         <f t="shared" si="4"/>
-        <v>2665061</v>
+        <v>2933581</v>
       </c>
       <c r="K47" s="54">
         <f t="shared" si="5"/>
-        <v>13692927</v>
+        <v>15072567</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -17370,7 +17370,7 @@
       </c>
       <c r="G48" s="37">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="H48" s="37">
         <f t="shared" si="2"/>
@@ -17378,7 +17378,7 @@
       </c>
       <c r="I48" s="11">
         <f t="shared" si="3"/>
-        <v>676765900</v>
+        <v>744953900</v>
       </c>
       <c r="J48" s="54">
         <f t="shared" si="4"/>
@@ -17386,7 +17386,7 @@
       </c>
       <c r="K48" s="54">
         <f t="shared" si="5"/>
-        <v>676765900</v>
+        <v>744953900</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -17411,7 +17411,7 @@
       </c>
       <c r="G49" s="37">
         <f t="shared" si="1"/>
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="H49" s="37">
         <f t="shared" si="2"/>
@@ -17419,7 +17419,7 @@
       </c>
       <c r="I49" s="11">
         <f t="shared" si="3"/>
-        <v>-60295000</v>
+        <v>-66495000</v>
       </c>
       <c r="J49" s="54">
         <f t="shared" si="4"/>
@@ -17427,7 +17427,7 @@
       </c>
       <c r="K49" s="54">
         <f t="shared" si="5"/>
-        <v>-60295000</v>
+        <v>-66495000</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -17452,7 +17452,7 @@
       </c>
       <c r="G50" s="37">
         <f t="shared" si="1"/>
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="H50" s="37">
         <f t="shared" si="2"/>
@@ -17460,7 +17460,7 @@
       </c>
       <c r="I50" s="11">
         <f t="shared" si="3"/>
-        <v>-53682000</v>
+        <v>-59202000</v>
       </c>
       <c r="J50" s="54">
         <f t="shared" si="4"/>
@@ -17468,7 +17468,7 @@
       </c>
       <c r="K50" s="54">
         <f t="shared" si="5"/>
-        <v>-53682000</v>
+        <v>-59202000</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -17493,7 +17493,7 @@
       </c>
       <c r="G51" s="37">
         <f t="shared" si="1"/>
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="H51" s="37">
         <f t="shared" si="2"/>
@@ -17501,7 +17501,7 @@
       </c>
       <c r="I51" s="11">
         <f t="shared" si="3"/>
-        <v>-287860000</v>
+        <v>-317460000</v>
       </c>
       <c r="J51" s="54">
         <f t="shared" si="4"/>
@@ -17509,7 +17509,7 @@
       </c>
       <c r="K51" s="54">
         <f t="shared" si="5"/>
-        <v>-287860000</v>
+        <v>-317460000</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -17534,7 +17534,7 @@
       </c>
       <c r="G52" s="37">
         <f t="shared" si="1"/>
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="H52" s="37">
         <f t="shared" si="2"/>
@@ -17542,7 +17542,7 @@
       </c>
       <c r="I52" s="11">
         <f t="shared" si="3"/>
-        <v>-77800000</v>
+        <v>-85800000</v>
       </c>
       <c r="J52" s="54">
         <f t="shared" si="4"/>
@@ -17550,7 +17550,7 @@
       </c>
       <c r="K52" s="54">
         <f t="shared" si="5"/>
-        <v>-77800000</v>
+        <v>-85800000</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="G53" s="37">
         <f t="shared" si="1"/>
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="H53" s="37">
         <f t="shared" si="2"/>
@@ -17583,7 +17583,7 @@
       </c>
       <c r="I53" s="11">
         <f t="shared" si="3"/>
-        <v>-409340000</v>
+        <v>-451540000</v>
       </c>
       <c r="J53" s="54">
         <f t="shared" si="4"/>
@@ -17591,7 +17591,7 @@
       </c>
       <c r="K53" s="54">
         <f t="shared" si="5"/>
-        <v>-409340000</v>
+        <v>-451540000</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -17616,7 +17616,7 @@
       </c>
       <c r="G54" s="37">
         <f t="shared" si="1"/>
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="H54" s="37">
         <f t="shared" si="2"/>
@@ -17624,7 +17624,7 @@
       </c>
       <c r="I54" s="11">
         <f t="shared" si="3"/>
-        <v>-77600000</v>
+        <v>-85600000</v>
       </c>
       <c r="J54" s="54">
         <f t="shared" si="4"/>
@@ -17632,7 +17632,7 @@
       </c>
       <c r="K54" s="54">
         <f t="shared" si="5"/>
-        <v>-77600000</v>
+        <v>-85600000</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="G55" s="37">
         <f t="shared" si="1"/>
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="H55" s="37">
         <f t="shared" si="2"/>
@@ -17665,7 +17665,7 @@
       </c>
       <c r="I55" s="11">
         <f t="shared" si="3"/>
-        <v>-388194000</v>
+        <v>-428214000</v>
       </c>
       <c r="J55" s="54">
         <f t="shared" si="4"/>
@@ -17673,7 +17673,7 @@
       </c>
       <c r="K55" s="54">
         <f t="shared" si="5"/>
-        <v>-388194000</v>
+        <v>-428214000</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -17698,7 +17698,7 @@
       </c>
       <c r="G56" s="37">
         <f t="shared" si="1"/>
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="H56" s="37">
         <f t="shared" si="2"/>
@@ -17706,7 +17706,7 @@
       </c>
       <c r="I56" s="11">
         <f t="shared" si="3"/>
-        <v>-14744000</v>
+        <v>-16264000</v>
       </c>
       <c r="J56" s="54">
         <f t="shared" si="4"/>
@@ -17714,7 +17714,7 @@
       </c>
       <c r="K56" s="54">
         <f t="shared" si="5"/>
-        <v>-14744000</v>
+        <v>-16264000</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -17739,7 +17739,7 @@
       </c>
       <c r="G57" s="37">
         <f t="shared" si="1"/>
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="H57" s="37">
         <f t="shared" si="2"/>
@@ -17747,7 +17747,7 @@
       </c>
       <c r="I57" s="11">
         <f t="shared" si="3"/>
-        <v>-40740000</v>
+        <v>-44940000</v>
       </c>
       <c r="J57" s="54">
         <f t="shared" si="4"/>
@@ -17755,7 +17755,7 @@
       </c>
       <c r="K57" s="54">
         <f t="shared" si="5"/>
-        <v>-40740000</v>
+        <v>-44940000</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -17780,7 +17780,7 @@
       </c>
       <c r="G58" s="37">
         <f t="shared" si="1"/>
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="H58" s="37">
         <f t="shared" si="2"/>
@@ -17788,7 +17788,7 @@
       </c>
       <c r="I58" s="11">
         <f t="shared" si="3"/>
-        <v>-23280000</v>
+        <v>-25680000</v>
       </c>
       <c r="J58" s="54">
         <f t="shared" si="4"/>
@@ -17796,7 +17796,7 @@
       </c>
       <c r="K58" s="54">
         <f t="shared" si="5"/>
-        <v>-23280000</v>
+        <v>-25680000</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -17821,7 +17821,7 @@
       </c>
       <c r="G59" s="37">
         <f t="shared" si="1"/>
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="H59" s="37">
         <f t="shared" si="2"/>
@@ -17829,11 +17829,11 @@
       </c>
       <c r="I59" s="11">
         <f t="shared" si="3"/>
-        <v>384000000</v>
+        <v>424000000</v>
       </c>
       <c r="J59" s="54">
         <f t="shared" si="4"/>
-        <v>384000000</v>
+        <v>424000000</v>
       </c>
       <c r="K59" s="54">
         <f t="shared" si="5"/>
@@ -17862,7 +17862,7 @@
       </c>
       <c r="G60" s="37">
         <f t="shared" si="1"/>
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="H60" s="37">
         <f t="shared" si="2"/>
@@ -17870,11 +17870,11 @@
       </c>
       <c r="I60" s="11">
         <f t="shared" si="3"/>
-        <v>1340500000</v>
+        <v>1480500000</v>
       </c>
       <c r="J60" s="54">
         <f t="shared" si="4"/>
-        <v>1340500000</v>
+        <v>1480500000</v>
       </c>
       <c r="K60" s="54">
         <f t="shared" si="5"/>
@@ -17903,7 +17903,7 @@
       </c>
       <c r="G61" s="37">
         <f t="shared" si="1"/>
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="H61" s="37">
         <f t="shared" si="2"/>
@@ -17911,11 +17911,11 @@
       </c>
       <c r="I61" s="11">
         <f t="shared" si="3"/>
-        <v>381000000</v>
+        <v>421000000</v>
       </c>
       <c r="J61" s="54">
         <f t="shared" si="4"/>
-        <v>381000000</v>
+        <v>421000000</v>
       </c>
       <c r="K61" s="54">
         <f t="shared" si="5"/>
@@ -17944,7 +17944,7 @@
       </c>
       <c r="G62" s="37">
         <f t="shared" si="1"/>
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="H62" s="37">
         <f t="shared" si="2"/>
@@ -17952,11 +17952,11 @@
       </c>
       <c r="I62" s="11">
         <f t="shared" si="3"/>
-        <v>1143000000</v>
+        <v>1263000000</v>
       </c>
       <c r="J62" s="54">
         <f t="shared" si="4"/>
-        <v>1143000000</v>
+        <v>1263000000</v>
       </c>
       <c r="K62" s="54">
         <f t="shared" si="5"/>
@@ -17985,7 +17985,7 @@
       </c>
       <c r="G63" s="37">
         <f t="shared" si="1"/>
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="H63" s="37">
         <f t="shared" si="2"/>
@@ -17993,7 +17993,7 @@
       </c>
       <c r="I63" s="11">
         <f t="shared" si="3"/>
-        <v>-76000000</v>
+        <v>-84000000</v>
       </c>
       <c r="J63" s="54">
         <f t="shared" si="4"/>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="K63" s="54">
         <f t="shared" si="5"/>
-        <v>-76000000</v>
+        <v>-84000000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -18026,7 +18026,7 @@
       </c>
       <c r="G64" s="37">
         <f t="shared" si="1"/>
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="H64" s="37">
         <f t="shared" si="2"/>
@@ -18034,7 +18034,7 @@
       </c>
       <c r="I64" s="11">
         <f t="shared" si="3"/>
-        <v>-18750000</v>
+        <v>-20750000</v>
       </c>
       <c r="J64" s="54">
         <f t="shared" si="4"/>
@@ -18042,7 +18042,7 @@
       </c>
       <c r="K64" s="54">
         <f t="shared" si="5"/>
-        <v>-18750000</v>
+        <v>-20750000</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -18067,7 +18067,7 @@
       </c>
       <c r="G65" s="37">
         <f t="shared" si="1"/>
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="H65" s="37">
         <f t="shared" si="2"/>
@@ -18075,7 +18075,7 @@
       </c>
       <c r="I65" s="11">
         <f t="shared" si="3"/>
-        <v>-74200000</v>
+        <v>-82200000</v>
       </c>
       <c r="J65" s="54">
         <f t="shared" si="4"/>
@@ -18083,7 +18083,7 @@
       </c>
       <c r="K65" s="54">
         <f t="shared" si="5"/>
-        <v>-74200000</v>
+        <v>-82200000</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -18108,7 +18108,7 @@
       </c>
       <c r="G66" s="37">
         <f t="shared" si="1"/>
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="H66" s="37">
         <f t="shared" si="2"/>
@@ -18116,7 +18116,7 @@
       </c>
       <c r="I66" s="11">
         <f t="shared" si="3"/>
-        <v>-62560000</v>
+        <v>-69360000</v>
       </c>
       <c r="J66" s="54">
         <f t="shared" si="4"/>
@@ -18124,7 +18124,7 @@
       </c>
       <c r="K66" s="54">
         <f t="shared" si="5"/>
-        <v>-62560000</v>
+        <v>-69360000</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -18149,7 +18149,7 @@
       </c>
       <c r="G67" s="37">
         <f t="shared" ref="G67:G142" si="7">G68+F67</f>
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="H67" s="37">
         <f t="shared" ref="H67:H130" si="8">IF(B67&gt;0,1,0)</f>
@@ -18157,15 +18157,15 @@
       </c>
       <c r="I67" s="11">
         <f t="shared" ref="I67:I119" si="9">B67*(G67-H67)</f>
-        <v>33424950</v>
+        <v>37077950</v>
       </c>
       <c r="J67" s="54">
         <f t="shared" ref="J67:J130" si="10">C67*(G67-H67)</f>
-        <v>24054618</v>
+        <v>26683538</v>
       </c>
       <c r="K67" s="54">
         <f t="shared" ref="K67:K130" si="11">D67*(G67-H67)</f>
-        <v>9370332</v>
+        <v>10394412</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -18190,7 +18190,7 @@
       </c>
       <c r="G68" s="37">
         <f t="shared" si="7"/>
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="H68" s="37">
         <f t="shared" si="8"/>
@@ -18198,7 +18198,7 @@
       </c>
       <c r="I68" s="11">
         <f t="shared" si="9"/>
-        <v>-50605000</v>
+        <v>-56405000</v>
       </c>
       <c r="J68" s="54">
         <f t="shared" si="10"/>
@@ -18206,7 +18206,7 @@
       </c>
       <c r="K68" s="54">
         <f t="shared" si="11"/>
-        <v>-50605000</v>
+        <v>-56405000</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -18231,7 +18231,7 @@
       </c>
       <c r="G69" s="37">
         <f t="shared" si="7"/>
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="H69" s="37">
         <f t="shared" si="8"/>
@@ -18239,7 +18239,7 @@
       </c>
       <c r="I69" s="11">
         <f t="shared" si="9"/>
-        <v>334180000</v>
+        <v>373380000</v>
       </c>
       <c r="J69" s="54">
         <f t="shared" si="10"/>
@@ -18247,7 +18247,7 @@
       </c>
       <c r="K69" s="54">
         <f t="shared" si="11"/>
-        <v>334180000</v>
+        <v>373380000</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -18272,7 +18272,7 @@
       </c>
       <c r="G70" s="37">
         <f t="shared" si="7"/>
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="H70" s="37">
         <f t="shared" si="8"/>
@@ -18280,7 +18280,7 @@
       </c>
       <c r="I70" s="11">
         <f t="shared" si="9"/>
-        <v>-15594000</v>
+        <v>-17434000</v>
       </c>
       <c r="J70" s="54">
         <f t="shared" si="10"/>
@@ -18288,7 +18288,7 @@
       </c>
       <c r="K70" s="54">
         <f t="shared" si="11"/>
-        <v>-15594000</v>
+        <v>-17434000</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -18313,7 +18313,7 @@
       </c>
       <c r="G71" s="37">
         <f t="shared" si="7"/>
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="H71" s="37">
         <f t="shared" si="8"/>
@@ -18321,15 +18321,15 @@
       </c>
       <c r="I71" s="11">
         <f t="shared" si="9"/>
-        <v>38753568</v>
+        <v>43367088</v>
       </c>
       <c r="J71" s="54">
         <f t="shared" si="10"/>
-        <v>34880832</v>
+        <v>39033312</v>
       </c>
       <c r="K71" s="54">
         <f t="shared" si="11"/>
-        <v>3872736</v>
+        <v>4333776</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -18354,7 +18354,7 @@
       </c>
       <c r="G72" s="37">
         <f t="shared" si="7"/>
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="H72" s="37">
         <f t="shared" si="8"/>
@@ -18362,7 +18362,7 @@
       </c>
       <c r="I72" s="11">
         <f t="shared" si="9"/>
-        <v>-51061584</v>
+        <v>-57140344</v>
       </c>
       <c r="J72" s="54">
         <f t="shared" si="10"/>
@@ -18370,7 +18370,7 @@
       </c>
       <c r="K72" s="54">
         <f t="shared" si="11"/>
-        <v>-51061584</v>
+        <v>-57140344</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -18395,7 +18395,7 @@
       </c>
       <c r="G73" s="37">
         <f t="shared" si="7"/>
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="H73" s="37">
         <f t="shared" si="8"/>
@@ -18403,7 +18403,7 @@
       </c>
       <c r="I73" s="11">
         <f t="shared" si="9"/>
-        <v>-269842500</v>
+        <v>-302062500</v>
       </c>
       <c r="J73" s="54">
         <f t="shared" si="10"/>
@@ -18411,7 +18411,7 @@
       </c>
       <c r="K73" s="54">
         <f t="shared" si="11"/>
-        <v>-269842500</v>
+        <v>-302062500</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="G74" s="37">
         <f t="shared" si="7"/>
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="H74" s="37">
         <f t="shared" si="8"/>
@@ -18444,7 +18444,7 @@
       </c>
       <c r="I74" s="11">
         <f t="shared" si="9"/>
-        <v>2287365000</v>
+        <v>2567165000</v>
       </c>
       <c r="J74" s="54">
         <f t="shared" si="10"/>
@@ -18452,7 +18452,7 @@
       </c>
       <c r="K74" s="54">
         <f t="shared" si="11"/>
-        <v>2287365000</v>
+        <v>2567165000</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -18477,7 +18477,7 @@
       </c>
       <c r="G75" s="37">
         <f t="shared" si="7"/>
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="H75" s="37">
         <f t="shared" si="8"/>
@@ -18485,7 +18485,7 @@
       </c>
       <c r="I75" s="11">
         <f t="shared" si="9"/>
-        <v>978000000</v>
+        <v>1098000000</v>
       </c>
       <c r="J75" s="54">
         <f t="shared" si="10"/>
@@ -18493,7 +18493,7 @@
       </c>
       <c r="K75" s="54">
         <f t="shared" si="11"/>
-        <v>978000000</v>
+        <v>1098000000</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -18518,7 +18518,7 @@
       </c>
       <c r="G76" s="37">
         <f t="shared" si="7"/>
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="H76" s="37">
         <f t="shared" si="8"/>
@@ -18526,7 +18526,7 @@
       </c>
       <c r="I76" s="11">
         <f t="shared" si="9"/>
-        <v>972000000</v>
+        <v>1092000000</v>
       </c>
       <c r="J76" s="54">
         <f t="shared" si="10"/>
@@ -18534,7 +18534,7 @@
       </c>
       <c r="K76" s="54">
         <f t="shared" si="11"/>
-        <v>972000000</v>
+        <v>1092000000</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -18559,7 +18559,7 @@
       </c>
       <c r="G77" s="37">
         <f t="shared" si="7"/>
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="H77" s="37">
         <f t="shared" si="8"/>
@@ -18567,7 +18567,7 @@
       </c>
       <c r="I77" s="11">
         <f t="shared" si="9"/>
-        <v>969000000</v>
+        <v>1089000000</v>
       </c>
       <c r="J77" s="54">
         <f t="shared" si="10"/>
@@ -18575,7 +18575,7 @@
       </c>
       <c r="K77" s="54">
         <f t="shared" si="11"/>
-        <v>969000000</v>
+        <v>1089000000</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="G78" s="37">
         <f t="shared" si="7"/>
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="H78" s="37">
         <f t="shared" si="8"/>
@@ -18608,11 +18608,11 @@
       </c>
       <c r="I78" s="11">
         <f t="shared" si="9"/>
-        <v>-1033600000</v>
+        <v>-1161600000</v>
       </c>
       <c r="J78" s="54">
         <f t="shared" si="10"/>
-        <v>-1033600000</v>
+        <v>-1161600000</v>
       </c>
       <c r="K78" s="54">
         <f t="shared" si="11"/>
@@ -18641,7 +18641,7 @@
       </c>
       <c r="G79" s="37">
         <f t="shared" si="7"/>
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="H79" s="37">
         <f t="shared" si="8"/>
@@ -18649,11 +18649,11 @@
       </c>
       <c r="I79" s="11">
         <f t="shared" si="9"/>
-        <v>-257600000</v>
+        <v>-289600000</v>
       </c>
       <c r="J79" s="54">
         <f t="shared" si="10"/>
-        <v>-257600000</v>
+        <v>-289600000</v>
       </c>
       <c r="K79" s="54">
         <f t="shared" si="11"/>
@@ -18682,7 +18682,7 @@
       </c>
       <c r="G80" s="37">
         <f t="shared" si="7"/>
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="H80" s="37">
         <f t="shared" si="8"/>
@@ -18690,7 +18690,7 @@
       </c>
       <c r="I80" s="11">
         <f t="shared" si="9"/>
-        <v>-15534153</v>
+        <v>-17469873</v>
       </c>
       <c r="J80" s="54">
         <f t="shared" si="10"/>
@@ -18698,7 +18698,7 @@
       </c>
       <c r="K80" s="54">
         <f t="shared" si="11"/>
-        <v>-15534153</v>
+        <v>-17469873</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -18723,7 +18723,7 @@
       </c>
       <c r="G81" s="37">
         <f t="shared" si="7"/>
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="H81" s="37">
         <f t="shared" si="8"/>
@@ -18731,7 +18731,7 @@
       </c>
       <c r="I81" s="11">
         <f t="shared" si="9"/>
-        <v>-44800000</v>
+        <v>-50400000</v>
       </c>
       <c r="J81" s="54">
         <f t="shared" si="10"/>
@@ -18739,7 +18739,7 @@
       </c>
       <c r="K81" s="54">
         <f t="shared" si="11"/>
-        <v>-44800000</v>
+        <v>-50400000</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -18764,7 +18764,7 @@
       </c>
       <c r="G82" s="37">
         <f t="shared" si="7"/>
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="H82" s="37">
         <f t="shared" si="8"/>
@@ -18772,7 +18772,7 @@
       </c>
       <c r="I82" s="11">
         <f t="shared" si="9"/>
-        <v>-79750000</v>
+        <v>-89750000</v>
       </c>
       <c r="J82" s="54">
         <f t="shared" si="10"/>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="K82" s="54">
         <f t="shared" si="11"/>
-        <v>-79750000</v>
+        <v>-89750000</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -18805,7 +18805,7 @@
       </c>
       <c r="G83" s="37">
         <f t="shared" si="7"/>
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="H83" s="37">
         <f t="shared" si="8"/>
@@ -18813,7 +18813,7 @@
       </c>
       <c r="I83" s="11">
         <f t="shared" si="9"/>
-        <v>-63600000</v>
+        <v>-71600000</v>
       </c>
       <c r="J83" s="54">
         <f t="shared" si="10"/>
@@ -18821,7 +18821,7 @@
       </c>
       <c r="K83" s="54">
         <f t="shared" si="11"/>
-        <v>-63600000</v>
+        <v>-71600000</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="G84" s="37">
         <f t="shared" si="7"/>
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="H84" s="37">
         <f t="shared" si="8"/>
@@ -18854,7 +18854,7 @@
       </c>
       <c r="I84" s="11">
         <f t="shared" si="9"/>
-        <v>513452800</v>
+        <v>578860800</v>
       </c>
       <c r="J84" s="54">
         <f t="shared" si="10"/>
@@ -18862,7 +18862,7 @@
       </c>
       <c r="K84" s="54">
         <f t="shared" si="11"/>
-        <v>513452800</v>
+        <v>578860800</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -18887,7 +18887,7 @@
       </c>
       <c r="G85" s="37">
         <f t="shared" si="7"/>
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="H85" s="37">
         <f t="shared" si="8"/>
@@ -18895,7 +18895,7 @@
       </c>
       <c r="I85" s="11">
         <f t="shared" si="9"/>
-        <v>775000000</v>
+        <v>875000000</v>
       </c>
       <c r="J85" s="54">
         <f t="shared" si="10"/>
@@ -18903,7 +18903,7 @@
       </c>
       <c r="K85" s="54">
         <f t="shared" si="11"/>
-        <v>775000000</v>
+        <v>875000000</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -18928,7 +18928,7 @@
       </c>
       <c r="G86" s="37">
         <f t="shared" si="7"/>
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="H86" s="37">
         <f t="shared" si="8"/>
@@ -18936,15 +18936,15 @@
       </c>
       <c r="I86" s="11">
         <f t="shared" si="9"/>
-        <v>57007800</v>
+        <v>64459800</v>
       </c>
       <c r="J86" s="54">
         <f t="shared" si="10"/>
-        <v>25994700</v>
+        <v>29392700</v>
       </c>
       <c r="K86" s="54">
         <f t="shared" si="11"/>
-        <v>31013100</v>
+        <v>35067100</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -18969,7 +18969,7 @@
       </c>
       <c r="G87" s="37">
         <f t="shared" si="7"/>
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="H87" s="37">
         <f t="shared" si="8"/>
@@ -18977,7 +18977,7 @@
       </c>
       <c r="I87" s="11">
         <f t="shared" si="9"/>
-        <v>-60800000</v>
+        <v>-68800000</v>
       </c>
       <c r="J87" s="54">
         <f t="shared" si="10"/>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="K87" s="54">
         <f t="shared" si="11"/>
-        <v>-60800000</v>
+        <v>-68800000</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -19010,7 +19010,7 @@
       </c>
       <c r="G88" s="37">
         <f t="shared" si="7"/>
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="H88" s="37">
         <f t="shared" si="8"/>
@@ -19018,15 +19018,15 @@
       </c>
       <c r="I88" s="11">
         <f t="shared" si="9"/>
-        <v>-35754000</v>
+        <v>-40474000</v>
       </c>
       <c r="J88" s="54">
         <f t="shared" si="10"/>
-        <v>-20907000</v>
+        <v>-23667000</v>
       </c>
       <c r="K88" s="54">
         <f t="shared" si="11"/>
-        <v>-14847000</v>
+        <v>-16807000</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -19051,7 +19051,7 @@
       </c>
       <c r="G89" s="37">
         <f t="shared" si="7"/>
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="H89" s="37">
         <f t="shared" si="8"/>
@@ -19059,7 +19059,7 @@
       </c>
       <c r="I89" s="11">
         <f t="shared" si="9"/>
-        <v>-944265500</v>
+        <v>-1072301500</v>
       </c>
       <c r="J89" s="54">
         <f t="shared" si="10"/>
@@ -19067,7 +19067,7 @@
       </c>
       <c r="K89" s="54">
         <f t="shared" si="11"/>
-        <v>-944265500</v>
+        <v>-1072301500</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -19092,7 +19092,7 @@
       </c>
       <c r="G90" s="37">
         <f t="shared" si="7"/>
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="H90" s="37">
         <f t="shared" si="8"/>
@@ -19100,7 +19100,7 @@
       </c>
       <c r="I90" s="11">
         <f t="shared" si="9"/>
-        <v>-941064600</v>
+        <v>-1069100600</v>
       </c>
       <c r="J90" s="54">
         <f t="shared" si="10"/>
@@ -19108,7 +19108,7 @@
       </c>
       <c r="K90" s="54">
         <f t="shared" si="11"/>
-        <v>-941064600</v>
+        <v>-1069100600</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -19133,7 +19133,7 @@
       </c>
       <c r="G91" s="37">
         <f t="shared" si="7"/>
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="H91" s="37">
         <f t="shared" si="8"/>
@@ -19141,7 +19141,7 @@
       </c>
       <c r="I91" s="11">
         <f t="shared" si="9"/>
-        <v>-937863700</v>
+        <v>-1065899700</v>
       </c>
       <c r="J91" s="54">
         <f t="shared" si="10"/>
@@ -19149,7 +19149,7 @@
       </c>
       <c r="K91" s="54">
         <f t="shared" si="11"/>
-        <v>-937863700</v>
+        <v>-1065899700</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -19174,7 +19174,7 @@
       </c>
       <c r="G92" s="37">
         <f t="shared" si="7"/>
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="H92" s="37">
         <f t="shared" si="8"/>
@@ -19182,7 +19182,7 @@
       </c>
       <c r="I92" s="11">
         <f t="shared" si="9"/>
-        <v>-934662800</v>
+        <v>-1062698800</v>
       </c>
       <c r="J92" s="54">
         <f t="shared" si="10"/>
@@ -19190,7 +19190,7 @@
       </c>
       <c r="K92" s="54">
         <f t="shared" si="11"/>
-        <v>-934662800</v>
+        <v>-1062698800</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -19215,7 +19215,7 @@
       </c>
       <c r="G93" s="37">
         <f t="shared" si="7"/>
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="H93" s="37">
         <f t="shared" si="8"/>
@@ -19223,7 +19223,7 @@
       </c>
       <c r="I93" s="11">
         <f t="shared" si="9"/>
-        <v>-931461900</v>
+        <v>-1059497900</v>
       </c>
       <c r="J93" s="54">
         <f t="shared" si="10"/>
@@ -19231,7 +19231,7 @@
       </c>
       <c r="K93" s="54">
         <f t="shared" si="11"/>
-        <v>-931461900</v>
+        <v>-1059497900</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -19256,7 +19256,7 @@
       </c>
       <c r="G94" s="37">
         <f t="shared" si="7"/>
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="H94" s="37">
         <f t="shared" si="8"/>
@@ -19264,7 +19264,7 @@
       </c>
       <c r="I94" s="11">
         <f t="shared" si="9"/>
-        <v>-928261000</v>
+        <v>-1056297000</v>
       </c>
       <c r="J94" s="54">
         <f t="shared" si="10"/>
@@ -19272,7 +19272,7 @@
       </c>
       <c r="K94" s="54">
         <f t="shared" si="11"/>
-        <v>-928261000</v>
+        <v>-1056297000</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="G95" s="37">
         <f t="shared" si="7"/>
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="H95" s="37">
         <f t="shared" si="8"/>
@@ -19305,7 +19305,7 @@
       </c>
       <c r="I95" s="11">
         <f t="shared" si="9"/>
-        <v>-344619648</v>
+        <v>-392483488</v>
       </c>
       <c r="J95" s="54">
         <f t="shared" si="10"/>
@@ -19313,7 +19313,7 @@
       </c>
       <c r="K95" s="54">
         <f t="shared" si="11"/>
-        <v>-344619648</v>
+        <v>-392483488</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -19338,7 +19338,7 @@
       </c>
       <c r="G96" s="37">
         <f t="shared" si="7"/>
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="H96" s="37">
         <f t="shared" si="8"/>
@@ -19346,7 +19346,7 @@
       </c>
       <c r="I96" s="11">
         <f t="shared" si="9"/>
-        <v>-55600000</v>
+        <v>-63600000</v>
       </c>
       <c r="J96" s="54">
         <f t="shared" si="10"/>
@@ -19354,7 +19354,7 @@
       </c>
       <c r="K96" s="54">
         <f t="shared" si="11"/>
-        <v>-55600000</v>
+        <v>-63600000</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -19379,7 +19379,7 @@
       </c>
       <c r="G97" s="37">
         <f t="shared" si="7"/>
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="H97" s="37">
         <f t="shared" si="8"/>
@@ -19387,15 +19387,15 @@
       </c>
       <c r="I97" s="11">
         <f t="shared" si="9"/>
-        <v>44038008</v>
+        <v>50420328</v>
       </c>
       <c r="J97" s="54">
         <f t="shared" si="10"/>
-        <v>19023576</v>
+        <v>21780616</v>
       </c>
       <c r="K97" s="54">
         <f t="shared" si="11"/>
-        <v>25014432</v>
+        <v>28639712</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -19420,7 +19420,7 @@
       </c>
       <c r="G98" s="37">
         <f t="shared" si="7"/>
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="H98" s="37">
         <f t="shared" si="8"/>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="I98" s="11">
         <f t="shared" si="9"/>
-        <v>30993728</v>
+        <v>35568448</v>
       </c>
       <c r="J98" s="54">
         <f t="shared" si="10"/>
@@ -19436,7 +19436,7 @@
       </c>
       <c r="K98" s="54">
         <f t="shared" si="11"/>
-        <v>30993728</v>
+        <v>35568448</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -19461,7 +19461,7 @@
       </c>
       <c r="G99" s="37">
         <f t="shared" si="7"/>
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="H99" s="37">
         <f t="shared" si="8"/>
@@ -19469,7 +19469,7 @@
       </c>
       <c r="I99" s="11">
         <f t="shared" si="9"/>
-        <v>-356425000</v>
+        <v>-409425000</v>
       </c>
       <c r="J99" s="54">
         <f t="shared" si="10"/>
@@ -19477,7 +19477,7 @@
       </c>
       <c r="K99" s="54">
         <f t="shared" si="11"/>
-        <v>-356425000</v>
+        <v>-409425000</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="G100" s="37">
         <f t="shared" si="7"/>
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="H100" s="37">
         <f t="shared" si="8"/>
@@ -19510,7 +19510,7 @@
       </c>
       <c r="I100" s="11">
         <f t="shared" si="9"/>
-        <v>348475000</v>
+        <v>401475000</v>
       </c>
       <c r="J100" s="54">
         <f t="shared" si="10"/>
@@ -19518,7 +19518,7 @@
       </c>
       <c r="K100" s="54">
         <f t="shared" si="11"/>
-        <v>348475000</v>
+        <v>401475000</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -19543,7 +19543,7 @@
       </c>
       <c r="G101" s="37">
         <f t="shared" si="7"/>
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="H101" s="37">
         <f t="shared" si="8"/>
@@ -19551,11 +19551,11 @@
       </c>
       <c r="I101" s="11">
         <f t="shared" si="9"/>
-        <v>16443870</v>
+        <v>19117670</v>
       </c>
       <c r="J101" s="54">
         <f t="shared" si="10"/>
-        <v>16443870</v>
+        <v>19117670</v>
       </c>
       <c r="K101" s="54">
         <f t="shared" si="11"/>
@@ -19584,7 +19584,7 @@
       </c>
       <c r="G102" s="37">
         <f t="shared" si="7"/>
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="H102" s="37">
         <f t="shared" si="8"/>
@@ -19592,7 +19592,7 @@
       </c>
       <c r="I102" s="11">
         <f t="shared" si="9"/>
-        <v>729000000</v>
+        <v>849000000</v>
       </c>
       <c r="J102" s="54">
         <f t="shared" si="10"/>
@@ -19600,7 +19600,7 @@
       </c>
       <c r="K102" s="54">
         <f t="shared" si="11"/>
-        <v>729000000</v>
+        <v>849000000</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -19625,7 +19625,7 @@
       </c>
       <c r="G103" s="37">
         <f t="shared" si="7"/>
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="H103" s="37">
         <f t="shared" si="8"/>
@@ -19633,11 +19633,11 @@
       </c>
       <c r="I103" s="11">
         <f t="shared" si="9"/>
-        <v>-237000000</v>
+        <v>-277000000</v>
       </c>
       <c r="J103" s="54">
         <f t="shared" si="10"/>
-        <v>-237000000</v>
+        <v>-277000000</v>
       </c>
       <c r="K103" s="54">
         <f t="shared" si="11"/>
@@ -19666,7 +19666,7 @@
       </c>
       <c r="G104" s="37">
         <f t="shared" si="7"/>
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="H104" s="37">
         <f t="shared" si="8"/>
@@ -19674,11 +19674,11 @@
       </c>
       <c r="I104" s="11">
         <f t="shared" si="9"/>
-        <v>678000000</v>
+        <v>798000000</v>
       </c>
       <c r="J104" s="54">
         <f t="shared" si="10"/>
-        <v>678000000</v>
+        <v>798000000</v>
       </c>
       <c r="K104" s="54">
         <f t="shared" si="11"/>
@@ -19707,7 +19707,7 @@
       </c>
       <c r="G105" s="37">
         <f t="shared" si="7"/>
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="H105" s="37">
         <f t="shared" si="8"/>
@@ -19715,11 +19715,11 @@
       </c>
       <c r="I105" s="11">
         <f t="shared" si="9"/>
-        <v>252000000</v>
+        <v>296800000</v>
       </c>
       <c r="J105" s="54">
         <f t="shared" si="10"/>
-        <v>252000000</v>
+        <v>296800000</v>
       </c>
       <c r="K105" s="54">
         <f t="shared" si="11"/>
@@ -19748,7 +19748,7 @@
       </c>
       <c r="G106" s="37">
         <f t="shared" si="7"/>
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="H106" s="37">
         <f t="shared" si="8"/>
@@ -19756,7 +19756,7 @@
       </c>
       <c r="I106" s="11">
         <f t="shared" si="9"/>
-        <v>-678000000</v>
+        <v>-798000000</v>
       </c>
       <c r="J106" s="54">
         <f t="shared" si="10"/>
@@ -19764,7 +19764,7 @@
       </c>
       <c r="K106" s="54">
         <f t="shared" si="11"/>
-        <v>-678000000</v>
+        <v>-798000000</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -19789,7 +19789,7 @@
       </c>
       <c r="G107" s="37">
         <f t="shared" si="7"/>
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="H107" s="37">
         <f t="shared" si="8"/>
@@ -19797,15 +19797,15 @@
       </c>
       <c r="I107" s="11">
         <f t="shared" si="9"/>
-        <v>19546704</v>
+        <v>23166464</v>
       </c>
       <c r="J107" s="54">
         <f t="shared" si="10"/>
-        <v>16224840</v>
+        <v>19229440</v>
       </c>
       <c r="K107" s="54">
         <f t="shared" si="11"/>
-        <v>3321864</v>
+        <v>3937024</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="G108" s="37">
         <f t="shared" si="7"/>
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="H108" s="37">
         <f t="shared" si="8"/>
@@ -19838,7 +19838,7 @@
       </c>
       <c r="I108" s="11">
         <f t="shared" si="9"/>
-        <v>-365650500</v>
+        <v>-433678500</v>
       </c>
       <c r="J108" s="54">
         <f t="shared" si="10"/>
@@ -19846,7 +19846,7 @@
       </c>
       <c r="K108" s="54">
         <f t="shared" si="11"/>
-        <v>-365650500</v>
+        <v>-433678500</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -19871,7 +19871,7 @@
       </c>
       <c r="G109" s="37">
         <f t="shared" si="7"/>
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="H109" s="37">
         <f t="shared" si="8"/>
@@ -19879,7 +19879,7 @@
       </c>
       <c r="I109" s="11">
         <f t="shared" si="9"/>
-        <v>-211105500</v>
+        <v>-251125500</v>
       </c>
       <c r="J109" s="54">
         <f t="shared" si="10"/>
@@ -19887,7 +19887,7 @@
       </c>
       <c r="K109" s="54">
         <f t="shared" si="11"/>
-        <v>-211105500</v>
+        <v>-251125500</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="G110" s="37">
         <f t="shared" si="7"/>
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="H110" s="37">
         <f t="shared" si="8"/>
@@ -19920,7 +19920,7 @@
       </c>
       <c r="I110" s="11">
         <f t="shared" si="9"/>
-        <v>4140000000</v>
+        <v>4940000000</v>
       </c>
       <c r="J110" s="54">
         <f t="shared" si="10"/>
@@ -19928,7 +19928,7 @@
       </c>
       <c r="K110" s="54">
         <f t="shared" si="11"/>
-        <v>4140000000</v>
+        <v>4940000000</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -19953,7 +19953,7 @@
       </c>
       <c r="G111" s="37">
         <f t="shared" si="7"/>
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="H111" s="37">
         <f t="shared" si="8"/>
@@ -19961,15 +19961,15 @@
       </c>
       <c r="I111" s="11">
         <f t="shared" si="9"/>
-        <v>32664786</v>
+        <v>39651906</v>
       </c>
       <c r="J111" s="54">
         <f t="shared" si="10"/>
-        <v>16336881</v>
+        <v>19831401</v>
       </c>
       <c r="K111" s="54">
         <f t="shared" si="11"/>
-        <v>16327905</v>
+        <v>19820505</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -19994,7 +19994,7 @@
       </c>
       <c r="G112" s="37">
         <f t="shared" si="7"/>
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="H112" s="37">
         <f t="shared" si="8"/>
@@ -20002,7 +20002,7 @@
       </c>
       <c r="I112" s="11">
         <f t="shared" si="9"/>
-        <v>-4884800000</v>
+        <v>-6020800000</v>
       </c>
       <c r="J112" s="54">
         <f t="shared" si="10"/>
@@ -20010,7 +20010,7 @@
       </c>
       <c r="K112" s="54">
         <f t="shared" si="11"/>
-        <v>-4884800000</v>
+        <v>-6020800000</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -20035,7 +20035,7 @@
       </c>
       <c r="G113" s="37">
         <f t="shared" si="7"/>
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="H113" s="37">
         <f t="shared" si="8"/>
@@ -20043,15 +20043,15 @@
       </c>
       <c r="I113" s="11">
         <f t="shared" si="9"/>
-        <v>25434240</v>
+        <v>31955840</v>
       </c>
       <c r="J113" s="54">
         <f t="shared" si="10"/>
-        <v>19111716</v>
+        <v>24012156</v>
       </c>
       <c r="K113" s="54">
         <f t="shared" si="11"/>
-        <v>6322524</v>
+        <v>7943684</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -20076,7 +20076,7 @@
       </c>
       <c r="G114" s="37">
         <f t="shared" si="7"/>
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="H114" s="37">
         <f t="shared" si="8"/>
@@ -20084,15 +20084,15 @@
       </c>
       <c r="I114" s="11">
         <f t="shared" si="9"/>
-        <v>-894900</v>
+        <v>-1122900</v>
       </c>
       <c r="J114" s="54">
         <f t="shared" si="10"/>
-        <v>-392500</v>
+        <v>-492500</v>
       </c>
       <c r="K114" s="54">
         <f t="shared" si="11"/>
-        <v>-502400</v>
+        <v>-630400</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -20117,7 +20117,7 @@
       </c>
       <c r="G115" s="37">
         <f t="shared" si="7"/>
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="H115" s="37">
         <f t="shared" si="8"/>
@@ -20129,11 +20129,11 @@
       </c>
       <c r="J115" s="54">
         <f t="shared" si="10"/>
-        <v>72000000</v>
+        <v>92000000</v>
       </c>
       <c r="K115" s="54">
         <f t="shared" si="11"/>
-        <v>-72000000</v>
+        <v>-92000000</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -20158,7 +20158,7 @@
       </c>
       <c r="G116" s="37">
         <f t="shared" si="7"/>
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="H116" s="37">
         <f t="shared" si="8"/>
@@ -20166,7 +20166,7 @@
       </c>
       <c r="I116" s="11">
         <f t="shared" si="9"/>
-        <v>-21760000</v>
+        <v>-28160000</v>
       </c>
       <c r="J116" s="54">
         <f t="shared" si="10"/>
@@ -20174,7 +20174,7 @@
       </c>
       <c r="K116" s="54">
         <f t="shared" si="11"/>
-        <v>-21760000</v>
+        <v>-28160000</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -20199,7 +20199,7 @@
       </c>
       <c r="G117" s="37">
         <f t="shared" si="7"/>
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="H117" s="37">
         <f t="shared" si="8"/>
@@ -20207,15 +20207,15 @@
       </c>
       <c r="I117" s="11">
         <f t="shared" si="9"/>
-        <v>186480</v>
+        <v>245680</v>
       </c>
       <c r="J117" s="54">
         <f t="shared" si="10"/>
-        <v>13474566</v>
+        <v>17752206</v>
       </c>
       <c r="K117" s="54">
         <f t="shared" si="11"/>
-        <v>-13288086</v>
+        <v>-17506526</v>
       </c>
       <c r="N117" s="3"/>
     </row>
@@ -20241,7 +20241,7 @@
       </c>
       <c r="G118" s="37">
         <f t="shared" si="7"/>
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="H118" s="37">
         <f t="shared" si="8"/>
@@ -20249,7 +20249,7 @@
       </c>
       <c r="I118" s="11">
         <f t="shared" si="9"/>
-        <v>4097548000</v>
+        <v>5673528000</v>
       </c>
       <c r="J118" s="54">
         <f t="shared" si="10"/>
@@ -20257,7 +20257,7 @@
       </c>
       <c r="K118" s="54">
         <f t="shared" si="11"/>
-        <v>4097548000</v>
+        <v>5673528000</v>
       </c>
       <c r="O118" s="7"/>
     </row>
@@ -20283,7 +20283,7 @@
       </c>
       <c r="G119" s="37">
         <f t="shared" si="7"/>
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="H119" s="37">
         <f t="shared" si="8"/>
@@ -20291,15 +20291,15 @@
       </c>
       <c r="I119" s="11">
         <f t="shared" si="9"/>
-        <v>9074495</v>
+        <v>12895335</v>
       </c>
       <c r="J119" s="54">
         <f t="shared" si="10"/>
-        <v>10455130</v>
+        <v>14857290</v>
       </c>
       <c r="K119" s="54">
         <f t="shared" si="11"/>
-        <v>-1380635</v>
+        <v>-1961955</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -20324,7 +20324,7 @@
       </c>
       <c r="G120" s="37">
         <f t="shared" si="7"/>
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="H120" s="11">
         <f t="shared" si="8"/>
@@ -20332,7 +20332,7 @@
       </c>
       <c r="I120" s="11">
         <f t="shared" ref="I120:I142" si="13">B120*(G120-H120)</f>
-        <v>182000000</v>
+        <v>262000000</v>
       </c>
       <c r="J120" s="11">
         <f t="shared" si="10"/>
@@ -20340,7 +20340,7 @@
       </c>
       <c r="K120" s="11">
         <f t="shared" si="11"/>
-        <v>182000000</v>
+        <v>262000000</v>
       </c>
       <c r="N120" s="7"/>
     </row>
@@ -20366,7 +20366,7 @@
       </c>
       <c r="G121" s="37">
         <f t="shared" si="7"/>
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="H121" s="11">
         <f t="shared" si="8"/>
@@ -20374,7 +20374,7 @@
       </c>
       <c r="I121" s="11">
         <f t="shared" si="13"/>
-        <v>169000000</v>
+        <v>273000000</v>
       </c>
       <c r="J121" s="11">
         <f t="shared" si="10"/>
@@ -20382,7 +20382,7 @@
       </c>
       <c r="K121" s="11">
         <f t="shared" si="11"/>
-        <v>169000000</v>
+        <v>273000000</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
@@ -20407,7 +20407,7 @@
       </c>
       <c r="G122" s="37">
         <f t="shared" si="7"/>
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="H122" s="11">
         <f t="shared" si="8"/>
@@ -20415,15 +20415,15 @@
       </c>
       <c r="I122" s="11">
         <f t="shared" si="13"/>
-        <v>24611264</v>
+        <v>39993304</v>
       </c>
       <c r="J122" s="11">
         <f t="shared" si="10"/>
-        <v>7098112</v>
+        <v>11534432</v>
       </c>
       <c r="K122" s="11">
         <f t="shared" si="11"/>
-        <v>17513152</v>
+        <v>28458872</v>
       </c>
       <c r="N122" t="s">
         <v>25</v>
@@ -20451,7 +20451,7 @@
       </c>
       <c r="G123" s="37">
         <f t="shared" si="7"/>
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="H123" s="11">
         <f t="shared" si="8"/>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="J123" s="11">
         <f t="shared" si="10"/>
-        <v>51200000</v>
+        <v>83200000</v>
       </c>
       <c r="K123" s="11">
         <f t="shared" si="11"/>
-        <v>-51200000</v>
+        <v>-83200000</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
@@ -20492,7 +20492,7 @@
       </c>
       <c r="G124" s="37">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H124" s="11">
         <f t="shared" si="8"/>
@@ -20500,7 +20500,7 @@
       </c>
       <c r="I124" s="11">
         <f t="shared" si="13"/>
-        <v>-150000000</v>
+        <v>-270000000</v>
       </c>
       <c r="J124" s="11">
         <f t="shared" si="10"/>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="K124" s="11">
         <f t="shared" si="11"/>
-        <v>-150000000</v>
+        <v>-270000000</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -20533,7 +20533,7 @@
       </c>
       <c r="G125" s="37">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H125" s="11">
         <f t="shared" si="8"/>
@@ -20541,15 +20541,15 @@
       </c>
       <c r="I125" s="11">
         <f t="shared" si="13"/>
-        <v>13624140</v>
+        <v>29652540</v>
       </c>
       <c r="J125" s="11">
         <f t="shared" si="10"/>
-        <v>4041750</v>
+        <v>8796750</v>
       </c>
       <c r="K125" s="11">
         <f t="shared" si="11"/>
-        <v>9582390</v>
+        <v>20855790</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
@@ -20574,7 +20574,7 @@
       </c>
       <c r="G126" s="37">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H126" s="11">
         <f t="shared" si="8"/>
@@ -20582,7 +20582,7 @@
       </c>
       <c r="I126" s="11">
         <f t="shared" si="13"/>
-        <v>1428000000</v>
+        <v>3108000000</v>
       </c>
       <c r="J126" s="11">
         <f t="shared" si="10"/>
@@ -20590,7 +20590,7 @@
       </c>
       <c r="K126" s="11">
         <f t="shared" si="11"/>
-        <v>1428000000</v>
+        <v>3108000000</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
@@ -20615,7 +20615,7 @@
       </c>
       <c r="G127" s="37">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H127" s="11">
         <f t="shared" si="8"/>
@@ -20623,7 +20623,7 @@
       </c>
       <c r="I127" s="11">
         <f t="shared" si="13"/>
-        <v>-50000</v>
+        <v>-250000</v>
       </c>
       <c r="J127" s="11">
         <f t="shared" si="10"/>
@@ -20631,7 +20631,7 @@
       </c>
       <c r="K127" s="11">
         <f t="shared" si="11"/>
-        <v>-50000</v>
+        <v>-250000</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
@@ -20656,7 +20656,7 @@
       </c>
       <c r="G128" s="37">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="H128" s="11">
         <f t="shared" si="8"/>
@@ -20664,15 +20664,15 @@
       </c>
       <c r="I128" s="11">
         <f t="shared" si="13"/>
-        <v>2314122</v>
+        <v>33169082</v>
       </c>
       <c r="J128" s="11">
         <f t="shared" si="10"/>
-        <v>362091</v>
+        <v>5189971</v>
       </c>
       <c r="K128" s="11">
         <f t="shared" si="11"/>
-        <v>1952031</v>
+        <v>27979111</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -20693,11 +20693,11 @@
         <v>747</v>
       </c>
       <c r="F129" s="11">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="G129" s="37">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H129" s="11">
         <f t="shared" si="8"/>
@@ -20705,7 +20705,7 @@
       </c>
       <c r="I129" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>100000000</v>
       </c>
       <c r="J129" s="11">
         <f t="shared" si="10"/>
@@ -20713,7 +20713,7 @@
       </c>
       <c r="K129" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -21108,15 +21108,15 @@
       <c r="H143" s="11"/>
       <c r="I143" s="29">
         <f>SUM(I2:I142)</f>
-        <v>11101762171</v>
+        <v>14589901451</v>
       </c>
       <c r="J143" s="29">
         <f>SUM(J2:J142)</f>
-        <v>4924453753</v>
+        <v>5446213673</v>
       </c>
       <c r="K143" s="29">
         <f>SUM(K2:K142)</f>
-        <v>6177308418</v>
+        <v>9143687778</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -21168,15 +21168,15 @@
       <c r="H146" s="11"/>
       <c r="I146" s="3">
         <f>I143/G2</f>
-        <v>20750957.328971963</v>
+        <v>25373741.653913043</v>
       </c>
       <c r="J146" s="29">
         <f>J143/G2</f>
-        <v>9204586.454205608</v>
+        <v>9471675.9530434776</v>
       </c>
       <c r="K146" s="29">
         <f>K143/G2</f>
-        <v>11546370.874766355</v>
+        <v>15902065.700869566</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -21201,11 +21201,11 @@
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J150">
         <f>J143/I143*1448696</f>
-        <v>642603.97081749805</v>
+        <v>540778.70160525513</v>
       </c>
       <c r="K150">
         <f>K143/I143*1448696</f>
-        <v>806092.02918250195</v>
+        <v>907917.29839474475</v>
       </c>
     </row>
   </sheetData>
@@ -28433,8 +28433,8 @@
   <dimension ref="A1:AA102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31168,7 +31168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G151" sqref="G151"/>
     </sheetView>
@@ -38417,7 +38417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G34" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="مهر96" sheetId="26" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="751">
   <si>
     <t>18/1/95</t>
   </si>
@@ -946,15 +946,9 @@
     <t>حساب مسکن ایلیا</t>
   </si>
   <si>
-    <t>هدف گذاری برای انتهای سال 96</t>
-  </si>
-  <si>
     <t>موجودی از سال قبل</t>
   </si>
   <si>
-    <t>پس انداز سال 96</t>
-  </si>
-  <si>
     <t>دریافت طلبهای مختلف از سازمان</t>
   </si>
   <si>
@@ -964,9 +958,6 @@
     <t>خرج خانه سال 96</t>
   </si>
   <si>
-    <t>سود موجودی از سال قبل</t>
-  </si>
-  <si>
     <t>هزینه ماهیانه</t>
   </si>
   <si>
@@ -1417,18 +1408,6 @@
     <t>علی</t>
   </si>
   <si>
-    <t>مریم</t>
-  </si>
-  <si>
-    <t>سهم مریم حساب سارا</t>
-  </si>
-  <si>
-    <t>مریم مسکن یاران</t>
-  </si>
-  <si>
-    <t>مریم مسکن سید الشهدا</t>
-  </si>
-  <si>
     <t>حساب علی سید الشهدا</t>
   </si>
   <si>
@@ -1441,9 +1420,6 @@
     <t>پول نقد علی</t>
   </si>
   <si>
-    <t>پول نقد مریم</t>
-  </si>
-  <si>
     <t xml:space="preserve">از مریم 50 نقد گرفتم </t>
   </si>
   <si>
@@ -1522,9 +1498,6 @@
     <t>شیشه جلو</t>
   </si>
   <si>
-    <t xml:space="preserve">خرید وسایل خانه </t>
-  </si>
-  <si>
     <t>دو بار 110 هزار تومان دستی گرفتم</t>
   </si>
   <si>
@@ -2104,9 +2077,6 @@
     <t>انتقال به کارت حاج ایوب بابت بخشی از فرش</t>
   </si>
   <si>
-    <t>خرید فرش 9 متری</t>
-  </si>
-  <si>
     <t>حساب سارا</t>
   </si>
   <si>
@@ -2185,15 +2155,9 @@
     <t>از کارت ملت علی حقوق مرداد</t>
   </si>
   <si>
-    <t>با احتساب حقوق مرداد</t>
-  </si>
-  <si>
     <t>حواله اچ سی علی 3 اسفند 18 درصد اخر شهریور</t>
   </si>
   <si>
-    <t>حواله اچ سی مریم 3 اسفند 18 درصد تا آخر شهریور</t>
-  </si>
-  <si>
     <t>روز 4 شهریور از کارت یاران گرفتم</t>
   </si>
   <si>
@@ -2306,6 +2270,27 @@
   </si>
   <si>
     <t>15/8/1396</t>
+  </si>
+  <si>
+    <t>حقوق سال 96</t>
+  </si>
+  <si>
+    <t>سود موجودی از سال قبل و سود حقوق</t>
+  </si>
+  <si>
+    <t>پول پیش خانه</t>
+  </si>
+  <si>
+    <t>کل منابع و پول پیش خانه</t>
+  </si>
+  <si>
+    <t>مجموع غیر از پول پیش</t>
+  </si>
+  <si>
+    <t>مجموع کل</t>
+  </si>
+  <si>
+    <t>با احتساب حقوق مرداد (افزایش 6 میلیونی پول پیش)</t>
   </si>
 </sst>
 </file>
@@ -2480,7 +2465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2654,17 +2639,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3000,7 +2979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -3063,7 +3042,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B2" s="3">
         <f>'شهریور 96'!B24</f>
@@ -3098,7 +3077,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="B3" s="40">
         <v>771374</v>
@@ -3111,7 +3090,7 @@
         <v>650677</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -3131,7 +3110,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="B4" s="18">
         <v>2500000</v>
@@ -3144,7 +3123,7 @@
         <v>2500000</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="F4">
         <v>26</v>
@@ -3173,7 +3152,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -4033,10 +4012,10 @@
         <v>-30000</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>38</v>
@@ -4060,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="O32">
         <v>29</v>
@@ -4077,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="O33">
         <v>30</v>
@@ -4094,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="P34" t="s">
         <v>60</v>
@@ -4108,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -4116,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -4124,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -13066,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -13095,7 +13074,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B6" s="18">
         <v>3000000</v>
@@ -13108,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -13137,7 +13116,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B7" s="18">
         <v>1120000</v>
@@ -13150,7 +13129,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -13179,7 +13158,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B8" s="18">
         <v>-3000000</v>
@@ -13192,7 +13171,7 @@
         <v>-3000000</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -13922,7 +13901,7 @@
         <v>258</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>38</v>
@@ -13984,7 +13963,7 @@
         <v>-50000</v>
       </c>
       <c r="E36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
@@ -13992,7 +13971,7 @@
         <v>242000</v>
       </c>
       <c r="E37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
@@ -14000,7 +13979,7 @@
         <v>-40000</v>
       </c>
       <c r="E38" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
@@ -14008,7 +13987,7 @@
         <v>200000</v>
       </c>
       <c r="E39" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
@@ -14016,7 +13995,7 @@
         <v>73500</v>
       </c>
       <c r="E40" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
@@ -14024,7 +14003,7 @@
         <v>-67000</v>
       </c>
       <c r="E41" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
@@ -14032,7 +14011,7 @@
         <v>9000000</v>
       </c>
       <c r="E42" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
@@ -14221,7 +14200,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B3" s="18">
         <v>90494</v>
@@ -14234,7 +14213,7 @@
         <v>15379</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -14263,7 +14242,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B4" s="18">
         <v>-1700700</v>
@@ -14276,7 +14255,7 @@
         <v>-1700700</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F4">
         <v>28</v>
@@ -14305,7 +14284,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B5" s="18">
         <v>-1000500</v>
@@ -14318,7 +14297,7 @@
         <v>-1000500</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F5">
         <v>24</v>
@@ -14347,7 +14326,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B6" s="18">
         <v>20000000</v>
@@ -14360,7 +14339,7 @@
         <v>20000000</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -14429,7 +14408,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B8" s="18">
         <v>0</v>
@@ -15168,10 +15147,10 @@
         <v>-3000000</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>38</v>
@@ -15195,7 +15174,7 @@
         <v>1750000</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P32" t="s">
         <v>60</v>
@@ -15209,7 +15188,7 @@
         <v>8100000</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">
@@ -15217,7 +15196,7 @@
         <v>595000</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.25">
@@ -15225,7 +15204,7 @@
         <v>-1210000</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.25">
@@ -15233,7 +15212,7 @@
         <v>-22000000</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.25">
@@ -15241,7 +15220,7 @@
         <v>3000000</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.25">
@@ -15249,7 +15228,7 @@
         <v>3000000</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G38">
         <f>G25*11/36500</f>
@@ -15261,7 +15240,7 @@
         <v>-6000000</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.25">
@@ -15269,7 +15248,7 @@
         <v>6000000</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.25">
@@ -15277,7 +15256,7 @@
         <v>120000</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.25">
@@ -15293,7 +15272,7 @@
         <v>200000</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.25">
@@ -15301,7 +15280,7 @@
         <v>50000</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.25">
@@ -15309,7 +15288,7 @@
         <v>-102000</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.25">
@@ -15317,7 +15296,7 @@
         <v>660000</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.25">
@@ -15325,7 +15304,7 @@
         <v>1000000</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.25">
@@ -15333,7 +15312,7 @@
         <v>-509000</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
@@ -15341,7 +15320,7 @@
         <v>-168500</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.25">
@@ -15435,7 +15414,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>25</v>
@@ -15456,7 +15435,7 @@
         <v>36</v>
       </c>
       <c r="K1" s="54" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -19618,7 +19597,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F103" s="37">
         <v>10</v>
@@ -19646,7 +19625,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B104" s="18">
         <v>3000000</v>
@@ -19659,7 +19638,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F104" s="37">
         <v>1</v>
@@ -19687,7 +19666,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B105" s="18">
         <v>1120000</v>
@@ -19700,7 +19679,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F105" s="37">
         <v>0</v>
@@ -19728,7 +19707,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B106" s="18">
         <v>-3000000</v>
@@ -19741,7 +19720,7 @@
         <v>-3000000</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F106" s="37">
         <v>9</v>
@@ -19769,7 +19748,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="20" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B107" s="18">
         <v>90494</v>
@@ -19782,7 +19761,7 @@
         <v>15379</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F107" s="37">
         <v>2</v>
@@ -19810,7 +19789,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="20" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B108" s="18">
         <v>-1700700</v>
@@ -19823,7 +19802,7 @@
         <v>-1700700</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F108" s="37">
         <v>4</v>
@@ -19851,7 +19830,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B109" s="18">
         <v>-1000500</v>
@@ -19864,7 +19843,7 @@
         <v>-1000500</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F109" s="37">
         <v>3</v>
@@ -19892,7 +19871,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B110" s="18">
         <v>20000000</v>
@@ -19905,7 +19884,7 @@
         <v>20000000</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F110" s="37">
         <v>20</v>
@@ -19933,7 +19912,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="20" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B111" s="40">
         <v>174678</v>
@@ -19946,7 +19925,7 @@
         <v>87315</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F111" s="37">
         <v>16</v>
@@ -19974,7 +19953,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B112" s="18">
         <v>-28400000</v>
@@ -19987,7 +19966,7 @@
         <v>-28400000</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="F112" s="37">
         <v>15</v>
@@ -20015,7 +19994,7 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B113" s="40">
         <v>163040</v>
@@ -20028,7 +20007,7 @@
         <v>40529</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F113" s="37">
         <v>0</v>
@@ -20056,7 +20035,7 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B114" s="18">
         <v>-5700</v>
@@ -20069,7 +20048,7 @@
         <v>-3200</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="F114" s="37">
         <v>13</v>
@@ -20097,7 +20076,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B115" s="18">
         <v>0</v>
@@ -20110,7 +20089,7 @@
         <v>-500000</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F115" s="37">
         <v>8</v>
@@ -20138,7 +20117,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B116" s="18">
         <v>-160000</v>
@@ -20151,7 +20130,7 @@
         <v>-160000</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F116" s="37">
         <v>9</v>
@@ -20179,7 +20158,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B117" s="40">
         <v>1480</v>
@@ -20192,7 +20171,7 @@
         <v>-105461</v>
       </c>
       <c r="E117" s="23" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F117" s="37">
         <v>22</v>
@@ -20221,7 +20200,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="B118" s="18">
         <v>39399500</v>
@@ -20234,7 +20213,7 @@
         <v>39399500</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="F118" s="37">
         <v>9</v>
@@ -20263,7 +20242,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="B119" s="40">
         <v>95521</v>
@@ -20276,7 +20255,7 @@
         <v>-14533</v>
       </c>
       <c r="E119" s="23" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F119" s="37">
         <v>4</v>
@@ -20304,7 +20283,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B120" s="18">
         <v>2000000</v>
@@ -20317,7 +20296,7 @@
         <v>2000000</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="F120" s="11">
         <v>26</v>
@@ -20346,7 +20325,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="B121" s="18">
         <v>2600000</v>
@@ -20359,7 +20338,7 @@
         <v>2600000</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="F121" s="11">
         <v>1</v>
@@ -20387,7 +20366,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B122" s="40">
         <v>384551</v>
@@ -20400,7 +20379,7 @@
         <v>273643</v>
       </c>
       <c r="E122" s="23" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="F122" s="11">
         <v>1</v>
@@ -20431,7 +20410,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="B123" s="18">
         <v>0</v>
@@ -20444,7 +20423,7 @@
         <v>-800000</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="F123" s="11">
         <v>14</v>
@@ -20472,7 +20451,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="B124" s="18">
         <v>-3000000</v>
@@ -20485,7 +20464,7 @@
         <v>-3000000</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F124" s="11">
         <v>15</v>
@@ -20513,7 +20492,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B125" s="18">
         <v>400710</v>
@@ -20526,7 +20505,7 @@
         <v>281835</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="F125" s="11">
         <v>0</v>
@@ -20554,7 +20533,7 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B126" s="18">
         <v>42000000</v>
@@ -20567,7 +20546,7 @@
         <v>42000000</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F126" s="11">
         <v>25</v>
@@ -20595,7 +20574,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="B127" s="18">
         <v>-5000</v>
@@ -20636,7 +20615,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="B128" s="18">
         <v>771374</v>
@@ -20649,7 +20628,7 @@
         <v>650677</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="F128" s="11">
         <v>3</v>
@@ -20677,7 +20656,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="B129" s="18">
         <v>2500000</v>
@@ -20690,7 +20669,7 @@
         <v>2500000</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="F129" s="11">
         <v>41</v>
@@ -21125,23 +21104,23 @@
         <v>283</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
       <c r="I144" s="11" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="J144" s="11" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="K144" s="11" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -21189,13 +21168,13 @@
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
       <c r="I147" s="11" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="J147" s="11" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="K147" s="11" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -21324,7 +21303,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B3" s="40">
         <v>174678</v>
@@ -21337,7 +21316,7 @@
         <v>87315</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -21366,7 +21345,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B4" s="18">
         <v>-28400000</v>
@@ -21379,7 +21358,7 @@
         <v>-28400000</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -21408,7 +21387,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -21448,7 +21427,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B6" s="18">
         <v>0</v>
@@ -21528,7 +21507,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B8" s="18">
         <v>0</v>
@@ -22267,10 +22246,10 @@
         <v>-110000</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>38</v>
@@ -22294,7 +22273,7 @@
         <v>220000</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -22311,7 +22290,7 @@
         <v>-450000</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -22545,7 +22524,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B3" s="40">
         <v>163040</v>
@@ -22558,7 +22537,7 @@
         <v>40529</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -22587,7 +22566,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B4" s="18">
         <v>-5700</v>
@@ -22600,7 +22579,7 @@
         <v>-3200</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="F4">
         <v>31</v>
@@ -22629,7 +22608,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -22642,7 +22621,7 @@
         <v>-500000</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F5">
         <v>17</v>
@@ -22671,7 +22650,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B6" s="18">
         <v>-160000</v>
@@ -22684,7 +22663,7 @@
         <v>-160000</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -22713,7 +22692,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B7" s="18">
         <v>0</v>
@@ -22793,7 +22772,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B9" s="18">
         <v>0</v>
@@ -23536,10 +23515,10 @@
         <v>150000</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>38</v>
@@ -23563,7 +23542,7 @@
         <v>200000</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -23577,7 +23556,7 @@
         <v>620000</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
@@ -23585,7 +23564,7 @@
         <v>5000</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
@@ -23593,7 +23572,7 @@
         <v>-800000</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
@@ -23609,7 +23588,7 @@
         <v>160000</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
@@ -23617,7 +23596,7 @@
         <v>200000</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
@@ -23625,7 +23604,7 @@
         <v>255000</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
@@ -23633,7 +23612,7 @@
         <v>-200000</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
@@ -23744,7 +23723,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B2" s="3">
         <f>'اردیبهشت 96'!B25</f>
@@ -23788,7 +23767,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B3" s="40">
         <v>1481</v>
@@ -23801,7 +23780,7 @@
         <v>-105460</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -23830,7 +23809,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B4" s="18">
         <v>39399500</v>
@@ -23843,7 +23822,7 @@
         <v>39399500</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -24732,10 +24711,10 @@
         <v>200000</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>38</v>
@@ -24759,7 +24738,7 @@
         <v>-50000</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -24776,7 +24755,7 @@
         <v>120000</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -24790,7 +24769,7 @@
         <v>-40000</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -24798,7 +24777,7 @@
         <v>200000</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -24806,7 +24785,7 @@
         <v>1000000</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -24814,7 +24793,7 @@
         <v>600000</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -24822,7 +24801,7 @@
         <v>-40000</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.25">
@@ -24938,7 +24917,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="B2" s="3">
         <f>'خرداد 96'!B24</f>
@@ -24982,7 +24961,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="B3" s="40">
         <v>95521</v>
@@ -24995,7 +24974,7 @@
         <v>-14533</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -25024,7 +25003,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B4" s="18">
         <v>2000000</v>
@@ -25037,7 +25016,7 @@
         <v>2000000</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="F4">
         <v>26</v>
@@ -25066,7 +25045,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="B5" s="18">
         <v>2600000</v>
@@ -25079,7 +25058,7 @@
         <v>2600000</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -25927,10 +25906,10 @@
         <v>1342800</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>38</v>
@@ -25954,7 +25933,7 @@
         <v>-44000</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -25971,7 +25950,7 @@
         <v>-25000</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -25985,7 +25964,7 @@
         <v>-13000</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -25993,7 +25972,7 @@
         <v>200000</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -26001,7 +25980,7 @@
         <v>-120000</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -26009,7 +25988,7 @@
         <v>200000</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -26132,7 +26111,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="B2" s="3">
         <f>'تیر 96'!B24</f>
@@ -26176,7 +26155,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B3" s="40">
         <v>384551</v>
@@ -26189,7 +26168,7 @@
         <v>273643</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -26218,7 +26197,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -26231,7 +26210,7 @@
         <v>-800000</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -26260,7 +26239,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="B5" s="18">
         <v>-3000000</v>
@@ -26273,7 +26252,7 @@
         <v>-3000000</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F5">
         <v>16</v>
@@ -27121,10 +27100,10 @@
         <v>-65000</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>38</v>
@@ -27148,7 +27127,7 @@
         <v>-28000</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -27165,7 +27144,7 @@
         <v>100000</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -27179,7 +27158,7 @@
         <v>200000</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -27187,7 +27166,7 @@
         <v>27470</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -27195,7 +27174,7 @@
         <v>334000</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -27203,7 +27182,7 @@
         <v>400000</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -27211,7 +27190,7 @@
         <v>200000</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.25">
@@ -27312,7 +27291,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B2" s="3">
         <f>'مرداد 96'!B24</f>
@@ -27356,7 +27335,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B3" s="40">
         <v>400710</v>
@@ -27369,7 +27348,7 @@
         <v>281835</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -27398,7 +27377,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B4" s="18">
         <v>42000000</v>
@@ -27411,7 +27390,7 @@
         <v>42000000</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -27440,7 +27419,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="B5" s="18">
         <v>-5000</v>
@@ -28301,10 +28280,10 @@
         <v>-3000000</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>38</v>
@@ -28328,7 +28307,7 @@
         <v>200000</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -28345,7 +28324,7 @@
         <v>2200700</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -28359,7 +28338,7 @@
         <v>-2000000</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -28367,7 +28346,7 @@
         <v>141950</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -28375,7 +28354,7 @@
         <v>800500</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -28383,7 +28362,7 @@
         <v>-100000</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -28433,7 +28412,7 @@
   <dimension ref="A1:AA102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -28694,7 +28673,7 @@
         <v>410023079974</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O6" t="s">
         <v>279</v>
@@ -28741,7 +28720,7 @@
         <v>410023384051</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N7" t="s">
         <v>293</v>
@@ -28791,7 +28770,7 @@
         <v>410023383764</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N8" t="s">
         <v>294</v>
@@ -28841,10 +28820,10 @@
         <v>410021971552</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="N9" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="O9" t="s">
         <v>295</v>
@@ -29273,13 +29252,13 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B22" s="39">
         <v>-3000000</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D22" s="11">
         <v>8</v>
@@ -29306,13 +29285,13 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B23" s="39">
         <v>3000000</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D23" s="11">
         <v>0</v>
@@ -29339,13 +29318,13 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B24" s="39">
         <v>630843</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
@@ -29372,13 +29351,13 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B25" s="39">
         <v>-3200900</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D25" s="11">
         <v>2</v>
@@ -29405,13 +29384,13 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B26" s="39">
         <v>-3000900</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D26" s="11">
         <v>2</v>
@@ -29438,13 +29417,13 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B27" s="39">
         <v>1000000</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D27" s="11">
         <v>0</v>
@@ -29471,13 +29450,13 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B28" s="39">
         <v>6000000</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D28" s="11">
         <v>0</v>
@@ -29504,13 +29483,13 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B29" s="39">
         <v>5800000</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D29" s="11">
         <v>0</v>
@@ -29537,13 +29516,13 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B30" s="39">
         <v>-5000</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D30" s="11">
         <v>1</v>
@@ -29570,13 +29549,13 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B31" s="39">
         <v>-26000000</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D31" s="11">
         <v>2</v>
@@ -29603,13 +29582,13 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B32" s="39">
         <v>-26200000</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D32" s="11">
         <v>19</v>
@@ -29636,13 +29615,13 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B33" s="39">
         <v>327005</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D33" s="11">
         <v>18</v>
@@ -29669,13 +29648,13 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B34" s="39">
         <v>28400000</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D34" s="11">
         <v>0</v>
@@ -29698,13 +29677,13 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B35" s="61">
         <v>11000000</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D35" s="11">
         <v>15</v>
@@ -29724,13 +29703,13 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B36" s="39">
         <v>418701</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="D36" s="11">
         <v>0</v>
@@ -29750,13 +29729,13 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B37" s="39">
         <v>-900</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D37" s="11">
         <v>1</v>
@@ -29777,13 +29756,13 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B38" s="61">
         <v>2000000</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="D38" s="11">
         <v>0</v>
@@ -29805,13 +29784,13 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B39" s="39">
         <v>2000000</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D39" s="11">
         <v>14</v>
@@ -29831,13 +29810,13 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B40" s="39">
         <v>-200000</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D40" s="11">
         <v>0</v>
@@ -29857,13 +29836,13 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B41" s="39">
         <v>-620000</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D41" s="11">
         <v>0</v>
@@ -29883,13 +29862,13 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B42" s="39">
         <v>-120000</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -29910,13 +29889,13 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B43" s="39">
         <v>650000</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D43" s="11">
         <v>0</v>
@@ -29936,7 +29915,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B44" s="39">
         <v>-5000</v>
@@ -29962,13 +29941,13 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B45" s="39">
         <v>29000000</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="D45" s="11">
         <v>4</v>
@@ -29988,13 +29967,13 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B46" s="39">
         <v>-200000</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="D46" s="11">
         <v>3</v>
@@ -30014,13 +29993,13 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B47" s="39">
         <v>-200000</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D47" s="11">
         <v>1</v>
@@ -30040,7 +30019,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B48" s="39">
         <v>-200000</v>
@@ -30066,13 +30045,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B49" s="39">
         <v>3000000</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D49" s="11">
         <v>0</v>
@@ -30092,13 +30071,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B50" s="61">
         <v>3000000</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="D50" s="11">
         <v>1</v>
@@ -30118,13 +30097,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B51" s="39">
         <v>765797</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D51" s="11">
         <v>0</v>
@@ -30144,7 +30123,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B52" s="39">
         <v>-200000</v>
@@ -30170,13 +30149,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B53" s="39">
         <v>-400500</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D53" s="11">
         <v>9</v>
@@ -30196,13 +30175,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B54" s="39">
         <v>-1000396</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D54" s="11">
         <v>6</v>
@@ -30222,13 +30201,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="B55" s="39">
         <v>-40000000</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="D55" s="11">
         <v>9</v>
@@ -30248,13 +30227,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="B56" s="39">
         <v>865652</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="D56" s="11">
         <v>27</v>
@@ -30274,13 +30253,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B57" s="39">
         <v>-50200000</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="D57" s="11">
         <v>1</v>
@@ -30300,13 +30279,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="B58" s="39">
         <v>-12200500</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="D58" s="11">
         <v>3</v>
@@ -30326,13 +30305,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B59" s="39">
         <v>534906</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D59" s="11">
         <v>1</v>
@@ -30352,13 +30331,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="B60" s="39">
         <v>-338000</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -30378,13 +30357,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="B61" s="39">
         <v>-150000</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="D61" s="11">
         <v>4</v>
@@ -30404,7 +30383,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B62" s="39">
         <v>-100000</v>
@@ -30430,7 +30409,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="B63" s="39">
         <v>-200000</v>
@@ -30462,7 +30441,7 @@
         <v>-87000</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="D64" s="11">
         <v>4</v>
@@ -30482,13 +30461,13 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="B65" s="39">
         <v>-27470</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="D65" s="11">
         <v>1</v>
@@ -30508,13 +30487,13 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="B66" s="39">
         <v>-334000</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="D66" s="11">
         <v>5</v>
@@ -30534,13 +30513,13 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B67" s="39">
         <v>-20000</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="D67" s="11">
         <v>1</v>
@@ -30560,13 +30539,13 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="B68" s="39">
         <v>-300500</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="D68" s="11">
         <v>0</v>
@@ -30586,13 +30565,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="B69" s="39">
         <v>-100000</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="D69" s="11">
         <v>5</v>
@@ -30612,7 +30591,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B70" s="39">
         <v>-200000</v>
@@ -30638,13 +30617,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B71" s="39">
         <v>15389</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="D71" s="11">
         <v>0</v>
@@ -30664,13 +30643,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B72" s="39">
         <v>4000000</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="D72" s="11">
         <v>0</v>
@@ -30690,13 +30669,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B73" s="39">
         <v>2600000</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="D73" s="11">
         <v>0</v>
@@ -30719,13 +30698,13 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B74" s="39">
         <v>3000000</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="D74" s="11">
         <v>3</v>
@@ -30745,7 +30724,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="B75" s="39">
         <v>-200000</v>
@@ -30771,13 +30750,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="B76" s="39">
         <v>-2000700</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="D76" s="11">
         <v>0</v>
@@ -30797,7 +30776,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="B77" s="39">
         <v>-200000</v>
@@ -30823,13 +30802,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="B78" s="39">
         <v>2000000</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="D78" s="11">
         <v>8</v>
@@ -30852,13 +30831,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="B79" s="39">
         <v>-1000500</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="D79" s="11">
         <v>0</v>
@@ -30878,13 +30857,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="B80" s="39">
         <v>-141950</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="D80" s="11">
         <v>3</v>
@@ -30904,13 +30883,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="B81" s="39">
         <v>-900500</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="D81" s="11">
         <v>10</v>
@@ -30930,13 +30909,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="B82" s="39">
         <v>81251</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="D82" s="11">
         <v>1</v>
@@ -31150,7 +31129,7 @@
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="7:7" x14ac:dyDescent="0.25">
@@ -31168,7 +31147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G151" sqref="G151"/>
     </sheetView>
@@ -31236,7 +31215,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B3" s="3">
         <v>3000000</v>
@@ -31260,7 +31239,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B4" s="3">
         <v>-200000</v>
@@ -31284,7 +31263,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B5" s="3">
         <v>-100000</v>
@@ -31308,7 +31287,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B6" s="3">
         <v>-55000</v>
@@ -31332,7 +31311,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B7" s="3">
         <v>-200000</v>
@@ -31356,7 +31335,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B8" s="3">
         <v>-200000</v>
@@ -31380,7 +31359,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B9" s="3">
         <v>-950500</v>
@@ -31404,7 +31383,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B10" s="3">
         <v>2000000</v>
@@ -31428,7 +31407,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B11" s="3">
         <v>-1065000</v>
@@ -31452,7 +31431,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B12" s="3">
         <v>-45000</v>
@@ -31476,7 +31455,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B13" s="3">
         <v>-2000700</v>
@@ -31500,7 +31479,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B14" s="3">
         <v>-200000</v>
@@ -31524,7 +31503,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B15" s="3">
         <v>2000000</v>
@@ -31548,7 +31527,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B16" s="3">
         <v>2000000</v>
@@ -31572,7 +31551,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B17" s="3">
         <v>1200000</v>
@@ -31596,7 +31575,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B18" s="3">
         <v>1000000</v>
@@ -31620,7 +31599,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B19" s="3">
         <v>3000000</v>
@@ -31647,7 +31626,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B20" s="3">
         <v>-432700</v>
@@ -31671,7 +31650,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B21" s="3">
         <v>-432700</v>
@@ -31695,7 +31674,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B22" s="3">
         <v>-432700</v>
@@ -31719,7 +31698,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B23" s="3">
         <v>-432700</v>
@@ -31743,7 +31722,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B24" s="3">
         <v>-432700</v>
@@ -31767,7 +31746,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B25" s="3">
         <v>-200000</v>
@@ -31791,7 +31770,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B26" s="3">
         <v>3000000</v>
@@ -31815,7 +31794,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B27" s="3">
         <v>-200000</v>
@@ -31839,7 +31818,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B28" s="3">
         <v>2000000</v>
@@ -31863,7 +31842,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B29" s="3">
         <v>-7000800</v>
@@ -31935,7 +31914,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B32" s="3">
         <v>994300</v>
@@ -31959,7 +31938,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B33" s="3">
         <v>35091</v>
@@ -31980,12 +31959,12 @@
         <v>15475131</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B34" s="3">
         <v>-850000</v>
@@ -32009,7 +31988,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B35" s="3">
         <v>-190500</v>
@@ -32081,7 +32060,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B38" s="3">
         <v>300806</v>
@@ -32102,12 +32081,12 @@
         <v>123029654</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B39" s="3">
         <v>-95000</v>
@@ -32131,7 +32110,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B40" s="3">
         <v>-88103</v>
@@ -32155,7 +32134,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B41" s="3">
         <v>-120000</v>
@@ -32179,7 +32158,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B42" s="3">
         <v>1000204</v>
@@ -32200,12 +32179,12 @@
         <v>381077724</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B43" s="3">
         <v>-80000</v>
@@ -32229,7 +32208,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B44" s="3">
         <v>-211029</v>
@@ -32253,7 +32232,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B45" s="3">
         <v>-200000</v>
@@ -32277,7 +32256,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B46" s="3">
         <v>-95000</v>
@@ -32301,7 +32280,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B47" s="3">
         <v>-45000</v>
@@ -32325,7 +32304,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B48" s="3">
         <v>-64180</v>
@@ -32349,7 +32328,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B49" s="3">
         <v>-27484</v>
@@ -32373,7 +32352,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B50" s="3">
         <v>-141000</v>
@@ -32397,7 +32376,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B51" s="3">
         <v>-26746</v>
@@ -32421,7 +32400,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B52" s="3">
         <v>-53300</v>
@@ -32469,7 +32448,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B54" s="3">
         <v>-21000</v>
@@ -32541,7 +32520,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B57" s="3">
         <v>3005189</v>
@@ -32562,12 +32541,12 @@
         <v>1030779827</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B58" s="3">
         <v>2000000</v>
@@ -32639,7 +32618,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B61" s="3">
         <v>3000000</v>
@@ -32663,7 +32642,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B62" s="3">
         <v>-27109</v>
@@ -32687,7 +32666,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B63" s="3">
         <v>-32989</v>
@@ -32711,7 +32690,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B64" s="3">
         <v>3000000</v>
@@ -32735,7 +32714,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B65" s="3">
         <v>2970000</v>
@@ -32759,7 +32738,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B66" s="3">
         <v>1000000</v>
@@ -32783,7 +32762,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B67" s="3">
         <v>30000</v>
@@ -32807,7 +32786,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B68" s="3">
         <v>30000000</v>
@@ -32855,7 +32834,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B70" s="3">
         <v>1400000</v>
@@ -32879,7 +32858,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B71" s="3">
         <v>2600000</v>
@@ -32903,7 +32882,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B72" s="3">
         <v>-1000000</v>
@@ -32927,7 +32906,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B73" s="3">
         <v>15000000</v>
@@ -33071,7 +33050,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B79" s="3">
         <v>23000000</v>
@@ -33193,7 +33172,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B84" s="3">
         <v>2000000</v>
@@ -33241,7 +33220,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B86" s="3">
         <v>-200000</v>
@@ -33289,7 +33268,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B88" s="3">
         <v>-500000</v>
@@ -33313,7 +33292,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B89" s="3">
         <v>-120000</v>
@@ -33384,12 +33363,12 @@
         <v>-777518000</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B92" s="3">
         <v>-205000</v>
@@ -33410,12 +33389,12 @@
         <v>-52685000</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B93" s="3">
         <v>-350500</v>
@@ -33436,12 +33415,12 @@
         <v>-90078500</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B94" s="3">
         <v>1000000</v>
@@ -33462,12 +33441,12 @@
         <v>245000000</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B95" s="3">
         <v>9000000</v>
@@ -33488,13 +33467,13 @@
         <v>2160000000</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J95" s="26"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B96" s="3">
         <v>-26000000</v>
@@ -33515,12 +33494,12 @@
         <v>-6214000000</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B97" s="3">
         <v>-26000000</v>
@@ -33544,7 +33523,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B98" s="3">
         <v>26000000</v>
@@ -33568,7 +33547,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B99" s="3">
         <v>-200000</v>
@@ -33595,7 +33574,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B100" s="3">
         <v>29200000</v>
@@ -33619,7 +33598,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B101" s="3">
         <v>399945</v>
@@ -33640,12 +33619,12 @@
         <v>92387295</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B102" s="3">
         <v>2000000</v>
@@ -33666,12 +33645,12 @@
         <v>460000000</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B103" s="3">
         <v>7500000</v>
@@ -33692,12 +33671,12 @@
         <v>1717500000</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B104" s="3">
         <v>-66000000</v>
@@ -33718,12 +33697,12 @@
         <v>-15180000000</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B105" s="3">
         <v>-145000</v>
@@ -33744,12 +33723,12 @@
         <v>-33350000</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B106" s="3">
         <v>6000000</v>
@@ -33770,12 +33749,12 @@
         <v>1362000000</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B107" s="3">
         <v>-6005900</v>
@@ -33796,12 +33775,12 @@
         <v>-1357333400</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B108" s="3">
         <v>6000000</v>
@@ -33822,12 +33801,12 @@
         <v>1332000000</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B109" s="3">
         <v>-120000</v>
@@ -33848,12 +33827,12 @@
         <v>-25320000</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B110" s="3">
         <v>4000000</v>
@@ -33874,12 +33853,12 @@
         <v>836000000</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B111" s="3">
         <v>2800000</v>
@@ -33900,12 +33879,12 @@
         <v>582400000</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B112" s="3">
         <v>-200000</v>
@@ -33926,12 +33905,12 @@
         <v>-41000000</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B113" s="3">
         <v>72310</v>
@@ -33952,12 +33931,12 @@
         <v>14678930</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B114" s="3">
         <v>-200000</v>
@@ -33978,7 +33957,7 @@
         <v>-37400000</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="J114" t="s">
         <v>25</v>
@@ -33986,7 +33965,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B115" s="36">
         <v>-11000000</v>
@@ -34007,12 +33986,12 @@
         <v>-2046000000</v>
       </c>
       <c r="G115" s="23" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B116" s="3">
         <v>-200000</v>
@@ -34033,7 +34012,7 @@
         <v>-37200000</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="I116" t="s">
         <v>25</v>
@@ -34041,7 +34020,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B117" s="3">
         <v>-450500</v>
@@ -34062,12 +34041,12 @@
         <v>-82892000</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B118" s="3">
         <v>-200000</v>
@@ -34088,7 +34067,7 @@
         <v>-36800000</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="J118" t="s">
         <v>25</v>
@@ -34096,7 +34075,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B119" s="3">
         <v>-154550</v>
@@ -34117,12 +34096,12 @@
         <v>-27509900</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B120" s="3">
         <v>-320</v>
@@ -34143,12 +34122,12 @@
         <v>-56960</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B121" s="3">
         <v>-432000</v>
@@ -34169,12 +34148,12 @@
         <v>-76464000</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B122" s="3">
         <v>74043</v>
@@ -34195,12 +34174,12 @@
         <v>12587310</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B123" s="3">
         <v>-52000</v>
@@ -34221,12 +34200,12 @@
         <v>-7800000</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="B124" s="3">
         <v>1187</v>
@@ -34247,12 +34226,12 @@
         <v>128196</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B125" s="3">
         <v>2400000</v>
@@ -34273,12 +34252,12 @@
         <v>256800000</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B126" s="3">
         <v>1342800</v>
@@ -34299,12 +34278,12 @@
         <v>140994000</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B127" s="3">
         <v>1342800</v>
@@ -34325,12 +34304,12 @@
         <v>140994000</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="B128" s="3">
         <v>-200000</v>
@@ -34356,7 +34335,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="B129" s="3">
         <v>-15618</v>
@@ -34377,7 +34356,7 @@
         <v>-1436856</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="K129" t="s">
         <v>25</v>
@@ -34385,7 +34364,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="B130" s="3">
         <v>-200000</v>
@@ -34406,12 +34385,12 @@
         <v>-18200000</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="B131" s="3">
         <v>-200000</v>
@@ -34432,12 +34411,12 @@
         <v>-18000000</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B132" s="3">
         <v>-390000</v>
@@ -34458,12 +34437,12 @@
         <v>-34710000</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B133" s="3">
         <v>-24500</v>
@@ -34484,12 +34463,12 @@
         <v>-2180500</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="B134" s="3">
         <v>-95000</v>
@@ -34510,12 +34489,12 @@
         <v>-8360000</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="B135" s="3">
         <v>-200000</v>
@@ -34536,12 +34515,12 @@
         <v>-16800000</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B136" s="3">
         <v>50000000</v>
@@ -34562,12 +34541,12 @@
         <v>4050000000</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="B137" s="3">
         <v>12000000</v>
@@ -34588,12 +34567,12 @@
         <v>960000000</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="B138" s="3">
         <v>2000000</v>
@@ -34614,12 +34593,12 @@
         <v>156000000</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B139" s="3">
         <v>87538</v>
@@ -34640,12 +34619,12 @@
         <v>6740426</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B140" s="3">
         <v>-3000900</v>
@@ -34666,12 +34645,12 @@
         <v>-195058500</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="B141" s="3">
         <v>-3000900</v>
@@ -34692,7 +34671,7 @@
         <v>-192057600</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="K141" t="s">
         <v>25</v>
@@ -34700,7 +34679,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B142" s="3">
         <v>602025</v>
@@ -34721,12 +34700,12 @@
         <v>27693150</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B143" s="3">
         <v>-46000000</v>
@@ -34747,12 +34726,12 @@
         <v>-2162000000</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="B144" s="3">
         <v>154107</v>
@@ -34773,12 +34752,12 @@
         <v>2311605</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="B145" s="3">
         <v>3000000</v>
@@ -34799,12 +34778,12 @@
         <v>42000000</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="B146" s="3">
         <v>-200000</v>
@@ -34830,7 +34809,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="B147" s="3">
         <v>-200000</v>
@@ -34859,7 +34838,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="B148" s="3">
         <v>-200000</v>
@@ -34885,7 +34864,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="B149" s="3">
         <v>-200000</v>
@@ -34911,7 +34890,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="B150" s="3">
         <v>24073400</v>
@@ -34932,7 +34911,7 @@
         <v>0</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -35177,7 +35156,7 @@
     </row>
     <row r="172" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="E172" s="22" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -35189,8 +35168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35205,47 +35184,46 @@
     <col min="10" max="10" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
-    <col min="15" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.42578125" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11">
         <v>0</v>
@@ -35257,17 +35235,17 @@
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>152000000</v>
+        <v>52000000</v>
       </c>
       <c r="F2" s="46">
-        <v>152000000</v>
+        <v>52000000</v>
       </c>
       <c r="G2" s="29">
         <f t="shared" ref="G2:G9" si="0">E2-F2</f>
         <v>0</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="K2" s="11">
         <v>1.01</v>
@@ -35277,7 +35255,7 @@
       </c>
       <c r="M2" s="26"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>96</v>
       </c>
@@ -35285,27 +35263,27 @@
         <v>1</v>
       </c>
       <c r="C3" s="45">
-        <v>5150000</v>
+        <v>3000000</v>
       </c>
       <c r="D3" s="3">
-        <v>3200000</v>
+        <v>2500000</v>
       </c>
       <c r="E3" s="3">
         <f>E2*$L$2+C3-D3</f>
-        <v>156990000</v>
+        <v>53540000</v>
       </c>
       <c r="F3" s="46">
-        <v>156964000</v>
+        <v>54000000</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>-460000</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>96</v>
       </c>
@@ -35314,28 +35292,28 @@
       </c>
       <c r="C4" s="45">
         <f t="shared" ref="C4:C35" si="1">C3*$K$2</f>
-        <v>5201500</v>
+        <v>3030000</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D35" si="2">D3*$K$2</f>
-        <v>3232000</v>
+        <f>D3*$K$2</f>
+        <v>2525000</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E34" si="3">E3*$L$2+C4-D4</f>
-        <v>162099300</v>
+        <f t="shared" ref="E4:E34" si="2">E3*$L$2+C4-D4</f>
+        <v>55115800</v>
       </c>
       <c r="F4" s="46">
-        <v>162894000</v>
+        <v>56000000</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" si="0"/>
-        <v>-794700</v>
+        <v>-884200</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>96</v>
       </c>
@@ -35344,34 +35322,36 @@
       </c>
       <c r="C5" s="45">
         <f t="shared" si="1"/>
-        <v>5253515</v>
+        <v>3060300</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="2"/>
-        <v>3264320</v>
+        <f t="shared" ref="D5:D35" si="3">D4*$K$2</f>
+        <v>2550250</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="3"/>
-        <v>167330481</v>
+        <f t="shared" si="2"/>
+        <v>56728166</v>
       </c>
       <c r="F5" s="46">
-        <v>168574405</v>
+        <v>58000000</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="0"/>
-        <v>-1243924</v>
+        <v>-1271834</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>96</v>
       </c>
@@ -35380,25 +35360,25 @@
       </c>
       <c r="C6" s="50">
         <f t="shared" si="1"/>
-        <v>5306050.1500000004</v>
+        <v>3090903</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="2"/>
-        <v>3296963.2</v>
+        <f t="shared" si="3"/>
+        <v>2575752.5</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="3"/>
-        <v>172686177.57000002</v>
+        <f t="shared" si="2"/>
+        <v>58377879.82</v>
       </c>
       <c r="F6" s="70">
-        <v>176261287</v>
+        <v>60000000</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" si="0"/>
-        <v>-3575109.4299999774</v>
+        <v>-1622120.1799999997</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>8</v>
@@ -35406,14 +35386,14 @@
       <c r="K6" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="M6" s="59" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M6" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="N6" s="29">
+        <v>52000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>96</v>
       </c>
@@ -35422,42 +35402,40 @@
       </c>
       <c r="C7" s="50">
         <f t="shared" si="1"/>
-        <v>5359110.6515000006</v>
+        <v>3121812.03</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="2"/>
-        <v>3329932.8320000004</v>
+        <f t="shared" si="3"/>
+        <v>2601510.0249999999</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="3"/>
-        <v>178169078.94090003</v>
+        <f t="shared" si="2"/>
+        <v>60065739.421400003</v>
       </c>
       <c r="F7" s="70">
-        <v>171660752</v>
+        <v>56000000</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="0"/>
-        <v>6508326.9409000278</v>
+        <v>4065739.4214000031</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>715</v>
+        <v>750</v>
       </c>
       <c r="J7" s="60" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="K7" s="44">
         <v>24300000</v>
       </c>
-      <c r="L7" s="3">
-        <f>K7</f>
-        <v>24300000</v>
-      </c>
-      <c r="M7" s="3">
-        <f t="shared" ref="M7:M8" si="4">K7-L7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M7" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="N7" s="29">
+        <v>38000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>96</v>
       </c>
@@ -35466,41 +35444,36 @@
       </c>
       <c r="C8" s="50">
         <f t="shared" si="1"/>
-        <v>5412701.7580150003</v>
+        <v>3153030.1502999999</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="2"/>
-        <v>3363232.1603200003</v>
+        <f t="shared" si="3"/>
+        <v>2627525.12525</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="3"/>
-        <v>183781930.11741301</v>
+        <f t="shared" si="2"/>
+        <v>61792559.234878004</v>
       </c>
       <c r="F8" s="71">
-        <v>177000000</v>
+        <v>58000000</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" si="0"/>
-        <v>6781930.1174130142</v>
+        <v>3792559.2348780036</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="K8" s="44">
-        <v>24300000</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="4"/>
-        <v>24300000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="44"/>
+      <c r="M8" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="N8" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>96</v>
       </c>
@@ -35509,23 +35482,23 @@
       </c>
       <c r="C9" s="51">
         <f t="shared" si="1"/>
-        <v>5466828.77559515</v>
+        <v>3184560.4518029997</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="2"/>
-        <v>3396864.4819232002</v>
+        <f t="shared" si="3"/>
+        <v>2653800.3765024999</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="3"/>
-        <v>189527533.01343325</v>
+        <f t="shared" si="2"/>
+        <v>63559170.494876064</v>
       </c>
       <c r="F9" s="3">
-        <f>K23</f>
-        <v>175257811</v>
+        <f>K16</f>
+        <v>60572843</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="0"/>
-        <v>14269722.013433248</v>
+        <v>2986327.4948760644</v>
       </c>
       <c r="H9" s="11"/>
       <c r="J9" s="19" t="s">
@@ -35535,15 +35508,14 @@
         <f>'مسکن ایلیا'!B160</f>
         <v>42922843</v>
       </c>
-      <c r="L9" s="3">
-        <f>K9-M9</f>
-        <v>42922843</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M9" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="N9" s="29">
+        <v>14500000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>96</v>
       </c>
@@ -35552,36 +35524,35 @@
       </c>
       <c r="C10" s="51">
         <f t="shared" si="1"/>
-        <v>5521497.0633511012</v>
+        <v>3216406.0563210296</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="2"/>
-        <v>3430833.1267424324</v>
+        <f t="shared" si="3"/>
+        <v>2680338.3802675251</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="3"/>
-        <v>195408747.61031058</v>
+        <f t="shared" si="2"/>
+        <v>65366421.580827095</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="J10" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="K10" s="44">
         <f>'مسکن علی سید الشهدا'!B27</f>
         <v>50000</v>
       </c>
-      <c r="L10" s="3">
-        <f>K10</f>
-        <v>50000</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" ref="M10:M22" si="5">K10-L10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M10" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="N10" s="29">
+        <f>-1*12*L45</f>
+        <v>-33780000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>96</v>
       </c>
@@ -35590,35 +35561,33 @@
       </c>
       <c r="C11" s="51">
         <f t="shared" si="1"/>
-        <v>5576712.0339846127</v>
+        <v>3248570.1168842399</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>3465141.4580098568</v>
+        <f t="shared" si="3"/>
+        <v>2707141.7640702003</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="3"/>
-        <v>201428493.13849154</v>
+        <f t="shared" si="2"/>
+        <v>67215178.36525768</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="J11" s="44" t="s">
-        <v>460</v>
+      <c r="J11" s="2" t="s">
+        <v>711</v>
       </c>
       <c r="K11" s="44">
-        <f>سارا!D143</f>
-        <v>74159484</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <f t="shared" si="5"/>
-        <v>74159484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="N11" s="29">
+        <v>57000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>96</v>
       </c>
@@ -35627,35 +35596,29 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" si="1"/>
-        <v>5632479.1543244589</v>
+        <v>3281055.8180530826</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="2"/>
-        <v>3499792.8725899556</v>
+        <f t="shared" si="3"/>
+        <v>2734213.1817109021</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="3"/>
-        <v>207589749.28299591</v>
+        <f t="shared" si="2"/>
+        <v>69106324.568905011</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="J12" s="2" t="s">
-        <v>461</v>
+        <v>85</v>
       </c>
       <c r="K12" s="44">
-        <f>'مسکن مریم یاران'!B90</f>
-        <v>8078767</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" si="5"/>
-        <v>8078767</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-7900000</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>96</v>
       </c>
@@ -35664,35 +35627,31 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" si="1"/>
-        <v>5688803.9458677033</v>
+        <v>3313866.3762336136</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="2"/>
-        <v>3534790.8013158552</v>
+        <f t="shared" si="3"/>
+        <v>2761555.3135280111</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="3"/>
-        <v>213895557.41320771</v>
+        <f t="shared" si="2"/>
+        <v>71040762.122988701</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="J13" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K13" s="44">
-        <f>'مسکن مریم سید الشهدا'!B27</f>
-        <v>96717</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <f t="shared" si="5"/>
-        <v>96717</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>200000</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>96</v>
       </c>
@@ -35701,43 +35660,37 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" si="1"/>
-        <v>5745691.9853263805</v>
+        <v>3347005.0399959497</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="2"/>
-        <v>3570138.7093290137</v>
+        <f t="shared" si="3"/>
+        <v>2789170.8666632911</v>
       </c>
       <c r="E14" s="47">
-        <f t="shared" si="3"/>
-        <v>220349021.83746925</v>
+        <f t="shared" si="2"/>
+        <v>73019411.538781136</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="J14" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="K14" s="44">
-        <v>1000000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="25"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="N14" s="29">
+        <f>SUM(N6:N10)</f>
+        <v>70720000</v>
+      </c>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="64">
         <v>97</v>
       </c>
@@ -35746,49 +35699,36 @@
       </c>
       <c r="C15" s="45">
         <f t="shared" si="1"/>
-        <v>5803148.905179644</v>
+        <v>3380475.0903959093</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="2"/>
-        <v>3605840.0964223039</v>
+        <f t="shared" si="3"/>
+        <v>2817062.575329924</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="3"/>
-        <v>226953311.08297598</v>
+        <f t="shared" si="2"/>
+        <v>75043212.284622744</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="J15" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="44">
         <v>0</v>
       </c>
-      <c r="L15" s="3">
-        <v>-7900000</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" si="5"/>
-        <v>7900000</v>
-      </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L15" s="25"/>
+      <c r="M15" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="N15" s="29">
+        <f>SUM(N6:N13)</f>
+        <v>127720000</v>
+      </c>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="64">
         <v>97</v>
       </c>
@@ -35797,52 +35737,30 @@
       </c>
       <c r="C16" s="45">
         <f t="shared" si="1"/>
-        <v>5861180.3942314405</v>
+        <v>3414279.8412998682</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="2"/>
-        <v>3641898.4973865268</v>
+        <f t="shared" si="3"/>
+        <v>2845233.2010832233</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="3"/>
-        <v>233711659.20148042</v>
+        <f t="shared" si="2"/>
+        <v>77113123.170531839</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="J16" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K16" s="44">
-        <v>200000</v>
-      </c>
-      <c r="L16" s="3">
-        <f>K16</f>
-        <v>200000</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="25"/>
-      <c r="O16" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="P16" s="29">
-        <f>152000000</f>
-        <v>152000000</v>
-      </c>
-      <c r="Q16" s="29">
-        <v>52000000</v>
-      </c>
-      <c r="R16" s="29">
-        <f>P16-Q16</f>
-        <v>100000000</v>
-      </c>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
+        <v>603</v>
+      </c>
+      <c r="K16" s="3">
+        <f>SUM(K7:K15)</f>
+        <v>60572843</v>
+      </c>
+      <c r="L16" s="25"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="64">
@@ -35853,50 +35771,30 @@
       </c>
       <c r="C17" s="45">
         <f t="shared" si="1"/>
-        <v>5919792.1981737548</v>
+        <v>3448422.6397128669</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="2"/>
-        <v>3678317.4823603919</v>
+        <f t="shared" si="3"/>
+        <v>2873685.5330940555</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="3"/>
-        <v>240627367.1013234</v>
+        <f t="shared" si="2"/>
+        <v>79230122.740561292</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="J17" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="K17" s="44">
-        <v>150000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" si="5"/>
-        <v>150000</v>
-      </c>
-      <c r="N17" s="25"/>
-      <c r="O17" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="P17" s="29">
-        <v>80000000</v>
-      </c>
-      <c r="Q17" s="29">
-        <v>30000000</v>
-      </c>
-      <c r="R17" s="29">
-        <f t="shared" ref="R17:R23" si="6">P17-Q17</f>
-        <v>50000000</v>
-      </c>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
+        <v>604</v>
+      </c>
+      <c r="K17" s="3">
+        <f>K9+K10+K13</f>
+        <v>43172843</v>
+      </c>
+      <c r="L17" s="25"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="64">
@@ -35907,48 +35805,31 @@
       </c>
       <c r="C18" s="50">
         <f t="shared" si="1"/>
-        <v>5978990.1201554928</v>
+        <v>3482906.8661099956</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="2"/>
-        <v>3715100.6571839959</v>
+        <f t="shared" si="3"/>
+        <v>2902422.3884249963</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="3"/>
-        <v>247703803.90632135</v>
+        <f t="shared" si="2"/>
+        <v>81395209.673057526</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="44">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="25"/>
-      <c r="O18" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="P18" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="29">
-        <v>0</v>
-      </c>
-      <c r="R18" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
+      <c r="J18" s="59" t="s">
+        <v>747</v>
+      </c>
+      <c r="K18" s="1">
+        <f>K16+N11</f>
+        <v>117572843</v>
+      </c>
+      <c r="M18" s="25"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="64">
@@ -35959,47 +35840,24 @@
       </c>
       <c r="C19" s="50">
         <f t="shared" si="1"/>
-        <v>6038780.0213570474</v>
+        <v>3517735.9347710954</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="2"/>
-        <v>3752251.663755836</v>
+        <f t="shared" si="3"/>
+        <v>2931446.6123092463</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="3"/>
-        <v>254944408.342049</v>
+        <f t="shared" si="2"/>
+        <v>83609403.18898052</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="44">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="P19" s="29">
-        <f>12*P16*0.02</f>
-        <v>36480000</v>
-      </c>
-      <c r="Q19" s="29">
-        <v>12480000</v>
-      </c>
-      <c r="R19" s="29">
-        <f t="shared" si="6"/>
-        <v>24000000</v>
-      </c>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="64">
@@ -36010,47 +35868,26 @@
       </c>
       <c r="C20" s="50">
         <f t="shared" si="1"/>
-        <v>6099167.8215706181</v>
+        <v>3552913.2941188063</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="2"/>
-        <v>3789774.1803933945</v>
+        <f t="shared" si="3"/>
+        <v>2960761.0784323388</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="3"/>
-        <v>262352690.15006718</v>
+        <f t="shared" si="2"/>
+        <v>85873743.468446597</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="44">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="P20" s="29">
-        <f>-Q58*12</f>
-        <v>-48180000</v>
-      </c>
-      <c r="Q20" s="29">
-        <v>-24480000</v>
-      </c>
-      <c r="R20" s="29">
-        <f t="shared" si="6"/>
-        <v>-23700000</v>
-      </c>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="64">
@@ -36061,40 +35898,29 @@
       </c>
       <c r="C21" s="51">
         <f t="shared" si="1"/>
-        <v>6160159.4997863239</v>
+        <v>3588442.4270599945</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="2"/>
-        <v>3827671.9221973284</v>
+        <f t="shared" si="3"/>
+        <v>2990368.6892166622</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="3"/>
-        <v>269932231.53065753</v>
+        <f t="shared" si="2"/>
+        <v>88189292.075658873</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="44">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="25"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="M21" s="25"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="64">
@@ -36105,40 +35931,31 @@
       </c>
       <c r="C22" s="51">
         <f t="shared" si="1"/>
-        <v>6221761.0947841872</v>
+        <v>3624326.8513305946</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="2"/>
-        <v>3865948.6414193017</v>
+        <f t="shared" si="3"/>
+        <v>3020272.3761088289</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="3"/>
-        <v>277686688.61463559</v>
+        <f t="shared" si="2"/>
+        <v>90557132.392393813</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="44">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="25"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L22" s="1">
+        <v>70000</v>
+      </c>
+      <c r="M22" s="25"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="64">
@@ -36149,48 +35966,37 @@
       </c>
       <c r="C23" s="51">
         <f t="shared" si="1"/>
-        <v>6283978.7057320289</v>
+        <v>3660570.1198439007</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="2"/>
-        <v>3904608.1278334949</v>
+        <f t="shared" si="3"/>
+        <v>3050475.0998699171</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="3"/>
-        <v>285619792.96482688</v>
+        <f t="shared" si="2"/>
+        <v>92978370.060215667</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="J23" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="K23" s="3">
-        <f>SUM(K7:K22)</f>
-        <v>175257811</v>
-      </c>
-      <c r="L23" s="3">
-        <f>SUM(L7:L22)</f>
-        <v>60572843</v>
-      </c>
-      <c r="M23" s="3">
-        <f>SUM(M7:M22)</f>
-        <v>114684968</v>
-      </c>
-      <c r="N23" s="25"/>
-      <c r="O23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L23" s="1">
+        <v>100000</v>
+      </c>
+      <c r="M23" s="25"/>
+      <c r="N23" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="O23" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="64">
@@ -36201,43 +36007,37 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" si="1"/>
-        <v>6346818.4927893495</v>
+        <v>3697175.8210423398</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="2"/>
-        <v>3943654.2091118298</v>
+        <f t="shared" si="3"/>
+        <v>3080979.8508686163</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="3"/>
-        <v>293735353.10780096</v>
+        <f t="shared" si="2"/>
+        <v>95454133.431593716</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="J24" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="K24" s="3">
-        <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>125657811</v>
-      </c>
-      <c r="L24" s="3">
-        <f>L9+L16+L12+L10</f>
-        <v>43172843</v>
-      </c>
-      <c r="M24" s="3">
-        <f>M11+M12+M13+M17+M9</f>
-        <v>82484968</v>
-      </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="L24" s="1">
+        <v>95000</v>
+      </c>
+      <c r="M24" s="25"/>
+      <c r="N24" s="57">
+        <v>500000</v>
+      </c>
+      <c r="O24" s="58" t="s">
+        <v>480</v>
+      </c>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="64">
@@ -36248,39 +36048,36 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" si="1"/>
-        <v>6410286.6777172433</v>
+        <v>3734147.5792527632</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="2"/>
-        <v>3983090.7512029479</v>
+        <f t="shared" si="3"/>
+        <v>3111789.6493773023</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="3"/>
-        <v>302037256.09647131</v>
+        <f t="shared" si="2"/>
+        <v>97985574.030101061</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="P25" s="29">
-        <f>SUM(P16:P24)</f>
-        <v>220300000</v>
-      </c>
-      <c r="Q25" s="29">
-        <f>SUM(Q16:Q23)</f>
-        <v>70000000</v>
-      </c>
-      <c r="R25" s="29">
-        <f>SUM(R16:R23)</f>
-        <v>150300000</v>
-      </c>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="L25" s="1">
+        <v>150000</v>
+      </c>
+      <c r="N25" s="48">
+        <v>500000</v>
+      </c>
+      <c r="O25" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="64">
@@ -36291,20 +36088,32 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" si="1"/>
-        <v>6474389.5444944156</v>
+        <v>3771489.0550452909</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="2"/>
-        <v>4022921.6587149776</v>
+        <f t="shared" si="3"/>
+        <v>3142907.5458710752</v>
       </c>
       <c r="E26" s="47">
-        <f t="shared" si="3"/>
-        <v>310529469.10418016</v>
+        <f t="shared" si="2"/>
+        <v>100573867.0198773</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="O26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="L26" s="1">
+        <v>300000</v>
+      </c>
+      <c r="N26" s="48">
+        <v>130000</v>
+      </c>
+      <c r="O26" s="49" t="s">
+        <v>563</v>
+      </c>
       <c r="P26" s="25"/>
       <c r="Q26" s="25"/>
       <c r="R26" s="25"/>
@@ -36323,20 +36132,33 @@
       </c>
       <c r="C27" s="45">
         <f t="shared" si="1"/>
-        <v>6539133.4399393601</v>
+        <v>3809203.9455957436</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="2"/>
-        <v>4063150.8753021276</v>
+        <f t="shared" si="3"/>
+        <v>3174336.6213297863</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="3"/>
-        <v>319216041.050901</v>
+        <f t="shared" si="2"/>
+        <v>103220211.68454081</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="O27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="L27" s="1">
+        <v>100000</v>
+      </c>
+      <c r="M27" s="25"/>
+      <c r="N27" s="48">
+        <v>250000</v>
+      </c>
+      <c r="O27" s="49" t="s">
+        <v>485</v>
+      </c>
       <c r="P27" s="25"/>
       <c r="Q27" s="25"/>
       <c r="R27" s="25"/>
@@ -36355,31 +36177,33 @@
       </c>
       <c r="C28" s="45">
         <f t="shared" si="1"/>
-        <v>6604524.7743387539</v>
+        <v>3847295.9850517008</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="2"/>
-        <v>4103782.3840551488</v>
+        <f t="shared" si="3"/>
+        <v>3206079.9875430842</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="3"/>
-        <v>328101104.26220268</v>
+        <f t="shared" si="2"/>
+        <v>105925831.91574024</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
+      <c r="K28" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="L28" s="1">
+        <v>200000</v>
+      </c>
       <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="25"/>
+      <c r="N28" s="48">
+        <v>140000</v>
+      </c>
+      <c r="O28" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="P28" s="28"/>
       <c r="V28" s="25"/>
       <c r="W28" s="25"/>
     </row>
@@ -36392,33 +36216,34 @@
       </c>
       <c r="C29" s="45">
         <f t="shared" si="1"/>
-        <v>6670570.0220821416</v>
+        <v>3885768.9449022179</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="2"/>
-        <v>4144820.2078957004</v>
+        <f t="shared" si="3"/>
+        <v>3238140.787418515</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="3"/>
-        <v>337188876.16163319</v>
+        <f t="shared" si="2"/>
+        <v>108691976.71153875</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="28"/>
+      <c r="K29" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="L29" s="18">
+        <v>300000</v>
+      </c>
+      <c r="M29" s="26"/>
+      <c r="N29" s="48">
+        <f>SUM(N24:N28)</f>
+        <v>1520000</v>
+      </c>
+      <c r="O29" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" s="25"/>
       <c r="V29" s="25"/>
       <c r="W29" s="25"/>
     </row>
@@ -36431,36 +36256,30 @@
       </c>
       <c r="C30" s="50">
         <f t="shared" si="1"/>
-        <v>6737275.722302963</v>
+        <v>3924626.63435124</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="2"/>
-        <v>4186268.4099746575</v>
+        <f t="shared" si="3"/>
+        <v>3270522.1952927001</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="3"/>
-        <v>346483660.99719423</v>
+        <f t="shared" si="2"/>
+        <v>111519920.68482807</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
+      <c r="K30" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="L30" s="1">
+        <v>200000</v>
+      </c>
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
-      <c r="P30" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>70000</v>
-      </c>
-      <c r="R30" s="26"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="U30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
       <c r="V30" s="25"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -36472,34 +36291,30 @@
       </c>
       <c r="C31" s="50">
         <f t="shared" si="1"/>
-        <v>6804648.4795259926</v>
+        <v>3963872.9006947526</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="2"/>
-        <v>4228131.0940744039</v>
+        <f t="shared" si="3"/>
+        <v>3303227.4172456269</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="3"/>
-        <v>355989851.60258967</v>
+        <f t="shared" si="2"/>
+        <v>114410964.58197376</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="L31" s="1">
+        <v>20000</v>
+      </c>
+      <c r="M31" s="25"/>
       <c r="N31" s="25"/>
-      <c r="P31" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>100000</v>
-      </c>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
       <c r="V31" s="25"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -36511,35 +36326,26 @@
       </c>
       <c r="C32" s="50">
         <f t="shared" si="1"/>
-        <v>6872694.9643212529</v>
+        <v>4003511.6297017001</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="2"/>
-        <v>4270412.4050151482</v>
+        <f t="shared" si="3"/>
+        <v>3336259.6914180834</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="3"/>
-        <v>365711931.19394755</v>
+        <f t="shared" si="2"/>
+        <v>117366435.81189686</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>95000</v>
-      </c>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="L32" s="1">
+        <v>50000</v>
+      </c>
       <c r="V32" s="25"/>
       <c r="W32" s="25"/>
     </row>
@@ -36552,38 +36358,25 @@
       </c>
       <c r="C33" s="51">
         <f t="shared" si="1"/>
-        <v>6941421.9139644653</v>
+        <v>4043546.7459987169</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="2"/>
-        <v>4313116.5290652998</v>
+        <f t="shared" si="3"/>
+        <v>3369622.2883322644</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="3"/>
-        <v>375654475.20272565</v>
+        <f t="shared" si="2"/>
+        <v>120387688.98580123</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="J33" s="25"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P33" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>150000</v>
-      </c>
-      <c r="S33" s="49" t="s">
-        <v>489</v>
-      </c>
-      <c r="T33" s="49" t="s">
-        <v>487</v>
+      <c r="K33" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="L33" s="1">
+        <v>90000</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -36595,36 +36388,24 @@
       </c>
       <c r="C34" s="51">
         <f t="shared" si="1"/>
-        <v>7010836.1331041101</v>
+        <v>4083982.2134587043</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="2"/>
-        <v>4356247.6943559526</v>
+        <f t="shared" si="3"/>
+        <v>3403318.5112155871</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="3"/>
-        <v>385822153.14552832</v>
+        <f t="shared" si="2"/>
+        <v>123476106.46776038</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>300000</v>
-      </c>
-      <c r="S34" s="57">
-        <v>500000</v>
-      </c>
-      <c r="T34" s="58" t="s">
-        <v>488</v>
+      <c r="K34" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="L34" s="1">
+        <v>50000</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -36636,31 +36417,24 @@
       </c>
       <c r="C35" s="51">
         <f t="shared" si="1"/>
-        <v>7080944.4944351511</v>
+        <v>4124822.0355932913</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="2"/>
-        <v>4399810.1712995125</v>
+        <f t="shared" si="3"/>
+        <v>3437351.6963277431</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" ref="E35:E62" si="7">E34*$L$2+C35-D35</f>
-        <v>396219730.53157449</v>
+        <f t="shared" ref="E35:E62" si="4">E34*$L$2+C35-D35</f>
+        <v>126633098.93638113</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>100000</v>
-      </c>
-      <c r="S35" s="48">
-        <v>500000</v>
-      </c>
-      <c r="T35" s="49" t="s">
-        <v>492</v>
+      <c r="K35" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="L35" s="1">
+        <v>150000</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -36671,32 +36445,25 @@
         <v>34</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" ref="C36:C62" si="8">C35*$K$2</f>
-        <v>7151753.939379503</v>
+        <f t="shared" ref="C36:C62" si="5">C35*$K$2</f>
+        <v>4166070.2559492243</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" ref="D36:D62" si="9">D35*$K$2</f>
-        <v>4443808.2730125077</v>
+        <f t="shared" ref="D36:D62" si="6">D35*$K$2</f>
+        <v>3471725.2132910206</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="7"/>
-        <v>406852070.80857301</v>
+        <f t="shared" si="4"/>
+        <v>129860105.95776697</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>200000</v>
-      </c>
-      <c r="S36" s="48">
-        <v>130000</v>
-      </c>
-      <c r="T36" s="49" t="s">
-        <v>572</v>
+      <c r="K36" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="L36" s="1">
+        <v>15000</v>
       </c>
       <c r="V36" t="s">
         <v>25</v>
@@ -36710,33 +36477,25 @@
         <v>35</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="8"/>
-        <v>7223271.4787732977</v>
+        <f t="shared" si="5"/>
+        <v>4207730.9585087169</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="9"/>
-        <v>4488246.3557426324</v>
+        <f t="shared" si="6"/>
+        <v>3506442.4654239309</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="7"/>
-        <v>417724137.34777516</v>
+        <f t="shared" si="4"/>
+        <v>133158596.5700071</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="J37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q37" s="18">
-        <v>300000</v>
-      </c>
-      <c r="S37" s="48">
-        <v>250000</v>
-      </c>
-      <c r="T37" s="49" t="s">
-        <v>493</v>
+      <c r="K37" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="L37" s="1">
+        <v>20000</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -36747,33 +36506,25 @@
         <v>36</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="8"/>
-        <v>7295504.1935610306</v>
+        <f t="shared" si="5"/>
+        <v>4249808.2680938039</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="9"/>
-        <v>4533128.8193000592</v>
+        <f t="shared" si="6"/>
+        <v>3541506.8900781702</v>
       </c>
       <c r="E38" s="47">
-        <f t="shared" si="7"/>
-        <v>428840995.46899164</v>
+        <f t="shared" si="4"/>
+        <v>136530069.87942287</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="J38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>200000</v>
-      </c>
-      <c r="S38" s="48">
-        <v>180000</v>
-      </c>
-      <c r="T38" s="49" t="s">
-        <v>319</v>
+      <c r="K38" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="L38" s="1">
+        <v>40000</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -36784,34 +36535,25 @@
         <v>37</v>
       </c>
       <c r="C39" s="45">
-        <f t="shared" si="8"/>
-        <v>7368459.2354966411</v>
+        <f t="shared" si="5"/>
+        <v>4292306.3507747417</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="9"/>
-        <v>4578460.1074930597</v>
+        <f t="shared" si="6"/>
+        <v>3576921.9589789519</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="7"/>
-        <v>440207814.50637507</v>
+        <f t="shared" si="4"/>
+        <v>139976055.66880712</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="J39" s="56"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>20000</v>
-      </c>
-      <c r="S39" s="48">
-        <f>SUM(S34:S38)</f>
-        <v>1560000</v>
-      </c>
-      <c r="T39" s="49" t="s">
-        <v>6</v>
+      <c r="K39" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="L39" s="1">
+        <v>150000</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -36822,27 +36564,25 @@
         <v>38</v>
       </c>
       <c r="C40" s="45">
-        <f t="shared" si="8"/>
-        <v>7442143.8278516075</v>
+        <f t="shared" si="5"/>
+        <v>4335229.4142824896</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="9"/>
-        <v>4624244.70856799</v>
+        <f t="shared" si="6"/>
+        <v>3612691.1785687413</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="7"/>
-        <v>451829869.91578621</v>
+        <f t="shared" si="4"/>
+        <v>143498115.01789701</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
-      <c r="J40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>50000</v>
+      <c r="K40" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="L40" s="1">
+        <v>75000</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -36853,26 +36593,25 @@
         <v>39</v>
       </c>
       <c r="C41" s="45">
-        <f t="shared" si="8"/>
-        <v>7516565.2661301233</v>
+        <f t="shared" si="5"/>
+        <v>4378581.7084253142</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" si="9"/>
-        <v>4670487.1556536695</v>
+        <f t="shared" si="6"/>
+        <v>3648818.0903544286</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="7"/>
-        <v>463712545.42457843</v>
+        <f t="shared" si="4"/>
+        <v>147097840.93632582</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>90000</v>
+      <c r="K41" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="L41" s="1">
+        <v>140000</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -36883,35 +36622,25 @@
         <v>40</v>
       </c>
       <c r="C42" s="50">
-        <f t="shared" si="8"/>
-        <v>7591730.9187914245</v>
+        <f t="shared" si="5"/>
+        <v>4422367.525509567</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="9"/>
-        <v>4717192.0272102058</v>
+        <f t="shared" si="6"/>
+        <v>3685306.2712579728</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="7"/>
-        <v>475861335.22465122</v>
+        <f t="shared" si="4"/>
+        <v>150776859.00930393</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>50000</v>
-      </c>
-      <c r="S42">
-        <v>3000000</v>
-      </c>
-      <c r="T42" s="73" t="s">
-        <v>685</v>
-      </c>
-      <c r="U42" t="s">
-        <v>688</v>
+      <c r="K42" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="L42" s="3">
+        <v>500000</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -36922,36 +36651,22 @@
         <v>41</v>
       </c>
       <c r="C43" s="50">
-        <f t="shared" si="8"/>
-        <v>7667648.2279793387</v>
+        <f t="shared" si="5"/>
+        <v>4466591.2007646626</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="9"/>
-        <v>4764363.9474823074</v>
+        <f t="shared" si="6"/>
+        <v>3722159.3339705528</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="7"/>
-        <v>488281846.20964134</v>
+        <f t="shared" si="4"/>
+        <v>154536828.05628413</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>150000</v>
-      </c>
-      <c r="S43">
-        <v>1000000</v>
-      </c>
-      <c r="T43" s="73" t="s">
-        <v>726</v>
-      </c>
-      <c r="U43" t="s">
-        <v>688</v>
-      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="66">
@@ -36961,27 +36676,22 @@
         <v>42</v>
       </c>
       <c r="C44" s="50">
-        <f t="shared" si="8"/>
-        <v>7744324.7102591321</v>
+        <f t="shared" si="5"/>
+        <v>4511257.1127723092</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="9"/>
-        <v>4812007.5869571306</v>
+        <f t="shared" si="6"/>
+        <v>3759380.9273102582</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="7"/>
-        <v>500979800.25713617</v>
+        <f t="shared" si="4"/>
+        <v>158379440.80287188</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>15000</v>
-      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="66">
@@ -36991,26 +36701,26 @@
         <v>43</v>
       </c>
       <c r="C45" s="51">
-        <f t="shared" si="8"/>
-        <v>7821767.9573617233</v>
+        <f t="shared" si="5"/>
+        <v>4556369.6839000322</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="9"/>
-        <v>4860127.662826702</v>
+        <f t="shared" si="6"/>
+        <v>3796974.7365833609</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="7"/>
-        <v>513961036.5568139</v>
+        <f t="shared" si="4"/>
+        <v>162306424.566246</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>20000</v>
+      <c r="K45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L45" s="3">
+        <f>SUM(L22:L43)</f>
+        <v>2815000</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -37021,26 +36731,26 @@
         <v>44</v>
       </c>
       <c r="C46" s="51">
-        <f t="shared" si="8"/>
-        <v>7899985.6369353402</v>
+        <f t="shared" si="5"/>
+        <v>4601933.3807390323</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="9"/>
-        <v>4908728.939454969</v>
+        <f t="shared" si="6"/>
+        <v>3834944.4839491947</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="7"/>
-        <v>527231513.98543054</v>
+        <f t="shared" si="4"/>
+        <v>166319541.95436078</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>40000</v>
+      <c r="K46" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="L46" s="3">
+        <f>L45/30</f>
+        <v>93833.333333333328</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -37051,27 +36761,20 @@
         <v>45</v>
       </c>
       <c r="C47" s="51">
-        <f t="shared" si="8"/>
-        <v>7978985.4933046941</v>
+        <f t="shared" si="5"/>
+        <v>4647952.7145464225</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="9"/>
-        <v>4957816.228849519</v>
+        <f t="shared" si="6"/>
+        <v>3873293.9287886866</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="7"/>
-        <v>540797313.5295943</v>
+        <f t="shared" si="4"/>
+        <v>170420591.57920572</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>150000</v>
-      </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="68">
@@ -37081,30 +36784,24 @@
         <v>46</v>
       </c>
       <c r="C48" s="69">
-        <f t="shared" si="8"/>
-        <v>8058775.3482377408</v>
+        <f t="shared" si="5"/>
+        <v>4694432.2416918864</v>
       </c>
       <c r="D48" s="69">
-        <f t="shared" si="9"/>
-        <v>5007394.3911380144</v>
+        <f t="shared" si="6"/>
+        <v>3912026.8680765736</v>
       </c>
       <c r="E48" s="69">
-        <f t="shared" si="7"/>
-        <v>554664640.75728595</v>
+        <f t="shared" si="4"/>
+        <v>174611408.78440517</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="P48" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="66">
         <v>99</v>
       </c>
@@ -37112,28 +36809,22 @@
         <v>47</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="8"/>
-        <v>8139363.101720118</v>
+        <f t="shared" si="5"/>
+        <v>4741376.5641088057</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" si="9"/>
-        <v>5057468.3350493945</v>
+        <f t="shared" si="6"/>
+        <v>3951147.1367573394</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="7"/>
-        <v>568839828.33910239</v>
+        <f t="shared" si="4"/>
+        <v>178893866.38744476</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
-      <c r="P49" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="66">
         <v>99</v>
       </c>
@@ -37141,28 +36832,22 @@
         <v>48</v>
       </c>
       <c r="C50" s="52">
-        <f t="shared" si="8"/>
-        <v>8220756.7327373195</v>
+        <f t="shared" si="5"/>
+        <v>4788790.3297498934</v>
       </c>
       <c r="D50" s="52">
-        <f t="shared" si="9"/>
-        <v>5108043.0183998886</v>
+        <f t="shared" si="6"/>
+        <v>3990658.6081249127</v>
       </c>
       <c r="E50" s="53">
-        <f t="shared" si="7"/>
-        <v>583329338.62022197</v>
+        <f t="shared" si="4"/>
+        <v>183269875.43681863</v>
       </c>
       <c r="F50" s="52"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
-      <c r="P50" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="67">
         <v>1400</v>
       </c>
@@ -37170,28 +36855,22 @@
         <v>49</v>
       </c>
       <c r="C51" s="45">
-        <f t="shared" si="8"/>
-        <v>8302964.3000646932</v>
+        <f t="shared" si="5"/>
+        <v>4836678.2330473922</v>
       </c>
       <c r="D51" s="3">
-        <f t="shared" si="9"/>
-        <v>5159123.4485838879</v>
+        <f t="shared" si="6"/>
+        <v>4030565.1942061619</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="7"/>
-        <v>598139766.24410725</v>
+        <f t="shared" si="4"/>
+        <v>187741385.98439625</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
-      <c r="P51" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="67">
         <v>1400</v>
       </c>
@@ -37199,24 +36878,22 @@
         <v>50</v>
       </c>
       <c r="C52" s="45">
-        <f t="shared" si="8"/>
-        <v>8385993.9430653406</v>
+        <f t="shared" si="5"/>
+        <v>4885045.0153778661</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="9"/>
-        <v>5210714.6830697265</v>
+        <f t="shared" si="6"/>
+        <v>4070870.8461482236</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="7"/>
-        <v>613277840.82898498</v>
+        <f t="shared" si="4"/>
+        <v>192310387.87331384</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="3"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="67">
         <v>1400</v>
       </c>
@@ -37224,24 +36901,22 @@
         <v>51</v>
       </c>
       <c r="C53" s="45">
-        <f t="shared" si="8"/>
-        <v>8469853.8824959937</v>
+        <f t="shared" si="5"/>
+        <v>4933895.4655316444</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" si="9"/>
-        <v>5262821.829900424</v>
+        <f t="shared" si="6"/>
+        <v>4111579.5546097057</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="7"/>
-        <v>628750429.69816029</v>
+        <f t="shared" si="4"/>
+        <v>196978911.54170206</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="3"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="67">
         <v>1400</v>
       </c>
@@ -37249,24 +36924,22 @@
         <v>52</v>
       </c>
       <c r="C54" s="50">
-        <f t="shared" si="8"/>
-        <v>8554552.4213209543</v>
+        <f t="shared" si="5"/>
+        <v>4983234.4201869611</v>
       </c>
       <c r="D54" s="3">
-        <f t="shared" si="9"/>
-        <v>5315450.0481994282</v>
+        <f t="shared" si="6"/>
+        <v>4152695.3501558029</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="7"/>
-        <v>644564540.66524506</v>
+        <f t="shared" si="4"/>
+        <v>201749028.84256727</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="3"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="67">
         <v>1400</v>
       </c>
@@ -37274,24 +36947,22 @@
         <v>53</v>
       </c>
       <c r="C55" s="50">
-        <f t="shared" si="8"/>
-        <v>8640097.9455341641</v>
+        <f t="shared" si="5"/>
+        <v>5033066.7643888304</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" si="9"/>
-        <v>5368604.5486814221</v>
+        <f t="shared" si="6"/>
+        <v>4194222.3036573608</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="7"/>
-        <v>660727324.87540269</v>
+        <f t="shared" si="4"/>
+        <v>206622853.88015008</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="67">
         <v>1400</v>
       </c>
@@ -37299,24 +36970,22 @@
         <v>54</v>
       </c>
       <c r="C56" s="50">
-        <f t="shared" si="8"/>
-        <v>8726498.9249895066</v>
+        <f t="shared" si="5"/>
+        <v>5083397.4320327183</v>
       </c>
       <c r="D56" s="3">
-        <f t="shared" si="9"/>
-        <v>5422290.5941682365</v>
+        <f t="shared" si="6"/>
+        <v>4236164.5266939346</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="7"/>
-        <v>677246079.70373201</v>
+        <f t="shared" si="4"/>
+        <v>211602543.86309186</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="67">
         <v>1400</v>
       </c>
@@ -37324,24 +36993,22 @@
         <v>55</v>
       </c>
       <c r="C57" s="51">
-        <f t="shared" si="8"/>
-        <v>8813763.914239401</v>
+        <f t="shared" si="5"/>
+        <v>5134231.4063530453</v>
       </c>
       <c r="D57" s="3">
-        <f t="shared" si="9"/>
-        <v>5476513.5001099193</v>
+        <f t="shared" si="6"/>
+        <v>4278526.1719608735</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="7"/>
-        <v>694128251.71193612</v>
+        <f t="shared" si="4"/>
+        <v>216690299.9747459</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="3"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="67">
         <v>1400</v>
       </c>
@@ -37349,29 +37016,22 @@
         <v>56</v>
       </c>
       <c r="C58" s="51">
-        <f t="shared" si="8"/>
-        <v>8901901.5533817951</v>
+        <f t="shared" si="5"/>
+        <v>5185573.7204165757</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" si="9"/>
-        <v>5531278.635111019</v>
+        <f t="shared" si="6"/>
+        <v>4321311.4336804822</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="7"/>
-        <v>711381439.66444564</v>
+        <f t="shared" si="4"/>
+        <v>221888368.26097691</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
-      <c r="P58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q58" s="3">
-        <f>SUM(Q30:Q51)</f>
-        <v>4015000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="67">
         <v>1400</v>
       </c>
@@ -37379,29 +37039,22 @@
         <v>57</v>
       </c>
       <c r="C59" s="51">
-        <f t="shared" si="8"/>
-        <v>8990920.568915613</v>
+        <f t="shared" si="5"/>
+        <v>5237429.4576207418</v>
       </c>
       <c r="D59" s="3">
-        <f t="shared" si="9"/>
-        <v>5586591.4214621289</v>
+        <f t="shared" si="6"/>
+        <v>4364524.5480172867</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="7"/>
-        <v>729013397.60518801</v>
+        <f t="shared" si="4"/>
+        <v>227199040.53579989</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
-      <c r="P59" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q59" s="3">
-        <f>Q58/30</f>
-        <v>133833.33333333334</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="67">
         <v>1400</v>
       </c>
@@ -37409,22 +37062,22 @@
         <v>58</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" si="8"/>
-        <v>9080829.7746047694</v>
+        <f t="shared" si="5"/>
+        <v>5289803.752196949</v>
       </c>
       <c r="D60" s="3">
-        <f t="shared" si="9"/>
-        <v>5642457.3356767502</v>
+        <f t="shared" si="6"/>
+        <v>4408169.79349746</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="7"/>
-        <v>747032037.99621975</v>
+        <f t="shared" si="4"/>
+        <v>232624655.30521536</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="67">
         <v>1400</v>
       </c>
@@ -37432,22 +37085,22 @@
         <v>59</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" si="8"/>
-        <v>9171638.0723508168</v>
+        <f t="shared" si="5"/>
+        <v>5342701.7897189185</v>
       </c>
       <c r="D61" s="3">
-        <f t="shared" si="9"/>
-        <v>5698881.9090335174</v>
+        <f t="shared" si="6"/>
+        <v>4452251.4914324349</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="7"/>
-        <v>765445434.91946149</v>
+        <f t="shared" si="4"/>
+        <v>238167598.70960617</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="67">
         <v>1400</v>
       </c>
@@ -37455,25 +37108,25 @@
         <v>60</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" si="8"/>
-        <v>9263354.4530743249</v>
+        <f t="shared" si="5"/>
+        <v>5396128.8076161081</v>
       </c>
       <c r="D62" s="3">
-        <f t="shared" si="9"/>
-        <v>5755870.728123853</v>
+        <f t="shared" si="6"/>
+        <v>4496774.0063467594</v>
       </c>
       <c r="E62" s="47">
-        <f t="shared" si="7"/>
-        <v>784261827.34280121</v>
+        <f t="shared" si="4"/>
+        <v>243830305.48506767</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E63" s="26"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E64" s="26"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -37571,13 +37224,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B3" s="3">
         <v>15000000</v>
       </c>
       <c r="C3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -37596,13 +37249,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B4" s="3">
         <v>-3000000</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -37621,13 +37274,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B5" s="3">
         <v>-3200900</v>
       </c>
       <c r="C5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -37646,13 +37299,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B6" s="3">
         <v>-3000900</v>
       </c>
       <c r="C6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -37671,13 +37324,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B7" s="3">
         <v>-5805900</v>
       </c>
       <c r="C7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D7">
         <v>22</v>
@@ -37696,13 +37349,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B8" s="3">
         <v>54417</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -38570,7 +38223,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B7" s="18">
         <v>-4000000</v>
@@ -38580,7 +38233,7 @@
         <v>500000</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -38643,16 +38296,16 @@
       </c>
       <c r="D12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="O12" s="74" t="s">
+      <c r="O12" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="P12" s="74" t="s">
+      <c r="P12" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="Q12" s="74" t="s">
+      <c r="Q12" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="R12" s="74" t="s">
+      <c r="R12" s="73" t="s">
         <v>235</v>
       </c>
       <c r="S12" s="11"/>
@@ -38667,13 +38320,13 @@
       </c>
       <c r="D13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="O13" s="75">
+      <c r="O13" s="74">
         <v>6</v>
       </c>
-      <c r="P13" s="75">
+      <c r="P13" s="74">
         <v>36</v>
       </c>
-      <c r="Q13" s="74">
+      <c r="Q13" s="73">
         <v>0.5</v>
       </c>
       <c r="R13" s="11">
@@ -38698,13 +38351,13 @@
       </c>
       <c r="D14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="O14" s="75">
+      <c r="O14" s="74">
         <v>9</v>
       </c>
-      <c r="P14" s="75">
+      <c r="P14" s="74">
         <v>37</v>
       </c>
-      <c r="Q14" s="74">
+      <c r="Q14" s="73">
         <v>0.75</v>
       </c>
       <c r="R14" s="11">
@@ -38729,13 +38382,13 @@
       </c>
       <c r="D15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="O15" s="75">
+      <c r="O15" s="74">
         <v>12</v>
       </c>
-      <c r="P15" s="75">
+      <c r="P15" s="74">
         <v>38</v>
       </c>
-      <c r="Q15" s="74">
+      <c r="Q15" s="73">
         <v>1</v>
       </c>
       <c r="R15" s="11">
@@ -38760,13 +38413,13 @@
       </c>
       <c r="D16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="O16" s="75">
+      <c r="O16" s="74">
         <v>18</v>
       </c>
-      <c r="P16" s="75">
+      <c r="P16" s="74">
         <v>41</v>
       </c>
-      <c r="Q16" s="74">
+      <c r="Q16" s="73">
         <v>2</v>
       </c>
       <c r="R16" s="11">
@@ -38791,13 +38444,13 @@
       </c>
       <c r="D17" s="18"/>
       <c r="F17" s="18"/>
-      <c r="O17" s="75">
+      <c r="O17" s="74">
         <v>24</v>
       </c>
-      <c r="P17" s="75">
+      <c r="P17" s="74">
         <v>44</v>
       </c>
-      <c r="Q17" s="74">
+      <c r="Q17" s="73">
         <v>3</v>
       </c>
       <c r="R17" s="11">
@@ -38822,13 +38475,13 @@
       </c>
       <c r="D18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="O18" s="75">
+      <c r="O18" s="74">
         <v>30</v>
       </c>
-      <c r="P18" s="75">
+      <c r="P18" s="74">
         <v>47</v>
       </c>
-      <c r="Q18" s="74">
+      <c r="Q18" s="73">
         <v>4</v>
       </c>
       <c r="R18" s="11">
@@ -38853,13 +38506,13 @@
       </c>
       <c r="D19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="O19" s="75">
+      <c r="O19" s="74">
         <v>36</v>
       </c>
-      <c r="P19" s="75">
+      <c r="P19" s="74">
         <v>50</v>
       </c>
-      <c r="Q19" s="74">
+      <c r="Q19" s="73">
         <v>5</v>
       </c>
       <c r="R19" s="11">
@@ -38907,16 +38560,16 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G28" s="11" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>180</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
@@ -38925,13 +38578,13 @@
         <v>59500</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="I29" s="11">
         <v>165000</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
@@ -38940,13 +38593,13 @@
         <v>24500</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="I30" s="11">
         <v>200000</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
@@ -38955,13 +38608,13 @@
         <v>0</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="I31" s="11">
         <v>224500</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
@@ -38976,7 +38629,7 @@
         <v>185000</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
     <row r="33" spans="6:23" x14ac:dyDescent="0.25">
@@ -38985,13 +38638,13 @@
         <v>0</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="I33" s="11">
         <v>224500</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="6:23" x14ac:dyDescent="0.25">
@@ -39000,13 +38653,13 @@
         <v>0</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="I34" s="11">
         <v>224500</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="35" spans="6:23" x14ac:dyDescent="0.25">
@@ -39015,13 +38668,13 @@
         <v>0</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="I35" s="11">
         <v>224500</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="36" spans="6:23" ht="75" x14ac:dyDescent="0.25">
@@ -39033,16 +38686,16 @@
         <v>5500</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="I36" s="11">
         <v>219000</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="O36" s="22" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="37" spans="6:23" x14ac:dyDescent="0.25">
@@ -39051,13 +38704,13 @@
         <v>6500</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="I37" s="11">
         <v>218000</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" spans="6:23" x14ac:dyDescent="0.25">
@@ -39066,13 +38719,13 @@
         <v>0</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="I38" s="11">
         <v>224500</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
     </row>
     <row r="39" spans="6:23" x14ac:dyDescent="0.25">
@@ -39087,31 +38740,31 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="O40" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="P40" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="Q40" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="R40" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="S40" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="T40" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="U40" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="V40" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="W40" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" spans="6:23" x14ac:dyDescent="0.25">
@@ -39121,13 +38774,13 @@
         <v>224500</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="M41" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="N41" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="O41" s="18">
         <v>8000000000</v>
@@ -39169,10 +38822,10 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="M42" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="N42" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="O42" s="18">
         <v>6300000000</v>
@@ -39235,19 +38888,19 @@
     </row>
     <row r="50" spans="15:21" x14ac:dyDescent="0.25">
       <c r="P50" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="Q50" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="R50" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="S50" t="s">
         <v>282</v>
       </c>
       <c r="U50" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
     </row>
     <row r="51" spans="15:21" x14ac:dyDescent="0.25">
@@ -39260,10 +38913,10 @@
     </row>
     <row r="52" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O52" s="72" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="P52" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="Q52" s="18">
         <v>5500000</v>
@@ -39282,10 +38935,10 @@
     </row>
     <row r="53" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O53" s="72" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="P53" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="Q53" s="18">
         <v>5500000</v>
@@ -39300,10 +38953,10 @@
     </row>
     <row r="54" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O54" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="P54" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="Q54" s="18">
         <v>5500000</v>
@@ -39318,10 +38971,10 @@
     </row>
     <row r="55" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O55" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="P55" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="Q55" s="18">
         <v>5500000</v>
@@ -39340,10 +38993,10 @@
     </row>
     <row r="56" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O56" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="P56" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="Q56" s="18">
         <v>5500000</v>
@@ -39358,10 +39011,10 @@
     </row>
     <row r="57" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O57" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="P57" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="Q57" s="18">
         <v>24000000</v>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="752">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2155,9 +2155,6 @@
     <t>از کارت ملت علی حقوق مرداد</t>
   </si>
   <si>
-    <t>حواله اچ سی علی 3 اسفند 18 درصد اخر شهریور</t>
-  </si>
-  <si>
     <t>روز 4 شهریور از کارت یاران گرفتم</t>
   </si>
   <si>
@@ -2291,6 +2288,12 @@
   </si>
   <si>
     <t>با احتساب حقوق مرداد (افزایش 6 میلیونی پول پیش)</t>
+  </si>
+  <si>
+    <t>حواله اچ سی علی 3 اسفند 18 درصد اخر شهریور(17/7/96 انصراف)</t>
+  </si>
+  <si>
+    <t>18/7/1396</t>
   </si>
 </sst>
 </file>
@@ -2979,7 +2982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -3110,7 +3113,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B4" s="18">
         <v>2500000</v>
@@ -3123,7 +3126,7 @@
         <v>2500000</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F4">
         <v>26</v>
@@ -3152,7 +3155,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -4012,7 +4015,7 @@
         <v>-30000</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>411</v>
@@ -4039,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="O32">
         <v>29</v>
@@ -4056,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="O33">
         <v>30</v>
@@ -4073,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="P34" t="s">
         <v>60</v>
@@ -4087,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -4095,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -4103,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -20574,7 +20577,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B127" s="18">
         <v>-5000</v>
@@ -20628,7 +20631,7 @@
         <v>650677</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F128" s="11">
         <v>3</v>
@@ -20656,7 +20659,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B129" s="18">
         <v>2500000</v>
@@ -20669,7 +20672,7 @@
         <v>2500000</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F129" s="11">
         <v>41</v>
@@ -27419,7 +27422,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B5" s="18">
         <v>-5000</v>
@@ -28307,7 +28310,7 @@
         <v>200000</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -28324,7 +28327,7 @@
         <v>2200700</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -28338,7 +28341,7 @@
         <v>-2000000</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -28346,7 +28349,7 @@
         <v>141950</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -28354,7 +28357,7 @@
         <v>800500</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -28362,7 +28365,7 @@
         <v>-100000</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -28820,10 +28823,10 @@
         <v>410021971552</v>
       </c>
       <c r="M9" s="34" t="s">
+        <v>725</v>
+      </c>
+      <c r="N9" t="s">
         <v>726</v>
-      </c>
-      <c r="N9" t="s">
-        <v>727</v>
       </c>
       <c r="O9" t="s">
         <v>295</v>
@@ -30724,7 +30727,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B75" s="39">
         <v>-200000</v>
@@ -30750,13 +30753,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B76" s="39">
         <v>-2000700</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D76" s="11">
         <v>0</v>
@@ -30776,7 +30779,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B77" s="39">
         <v>-200000</v>
@@ -30802,13 +30805,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B78" s="39">
         <v>2000000</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D78" s="11">
         <v>8</v>
@@ -30831,13 +30834,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B79" s="39">
         <v>-1000500</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D79" s="11">
         <v>0</v>
@@ -30857,13 +30860,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B80" s="39">
         <v>-141950</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D80" s="11">
         <v>3</v>
@@ -30883,13 +30886,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B81" s="39">
         <v>-900500</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D81" s="11">
         <v>10</v>
@@ -30915,7 +30918,7 @@
         <v>81251</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D82" s="11">
         <v>1</v>
@@ -31148,8 +31151,8 @@
   <dimension ref="A1:L172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G151" sqref="G151"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31199,7 +31202,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -31207,7 +31210,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>47769800</v>
+        <v>48059900</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -31225,7 +31228,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -31233,7 +31236,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1476000000</v>
+        <v>1485000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -31249,7 +31252,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -31257,7 +31260,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-98000000</v>
+        <v>-98600000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -31273,7 +31276,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -31281,7 +31284,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-48800000</v>
+        <v>-49100000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -31297,7 +31300,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -31305,7 +31308,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-26785000</v>
+        <v>-26950000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -31321,7 +31324,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -31329,7 +31332,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-97200000</v>
+        <v>-97800000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -31345,7 +31348,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -31353,7 +31356,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-96400000</v>
+        <v>-97000000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -31369,7 +31372,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -31377,7 +31380,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-448636000</v>
+        <v>-451487500</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -31393,7 +31396,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -31401,7 +31404,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>940000000</v>
+        <v>946000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -31417,7 +31420,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -31425,7 +31428,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-499485000</v>
+        <v>-502680000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -31441,7 +31444,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -31449,7 +31452,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-20970000</v>
+        <v>-21105000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -31465,7 +31468,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -31473,7 +31476,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-930325500</v>
+        <v>-936327600</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -31489,7 +31492,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -31497,7 +31500,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-92200000</v>
+        <v>-92800000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -31513,7 +31516,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -31521,7 +31524,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>916000000</v>
+        <v>922000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -31537,7 +31540,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -31545,7 +31548,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>916000000</v>
+        <v>922000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -31561,7 +31564,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -31569,7 +31572,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>549600000</v>
+        <v>553200000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -31585,7 +31588,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -31593,7 +31596,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>458000000</v>
+        <v>461000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -31609,7 +31612,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -31617,7 +31620,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1371000000</v>
+        <v>1380000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -31636,7 +31639,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -31644,7 +31647,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-198176600</v>
+        <v>-199474700</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -31660,7 +31663,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -31668,7 +31671,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-198176600</v>
+        <v>-199474700</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -31684,7 +31687,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -31692,7 +31695,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-198176600</v>
+        <v>-199474700</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -31708,7 +31711,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -31716,7 +31719,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-198176600</v>
+        <v>-199474700</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -31732,7 +31735,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -31740,7 +31743,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-198176600</v>
+        <v>-199474700</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -31756,7 +31759,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -31764,7 +31767,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-91600000</v>
+        <v>-92200000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -31780,7 +31783,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -31788,7 +31791,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1368000000</v>
+        <v>1377000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -31804,7 +31807,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -31812,7 +31815,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-91000000</v>
+        <v>-91600000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -31828,7 +31831,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -31836,7 +31839,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>906000000</v>
+        <v>912000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -31852,7 +31855,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -31860,7 +31863,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-3171362400</v>
+        <v>-3192364800</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -31876,7 +31879,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -31884,7 +31887,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1356406800</v>
+        <v>-1365409500</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -31900,7 +31903,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -31908,7 +31911,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-764850900</v>
+        <v>-769938600</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -31924,7 +31927,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -31932,7 +31935,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>444452100</v>
+        <v>447435000</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -31948,7 +31951,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -31956,7 +31959,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>15475131</v>
+        <v>15580404</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>378</v>
@@ -31974,7 +31977,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -31982,7 +31985,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-374850000</v>
+        <v>-377400000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -31998,7 +32001,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -32006,7 +32009,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-82486500</v>
+        <v>-83058000</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -32022,7 +32025,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -32030,7 +32033,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>86200000</v>
+        <v>86800000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -32046,7 +32049,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -32054,7 +32057,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-86400000</v>
+        <v>-87000000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -32070,7 +32073,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -32078,7 +32081,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>123029654</v>
+        <v>123932072</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>398</v>
@@ -32096,7 +32099,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -32104,7 +32107,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-38855000</v>
+        <v>-39140000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -32120,7 +32123,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -32128,7 +32131,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-36034127</v>
+        <v>-36298436</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -32144,7 +32147,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -32152,7 +32155,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-48480000</v>
+        <v>-48840000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -32168,7 +32171,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -32176,7 +32179,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>381077724</v>
+        <v>384078336</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>399</v>
@@ -32194,7 +32197,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -32202,7 +32205,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-30240000</v>
+        <v>-30480000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -32218,7 +32221,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -32226,7 +32229,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-78924846</v>
+        <v>-79557933</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -32242,7 +32245,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -32250,7 +32253,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-74600000</v>
+        <v>-75200000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -32266,7 +32269,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -32274,7 +32277,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-35340000</v>
+        <v>-35625000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -32290,7 +32293,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -32298,7 +32301,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-16650000</v>
+        <v>-16785000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -32314,7 +32317,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -32322,7 +32325,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-23746600</v>
+        <v>-23939140</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -32338,7 +32341,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -32346,7 +32349,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-10086628</v>
+        <v>-10169080</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -32362,7 +32365,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -32370,7 +32373,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-51606000</v>
+        <v>-52029000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -32386,7 +32389,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -32394,7 +32397,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-9789036</v>
+        <v>-9869274</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -32410,7 +32413,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -32418,7 +32421,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-19454500</v>
+        <v>-19614400</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -32434,7 +32437,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -32442,7 +32445,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>363000000</v>
+        <v>366000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -32458,7 +32461,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -32466,7 +32469,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-7518000</v>
+        <v>-7581000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -32482,7 +32485,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -32490,7 +32493,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-350038500</v>
+        <v>-352980000</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -32506,7 +32509,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -32514,7 +32517,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-16065000</v>
+        <v>-16200000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -32530,7 +32533,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -32538,7 +32541,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>1030779827</v>
+        <v>1039795394</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>400</v>
@@ -32556,7 +32559,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -32564,7 +32567,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>686000000</v>
+        <v>692000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -32580,7 +32583,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -32588,7 +32591,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>684000000</v>
+        <v>690000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -32604,7 +32607,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -32612,7 +32615,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-2401514500</v>
+        <v>-2422519000</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -32628,7 +32631,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -32636,7 +32639,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>954000000</v>
+        <v>963000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -32652,7 +32655,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -32660,7 +32663,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-8620662</v>
+        <v>-8701989</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -32676,7 +32679,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -32684,7 +32687,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-10490502</v>
+        <v>-10589469</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -32700,7 +32703,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -32708,7 +32711,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>951000000</v>
+        <v>960000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -32724,7 +32727,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -32732,7 +32735,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>941490000</v>
+        <v>950400000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -32748,7 +32751,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -32756,7 +32759,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>317000000</v>
+        <v>320000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -32772,7 +32775,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -32780,7 +32783,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F158" si="5">B67*(D67-E67)</f>
-        <v>9510000</v>
+        <v>9600000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -32796,7 +32799,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -32804,7 +32807,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>9480000000</v>
+        <v>9570000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -32820,7 +32823,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -32828,7 +32831,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-63200000</v>
+        <v>-63800000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -32844,7 +32847,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -32852,7 +32855,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>441000000</v>
+        <v>445200000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -32868,7 +32871,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -32876,7 +32879,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>819000000</v>
+        <v>826800000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -32892,7 +32895,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -32900,7 +32903,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-316000000</v>
+        <v>-319000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -32916,7 +32919,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -32924,7 +32927,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>4695000000</v>
+        <v>4740000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -32940,7 +32943,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -32948,7 +32951,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-4636297800</v>
+        <v>-4681310400</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -32964,7 +32967,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -32972,7 +32975,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-921000000</v>
+        <v>-930000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -32988,7 +32991,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -32996,7 +32999,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-61400000</v>
+        <v>-62000000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -33012,7 +33015,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -33020,7 +33023,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-3684921000</v>
+        <v>-3720930000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -33036,7 +33039,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -33044,7 +33047,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-909272700</v>
+        <v>-918275400</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -33060,7 +33063,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -33068,7 +33071,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>6831000000</v>
+        <v>6900000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -33084,7 +33087,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -33092,7 +33095,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-175946500</v>
+        <v>-177748000</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -33108,7 +33111,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -33116,7 +33119,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-58600000</v>
+        <v>-59200000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -33132,7 +33135,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -33140,7 +33143,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>82417311</v>
+        <v>83266974</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -33158,7 +33161,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -33166,7 +33169,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-58400000</v>
+        <v>-59000000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -33182,7 +33185,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -33190,7 +33193,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>578000000</v>
+        <v>584000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -33206,7 +33209,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -33214,7 +33217,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-57400000</v>
+        <v>-58000000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -33230,7 +33233,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -33238,7 +33241,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-56200000</v>
+        <v>-56800000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -33254,7 +33257,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -33262,7 +33265,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-369675000</v>
+        <v>-373650000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -33278,7 +33281,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -33286,7 +33289,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-132000000</v>
+        <v>-133500000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -33302,7 +33305,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -33310,7 +33313,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-31680000</v>
+        <v>-32040000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -33326,7 +33329,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -33334,7 +33337,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>111761505</v>
+        <v>113046120</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -33352,7 +33355,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -33360,7 +33363,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-777518000</v>
+        <v>-786524000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>340</v>
@@ -33378,7 +33381,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -33386,7 +33389,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-52685000</v>
+        <v>-53300000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>341</v>
@@ -33404,7 +33407,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -33412,7 +33415,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-90078500</v>
+        <v>-91130000</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>338</v>
@@ -33430,7 +33433,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -33438,7 +33441,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>245000000</v>
+        <v>248000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>336</v>
@@ -33456,7 +33459,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -33464,7 +33467,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>2160000000</v>
+        <v>2187000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>348</v>
@@ -33483,7 +33486,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -33491,7 +33494,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-6214000000</v>
+        <v>-6292000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>350</v>
@@ -33509,7 +33512,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -33517,7 +33520,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-6214000000</v>
+        <v>-6292000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -33533,7 +33536,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -33541,7 +33544,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>6188000000</v>
+        <v>6266000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -33557,7 +33560,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -33565,7 +33568,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-47800000</v>
+        <v>-48400000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -33584,7 +33587,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -33592,7 +33595,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>6891200000</v>
+        <v>6978800000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -33608,7 +33611,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -33616,7 +33619,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>92387295</v>
+        <v>93587130</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>403</v>
@@ -33634,7 +33637,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -33642,7 +33645,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>460000000</v>
+        <v>466000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>405</v>
@@ -33660,7 +33663,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -33668,7 +33671,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>1717500000</v>
+        <v>1740000000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>413</v>
@@ -33686,7 +33689,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -33694,7 +33697,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-15180000000</v>
+        <v>-15378000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>427</v>
@@ -33712,7 +33715,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -33720,7 +33723,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-33350000</v>
+        <v>-33785000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>428</v>
@@ -33738,7 +33741,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -33746,7 +33749,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>1362000000</v>
+        <v>1380000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>429</v>
@@ -33764,7 +33767,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -33772,7 +33775,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-1357333400</v>
+        <v>-1375351100</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>439</v>
@@ -33790,7 +33793,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -33798,7 +33801,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>1332000000</v>
+        <v>1350000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>447</v>
@@ -33816,7 +33819,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -33824,7 +33827,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-25320000</v>
+        <v>-25680000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>462</v>
@@ -33842,7 +33845,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -33850,7 +33853,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>836000000</v>
+        <v>848000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>464</v>
@@ -33868,7 +33871,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -33876,7 +33879,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>582400000</v>
+        <v>590800000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>469</v>
@@ -33894,7 +33897,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -33902,7 +33905,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-41000000</v>
+        <v>-41600000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>475</v>
@@ -33920,7 +33923,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -33928,7 +33931,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>14678930</v>
+        <v>14895860</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>503</v>
@@ -33946,7 +33949,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -33954,7 +33957,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-37400000</v>
+        <v>-38000000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>462</v>
@@ -33975,7 +33978,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -33983,7 +33986,7 @@
       </c>
       <c r="F115" s="23">
         <f t="shared" si="5"/>
-        <v>-2046000000</v>
+        <v>-2079000000</v>
       </c>
       <c r="G115" s="23" t="s">
         <v>504</v>
@@ -34001,7 +34004,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -34009,7 +34012,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-37200000</v>
+        <v>-37800000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>462</v>
@@ -34030,7 +34033,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -34038,7 +34041,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-82892000</v>
+        <v>-84243500</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>506</v>
@@ -34056,7 +34059,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -34064,7 +34067,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-36800000</v>
+        <v>-37400000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>507</v>
@@ -34085,7 +34088,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -34093,7 +34096,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-27509900</v>
+        <v>-27973550</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>510</v>
@@ -34111,7 +34114,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -34119,7 +34122,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-56960</v>
+        <v>-57920</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>511</v>
@@ -34137,7 +34140,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -34145,7 +34148,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-76464000</v>
+        <v>-77760000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>513</v>
@@ -34163,7 +34166,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -34171,7 +34174,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>12587310</v>
+        <v>12809439</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>515</v>
@@ -34189,7 +34192,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -34197,7 +34200,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-7800000</v>
+        <v>-7956000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>539</v>
@@ -34215,7 +34218,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -34223,7 +34226,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>128196</v>
+        <v>131757</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>590</v>
@@ -34241,7 +34244,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -34249,7 +34252,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>256800000</v>
+        <v>264000000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>588</v>
@@ -34267,7 +34270,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -34275,7 +34278,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>140994000</v>
+        <v>145022400</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>597</v>
@@ -34293,7 +34296,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -34301,7 +34304,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>140994000</v>
+        <v>145022400</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>598</v>
@@ -34319,7 +34322,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -34327,7 +34330,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-18800000</v>
+        <v>-19400000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -34345,7 +34348,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -34353,7 +34356,7 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-1436856</v>
+        <v>-1483710</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>607</v>
@@ -34374,7 +34377,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -34382,7 +34385,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-18200000</v>
+        <v>-18800000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>507</v>
@@ -34400,7 +34403,7 @@
       </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D158" si="6">D132+C131</f>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E158" si="7">IF(B131&gt;0,1,0)</f>
@@ -34408,7 +34411,7 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-18000000</v>
+        <v>-18600000</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>611</v>
@@ -34426,7 +34429,7 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -34434,7 +34437,7 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>-34710000</v>
+        <v>-35880000</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>613</v>
@@ -34452,7 +34455,7 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -34460,7 +34463,7 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>-2180500</v>
+        <v>-2254000</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>614</v>
@@ -34478,7 +34481,7 @@
       </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -34486,7 +34489,7 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>-8360000</v>
+        <v>-8645000</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>462</v>
@@ -34504,7 +34507,7 @@
       </c>
       <c r="D135" s="11">
         <f t="shared" si="6"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="7"/>
@@ -34512,7 +34515,7 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="5"/>
-        <v>-16800000</v>
+        <v>-17400000</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>618</v>
@@ -34530,7 +34533,7 @@
       </c>
       <c r="D136" s="11">
         <f t="shared" si="6"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="7"/>
@@ -34538,7 +34541,7 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="5"/>
-        <v>4050000000</v>
+        <v>4200000000</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>621</v>
@@ -34556,7 +34559,7 @@
       </c>
       <c r="D137" s="11">
         <f t="shared" si="6"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E137" s="11">
         <f t="shared" si="7"/>
@@ -34564,7 +34567,7 @@
       </c>
       <c r="F137" s="11">
         <f t="shared" si="5"/>
-        <v>960000000</v>
+        <v>996000000</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>621</v>
@@ -34582,7 +34585,7 @@
       </c>
       <c r="D138" s="11">
         <f t="shared" si="6"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E138" s="11">
         <f t="shared" si="7"/>
@@ -34590,7 +34593,7 @@
       </c>
       <c r="F138" s="11">
         <f t="shared" si="5"/>
-        <v>156000000</v>
+        <v>162000000</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>630</v>
@@ -34608,7 +34611,7 @@
       </c>
       <c r="D139" s="11">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E139" s="11">
         <f t="shared" si="7"/>
@@ -34616,7 +34619,7 @@
       </c>
       <c r="F139" s="11">
         <f t="shared" si="5"/>
-        <v>6740426</v>
+        <v>7003040</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>378</v>
@@ -34634,7 +34637,7 @@
       </c>
       <c r="D140" s="11">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E140" s="11">
         <f t="shared" si="7"/>
@@ -34642,7 +34645,7 @@
       </c>
       <c r="F140" s="11">
         <f t="shared" si="5"/>
-        <v>-195058500</v>
+        <v>-204061200</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>672</v>
@@ -34660,7 +34663,7 @@
       </c>
       <c r="D141" s="11">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E141" s="11">
         <f t="shared" si="7"/>
@@ -34668,7 +34671,7 @@
       </c>
       <c r="F141" s="11">
         <f t="shared" si="5"/>
-        <v>-192057600</v>
+        <v>-201060300</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>672</v>
@@ -34689,7 +34692,7 @@
       </c>
       <c r="D142" s="11">
         <f t="shared" si="6"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E142" s="11">
         <f t="shared" si="7"/>
@@ -34697,7 +34700,7 @@
       </c>
       <c r="F142" s="11">
         <f t="shared" si="5"/>
-        <v>27693150</v>
+        <v>29499225</v>
       </c>
       <c r="G142" s="11" t="s">
         <v>696</v>
@@ -34715,7 +34718,7 @@
       </c>
       <c r="D143" s="11">
         <f t="shared" si="6"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E143" s="11">
         <f t="shared" si="7"/>
@@ -34723,7 +34726,7 @@
       </c>
       <c r="F143" s="11">
         <f t="shared" si="5"/>
-        <v>-2162000000</v>
+        <v>-2300000000</v>
       </c>
       <c r="G143" s="11" t="s">
         <v>699</v>
@@ -34741,7 +34744,7 @@
       </c>
       <c r="D144" s="11">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E144" s="11">
         <f t="shared" si="7"/>
@@ -34749,15 +34752,15 @@
       </c>
       <c r="F144" s="11">
         <f t="shared" si="5"/>
-        <v>2311605</v>
+        <v>2773926</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B145" s="3">
         <v>3000000</v>
@@ -34767,7 +34770,7 @@
       </c>
       <c r="D145" s="11">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E145" s="11">
         <f t="shared" si="7"/>
@@ -34775,15 +34778,15 @@
       </c>
       <c r="F145" s="11">
         <f t="shared" si="5"/>
-        <v>42000000</v>
+        <v>51000000</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B146" s="3">
         <v>-200000</v>
@@ -34793,7 +34796,7 @@
       </c>
       <c r="D146" s="11">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E146" s="11">
         <f t="shared" si="7"/>
@@ -34801,7 +34804,7 @@
       </c>
       <c r="F146" s="11">
         <f t="shared" si="5"/>
-        <v>-2400000</v>
+        <v>-3000000</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>158</v>
@@ -34809,7 +34812,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B147" s="3">
         <v>-200000</v>
@@ -34819,7 +34822,7 @@
       </c>
       <c r="D147" s="11">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E147" s="11">
         <f t="shared" si="7"/>
@@ -34827,7 +34830,7 @@
       </c>
       <c r="F147" s="11">
         <f t="shared" si="5"/>
-        <v>-1400000</v>
+        <v>-2000000</v>
       </c>
       <c r="G147" s="11" t="s">
         <v>158</v>
@@ -34838,7 +34841,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B148" s="3">
         <v>-200000</v>
@@ -34848,7 +34851,7 @@
       </c>
       <c r="D148" s="11">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E148" s="11">
         <f t="shared" si="7"/>
@@ -34856,7 +34859,7 @@
       </c>
       <c r="F148" s="11">
         <f t="shared" si="5"/>
-        <v>-1200000</v>
+        <v>-1800000</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>158</v>
@@ -34874,7 +34877,7 @@
       </c>
       <c r="D149" s="11">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E149" s="11">
         <f t="shared" si="7"/>
@@ -34882,7 +34885,7 @@
       </c>
       <c r="F149" s="11">
         <f t="shared" si="5"/>
-        <v>-400000</v>
+        <v>-1000000</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>158</v>
@@ -34890,17 +34893,17 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B150" s="3">
         <v>24073400</v>
       </c>
       <c r="C150" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150" s="11">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E150" s="11">
         <f t="shared" si="7"/>
@@ -34908,21 +34911,25 @@
       </c>
       <c r="F150" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>72220200</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="11"/>
-      <c r="B151" s="3"/>
+      <c r="A151" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="B151" s="3">
+        <v>-200000</v>
+      </c>
       <c r="C151" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D151" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E151" s="11">
         <f t="shared" si="7"/>
@@ -34930,9 +34937,11 @@
       </c>
       <c r="F151" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G151" s="11"/>
+        <v>-400000</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
@@ -35093,14 +35102,14 @@
       <c r="A160" s="11"/>
       <c r="B160" s="29">
         <f>SUM(B2:B158)</f>
-        <v>42922843</v>
+        <v>42722843</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
       <c r="F160" s="29">
         <f>SUM(F2:F158)</f>
-        <v>7424078747</v>
+        <v>7552447276</v>
       </c>
       <c r="G160" s="11"/>
     </row>
@@ -35134,7 +35143,7 @@
       <c r="E163" s="11"/>
       <c r="F163" s="3">
         <f>F160/D2</f>
-        <v>14998138.882828282</v>
+        <v>15165556.779116467</v>
       </c>
       <c r="G163" s="11"/>
     </row>
@@ -35168,8 +35177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35199,7 +35208,7 @@
         <v>449</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>450</v>
@@ -35393,7 +35402,7 @@
         <v>52000000</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>96</v>
       </c>
@@ -35420,16 +35429,16 @@
         <v>4065739.4214000031</v>
       </c>
       <c r="H7" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="J7" s="60" t="s">
         <v>750</v>
-      </c>
-      <c r="J7" s="60" t="s">
-        <v>705</v>
       </c>
       <c r="K7" s="44">
         <v>24300000</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="N7" s="29">
         <v>38000000</v>
@@ -35462,7 +35471,7 @@
         <v>3792559.2348780036</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="44"/>
@@ -35494,11 +35503,11 @@
       </c>
       <c r="F9" s="3">
         <f>K16</f>
-        <v>60572843</v>
+        <v>60302843</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="0"/>
-        <v>2986327.4948760644</v>
+        <v>3256327.4948760644</v>
       </c>
       <c r="H9" s="11"/>
       <c r="J9" s="19" t="s">
@@ -35506,10 +35515,10 @@
       </c>
       <c r="K9" s="44">
         <f>'مسکن ایلیا'!B160</f>
-        <v>42922843</v>
+        <v>42722843</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="N9" s="29">
         <v>14500000</v>
@@ -35575,13 +35584,13 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="J11" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K11" s="44">
         <v>1000000</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N11" s="29">
         <v>57000000</v>
@@ -35644,7 +35653,7 @@
         <v>459</v>
       </c>
       <c r="K13" s="44">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>25</v>
@@ -35677,7 +35686,7 @@
       <c r="K14" s="44"/>
       <c r="L14" s="25"/>
       <c r="M14" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="N14" s="29">
         <f>SUM(N6:N10)</f>
@@ -35718,7 +35727,7 @@
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N15" s="29">
         <f>SUM(N6:N13)</f>
@@ -35755,7 +35764,7 @@
       </c>
       <c r="K16" s="3">
         <f>SUM(K7:K15)</f>
-        <v>60572843</v>
+        <v>60302843</v>
       </c>
       <c r="L16" s="25"/>
       <c r="P16" s="28"/>
@@ -35789,7 +35798,7 @@
       </c>
       <c r="K17" s="3">
         <f>K9+K10+K13</f>
-        <v>43172843</v>
+        <v>42902843</v>
       </c>
       <c r="L17" s="25"/>
       <c r="P17" s="28"/>
@@ -35819,11 +35828,11 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="J18" s="59" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K18" s="1">
         <f>K16+N11</f>
-        <v>117572843</v>
+        <v>117302843</v>
       </c>
       <c r="M18" s="25"/>
       <c r="P18" s="28"/>
@@ -38608,7 +38617,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I31" s="11">
         <v>224500</v>
@@ -38638,7 +38647,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I33" s="11">
         <v>224500</v>
@@ -38653,7 +38662,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I34" s="11">
         <v>224500</v>
@@ -38668,7 +38677,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I35" s="11">
         <v>224500</v>
@@ -38719,13 +38728,13 @@
         <v>0</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I38" s="11">
         <v>224500</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="39" spans="6:23" x14ac:dyDescent="0.25">
@@ -38993,7 +39002,7 @@
     </row>
     <row r="56" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O56" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="P56" t="s">
         <v>655</v>
@@ -39011,7 +39020,7 @@
     </row>
     <row r="57" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O57" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="P57" t="s">
         <v>656</v>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="مهر96" sheetId="26" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="763">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2294,6 +2294,39 @@
   </si>
   <si>
     <t>18/7/1396</t>
+  </si>
+  <si>
+    <t>تاریخ 24/7/96 مبلغ 30 میلیون تومن به مریم دادم</t>
+  </si>
+  <si>
+    <t>24/7/1396</t>
+  </si>
+  <si>
+    <t>به حساب مسکن یاران مریم</t>
+  </si>
+  <si>
+    <t>23/7/1396</t>
+  </si>
+  <si>
+    <t>انتقال به مسکن یاران مریم</t>
+  </si>
+  <si>
+    <t>روز 23 مهر 10 نقدی دادم</t>
+  </si>
+  <si>
+    <t>4/8/1396</t>
+  </si>
+  <si>
+    <t>تست</t>
+  </si>
+  <si>
+    <t>انتقال از حساب سارا</t>
+  </si>
+  <si>
+    <t>انتقال از حساب ایلیا</t>
+  </si>
+  <si>
+    <t>انتقال به حساب حاج ایوب</t>
   </si>
 </sst>
 </file>
@@ -2982,8 +3015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3155,25 +3188,27 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>721</v>
+        <v>755</v>
       </c>
       <c r="B5" s="18">
-        <v>0</v>
+        <v>-50000000</v>
       </c>
       <c r="C5" s="18">
         <v>0</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="20"/>
+        <v>-50000000</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>756</v>
+      </c>
       <c r="F5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-400000000</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
@@ -3181,7 +3216,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-400000000</v>
       </c>
       <c r="O5">
         <v>2</v>
@@ -3877,7 +3912,7 @@
       </c>
       <c r="B24" s="3">
         <f>SUM(B2:B22)</f>
-        <v>87203483</v>
+        <v>37203483</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C22)</f>
@@ -3885,7 +3920,7 @@
       </c>
       <c r="D24" s="3">
         <f>SUM(D2:D22)</f>
-        <v>74159485</v>
+        <v>24159485</v>
       </c>
       <c r="E24" s="2"/>
       <c r="O24">
@@ -3901,7 +3936,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G25" s="18">
         <f>SUM(G2:G23)</f>
-        <v>2605333116</v>
+        <v>2205333116</v>
       </c>
       <c r="H25" s="18">
         <f>SUM(H2:H23)</f>
@@ -3909,7 +3944,7 @@
       </c>
       <c r="I25" s="18">
         <f>SUM(I2:I23)</f>
-        <v>2214133873</v>
+        <v>1814133873</v>
       </c>
       <c r="O25">
         <v>22</v>
@@ -3990,7 +4025,7 @@
       </c>
       <c r="G30" s="18">
         <f>G25*11/36500</f>
-        <v>785168.8842739726</v>
+        <v>664620.9390684932</v>
       </c>
       <c r="H30" s="18">
         <f>G30*H25/G25</f>
@@ -3998,7 +4033,7 @@
       </c>
       <c r="I30" s="18">
         <f>G30*I25/G25</f>
-        <v>667273.22199999995</v>
+        <v>546725.27679452056</v>
       </c>
       <c r="O30">
         <v>27</v>
@@ -4039,10 +4074,10 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="D32" s="43">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>705</v>
+        <v>757</v>
       </c>
       <c r="O32">
         <v>29</v>
@@ -4132,7 +4167,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>7859722</v>
+        <v>7849722</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -15385,8 +15420,8 @@
   <dimension ref="A1:O150"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F130" sqref="F130"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15463,7 +15498,7 @@
       </c>
       <c r="G2" s="37">
         <f>G3+F2</f>
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="H2" s="37">
         <f>IF(B2&gt;0,1,0)</f>
@@ -15471,11 +15506,11 @@
       </c>
       <c r="I2" s="11">
         <f>B2*(G2-H2)</f>
-        <v>9585800</v>
+        <v>9235100</v>
       </c>
       <c r="J2" s="54">
         <f>C2*(G2-H2)</f>
-        <v>9585800</v>
+        <v>9235100</v>
       </c>
       <c r="K2" s="54">
         <f>D2*(G2-H2)</f>
@@ -15504,7 +15539,7 @@
       </c>
       <c r="G3" s="37">
         <f t="shared" ref="G3:G66" si="1">G4+F3</f>
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="H3" s="37">
         <f t="shared" ref="H3:H66" si="2">IF(B3&gt;0,1,0)</f>
@@ -15512,15 +15547,15 @@
       </c>
       <c r="I3" s="11">
         <f t="shared" ref="I3:I66" si="3">B3*(G3-H3)</f>
-        <v>11402700000</v>
+        <v>10984800000</v>
       </c>
       <c r="J3" s="54">
         <f t="shared" ref="J3:J66" si="4">C3*(G3-H3)</f>
-        <v>6524751000</v>
+        <v>6285624000</v>
       </c>
       <c r="K3" s="54">
         <f t="shared" ref="K3:K66" si="5">D3*(G3-H3)</f>
-        <v>4877949000</v>
+        <v>4699176000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -15545,7 +15580,7 @@
       </c>
       <c r="G4" s="37">
         <f t="shared" si="1"/>
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="H4" s="37">
         <f t="shared" si="2"/>
@@ -15557,11 +15592,11 @@
       </c>
       <c r="J4" s="54">
         <f t="shared" si="4"/>
-        <v>4879000</v>
+        <v>4700500</v>
       </c>
       <c r="K4" s="54">
         <f t="shared" si="5"/>
-        <v>-4879000</v>
+        <v>-4700500</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -15586,7 +15621,7 @@
       </c>
       <c r="G5" s="37">
         <f t="shared" si="1"/>
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="H5" s="37">
         <f t="shared" si="2"/>
@@ -15594,7 +15629,7 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" si="3"/>
-        <v>1142000000</v>
+        <v>1100000000</v>
       </c>
       <c r="J5" s="54">
         <f t="shared" si="4"/>
@@ -15602,7 +15637,7 @@
       </c>
       <c r="K5" s="54">
         <f t="shared" si="5"/>
-        <v>1142000000</v>
+        <v>1100000000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -15627,7 +15662,7 @@
       </c>
       <c r="G6" s="37">
         <f t="shared" si="1"/>
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="H6" s="37">
         <f t="shared" si="2"/>
@@ -15635,7 +15670,7 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" si="3"/>
-        <v>-2825000</v>
+        <v>-2720000</v>
       </c>
       <c r="J6" s="54">
         <f t="shared" si="4"/>
@@ -15643,7 +15678,7 @@
       </c>
       <c r="K6" s="54">
         <f t="shared" si="5"/>
-        <v>-2825000</v>
+        <v>-2720000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -15668,7 +15703,7 @@
       </c>
       <c r="G7" s="37">
         <f t="shared" si="1"/>
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="H7" s="37">
         <f t="shared" si="2"/>
@@ -15676,7 +15711,7 @@
       </c>
       <c r="I7" s="11">
         <f t="shared" si="3"/>
-        <v>-673480500</v>
+        <v>-648270000</v>
       </c>
       <c r="J7" s="54">
         <f t="shared" si="4"/>
@@ -15684,7 +15719,7 @@
       </c>
       <c r="K7" s="54">
         <f t="shared" si="5"/>
-        <v>-673480500</v>
+        <v>-648270000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -15709,7 +15744,7 @@
       </c>
       <c r="G8" s="37">
         <f t="shared" si="1"/>
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="H8" s="37">
         <f t="shared" si="2"/>
@@ -15717,7 +15752,7 @@
       </c>
       <c r="I8" s="11">
         <f t="shared" si="3"/>
-        <v>-112000000</v>
+        <v>-107800000</v>
       </c>
       <c r="J8" s="54">
         <f t="shared" si="4"/>
@@ -15725,7 +15760,7 @@
       </c>
       <c r="K8" s="54">
         <f t="shared" si="5"/>
-        <v>-112000000</v>
+        <v>-107800000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -15750,7 +15785,7 @@
       </c>
       <c r="G9" s="37">
         <f t="shared" si="1"/>
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="H9" s="37">
         <f t="shared" si="2"/>
@@ -15758,7 +15793,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" si="3"/>
-        <v>-393669000</v>
+        <v>-378853500</v>
       </c>
       <c r="J9" s="54">
         <f t="shared" si="4"/>
@@ -15766,7 +15801,7 @@
       </c>
       <c r="K9" s="54">
         <f t="shared" si="5"/>
-        <v>-393669000</v>
+        <v>-378853500</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -15791,7 +15826,7 @@
       </c>
       <c r="G10" s="37">
         <f t="shared" si="1"/>
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="H10" s="37">
         <f t="shared" si="2"/>
@@ -15799,7 +15834,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" si="3"/>
-        <v>-109800000</v>
+        <v>-105600000</v>
       </c>
       <c r="J10" s="54">
         <f t="shared" si="4"/>
@@ -15807,7 +15842,7 @@
       </c>
       <c r="K10" s="54">
         <f t="shared" si="5"/>
-        <v>-109800000</v>
+        <v>-105600000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -15832,7 +15867,7 @@
       </c>
       <c r="G11" s="37">
         <f t="shared" si="1"/>
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="H11" s="37">
         <f t="shared" si="2"/>
@@ -15840,7 +15875,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" si="3"/>
-        <v>548000000</v>
+        <v>527000000</v>
       </c>
       <c r="J11" s="54">
         <f t="shared" si="4"/>
@@ -15848,7 +15883,7 @@
       </c>
       <c r="K11" s="54">
         <f t="shared" si="5"/>
-        <v>548000000</v>
+        <v>527000000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -15873,7 +15908,7 @@
       </c>
       <c r="G12" s="37">
         <f t="shared" si="1"/>
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="H12" s="37">
         <f t="shared" si="2"/>
@@ -15881,7 +15916,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" si="3"/>
-        <v>-163500000</v>
+        <v>-157200000</v>
       </c>
       <c r="J12" s="54">
         <f t="shared" si="4"/>
@@ -15889,7 +15924,7 @@
       </c>
       <c r="K12" s="54">
         <f t="shared" si="5"/>
-        <v>-163500000</v>
+        <v>-157200000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -15914,7 +15949,7 @@
       </c>
       <c r="G13" s="37">
         <f t="shared" si="1"/>
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="H13" s="37">
         <f t="shared" si="2"/>
@@ -15922,7 +15957,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" si="3"/>
-        <v>-33480000</v>
+        <v>-32178000</v>
       </c>
       <c r="J13" s="54">
         <f t="shared" si="4"/>
@@ -15930,7 +15965,7 @@
       </c>
       <c r="K13" s="54">
         <f t="shared" si="5"/>
-        <v>-33480000</v>
+        <v>-32178000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -15955,7 +15990,7 @@
       </c>
       <c r="G14" s="37">
         <f t="shared" si="1"/>
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="H14" s="37">
         <f t="shared" si="2"/>
@@ -15963,7 +15998,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" si="3"/>
-        <v>1078000000</v>
+        <v>1036000000</v>
       </c>
       <c r="J14" s="54">
         <f t="shared" si="4"/>
@@ -15971,7 +16006,7 @@
       </c>
       <c r="K14" s="54">
         <f t="shared" si="5"/>
-        <v>1078000000</v>
+        <v>1036000000</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -15996,7 +16031,7 @@
       </c>
       <c r="G15" s="37">
         <f t="shared" si="1"/>
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="H15" s="37">
         <f t="shared" si="2"/>
@@ -16004,7 +16039,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" si="3"/>
-        <v>968400000</v>
+        <v>930600000</v>
       </c>
       <c r="J15" s="54">
         <f t="shared" si="4"/>
@@ -16012,7 +16047,7 @@
       </c>
       <c r="K15" s="54">
         <f t="shared" si="5"/>
-        <v>968400000</v>
+        <v>930600000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -16037,7 +16072,7 @@
       </c>
       <c r="G16" s="37">
         <f t="shared" si="1"/>
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="H16" s="37">
         <f t="shared" si="2"/>
@@ -16045,7 +16080,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" si="3"/>
-        <v>-107800000</v>
+        <v>-103600000</v>
       </c>
       <c r="J16" s="54">
         <f t="shared" si="4"/>
@@ -16053,7 +16088,7 @@
       </c>
       <c r="K16" s="54">
         <f t="shared" si="5"/>
-        <v>-107800000</v>
+        <v>-103600000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -16078,7 +16113,7 @@
       </c>
       <c r="G17" s="37">
         <f t="shared" si="1"/>
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="H17" s="37">
         <f t="shared" si="2"/>
@@ -16086,7 +16121,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" si="3"/>
-        <v>-1070000000</v>
+        <v>-1028000000</v>
       </c>
       <c r="J17" s="54">
         <f t="shared" si="4"/>
@@ -16094,7 +16129,7 @@
       </c>
       <c r="K17" s="54">
         <f t="shared" si="5"/>
-        <v>-1070000000</v>
+        <v>-1028000000</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -16122,7 +16157,7 @@
       </c>
       <c r="G18" s="37">
         <f t="shared" si="1"/>
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="H18" s="37">
         <f t="shared" si="2"/>
@@ -16130,7 +16165,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" si="3"/>
-        <v>-160200000</v>
+        <v>-153900000</v>
       </c>
       <c r="J18" s="54">
         <f t="shared" si="4"/>
@@ -16138,7 +16173,7 @@
       </c>
       <c r="K18" s="54">
         <f t="shared" si="5"/>
-        <v>-160200000</v>
+        <v>-153900000</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -16163,7 +16198,7 @@
       </c>
       <c r="G19" s="37">
         <f t="shared" si="1"/>
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="H19" s="37">
         <f t="shared" si="2"/>
@@ -16171,7 +16206,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" si="3"/>
-        <v>-106600000</v>
+        <v>-102400000</v>
       </c>
       <c r="J19" s="54">
         <f t="shared" si="4"/>
@@ -16179,7 +16214,7 @@
       </c>
       <c r="K19" s="54">
         <f t="shared" si="5"/>
-        <v>-106600000</v>
+        <v>-102400000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -16204,7 +16239,7 @@
       </c>
       <c r="G20" s="37">
         <f t="shared" si="1"/>
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="H20" s="37">
         <f t="shared" si="2"/>
@@ -16212,15 +16247,15 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" si="3"/>
-        <v>143677170</v>
+        <v>137984301</v>
       </c>
       <c r="J20" s="54">
         <f t="shared" si="4"/>
-        <v>78149560</v>
+        <v>75053068</v>
       </c>
       <c r="K20" s="54">
         <f t="shared" si="5"/>
-        <v>65527610</v>
+        <v>62931233</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -16245,7 +16280,7 @@
       </c>
       <c r="G21" s="37">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="H21" s="37">
         <f t="shared" si="2"/>
@@ -16253,7 +16288,7 @@
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>-796515300</v>
+        <v>-764895600</v>
       </c>
       <c r="J21" s="54">
         <f t="shared" si="4"/>
@@ -16261,7 +16296,7 @@
       </c>
       <c r="K21" s="54">
         <f t="shared" si="5"/>
-        <v>-796515300</v>
+        <v>-764895600</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -16286,7 +16321,7 @@
       </c>
       <c r="G22" s="37">
         <f t="shared" si="1"/>
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="H22" s="37">
         <f t="shared" si="2"/>
@@ -16294,7 +16329,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" si="3"/>
-        <v>1575000000</v>
+        <v>1512000000</v>
       </c>
       <c r="J22" s="54">
         <f t="shared" si="4"/>
@@ -16302,7 +16337,7 @@
       </c>
       <c r="K22" s="54">
         <f t="shared" si="5"/>
-        <v>1575000000</v>
+        <v>1512000000</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -16327,7 +16362,7 @@
       </c>
       <c r="G23" s="37">
         <f t="shared" si="1"/>
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="H23" s="37">
         <f t="shared" si="2"/>
@@ -16335,7 +16370,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" si="3"/>
-        <v>524000000</v>
+        <v>503000000</v>
       </c>
       <c r="J23" s="54">
         <f t="shared" si="4"/>
@@ -16343,7 +16378,7 @@
       </c>
       <c r="K23" s="54">
         <f t="shared" si="5"/>
-        <v>524000000</v>
+        <v>503000000</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -16368,7 +16403,7 @@
       </c>
       <c r="G24" s="37">
         <f t="shared" si="1"/>
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="H24" s="37">
         <f t="shared" si="2"/>
@@ -16376,7 +16411,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" si="3"/>
-        <v>-1572471600</v>
+        <v>-1509452700</v>
       </c>
       <c r="J24" s="54">
         <f t="shared" si="4"/>
@@ -16384,7 +16419,7 @@
       </c>
       <c r="K24" s="54">
         <f t="shared" si="5"/>
-        <v>-1572471600</v>
+        <v>-1509452700</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -16409,7 +16444,7 @@
       </c>
       <c r="G25" s="37">
         <f t="shared" si="1"/>
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="H25" s="37">
         <f t="shared" si="2"/>
@@ -16417,7 +16452,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" si="3"/>
-        <v>762000000</v>
+        <v>730500000</v>
       </c>
       <c r="J25" s="54">
         <f t="shared" si="4"/>
@@ -16425,7 +16460,7 @@
       </c>
       <c r="K25" s="54">
         <f t="shared" si="5"/>
-        <v>762000000</v>
+        <v>730500000</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -16450,7 +16485,7 @@
       </c>
       <c r="G26" s="37">
         <f t="shared" si="1"/>
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="H26" s="37">
         <f t="shared" si="2"/>
@@ -16458,7 +16493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" si="3"/>
-        <v>-82164000</v>
+        <v>-78720000</v>
       </c>
       <c r="J26" s="54">
         <f t="shared" si="4"/>
@@ -16466,7 +16501,7 @@
       </c>
       <c r="K26" s="54">
         <f t="shared" si="5"/>
-        <v>-82164000</v>
+        <v>-78720000</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -16491,7 +16526,7 @@
       </c>
       <c r="G27" s="37">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="H27" s="37">
         <f t="shared" si="2"/>
@@ -16499,15 +16534,15 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" si="3"/>
-        <v>99497107</v>
+        <v>95309854</v>
       </c>
       <c r="J27" s="54">
         <f t="shared" si="4"/>
-        <v>53599087</v>
+        <v>51343414</v>
       </c>
       <c r="K27" s="54">
         <f t="shared" si="5"/>
-        <v>45898020</v>
+        <v>43966440</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -16532,7 +16567,7 @@
       </c>
       <c r="G28" s="37">
         <f t="shared" si="1"/>
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="H28" s="37">
         <f t="shared" si="2"/>
@@ -16540,11 +16575,11 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" si="3"/>
-        <v>-110058000</v>
+        <v>-105417000</v>
       </c>
       <c r="J28" s="54">
         <f t="shared" si="4"/>
-        <v>-110058000</v>
+        <v>-105417000</v>
       </c>
       <c r="K28" s="54">
         <f t="shared" si="5"/>
@@ -16573,7 +16608,7 @@
       </c>
       <c r="G29" s="37">
         <f t="shared" si="1"/>
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="H29" s="37">
         <f t="shared" si="2"/>
@@ -16581,7 +16616,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" si="3"/>
-        <v>-249249000</v>
+        <v>-238738500</v>
       </c>
       <c r="J29" s="54">
         <f t="shared" si="4"/>
@@ -16589,7 +16624,7 @@
       </c>
       <c r="K29" s="54">
         <f t="shared" si="5"/>
-        <v>-249249000</v>
+        <v>-238738500</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -16614,7 +16649,7 @@
       </c>
       <c r="G30" s="37">
         <f t="shared" si="1"/>
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="H30" s="37">
         <f t="shared" si="2"/>
@@ -16622,11 +16657,11 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" si="3"/>
-        <v>-7470000000</v>
+        <v>-7155000000</v>
       </c>
       <c r="J30" s="54">
         <f t="shared" si="4"/>
-        <v>-7470000000</v>
+        <v>-7155000000</v>
       </c>
       <c r="K30" s="54">
         <f t="shared" si="5"/>
@@ -16655,7 +16690,7 @@
       </c>
       <c r="G31" s="37">
         <f t="shared" si="1"/>
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="H31" s="37">
         <f t="shared" si="2"/>
@@ -16663,7 +16698,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" si="3"/>
-        <v>-1448242900</v>
+        <v>-1385014000</v>
       </c>
       <c r="J31" s="54">
         <f t="shared" si="4"/>
@@ -16671,7 +16706,7 @@
       </c>
       <c r="K31" s="54">
         <f t="shared" si="5"/>
-        <v>-1448242900</v>
+        <v>-1385014000</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -16696,7 +16731,7 @@
       </c>
       <c r="G32" s="37">
         <f t="shared" si="1"/>
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="H32" s="37">
         <f t="shared" si="2"/>
@@ -16704,7 +16739,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" si="3"/>
-        <v>-1439826100</v>
+        <v>-1376702200</v>
       </c>
       <c r="J32" s="54">
         <f t="shared" si="4"/>
@@ -16712,7 +16747,7 @@
       </c>
       <c r="K32" s="54">
         <f t="shared" si="5"/>
-        <v>-1439826100</v>
+        <v>-1376702200</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -16737,7 +16772,7 @@
       </c>
       <c r="G33" s="37">
         <f t="shared" si="1"/>
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="H33" s="37">
         <f t="shared" si="2"/>
@@ -16745,7 +16780,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" si="3"/>
-        <v>-428049000</v>
+        <v>-409243500</v>
       </c>
       <c r="J33" s="54">
         <f t="shared" si="4"/>
@@ -16753,7 +16788,7 @@
       </c>
       <c r="K33" s="54">
         <f t="shared" si="5"/>
-        <v>-428049000</v>
+        <v>-409243500</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -16778,7 +16813,7 @@
       </c>
       <c r="G34" s="37">
         <f t="shared" si="1"/>
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="H34" s="37">
         <f t="shared" si="2"/>
@@ -16790,11 +16825,11 @@
       </c>
       <c r="J34" s="54">
         <f t="shared" si="4"/>
-        <v>478000000</v>
+        <v>457000000</v>
       </c>
       <c r="K34" s="54">
         <f t="shared" si="5"/>
-        <v>-478000000</v>
+        <v>-457000000</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -16819,7 +16854,7 @@
       </c>
       <c r="G35" s="37">
         <f t="shared" si="1"/>
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="H35" s="37">
         <f t="shared" si="2"/>
@@ -16827,15 +16862,15 @@
       </c>
       <c r="I35" s="11">
         <f t="shared" si="3"/>
-        <v>24556896</v>
+        <v>23454984</v>
       </c>
       <c r="J35" s="54">
         <f t="shared" si="4"/>
-        <v>-10138284</v>
+        <v>-9683361</v>
       </c>
       <c r="K35" s="54">
         <f t="shared" si="5"/>
-        <v>34695180</v>
+        <v>33138345</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -16860,7 +16895,7 @@
       </c>
       <c r="G36" s="37">
         <f t="shared" si="1"/>
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" si="2"/>
@@ -16872,11 +16907,11 @@
       </c>
       <c r="J36" s="54">
         <f t="shared" si="4"/>
-        <v>10159947</v>
+        <v>9705024</v>
       </c>
       <c r="K36" s="54">
         <f t="shared" si="5"/>
-        <v>-10159947</v>
+        <v>-9705024</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -16901,7 +16936,7 @@
       </c>
       <c r="G37" s="37">
         <f t="shared" si="1"/>
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="H37" s="37">
         <f t="shared" si="2"/>
@@ -16909,7 +16944,7 @@
       </c>
       <c r="I37" s="11">
         <f t="shared" si="3"/>
-        <v>-25245000</v>
+        <v>-24090000</v>
       </c>
       <c r="J37" s="54">
         <f t="shared" si="4"/>
@@ -16917,7 +16952,7 @@
       </c>
       <c r="K37" s="54">
         <f t="shared" si="5"/>
-        <v>-25245000</v>
+        <v>-24090000</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -16942,7 +16977,7 @@
       </c>
       <c r="G38" s="37">
         <f t="shared" si="1"/>
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="H38" s="37">
         <f t="shared" si="2"/>
@@ -16950,11 +16985,11 @@
       </c>
       <c r="I38" s="11">
         <f t="shared" si="3"/>
-        <v>1371000000</v>
+        <v>1308000000</v>
       </c>
       <c r="J38" s="54">
         <f t="shared" si="4"/>
-        <v>1371000000</v>
+        <v>1308000000</v>
       </c>
       <c r="K38" s="54">
         <f t="shared" si="5"/>
@@ -16983,7 +17018,7 @@
       </c>
       <c r="G39" s="37">
         <f t="shared" si="1"/>
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="H39" s="37">
         <f t="shared" si="2"/>
@@ -16991,11 +17026,11 @@
       </c>
       <c r="I39" s="11">
         <f t="shared" si="3"/>
-        <v>1140000000</v>
+        <v>1087500000</v>
       </c>
       <c r="J39" s="54">
         <f t="shared" si="4"/>
-        <v>1140000000</v>
+        <v>1087500000</v>
       </c>
       <c r="K39" s="54">
         <f t="shared" si="5"/>
@@ -17024,7 +17059,7 @@
       </c>
       <c r="G40" s="37">
         <f t="shared" si="1"/>
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="H40" s="37">
         <f t="shared" si="2"/>
@@ -17032,7 +17067,7 @@
       </c>
       <c r="I40" s="11">
         <f t="shared" si="3"/>
-        <v>-22850000</v>
+        <v>-21800000</v>
       </c>
       <c r="J40" s="54">
         <f t="shared" si="4"/>
@@ -17040,7 +17075,7 @@
       </c>
       <c r="K40" s="54">
         <f t="shared" si="5"/>
-        <v>-22850000</v>
+        <v>-21800000</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -17065,7 +17100,7 @@
       </c>
       <c r="G41" s="37">
         <f t="shared" si="1"/>
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="H41" s="37">
         <f t="shared" si="2"/>
@@ -17073,7 +17108,7 @@
       </c>
       <c r="I41" s="11">
         <f t="shared" si="3"/>
-        <v>1368000000</v>
+        <v>1305000000</v>
       </c>
       <c r="J41" s="54">
         <f t="shared" si="4"/>
@@ -17081,7 +17116,7 @@
       </c>
       <c r="K41" s="54">
         <f t="shared" si="5"/>
-        <v>1368000000</v>
+        <v>1305000000</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -17106,7 +17141,7 @@
       </c>
       <c r="G42" s="37">
         <f t="shared" si="1"/>
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="H42" s="37">
         <f t="shared" si="2"/>
@@ -17114,7 +17149,7 @@
       </c>
       <c r="I42" s="11">
         <f t="shared" si="3"/>
-        <v>-40496800</v>
+        <v>-38623600</v>
       </c>
       <c r="J42" s="54">
         <f t="shared" si="4"/>
@@ -17122,7 +17157,7 @@
       </c>
       <c r="K42" s="54">
         <f t="shared" si="5"/>
-        <v>-40496800</v>
+        <v>-38623600</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -17147,7 +17182,7 @@
       </c>
       <c r="G43" s="37">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="H43" s="37">
         <f t="shared" si="2"/>
@@ -17155,7 +17190,7 @@
       </c>
       <c r="I43" s="11">
         <f t="shared" si="3"/>
-        <v>-90000000</v>
+        <v>-85800000</v>
       </c>
       <c r="J43" s="54">
         <f t="shared" si="4"/>
@@ -17163,7 +17198,7 @@
       </c>
       <c r="K43" s="54">
         <f t="shared" si="5"/>
-        <v>-90000000</v>
+        <v>-85800000</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -17188,7 +17223,7 @@
       </c>
       <c r="G44" s="37">
         <f t="shared" si="1"/>
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="H44" s="37">
         <f t="shared" si="2"/>
@@ -17196,7 +17231,7 @@
       </c>
       <c r="I44" s="11">
         <f t="shared" si="3"/>
-        <v>-89600000</v>
+        <v>-85400000</v>
       </c>
       <c r="J44" s="54">
         <f t="shared" si="4"/>
@@ -17204,7 +17239,7 @@
       </c>
       <c r="K44" s="54">
         <f t="shared" si="5"/>
-        <v>-89600000</v>
+        <v>-85400000</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -17229,7 +17264,7 @@
       </c>
       <c r="G45" s="37">
         <f t="shared" si="1"/>
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="H45" s="37">
         <f t="shared" si="2"/>
@@ -17237,7 +17272,7 @@
       </c>
       <c r="I45" s="11">
         <f t="shared" si="3"/>
-        <v>-250880000</v>
+        <v>-239120000</v>
       </c>
       <c r="J45" s="54">
         <f t="shared" si="4"/>
@@ -17245,7 +17280,7 @@
       </c>
       <c r="K45" s="54">
         <f t="shared" si="5"/>
-        <v>-250880000</v>
+        <v>-239120000</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -17270,7 +17305,7 @@
       </c>
       <c r="G46" s="37">
         <f t="shared" si="1"/>
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="H46" s="37">
         <f t="shared" si="2"/>
@@ -17278,7 +17313,7 @@
       </c>
       <c r="I46" s="11">
         <f t="shared" si="3"/>
-        <v>-313242000</v>
+        <v>-298426500</v>
       </c>
       <c r="J46" s="54">
         <f t="shared" si="4"/>
@@ -17286,7 +17321,7 @@
       </c>
       <c r="K46" s="54">
         <f t="shared" si="5"/>
-        <v>-313242000</v>
+        <v>-298426500</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -17311,7 +17346,7 @@
       </c>
       <c r="G47" s="37">
         <f t="shared" si="1"/>
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="H47" s="37">
         <f t="shared" si="2"/>
@@ -17319,15 +17354,15 @@
       </c>
       <c r="I47" s="11">
         <f t="shared" si="3"/>
-        <v>18006148</v>
+        <v>17140864</v>
       </c>
       <c r="J47" s="54">
         <f t="shared" si="4"/>
-        <v>2933581</v>
+        <v>2792608</v>
       </c>
       <c r="K47" s="54">
         <f t="shared" si="5"/>
-        <v>15072567</v>
+        <v>14348256</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -17352,7 +17387,7 @@
       </c>
       <c r="G48" s="37">
         <f t="shared" si="1"/>
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="H48" s="37">
         <f t="shared" si="2"/>
@@ -17360,7 +17395,7 @@
       </c>
       <c r="I48" s="11">
         <f t="shared" si="3"/>
-        <v>744953900</v>
+        <v>709155200</v>
       </c>
       <c r="J48" s="54">
         <f t="shared" si="4"/>
@@ -17368,7 +17403,7 @@
       </c>
       <c r="K48" s="54">
         <f t="shared" si="5"/>
-        <v>744953900</v>
+        <v>709155200</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -17393,7 +17428,7 @@
       </c>
       <c r="G49" s="37">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="H49" s="37">
         <f t="shared" si="2"/>
@@ -17401,7 +17436,7 @@
       </c>
       <c r="I49" s="11">
         <f t="shared" si="3"/>
-        <v>-66495000</v>
+        <v>-63240000</v>
       </c>
       <c r="J49" s="54">
         <f t="shared" si="4"/>
@@ -17409,7 +17444,7 @@
       </c>
       <c r="K49" s="54">
         <f t="shared" si="5"/>
-        <v>-66495000</v>
+        <v>-63240000</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -17434,7 +17469,7 @@
       </c>
       <c r="G50" s="37">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="H50" s="37">
         <f t="shared" si="2"/>
@@ -17442,7 +17477,7 @@
       </c>
       <c r="I50" s="11">
         <f t="shared" si="3"/>
-        <v>-59202000</v>
+        <v>-56304000</v>
       </c>
       <c r="J50" s="54">
         <f t="shared" si="4"/>
@@ -17450,7 +17485,7 @@
       </c>
       <c r="K50" s="54">
         <f t="shared" si="5"/>
-        <v>-59202000</v>
+        <v>-56304000</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -17475,7 +17510,7 @@
       </c>
       <c r="G51" s="37">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="H51" s="37">
         <f t="shared" si="2"/>
@@ -17483,7 +17518,7 @@
       </c>
       <c r="I51" s="11">
         <f t="shared" si="3"/>
-        <v>-317460000</v>
+        <v>-301920000</v>
       </c>
       <c r="J51" s="54">
         <f t="shared" si="4"/>
@@ -17491,7 +17526,7 @@
       </c>
       <c r="K51" s="54">
         <f t="shared" si="5"/>
-        <v>-317460000</v>
+        <v>-301920000</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -17516,7 +17551,7 @@
       </c>
       <c r="G52" s="37">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="H52" s="37">
         <f t="shared" si="2"/>
@@ -17524,7 +17559,7 @@
       </c>
       <c r="I52" s="11">
         <f t="shared" si="3"/>
-        <v>-85800000</v>
+        <v>-81600000</v>
       </c>
       <c r="J52" s="54">
         <f t="shared" si="4"/>
@@ -17532,7 +17567,7 @@
       </c>
       <c r="K52" s="54">
         <f t="shared" si="5"/>
-        <v>-85800000</v>
+        <v>-81600000</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -17557,7 +17592,7 @@
       </c>
       <c r="G53" s="37">
         <f t="shared" si="1"/>
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="H53" s="37">
         <f t="shared" si="2"/>
@@ -17565,7 +17600,7 @@
       </c>
       <c r="I53" s="11">
         <f t="shared" si="3"/>
-        <v>-451540000</v>
+        <v>-429385000</v>
       </c>
       <c r="J53" s="54">
         <f t="shared" si="4"/>
@@ -17573,7 +17608,7 @@
       </c>
       <c r="K53" s="54">
         <f t="shared" si="5"/>
-        <v>-451540000</v>
+        <v>-429385000</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -17598,7 +17633,7 @@
       </c>
       <c r="G54" s="37">
         <f t="shared" si="1"/>
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="H54" s="37">
         <f t="shared" si="2"/>
@@ -17606,7 +17641,7 @@
       </c>
       <c r="I54" s="11">
         <f t="shared" si="3"/>
-        <v>-85600000</v>
+        <v>-81400000</v>
       </c>
       <c r="J54" s="54">
         <f t="shared" si="4"/>
@@ -17614,7 +17649,7 @@
       </c>
       <c r="K54" s="54">
         <f t="shared" si="5"/>
-        <v>-85600000</v>
+        <v>-81400000</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -17639,7 +17674,7 @@
       </c>
       <c r="G55" s="37">
         <f t="shared" si="1"/>
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="H55" s="37">
         <f t="shared" si="2"/>
@@ -17647,7 +17682,7 @@
       </c>
       <c r="I55" s="11">
         <f t="shared" si="3"/>
-        <v>-428214000</v>
+        <v>-407203500</v>
       </c>
       <c r="J55" s="54">
         <f t="shared" si="4"/>
@@ -17655,7 +17690,7 @@
       </c>
       <c r="K55" s="54">
         <f t="shared" si="5"/>
-        <v>-428214000</v>
+        <v>-407203500</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -17680,7 +17715,7 @@
       </c>
       <c r="G56" s="37">
         <f t="shared" si="1"/>
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="H56" s="37">
         <f t="shared" si="2"/>
@@ -17688,7 +17723,7 @@
       </c>
       <c r="I56" s="11">
         <f t="shared" si="3"/>
-        <v>-16264000</v>
+        <v>-15466000</v>
       </c>
       <c r="J56" s="54">
         <f t="shared" si="4"/>
@@ -17696,7 +17731,7 @@
       </c>
       <c r="K56" s="54">
         <f t="shared" si="5"/>
-        <v>-16264000</v>
+        <v>-15466000</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -17721,7 +17756,7 @@
       </c>
       <c r="G57" s="37">
         <f t="shared" si="1"/>
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="H57" s="37">
         <f t="shared" si="2"/>
@@ -17729,7 +17764,7 @@
       </c>
       <c r="I57" s="11">
         <f t="shared" si="3"/>
-        <v>-44940000</v>
+        <v>-42735000</v>
       </c>
       <c r="J57" s="54">
         <f t="shared" si="4"/>
@@ -17737,7 +17772,7 @@
       </c>
       <c r="K57" s="54">
         <f t="shared" si="5"/>
-        <v>-44940000</v>
+        <v>-42735000</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -17762,7 +17797,7 @@
       </c>
       <c r="G58" s="37">
         <f t="shared" si="1"/>
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="H58" s="37">
         <f t="shared" si="2"/>
@@ -17770,7 +17805,7 @@
       </c>
       <c r="I58" s="11">
         <f t="shared" si="3"/>
-        <v>-25680000</v>
+        <v>-24420000</v>
       </c>
       <c r="J58" s="54">
         <f t="shared" si="4"/>
@@ -17778,7 +17813,7 @@
       </c>
       <c r="K58" s="54">
         <f t="shared" si="5"/>
-        <v>-25680000</v>
+        <v>-24420000</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -17803,7 +17838,7 @@
       </c>
       <c r="G59" s="37">
         <f t="shared" si="1"/>
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="H59" s="37">
         <f t="shared" si="2"/>
@@ -17811,11 +17846,11 @@
       </c>
       <c r="I59" s="11">
         <f t="shared" si="3"/>
-        <v>424000000</v>
+        <v>403000000</v>
       </c>
       <c r="J59" s="54">
         <f t="shared" si="4"/>
-        <v>424000000</v>
+        <v>403000000</v>
       </c>
       <c r="K59" s="54">
         <f t="shared" si="5"/>
@@ -17844,7 +17879,7 @@
       </c>
       <c r="G60" s="37">
         <f t="shared" si="1"/>
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="H60" s="37">
         <f t="shared" si="2"/>
@@ -17852,11 +17887,11 @@
       </c>
       <c r="I60" s="11">
         <f t="shared" si="3"/>
-        <v>1480500000</v>
+        <v>1407000000</v>
       </c>
       <c r="J60" s="54">
         <f t="shared" si="4"/>
-        <v>1480500000</v>
+        <v>1407000000</v>
       </c>
       <c r="K60" s="54">
         <f t="shared" si="5"/>
@@ -17885,7 +17920,7 @@
       </c>
       <c r="G61" s="37">
         <f t="shared" si="1"/>
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="H61" s="37">
         <f t="shared" si="2"/>
@@ -17893,11 +17928,11 @@
       </c>
       <c r="I61" s="11">
         <f t="shared" si="3"/>
-        <v>421000000</v>
+        <v>400000000</v>
       </c>
       <c r="J61" s="54">
         <f t="shared" si="4"/>
-        <v>421000000</v>
+        <v>400000000</v>
       </c>
       <c r="K61" s="54">
         <f t="shared" si="5"/>
@@ -17926,7 +17961,7 @@
       </c>
       <c r="G62" s="37">
         <f t="shared" si="1"/>
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="H62" s="37">
         <f t="shared" si="2"/>
@@ -17934,11 +17969,11 @@
       </c>
       <c r="I62" s="11">
         <f t="shared" si="3"/>
-        <v>1263000000</v>
+        <v>1200000000</v>
       </c>
       <c r="J62" s="54">
         <f t="shared" si="4"/>
-        <v>1263000000</v>
+        <v>1200000000</v>
       </c>
       <c r="K62" s="54">
         <f t="shared" si="5"/>
@@ -17967,7 +18002,7 @@
       </c>
       <c r="G63" s="37">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="H63" s="37">
         <f t="shared" si="2"/>
@@ -17975,7 +18010,7 @@
       </c>
       <c r="I63" s="11">
         <f t="shared" si="3"/>
-        <v>-84000000</v>
+        <v>-79800000</v>
       </c>
       <c r="J63" s="54">
         <f t="shared" si="4"/>
@@ -17983,7 +18018,7 @@
       </c>
       <c r="K63" s="54">
         <f t="shared" si="5"/>
-        <v>-84000000</v>
+        <v>-79800000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -18008,7 +18043,7 @@
       </c>
       <c r="G64" s="37">
         <f t="shared" si="1"/>
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="H64" s="37">
         <f t="shared" si="2"/>
@@ -18016,7 +18051,7 @@
       </c>
       <c r="I64" s="11">
         <f t="shared" si="3"/>
-        <v>-20750000</v>
+        <v>-19700000</v>
       </c>
       <c r="J64" s="54">
         <f t="shared" si="4"/>
@@ -18024,7 +18059,7 @@
       </c>
       <c r="K64" s="54">
         <f t="shared" si="5"/>
-        <v>-20750000</v>
+        <v>-19700000</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -18049,7 +18084,7 @@
       </c>
       <c r="G65" s="37">
         <f t="shared" si="1"/>
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="H65" s="37">
         <f t="shared" si="2"/>
@@ -18057,7 +18092,7 @@
       </c>
       <c r="I65" s="11">
         <f t="shared" si="3"/>
-        <v>-82200000</v>
+        <v>-78000000</v>
       </c>
       <c r="J65" s="54">
         <f t="shared" si="4"/>
@@ -18065,7 +18100,7 @@
       </c>
       <c r="K65" s="54">
         <f t="shared" si="5"/>
-        <v>-82200000</v>
+        <v>-78000000</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -18090,7 +18125,7 @@
       </c>
       <c r="G66" s="37">
         <f t="shared" si="1"/>
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="H66" s="37">
         <f t="shared" si="2"/>
@@ -18098,7 +18133,7 @@
       </c>
       <c r="I66" s="11">
         <f t="shared" si="3"/>
-        <v>-69360000</v>
+        <v>-65790000</v>
       </c>
       <c r="J66" s="54">
         <f t="shared" si="4"/>
@@ -18106,7 +18141,7 @@
       </c>
       <c r="K66" s="54">
         <f t="shared" si="5"/>
-        <v>-69360000</v>
+        <v>-65790000</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -18131,7 +18166,7 @@
       </c>
       <c r="G67" s="37">
         <f t="shared" ref="G67:G142" si="7">G68+F67</f>
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H67" s="37">
         <f t="shared" ref="H67:H130" si="8">IF(B67&gt;0,1,0)</f>
@@ -18139,15 +18174,15 @@
       </c>
       <c r="I67" s="11">
         <f t="shared" ref="I67:I119" si="9">B67*(G67-H67)</f>
-        <v>37077950</v>
+        <v>35160125</v>
       </c>
       <c r="J67" s="54">
         <f t="shared" ref="J67:J130" si="10">C67*(G67-H67)</f>
-        <v>26683538</v>
+        <v>25303355</v>
       </c>
       <c r="K67" s="54">
         <f t="shared" ref="K67:K130" si="11">D67*(G67-H67)</f>
-        <v>10394412</v>
+        <v>9856770</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -18172,7 +18207,7 @@
       </c>
       <c r="G68" s="37">
         <f t="shared" si="7"/>
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="H68" s="37">
         <f t="shared" si="8"/>
@@ -18180,7 +18215,7 @@
       </c>
       <c r="I68" s="11">
         <f t="shared" si="9"/>
-        <v>-56405000</v>
+        <v>-53360000</v>
       </c>
       <c r="J68" s="54">
         <f t="shared" si="10"/>
@@ -18188,7 +18223,7 @@
       </c>
       <c r="K68" s="54">
         <f t="shared" si="11"/>
-        <v>-56405000</v>
+        <v>-53360000</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -18213,7 +18248,7 @@
       </c>
       <c r="G69" s="37">
         <f t="shared" si="7"/>
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="H69" s="37">
         <f t="shared" si="8"/>
@@ -18221,7 +18256,7 @@
       </c>
       <c r="I69" s="11">
         <f t="shared" si="9"/>
-        <v>373380000</v>
+        <v>352800000</v>
       </c>
       <c r="J69" s="54">
         <f t="shared" si="10"/>
@@ -18229,7 +18264,7 @@
       </c>
       <c r="K69" s="54">
         <f t="shared" si="11"/>
-        <v>373380000</v>
+        <v>352800000</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -18254,7 +18289,7 @@
       </c>
       <c r="G70" s="37">
         <f t="shared" si="7"/>
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="H70" s="37">
         <f t="shared" si="8"/>
@@ -18262,7 +18297,7 @@
       </c>
       <c r="I70" s="11">
         <f t="shared" si="9"/>
-        <v>-17434000</v>
+        <v>-16468000</v>
       </c>
       <c r="J70" s="54">
         <f t="shared" si="10"/>
@@ -18270,7 +18305,7 @@
       </c>
       <c r="K70" s="54">
         <f t="shared" si="11"/>
-        <v>-17434000</v>
+        <v>-16468000</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -18295,7 +18330,7 @@
       </c>
       <c r="G71" s="37">
         <f t="shared" si="7"/>
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="H71" s="37">
         <f t="shared" si="8"/>
@@ -18303,15 +18338,15 @@
       </c>
       <c r="I71" s="11">
         <f t="shared" si="9"/>
-        <v>43367088</v>
+        <v>40944990</v>
       </c>
       <c r="J71" s="54">
         <f t="shared" si="10"/>
-        <v>39033312</v>
+        <v>36853260</v>
       </c>
       <c r="K71" s="54">
         <f t="shared" si="11"/>
-        <v>4333776</v>
+        <v>4091730</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -18336,7 +18371,7 @@
       </c>
       <c r="G72" s="37">
         <f t="shared" si="7"/>
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="H72" s="37">
         <f t="shared" si="8"/>
@@ -18344,7 +18379,7 @@
       </c>
       <c r="I72" s="11">
         <f t="shared" si="9"/>
-        <v>-57140344</v>
+        <v>-53948995</v>
       </c>
       <c r="J72" s="54">
         <f t="shared" si="10"/>
@@ -18352,7 +18387,7 @@
       </c>
       <c r="K72" s="54">
         <f t="shared" si="11"/>
-        <v>-57140344</v>
+        <v>-53948995</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -18377,7 +18412,7 @@
       </c>
       <c r="G73" s="37">
         <f t="shared" si="7"/>
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="H73" s="37">
         <f t="shared" si="8"/>
@@ -18385,7 +18420,7 @@
       </c>
       <c r="I73" s="11">
         <f t="shared" si="9"/>
-        <v>-302062500</v>
+        <v>-285147000</v>
       </c>
       <c r="J73" s="54">
         <f t="shared" si="10"/>
@@ -18393,7 +18428,7 @@
       </c>
       <c r="K73" s="54">
         <f t="shared" si="11"/>
-        <v>-302062500</v>
+        <v>-285147000</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -18418,7 +18453,7 @@
       </c>
       <c r="G74" s="37">
         <f t="shared" si="7"/>
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="H74" s="37">
         <f t="shared" si="8"/>
@@ -18426,7 +18461,7 @@
       </c>
       <c r="I74" s="11">
         <f t="shared" si="9"/>
-        <v>2567165000</v>
+        <v>2420270000</v>
       </c>
       <c r="J74" s="54">
         <f t="shared" si="10"/>
@@ -18434,7 +18469,7 @@
       </c>
       <c r="K74" s="54">
         <f t="shared" si="11"/>
-        <v>2567165000</v>
+        <v>2420270000</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -18459,7 +18494,7 @@
       </c>
       <c r="G75" s="37">
         <f t="shared" si="7"/>
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="H75" s="37">
         <f t="shared" si="8"/>
@@ -18467,7 +18502,7 @@
       </c>
       <c r="I75" s="11">
         <f t="shared" si="9"/>
-        <v>1098000000</v>
+        <v>1035000000</v>
       </c>
       <c r="J75" s="54">
         <f t="shared" si="10"/>
@@ -18475,7 +18510,7 @@
       </c>
       <c r="K75" s="54">
         <f t="shared" si="11"/>
-        <v>1098000000</v>
+        <v>1035000000</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -18500,7 +18535,7 @@
       </c>
       <c r="G76" s="37">
         <f t="shared" si="7"/>
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="H76" s="37">
         <f t="shared" si="8"/>
@@ -18508,7 +18543,7 @@
       </c>
       <c r="I76" s="11">
         <f t="shared" si="9"/>
-        <v>1092000000</v>
+        <v>1029000000</v>
       </c>
       <c r="J76" s="54">
         <f t="shared" si="10"/>
@@ -18516,7 +18551,7 @@
       </c>
       <c r="K76" s="54">
         <f t="shared" si="11"/>
-        <v>1092000000</v>
+        <v>1029000000</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -18541,7 +18576,7 @@
       </c>
       <c r="G77" s="37">
         <f t="shared" si="7"/>
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="H77" s="37">
         <f t="shared" si="8"/>
@@ -18549,7 +18584,7 @@
       </c>
       <c r="I77" s="11">
         <f t="shared" si="9"/>
-        <v>1089000000</v>
+        <v>1026000000</v>
       </c>
       <c r="J77" s="54">
         <f t="shared" si="10"/>
@@ -18557,7 +18592,7 @@
       </c>
       <c r="K77" s="54">
         <f t="shared" si="11"/>
-        <v>1089000000</v>
+        <v>1026000000</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -18582,7 +18617,7 @@
       </c>
       <c r="G78" s="37">
         <f t="shared" si="7"/>
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="H78" s="37">
         <f t="shared" si="8"/>
@@ -18590,11 +18625,11 @@
       </c>
       <c r="I78" s="11">
         <f t="shared" si="9"/>
-        <v>-1161600000</v>
+        <v>-1094400000</v>
       </c>
       <c r="J78" s="54">
         <f t="shared" si="10"/>
-        <v>-1161600000</v>
+        <v>-1094400000</v>
       </c>
       <c r="K78" s="54">
         <f t="shared" si="11"/>
@@ -18623,7 +18658,7 @@
       </c>
       <c r="G79" s="37">
         <f t="shared" si="7"/>
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="H79" s="37">
         <f t="shared" si="8"/>
@@ -18631,11 +18666,11 @@
       </c>
       <c r="I79" s="11">
         <f t="shared" si="9"/>
-        <v>-289600000</v>
+        <v>-272800000</v>
       </c>
       <c r="J79" s="54">
         <f t="shared" si="10"/>
-        <v>-289600000</v>
+        <v>-272800000</v>
       </c>
       <c r="K79" s="54">
         <f t="shared" si="11"/>
@@ -18664,7 +18699,7 @@
       </c>
       <c r="G80" s="37">
         <f t="shared" si="7"/>
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="H80" s="37">
         <f t="shared" si="8"/>
@@ -18672,7 +18707,7 @@
       </c>
       <c r="I80" s="11">
         <f t="shared" si="9"/>
-        <v>-17469873</v>
+        <v>-16453620</v>
       </c>
       <c r="J80" s="54">
         <f t="shared" si="10"/>
@@ -18680,7 +18715,7 @@
       </c>
       <c r="K80" s="54">
         <f t="shared" si="11"/>
-        <v>-17469873</v>
+        <v>-16453620</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -18705,7 +18740,7 @@
       </c>
       <c r="G81" s="37">
         <f t="shared" si="7"/>
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="H81" s="37">
         <f t="shared" si="8"/>
@@ -18713,7 +18748,7 @@
       </c>
       <c r="I81" s="11">
         <f t="shared" si="9"/>
-        <v>-50400000</v>
+        <v>-47460000</v>
       </c>
       <c r="J81" s="54">
         <f t="shared" si="10"/>
@@ -18721,7 +18756,7 @@
       </c>
       <c r="K81" s="54">
         <f t="shared" si="11"/>
-        <v>-50400000</v>
+        <v>-47460000</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -18746,7 +18781,7 @@
       </c>
       <c r="G82" s="37">
         <f t="shared" si="7"/>
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="H82" s="37">
         <f t="shared" si="8"/>
@@ -18754,7 +18789,7 @@
       </c>
       <c r="I82" s="11">
         <f t="shared" si="9"/>
-        <v>-89750000</v>
+        <v>-84500000</v>
       </c>
       <c r="J82" s="54">
         <f t="shared" si="10"/>
@@ -18762,7 +18797,7 @@
       </c>
       <c r="K82" s="54">
         <f t="shared" si="11"/>
-        <v>-89750000</v>
+        <v>-84500000</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -18787,7 +18822,7 @@
       </c>
       <c r="G83" s="37">
         <f t="shared" si="7"/>
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="H83" s="37">
         <f t="shared" si="8"/>
@@ -18795,7 +18830,7 @@
       </c>
       <c r="I83" s="11">
         <f t="shared" si="9"/>
-        <v>-71600000</v>
+        <v>-67400000</v>
       </c>
       <c r="J83" s="54">
         <f t="shared" si="10"/>
@@ -18803,7 +18838,7 @@
       </c>
       <c r="K83" s="54">
         <f t="shared" si="11"/>
-        <v>-71600000</v>
+        <v>-67400000</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -18828,7 +18863,7 @@
       </c>
       <c r="G84" s="37">
         <f t="shared" si="7"/>
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="H84" s="37">
         <f t="shared" si="8"/>
@@ -18836,7 +18871,7 @@
       </c>
       <c r="I84" s="11">
         <f t="shared" si="9"/>
-        <v>578860800</v>
+        <v>544521600</v>
       </c>
       <c r="J84" s="54">
         <f t="shared" si="10"/>
@@ -18844,7 +18879,7 @@
       </c>
       <c r="K84" s="54">
         <f t="shared" si="11"/>
-        <v>578860800</v>
+        <v>544521600</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -18858,7 +18893,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="3">
-        <f t="shared" ref="D85:D129" si="12">B85-C85</f>
+        <f t="shared" ref="D85:D131" si="12">B85-C85</f>
         <v>2500000</v>
       </c>
       <c r="E85" s="20" t="s">
@@ -18869,7 +18904,7 @@
       </c>
       <c r="G85" s="37">
         <f t="shared" si="7"/>
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="H85" s="37">
         <f t="shared" si="8"/>
@@ -18877,7 +18912,7 @@
       </c>
       <c r="I85" s="11">
         <f t="shared" si="9"/>
-        <v>875000000</v>
+        <v>822500000</v>
       </c>
       <c r="J85" s="54">
         <f t="shared" si="10"/>
@@ -18885,7 +18920,7 @@
       </c>
       <c r="K85" s="54">
         <f t="shared" si="11"/>
-        <v>875000000</v>
+        <v>822500000</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -18910,7 +18945,7 @@
       </c>
       <c r="G86" s="37">
         <f t="shared" si="7"/>
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="H86" s="37">
         <f t="shared" si="8"/>
@@ -18918,15 +18953,15 @@
       </c>
       <c r="I86" s="11">
         <f t="shared" si="9"/>
-        <v>64459800</v>
+        <v>60547500</v>
       </c>
       <c r="J86" s="54">
         <f t="shared" si="10"/>
-        <v>29392700</v>
+        <v>27608750</v>
       </c>
       <c r="K86" s="54">
         <f t="shared" si="11"/>
-        <v>35067100</v>
+        <v>32938750</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -18951,7 +18986,7 @@
       </c>
       <c r="G87" s="37">
         <f t="shared" si="7"/>
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="H87" s="37">
         <f t="shared" si="8"/>
@@ -18959,7 +18994,7 @@
       </c>
       <c r="I87" s="11">
         <f t="shared" si="9"/>
-        <v>-68800000</v>
+        <v>-64600000</v>
       </c>
       <c r="J87" s="54">
         <f t="shared" si="10"/>
@@ -18967,7 +19002,7 @@
       </c>
       <c r="K87" s="54">
         <f t="shared" si="11"/>
-        <v>-68800000</v>
+        <v>-64600000</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -18992,7 +19027,7 @@
       </c>
       <c r="G88" s="37">
         <f t="shared" si="7"/>
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="H88" s="37">
         <f t="shared" si="8"/>
@@ -19000,15 +19035,15 @@
       </c>
       <c r="I88" s="11">
         <f t="shared" si="9"/>
-        <v>-40474000</v>
+        <v>-37996000</v>
       </c>
       <c r="J88" s="54">
         <f t="shared" si="10"/>
-        <v>-23667000</v>
+        <v>-22218000</v>
       </c>
       <c r="K88" s="54">
         <f t="shared" si="11"/>
-        <v>-16807000</v>
+        <v>-15778000</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -19033,7 +19068,7 @@
       </c>
       <c r="G89" s="37">
         <f t="shared" si="7"/>
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="H89" s="37">
         <f t="shared" si="8"/>
@@ -19041,7 +19076,7 @@
       </c>
       <c r="I89" s="11">
         <f t="shared" si="9"/>
-        <v>-1072301500</v>
+        <v>-1005082600</v>
       </c>
       <c r="J89" s="54">
         <f t="shared" si="10"/>
@@ -19049,7 +19084,7 @@
       </c>
       <c r="K89" s="54">
         <f t="shared" si="11"/>
-        <v>-1072301500</v>
+        <v>-1005082600</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -19074,7 +19109,7 @@
       </c>
       <c r="G90" s="37">
         <f t="shared" si="7"/>
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="H90" s="37">
         <f t="shared" si="8"/>
@@ -19082,7 +19117,7 @@
       </c>
       <c r="I90" s="11">
         <f t="shared" si="9"/>
-        <v>-1069100600</v>
+        <v>-1001881700</v>
       </c>
       <c r="J90" s="54">
         <f t="shared" si="10"/>
@@ -19090,7 +19125,7 @@
       </c>
       <c r="K90" s="54">
         <f t="shared" si="11"/>
-        <v>-1069100600</v>
+        <v>-1001881700</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -19115,7 +19150,7 @@
       </c>
       <c r="G91" s="37">
         <f t="shared" si="7"/>
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="H91" s="37">
         <f t="shared" si="8"/>
@@ -19123,7 +19158,7 @@
       </c>
       <c r="I91" s="11">
         <f t="shared" si="9"/>
-        <v>-1065899700</v>
+        <v>-998680800</v>
       </c>
       <c r="J91" s="54">
         <f t="shared" si="10"/>
@@ -19131,7 +19166,7 @@
       </c>
       <c r="K91" s="54">
         <f t="shared" si="11"/>
-        <v>-1065899700</v>
+        <v>-998680800</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -19156,7 +19191,7 @@
       </c>
       <c r="G92" s="37">
         <f t="shared" si="7"/>
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="H92" s="37">
         <f t="shared" si="8"/>
@@ -19164,7 +19199,7 @@
       </c>
       <c r="I92" s="11">
         <f t="shared" si="9"/>
-        <v>-1062698800</v>
+        <v>-995479900</v>
       </c>
       <c r="J92" s="54">
         <f t="shared" si="10"/>
@@ -19172,7 +19207,7 @@
       </c>
       <c r="K92" s="54">
         <f t="shared" si="11"/>
-        <v>-1062698800</v>
+        <v>-995479900</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -19197,7 +19232,7 @@
       </c>
       <c r="G93" s="37">
         <f t="shared" si="7"/>
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="H93" s="37">
         <f t="shared" si="8"/>
@@ -19205,7 +19240,7 @@
       </c>
       <c r="I93" s="11">
         <f t="shared" si="9"/>
-        <v>-1059497900</v>
+        <v>-992279000</v>
       </c>
       <c r="J93" s="54">
         <f t="shared" si="10"/>
@@ -19213,7 +19248,7 @@
       </c>
       <c r="K93" s="54">
         <f t="shared" si="11"/>
-        <v>-1059497900</v>
+        <v>-992279000</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -19238,7 +19273,7 @@
       </c>
       <c r="G94" s="37">
         <f t="shared" si="7"/>
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="H94" s="37">
         <f t="shared" si="8"/>
@@ -19246,7 +19281,7 @@
       </c>
       <c r="I94" s="11">
         <f t="shared" si="9"/>
-        <v>-1056297000</v>
+        <v>-989078100</v>
       </c>
       <c r="J94" s="54">
         <f t="shared" si="10"/>
@@ -19254,7 +19289,7 @@
       </c>
       <c r="K94" s="54">
         <f t="shared" si="11"/>
-        <v>-1056297000</v>
+        <v>-989078100</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -19279,7 +19314,7 @@
       </c>
       <c r="G95" s="37">
         <f t="shared" si="7"/>
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="H95" s="37">
         <f t="shared" si="8"/>
@@ -19287,7 +19322,7 @@
       </c>
       <c r="I95" s="11">
         <f t="shared" si="9"/>
-        <v>-392483488</v>
+        <v>-367354972</v>
       </c>
       <c r="J95" s="54">
         <f t="shared" si="10"/>
@@ -19295,7 +19330,7 @@
       </c>
       <c r="K95" s="54">
         <f t="shared" si="11"/>
-        <v>-392483488</v>
+        <v>-367354972</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -19320,7 +19355,7 @@
       </c>
       <c r="G96" s="37">
         <f t="shared" si="7"/>
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="H96" s="37">
         <f t="shared" si="8"/>
@@ -19328,7 +19363,7 @@
       </c>
       <c r="I96" s="11">
         <f t="shared" si="9"/>
-        <v>-63600000</v>
+        <v>-59400000</v>
       </c>
       <c r="J96" s="54">
         <f t="shared" si="10"/>
@@ -19336,7 +19371,7 @@
       </c>
       <c r="K96" s="54">
         <f t="shared" si="11"/>
-        <v>-63600000</v>
+        <v>-59400000</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -19361,7 +19396,7 @@
       </c>
       <c r="G97" s="37">
         <f t="shared" si="7"/>
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="H97" s="37">
         <f t="shared" si="8"/>
@@ -19369,15 +19404,15 @@
       </c>
       <c r="I97" s="11">
         <f t="shared" si="9"/>
-        <v>50420328</v>
+        <v>47069610</v>
       </c>
       <c r="J97" s="54">
         <f t="shared" si="10"/>
-        <v>21780616</v>
+        <v>20333170</v>
       </c>
       <c r="K97" s="54">
         <f t="shared" si="11"/>
-        <v>28639712</v>
+        <v>26736440</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -19402,7 +19437,7 @@
       </c>
       <c r="G98" s="37">
         <f t="shared" si="7"/>
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="H98" s="37">
         <f t="shared" si="8"/>
@@ -19410,7 +19445,7 @@
       </c>
       <c r="I98" s="11">
         <f t="shared" si="9"/>
-        <v>35568448</v>
+        <v>33166720</v>
       </c>
       <c r="J98" s="54">
         <f t="shared" si="10"/>
@@ -19418,7 +19453,7 @@
       </c>
       <c r="K98" s="54">
         <f t="shared" si="11"/>
-        <v>35568448</v>
+        <v>33166720</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -19443,7 +19478,7 @@
       </c>
       <c r="G99" s="37">
         <f t="shared" si="7"/>
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="H99" s="37">
         <f t="shared" si="8"/>
@@ -19451,7 +19486,7 @@
       </c>
       <c r="I99" s="11">
         <f t="shared" si="9"/>
-        <v>-409425000</v>
+        <v>-381600000</v>
       </c>
       <c r="J99" s="54">
         <f t="shared" si="10"/>
@@ -19459,7 +19494,7 @@
       </c>
       <c r="K99" s="54">
         <f t="shared" si="11"/>
-        <v>-409425000</v>
+        <v>-381600000</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -19484,7 +19519,7 @@
       </c>
       <c r="G100" s="37">
         <f t="shared" si="7"/>
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="H100" s="37">
         <f t="shared" si="8"/>
@@ -19492,7 +19527,7 @@
       </c>
       <c r="I100" s="11">
         <f t="shared" si="9"/>
-        <v>401475000</v>
+        <v>373650000</v>
       </c>
       <c r="J100" s="54">
         <f t="shared" si="10"/>
@@ -19500,7 +19535,7 @@
       </c>
       <c r="K100" s="54">
         <f t="shared" si="11"/>
-        <v>401475000</v>
+        <v>373650000</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -19525,7 +19560,7 @@
       </c>
       <c r="G101" s="37">
         <f t="shared" si="7"/>
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="H101" s="37">
         <f t="shared" si="8"/>
@@ -19533,11 +19568,11 @@
       </c>
       <c r="I101" s="11">
         <f t="shared" si="9"/>
-        <v>19117670</v>
+        <v>17713925</v>
       </c>
       <c r="J101" s="54">
         <f t="shared" si="10"/>
-        <v>19117670</v>
+        <v>17713925</v>
       </c>
       <c r="K101" s="54">
         <f t="shared" si="11"/>
@@ -19566,7 +19601,7 @@
       </c>
       <c r="G102" s="37">
         <f t="shared" si="7"/>
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="H102" s="37">
         <f t="shared" si="8"/>
@@ -19574,7 +19609,7 @@
       </c>
       <c r="I102" s="11">
         <f t="shared" si="9"/>
-        <v>849000000</v>
+        <v>786000000</v>
       </c>
       <c r="J102" s="54">
         <f t="shared" si="10"/>
@@ -19582,7 +19617,7 @@
       </c>
       <c r="K102" s="54">
         <f t="shared" si="11"/>
-        <v>849000000</v>
+        <v>786000000</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -19607,7 +19642,7 @@
       </c>
       <c r="G103" s="37">
         <f t="shared" si="7"/>
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="H103" s="37">
         <f t="shared" si="8"/>
@@ -19615,11 +19650,11 @@
       </c>
       <c r="I103" s="11">
         <f t="shared" si="9"/>
-        <v>-277000000</v>
+        <v>-256000000</v>
       </c>
       <c r="J103" s="54">
         <f t="shared" si="10"/>
-        <v>-277000000</v>
+        <v>-256000000</v>
       </c>
       <c r="K103" s="54">
         <f t="shared" si="11"/>
@@ -19648,7 +19683,7 @@
       </c>
       <c r="G104" s="37">
         <f t="shared" si="7"/>
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="H104" s="37">
         <f t="shared" si="8"/>
@@ -19656,11 +19691,11 @@
       </c>
       <c r="I104" s="11">
         <f t="shared" si="9"/>
-        <v>798000000</v>
+        <v>735000000</v>
       </c>
       <c r="J104" s="54">
         <f t="shared" si="10"/>
-        <v>798000000</v>
+        <v>735000000</v>
       </c>
       <c r="K104" s="54">
         <f t="shared" si="11"/>
@@ -19689,7 +19724,7 @@
       </c>
       <c r="G105" s="37">
         <f t="shared" si="7"/>
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="H105" s="37">
         <f t="shared" si="8"/>
@@ -19697,11 +19732,11 @@
       </c>
       <c r="I105" s="11">
         <f t="shared" si="9"/>
-        <v>296800000</v>
+        <v>273280000</v>
       </c>
       <c r="J105" s="54">
         <f t="shared" si="10"/>
-        <v>296800000</v>
+        <v>273280000</v>
       </c>
       <c r="K105" s="54">
         <f t="shared" si="11"/>
@@ -19730,7 +19765,7 @@
       </c>
       <c r="G106" s="37">
         <f t="shared" si="7"/>
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="H106" s="37">
         <f t="shared" si="8"/>
@@ -19738,7 +19773,7 @@
       </c>
       <c r="I106" s="11">
         <f t="shared" si="9"/>
-        <v>-798000000</v>
+        <v>-735000000</v>
       </c>
       <c r="J106" s="54">
         <f t="shared" si="10"/>
@@ -19746,7 +19781,7 @@
       </c>
       <c r="K106" s="54">
         <f t="shared" si="11"/>
-        <v>-798000000</v>
+        <v>-735000000</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -19771,7 +19806,7 @@
       </c>
       <c r="G107" s="37">
         <f t="shared" si="7"/>
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="H107" s="37">
         <f t="shared" si="8"/>
@@ -19779,15 +19814,15 @@
       </c>
       <c r="I107" s="11">
         <f t="shared" si="9"/>
-        <v>23166464</v>
+        <v>21266090</v>
       </c>
       <c r="J107" s="54">
         <f t="shared" si="10"/>
-        <v>19229440</v>
+        <v>17652025</v>
       </c>
       <c r="K107" s="54">
         <f t="shared" si="11"/>
-        <v>3937024</v>
+        <v>3614065</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -19812,7 +19847,7 @@
       </c>
       <c r="G108" s="37">
         <f t="shared" si="7"/>
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="H108" s="37">
         <f t="shared" si="8"/>
@@ -19820,7 +19855,7 @@
       </c>
       <c r="I108" s="11">
         <f t="shared" si="9"/>
-        <v>-433678500</v>
+        <v>-397963800</v>
       </c>
       <c r="J108" s="54">
         <f t="shared" si="10"/>
@@ -19828,7 +19863,7 @@
       </c>
       <c r="K108" s="54">
         <f t="shared" si="11"/>
-        <v>-433678500</v>
+        <v>-397963800</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -19853,7 +19888,7 @@
       </c>
       <c r="G109" s="37">
         <f t="shared" si="7"/>
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="H109" s="37">
         <f t="shared" si="8"/>
@@ -19861,7 +19896,7 @@
       </c>
       <c r="I109" s="11">
         <f t="shared" si="9"/>
-        <v>-251125500</v>
+        <v>-230115000</v>
       </c>
       <c r="J109" s="54">
         <f t="shared" si="10"/>
@@ -19869,7 +19904,7 @@
       </c>
       <c r="K109" s="54">
         <f t="shared" si="11"/>
-        <v>-251125500</v>
+        <v>-230115000</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -19894,7 +19929,7 @@
       </c>
       <c r="G110" s="37">
         <f t="shared" si="7"/>
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="H110" s="37">
         <f t="shared" si="8"/>
@@ -19902,7 +19937,7 @@
       </c>
       <c r="I110" s="11">
         <f t="shared" si="9"/>
-        <v>4940000000</v>
+        <v>4520000000</v>
       </c>
       <c r="J110" s="54">
         <f t="shared" si="10"/>
@@ -19910,7 +19945,7 @@
       </c>
       <c r="K110" s="54">
         <f t="shared" si="11"/>
-        <v>4940000000</v>
+        <v>4520000000</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -19935,7 +19970,7 @@
       </c>
       <c r="G111" s="37">
         <f t="shared" si="7"/>
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="H111" s="37">
         <f t="shared" si="8"/>
@@ -19943,15 +19978,15 @@
       </c>
       <c r="I111" s="11">
         <f t="shared" si="9"/>
-        <v>39651906</v>
+        <v>35983668</v>
       </c>
       <c r="J111" s="54">
         <f t="shared" si="10"/>
-        <v>19831401</v>
+        <v>17996778</v>
       </c>
       <c r="K111" s="54">
         <f t="shared" si="11"/>
-        <v>19820505</v>
+        <v>17986890</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -19976,7 +20011,7 @@
       </c>
       <c r="G112" s="37">
         <f t="shared" si="7"/>
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="H112" s="37">
         <f t="shared" si="8"/>
@@ -19984,7 +20019,7 @@
       </c>
       <c r="I112" s="11">
         <f t="shared" si="9"/>
-        <v>-6020800000</v>
+        <v>-5424400000</v>
       </c>
       <c r="J112" s="54">
         <f t="shared" si="10"/>
@@ -19992,7 +20027,7 @@
       </c>
       <c r="K112" s="54">
         <f t="shared" si="11"/>
-        <v>-6020800000</v>
+        <v>-5424400000</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -20017,7 +20052,7 @@
       </c>
       <c r="G113" s="37">
         <f t="shared" si="7"/>
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="H113" s="37">
         <f t="shared" si="8"/>
@@ -20025,15 +20060,15 @@
       </c>
       <c r="I113" s="11">
         <f t="shared" si="9"/>
-        <v>31955840</v>
+        <v>28532000</v>
       </c>
       <c r="J113" s="54">
         <f t="shared" si="10"/>
-        <v>24012156</v>
+        <v>21439425</v>
       </c>
       <c r="K113" s="54">
         <f t="shared" si="11"/>
-        <v>7943684</v>
+        <v>7092575</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -20058,7 +20093,7 @@
       </c>
       <c r="G114" s="37">
         <f t="shared" si="7"/>
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="H114" s="37">
         <f t="shared" si="8"/>
@@ -20066,15 +20101,15 @@
       </c>
       <c r="I114" s="11">
         <f t="shared" si="9"/>
-        <v>-1122900</v>
+        <v>-1003200</v>
       </c>
       <c r="J114" s="54">
         <f t="shared" si="10"/>
-        <v>-492500</v>
+        <v>-440000</v>
       </c>
       <c r="K114" s="54">
         <f t="shared" si="11"/>
-        <v>-630400</v>
+        <v>-563200</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -20099,7 +20134,7 @@
       </c>
       <c r="G115" s="37">
         <f t="shared" si="7"/>
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="H115" s="37">
         <f t="shared" si="8"/>
@@ -20111,11 +20146,11 @@
       </c>
       <c r="J115" s="54">
         <f t="shared" si="10"/>
-        <v>92000000</v>
+        <v>81500000</v>
       </c>
       <c r="K115" s="54">
         <f t="shared" si="11"/>
-        <v>-92000000</v>
+        <v>-81500000</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -20140,7 +20175,7 @@
       </c>
       <c r="G116" s="37">
         <f t="shared" si="7"/>
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="H116" s="37">
         <f t="shared" si="8"/>
@@ -20148,7 +20183,7 @@
       </c>
       <c r="I116" s="11">
         <f t="shared" si="9"/>
-        <v>-28160000</v>
+        <v>-24800000</v>
       </c>
       <c r="J116" s="54">
         <f t="shared" si="10"/>
@@ -20156,7 +20191,7 @@
       </c>
       <c r="K116" s="54">
         <f t="shared" si="11"/>
-        <v>-28160000</v>
+        <v>-24800000</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -20181,7 +20216,7 @@
       </c>
       <c r="G117" s="37">
         <f t="shared" si="7"/>
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="H117" s="37">
         <f t="shared" si="8"/>
@@ -20189,15 +20224,15 @@
       </c>
       <c r="I117" s="11">
         <f t="shared" si="9"/>
-        <v>245680</v>
+        <v>214600</v>
       </c>
       <c r="J117" s="54">
         <f t="shared" si="10"/>
-        <v>17752206</v>
+        <v>15506445</v>
       </c>
       <c r="K117" s="54">
         <f t="shared" si="11"/>
-        <v>-17506526</v>
+        <v>-15291845</v>
       </c>
       <c r="N117" s="3"/>
     </row>
@@ -20223,7 +20258,7 @@
       </c>
       <c r="G118" s="37">
         <f t="shared" si="7"/>
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="H118" s="37">
         <f t="shared" si="8"/>
@@ -20231,7 +20266,7 @@
       </c>
       <c r="I118" s="11">
         <f t="shared" si="9"/>
-        <v>5673528000</v>
+        <v>4846138500</v>
       </c>
       <c r="J118" s="54">
         <f t="shared" si="10"/>
@@ -20239,7 +20274,7 @@
       </c>
       <c r="K118" s="54">
         <f t="shared" si="11"/>
-        <v>5673528000</v>
+        <v>4846138500</v>
       </c>
       <c r="O118" s="7"/>
     </row>
@@ -20265,7 +20300,7 @@
       </c>
       <c r="G119" s="37">
         <f t="shared" si="7"/>
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H119" s="37">
         <f t="shared" si="8"/>
@@ -20273,15 +20308,15 @@
       </c>
       <c r="I119" s="11">
         <f t="shared" si="9"/>
-        <v>12895335</v>
+        <v>10889394</v>
       </c>
       <c r="J119" s="54">
         <f t="shared" si="10"/>
-        <v>14857290</v>
+        <v>12546156</v>
       </c>
       <c r="K119" s="54">
         <f t="shared" si="11"/>
-        <v>-1961955</v>
+        <v>-1656762</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -20306,7 +20341,7 @@
       </c>
       <c r="G120" s="37">
         <f t="shared" si="7"/>
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H120" s="11">
         <f t="shared" si="8"/>
@@ -20314,7 +20349,7 @@
       </c>
       <c r="I120" s="11">
         <f t="shared" ref="I120:I142" si="13">B120*(G120-H120)</f>
-        <v>262000000</v>
+        <v>220000000</v>
       </c>
       <c r="J120" s="11">
         <f t="shared" si="10"/>
@@ -20322,7 +20357,7 @@
       </c>
       <c r="K120" s="11">
         <f t="shared" si="11"/>
-        <v>262000000</v>
+        <v>220000000</v>
       </c>
       <c r="N120" s="7"/>
     </row>
@@ -20348,7 +20383,7 @@
       </c>
       <c r="G121" s="37">
         <f t="shared" si="7"/>
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H121" s="11">
         <f t="shared" si="8"/>
@@ -20356,7 +20391,7 @@
       </c>
       <c r="I121" s="11">
         <f t="shared" si="13"/>
-        <v>273000000</v>
+        <v>218400000</v>
       </c>
       <c r="J121" s="11">
         <f t="shared" si="10"/>
@@ -20364,7 +20399,7 @@
       </c>
       <c r="K121" s="11">
         <f t="shared" si="11"/>
-        <v>273000000</v>
+        <v>218400000</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
@@ -20389,7 +20424,7 @@
       </c>
       <c r="G122" s="37">
         <f t="shared" si="7"/>
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="H122" s="11">
         <f t="shared" si="8"/>
@@ -20397,15 +20432,15 @@
       </c>
       <c r="I122" s="11">
         <f t="shared" si="13"/>
-        <v>39993304</v>
+        <v>31917733</v>
       </c>
       <c r="J122" s="11">
         <f t="shared" si="10"/>
-        <v>11534432</v>
+        <v>9205364</v>
       </c>
       <c r="K122" s="11">
         <f t="shared" si="11"/>
-        <v>28458872</v>
+        <v>22712369</v>
       </c>
       <c r="N122" t="s">
         <v>25</v>
@@ -20433,7 +20468,7 @@
       </c>
       <c r="G123" s="37">
         <f t="shared" si="7"/>
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="H123" s="11">
         <f t="shared" si="8"/>
@@ -20445,11 +20480,11 @@
       </c>
       <c r="J123" s="11">
         <f t="shared" si="10"/>
-        <v>83200000</v>
+        <v>66400000</v>
       </c>
       <c r="K123" s="11">
         <f t="shared" si="11"/>
-        <v>-83200000</v>
+        <v>-66400000</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
@@ -20474,7 +20509,7 @@
       </c>
       <c r="G124" s="37">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="H124" s="11">
         <f t="shared" si="8"/>
@@ -20482,7 +20517,7 @@
       </c>
       <c r="I124" s="11">
         <f t="shared" si="13"/>
-        <v>-270000000</v>
+        <v>-207000000</v>
       </c>
       <c r="J124" s="11">
         <f t="shared" si="10"/>
@@ -20490,7 +20525,7 @@
       </c>
       <c r="K124" s="11">
         <f t="shared" si="11"/>
-        <v>-270000000</v>
+        <v>-207000000</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -20515,7 +20550,7 @@
       </c>
       <c r="G125" s="37">
         <f t="shared" si="7"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="H125" s="11">
         <f t="shared" si="8"/>
@@ -20523,15 +20558,15 @@
       </c>
       <c r="I125" s="11">
         <f t="shared" si="13"/>
-        <v>29652540</v>
+        <v>21237630</v>
       </c>
       <c r="J125" s="11">
         <f t="shared" si="10"/>
-        <v>8796750</v>
+        <v>6300375</v>
       </c>
       <c r="K125" s="11">
         <f t="shared" si="11"/>
-        <v>20855790</v>
+        <v>14937255</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
@@ -20556,7 +20591,7 @@
       </c>
       <c r="G126" s="37">
         <f t="shared" si="7"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="H126" s="11">
         <f t="shared" si="8"/>
@@ -20564,7 +20599,7 @@
       </c>
       <c r="I126" s="11">
         <f t="shared" si="13"/>
-        <v>3108000000</v>
+        <v>2226000000</v>
       </c>
       <c r="J126" s="11">
         <f t="shared" si="10"/>
@@ -20572,7 +20607,7 @@
       </c>
       <c r="K126" s="11">
         <f t="shared" si="11"/>
-        <v>3108000000</v>
+        <v>2226000000</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
@@ -20597,7 +20632,7 @@
       </c>
       <c r="G127" s="37">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H127" s="11">
         <f t="shared" si="8"/>
@@ -20605,7 +20640,7 @@
       </c>
       <c r="I127" s="11">
         <f t="shared" si="13"/>
-        <v>-250000</v>
+        <v>-145000</v>
       </c>
       <c r="J127" s="11">
         <f t="shared" si="10"/>
@@ -20613,7 +20648,7 @@
       </c>
       <c r="K127" s="11">
         <f t="shared" si="11"/>
-        <v>-250000</v>
+        <v>-145000</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
@@ -20638,7 +20673,7 @@
       </c>
       <c r="G128" s="37">
         <f t="shared" si="7"/>
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H128" s="11">
         <f t="shared" si="8"/>
@@ -20646,15 +20681,15 @@
       </c>
       <c r="I128" s="11">
         <f t="shared" si="13"/>
-        <v>33169082</v>
+        <v>16970228</v>
       </c>
       <c r="J128" s="11">
         <f t="shared" si="10"/>
-        <v>5189971</v>
+        <v>2655334</v>
       </c>
       <c r="K128" s="11">
         <f t="shared" si="11"/>
-        <v>27979111</v>
+        <v>14314894</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -20675,11 +20710,11 @@
         <v>734</v>
       </c>
       <c r="F129" s="11">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G129" s="37">
         <f t="shared" si="7"/>
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H129" s="11">
         <f t="shared" si="8"/>
@@ -20687,7 +20722,7 @@
       </c>
       <c r="I129" s="11">
         <f t="shared" si="13"/>
-        <v>100000000</v>
+        <v>47500000</v>
       </c>
       <c r="J129" s="11">
         <f t="shared" si="10"/>
@@ -20695,19 +20730,32 @@
       </c>
       <c r="K129" s="11">
         <f t="shared" si="11"/>
-        <v>100000000</v>
+        <v>47500000</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="11"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
+      <c r="A130" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="B130" s="18">
+        <v>-50000000</v>
+      </c>
+      <c r="C130" s="18">
+        <v>0</v>
+      </c>
+      <c r="D130" s="18">
+        <f t="shared" si="12"/>
+        <v>-50000000</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="F130" s="11">
+        <v>1</v>
+      </c>
       <c r="G130" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" s="11">
         <f t="shared" si="8"/>
@@ -20715,7 +20763,7 @@
       </c>
       <c r="I130" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-50000000</v>
       </c>
       <c r="J130" s="11">
         <f t="shared" si="10"/>
@@ -20723,16 +20771,29 @@
       </c>
       <c r="K130" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-50000000</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="11"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
+      <c r="A131" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="B131" s="18">
+        <v>0</v>
+      </c>
+      <c r="C131" s="18">
+        <v>0</v>
+      </c>
+      <c r="D131" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="F131" s="11">
+        <v>0</v>
+      </c>
       <c r="G131" s="37">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -21074,7 +21135,7 @@
       <c r="A143" s="11"/>
       <c r="B143" s="29">
         <f>SUM(B2:B142)</f>
-        <v>87203482</v>
+        <v>37203482</v>
       </c>
       <c r="C143" s="29">
         <f>SUM(C2:C141)</f>
@@ -21082,7 +21143,7 @@
       </c>
       <c r="D143" s="29">
         <f>SUM(D2:D141)</f>
-        <v>74159484</v>
+        <v>24159484</v>
       </c>
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
@@ -21090,15 +21151,15 @@
       <c r="H143" s="11"/>
       <c r="I143" s="29">
         <f>SUM(I2:I142)</f>
-        <v>14589901451</v>
+        <v>12708628329</v>
       </c>
       <c r="J143" s="29">
         <f>SUM(J2:J142)</f>
-        <v>5446213673</v>
+        <v>5172289715</v>
       </c>
       <c r="K143" s="29">
         <f>SUM(K2:K142)</f>
-        <v>9143687778</v>
+        <v>7536338614</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -21150,15 +21211,15 @@
       <c r="H146" s="11"/>
       <c r="I146" s="3">
         <f>I143/G2</f>
-        <v>25373741.653913043</v>
+        <v>22939762.326714803</v>
       </c>
       <c r="J146" s="29">
         <f>J143/G2</f>
-        <v>9471675.9530434776</v>
+        <v>9336263.0234657042</v>
       </c>
       <c r="K146" s="29">
         <f>K143/G2</f>
-        <v>15902065.700869566</v>
+        <v>13603499.303249098</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -21183,11 +21244,11 @@
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J150">
         <f>J143/I143*1448696</f>
-        <v>540778.70160525513</v>
+        <v>589605.36314238445</v>
       </c>
       <c r="K150">
         <f>K143/I143*1448696</f>
-        <v>907917.29839474475</v>
+        <v>859090.63685761543</v>
       </c>
     </row>
   </sheetData>
@@ -28414,9 +28475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28493,7 +28554,7 @@
       </c>
       <c r="E2" s="11">
         <f>D2+E3</f>
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="F2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -28501,7 +28562,7 @@
       </c>
       <c r="G2" s="11">
         <f>B2*(E2-F2)</f>
-        <v>14850000</v>
+        <v>17050000</v>
       </c>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
@@ -28535,7 +28596,7 @@
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="0">D3+E4</f>
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F38" si="1">IF(B3&gt;0,1,0)</f>
@@ -28543,7 +28604,7 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G23" si="2">B3*(E3-F3)</f>
-        <v>879000000</v>
+        <v>1011000000</v>
       </c>
       <c r="J3" s="25"/>
       <c r="K3" s="26"/>
@@ -28577,7 +28638,7 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="1"/>
@@ -28585,7 +28646,7 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="2"/>
-        <v>876000000</v>
+        <v>1008000000</v>
       </c>
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
@@ -28612,7 +28673,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
@@ -28620,7 +28681,7 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="2"/>
-        <v>4380000000</v>
+        <v>5040000000</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -28659,7 +28720,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
@@ -28667,7 +28728,7 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="2"/>
-        <v>873000000</v>
+        <v>1005000000</v>
       </c>
       <c r="K6" t="s">
         <v>288</v>
@@ -28706,7 +28767,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
@@ -28714,7 +28775,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="2"/>
-        <v>-873000000</v>
+        <v>-1005000000</v>
       </c>
       <c r="K7" t="s">
         <v>289</v>
@@ -28756,7 +28817,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
@@ -28764,7 +28825,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="2"/>
-        <v>-58200000</v>
+        <v>-67000000</v>
       </c>
       <c r="K8" t="s">
         <v>290</v>
@@ -28806,7 +28867,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
@@ -28814,7 +28875,7 @@
       </c>
       <c r="G9" s="11">
         <f>B9*(E9-F9)</f>
-        <v>870000000</v>
+        <v>1002000000</v>
       </c>
       <c r="K9" t="s">
         <v>291</v>
@@ -28856,7 +28917,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
@@ -28864,7 +28925,7 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="2"/>
-        <v>867000000</v>
+        <v>999000000</v>
       </c>
       <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
@@ -28891,7 +28952,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
@@ -28899,7 +28960,7 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="2"/>
-        <v>7225000000</v>
+        <v>8325000000</v>
       </c>
       <c r="K11" t="s">
         <v>296</v>
@@ -28932,7 +28993,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="1"/>
@@ -28940,7 +29001,7 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="2"/>
-        <v>285522380</v>
+        <v>329448900</v>
       </c>
       <c r="K12" t="s">
         <v>297</v>
@@ -28973,7 +29034,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
@@ -28981,7 +29042,7 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="2"/>
-        <v>858000000</v>
+        <v>990000000</v>
       </c>
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
@@ -29008,7 +29069,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
@@ -29016,7 +29077,7 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="2"/>
-        <v>340653456</v>
+        <v>393061680</v>
       </c>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
@@ -29043,7 +29104,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="1"/>
@@ -29051,7 +29112,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>548000000</v>
+        <v>636000000</v>
       </c>
       <c r="U15" s="25"/>
       <c r="V15" s="26"/>
@@ -29074,7 +29135,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="1"/>
@@ -29082,7 +29143,7 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="2"/>
-        <v>786000000</v>
+        <v>918000000</v>
       </c>
       <c r="U16" s="25"/>
       <c r="V16" s="26"/>
@@ -29105,7 +29166,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
@@ -29113,7 +29174,7 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="2"/>
-        <v>783000000</v>
+        <v>915000000</v>
       </c>
       <c r="U17" s="25"/>
       <c r="V17" s="26"/>
@@ -29136,7 +29197,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="1"/>
@@ -29144,7 +29205,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="2"/>
-        <v>494000000</v>
+        <v>577600000</v>
       </c>
       <c r="U18" s="25"/>
       <c r="V18" s="26"/>
@@ -29169,7 +29230,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
@@ -29177,7 +29238,7 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="2"/>
-        <v>197105685</v>
+        <v>232504257</v>
       </c>
       <c r="U19" s="25"/>
       <c r="V19" s="26"/>
@@ -29202,7 +29263,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
@@ -29210,7 +29271,7 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="2"/>
-        <v>732000000</v>
+        <v>864000000</v>
       </c>
       <c r="U20" s="25"/>
       <c r="V20" s="26"/>
@@ -29235,7 +29296,7 @@
       </c>
       <c r="E21" s="11">
         <f>D21+E22</f>
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
@@ -29243,7 +29304,7 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="2"/>
-        <v>119000000</v>
+        <v>141000000</v>
       </c>
       <c r="U21" s="25"/>
       <c r="V21" s="26"/>
@@ -29268,7 +29329,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
@@ -29276,7 +29337,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="2"/>
-        <v>-675000000</v>
+        <v>-807000000</v>
       </c>
       <c r="U22" s="25"/>
       <c r="V22" s="26"/>
@@ -29301,7 +29362,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
@@ -29309,7 +29370,7 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="2"/>
-        <v>648000000</v>
+        <v>780000000</v>
       </c>
       <c r="U23" s="25"/>
       <c r="V23" s="26"/>
@@ -29334,7 +29395,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
@@ -29342,7 +29403,7 @@
       </c>
       <c r="G24" s="11">
         <f>B24*(E24-F24)</f>
-        <v>136262088</v>
+        <v>164019180</v>
       </c>
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
@@ -29367,7 +29428,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
@@ -29375,7 +29436,7 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" ref="G25:G30" si="3">B25*(E25-F25)</f>
-        <v>-688193500</v>
+        <v>-829033100</v>
       </c>
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
@@ -29400,7 +29461,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
@@ -29408,7 +29469,7 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="3"/>
-        <v>-639191700</v>
+        <v>-771231300</v>
       </c>
       <c r="U26" s="25"/>
       <c r="V26" s="25"/>
@@ -29433,7 +29494,7 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
@@ -29441,7 +29502,7 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="3"/>
-        <v>210000000</v>
+        <v>254000000</v>
       </c>
       <c r="U27" s="25"/>
       <c r="V27" s="25"/>
@@ -29466,7 +29527,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
@@ -29474,7 +29535,7 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="3"/>
-        <v>1260000000</v>
+        <v>1524000000</v>
       </c>
       <c r="U28" s="25"/>
       <c r="V28" s="25"/>
@@ -29499,7 +29560,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
@@ -29507,7 +29568,7 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="3"/>
-        <v>1218000000</v>
+        <v>1473200000</v>
       </c>
       <c r="U29" s="25"/>
       <c r="V29" s="28"/>
@@ -29532,7 +29593,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
@@ -29540,7 +29601,7 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="3"/>
-        <v>-1055000</v>
+        <v>-1275000</v>
       </c>
       <c r="U30" s="25"/>
       <c r="V30" s="25"/>
@@ -29565,7 +29626,7 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
@@ -29573,7 +29634,7 @@
       </c>
       <c r="G31" s="11">
         <f>B31*(E31-F31)</f>
-        <v>-5460000000</v>
+        <v>-6604000000</v>
       </c>
       <c r="U31" s="25"/>
       <c r="V31" s="25"/>
@@ -29598,7 +29659,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
@@ -29606,7 +29667,7 @@
       </c>
       <c r="G32" s="11">
         <f>B32*(E32-F32)</f>
-        <v>-5449600000</v>
+        <v>-6602400000</v>
       </c>
       <c r="U32" s="25"/>
       <c r="V32" s="25"/>
@@ -29631,7 +29692,7 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
@@ -29639,7 +29700,7 @@
       </c>
       <c r="G33" s="11">
         <f>B33*(E33-F33)</f>
-        <v>61476940</v>
+        <v>75865160</v>
       </c>
       <c r="U33" s="25"/>
       <c r="V33" s="25"/>
@@ -29664,7 +29725,7 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
@@ -29672,7 +29733,7 @@
       </c>
       <c r="G34" s="11">
         <f t="shared" ref="G34:G89" si="4">B34*(E34-F34)</f>
-        <v>4828000000</v>
+        <v>6077600000</v>
       </c>
       <c r="V34" s="25"/>
       <c r="W34" s="26"/>
@@ -29693,7 +29754,7 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
@@ -29701,7 +29762,7 @@
       </c>
       <c r="G35" s="12">
         <f t="shared" si="4"/>
-        <v>1870000000</v>
+        <v>2354000000</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -29719,7 +29780,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="1"/>
@@ -29727,7 +29788,7 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="4"/>
-        <v>64898655</v>
+        <v>83321499</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -29745,7 +29806,7 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
@@ -29753,7 +29814,7 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="4"/>
-        <v>-140400</v>
+        <v>-180000</v>
       </c>
       <c r="J37" s="62"/>
     </row>
@@ -29772,7 +29833,7 @@
       </c>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="1"/>
@@ -29780,7 +29841,7 @@
       </c>
       <c r="G38" s="12">
         <f t="shared" si="4"/>
-        <v>308000000</v>
+        <v>396000000</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -29800,7 +29861,7 @@
       </c>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="F39" s="11">
         <f>IF(B39&gt;0,1,0)</f>
@@ -29808,7 +29869,7 @@
       </c>
       <c r="G39" s="11">
         <f t="shared" si="4"/>
-        <v>308000000</v>
+        <v>396000000</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -29826,7 +29887,7 @@
       </c>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="F40" s="11">
         <f>IF(B40&gt;0,1,0)</f>
@@ -29834,7 +29895,7 @@
       </c>
       <c r="G40" s="11">
         <f t="shared" si="4"/>
-        <v>-28200000</v>
+        <v>-37000000</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -29852,7 +29913,7 @@
       </c>
       <c r="E41" s="11">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="F41" s="11">
         <f>IF(B41&gt;0,1,0)</f>
@@ -29860,7 +29921,7 @@
       </c>
       <c r="G41" s="11">
         <f t="shared" si="4"/>
-        <v>-87420000</v>
+        <v>-114700000</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -29878,7 +29939,7 @@
       </c>
       <c r="E42" s="11">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="F42" s="11">
         <f t="shared" ref="F42:F89" si="5">IF(B42&gt;0,1,0)</f>
@@ -29886,7 +29947,7 @@
       </c>
       <c r="G42" s="11">
         <f t="shared" si="4"/>
-        <v>-16920000</v>
+        <v>-22200000</v>
       </c>
       <c r="J42" s="7"/>
     </row>
@@ -29905,7 +29966,7 @@
       </c>
       <c r="E43" s="11">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="5"/>
@@ -29913,7 +29974,7 @@
       </c>
       <c r="G43" s="11">
         <f t="shared" si="4"/>
-        <v>89700000</v>
+        <v>118300000</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -29931,7 +29992,7 @@
       </c>
       <c r="E44" s="11">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="5"/>
@@ -29939,7 +30000,7 @@
       </c>
       <c r="G44" s="11">
         <f t="shared" si="4"/>
-        <v>-695000</v>
+        <v>-915000</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -29957,7 +30018,7 @@
       </c>
       <c r="E45" s="11">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="5"/>
@@ -29965,7 +30026,7 @@
       </c>
       <c r="G45" s="11">
         <f t="shared" si="4"/>
-        <v>4002000000</v>
+        <v>5278000000</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -29983,7 +30044,7 @@
       </c>
       <c r="E46" s="11">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="5"/>
@@ -29991,7 +30052,7 @@
       </c>
       <c r="G46" s="11">
         <f t="shared" si="4"/>
-        <v>-27000000</v>
+        <v>-35800000</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -30009,7 +30070,7 @@
       </c>
       <c r="E47" s="11">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="5"/>
@@ -30017,7 +30078,7 @@
       </c>
       <c r="G47" s="11">
         <f t="shared" si="4"/>
-        <v>-26400000</v>
+        <v>-35200000</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
@@ -30035,7 +30096,7 @@
       </c>
       <c r="E48" s="11">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="5"/>
@@ -30043,7 +30104,7 @@
       </c>
       <c r="G48" s="11">
         <f t="shared" si="4"/>
-        <v>-26200000</v>
+        <v>-35000000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -30061,7 +30122,7 @@
       </c>
       <c r="E49" s="11">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="5"/>
@@ -30069,7 +30130,7 @@
       </c>
       <c r="G49" s="11">
         <f t="shared" si="4"/>
-        <v>375000000</v>
+        <v>507000000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -30087,7 +30148,7 @@
       </c>
       <c r="E50" s="11">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="5"/>
@@ -30095,7 +30156,7 @@
       </c>
       <c r="G50" s="12">
         <f t="shared" si="4"/>
-        <v>375000000</v>
+        <v>507000000</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -30113,7 +30174,7 @@
       </c>
       <c r="E51" s="11">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="5"/>
@@ -30121,7 +30182,7 @@
       </c>
       <c r="G51" s="11">
         <f t="shared" si="4"/>
-        <v>94958828</v>
+        <v>128653896</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -30139,7 +30200,7 @@
       </c>
       <c r="E52" s="11">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="5"/>
@@ -30147,7 +30208,7 @@
       </c>
       <c r="G52" s="11">
         <f t="shared" si="4"/>
-        <v>-25000000</v>
+        <v>-33800000</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -30165,7 +30226,7 @@
       </c>
       <c r="E53" s="11">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="5"/>
@@ -30173,7 +30234,7 @@
       </c>
       <c r="G53" s="11">
         <f t="shared" si="4"/>
-        <v>-47259000</v>
+        <v>-64881000</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -30191,7 +30252,7 @@
       </c>
       <c r="E54" s="11">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="5"/>
@@ -30199,7 +30260,7 @@
       </c>
       <c r="G54" s="11">
         <f t="shared" si="4"/>
-        <v>-109043164</v>
+        <v>-153060588</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -30217,7 +30278,7 @@
       </c>
       <c r="E55" s="11">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="5"/>
@@ -30225,7 +30286,7 @@
       </c>
       <c r="G55" s="11">
         <f t="shared" si="4"/>
-        <v>-4120000000</v>
+        <v>-5880000000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -30243,7 +30304,7 @@
       </c>
       <c r="E56" s="11">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="5"/>
@@ -30251,7 +30312,7 @@
       </c>
       <c r="G56" s="11">
         <f t="shared" si="4"/>
-        <v>80505636</v>
+        <v>118594324</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -30269,7 +30330,7 @@
       </c>
       <c r="E57" s="11">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="F57" s="11">
         <f t="shared" si="5"/>
@@ -30277,7 +30338,7 @@
       </c>
       <c r="G57" s="11">
         <f t="shared" si="4"/>
-        <v>-3363400000</v>
+        <v>-5572200000</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -30295,7 +30356,7 @@
       </c>
       <c r="E58" s="11">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="F58" s="11">
         <f t="shared" si="5"/>
@@ -30303,7 +30364,7 @@
       </c>
       <c r="G58" s="11">
         <f t="shared" si="4"/>
-        <v>-805233000</v>
+        <v>-1342055000</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -30321,7 +30382,7 @@
       </c>
       <c r="E59" s="11">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="F59" s="11">
         <f t="shared" si="5"/>
@@ -30329,7 +30390,7 @@
       </c>
       <c r="G59" s="11">
         <f t="shared" si="4"/>
-        <v>33164172</v>
+        <v>56700036</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -30347,7 +30408,7 @@
       </c>
       <c r="E60" s="11">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="F60" s="11">
         <f t="shared" si="5"/>
@@ -30355,7 +30416,7 @@
       </c>
       <c r="G60" s="11">
         <f t="shared" si="4"/>
-        <v>-20956000</v>
+        <v>-35828000</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -30373,7 +30434,7 @@
       </c>
       <c r="E61" s="11">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F61" s="11">
         <f t="shared" si="5"/>
@@ -30381,7 +30442,7 @@
       </c>
       <c r="G61" s="11">
         <f t="shared" si="4"/>
-        <v>-9000000</v>
+        <v>-15600000</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -30399,7 +30460,7 @@
       </c>
       <c r="E62" s="11">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="F62" s="11">
         <f t="shared" si="5"/>
@@ -30407,7 +30468,7 @@
       </c>
       <c r="G62" s="11">
         <f t="shared" si="4"/>
-        <v>-5600000</v>
+        <v>-10000000</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -30425,7 +30486,7 @@
       </c>
       <c r="E63" s="11">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="F63" s="11">
         <f t="shared" si="5"/>
@@ -30433,7 +30494,7 @@
       </c>
       <c r="G63" s="11">
         <f t="shared" si="4"/>
-        <v>-10400000</v>
+        <v>-19200000</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -30451,7 +30512,7 @@
       </c>
       <c r="E64" s="11">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="5"/>
@@ -30459,7 +30520,7 @@
       </c>
       <c r="G64" s="11">
         <f t="shared" si="4"/>
-        <v>-4524000</v>
+        <v>-8352000</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -30477,7 +30538,7 @@
       </c>
       <c r="E65" s="11">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="F65" s="11">
         <f t="shared" si="5"/>
@@ -30485,7 +30546,7 @@
       </c>
       <c r="G65" s="11">
         <f t="shared" si="4"/>
-        <v>-1318560</v>
+        <v>-2527240</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -30503,7 +30564,7 @@
       </c>
       <c r="E66" s="11">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="F66" s="11">
         <f t="shared" si="5"/>
@@ -30511,7 +30572,7 @@
       </c>
       <c r="G66" s="11">
         <f t="shared" si="4"/>
-        <v>-15698000</v>
+        <v>-30394000</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -30529,7 +30590,7 @@
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E89" si="6">D67+E68</f>
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="F67" s="11">
         <f t="shared" si="5"/>
@@ -30537,7 +30598,7 @@
       </c>
       <c r="G67" s="11">
         <f t="shared" si="4"/>
-        <v>-840000</v>
+        <v>-1720000</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -30555,7 +30616,7 @@
       </c>
       <c r="E68" s="11">
         <f t="shared" si="6"/>
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
@@ -30563,7 +30624,7 @@
       </c>
       <c r="G68" s="11">
         <f t="shared" si="4"/>
-        <v>-12320500</v>
+        <v>-25542500</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -30581,7 +30642,7 @@
       </c>
       <c r="E69" s="11">
         <f t="shared" si="6"/>
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
@@ -30589,7 +30650,7 @@
       </c>
       <c r="G69" s="11">
         <f t="shared" si="4"/>
-        <v>-4100000</v>
+        <v>-8500000</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -30607,7 +30668,7 @@
       </c>
       <c r="E70" s="11">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
@@ -30615,7 +30676,7 @@
       </c>
       <c r="G70" s="11">
         <f t="shared" si="4"/>
-        <v>-7200000</v>
+        <v>-16000000</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -30633,7 +30694,7 @@
       </c>
       <c r="E71" s="11">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
@@ -30641,7 +30702,7 @@
       </c>
       <c r="G71" s="11">
         <f t="shared" si="4"/>
-        <v>477059</v>
+        <v>1154175</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -30659,7 +30720,7 @@
       </c>
       <c r="E72" s="11">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
@@ -30667,7 +30728,7 @@
       </c>
       <c r="G72" s="11">
         <f t="shared" si="4"/>
-        <v>124000000</v>
+        <v>300000000</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -30685,7 +30746,7 @@
       </c>
       <c r="E73" s="11">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
@@ -30693,7 +30754,7 @@
       </c>
       <c r="G73" s="11">
         <f t="shared" si="4"/>
-        <v>80600000</v>
+        <v>195000000</v>
       </c>
       <c r="J73" t="s">
         <v>25</v>
@@ -30714,7 +30775,7 @@
       </c>
       <c r="E74" s="11">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
@@ -30722,7 +30783,7 @@
       </c>
       <c r="G74" s="11">
         <f t="shared" si="4"/>
-        <v>93000000</v>
+        <v>225000000</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -30740,7 +30801,7 @@
       </c>
       <c r="E75" s="11">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
@@ -30748,7 +30809,7 @@
       </c>
       <c r="G75" s="11">
         <f t="shared" si="4"/>
-        <v>-5800000</v>
+        <v>-14600000</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -30766,7 +30827,7 @@
       </c>
       <c r="E76" s="11">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
@@ -30774,7 +30835,7 @@
       </c>
       <c r="G76" s="11">
         <f t="shared" si="4"/>
-        <v>-52018200</v>
+        <v>-140049000</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -30792,7 +30853,7 @@
       </c>
       <c r="E77" s="11">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
@@ -30800,7 +30861,7 @@
       </c>
       <c r="G77" s="11">
         <f t="shared" si="4"/>
-        <v>-5200000</v>
+        <v>-14000000</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -30818,7 +30879,7 @@
       </c>
       <c r="E78" s="11">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
@@ -30826,7 +30887,7 @@
       </c>
       <c r="G78" s="11">
         <f t="shared" si="4"/>
-        <v>42000000</v>
+        <v>130000000</v>
       </c>
       <c r="J78" t="s">
         <v>25</v>
@@ -30847,7 +30908,7 @@
       </c>
       <c r="E79" s="11">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
@@ -30855,7 +30916,7 @@
       </c>
       <c r="G79" s="11">
         <f t="shared" si="4"/>
-        <v>-14007000</v>
+        <v>-58029000</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -30873,7 +30934,7 @@
       </c>
       <c r="E80" s="11">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
@@ -30881,7 +30942,7 @@
       </c>
       <c r="G80" s="11">
         <f t="shared" si="4"/>
-        <v>-1987300</v>
+        <v>-8233100</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -30899,7 +30960,7 @@
       </c>
       <c r="E81" s="11">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
@@ -30907,7 +30968,7 @@
       </c>
       <c r="G81" s="11">
         <f t="shared" si="4"/>
-        <v>-9905500</v>
+        <v>-49527500</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -30921,11 +30982,11 @@
         <v>722</v>
       </c>
       <c r="D82" s="11">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
@@ -30933,53 +30994,77 @@
       </c>
       <c r="G82" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3575044</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
+      <c r="A83" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="B83" s="39">
+        <v>50000000</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="D83" s="11">
+        <v>1</v>
+      </c>
       <c r="E83" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1100000000</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
+      <c r="A84" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="B84" s="39">
+        <v>30000000</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="D84" s="11">
+        <v>0</v>
+      </c>
       <c r="E84" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>630000000</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
+      <c r="A85" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="B85" s="39">
+        <v>-72500000</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="D85" s="11">
+        <v>22</v>
+      </c>
       <c r="E85" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
@@ -30987,7 +31072,7 @@
       </c>
       <c r="G85" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1595000000</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -31074,7 +31159,7 @@
       <c r="A90" s="11"/>
       <c r="B90" s="29">
         <f>SUM(B2:B89)</f>
-        <v>8078767</v>
+        <v>15578767</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -31082,7 +31167,7 @@
       <c r="F90" s="11"/>
       <c r="G90" s="29">
         <f>SUM(G2:G89)</f>
-        <v>14723149075</v>
+        <v>15213614823</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -31116,7 +31201,7 @@
       <c r="F93" s="11"/>
       <c r="G93" s="3">
         <f>G90/E2</f>
-        <v>49406540.520134225</v>
+        <v>44484253.868421055</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -31151,8 +31236,8 @@
   <dimension ref="A1:L172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31202,7 +31287,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -31210,7 +31295,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>48059900</v>
+        <v>48543400</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -31228,7 +31313,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -31236,7 +31321,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1485000000</v>
+        <v>1500000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -31252,7 +31337,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -31260,7 +31345,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-98600000</v>
+        <v>-99600000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -31276,7 +31361,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -31284,7 +31369,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-49100000</v>
+        <v>-49600000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -31300,7 +31385,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -31308,7 +31393,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-26950000</v>
+        <v>-27225000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -31324,7 +31409,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -31332,7 +31417,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-97800000</v>
+        <v>-98800000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -31348,7 +31433,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -31356,7 +31441,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-97000000</v>
+        <v>-98000000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -31372,7 +31457,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -31380,7 +31465,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-451487500</v>
+        <v>-456240000</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -31396,7 +31481,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -31404,7 +31489,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>946000000</v>
+        <v>956000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -31420,7 +31505,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -31428,7 +31513,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-502680000</v>
+        <v>-508005000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -31444,7 +31529,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -31452,7 +31537,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-21105000</v>
+        <v>-21330000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -31468,7 +31553,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -31476,7 +31561,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-936327600</v>
+        <v>-946331100</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -31492,7 +31577,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -31500,7 +31585,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-92800000</v>
+        <v>-93800000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -31516,7 +31601,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -31524,7 +31609,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>922000000</v>
+        <v>932000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -31540,7 +31625,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -31548,7 +31633,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>922000000</v>
+        <v>932000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -31564,7 +31649,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -31572,7 +31657,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>553200000</v>
+        <v>559200000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -31588,7 +31673,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -31596,7 +31681,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>461000000</v>
+        <v>466000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -31612,7 +31697,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -31620,7 +31705,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1380000000</v>
+        <v>1395000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -31639,7 +31724,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -31647,7 +31732,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-199474700</v>
+        <v>-201638200</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -31663,7 +31748,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -31671,7 +31756,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-199474700</v>
+        <v>-201638200</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -31687,7 +31772,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -31695,7 +31780,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-199474700</v>
+        <v>-201638200</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -31711,7 +31796,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -31719,7 +31804,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-199474700</v>
+        <v>-201638200</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -31735,7 +31820,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -31743,7 +31828,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-199474700</v>
+        <v>-201638200</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -31759,7 +31844,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -31767,7 +31852,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-92200000</v>
+        <v>-93200000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -31783,7 +31868,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -31791,7 +31876,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1377000000</v>
+        <v>1392000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -31807,7 +31892,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -31815,7 +31900,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-91600000</v>
+        <v>-92600000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -31831,7 +31916,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -31839,7 +31924,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>912000000</v>
+        <v>922000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -31855,7 +31940,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -31863,7 +31948,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-3192364800</v>
+        <v>-3227368800</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -31879,7 +31964,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -31887,7 +31972,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1365409500</v>
+        <v>-1380414000</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -31903,7 +31988,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -31911,7 +31996,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-769938600</v>
+        <v>-778418100</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -31927,7 +32012,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -31935,7 +32020,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>447435000</v>
+        <v>452406500</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -31951,7 +32036,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -31959,7 +32044,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>15580404</v>
+        <v>15755859</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>378</v>
@@ -31977,7 +32062,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -31985,7 +32070,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-377400000</v>
+        <v>-381650000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -32001,7 +32086,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -32009,7 +32094,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-83058000</v>
+        <v>-84010500</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -32025,7 +32110,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -32033,7 +32118,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>86800000</v>
+        <v>87800000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -32049,7 +32134,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -32057,7 +32142,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-87000000</v>
+        <v>-88000000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -32073,7 +32158,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -32081,7 +32166,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>123932072</v>
+        <v>125436102</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>398</v>
@@ -32099,7 +32184,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -32107,7 +32192,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-39140000</v>
+        <v>-39615000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -32123,7 +32208,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -32131,7 +32216,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-36298436</v>
+        <v>-36738951</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -32147,7 +32232,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -32155,7 +32240,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-48840000</v>
+        <v>-49440000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -32171,7 +32256,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -32179,7 +32264,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>384078336</v>
+        <v>389079356</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>399</v>
@@ -32197,7 +32282,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -32205,7 +32290,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-30480000</v>
+        <v>-30880000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -32221,7 +32306,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -32229,7 +32314,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-79557933</v>
+        <v>-80613078</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -32245,7 +32330,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -32253,7 +32338,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-75200000</v>
+        <v>-76200000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -32269,7 +32354,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -32277,7 +32362,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-35625000</v>
+        <v>-36100000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -32293,7 +32378,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -32301,7 +32386,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-16785000</v>
+        <v>-17010000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -32317,7 +32402,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -32325,7 +32410,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-23939140</v>
+        <v>-24260040</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -32341,7 +32426,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -32349,7 +32434,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-10169080</v>
+        <v>-10306500</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -32365,7 +32450,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -32373,7 +32458,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-52029000</v>
+        <v>-52734000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -32389,7 +32474,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -32397,7 +32482,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-9869274</v>
+        <v>-10003004</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -32413,7 +32498,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -32421,7 +32506,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-19614400</v>
+        <v>-19880900</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -32437,7 +32522,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -32445,7 +32530,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>366000000</v>
+        <v>371000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -32461,7 +32546,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -32469,7 +32554,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-7581000</v>
+        <v>-7686000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -32485,7 +32570,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -32493,7 +32578,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-352980000</v>
+        <v>-357882500</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -32509,7 +32594,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -32517,7 +32602,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-16200000</v>
+        <v>-16425000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -32533,7 +32618,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -32541,7 +32626,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>1039795394</v>
+        <v>1054821339</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>400</v>
@@ -32559,7 +32644,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -32567,7 +32652,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>692000000</v>
+        <v>702000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -32583,7 +32668,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -32591,7 +32676,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>690000000</v>
+        <v>700000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -32607,7 +32692,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -32615,7 +32700,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-2422519000</v>
+        <v>-2457526500</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -32631,7 +32716,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -32639,7 +32724,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>963000000</v>
+        <v>978000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -32655,7 +32740,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -32663,7 +32748,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-8701989</v>
+        <v>-8837534</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -32679,7 +32764,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -32687,7 +32772,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-10589469</v>
+        <v>-10754414</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -32703,7 +32788,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -32711,7 +32796,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>960000000</v>
+        <v>975000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -32727,7 +32812,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -32735,7 +32820,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>950400000</v>
+        <v>965250000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -32751,7 +32836,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -32759,7 +32844,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>320000000</v>
+        <v>325000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -32775,7 +32860,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -32783,7 +32868,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F158" si="5">B67*(D67-E67)</f>
-        <v>9600000</v>
+        <v>9750000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -32799,7 +32884,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -32807,7 +32892,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>9570000000</v>
+        <v>9720000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -32823,7 +32908,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -32831,7 +32916,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-63800000</v>
+        <v>-64800000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -32847,7 +32932,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -32855,7 +32940,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>445200000</v>
+        <v>452200000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -32871,7 +32956,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -32879,7 +32964,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>826800000</v>
+        <v>839800000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -32895,7 +32980,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -32903,7 +32988,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-319000000</v>
+        <v>-324000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -32919,7 +33004,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -32927,7 +33012,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>4740000000</v>
+        <v>4815000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -32943,7 +33028,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -32951,7 +33036,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-4681310400</v>
+        <v>-4756331400</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -32967,7 +33052,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -32975,7 +33060,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-930000000</v>
+        <v>-945000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -32991,7 +33076,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -32999,7 +33084,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-62000000</v>
+        <v>-63000000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -33015,7 +33100,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -33023,7 +33108,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-3720930000</v>
+        <v>-3780945000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -33039,7 +33124,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -33047,7 +33132,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-918275400</v>
+        <v>-933279900</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -33063,7 +33148,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -33071,7 +33156,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>6900000000</v>
+        <v>7015000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -33087,7 +33172,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -33095,7 +33180,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-177748000</v>
+        <v>-180750500</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -33111,7 +33196,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -33119,7 +33204,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-59200000</v>
+        <v>-60200000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -33135,7 +33220,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -33143,7 +33228,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>83266974</v>
+        <v>84683079</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -33161,7 +33246,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -33169,7 +33254,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-59000000</v>
+        <v>-60000000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -33185,7 +33270,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -33193,7 +33278,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>584000000</v>
+        <v>594000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -33209,7 +33294,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -33217,7 +33302,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-58000000</v>
+        <v>-59000000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -33233,7 +33318,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -33241,7 +33326,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-56800000</v>
+        <v>-57800000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -33257,7 +33342,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -33265,7 +33350,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-373650000</v>
+        <v>-380275000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -33281,7 +33366,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -33289,7 +33374,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-133500000</v>
+        <v>-136000000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -33305,7 +33390,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -33313,7 +33398,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-32040000</v>
+        <v>-32640000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -33329,7 +33414,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -33337,7 +33422,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>113046120</v>
+        <v>115187145</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -33355,7 +33440,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -33363,7 +33448,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-786524000</v>
+        <v>-801534000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>340</v>
@@ -33381,7 +33466,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -33389,7 +33474,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-53300000</v>
+        <v>-54325000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>341</v>
@@ -33407,7 +33492,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -33415,7 +33500,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-91130000</v>
+        <v>-92882500</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>338</v>
@@ -33433,7 +33518,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -33441,7 +33526,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>248000000</v>
+        <v>253000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>336</v>
@@ -33459,7 +33544,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -33467,7 +33552,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>2187000000</v>
+        <v>2232000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>348</v>
@@ -33486,7 +33571,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -33494,7 +33579,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-6292000000</v>
+        <v>-6422000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>350</v>
@@ -33512,7 +33597,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -33520,7 +33605,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-6292000000</v>
+        <v>-6422000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -33536,7 +33621,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -33544,7 +33629,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>6266000000</v>
+        <v>6396000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -33560,7 +33645,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -33568,7 +33653,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-48400000</v>
+        <v>-49400000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -33587,7 +33672,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -33595,7 +33680,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>6978800000</v>
+        <v>7124800000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -33611,7 +33696,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -33619,7 +33704,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>93587130</v>
+        <v>95586855</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>403</v>
@@ -33637,7 +33722,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -33645,7 +33730,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>466000000</v>
+        <v>476000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>405</v>
@@ -33663,7 +33748,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -33671,7 +33756,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>1740000000</v>
+        <v>1777500000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>413</v>
@@ -33689,7 +33774,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -33697,7 +33782,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-15378000000</v>
+        <v>-15708000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>427</v>
@@ -33715,7 +33800,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -33723,7 +33808,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-33785000</v>
+        <v>-34510000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>428</v>
@@ -33741,7 +33826,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -33749,7 +33834,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>1380000000</v>
+        <v>1410000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>429</v>
@@ -33767,7 +33852,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -33775,7 +33860,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-1375351100</v>
+        <v>-1405380600</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>439</v>
@@ -33793,7 +33878,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -33801,7 +33886,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>1350000000</v>
+        <v>1380000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>447</v>
@@ -33819,7 +33904,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -33827,7 +33912,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-25680000</v>
+        <v>-26280000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>462</v>
@@ -33845,7 +33930,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -33853,7 +33938,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>848000000</v>
+        <v>868000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>464</v>
@@ -33871,7 +33956,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -33879,7 +33964,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>590800000</v>
+        <v>604800000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>469</v>
@@ -33897,7 +33982,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -33905,7 +33990,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-41600000</v>
+        <v>-42600000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>475</v>
@@ -33923,7 +34008,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -33931,7 +34016,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>14895860</v>
+        <v>15257410</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>503</v>
@@ -33949,7 +34034,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -33957,7 +34042,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-38000000</v>
+        <v>-39000000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>462</v>
@@ -33978,7 +34063,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -33986,7 +34071,7 @@
       </c>
       <c r="F115" s="23">
         <f t="shared" si="5"/>
-        <v>-2079000000</v>
+        <v>-2134000000</v>
       </c>
       <c r="G115" s="23" t="s">
         <v>504</v>
@@ -34004,7 +34089,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -34012,7 +34097,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-37800000</v>
+        <v>-38800000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>462</v>
@@ -34033,7 +34118,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -34041,7 +34126,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-84243500</v>
+        <v>-86496000</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>506</v>
@@ -34059,7 +34144,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -34067,7 +34152,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-37400000</v>
+        <v>-38400000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>507</v>
@@ -34088,7 +34173,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -34096,7 +34181,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-27973550</v>
+        <v>-28746300</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>510</v>
@@ -34114,7 +34199,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -34122,7 +34207,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-57920</v>
+        <v>-59520</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>511</v>
@@ -34140,7 +34225,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -34148,7 +34233,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-77760000</v>
+        <v>-79920000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>513</v>
@@ -34166,7 +34251,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -34174,7 +34259,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>12809439</v>
+        <v>13179654</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>515</v>
@@ -34192,7 +34277,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -34200,7 +34285,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-7956000</v>
+        <v>-8216000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>539</v>
@@ -34218,7 +34303,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -34226,7 +34311,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>131757</v>
+        <v>137692</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>590</v>
@@ -34244,7 +34329,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -34252,7 +34337,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>264000000</v>
+        <v>276000000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>588</v>
@@ -34270,7 +34355,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -34278,7 +34363,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>145022400</v>
+        <v>151736400</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>597</v>
@@ -34296,7 +34381,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -34304,7 +34389,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>145022400</v>
+        <v>151736400</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>598</v>
@@ -34322,7 +34407,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -34330,7 +34415,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-19400000</v>
+        <v>-20400000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -34348,7 +34433,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -34356,7 +34441,7 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-1483710</v>
+        <v>-1561800</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>607</v>
@@ -34377,7 +34462,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -34385,7 +34470,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-18800000</v>
+        <v>-19800000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>507</v>
@@ -34403,7 +34488,7 @@
       </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D158" si="6">D132+C131</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E158" si="7">IF(B131&gt;0,1,0)</f>
@@ -34411,7 +34496,7 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-18600000</v>
+        <v>-19600000</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>611</v>
@@ -34429,7 +34514,7 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -34437,7 +34522,7 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>-35880000</v>
+        <v>-37830000</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>613</v>
@@ -34455,7 +34540,7 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -34463,7 +34548,7 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>-2254000</v>
+        <v>-2376500</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>614</v>
@@ -34481,7 +34566,7 @@
       </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -34489,7 +34574,7 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>-8645000</v>
+        <v>-9120000</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>462</v>
@@ -34507,7 +34592,7 @@
       </c>
       <c r="D135" s="11">
         <f t="shared" si="6"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="7"/>
@@ -34515,7 +34600,7 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="5"/>
-        <v>-17400000</v>
+        <v>-18400000</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>618</v>
@@ -34533,7 +34618,7 @@
       </c>
       <c r="D136" s="11">
         <f t="shared" si="6"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="7"/>
@@ -34541,7 +34626,7 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="5"/>
-        <v>4200000000</v>
+        <v>4450000000</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>621</v>
@@ -34559,7 +34644,7 @@
       </c>
       <c r="D137" s="11">
         <f t="shared" si="6"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E137" s="11">
         <f t="shared" si="7"/>
@@ -34567,7 +34652,7 @@
       </c>
       <c r="F137" s="11">
         <f t="shared" si="5"/>
-        <v>996000000</v>
+        <v>1056000000</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>621</v>
@@ -34585,7 +34670,7 @@
       </c>
       <c r="D138" s="11">
         <f t="shared" si="6"/>
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E138" s="11">
         <f t="shared" si="7"/>
@@ -34593,7 +34678,7 @@
       </c>
       <c r="F138" s="11">
         <f t="shared" si="5"/>
-        <v>162000000</v>
+        <v>172000000</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>630</v>
@@ -34611,7 +34696,7 @@
       </c>
       <c r="D139" s="11">
         <f t="shared" si="6"/>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E139" s="11">
         <f t="shared" si="7"/>
@@ -34619,7 +34704,7 @@
       </c>
       <c r="F139" s="11">
         <f t="shared" si="5"/>
-        <v>7003040</v>
+        <v>7440730</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>378</v>
@@ -34637,7 +34722,7 @@
       </c>
       <c r="D140" s="11">
         <f t="shared" si="6"/>
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E140" s="11">
         <f t="shared" si="7"/>
@@ -34645,7 +34730,7 @@
       </c>
       <c r="F140" s="11">
         <f t="shared" si="5"/>
-        <v>-204061200</v>
+        <v>-219065700</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>672</v>
@@ -34663,7 +34748,7 @@
       </c>
       <c r="D141" s="11">
         <f t="shared" si="6"/>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E141" s="11">
         <f t="shared" si="7"/>
@@ -34671,7 +34756,7 @@
       </c>
       <c r="F141" s="11">
         <f t="shared" si="5"/>
-        <v>-201060300</v>
+        <v>-216064800</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>672</v>
@@ -34692,7 +34777,7 @@
       </c>
       <c r="D142" s="11">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E142" s="11">
         <f t="shared" si="7"/>
@@ -34700,7 +34785,7 @@
       </c>
       <c r="F142" s="11">
         <f t="shared" si="5"/>
-        <v>29499225</v>
+        <v>32509350</v>
       </c>
       <c r="G142" s="11" t="s">
         <v>696</v>
@@ -34718,7 +34803,7 @@
       </c>
       <c r="D143" s="11">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E143" s="11">
         <f t="shared" si="7"/>
@@ -34726,7 +34811,7 @@
       </c>
       <c r="F143" s="11">
         <f t="shared" si="5"/>
-        <v>-2300000000</v>
+        <v>-2530000000</v>
       </c>
       <c r="G143" s="11" t="s">
         <v>699</v>
@@ -34744,7 +34829,7 @@
       </c>
       <c r="D144" s="11">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E144" s="11">
         <f t="shared" si="7"/>
@@ -34752,7 +34837,7 @@
       </c>
       <c r="F144" s="11">
         <f t="shared" si="5"/>
-        <v>2773926</v>
+        <v>3544461</v>
       </c>
       <c r="G144" s="11" t="s">
         <v>722</v>
@@ -34770,7 +34855,7 @@
       </c>
       <c r="D145" s="11">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E145" s="11">
         <f t="shared" si="7"/>
@@ -34778,7 +34863,7 @@
       </c>
       <c r="F145" s="11">
         <f t="shared" si="5"/>
-        <v>51000000</v>
+        <v>66000000</v>
       </c>
       <c r="G145" s="11" t="s">
         <v>729</v>
@@ -34796,7 +34881,7 @@
       </c>
       <c r="D146" s="11">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E146" s="11">
         <f t="shared" si="7"/>
@@ -34804,7 +34889,7 @@
       </c>
       <c r="F146" s="11">
         <f t="shared" si="5"/>
-        <v>-3000000</v>
+        <v>-4000000</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>158</v>
@@ -34822,7 +34907,7 @@
       </c>
       <c r="D147" s="11">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E147" s="11">
         <f t="shared" si="7"/>
@@ -34830,7 +34915,7 @@
       </c>
       <c r="F147" s="11">
         <f t="shared" si="5"/>
-        <v>-2000000</v>
+        <v>-3000000</v>
       </c>
       <c r="G147" s="11" t="s">
         <v>158</v>
@@ -34851,7 +34936,7 @@
       </c>
       <c r="D148" s="11">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E148" s="11">
         <f t="shared" si="7"/>
@@ -34859,7 +34944,7 @@
       </c>
       <c r="F148" s="11">
         <f t="shared" si="5"/>
-        <v>-1800000</v>
+        <v>-2800000</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>158</v>
@@ -34877,7 +34962,7 @@
       </c>
       <c r="D149" s="11">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E149" s="11">
         <f t="shared" si="7"/>
@@ -34885,7 +34970,7 @@
       </c>
       <c r="F149" s="11">
         <f t="shared" si="5"/>
-        <v>-1000000</v>
+        <v>-2000000</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>158</v>
@@ -34903,7 +34988,7 @@
       </c>
       <c r="D150" s="11">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E150" s="11">
         <f t="shared" si="7"/>
@@ -34911,7 +34996,7 @@
       </c>
       <c r="F150" s="11">
         <f t="shared" si="5"/>
-        <v>72220200</v>
+        <v>192587200</v>
       </c>
       <c r="G150" s="11" t="s">
         <v>740</v>
@@ -34925,11 +35010,11 @@
         <v>-200000</v>
       </c>
       <c r="C151" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D151" s="11">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E151" s="11">
         <f t="shared" si="7"/>
@@ -34937,7 +35022,7 @@
       </c>
       <c r="F151" s="11">
         <f t="shared" si="5"/>
-        <v>-400000</v>
+        <v>-1400000</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>158</v>
@@ -34945,15 +35030,17 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B152" s="3"/>
+        <v>753</v>
+      </c>
+      <c r="B152" s="3">
+        <v>-30000000</v>
+      </c>
       <c r="C152" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" s="11">
         <f t="shared" si="7"/>
@@ -34961,9 +35048,11 @@
       </c>
       <c r="F152" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G152" s="11"/>
+        <v>-30000000</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
@@ -35102,14 +35191,14 @@
       <c r="A160" s="11"/>
       <c r="B160" s="29">
         <f>SUM(B2:B158)</f>
-        <v>42722843</v>
+        <v>12722843</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
       <c r="F160" s="29">
         <f>SUM(F2:F158)</f>
-        <v>7552447276</v>
+        <v>7736061491</v>
       </c>
       <c r="G160" s="11"/>
     </row>
@@ -35143,7 +35232,7 @@
       <c r="E163" s="11"/>
       <c r="F163" s="3">
         <f>F160/D2</f>
-        <v>15165556.779116467</v>
+        <v>15379843.918489065</v>
       </c>
       <c r="G163" s="11"/>
     </row>
@@ -35177,8 +35266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35193,7 +35282,7 @@
     <col min="10" max="10" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.42578125" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -35503,11 +35592,11 @@
       </c>
       <c r="F9" s="3">
         <f>K16</f>
-        <v>60302843</v>
+        <v>30302843</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="0"/>
-        <v>3256327.4948760644</v>
+        <v>33256327.494876064</v>
       </c>
       <c r="H9" s="11"/>
       <c r="J9" s="19" t="s">
@@ -35515,7 +35604,7 @@
       </c>
       <c r="K9" s="44">
         <f>'مسکن ایلیا'!B160</f>
-        <v>42722843</v>
+        <v>12722843</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>744</v>
@@ -35764,7 +35853,7 @@
       </c>
       <c r="K16" s="3">
         <f>SUM(K7:K15)</f>
-        <v>60302843</v>
+        <v>30302843</v>
       </c>
       <c r="L16" s="25"/>
       <c r="P16" s="28"/>
@@ -35798,9 +35887,12 @@
       </c>
       <c r="K17" s="3">
         <f>K9+K10+K13</f>
-        <v>42902843</v>
+        <v>12902843</v>
       </c>
       <c r="L17" s="25"/>
+      <c r="M17" t="s">
+        <v>752</v>
+      </c>
       <c r="P17" s="28"/>
       <c r="Q17" s="25"/>
       <c r="R17" s="25"/>
@@ -35832,7 +35924,7 @@
       </c>
       <c r="K18" s="1">
         <f>K16+N11</f>
-        <v>117302843</v>
+        <v>87302843</v>
       </c>
       <c r="M18" s="25"/>
       <c r="P18" s="28"/>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="مهر96" sheetId="26" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="768">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2327,6 +2327,21 @@
   </si>
   <si>
     <t>انتقال به حساب حاج ایوب</t>
+  </si>
+  <si>
+    <t>25/7/1396</t>
+  </si>
+  <si>
+    <t>آبلیمو</t>
+  </si>
+  <si>
+    <t>گوشت</t>
+  </si>
+  <si>
+    <t>طلب علی از مریم</t>
+  </si>
+  <si>
+    <t>برنامه سال 96</t>
   </si>
 </sst>
 </file>
@@ -28475,7 +28490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
@@ -31237,7 +31252,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B160" sqref="B160"/>
+      <selection pane="bottomLeft" activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31287,7 +31302,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -31295,7 +31310,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>48543400</v>
+        <v>48640100</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -31313,7 +31328,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -31321,7 +31336,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1500000000</v>
+        <v>1503000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -31337,7 +31352,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -31345,7 +31360,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-99600000</v>
+        <v>-99800000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -31361,7 +31376,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -31369,7 +31384,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-49600000</v>
+        <v>-49700000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -31385,7 +31400,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -31393,7 +31408,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-27225000</v>
+        <v>-27280000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -31409,7 +31424,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -31417,7 +31432,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-98800000</v>
+        <v>-99000000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -31433,7 +31448,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -31441,7 +31456,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-98000000</v>
+        <v>-98200000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -31457,7 +31472,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -31465,7 +31480,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-456240000</v>
+        <v>-457190500</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -31481,7 +31496,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -31489,7 +31504,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>956000000</v>
+        <v>958000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -31505,7 +31520,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -31513,7 +31528,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-508005000</v>
+        <v>-509070000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -31529,7 +31544,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -31537,7 +31552,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-21330000</v>
+        <v>-21375000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -31553,7 +31568,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -31561,7 +31576,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-946331100</v>
+        <v>-948331800</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -31577,7 +31592,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -31585,7 +31600,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-93800000</v>
+        <v>-94000000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -31601,7 +31616,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -31609,7 +31624,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>932000000</v>
+        <v>934000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -31625,7 +31640,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -31633,7 +31648,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>932000000</v>
+        <v>934000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -31649,7 +31664,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -31657,7 +31672,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>559200000</v>
+        <v>560400000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -31673,7 +31688,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -31681,7 +31696,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>466000000</v>
+        <v>467000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -31697,7 +31712,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -31705,7 +31720,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1395000000</v>
+        <v>1398000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -31724,7 +31739,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -31732,7 +31747,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-201638200</v>
+        <v>-202070900</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -31748,7 +31763,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -31756,7 +31771,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-201638200</v>
+        <v>-202070900</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -31772,7 +31787,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -31780,7 +31795,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-201638200</v>
+        <v>-202070900</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -31796,7 +31811,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -31804,7 +31819,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-201638200</v>
+        <v>-202070900</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -31820,7 +31835,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -31828,7 +31843,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-201638200</v>
+        <v>-202070900</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -31844,7 +31859,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -31852,7 +31867,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-93200000</v>
+        <v>-93400000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -31868,7 +31883,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -31876,7 +31891,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1392000000</v>
+        <v>1395000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -31892,7 +31907,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -31900,7 +31915,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-92600000</v>
+        <v>-92800000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -31916,7 +31931,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -31924,7 +31939,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>922000000</v>
+        <v>924000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -31940,7 +31955,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -31948,7 +31963,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-3227368800</v>
+        <v>-3234369600</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -31964,7 +31979,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -31972,7 +31987,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1380414000</v>
+        <v>-1383414900</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -31988,7 +32003,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -31996,7 +32011,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-778418100</v>
+        <v>-780114000</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -32012,7 +32027,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -32020,7 +32035,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>452406500</v>
+        <v>453400800</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -32036,7 +32051,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -32044,7 +32059,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>15755859</v>
+        <v>15790950</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>378</v>
@@ -32062,7 +32077,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -32070,7 +32085,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-381650000</v>
+        <v>-382500000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -32086,7 +32101,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -32094,7 +32109,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-84010500</v>
+        <v>-84201000</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -32110,7 +32125,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -32118,7 +32133,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>87800000</v>
+        <v>88000000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -32134,7 +32149,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -32142,7 +32157,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-88000000</v>
+        <v>-88200000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -32158,7 +32173,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -32166,7 +32181,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>125436102</v>
+        <v>125736908</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>398</v>
@@ -32184,7 +32199,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -32192,7 +32207,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-39615000</v>
+        <v>-39710000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -32208,7 +32223,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -32216,7 +32231,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-36738951</v>
+        <v>-36827054</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -32232,7 +32247,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -32240,7 +32255,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-49440000</v>
+        <v>-49560000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -32256,7 +32271,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -32264,7 +32279,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>389079356</v>
+        <v>390079560</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>399</v>
@@ -32282,7 +32297,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -32290,7 +32305,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-30880000</v>
+        <v>-30960000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -32306,7 +32321,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -32314,7 +32329,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-80613078</v>
+        <v>-80824107</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -32330,7 +32345,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -32338,7 +32353,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-76200000</v>
+        <v>-76400000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -32354,7 +32369,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -32362,7 +32377,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-36100000</v>
+        <v>-36195000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -32378,7 +32393,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -32386,7 +32401,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-17010000</v>
+        <v>-17055000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -32402,7 +32417,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -32410,7 +32425,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-24260040</v>
+        <v>-24324220</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -32426,7 +32441,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -32434,7 +32449,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-10306500</v>
+        <v>-10333984</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -32450,7 +32465,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -32458,7 +32473,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-52734000</v>
+        <v>-52875000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -32474,7 +32489,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -32482,7 +32497,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-10003004</v>
+        <v>-10029750</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -32498,7 +32513,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -32506,7 +32521,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-19880900</v>
+        <v>-19934200</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -32522,7 +32537,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -32530,7 +32545,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>371000000</v>
+        <v>372000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -32546,7 +32561,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -32554,7 +32569,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-7686000</v>
+        <v>-7707000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -32570,7 +32585,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -32578,7 +32593,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-357882500</v>
+        <v>-358863000</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -32594,7 +32609,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -32602,7 +32617,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-16425000</v>
+        <v>-16470000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -32618,7 +32633,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -32626,7 +32641,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>1054821339</v>
+        <v>1057826528</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>400</v>
@@ -32644,7 +32659,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -32652,7 +32667,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>702000000</v>
+        <v>704000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -32668,7 +32683,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -32676,7 +32691,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>700000000</v>
+        <v>702000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -32692,7 +32707,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -32700,7 +32715,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-2457526500</v>
+        <v>-2464528000</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -32716,7 +32731,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -32724,7 +32739,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>978000000</v>
+        <v>981000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -32740,7 +32755,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -32748,7 +32763,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-8837534</v>
+        <v>-8864643</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -32764,7 +32779,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -32772,7 +32787,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-10754414</v>
+        <v>-10787403</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -32788,7 +32803,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -32796,7 +32811,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>975000000</v>
+        <v>978000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -32812,7 +32827,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -32820,7 +32835,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>965250000</v>
+        <v>968220000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -32836,7 +32851,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -32844,7 +32859,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>325000000</v>
+        <v>326000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -32860,7 +32875,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -32868,7 +32883,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F158" si="5">B67*(D67-E67)</f>
-        <v>9750000</v>
+        <v>9780000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -32884,7 +32899,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -32892,7 +32907,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>9720000000</v>
+        <v>9750000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -32908,7 +32923,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -32916,7 +32931,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-64800000</v>
+        <v>-65000000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -32932,7 +32947,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -32940,7 +32955,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>452200000</v>
+        <v>453600000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -32956,7 +32971,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -32964,7 +32979,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>839800000</v>
+        <v>842400000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -32980,7 +32995,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -32988,7 +33003,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-324000000</v>
+        <v>-325000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -33004,7 +33019,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -33012,7 +33027,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>4815000000</v>
+        <v>4830000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -33028,7 +33043,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -33036,7 +33051,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-4756331400</v>
+        <v>-4771335600</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -33052,7 +33067,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -33060,7 +33075,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-945000000</v>
+        <v>-948000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -33076,7 +33091,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -33084,7 +33099,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-63000000</v>
+        <v>-63200000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -33100,7 +33115,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -33108,7 +33123,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-3780945000</v>
+        <v>-3792948000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -33124,7 +33139,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -33132,7 +33147,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-933279900</v>
+        <v>-936280800</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -33148,7 +33163,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -33156,7 +33171,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>7015000000</v>
+        <v>7038000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -33172,7 +33187,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -33180,7 +33195,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-180750500</v>
+        <v>-181351000</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -33196,7 +33211,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -33204,7 +33219,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-60200000</v>
+        <v>-60400000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -33220,7 +33235,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -33228,7 +33243,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>84683079</v>
+        <v>84966300</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -33246,7 +33261,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -33254,7 +33269,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-60000000</v>
+        <v>-60200000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -33270,7 +33285,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -33278,7 +33293,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>594000000</v>
+        <v>596000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -33294,7 +33309,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -33302,7 +33317,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-59000000</v>
+        <v>-59200000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -33318,7 +33333,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -33326,7 +33341,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-57800000</v>
+        <v>-58000000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -33342,7 +33357,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -33350,7 +33365,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-380275000</v>
+        <v>-381600000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -33366,7 +33381,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -33374,7 +33389,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-136000000</v>
+        <v>-136500000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -33390,7 +33405,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -33398,7 +33413,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-32640000</v>
+        <v>-32760000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -33414,7 +33429,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -33422,7 +33437,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>115187145</v>
+        <v>115615350</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -33440,7 +33455,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -33448,7 +33463,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-801534000</v>
+        <v>-804536000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>340</v>
@@ -33466,7 +33481,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -33474,7 +33489,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-54325000</v>
+        <v>-54530000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>341</v>
@@ -33492,7 +33507,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -33500,7 +33515,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-92882500</v>
+        <v>-93233000</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>338</v>
@@ -33518,7 +33533,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -33526,7 +33541,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>253000000</v>
+        <v>254000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>336</v>
@@ -33544,7 +33559,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -33552,7 +33567,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>2232000000</v>
+        <v>2241000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>348</v>
@@ -33571,7 +33586,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -33579,7 +33594,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-6422000000</v>
+        <v>-6448000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>350</v>
@@ -33597,7 +33612,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -33605,7 +33620,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-6422000000</v>
+        <v>-6448000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -33621,7 +33636,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -33629,7 +33644,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>6396000000</v>
+        <v>6422000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -33645,7 +33660,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -33653,7 +33668,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-49400000</v>
+        <v>-49600000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -33672,7 +33687,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -33680,7 +33695,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>7124800000</v>
+        <v>7154000000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -33696,7 +33711,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -33704,7 +33719,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>95586855</v>
+        <v>95986800</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>403</v>
@@ -33722,7 +33737,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -33730,7 +33745,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>476000000</v>
+        <v>478000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>405</v>
@@ -33748,7 +33763,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -33756,7 +33771,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>1777500000</v>
+        <v>1785000000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>413</v>
@@ -33774,7 +33789,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -33782,7 +33797,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-15708000000</v>
+        <v>-15774000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>427</v>
@@ -33800,7 +33815,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -33808,7 +33823,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-34510000</v>
+        <v>-34655000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>428</v>
@@ -33826,7 +33841,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -33834,7 +33849,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>1410000000</v>
+        <v>1416000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>429</v>
@@ -33852,7 +33867,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -33860,7 +33875,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-1405380600</v>
+        <v>-1411386500</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>439</v>
@@ -33878,7 +33893,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -33886,7 +33901,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>1380000000</v>
+        <v>1386000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>447</v>
@@ -33904,7 +33919,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -33912,7 +33927,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-26280000</v>
+        <v>-26400000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>462</v>
@@ -33930,7 +33945,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -33938,7 +33953,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>868000000</v>
+        <v>872000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>464</v>
@@ -33956,7 +33971,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -33964,7 +33979,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>604800000</v>
+        <v>607600000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>469</v>
@@ -33982,7 +33997,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -33990,7 +34005,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-42600000</v>
+        <v>-42800000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>475</v>
@@ -34008,7 +34023,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -34016,7 +34031,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>15257410</v>
+        <v>15329720</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>503</v>
@@ -34034,7 +34049,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -34042,7 +34057,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-39000000</v>
+        <v>-39200000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>462</v>
@@ -34063,7 +34078,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -34071,7 +34086,7 @@
       </c>
       <c r="F115" s="23">
         <f t="shared" si="5"/>
-        <v>-2134000000</v>
+        <v>-2145000000</v>
       </c>
       <c r="G115" s="23" t="s">
         <v>504</v>
@@ -34089,7 +34104,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -34097,7 +34112,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-38800000</v>
+        <v>-39000000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>462</v>
@@ -34118,7 +34133,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -34126,7 +34141,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-86496000</v>
+        <v>-86946500</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>506</v>
@@ -34144,7 +34159,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -34152,7 +34167,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-38400000</v>
+        <v>-38600000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>507</v>
@@ -34173,7 +34188,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -34181,7 +34196,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-28746300</v>
+        <v>-28900850</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>510</v>
@@ -34199,7 +34214,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -34207,7 +34222,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-59520</v>
+        <v>-59840</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>511</v>
@@ -34225,7 +34240,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -34233,7 +34248,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-79920000</v>
+        <v>-80352000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>513</v>
@@ -34251,7 +34266,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -34259,7 +34274,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>13179654</v>
+        <v>13253697</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>515</v>
@@ -34277,7 +34292,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -34285,7 +34300,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-8216000</v>
+        <v>-8268000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>539</v>
@@ -34303,7 +34318,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -34311,7 +34326,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>137692</v>
+        <v>138879</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>590</v>
@@ -34329,7 +34344,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -34337,7 +34352,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>276000000</v>
+        <v>278400000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>588</v>
@@ -34355,7 +34370,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -34363,7 +34378,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>151736400</v>
+        <v>153079200</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>597</v>
@@ -34381,7 +34396,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -34389,7 +34404,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>151736400</v>
+        <v>153079200</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>598</v>
@@ -34407,7 +34422,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -34415,7 +34430,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-20400000</v>
+        <v>-20600000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -34433,7 +34448,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -34441,7 +34456,7 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-1561800</v>
+        <v>-1577418</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>607</v>
@@ -34462,7 +34477,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -34470,7 +34485,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-19800000</v>
+        <v>-20000000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>507</v>
@@ -34488,7 +34503,7 @@
       </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D158" si="6">D132+C131</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E158" si="7">IF(B131&gt;0,1,0)</f>
@@ -34496,7 +34511,7 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-19600000</v>
+        <v>-19800000</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>611</v>
@@ -34514,7 +34529,7 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -34522,7 +34537,7 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>-37830000</v>
+        <v>-38220000</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>613</v>
@@ -34540,7 +34555,7 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -34548,7 +34563,7 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>-2376500</v>
+        <v>-2401000</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>614</v>
@@ -34566,7 +34581,7 @@
       </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -34574,7 +34589,7 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>-9120000</v>
+        <v>-9215000</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>462</v>
@@ -34592,7 +34607,7 @@
       </c>
       <c r="D135" s="11">
         <f t="shared" si="6"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="7"/>
@@ -34600,7 +34615,7 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="5"/>
-        <v>-18400000</v>
+        <v>-18600000</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>618</v>
@@ -34618,7 +34633,7 @@
       </c>
       <c r="D136" s="11">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="7"/>
@@ -34626,7 +34641,7 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="5"/>
-        <v>4450000000</v>
+        <v>4500000000</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>621</v>
@@ -34644,7 +34659,7 @@
       </c>
       <c r="D137" s="11">
         <f t="shared" si="6"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E137" s="11">
         <f t="shared" si="7"/>
@@ -34652,7 +34667,7 @@
       </c>
       <c r="F137" s="11">
         <f t="shared" si="5"/>
-        <v>1056000000</v>
+        <v>1068000000</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>621</v>
@@ -34670,7 +34685,7 @@
       </c>
       <c r="D138" s="11">
         <f t="shared" si="6"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E138" s="11">
         <f t="shared" si="7"/>
@@ -34678,7 +34693,7 @@
       </c>
       <c r="F138" s="11">
         <f t="shared" si="5"/>
-        <v>172000000</v>
+        <v>174000000</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>630</v>
@@ -34696,7 +34711,7 @@
       </c>
       <c r="D139" s="11">
         <f t="shared" si="6"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E139" s="11">
         <f t="shared" si="7"/>
@@ -34704,7 +34719,7 @@
       </c>
       <c r="F139" s="11">
         <f t="shared" si="5"/>
-        <v>7440730</v>
+        <v>7528268</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>378</v>
@@ -34722,7 +34737,7 @@
       </c>
       <c r="D140" s="11">
         <f t="shared" si="6"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E140" s="11">
         <f t="shared" si="7"/>
@@ -34730,7 +34745,7 @@
       </c>
       <c r="F140" s="11">
         <f t="shared" si="5"/>
-        <v>-219065700</v>
+        <v>-222066600</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>672</v>
@@ -34748,7 +34763,7 @@
       </c>
       <c r="D141" s="11">
         <f t="shared" si="6"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E141" s="11">
         <f t="shared" si="7"/>
@@ -34756,7 +34771,7 @@
       </c>
       <c r="F141" s="11">
         <f t="shared" si="5"/>
-        <v>-216064800</v>
+        <v>-219065700</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>672</v>
@@ -34777,7 +34792,7 @@
       </c>
       <c r="D142" s="11">
         <f t="shared" si="6"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E142" s="11">
         <f t="shared" si="7"/>
@@ -34785,7 +34800,7 @@
       </c>
       <c r="F142" s="11">
         <f t="shared" si="5"/>
-        <v>32509350</v>
+        <v>33111375</v>
       </c>
       <c r="G142" s="11" t="s">
         <v>696</v>
@@ -34803,7 +34818,7 @@
       </c>
       <c r="D143" s="11">
         <f t="shared" si="6"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E143" s="11">
         <f t="shared" si="7"/>
@@ -34811,7 +34826,7 @@
       </c>
       <c r="F143" s="11">
         <f t="shared" si="5"/>
-        <v>-2530000000</v>
+        <v>-2576000000</v>
       </c>
       <c r="G143" s="11" t="s">
         <v>699</v>
@@ -34829,7 +34844,7 @@
       </c>
       <c r="D144" s="11">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E144" s="11">
         <f t="shared" si="7"/>
@@ -34837,7 +34852,7 @@
       </c>
       <c r="F144" s="11">
         <f t="shared" si="5"/>
-        <v>3544461</v>
+        <v>3698568</v>
       </c>
       <c r="G144" s="11" t="s">
         <v>722</v>
@@ -34855,7 +34870,7 @@
       </c>
       <c r="D145" s="11">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E145" s="11">
         <f t="shared" si="7"/>
@@ -34863,7 +34878,7 @@
       </c>
       <c r="F145" s="11">
         <f t="shared" si="5"/>
-        <v>66000000</v>
+        <v>69000000</v>
       </c>
       <c r="G145" s="11" t="s">
         <v>729</v>
@@ -34881,7 +34896,7 @@
       </c>
       <c r="D146" s="11">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E146" s="11">
         <f t="shared" si="7"/>
@@ -34889,7 +34904,7 @@
       </c>
       <c r="F146" s="11">
         <f t="shared" si="5"/>
-        <v>-4000000</v>
+        <v>-4200000</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>158</v>
@@ -34907,7 +34922,7 @@
       </c>
       <c r="D147" s="11">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E147" s="11">
         <f t="shared" si="7"/>
@@ -34915,7 +34930,7 @@
       </c>
       <c r="F147" s="11">
         <f t="shared" si="5"/>
-        <v>-3000000</v>
+        <v>-3200000</v>
       </c>
       <c r="G147" s="11" t="s">
         <v>158</v>
@@ -34936,7 +34951,7 @@
       </c>
       <c r="D148" s="11">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E148" s="11">
         <f t="shared" si="7"/>
@@ -34944,7 +34959,7 @@
       </c>
       <c r="F148" s="11">
         <f t="shared" si="5"/>
-        <v>-2800000</v>
+        <v>-3000000</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>158</v>
@@ -34962,7 +34977,7 @@
       </c>
       <c r="D149" s="11">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" s="11">
         <f t="shared" si="7"/>
@@ -34970,7 +34985,7 @@
       </c>
       <c r="F149" s="11">
         <f t="shared" si="5"/>
-        <v>-2000000</v>
+        <v>-2200000</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>158</v>
@@ -34988,7 +35003,7 @@
       </c>
       <c r="D150" s="11">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" s="11">
         <f t="shared" si="7"/>
@@ -34996,7 +35011,7 @@
       </c>
       <c r="F150" s="11">
         <f t="shared" si="5"/>
-        <v>192587200</v>
+        <v>216660600</v>
       </c>
       <c r="G150" s="11" t="s">
         <v>740</v>
@@ -35014,7 +35029,7 @@
       </c>
       <c r="D151" s="11">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E151" s="11">
         <f t="shared" si="7"/>
@@ -35022,7 +35037,7 @@
       </c>
       <c r="F151" s="11">
         <f t="shared" si="5"/>
-        <v>-1400000</v>
+        <v>-1600000</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>158</v>
@@ -35040,7 +35055,7 @@
       </c>
       <c r="D152" s="11">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152" s="11">
         <f t="shared" si="7"/>
@@ -35048,21 +35063,25 @@
       </c>
       <c r="F152" s="11">
         <f t="shared" si="5"/>
-        <v>-30000000</v>
+        <v>-60000000</v>
       </c>
       <c r="G152" s="11" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="11"/>
-      <c r="B153" s="3"/>
+      <c r="A153" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="B153" s="3">
+        <v>-52000</v>
+      </c>
       <c r="C153" s="11">
         <v>0</v>
       </c>
       <c r="D153" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" s="11">
         <f t="shared" si="7"/>
@@ -35070,19 +35089,25 @@
       </c>
       <c r="F153" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G153" s="11"/>
+        <v>-52000</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="11"/>
-      <c r="B154" s="3"/>
+      <c r="A154" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="B154" s="3">
+        <v>-136000</v>
+      </c>
       <c r="C154" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" s="11">
         <f t="shared" si="7"/>
@@ -35090,9 +35115,11 @@
       </c>
       <c r="F154" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G154" s="11"/>
+        <v>-136000</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
@@ -35191,14 +35218,14 @@
       <c r="A160" s="11"/>
       <c r="B160" s="29">
         <f>SUM(B2:B158)</f>
-        <v>12722843</v>
+        <v>12534843</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
       <c r="F160" s="29">
         <f>SUM(F2:F158)</f>
-        <v>7736061491</v>
+        <v>7748596334</v>
       </c>
       <c r="G160" s="11"/>
     </row>
@@ -35232,7 +35259,7 @@
       <c r="E163" s="11"/>
       <c r="F163" s="3">
         <f>F160/D2</f>
-        <v>15379843.918489065</v>
+        <v>15374199.075396825</v>
       </c>
       <c r="G163" s="11"/>
     </row>
@@ -35266,8 +35293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35278,7 +35305,7 @@
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -35444,7 +35471,9 @@
       <c r="K5" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="M5" s="11"/>
+      <c r="M5" s="11" t="s">
+        <v>767</v>
+      </c>
       <c r="N5" s="11" t="s">
         <v>455</v>
       </c>
@@ -35592,11 +35621,11 @@
       </c>
       <c r="F9" s="3">
         <f>K16</f>
-        <v>30302843</v>
+        <v>60157843</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="0"/>
-        <v>33256327.494876064</v>
+        <v>3401327.4948760644</v>
       </c>
       <c r="H9" s="11"/>
       <c r="J9" s="19" t="s">
@@ -35604,7 +35633,7 @@
       </c>
       <c r="K9" s="44">
         <f>'مسکن ایلیا'!B160</f>
-        <v>12722843</v>
+        <v>12534843</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>744</v>
@@ -35742,7 +35771,7 @@
         <v>459</v>
       </c>
       <c r="K13" s="44">
-        <v>130000</v>
+        <v>173000</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>25</v>
@@ -35771,8 +35800,12 @@
       <c r="F14" s="3"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="44"/>
+      <c r="J14" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="K14" s="44">
+        <v>30000000</v>
+      </c>
       <c r="L14" s="25"/>
       <c r="M14" s="11" t="s">
         <v>747</v>
@@ -35853,7 +35886,7 @@
       </c>
       <c r="K16" s="3">
         <f>SUM(K7:K15)</f>
-        <v>30302843</v>
+        <v>60157843</v>
       </c>
       <c r="L16" s="25"/>
       <c r="P16" s="28"/>
@@ -35887,7 +35920,7 @@
       </c>
       <c r="K17" s="3">
         <f>K9+K10+K13</f>
-        <v>12902843</v>
+        <v>12757843</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" t="s">
@@ -35924,7 +35957,7 @@
       </c>
       <c r="K18" s="1">
         <f>K16+N11</f>
-        <v>87302843</v>
+        <v>117157843</v>
       </c>
       <c r="M18" s="25"/>
       <c r="P18" s="28"/>
@@ -36130,7 +36163,7 @@
       </c>
       <c r="M24" s="25"/>
       <c r="N24" s="57">
-        <v>500000</v>
+        <v>470000</v>
       </c>
       <c r="O24" s="58" t="s">
         <v>480</v>
@@ -36339,7 +36372,7 @@
       <c r="M29" s="26"/>
       <c r="N29" s="48">
         <f>SUM(N24:N28)</f>
-        <v>1520000</v>
+        <v>1490000</v>
       </c>
       <c r="O29" s="49" t="s">
         <v>6</v>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="مهر96" sheetId="26" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="769">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2342,6 +2342,9 @@
   </si>
   <si>
     <t>برنامه سال 96</t>
+  </si>
+  <si>
+    <t>با احتساب حقوق مهر</t>
   </si>
 </sst>
 </file>
@@ -2449,13 +2452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2679,14 +2682,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2696,11 +2696,34 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -31250,9 +31273,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D158" sqref="D158"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35293,8 +35316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35366,7 +35389,7 @@
         <v>52000000</v>
       </c>
       <c r="G2" s="29">
-        <f t="shared" ref="G2:G9" si="0">E2-F2</f>
+        <f t="shared" ref="G2:G10" si="0">E2-F2</f>
         <v>0</v>
       </c>
       <c r="H2" s="11" t="s">
@@ -35581,7 +35604,7 @@
         <f t="shared" si="2"/>
         <v>61792559.234878004</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="70">
         <v>58000000</v>
       </c>
       <c r="G8" s="29">
@@ -35619,15 +35642,16 @@
         <f t="shared" si="2"/>
         <v>63559170.494876064</v>
       </c>
-      <c r="F9" s="3">
-        <f>K16</f>
-        <v>60157843</v>
+      <c r="F9" s="70">
+        <v>63664843</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="0"/>
-        <v>3401327.4948760644</v>
-      </c>
-      <c r="H9" s="11"/>
+        <v>-105672.50512393564</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>768</v>
+      </c>
       <c r="J9" s="19" t="s">
         <v>301</v>
       </c>
@@ -35661,8 +35685,14 @@
         <f t="shared" si="2"/>
         <v>65366421.580827095</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="11"/>
+      <c r="F10" s="74">
+        <f>K16</f>
+        <v>63664843</v>
+      </c>
+      <c r="G10" s="29">
+        <f t="shared" si="0"/>
+        <v>1701578.5808270946</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="J10" s="2" t="s">
         <v>456</v>
@@ -35699,7 +35729,7 @@
         <v>67215178.36525768</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="11"/>
       <c r="J11" s="2" t="s">
         <v>710</v>
@@ -35734,7 +35764,7 @@
         <v>69106324.568905011</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="11"/>
       <c r="J12" s="2" t="s">
         <v>85</v>
@@ -35765,13 +35795,13 @@
         <v>71040762.122988701</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="11"/>
       <c r="J13" s="2" t="s">
         <v>459</v>
       </c>
       <c r="K13" s="44">
-        <v>173000</v>
+        <v>3680000</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>25</v>
@@ -35798,7 +35828,7 @@
         <v>73019411.538781136</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="11"/>
       <c r="J14" s="2" t="s">
         <v>766</v>
@@ -35841,7 +35871,7 @@
         <v>75043212.284622744</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="11"/>
       <c r="J15" s="2"/>
       <c r="K15" s="44">
@@ -35879,14 +35909,14 @@
         <v>77113123.170531839</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="11"/>
       <c r="J16" s="2" t="s">
         <v>603</v>
       </c>
       <c r="K16" s="3">
         <f>SUM(K7:K15)</f>
-        <v>60157843</v>
+        <v>63664843</v>
       </c>
       <c r="L16" s="25"/>
       <c r="P16" s="28"/>
@@ -35913,14 +35943,14 @@
         <v>79230122.740561292</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="11"/>
       <c r="J17" s="2" t="s">
         <v>604</v>
       </c>
       <c r="K17" s="3">
         <f>K9+K10+K13</f>
-        <v>12757843</v>
+        <v>16264843</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" t="s">
@@ -35950,14 +35980,14 @@
         <v>81395209.673057526</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="11"/>
       <c r="J18" s="59" t="s">
         <v>746</v>
       </c>
       <c r="K18" s="1">
         <f>K16+N11</f>
-        <v>117157843</v>
+        <v>120664843</v>
       </c>
       <c r="M18" s="25"/>
       <c r="P18" s="28"/>
@@ -35985,7 +36015,7 @@
         <v>83609403.18898052</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="11"/>
       <c r="M19" s="25"/>
       <c r="P19" s="28"/>
@@ -36013,7 +36043,7 @@
         <v>85873743.468446597</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="11"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
@@ -36043,7 +36073,7 @@
         <v>88189292.075658873</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="11"/>
       <c r="J21" s="25"/>
       <c r="K21" s="3"/>
@@ -36076,7 +36106,7 @@
         <v>90557132.392393813</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="11"/>
       <c r="J22" s="25"/>
       <c r="K22" s="1" t="s">
@@ -36111,7 +36141,7 @@
         <v>92978370.060215667</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="11"/>
       <c r="J23" s="25"/>
       <c r="K23" s="1" t="s">
@@ -37270,17 +37300,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:G6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G62">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38430,16 +38460,16 @@
       </c>
       <c r="D12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="O12" s="73" t="s">
+      <c r="O12" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="P12" s="73" t="s">
+      <c r="P12" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="Q12" s="73" t="s">
+      <c r="Q12" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="R12" s="73" t="s">
+      <c r="R12" s="72" t="s">
         <v>235</v>
       </c>
       <c r="S12" s="11"/>
@@ -38454,13 +38484,13 @@
       </c>
       <c r="D13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="O13" s="74">
+      <c r="O13" s="73">
         <v>6</v>
       </c>
-      <c r="P13" s="74">
+      <c r="P13" s="73">
         <v>36</v>
       </c>
-      <c r="Q13" s="73">
+      <c r="Q13" s="72">
         <v>0.5</v>
       </c>
       <c r="R13" s="11">
@@ -38485,13 +38515,13 @@
       </c>
       <c r="D14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="O14" s="74">
+      <c r="O14" s="73">
         <v>9</v>
       </c>
-      <c r="P14" s="74">
+      <c r="P14" s="73">
         <v>37</v>
       </c>
-      <c r="Q14" s="73">
+      <c r="Q14" s="72">
         <v>0.75</v>
       </c>
       <c r="R14" s="11">
@@ -38516,13 +38546,13 @@
       </c>
       <c r="D15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="O15" s="74">
+      <c r="O15" s="73">
         <v>12</v>
       </c>
-      <c r="P15" s="74">
+      <c r="P15" s="73">
         <v>38</v>
       </c>
-      <c r="Q15" s="73">
+      <c r="Q15" s="72">
         <v>1</v>
       </c>
       <c r="R15" s="11">
@@ -38547,13 +38577,13 @@
       </c>
       <c r="D16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="O16" s="74">
+      <c r="O16" s="73">
         <v>18</v>
       </c>
-      <c r="P16" s="74">
+      <c r="P16" s="73">
         <v>41</v>
       </c>
-      <c r="Q16" s="73">
+      <c r="Q16" s="72">
         <v>2</v>
       </c>
       <c r="R16" s="11">
@@ -38578,13 +38608,13 @@
       </c>
       <c r="D17" s="18"/>
       <c r="F17" s="18"/>
-      <c r="O17" s="74">
+      <c r="O17" s="73">
         <v>24</v>
       </c>
-      <c r="P17" s="74">
+      <c r="P17" s="73">
         <v>44</v>
       </c>
-      <c r="Q17" s="73">
+      <c r="Q17" s="72">
         <v>3</v>
       </c>
       <c r="R17" s="11">
@@ -38609,13 +38639,13 @@
       </c>
       <c r="D18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="O18" s="74">
+      <c r="O18" s="73">
         <v>30</v>
       </c>
-      <c r="P18" s="74">
+      <c r="P18" s="73">
         <v>47</v>
       </c>
-      <c r="Q18" s="73">
+      <c r="Q18" s="72">
         <v>4</v>
       </c>
       <c r="R18" s="11">
@@ -38640,13 +38670,13 @@
       </c>
       <c r="D19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="O19" s="74">
+      <c r="O19" s="73">
         <v>36</v>
       </c>
-      <c r="P19" s="74">
+      <c r="P19" s="73">
         <v>50</v>
       </c>
-      <c r="Q19" s="73">
+      <c r="Q19" s="72">
         <v>5</v>
       </c>
       <c r="R19" s="11">
@@ -39046,7 +39076,7 @@
       </c>
     </row>
     <row r="52" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O52" s="72" t="s">
+      <c r="O52" s="71" t="s">
         <v>650</v>
       </c>
       <c r="P52" t="s">
@@ -39068,7 +39098,7 @@
       </c>
     </row>
     <row r="53" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O53" s="72" t="s">
+      <c r="O53" s="71" t="s">
         <v>651</v>
       </c>
       <c r="P53" t="s">

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="آبان 96" sheetId="27" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="783">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2376,6 +2376,18 @@
   </si>
   <si>
     <t>1/10/1394</t>
+  </si>
+  <si>
+    <t>6/8/1396</t>
+  </si>
+  <si>
+    <t>چک حاج ایوب</t>
+  </si>
+  <si>
+    <t>5/8/1396</t>
+  </si>
+  <si>
+    <t>ده نقدی و 1.2 به مونا</t>
   </si>
 </sst>
 </file>
@@ -3065,7 +3077,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,27 +3206,27 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>733</v>
+        <v>781</v>
       </c>
       <c r="B4" s="18">
-        <v>0</v>
+        <v>-1210700</v>
       </c>
       <c r="C4" s="18">
         <v>0</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1210700</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>734</v>
+        <v>782</v>
       </c>
       <c r="F4">
         <v>26</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-31478200</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
@@ -3222,7 +3234,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-31478200</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -3960,7 +3972,7 @@
       </c>
       <c r="B24" s="3">
         <f>SUM(B2:B22)</f>
-        <v>36817770</v>
+        <v>35607070</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C22)</f>
@@ -3968,7 +3980,7 @@
       </c>
       <c r="D24" s="3">
         <f>SUM(D2:D22)</f>
-        <v>24667801</v>
+        <v>23457101</v>
       </c>
       <c r="E24" s="2"/>
       <c r="O24">
@@ -3984,7 +3996,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G25" s="18">
         <f>SUM(G2:G23)</f>
-        <v>1103918813</v>
+        <v>1072440613</v>
       </c>
       <c r="H25" s="18">
         <f>SUM(H2:H23)</f>
@@ -3992,7 +4004,7 @@
       </c>
       <c r="I25" s="18">
         <f>SUM(I2:I23)</f>
-        <v>739525714</v>
+        <v>708047514</v>
       </c>
       <c r="O25">
         <v>22</v>
@@ -4076,11 +4088,11 @@
       </c>
       <c r="H30" s="18">
         <f>G30*H25/G25</f>
-        <v>202770.29521500962</v>
+        <v>208721.9943855418</v>
       </c>
       <c r="I30" s="18">
         <f>G30*I25/G25</f>
-        <v>411516.7047849904</v>
+        <v>405565.00561445823</v>
       </c>
       <c r="O30">
         <v>27</v>
@@ -15454,7 +15466,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F133" sqref="F133"/>
+      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17603,7 +17615,7 @@
         <v>-92000000</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>101</v>
       </c>
@@ -18926,7 +18938,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="3">
-        <f t="shared" ref="D85:D132" si="12">B85-C85</f>
+        <f t="shared" ref="D85:D133" si="12">B85-C85</f>
         <v>2500000</v>
       </c>
       <c r="E85" s="20" t="s">
@@ -19202,7 +19214,7 @@
         <v>-1165127600</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>216</v>
       </c>
@@ -20866,7 +20878,7 @@
         <v>135</v>
       </c>
       <c r="F132" s="11">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="G132" s="37">
         <f t="shared" si="7"/>
@@ -20890,15 +20902,28 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="11"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
+      <c r="A133" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="B133" s="18">
+        <v>-1210700</v>
+      </c>
+      <c r="C133" s="18">
+        <v>0</v>
+      </c>
+      <c r="D133" s="18">
+        <f t="shared" si="12"/>
+        <v>-1210700</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="F133" s="11">
+        <v>41</v>
+      </c>
       <c r="G133" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H133" s="11">
         <f t="shared" si="14"/>
@@ -20906,7 +20931,7 @@
       </c>
       <c r="I133" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-49638700</v>
       </c>
       <c r="J133" s="11">
         <f t="shared" si="15"/>
@@ -20914,7 +20939,7 @@
       </c>
       <c r="K133" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-49638700</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -21209,7 +21234,7 @@
       <c r="A144" s="11"/>
       <c r="B144" s="29">
         <f>SUM(B2:B143)</f>
-        <v>36817769</v>
+        <v>35607069</v>
       </c>
       <c r="C144" s="29">
         <f>SUM(C2:C142)</f>
@@ -21217,7 +21242,7 @@
       </c>
       <c r="D144" s="29">
         <f>SUM(D2:D142)</f>
-        <v>24667800</v>
+        <v>23457100</v>
       </c>
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
@@ -21225,7 +21250,7 @@
       <c r="H144" s="11"/>
       <c r="I144" s="29">
         <f>SUM(I2:I143)</f>
-        <v>14612238021</v>
+        <v>14562599321</v>
       </c>
       <c r="J144" s="29">
         <f>SUM(J2:J143)</f>
@@ -21233,7 +21258,7 @@
       </c>
       <c r="K144" s="29">
         <f>SUM(K2:K143)</f>
-        <v>8814997686</v>
+        <v>8765358986</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -21285,7 +21310,7 @@
       <c r="H147" s="11"/>
       <c r="I147" s="3">
         <f>I144/G2</f>
-        <v>24112603.995049506</v>
+        <v>24030691.948844884</v>
       </c>
       <c r="J147" s="29">
         <f>J144/G2</f>
@@ -21293,7 +21318,7 @@
       </c>
       <c r="K147" s="29">
         <f>K144/G2</f>
-        <v>14546200.801980197</v>
+        <v>14464288.755775578</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -21318,11 +21343,11 @@
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J151">
         <f>J144/I144*1448696</f>
-        <v>574753.76956516388</v>
+        <v>576712.89989021327</v>
       </c>
       <c r="K151">
         <f>K144/I144*1448696</f>
-        <v>873942.23043483624</v>
+        <v>871983.10010978684</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -29729,8 +29754,8 @@
   <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32391,7 +32416,7 @@
         <v>772</v>
       </c>
       <c r="D88" s="11">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="6"/>
@@ -32408,22 +32433,28 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B89" s="39"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
+        <v>779</v>
+      </c>
+      <c r="B89" s="39">
+        <v>15000000</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="D89" s="11">
+        <v>9</v>
+      </c>
       <c r="E89" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>120000000</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -32708,7 +32739,7 @@
       <c r="A105" s="11"/>
       <c r="B105" s="29">
         <f>SUM(B2:B104)</f>
-        <v>17876107</v>
+        <v>32876107</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -32716,7 +32747,7 @@
       <c r="F105" s="11"/>
       <c r="G105" s="29">
         <f>SUM(G2:G104)</f>
-        <v>15228434476</v>
+        <v>15348434476</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -32750,7 +32781,7 @@
       <c r="F108" s="11"/>
       <c r="G108" s="3">
         <f>G105/E2</f>
-        <v>44658165.618768327</v>
+        <v>45010071.777126096</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -37077,8 +37108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="I13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37375,8 +37406,13 @@
       <c r="H8" s="11" t="s">
         <v>735</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="44"/>
+      <c r="J8" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="K8" s="44">
+        <f>'مسکن ایلیا'!B172</f>
+        <v>39951646</v>
+      </c>
       <c r="M8" s="11" t="s">
         <v>303</v>
       </c>
@@ -37413,12 +37449,12 @@
       <c r="H9" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>301</v>
+      <c r="J9" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="K9" s="44">
-        <f>'مسکن ایلیا'!B172</f>
-        <v>39951646</v>
+        <f>'مسکن علی سید الشهدا'!B27</f>
+        <v>50000</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>744</v>
@@ -37448,19 +37484,18 @@
       </c>
       <c r="F10" s="74">
         <f>K16</f>
-        <v>63771646</v>
+        <v>63501646</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="0"/>
-        <v>1594775.5808270946</v>
+        <v>1864775.5808270946</v>
       </c>
       <c r="H10" s="11"/>
       <c r="J10" s="2" t="s">
-        <v>456</v>
+        <v>710</v>
       </c>
       <c r="K10" s="44">
-        <f>'مسکن علی سید الشهدا'!B27</f>
-        <v>50000</v>
+        <v>1000000</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>305</v>
@@ -37493,10 +37528,10 @@
       <c r="G11" s="29"/>
       <c r="H11" s="11"/>
       <c r="J11" s="2" t="s">
-        <v>710</v>
+        <v>85</v>
       </c>
       <c r="K11" s="44">
-        <v>1000000</v>
+        <v>-7900000</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>745</v>
@@ -37528,10 +37563,10 @@
       <c r="G12" s="29"/>
       <c r="H12" s="11"/>
       <c r="J12" s="2" t="s">
-        <v>85</v>
+        <v>459</v>
       </c>
       <c r="K12" s="44">
-        <v>-7900000</v>
+        <v>400000</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="29"/>
@@ -37559,10 +37594,10 @@
       <c r="G13" s="29"/>
       <c r="H13" s="11"/>
       <c r="J13" s="2" t="s">
-        <v>459</v>
+        <v>764</v>
       </c>
       <c r="K13" s="44">
-        <v>670000</v>
+        <v>30000000</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>25</v>
@@ -37591,11 +37626,9 @@
       <c r="F14" s="3"/>
       <c r="G14" s="29"/>
       <c r="H14" s="11"/>
-      <c r="J14" s="2" t="s">
-        <v>764</v>
-      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="44">
-        <v>30000000</v>
+        <v>0</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="11" t="s">
@@ -37634,10 +37667,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="29"/>
       <c r="H15" s="11"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="44">
-        <v>0</v>
-      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="25"/>
       <c r="M15" s="11" t="s">
         <v>748</v>
@@ -37676,8 +37707,8 @@
         <v>603</v>
       </c>
       <c r="K16" s="3">
-        <f>SUM(K7:K15)</f>
-        <v>63771646</v>
+        <f>SUM(K7:K14)</f>
+        <v>63501646</v>
       </c>
       <c r="L16" s="25"/>
       <c r="P16" s="28"/>
@@ -37710,8 +37741,8 @@
         <v>604</v>
       </c>
       <c r="K17" s="3">
-        <f>K9+K10+K13</f>
-        <v>40671646</v>
+        <f>K8+K9+K12</f>
+        <v>40401646</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" t="s">
@@ -37748,7 +37779,7 @@
       </c>
       <c r="K18" s="1">
         <f>K16+N11</f>
-        <v>120771646</v>
+        <v>120501646</v>
       </c>
       <c r="M18" s="25"/>
       <c r="P18" s="28"/>
@@ -37954,7 +37985,7 @@
       </c>
       <c r="M24" s="25"/>
       <c r="N24" s="57">
-        <v>440000</v>
+        <v>400000</v>
       </c>
       <c r="O24" s="58" t="s">
         <v>480</v>
@@ -38163,7 +38194,7 @@
       <c r="M29" s="26"/>
       <c r="N29" s="48">
         <f>SUM(N24:N28)</f>
-        <v>1460000</v>
+        <v>1420000</v>
       </c>
       <c r="O29" s="49" t="s">
         <v>6</v>
@@ -39995,7 +40026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -40499,7 +40530,7 @@
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G29" s="11">
-        <f>$I$44-I29</f>
+        <f t="shared" ref="G29:G40" si="6">$I$44-I29</f>
         <v>60000</v>
       </c>
       <c r="H29" s="11" t="s">
@@ -40514,7 +40545,7 @@
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G30" s="11">
-        <f>$I$44-I30</f>
+        <f t="shared" si="6"/>
         <v>25000</v>
       </c>
       <c r="H30" s="11" t="s">
@@ -40529,7 +40560,7 @@
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G31" s="11">
-        <f>$I$44-I31</f>
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="H31" s="11" t="s">
@@ -40544,7 +40575,7 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G32" s="11">
-        <f>$I$44-I32</f>
+        <f t="shared" si="6"/>
         <v>40000</v>
       </c>
       <c r="H32" s="63">
@@ -40559,7 +40590,7 @@
     </row>
     <row r="33" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G33" s="11">
-        <f>$I$44-I33</f>
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="H33" s="11" t="s">
@@ -40574,7 +40605,7 @@
     </row>
     <row r="34" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G34" s="11">
-        <f>$I$44-I34</f>
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="H34" s="11" t="s">
@@ -40589,7 +40620,7 @@
     </row>
     <row r="35" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G35" s="11">
-        <f>$I$44-I35</f>
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="H35" s="11" t="s">
@@ -40607,7 +40638,7 @@
         <v>25</v>
       </c>
       <c r="G36" s="11">
-        <f>$I$44-I36</f>
+        <f t="shared" si="6"/>
         <v>6000</v>
       </c>
       <c r="H36" s="11" t="s">
@@ -40625,7 +40656,7 @@
     </row>
     <row r="37" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G37" s="11">
-        <f>$I$44-I37</f>
+        <f t="shared" si="6"/>
         <v>7000</v>
       </c>
       <c r="H37" s="11" t="s">
@@ -40640,7 +40671,7 @@
     </row>
     <row r="38" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G38" s="11">
-        <f>$I$44-I38</f>
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="H38" s="11" t="s">
@@ -40655,7 +40686,7 @@
     </row>
     <row r="39" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G39" s="11">
-        <f>$I$44-I39</f>
+        <f t="shared" si="6"/>
         <v>35000</v>
       </c>
       <c r="H39" s="11" t="s">
@@ -40670,7 +40701,7 @@
     </row>
     <row r="40" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G40" s="11">
-        <f>$I$44-I40</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H40" s="11" t="s">
@@ -40712,7 +40743,7 @@
     </row>
     <row r="41" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G41" s="11">
-        <f t="shared" ref="G40:G43" si="6">$I$44-I41</f>
+        <f t="shared" ref="G41:G43" si="7">$I$44-I41</f>
         <v>225000</v>
       </c>
       <c r="H41" s="11"/>
@@ -40762,7 +40793,7 @@
     </row>
     <row r="42" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G42" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>225000</v>
       </c>
       <c r="H42" s="11" t="s">
@@ -40815,7 +40846,7 @@
     </row>
     <row r="43" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G43" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>225000</v>
       </c>
       <c r="H43" s="11"/>
@@ -40903,7 +40934,7 @@
         <v>107</v>
       </c>
       <c r="S52" s="18">
-        <f t="shared" ref="S52:S58" si="7">Q52*R52</f>
+        <f t="shared" ref="S52:S58" si="8">Q52*R52</f>
         <v>588500000</v>
       </c>
       <c r="U52" s="7">
@@ -40925,7 +40956,7 @@
         <v>76</v>
       </c>
       <c r="S53" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>418000000</v>
       </c>
     </row>
@@ -40943,7 +40974,7 @@
         <v>46</v>
       </c>
       <c r="S54" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>253000000</v>
       </c>
     </row>
@@ -40961,7 +40992,7 @@
         <v>15</v>
       </c>
       <c r="S55" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>82500000</v>
       </c>
       <c r="U55" s="7">
@@ -40983,7 +41014,7 @@
         <v>30</v>
       </c>
       <c r="S56" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>165000000</v>
       </c>
     </row>
@@ -41001,14 +41032,14 @@
         <v>59</v>
       </c>
       <c r="S57" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1416000000</v>
       </c>
     </row>
     <row r="58" spans="15:21" x14ac:dyDescent="0.25">
       <c r="Q58" s="18"/>
       <c r="S58" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -41056,7 +41087,7 @@
         <v>10</v>
       </c>
       <c r="Q74">
-        <f t="shared" ref="Q74:Q76" si="8">O74*P74</f>
+        <f t="shared" ref="Q74:Q76" si="9">O74*P74</f>
         <v>750</v>
       </c>
     </row>
@@ -41068,7 +41099,7 @@
         <v>5.5</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>247.5</v>
       </c>
     </row>
@@ -41080,7 +41111,7 @@
         <v>10</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
     </row>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="آبان 96" sheetId="27" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="796">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2388,9 +2388,6 @@
   </si>
   <si>
     <t>از کارت ملت گلدون خرید</t>
-  </si>
-  <si>
-    <t>8/8/1396</t>
   </si>
   <si>
     <t>حواله اچ سی مریم</t>
@@ -4175,7 +4172,7 @@
         <v>295200</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="O32">
         <v>29</v>
@@ -29796,7 +29793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
@@ -32861,9 +32858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C159" sqref="C159"/>
+      <selection pane="bottomLeft" activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32913,7 +32910,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -32921,7 +32918,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>59083700</v>
+        <v>59180400</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -32939,7 +32936,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -32947,7 +32944,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1827000000</v>
+        <v>1830000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -32963,7 +32960,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -32971,7 +32968,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-121400000</v>
+        <v>-121600000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -32987,7 +32984,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -32995,7 +32992,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-60500000</v>
+        <v>-60600000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -33011,7 +33008,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -33019,7 +33016,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-33220000</v>
+        <v>-33275000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -33035,7 +33032,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -33043,7 +33040,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-120600000</v>
+        <v>-120800000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -33059,7 +33056,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -33067,7 +33064,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-119800000</v>
+        <v>-120000000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -33083,7 +33080,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -33091,7 +33088,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-559844500</v>
+        <v>-560795000</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -33107,7 +33104,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -33115,7 +33112,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>1174000000</v>
+        <v>1176000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -33131,7 +33128,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -33139,7 +33136,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-624090000</v>
+        <v>-625155000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -33155,7 +33152,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -33163,7 +33160,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-26235000</v>
+        <v>-26280000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -33179,7 +33176,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -33187,7 +33184,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-1164407400</v>
+        <v>-1166408100</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -33203,7 +33200,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -33211,7 +33208,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-115600000</v>
+        <v>-115800000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -33227,7 +33224,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -33235,7 +33232,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>1150000000</v>
+        <v>1152000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -33251,7 +33248,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -33259,7 +33256,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>1150000000</v>
+        <v>1152000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -33275,7 +33272,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -33283,7 +33280,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>690000000</v>
+        <v>691200000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -33299,7 +33296,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -33307,7 +33304,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>575000000</v>
+        <v>576000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -33323,7 +33320,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -33331,7 +33328,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1722000000</v>
+        <v>1725000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -33350,7 +33347,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -33358,7 +33355,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-248802500</v>
+        <v>-249235200</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -33374,7 +33371,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -33382,7 +33379,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-248802500</v>
+        <v>-249235200</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -33398,7 +33395,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -33406,7 +33403,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-248802500</v>
+        <v>-249235200</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -33422,7 +33419,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -33430,7 +33427,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-248802500</v>
+        <v>-249235200</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -33446,7 +33443,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -33454,7 +33451,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-248802500</v>
+        <v>-249235200</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -33470,7 +33467,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -33478,7 +33475,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-115000000</v>
+        <v>-115200000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -33494,7 +33491,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -33502,7 +33499,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1719000000</v>
+        <v>1722000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -33518,7 +33515,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -33526,7 +33523,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-114400000</v>
+        <v>-114600000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -33542,7 +33539,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -33550,7 +33547,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>1140000000</v>
+        <v>1142000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -33566,7 +33563,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -33574,7 +33571,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-3990456000</v>
+        <v>-3997456800</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -33590,7 +33587,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -33598,7 +33595,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1707512100</v>
+        <v>-1710513000</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -33614,7 +33611,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -33622,7 +33619,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-963271200</v>
+        <v>-964967100</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -33638,7 +33635,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -33646,7 +33643,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>560785200</v>
+        <v>561779500</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -33662,7 +33659,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -33670,7 +33667,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>19580778</v>
+        <v>19615869</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>378</v>
@@ -33688,7 +33685,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -33696,7 +33693,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-474300000</v>
+        <v>-475150000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -33712,7 +33709,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -33720,7 +33717,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-104775000</v>
+        <v>-104965500</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -33736,7 +33733,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -33744,7 +33741,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>109600000</v>
+        <v>109800000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -33760,7 +33757,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -33768,7 +33765,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-109800000</v>
+        <v>-110000000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -33784,7 +33781,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -33792,7 +33789,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>158223956</v>
+        <v>158524762</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>398</v>
@@ -33810,7 +33807,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -33818,7 +33815,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-49970000</v>
+        <v>-50065000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -33834,7 +33831,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -33842,7 +33839,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-46342178</v>
+        <v>-46430281</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -33858,7 +33855,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -33866,7 +33863,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-62520000</v>
+        <v>-62640000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -33882,7 +33879,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -33890,7 +33887,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>498101592</v>
+        <v>499101796</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>399</v>
@@ -33908,7 +33905,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -33916,7 +33913,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-39600000</v>
+        <v>-39680000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -33932,7 +33929,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -33940,7 +33937,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-103615239</v>
+        <v>-103826268</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -33956,7 +33953,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -33964,7 +33961,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-98000000</v>
+        <v>-98200000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -33980,7 +33977,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -33988,7 +33985,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-46455000</v>
+        <v>-46550000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -34004,7 +34001,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -34012,7 +34009,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-21915000</v>
+        <v>-21960000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -34028,7 +34025,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -34036,7 +34033,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-31255660</v>
+        <v>-31319840</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -34052,7 +34049,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -34060,7 +34057,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-13302256</v>
+        <v>-13329740</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -34076,7 +34073,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -34084,7 +34081,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-68103000</v>
+        <v>-68244000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -34100,7 +34097,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -34108,7 +34105,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-12918318</v>
+        <v>-12945064</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -34124,7 +34121,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -34132,7 +34129,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-25690600</v>
+        <v>-25743900</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -34148,7 +34145,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -34156,7 +34153,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>480000000</v>
+        <v>481000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -34172,7 +34169,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -34180,7 +34177,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-9975000</v>
+        <v>-9996000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -34196,7 +34193,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -34204,7 +34201,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-464757000</v>
+        <v>-465737500</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -34220,7 +34217,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -34228,7 +34225,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-21330000</v>
+        <v>-21375000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -34244,7 +34241,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -34252,7 +34249,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>1382386940</v>
+        <v>1385392129</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>400</v>
@@ -34270,7 +34267,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -34278,7 +34275,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>920000000</v>
+        <v>922000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -34294,7 +34291,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -34302,7 +34299,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>918000000</v>
+        <v>920000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -34318,7 +34315,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -34326,7 +34323,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-3220690000</v>
+        <v>-3227691500</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -34342,7 +34339,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -34350,7 +34347,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>1305000000</v>
+        <v>1308000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -34366,7 +34363,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -34374,7 +34371,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-11792415</v>
+        <v>-11819524</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -34390,7 +34387,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -34398,7 +34395,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-14350215</v>
+        <v>-14383204</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -34414,7 +34411,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -34422,7 +34419,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>1302000000</v>
+        <v>1305000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -34438,7 +34435,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -34446,7 +34443,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>1288980000</v>
+        <v>1291950000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -34462,7 +34459,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -34470,7 +34467,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>434000000</v>
+        <v>435000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -34486,7 +34483,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -34494,7 +34491,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F170" si="5">B67*(D67-E67)</f>
-        <v>13020000</v>
+        <v>13050000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -34510,7 +34507,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -34518,7 +34515,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>12990000000</v>
+        <v>13020000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -34534,7 +34531,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -34542,7 +34539,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-86600000</v>
+        <v>-86800000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -34558,7 +34555,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -34566,7 +34563,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>604800000</v>
+        <v>606200000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -34582,7 +34579,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -34590,7 +34587,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>1123200000</v>
+        <v>1125800000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -34606,7 +34603,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -34614,7 +34611,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-433000000</v>
+        <v>-434000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -34630,7 +34627,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -34638,7 +34635,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>6450000000</v>
+        <v>6465000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -34654,7 +34651,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -34662,7 +34659,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-6391789200</v>
+        <v>-6406793400</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -34678,7 +34675,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -34686,7 +34683,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-1272000000</v>
+        <v>-1275000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -34702,7 +34699,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -34710,7 +34707,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-84800000</v>
+        <v>-85000000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -34726,7 +34723,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -34734,7 +34731,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-5089272000</v>
+        <v>-5101275000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -34750,7 +34747,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -34758,7 +34755,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-1260378000</v>
+        <v>-1263378900</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -34774,7 +34771,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -34782,7 +34779,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>9522000000</v>
+        <v>9545000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -34798,7 +34795,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -34806,7 +34803,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-246205000</v>
+        <v>-246805500</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -34822,7 +34819,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -34830,7 +34827,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-82000000</v>
+        <v>-82200000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -34846,7 +34843,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -34854,7 +34851,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>115554168</v>
+        <v>115837389</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -34872,7 +34869,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -34880,7 +34877,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-81800000</v>
+        <v>-82000000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -34896,7 +34893,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -34904,7 +34901,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>812000000</v>
+        <v>814000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -34920,7 +34917,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -34928,7 +34925,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-80800000</v>
+        <v>-81000000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -34944,7 +34941,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -34952,7 +34949,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-79600000</v>
+        <v>-79800000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -34968,7 +34965,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -34976,7 +34973,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-524700000</v>
+        <v>-526025000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -34992,7 +34989,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -35000,7 +34997,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-190500000</v>
+        <v>-191000000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -35016,7 +35013,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -35024,7 +35021,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-45720000</v>
+        <v>-45840000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -35040,7 +35037,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -35048,7 +35045,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>161861490</v>
+        <v>162289695</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -35066,7 +35063,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -35074,7 +35071,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-1128752000</v>
+        <v>-1131754000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>340</v>
@@ -35092,7 +35089,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -35100,7 +35097,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-76670000</v>
+        <v>-76875000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>341</v>
@@ -35118,7 +35115,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -35126,7 +35123,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-131087000</v>
+        <v>-131437500</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>338</v>
@@ -35144,7 +35141,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -35152,7 +35149,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>362000000</v>
+        <v>363000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>336</v>
@@ -35170,7 +35167,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -35178,7 +35175,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>3213000000</v>
+        <v>3222000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>348</v>
@@ -35197,7 +35194,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -35205,7 +35202,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-9256000000</v>
+        <v>-9282000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>350</v>
@@ -35223,7 +35220,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -35231,7 +35228,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-9256000000</v>
+        <v>-9282000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -35247,7 +35244,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -35255,7 +35252,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>9230000000</v>
+        <v>9256000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -35271,7 +35268,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -35279,7 +35276,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-71200000</v>
+        <v>-71400000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -35298,7 +35295,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -35306,7 +35303,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>10307600000</v>
+        <v>10336800000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -35322,7 +35319,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -35330,7 +35327,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>139180860</v>
+        <v>139580805</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>403</v>
@@ -35348,7 +35345,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -35356,7 +35353,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>694000000</v>
+        <v>696000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>405</v>
@@ -35374,7 +35371,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -35382,7 +35379,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>2595000000</v>
+        <v>2602500000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>413</v>
@@ -35400,7 +35397,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -35408,7 +35405,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-22902000000</v>
+        <v>-22968000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>427</v>
@@ -35426,7 +35423,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -35434,7 +35431,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-50315000</v>
+        <v>-50460000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>428</v>
@@ -35452,7 +35449,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -35460,7 +35457,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>2064000000</v>
+        <v>2070000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>429</v>
@@ -35478,7 +35475,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -35486,7 +35483,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-2060023700</v>
+        <v>-2066029600</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>439</v>
@@ -35504,7 +35501,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -35512,7 +35509,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>2034000000</v>
+        <v>2040000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>447</v>
@@ -35530,7 +35527,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -35538,7 +35535,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-39360000</v>
+        <v>-39480000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>462</v>
@@ -35556,7 +35553,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -35564,7 +35561,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>1304000000</v>
+        <v>1308000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>464</v>
@@ -35582,7 +35579,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -35590,7 +35587,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>910000000</v>
+        <v>912800000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>469</v>
@@ -35608,7 +35605,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -35616,7 +35613,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-64400000</v>
+        <v>-64600000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>475</v>
@@ -35634,7 +35631,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -35642,7 +35639,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>23139200</v>
+        <v>23211510</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>503</v>
@@ -35660,7 +35657,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -35668,7 +35665,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-60800000</v>
+        <v>-61000000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>462</v>
@@ -35689,7 +35686,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -35697,7 +35694,7 @@
       </c>
       <c r="F115" s="23">
         <f t="shared" si="5"/>
-        <v>-3333000000</v>
+        <v>-3344000000</v>
       </c>
       <c r="G115" s="23" t="s">
         <v>504</v>
@@ -35715,7 +35712,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -35723,7 +35720,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-60600000</v>
+        <v>-60800000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>462</v>
@@ -35744,7 +35741,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -35752,7 +35749,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-135600500</v>
+        <v>-136051000</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>506</v>
@@ -35770,7 +35767,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -35778,7 +35775,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-60200000</v>
+        <v>-60400000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>507</v>
@@ -35799,7 +35796,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -35807,7 +35804,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-45592250</v>
+        <v>-45746800</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>510</v>
@@ -35825,7 +35822,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -35833,7 +35830,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-94400</v>
+        <v>-94720</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>511</v>
@@ -35851,7 +35848,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -35859,7 +35856,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-127008000</v>
+        <v>-127440000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>513</v>
@@ -35877,7 +35874,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -35885,7 +35882,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>21250341</v>
+        <v>21324384</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>515</v>
@@ -35903,7 +35900,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -35911,7 +35908,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-13884000</v>
+        <v>-13936000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>539</v>
@@ -35929,7 +35926,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -35937,7 +35934,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>267075</v>
+        <v>268262</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>590</v>
@@ -35955,7 +35952,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -35963,7 +35960,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>537600000</v>
+        <v>540000000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>588</v>
@@ -35981,7 +35978,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -35989,7 +35986,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>298101600</v>
+        <v>299444400</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>597</v>
@@ -36007,7 +36004,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -36015,7 +36012,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>298101600</v>
+        <v>299444400</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>598</v>
@@ -36033,7 +36030,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -36041,7 +36038,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-42200000</v>
+        <v>-42400000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -36059,7 +36056,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -36067,7 +36064,7 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-3264162</v>
+        <v>-3279780</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>607</v>
@@ -36088,7 +36085,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -36096,7 +36093,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-41600000</v>
+        <v>-41800000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>507</v>
@@ -36114,7 +36111,7 @@
       </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D155" si="6">D132+C131</f>
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E171" si="7">IF(B131&gt;0,1,0)</f>
@@ -36122,7 +36119,7 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-41400000</v>
+        <v>-41600000</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>611</v>
@@ -36140,7 +36137,7 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -36148,7 +36145,7 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>-80340000</v>
+        <v>-80730000</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>613</v>
@@ -36166,7 +36163,7 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -36174,7 +36171,7 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>-5047000</v>
+        <v>-5071500</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>614</v>
@@ -36192,7 +36189,7 @@
       </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -36200,7 +36197,7 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>-19475000</v>
+        <v>-19570000</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>462</v>
@@ -36218,7 +36215,7 @@
       </c>
       <c r="D135" s="11">
         <f t="shared" si="6"/>
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="7"/>
@@ -36226,7 +36223,7 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="5"/>
-        <v>-40200000</v>
+        <v>-40400000</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>618</v>
@@ -36244,7 +36241,7 @@
       </c>
       <c r="D136" s="11">
         <f t="shared" si="6"/>
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="7"/>
@@ -36252,7 +36249,7 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="5"/>
-        <v>9900000000</v>
+        <v>9950000000</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>621</v>
@@ -36270,7 +36267,7 @@
       </c>
       <c r="D137" s="11">
         <f t="shared" si="6"/>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E137" s="11">
         <f t="shared" si="7"/>
@@ -36278,7 +36275,7 @@
       </c>
       <c r="F137" s="11">
         <f t="shared" si="5"/>
-        <v>2364000000</v>
+        <v>2376000000</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>621</v>
@@ -36296,7 +36293,7 @@
       </c>
       <c r="D138" s="11">
         <f t="shared" si="6"/>
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E138" s="11">
         <f t="shared" si="7"/>
@@ -36304,7 +36301,7 @@
       </c>
       <c r="F138" s="11">
         <f t="shared" si="5"/>
-        <v>390000000</v>
+        <v>392000000</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>630</v>
@@ -36322,7 +36319,7 @@
       </c>
       <c r="D139" s="11">
         <f t="shared" si="6"/>
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E139" s="11">
         <f t="shared" si="7"/>
@@ -36330,7 +36327,7 @@
       </c>
       <c r="F139" s="11">
         <f t="shared" si="5"/>
-        <v>16982372</v>
+        <v>17069910</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>378</v>
@@ -36348,7 +36345,7 @@
       </c>
       <c r="D140" s="11">
         <f t="shared" si="6"/>
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E140" s="11">
         <f t="shared" si="7"/>
@@ -36356,7 +36353,7 @@
       </c>
       <c r="F140" s="11">
         <f t="shared" si="5"/>
-        <v>-546163800</v>
+        <v>-549164700</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>672</v>
@@ -36374,7 +36371,7 @@
       </c>
       <c r="D141" s="11">
         <f t="shared" si="6"/>
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E141" s="11">
         <f t="shared" si="7"/>
@@ -36382,7 +36379,7 @@
       </c>
       <c r="F141" s="11">
         <f t="shared" si="5"/>
-        <v>-543162900</v>
+        <v>-546163800</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>672</v>
@@ -36403,7 +36400,7 @@
       </c>
       <c r="D142" s="11">
         <f t="shared" si="6"/>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E142" s="11">
         <f t="shared" si="7"/>
@@ -36411,7 +36408,7 @@
       </c>
       <c r="F142" s="11">
         <f t="shared" si="5"/>
-        <v>98130075</v>
+        <v>98732100</v>
       </c>
       <c r="G142" s="11" t="s">
         <v>696</v>
@@ -36429,7 +36426,7 @@
       </c>
       <c r="D143" s="11">
         <f t="shared" si="6"/>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E143" s="11">
         <f t="shared" si="7"/>
@@ -36437,7 +36434,7 @@
       </c>
       <c r="F143" s="11">
         <f t="shared" si="5"/>
-        <v>-7544000000</v>
+        <v>-7590000000</v>
       </c>
       <c r="G143" s="11" t="s">
         <v>699</v>
@@ -36455,7 +36452,7 @@
       </c>
       <c r="D144" s="11">
         <f t="shared" si="6"/>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E144" s="11">
         <f t="shared" si="7"/>
@@ -36463,7 +36460,7 @@
       </c>
       <c r="F144" s="11">
         <f t="shared" si="5"/>
-        <v>20342124</v>
+        <v>20496231</v>
       </c>
       <c r="G144" s="11" t="s">
         <v>722</v>
@@ -36481,7 +36478,7 @@
       </c>
       <c r="D145" s="11">
         <f t="shared" si="6"/>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E145" s="11">
         <f t="shared" si="7"/>
@@ -36489,7 +36486,7 @@
       </c>
       <c r="F145" s="11">
         <f t="shared" si="5"/>
-        <v>393000000</v>
+        <v>396000000</v>
       </c>
       <c r="G145" s="11" t="s">
         <v>729</v>
@@ -36507,7 +36504,7 @@
       </c>
       <c r="D146" s="11">
         <f t="shared" si="6"/>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E146" s="11">
         <f t="shared" si="7"/>
@@ -36515,7 +36512,7 @@
       </c>
       <c r="F146" s="11">
         <f t="shared" si="5"/>
-        <v>-25800000</v>
+        <v>-26000000</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>158</v>
@@ -36533,7 +36530,7 @@
       </c>
       <c r="D147" s="11">
         <f t="shared" si="6"/>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E147" s="11">
         <f t="shared" si="7"/>
@@ -36541,7 +36538,7 @@
       </c>
       <c r="F147" s="11">
         <f t="shared" si="5"/>
-        <v>-24800000</v>
+        <v>-25000000</v>
       </c>
       <c r="G147" s="11" t="s">
         <v>158</v>
@@ -36562,7 +36559,7 @@
       </c>
       <c r="D148" s="11">
         <f t="shared" si="6"/>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E148" s="11">
         <f t="shared" si="7"/>
@@ -36570,7 +36567,7 @@
       </c>
       <c r="F148" s="11">
         <f t="shared" si="5"/>
-        <v>-24600000</v>
+        <v>-24800000</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>158</v>
@@ -36588,7 +36585,7 @@
       </c>
       <c r="D149" s="11">
         <f t="shared" si="6"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E149" s="11">
         <f t="shared" si="7"/>
@@ -36596,7 +36593,7 @@
       </c>
       <c r="F149" s="11">
         <f t="shared" si="5"/>
-        <v>-23800000</v>
+        <v>-24000000</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>158</v>
@@ -36614,7 +36611,7 @@
       </c>
       <c r="D150" s="11">
         <f t="shared" si="6"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E150" s="11">
         <f t="shared" si="7"/>
@@ -36622,7 +36619,7 @@
       </c>
       <c r="F150" s="11">
         <f t="shared" si="5"/>
-        <v>2816587800</v>
+        <v>2840661200</v>
       </c>
       <c r="G150" s="11" t="s">
         <v>740</v>
@@ -36640,7 +36637,7 @@
       </c>
       <c r="D151" s="11">
         <f t="shared" si="6"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E151" s="11">
         <f t="shared" si="7"/>
@@ -36648,7 +36645,7 @@
       </c>
       <c r="F151" s="11">
         <f t="shared" si="5"/>
-        <v>-23200000</v>
+        <v>-23400000</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>158</v>
@@ -36666,7 +36663,7 @@
       </c>
       <c r="D152" s="11">
         <f t="shared" si="6"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E152" s="11">
         <f t="shared" si="7"/>
@@ -36674,7 +36671,7 @@
       </c>
       <c r="F152" s="11">
         <f t="shared" si="5"/>
-        <v>-3300000000</v>
+        <v>-3330000000</v>
       </c>
       <c r="G152" s="11" t="s">
         <v>753</v>
@@ -36692,7 +36689,7 @@
       </c>
       <c r="D153" s="11">
         <f t="shared" si="6"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E153" s="11">
         <f t="shared" si="7"/>
@@ -36700,7 +36697,7 @@
       </c>
       <c r="F153" s="11">
         <f t="shared" si="5"/>
-        <v>-5668000</v>
+        <v>-5720000</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>761</v>
@@ -36718,7 +36715,7 @@
       </c>
       <c r="D154" s="11">
         <f t="shared" si="6"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E154" s="11">
         <f t="shared" si="7"/>
@@ -36726,7 +36723,7 @@
       </c>
       <c r="F154" s="11">
         <f t="shared" si="5"/>
-        <v>-14824000</v>
+        <v>-14960000</v>
       </c>
       <c r="G154" s="11" t="s">
         <v>762</v>
@@ -36744,7 +36741,7 @@
       </c>
       <c r="D155" s="11">
         <f t="shared" si="6"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E155" s="11">
         <f t="shared" si="7"/>
@@ -36752,7 +36749,7 @@
       </c>
       <c r="F155" s="11">
         <f t="shared" si="5"/>
-        <v>309000000</v>
+        <v>312000000</v>
       </c>
       <c r="G155" s="11" t="s">
         <v>767</v>
@@ -36770,7 +36767,7 @@
       </c>
       <c r="D156" s="11">
         <f>D157+C156</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E156" s="11">
         <f t="shared" si="7"/>
@@ -36778,7 +36775,7 @@
       </c>
       <c r="F156" s="11">
         <f t="shared" si="5"/>
-        <v>19288506</v>
+        <v>19477609</v>
       </c>
       <c r="G156" s="11" t="s">
         <v>768</v>
@@ -36792,11 +36789,11 @@
         <v>24227700</v>
       </c>
       <c r="C157" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D157" s="11">
         <f t="shared" ref="D157:D171" si="8">D158+C157</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E157" s="11">
         <f t="shared" si="7"/>
@@ -36804,7 +36801,7 @@
       </c>
       <c r="F157" s="11">
         <f t="shared" si="5"/>
-        <v>2471225400</v>
+        <v>2495453100</v>
       </c>
       <c r="G157" s="11" t="s">
         <v>769</v>
@@ -36812,7 +36809,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="B158" s="3">
         <v>24295200</v>
@@ -36833,7 +36830,7 @@
         <v>2308044000</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -37089,7 +37086,7 @@
       <c r="E172" s="11"/>
       <c r="F172" s="29">
         <f>SUM(F2:F170)</f>
-        <v>14209917284</v>
+        <v>14249868930</v>
       </c>
       <c r="G172" s="11"/>
     </row>
@@ -37123,7 +37120,7 @@
       <c r="E175" s="11"/>
       <c r="F175" s="3">
         <f>F172/D2</f>
-        <v>23218819.091503266</v>
+        <v>23246115.709624797</v>
       </c>
       <c r="G175" s="11"/>
     </row>
@@ -37158,7 +37155,7 @@
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37554,11 +37551,11 @@
       </c>
       <c r="F10" s="72">
         <f>K16</f>
-        <v>63596846</v>
+        <v>63476846</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="0"/>
-        <v>1769575.5808270946</v>
+        <v>1889575.5808270946</v>
       </c>
       <c r="H10" s="11"/>
       <c r="J10" s="2" t="s">
@@ -37601,7 +37598,7 @@
         <v>459</v>
       </c>
       <c r="K11" s="43">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>748</v>
@@ -37724,7 +37721,7 @@
       <c r="L15" s="25"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="R15" s="25"/>
     </row>
@@ -37755,11 +37752,11 @@
       </c>
       <c r="K16" s="3">
         <f>SUM(K7:K13)</f>
-        <v>63596846</v>
+        <v>63476846</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N16" s="29">
         <f>'مسکن مریم یاران'!B105</f>
@@ -37796,7 +37793,7 @@
       </c>
       <c r="K17" s="3">
         <f>K7+K8+K11</f>
-        <v>64596846</v>
+        <v>64476846</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="11" t="s">
@@ -37837,10 +37834,10 @@
       </c>
       <c r="K18" s="1">
         <f>K16+N7</f>
-        <v>120596846</v>
+        <v>120476846</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="N18" s="29">
         <v>65000000</v>
@@ -37884,7 +37881,7 @@
       <c r="G19" s="29"/>
       <c r="H19" s="11"/>
       <c r="M19" s="11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="N19" s="29">
         <v>5500000</v>
@@ -37903,7 +37900,7 @@
         <v>480000000</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -37931,13 +37928,13 @@
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
       <c r="M20" s="11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="N20" s="29">
         <v>3300000</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="Q20" s="29">
         <v>6000000</v>
@@ -37950,7 +37947,7 @@
         <v>6000000</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -37981,7 +37978,7 @@
         <v>306</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="N21" s="29">
         <v>2000000</v>
@@ -38022,7 +38019,7 @@
         <v>70000</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="N22" s="29">
         <v>200000</v>
@@ -38304,7 +38301,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="V29" s="25"/>
       <c r="W29" s="25"/>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="آبان 96" sheetId="27" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="797">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2427,6 +2427,9 @@
   </si>
   <si>
     <t>طلب از علی</t>
+  </si>
+  <si>
+    <t>هزار هزینه چک و 200 از عابربانک</t>
   </si>
 </sst>
 </file>
@@ -29793,7 +29796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
@@ -32858,9 +32861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36815,7 +36818,7 @@
         <v>24295200</v>
       </c>
       <c r="C158" s="11">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D158" s="11">
         <f t="shared" si="8"/>
@@ -36834,12 +36837,18 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="11"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="11"/>
+      <c r="A159" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="B159" s="3">
+        <v>-201000</v>
+      </c>
+      <c r="C159" s="11">
+        <v>96</v>
+      </c>
       <c r="D159" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E159" s="11">
         <f t="shared" si="7"/>
@@ -36847,9 +36856,11 @@
       </c>
       <c r="F159" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G159" s="11"/>
+        <v>-19296000</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
@@ -37079,14 +37090,14 @@
       <c r="A172" s="11"/>
       <c r="B172" s="29">
         <f>SUM(B2:B170)</f>
-        <v>64246846</v>
+        <v>64045846</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
       <c r="F172" s="29">
         <f>SUM(F2:F170)</f>
-        <v>14249868930</v>
+        <v>14230572930</v>
       </c>
       <c r="G172" s="11"/>
     </row>
@@ -37120,7 +37131,7 @@
       <c r="E175" s="11"/>
       <c r="F175" s="3">
         <f>F172/D2</f>
-        <v>23246115.709624797</v>
+        <v>23214637.732463297</v>
       </c>
       <c r="G175" s="11"/>
     </row>
@@ -37442,7 +37453,7 @@
       </c>
       <c r="K7" s="43">
         <f>'مسکن ایلیا'!B172</f>
-        <v>64246846</v>
+        <v>64045846</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>745</v>
@@ -37551,11 +37562,11 @@
       </c>
       <c r="F10" s="72">
         <f>K16</f>
-        <v>63476846</v>
+        <v>63275846</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="0"/>
-        <v>1889575.5808270946</v>
+        <v>2090575.5808270946</v>
       </c>
       <c r="H10" s="11"/>
       <c r="J10" s="2" t="s">
@@ -37752,7 +37763,7 @@
       </c>
       <c r="K16" s="3">
         <f>SUM(K7:K13)</f>
-        <v>63476846</v>
+        <v>63275846</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="11" t="s">
@@ -37793,7 +37804,7 @@
       </c>
       <c r="K17" s="3">
         <f>K7+K8+K11</f>
-        <v>64476846</v>
+        <v>64275846</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="11" t="s">
@@ -37834,7 +37845,7 @@
       </c>
       <c r="K18" s="1">
         <f>K16+N7</f>
-        <v>120476846</v>
+        <v>120275846</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>786</v>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="آبان 96" sheetId="27" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="800">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2430,6 +2430,15 @@
   </si>
   <si>
     <t>هزار هزینه چک و 200 از عابربانک</t>
+  </si>
+  <si>
+    <t>14/8/1396</t>
+  </si>
+  <si>
+    <t>علی از عابر گرفت</t>
+  </si>
+  <si>
+    <t>طلب از مونا</t>
   </si>
 </sst>
 </file>
@@ -29797,7 +29806,7 @@
   <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
@@ -32861,9 +32870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G159" sqref="G159"/>
+      <selection pane="bottomLeft" activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32913,7 +32922,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>613</v>
+        <v>523</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -32921,7 +32930,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>59180400</v>
+        <v>50477400</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -32939,7 +32948,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>611</v>
+        <v>521</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -32947,7 +32956,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1830000000</v>
+        <v>1560000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -32963,7 +32972,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>608</v>
+        <v>518</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -32971,7 +32980,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-121600000</v>
+        <v>-103600000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -32987,7 +32996,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>606</v>
+        <v>516</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -32995,7 +33004,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-60600000</v>
+        <v>-51600000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -33011,7 +33020,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>605</v>
+        <v>515</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -33019,7 +33028,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-33275000</v>
+        <v>-28325000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -33035,7 +33044,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>604</v>
+        <v>514</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -33043,7 +33052,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-120800000</v>
+        <v>-102800000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -33059,7 +33068,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -33067,7 +33076,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-120000000</v>
+        <v>-102000000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -33083,7 +33092,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>590</v>
+        <v>500</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -33091,7 +33100,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-560795000</v>
+        <v>-475250000</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -33107,7 +33116,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>589</v>
+        <v>499</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -33115,7 +33124,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>1176000000</v>
+        <v>996000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -33131,7 +33140,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>587</v>
+        <v>497</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -33139,7 +33148,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-625155000</v>
+        <v>-529305000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -33155,7 +33164,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>584</v>
+        <v>494</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -33163,7 +33172,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-26280000</v>
+        <v>-22230000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -33179,7 +33188,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>583</v>
+        <v>493</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -33187,7 +33196,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-1166408100</v>
+        <v>-986345100</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -33203,7 +33212,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>579</v>
+        <v>489</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -33211,7 +33220,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-115800000</v>
+        <v>-97800000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -33227,7 +33236,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>577</v>
+        <v>487</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -33235,7 +33244,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>1152000000</v>
+        <v>972000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -33251,7 +33260,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>577</v>
+        <v>487</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -33259,7 +33268,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>1152000000</v>
+        <v>972000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -33275,7 +33284,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>577</v>
+        <v>487</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -33283,7 +33292,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>691200000</v>
+        <v>583200000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -33299,7 +33308,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>577</v>
+        <v>487</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -33307,7 +33316,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>576000000</v>
+        <v>486000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -33323,7 +33332,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -33331,7 +33340,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1725000000</v>
+        <v>1455000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -33350,7 +33359,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -33358,7 +33367,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-249235200</v>
+        <v>-210292200</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -33374,7 +33383,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -33382,7 +33391,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-249235200</v>
+        <v>-210292200</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -33398,7 +33407,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -33406,7 +33415,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-249235200</v>
+        <v>-210292200</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -33422,7 +33431,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -33430,7 +33439,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-249235200</v>
+        <v>-210292200</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -33446,7 +33455,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -33454,7 +33463,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-249235200</v>
+        <v>-210292200</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -33470,7 +33479,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -33478,7 +33487,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-115200000</v>
+        <v>-97200000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -33494,7 +33503,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>575</v>
+        <v>485</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -33502,7 +33511,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1722000000</v>
+        <v>1452000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -33518,7 +33527,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>573</v>
+        <v>483</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -33526,7 +33535,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-114600000</v>
+        <v>-96600000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -33542,7 +33551,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>572</v>
+        <v>482</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -33550,7 +33559,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>1142000000</v>
+        <v>962000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -33566,7 +33575,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>571</v>
+        <v>481</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -33574,7 +33583,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-3997456800</v>
+        <v>-3367384800</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -33590,7 +33599,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -33598,7 +33607,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1710513000</v>
+        <v>-1440432000</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -33614,7 +33623,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>569</v>
+        <v>479</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -33622,7 +33631,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-964967100</v>
+        <v>-812336100</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -33638,7 +33647,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>566</v>
+        <v>476</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -33646,7 +33655,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>561779500</v>
+        <v>472292500</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -33662,7 +33671,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>560</v>
+        <v>470</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -33670,7 +33679,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>19615869</v>
+        <v>16457679</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>378</v>
@@ -33688,7 +33697,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>559</v>
+        <v>469</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -33696,7 +33705,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-475150000</v>
+        <v>-398650000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -33712,7 +33721,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>551</v>
+        <v>461</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -33720,7 +33729,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-104965500</v>
+        <v>-87820500</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -33736,7 +33745,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>460</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -33744,7 +33753,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>109800000</v>
+        <v>91800000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -33760,7 +33769,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>460</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -33768,7 +33777,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-110000000</v>
+        <v>-92000000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -33784,7 +33793,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>528</v>
+        <v>438</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -33792,7 +33801,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>158524762</v>
+        <v>131452222</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>398</v>
@@ -33810,7 +33819,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>527</v>
+        <v>437</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -33818,7 +33827,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-50065000</v>
+        <v>-41515000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -33834,7 +33843,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>527</v>
+        <v>437</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -33842,7 +33851,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-46430281</v>
+        <v>-38501011</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -33858,7 +33867,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>522</v>
+        <v>432</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -33866,7 +33875,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-62640000</v>
+        <v>-51840000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -33882,7 +33891,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -33890,7 +33899,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>499101796</v>
+        <v>409083436</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>399</v>
@@ -33908,7 +33917,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>496</v>
+        <v>406</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -33916,7 +33925,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-39680000</v>
+        <v>-32480000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -33932,7 +33941,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>492</v>
+        <v>402</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -33940,7 +33949,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-103826268</v>
+        <v>-84833658</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -33956,7 +33965,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>491</v>
+        <v>401</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -33964,7 +33973,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-98200000</v>
+        <v>-80200000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -33980,7 +33989,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -33988,7 +33997,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-46550000</v>
+        <v>-38000000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -34004,7 +34013,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>488</v>
+        <v>398</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -34012,7 +34021,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-21960000</v>
+        <v>-17910000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -34028,7 +34037,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>488</v>
+        <v>398</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -34036,7 +34045,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-31319840</v>
+        <v>-25543640</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -34052,7 +34061,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>485</v>
+        <v>395</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -34060,7 +34069,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-13329740</v>
+        <v>-10856180</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -34076,7 +34085,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>484</v>
+        <v>394</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -34084,7 +34093,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-68244000</v>
+        <v>-55554000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -34100,7 +34109,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>484</v>
+        <v>394</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -34108,7 +34117,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-12945064</v>
+        <v>-10537924</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -34124,7 +34133,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>483</v>
+        <v>393</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -34132,7 +34141,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-25743900</v>
+        <v>-20946900</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -34148,7 +34157,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>482</v>
+        <v>392</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -34156,7 +34165,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>481000000</v>
+        <v>391000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -34172,7 +34181,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>476</v>
+        <v>386</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -34180,7 +34189,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-9996000</v>
+        <v>-8106000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -34196,7 +34205,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>385</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -34204,7 +34213,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-465737500</v>
+        <v>-377492500</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -34220,7 +34229,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>385</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -34228,7 +34237,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-21375000</v>
+        <v>-17325000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -34244,7 +34253,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>462</v>
+        <v>372</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -34252,7 +34261,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>1385392129</v>
+        <v>1114925119</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>400</v>
@@ -34270,7 +34279,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>462</v>
+        <v>372</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -34278,7 +34287,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>922000000</v>
+        <v>742000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -34294,7 +34303,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -34302,7 +34311,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>920000000</v>
+        <v>740000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -34318,7 +34327,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -34326,7 +34335,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-3227691500</v>
+        <v>-2597556500</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -34342,7 +34351,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -34350,7 +34359,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>1308000000</v>
+        <v>1038000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -34366,7 +34375,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>436</v>
+        <v>346</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -34374,7 +34383,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-11819524</v>
+        <v>-9379714</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -34390,7 +34399,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>436</v>
+        <v>346</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -34398,7 +34407,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-14383204</v>
+        <v>-11414194</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -34414,7 +34423,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>436</v>
+        <v>346</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -34422,7 +34431,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>1305000000</v>
+        <v>1035000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -34438,7 +34447,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>436</v>
+        <v>346</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -34446,7 +34455,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>1291950000</v>
+        <v>1024650000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -34462,7 +34471,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>436</v>
+        <v>346</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -34470,7 +34479,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>435000000</v>
+        <v>345000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -34486,7 +34495,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>436</v>
+        <v>346</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -34494,7 +34503,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F170" si="5">B67*(D67-E67)</f>
-        <v>13050000</v>
+        <v>10350000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -34510,7 +34519,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>435</v>
+        <v>345</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -34518,7 +34527,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>13020000000</v>
+        <v>10320000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -34534,7 +34543,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>344</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -34542,7 +34551,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-86800000</v>
+        <v>-68800000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -34558,7 +34567,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>344</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -34566,7 +34575,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>606200000</v>
+        <v>480200000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -34582,7 +34591,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>344</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -34590,7 +34599,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>1125800000</v>
+        <v>891800000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -34606,7 +34615,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>344</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -34614,7 +34623,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-434000000</v>
+        <v>-344000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -34630,7 +34639,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>432</v>
+        <v>342</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -34638,7 +34647,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>6465000000</v>
+        <v>5115000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -34654,7 +34663,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>427</v>
+        <v>337</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -34662,7 +34671,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-6406793400</v>
+        <v>-5056415400</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -34678,7 +34687,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>425</v>
+        <v>335</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -34686,7 +34695,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-1275000000</v>
+        <v>-1005000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -34702,7 +34711,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>425</v>
+        <v>335</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -34710,7 +34719,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-85000000</v>
+        <v>-67000000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -34726,7 +34735,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>425</v>
+        <v>335</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -34734,7 +34743,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-5101275000</v>
+        <v>-4021005000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -34750,7 +34759,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>421</v>
+        <v>331</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -34758,7 +34767,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-1263378900</v>
+        <v>-993297900</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -34774,7 +34783,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>416</v>
+        <v>326</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -34782,7 +34791,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>9545000000</v>
+        <v>7475000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -34798,7 +34807,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>411</v>
+        <v>321</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -34806,7 +34815,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-246805500</v>
+        <v>-192760500</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -34822,7 +34831,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>411</v>
+        <v>321</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -34830,7 +34839,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-82200000</v>
+        <v>-64200000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -34846,7 +34855,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>410</v>
+        <v>320</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -34854,7 +34863,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>115837389</v>
+        <v>90347499</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -34872,7 +34881,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>410</v>
+        <v>320</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -34880,7 +34889,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-82000000</v>
+        <v>-64000000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -34896,7 +34905,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>408</v>
+        <v>318</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -34904,7 +34913,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>814000000</v>
+        <v>634000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -34920,7 +34929,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>405</v>
+        <v>315</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -34928,7 +34937,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-81000000</v>
+        <v>-63000000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -34944,7 +34953,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>399</v>
+        <v>309</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -34952,7 +34961,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-79800000</v>
+        <v>-61800000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -34968,7 +34977,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>397</v>
+        <v>307</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -34976,7 +34985,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-526025000</v>
+        <v>-406775000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -34992,7 +35001,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>382</v>
+        <v>292</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -35000,7 +35009,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-191000000</v>
+        <v>-146000000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -35016,7 +35025,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>382</v>
+        <v>292</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -35024,7 +35033,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-45840000</v>
+        <v>-35040000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -35040,7 +35049,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -35048,7 +35057,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>162289695</v>
+        <v>123751245</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -35066,7 +35075,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>377</v>
+        <v>287</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -35074,7 +35083,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-1131754000</v>
+        <v>-861574000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>340</v>
@@ -35092,7 +35101,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>375</v>
+        <v>285</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -35100,7 +35109,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-76875000</v>
+        <v>-58425000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>341</v>
@@ -35118,7 +35127,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>375</v>
+        <v>285</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -35126,7 +35135,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-131437500</v>
+        <v>-99892500</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>338</v>
@@ -35144,7 +35153,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>364</v>
+        <v>274</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -35152,7 +35161,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>363000000</v>
+        <v>273000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>336</v>
@@ -35170,7 +35179,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>359</v>
+        <v>269</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -35178,7 +35187,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>3222000000</v>
+        <v>2412000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>348</v>
@@ -35197,7 +35206,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>357</v>
+        <v>267</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -35205,7 +35214,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-9282000000</v>
+        <v>-6942000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>350</v>
@@ -35223,7 +35232,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>357</v>
+        <v>267</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -35231,7 +35240,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-9282000000</v>
+        <v>-6942000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -35247,7 +35256,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>357</v>
+        <v>267</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -35255,7 +35264,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>9256000000</v>
+        <v>6916000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -35271,7 +35280,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>357</v>
+        <v>267</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -35279,7 +35288,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-71400000</v>
+        <v>-53400000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -35298,7 +35307,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>355</v>
+        <v>265</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -35306,7 +35315,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>10336800000</v>
+        <v>7708800000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -35322,7 +35331,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -35330,7 +35339,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>139580805</v>
+        <v>103585755</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>403</v>
@@ -35348,7 +35357,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>349</v>
+        <v>259</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -35356,7 +35365,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>696000000</v>
+        <v>516000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>405</v>
@@ -35374,7 +35383,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>348</v>
+        <v>258</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -35382,7 +35391,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>2602500000</v>
+        <v>1927500000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>413</v>
@@ -35400,7 +35409,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>348</v>
+        <v>258</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -35408,7 +35417,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-22968000000</v>
+        <v>-17028000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>427</v>
@@ -35426,7 +35435,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>348</v>
+        <v>258</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -35434,7 +35443,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-50460000</v>
+        <v>-37410000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>428</v>
@@ -35452,7 +35461,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>346</v>
+        <v>256</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -35460,7 +35469,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>2070000000</v>
+        <v>1530000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>429</v>
@@ -35478,7 +35487,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>344</v>
+        <v>254</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -35486,7 +35495,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-2066029600</v>
+        <v>-1525498600</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>439</v>
@@ -35504,7 +35513,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>341</v>
+        <v>251</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -35512,7 +35521,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>2040000000</v>
+        <v>1500000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>447</v>
@@ -35530,7 +35539,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>329</v>
+        <v>239</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -35538,7 +35547,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-39480000</v>
+        <v>-28680000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>462</v>
@@ -35556,7 +35565,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -35564,7 +35573,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>1308000000</v>
+        <v>948000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>464</v>
@@ -35582,7 +35591,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>327</v>
+        <v>237</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -35590,7 +35599,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>912800000</v>
+        <v>660800000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>469</v>
@@ -35608,7 +35617,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>323</v>
+        <v>233</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -35616,7 +35625,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-64600000</v>
+        <v>-46600000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>475</v>
@@ -35634,7 +35643,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>322</v>
+        <v>232</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -35642,7 +35651,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>23211510</v>
+        <v>16703610</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>503</v>
@@ -35660,7 +35669,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -35668,7 +35677,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-61000000</v>
+        <v>-43000000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>462</v>
@@ -35689,7 +35698,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -35697,7 +35706,7 @@
       </c>
       <c r="F115" s="23">
         <f t="shared" si="5"/>
-        <v>-3344000000</v>
+        <v>-2354000000</v>
       </c>
       <c r="G115" s="23" t="s">
         <v>504</v>
@@ -35715,7 +35724,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -35723,7 +35732,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-60800000</v>
+        <v>-42800000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>462</v>
@@ -35744,7 +35753,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>302</v>
+        <v>212</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -35752,7 +35761,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-136051000</v>
+        <v>-95506000</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>506</v>
@@ -35770,7 +35779,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>302</v>
+        <v>212</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -35778,7 +35787,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-60400000</v>
+        <v>-42400000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>507</v>
@@ -35799,7 +35808,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>296</v>
+        <v>206</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -35807,7 +35816,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-45746800</v>
+        <v>-31837300</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>510</v>
@@ -35825,7 +35834,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>296</v>
+        <v>206</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -35833,7 +35842,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-94720</v>
+        <v>-65920</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>511</v>
@@ -35851,7 +35860,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -35859,7 +35868,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-127440000</v>
+        <v>-88560000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>513</v>
@@ -35877,7 +35886,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>289</v>
+        <v>199</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -35885,7 +35894,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>21324384</v>
+        <v>14660514</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>515</v>
@@ -35903,7 +35912,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>178</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -35911,7 +35920,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-13936000</v>
+        <v>-9256000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>539</v>
@@ -35929,7 +35938,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -35937,7 +35946,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>268262</v>
+        <v>161432</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>590</v>
@@ -35955,7 +35964,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -35963,7 +35972,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>540000000</v>
+        <v>324000000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>588</v>
@@ -35981,7 +35990,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -35989,7 +35998,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>299444400</v>
+        <v>178592400</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>597</v>
@@ -36007,7 +36016,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -36015,7 +36024,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>299444400</v>
+        <v>178592400</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>598</v>
@@ -36033,7 +36042,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -36041,7 +36050,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-42400000</v>
+        <v>-24400000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -36059,7 +36068,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -36067,7 +36076,7 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-3279780</v>
+        <v>-1874160</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>607</v>
@@ -36088,7 +36097,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -36096,7 +36105,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-41800000</v>
+        <v>-23800000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>507</v>
@@ -36114,7 +36123,7 @@
       </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D155" si="6">D132+C131</f>
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E171" si="7">IF(B131&gt;0,1,0)</f>
@@ -36122,7 +36131,7 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-41600000</v>
+        <v>-23600000</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>611</v>
@@ -36140,7 +36149,7 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -36148,7 +36157,7 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>-80730000</v>
+        <v>-45630000</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>613</v>
@@ -36166,7 +36175,7 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -36174,7 +36183,7 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>-5071500</v>
+        <v>-2866500</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>614</v>
@@ -36192,7 +36201,7 @@
       </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -36200,7 +36209,7 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>-19570000</v>
+        <v>-11020000</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>462</v>
@@ -36218,7 +36227,7 @@
       </c>
       <c r="D135" s="11">
         <f t="shared" si="6"/>
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="7"/>
@@ -36226,7 +36235,7 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="5"/>
-        <v>-40400000</v>
+        <v>-22400000</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>618</v>
@@ -36244,7 +36253,7 @@
       </c>
       <c r="D136" s="11">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="7"/>
@@ -36252,7 +36261,7 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="5"/>
-        <v>9950000000</v>
+        <v>5450000000</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>621</v>
@@ -36270,7 +36279,7 @@
       </c>
       <c r="D137" s="11">
         <f t="shared" si="6"/>
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="E137" s="11">
         <f t="shared" si="7"/>
@@ -36278,7 +36287,7 @@
       </c>
       <c r="F137" s="11">
         <f t="shared" si="5"/>
-        <v>2376000000</v>
+        <v>1296000000</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>621</v>
@@ -36296,7 +36305,7 @@
       </c>
       <c r="D138" s="11">
         <f t="shared" si="6"/>
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="E138" s="11">
         <f t="shared" si="7"/>
@@ -36304,7 +36313,7 @@
       </c>
       <c r="F138" s="11">
         <f t="shared" si="5"/>
-        <v>392000000</v>
+        <v>212000000</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>630</v>
@@ -36322,7 +36331,7 @@
       </c>
       <c r="D139" s="11">
         <f t="shared" si="6"/>
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="E139" s="11">
         <f t="shared" si="7"/>
@@ -36330,7 +36339,7 @@
       </c>
       <c r="F139" s="11">
         <f t="shared" si="5"/>
-        <v>17069910</v>
+        <v>9191490</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>378</v>
@@ -36348,7 +36357,7 @@
       </c>
       <c r="D140" s="11">
         <f t="shared" si="6"/>
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="E140" s="11">
         <f t="shared" si="7"/>
@@ -36356,7 +36365,7 @@
       </c>
       <c r="F140" s="11">
         <f t="shared" si="5"/>
-        <v>-549164700</v>
+        <v>-279083700</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>672</v>
@@ -36374,7 +36383,7 @@
       </c>
       <c r="D141" s="11">
         <f t="shared" si="6"/>
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="E141" s="11">
         <f t="shared" si="7"/>
@@ -36382,7 +36391,7 @@
       </c>
       <c r="F141" s="11">
         <f t="shared" si="5"/>
-        <v>-546163800</v>
+        <v>-276082800</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>672</v>
@@ -36403,7 +36412,7 @@
       </c>
       <c r="D142" s="11">
         <f t="shared" si="6"/>
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="E142" s="11">
         <f t="shared" si="7"/>
@@ -36411,7 +36420,7 @@
       </c>
       <c r="F142" s="11">
         <f t="shared" si="5"/>
-        <v>98732100</v>
+        <v>44549850</v>
       </c>
       <c r="G142" s="11" t="s">
         <v>696</v>
@@ -36429,7 +36438,7 @@
       </c>
       <c r="D143" s="11">
         <f t="shared" si="6"/>
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="E143" s="11">
         <f t="shared" si="7"/>
@@ -36437,7 +36446,7 @@
       </c>
       <c r="F143" s="11">
         <f t="shared" si="5"/>
-        <v>-7590000000</v>
+        <v>-3450000000</v>
       </c>
       <c r="G143" s="11" t="s">
         <v>699</v>
@@ -36455,7 +36464,7 @@
       </c>
       <c r="D144" s="11">
         <f t="shared" si="6"/>
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="E144" s="11">
         <f t="shared" si="7"/>
@@ -36463,7 +36472,7 @@
       </c>
       <c r="F144" s="11">
         <f t="shared" si="5"/>
-        <v>20496231</v>
+        <v>6626601</v>
       </c>
       <c r="G144" s="11" t="s">
         <v>722</v>
@@ -36481,7 +36490,7 @@
       </c>
       <c r="D145" s="11">
         <f t="shared" si="6"/>
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="E145" s="11">
         <f t="shared" si="7"/>
@@ -36489,7 +36498,7 @@
       </c>
       <c r="F145" s="11">
         <f t="shared" si="5"/>
-        <v>396000000</v>
+        <v>126000000</v>
       </c>
       <c r="G145" s="11" t="s">
         <v>729</v>
@@ -36507,7 +36516,7 @@
       </c>
       <c r="D146" s="11">
         <f t="shared" si="6"/>
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="E146" s="11">
         <f t="shared" si="7"/>
@@ -36515,7 +36524,7 @@
       </c>
       <c r="F146" s="11">
         <f t="shared" si="5"/>
-        <v>-26000000</v>
+        <v>-8000000</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>158</v>
@@ -36533,7 +36542,7 @@
       </c>
       <c r="D147" s="11">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="E147" s="11">
         <f t="shared" si="7"/>
@@ -36541,7 +36550,7 @@
       </c>
       <c r="F147" s="11">
         <f t="shared" si="5"/>
-        <v>-25000000</v>
+        <v>-7000000</v>
       </c>
       <c r="G147" s="11" t="s">
         <v>158</v>
@@ -36562,7 +36571,7 @@
       </c>
       <c r="D148" s="11">
         <f t="shared" si="6"/>
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="E148" s="11">
         <f t="shared" si="7"/>
@@ -36570,7 +36579,7 @@
       </c>
       <c r="F148" s="11">
         <f t="shared" si="5"/>
-        <v>-24800000</v>
+        <v>-6800000</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>158</v>
@@ -36588,7 +36597,7 @@
       </c>
       <c r="D149" s="11">
         <f t="shared" si="6"/>
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="E149" s="11">
         <f t="shared" si="7"/>
@@ -36596,7 +36605,7 @@
       </c>
       <c r="F149" s="11">
         <f t="shared" si="5"/>
-        <v>-24000000</v>
+        <v>-6000000</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>158</v>
@@ -36614,7 +36623,7 @@
       </c>
       <c r="D150" s="11">
         <f t="shared" si="6"/>
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="E150" s="11">
         <f t="shared" si="7"/>
@@ -36622,7 +36631,7 @@
       </c>
       <c r="F150" s="11">
         <f t="shared" si="5"/>
-        <v>2840661200</v>
+        <v>674055200</v>
       </c>
       <c r="G150" s="11" t="s">
         <v>740</v>
@@ -36640,7 +36649,7 @@
       </c>
       <c r="D151" s="11">
         <f t="shared" si="6"/>
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="E151" s="11">
         <f t="shared" si="7"/>
@@ -36648,7 +36657,7 @@
       </c>
       <c r="F151" s="11">
         <f t="shared" si="5"/>
-        <v>-23400000</v>
+        <v>-5400000</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>158</v>
@@ -36666,7 +36675,7 @@
       </c>
       <c r="D152" s="11">
         <f t="shared" si="6"/>
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="E152" s="11">
         <f t="shared" si="7"/>
@@ -36674,7 +36683,7 @@
       </c>
       <c r="F152" s="11">
         <f t="shared" si="5"/>
-        <v>-3330000000</v>
+        <v>-630000000</v>
       </c>
       <c r="G152" s="11" t="s">
         <v>753</v>
@@ -36692,7 +36701,7 @@
       </c>
       <c r="D153" s="11">
         <f t="shared" si="6"/>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E153" s="11">
         <f t="shared" si="7"/>
@@ -36700,7 +36709,7 @@
       </c>
       <c r="F153" s="11">
         <f t="shared" si="5"/>
-        <v>-5720000</v>
+        <v>-1040000</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>761</v>
@@ -36718,7 +36727,7 @@
       </c>
       <c r="D154" s="11">
         <f t="shared" si="6"/>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E154" s="11">
         <f t="shared" si="7"/>
@@ -36726,7 +36735,7 @@
       </c>
       <c r="F154" s="11">
         <f t="shared" si="5"/>
-        <v>-14960000</v>
+        <v>-2720000</v>
       </c>
       <c r="G154" s="11" t="s">
         <v>762</v>
@@ -36744,7 +36753,7 @@
       </c>
       <c r="D155" s="11">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E155" s="11">
         <f t="shared" si="7"/>
@@ -36752,7 +36761,7 @@
       </c>
       <c r="F155" s="11">
         <f t="shared" si="5"/>
-        <v>312000000</v>
+        <v>42000000</v>
       </c>
       <c r="G155" s="11" t="s">
         <v>767</v>
@@ -36770,7 +36779,7 @@
       </c>
       <c r="D156" s="11">
         <f>D157+C156</f>
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="E156" s="11">
         <f t="shared" si="7"/>
@@ -36778,7 +36787,7 @@
       </c>
       <c r="F156" s="11">
         <f t="shared" si="5"/>
-        <v>19477609</v>
+        <v>2458339</v>
       </c>
       <c r="G156" s="11" t="s">
         <v>768</v>
@@ -36796,7 +36805,7 @@
       </c>
       <c r="D157" s="11">
         <f t="shared" ref="D157:D171" si="8">D158+C157</f>
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="E157" s="11">
         <f t="shared" si="7"/>
@@ -36804,7 +36813,7 @@
       </c>
       <c r="F157" s="11">
         <f t="shared" si="5"/>
-        <v>2495453100</v>
+        <v>314960100</v>
       </c>
       <c r="G157" s="11" t="s">
         <v>769</v>
@@ -36822,7 +36831,7 @@
       </c>
       <c r="D158" s="11">
         <f t="shared" si="8"/>
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="E158" s="11">
         <f t="shared" si="7"/>
@@ -36830,7 +36839,7 @@
       </c>
       <c r="F158" s="11">
         <f t="shared" si="5"/>
-        <v>2308044000</v>
+        <v>121476000</v>
       </c>
       <c r="G158" s="11" t="s">
         <v>783</v>
@@ -36844,11 +36853,11 @@
         <v>-201000</v>
       </c>
       <c r="C159" s="11">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="D159" s="11">
         <f t="shared" si="8"/>
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="E159" s="11">
         <f t="shared" si="7"/>
@@ -36856,19 +36865,25 @@
       </c>
       <c r="F159" s="11">
         <f t="shared" si="5"/>
-        <v>-19296000</v>
+        <v>-1206000</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="11"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="11"/>
+      <c r="A160" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="B160" s="3">
+        <v>-200000</v>
+      </c>
+      <c r="C160" s="11">
+        <v>1</v>
+      </c>
       <c r="D160" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160" s="11">
         <f t="shared" si="7"/>
@@ -36876,9 +36891,11 @@
       </c>
       <c r="F160" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G160" s="11"/>
+        <v>-200000</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
@@ -37090,14 +37107,14 @@
       <c r="A172" s="11"/>
       <c r="B172" s="29">
         <f>SUM(B2:B170)</f>
-        <v>64045846</v>
+        <v>63845846</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
       <c r="F172" s="29">
         <f>SUM(F2:F170)</f>
-        <v>14230572930</v>
+        <v>8466246790</v>
       </c>
       <c r="G172" s="11"/>
     </row>
@@ -37131,7 +37148,7 @@
       <c r="E175" s="11"/>
       <c r="F175" s="3">
         <f>F172/D2</f>
-        <v>23214637.732463297</v>
+        <v>16187852.370936902</v>
       </c>
       <c r="G175" s="11"/>
     </row>
@@ -37165,8 +37182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37453,7 +37470,7 @@
       </c>
       <c r="K7" s="43">
         <f>'مسکن ایلیا'!B172</f>
-        <v>64045846</v>
+        <v>63845846</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>745</v>
@@ -37562,11 +37579,11 @@
       </c>
       <c r="F10" s="72">
         <f>K16</f>
-        <v>63275846</v>
+        <v>63075846</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="0"/>
-        <v>2090575.5808270946</v>
+        <v>2290575.5808270946</v>
       </c>
       <c r="H10" s="11"/>
       <c r="J10" s="2" t="s">
@@ -37763,7 +37780,7 @@
       </c>
       <c r="K16" s="3">
         <f>SUM(K7:K13)</f>
-        <v>63275846</v>
+        <v>63075846</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="11" t="s">
@@ -37804,7 +37821,7 @@
       </c>
       <c r="K17" s="3">
         <f>K7+K8+K11</f>
-        <v>64275846</v>
+        <v>64075846</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="11" t="s">
@@ -37845,7 +37862,7 @@
       </c>
       <c r="K18" s="1">
         <f>K16+N7</f>
-        <v>120275846</v>
+        <v>120075846</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>786</v>
@@ -38070,8 +38087,12 @@
       <c r="L23" s="1">
         <v>100000</v>
       </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="29"/>
+      <c r="M23" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="N23" s="29">
+        <v>1200000</v>
+      </c>
       <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
       <c r="R23" s="11"/>
@@ -38149,7 +38170,7 @@
       </c>
       <c r="N25" s="29">
         <f>SUM(N16:N23)</f>
-        <v>132333207</v>
+        <v>133533207</v>
       </c>
       <c r="P25" s="11"/>
       <c r="Q25" s="29"/>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="803">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2439,6 +2439,15 @@
   </si>
   <si>
     <t>طلب از مونا</t>
+  </si>
+  <si>
+    <t>مریم دکتر</t>
+  </si>
+  <si>
+    <t>مریم دارو</t>
+  </si>
+  <si>
+    <t>مریم دکتر فرحت و دارو مادرش</t>
   </si>
 </sst>
 </file>
@@ -3124,8 +3133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3296,27 +3305,27 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>754</v>
+        <v>797</v>
       </c>
       <c r="B5" s="18">
-        <v>0</v>
+        <v>-97300</v>
       </c>
       <c r="C5" s="18">
         <v>0</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-97300</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>755</v>
+        <v>802</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1654100</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
@@ -3324,7 +3333,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1654100</v>
       </c>
       <c r="O5">
         <v>2</v>
@@ -4020,7 +4029,7 @@
       </c>
       <c r="B24" s="3">
         <f>SUM(B2:B22)</f>
-        <v>35607070</v>
+        <v>35509770</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C22)</f>
@@ -4028,7 +4037,7 @@
       </c>
       <c r="D24" s="3">
         <f>SUM(D2:D22)</f>
-        <v>23457101</v>
+        <v>23359801</v>
       </c>
       <c r="E24" s="2"/>
       <c r="O24">
@@ -4044,7 +4053,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G25" s="18">
         <f>SUM(G2:G23)</f>
-        <v>1072440613</v>
+        <v>1070786513</v>
       </c>
       <c r="H25" s="18">
         <f>SUM(H2:H23)</f>
@@ -4052,7 +4061,7 @@
       </c>
       <c r="I25" s="18">
         <f>SUM(I2:I23)</f>
-        <v>708047514</v>
+        <v>706393414</v>
       </c>
       <c r="O25">
         <v>22</v>
@@ -4136,11 +4145,11 @@
       </c>
       <c r="H30" s="18">
         <f>G30*H25/G25</f>
-        <v>208721.9943855418</v>
+        <v>209044.41818031471</v>
       </c>
       <c r="I30" s="18">
         <f>G30*I25/G25</f>
-        <v>405565.00561445823</v>
+        <v>405242.58181968529</v>
       </c>
       <c r="O30">
         <v>27</v>
@@ -15517,8 +15526,8 @@
   <dimension ref="A1:O153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B134" sqref="B134:B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15595,7 +15604,7 @@
       </c>
       <c r="G2" s="36">
         <f>G3+F2</f>
-        <v>606</v>
+        <v>576</v>
       </c>
       <c r="H2" s="36">
         <f>IF(B2&gt;0,1,0)</f>
@@ -15603,11 +15612,11 @@
       </c>
       <c r="I2" s="11">
         <f>B2*(G2-H2)</f>
-        <v>10103500</v>
+        <v>9602500</v>
       </c>
       <c r="J2" s="53">
         <f>C2*(G2-H2)</f>
-        <v>10103500</v>
+        <v>9602500</v>
       </c>
       <c r="K2" s="53">
         <f>D2*(G2-H2)</f>
@@ -15636,7 +15645,7 @@
       </c>
       <c r="G3" s="36">
         <f t="shared" ref="G3:G66" si="1">G4+F3</f>
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="H3" s="36">
         <f t="shared" ref="H3:H66" si="2">IF(B3&gt;0,1,0)</f>
@@ -15644,15 +15653,15 @@
       </c>
       <c r="I3" s="11">
         <f t="shared" ref="I3:I66" si="3">B3*(G3-H3)</f>
-        <v>12019600000</v>
+        <v>11422600000</v>
       </c>
       <c r="J3" s="53">
         <f t="shared" ref="J3:J66" si="4">C3*(G3-H3)</f>
-        <v>6877748000</v>
+        <v>6536138000</v>
       </c>
       <c r="K3" s="53">
         <f t="shared" ref="K3:K66" si="5">D3*(G3-H3)</f>
-        <v>5141852000</v>
+        <v>4886462000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -15677,7 +15686,7 @@
       </c>
       <c r="G4" s="36">
         <f t="shared" si="1"/>
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="H4" s="36">
         <f t="shared" si="2"/>
@@ -15689,11 +15698,11 @@
       </c>
       <c r="J4" s="53">
         <f t="shared" si="4"/>
-        <v>5142500</v>
+        <v>4887500</v>
       </c>
       <c r="K4" s="53">
         <f t="shared" si="5"/>
-        <v>-5142500</v>
+        <v>-4887500</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -15718,7 +15727,7 @@
       </c>
       <c r="G5" s="36">
         <f t="shared" si="1"/>
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="H5" s="36">
         <f t="shared" si="2"/>
@@ -15726,7 +15735,7 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" si="3"/>
-        <v>1204000000</v>
+        <v>1144000000</v>
       </c>
       <c r="J5" s="53">
         <f t="shared" si="4"/>
@@ -15734,7 +15743,7 @@
       </c>
       <c r="K5" s="53">
         <f t="shared" si="5"/>
-        <v>1204000000</v>
+        <v>1144000000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -15759,7 +15768,7 @@
       </c>
       <c r="G6" s="36">
         <f t="shared" si="1"/>
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="H6" s="36">
         <f t="shared" si="2"/>
@@ -15767,7 +15776,7 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" si="3"/>
-        <v>-2980000</v>
+        <v>-2830000</v>
       </c>
       <c r="J6" s="53">
         <f t="shared" si="4"/>
@@ -15775,7 +15784,7 @@
       </c>
       <c r="K6" s="53">
         <f t="shared" si="5"/>
-        <v>-2980000</v>
+        <v>-2830000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -15800,7 +15809,7 @@
       </c>
       <c r="G7" s="36">
         <f t="shared" si="1"/>
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="H7" s="36">
         <f t="shared" si="2"/>
@@ -15808,7 +15817,7 @@
       </c>
       <c r="I7" s="11">
         <f t="shared" si="3"/>
-        <v>-710696000</v>
+        <v>-674681000</v>
       </c>
       <c r="J7" s="53">
         <f t="shared" si="4"/>
@@ -15816,7 +15825,7 @@
       </c>
       <c r="K7" s="53">
         <f t="shared" si="5"/>
-        <v>-710696000</v>
+        <v>-674681000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -15841,7 +15850,7 @@
       </c>
       <c r="G8" s="36">
         <f t="shared" si="1"/>
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="H8" s="36">
         <f t="shared" si="2"/>
@@ -15849,7 +15858,7 @@
       </c>
       <c r="I8" s="11">
         <f t="shared" si="3"/>
-        <v>-118200000</v>
+        <v>-112200000</v>
       </c>
       <c r="J8" s="53">
         <f t="shared" si="4"/>
@@ -15857,7 +15866,7 @@
       </c>
       <c r="K8" s="53">
         <f t="shared" si="5"/>
-        <v>-118200000</v>
+        <v>-112200000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -15882,7 +15891,7 @@
       </c>
       <c r="G9" s="36">
         <f t="shared" si="1"/>
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="H9" s="36">
         <f t="shared" si="2"/>
@@ -15890,7 +15899,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" si="3"/>
-        <v>-415539500</v>
+        <v>-394374500</v>
       </c>
       <c r="J9" s="53">
         <f t="shared" si="4"/>
@@ -15898,7 +15907,7 @@
       </c>
       <c r="K9" s="53">
         <f t="shared" si="5"/>
-        <v>-415539500</v>
+        <v>-394374500</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -15923,7 +15932,7 @@
       </c>
       <c r="G10" s="36">
         <f t="shared" si="1"/>
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="H10" s="36">
         <f t="shared" si="2"/>
@@ -15931,7 +15940,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" si="3"/>
-        <v>-116000000</v>
+        <v>-110000000</v>
       </c>
       <c r="J10" s="53">
         <f t="shared" si="4"/>
@@ -15939,7 +15948,7 @@
       </c>
       <c r="K10" s="53">
         <f t="shared" si="5"/>
-        <v>-116000000</v>
+        <v>-110000000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -15964,7 +15973,7 @@
       </c>
       <c r="G11" s="36">
         <f t="shared" si="1"/>
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="H11" s="36">
         <f t="shared" si="2"/>
@@ -15972,7 +15981,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" si="3"/>
-        <v>579000000</v>
+        <v>549000000</v>
       </c>
       <c r="J11" s="53">
         <f t="shared" si="4"/>
@@ -15980,7 +15989,7 @@
       </c>
       <c r="K11" s="53">
         <f t="shared" si="5"/>
-        <v>579000000</v>
+        <v>549000000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -16005,7 +16014,7 @@
       </c>
       <c r="G12" s="36">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="H12" s="36">
         <f t="shared" si="2"/>
@@ -16013,7 +16022,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" si="3"/>
-        <v>-172800000</v>
+        <v>-163800000</v>
       </c>
       <c r="J12" s="53">
         <f t="shared" si="4"/>
@@ -16021,7 +16030,7 @@
       </c>
       <c r="K12" s="53">
         <f t="shared" si="5"/>
-        <v>-172800000</v>
+        <v>-163800000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -16046,7 +16055,7 @@
       </c>
       <c r="G13" s="36">
         <f t="shared" si="1"/>
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="H13" s="36">
         <f t="shared" si="2"/>
@@ -16054,7 +16063,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" si="3"/>
-        <v>-35402000</v>
+        <v>-33542000</v>
       </c>
       <c r="J13" s="53">
         <f t="shared" si="4"/>
@@ -16062,7 +16071,7 @@
       </c>
       <c r="K13" s="53">
         <f t="shared" si="5"/>
-        <v>-35402000</v>
+        <v>-33542000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -16087,7 +16096,7 @@
       </c>
       <c r="G14" s="36">
         <f t="shared" si="1"/>
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="H14" s="36">
         <f t="shared" si="2"/>
@@ -16095,7 +16104,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" si="3"/>
-        <v>1140000000</v>
+        <v>1080000000</v>
       </c>
       <c r="J14" s="53">
         <f t="shared" si="4"/>
@@ -16103,7 +16112,7 @@
       </c>
       <c r="K14" s="53">
         <f t="shared" si="5"/>
-        <v>1140000000</v>
+        <v>1080000000</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -16128,7 +16137,7 @@
       </c>
       <c r="G15" s="36">
         <f t="shared" si="1"/>
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="H15" s="36">
         <f t="shared" si="2"/>
@@ -16136,7 +16145,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" si="3"/>
-        <v>1024200000</v>
+        <v>970200000</v>
       </c>
       <c r="J15" s="53">
         <f t="shared" si="4"/>
@@ -16144,7 +16153,7 @@
       </c>
       <c r="K15" s="53">
         <f t="shared" si="5"/>
-        <v>1024200000</v>
+        <v>970200000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -16169,7 +16178,7 @@
       </c>
       <c r="G16" s="36">
         <f t="shared" si="1"/>
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="H16" s="36">
         <f t="shared" si="2"/>
@@ -16177,7 +16186,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" si="3"/>
-        <v>-114000000</v>
+        <v>-108000000</v>
       </c>
       <c r="J16" s="53">
         <f t="shared" si="4"/>
@@ -16185,7 +16194,7 @@
       </c>
       <c r="K16" s="53">
         <f t="shared" si="5"/>
-        <v>-114000000</v>
+        <v>-108000000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -16210,7 +16219,7 @@
       </c>
       <c r="G17" s="36">
         <f t="shared" si="1"/>
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="H17" s="36">
         <f t="shared" si="2"/>
@@ -16218,7 +16227,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" si="3"/>
-        <v>-1132000000</v>
+        <v>-1072000000</v>
       </c>
       <c r="J17" s="53">
         <f t="shared" si="4"/>
@@ -16226,7 +16235,7 @@
       </c>
       <c r="K17" s="53">
         <f t="shared" si="5"/>
-        <v>-1132000000</v>
+        <v>-1072000000</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -16254,7 +16263,7 @@
       </c>
       <c r="G18" s="36">
         <f t="shared" si="1"/>
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="H18" s="36">
         <f t="shared" si="2"/>
@@ -16262,7 +16271,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" si="3"/>
-        <v>-169500000</v>
+        <v>-160500000</v>
       </c>
       <c r="J18" s="53">
         <f t="shared" si="4"/>
@@ -16270,7 +16279,7 @@
       </c>
       <c r="K18" s="53">
         <f t="shared" si="5"/>
-        <v>-169500000</v>
+        <v>-160500000</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -16295,7 +16304,7 @@
       </c>
       <c r="G19" s="36">
         <f t="shared" si="1"/>
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="H19" s="36">
         <f t="shared" si="2"/>
@@ -16303,7 +16312,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" si="3"/>
-        <v>-112800000</v>
+        <v>-106800000</v>
       </c>
       <c r="J19" s="53">
         <f t="shared" si="4"/>
@@ -16311,7 +16320,7 @@
       </c>
       <c r="K19" s="53">
         <f t="shared" si="5"/>
-        <v>-112800000</v>
+        <v>-106800000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -16336,7 +16345,7 @@
       </c>
       <c r="G20" s="36">
         <f t="shared" si="1"/>
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="H20" s="36">
         <f t="shared" si="2"/>
@@ -16344,15 +16353,15 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" si="3"/>
-        <v>152080929</v>
+        <v>143948259</v>
       </c>
       <c r="J20" s="53">
         <f t="shared" si="4"/>
-        <v>82720572</v>
+        <v>78297012</v>
       </c>
       <c r="K20" s="53">
         <f t="shared" si="5"/>
-        <v>69360357</v>
+        <v>65651247</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -16377,7 +16386,7 @@
       </c>
       <c r="G21" s="36">
         <f t="shared" si="1"/>
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="H21" s="36">
         <f t="shared" si="2"/>
@@ -16385,7 +16394,7 @@
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>-843192000</v>
+        <v>-798021000</v>
       </c>
       <c r="J21" s="53">
         <f t="shared" si="4"/>
@@ -16393,7 +16402,7 @@
       </c>
       <c r="K21" s="53">
         <f t="shared" si="5"/>
-        <v>-843192000</v>
+        <v>-798021000</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -16418,7 +16427,7 @@
       </c>
       <c r="G22" s="36">
         <f t="shared" si="1"/>
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="H22" s="36">
         <f t="shared" si="2"/>
@@ -16426,7 +16435,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" si="3"/>
-        <v>1668000000</v>
+        <v>1578000000</v>
       </c>
       <c r="J22" s="53">
         <f t="shared" si="4"/>
@@ -16434,7 +16443,7 @@
       </c>
       <c r="K22" s="53">
         <f t="shared" si="5"/>
-        <v>1668000000</v>
+        <v>1578000000</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -16459,7 +16468,7 @@
       </c>
       <c r="G23" s="36">
         <f t="shared" si="1"/>
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="H23" s="36">
         <f t="shared" si="2"/>
@@ -16467,7 +16476,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" si="3"/>
-        <v>555000000</v>
+        <v>525000000</v>
       </c>
       <c r="J23" s="53">
         <f t="shared" si="4"/>
@@ -16475,7 +16484,7 @@
       </c>
       <c r="K23" s="53">
         <f t="shared" si="5"/>
-        <v>555000000</v>
+        <v>525000000</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -16500,7 +16509,7 @@
       </c>
       <c r="G24" s="36">
         <f t="shared" si="1"/>
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="H24" s="36">
         <f t="shared" si="2"/>
@@ -16508,7 +16517,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" si="3"/>
-        <v>-1665499500</v>
+        <v>-1575472500</v>
       </c>
       <c r="J24" s="53">
         <f t="shared" si="4"/>
@@ -16516,7 +16525,7 @@
       </c>
       <c r="K24" s="53">
         <f t="shared" si="5"/>
-        <v>-1665499500</v>
+        <v>-1575472500</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -16541,7 +16550,7 @@
       </c>
       <c r="G25" s="36">
         <f t="shared" si="1"/>
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H25" s="36">
         <f t="shared" si="2"/>
@@ -16549,7 +16558,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" si="3"/>
-        <v>808500000</v>
+        <v>763500000</v>
       </c>
       <c r="J25" s="53">
         <f t="shared" si="4"/>
@@ -16557,7 +16566,7 @@
       </c>
       <c r="K25" s="53">
         <f t="shared" si="5"/>
-        <v>808500000</v>
+        <v>763500000</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -16582,7 +16591,7 @@
       </c>
       <c r="G26" s="36">
         <f t="shared" si="1"/>
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="H26" s="36">
         <f t="shared" si="2"/>
@@ -16590,7 +16599,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" si="3"/>
-        <v>-87248000</v>
+        <v>-82328000</v>
       </c>
       <c r="J26" s="53">
         <f t="shared" si="4"/>
@@ -16598,7 +16607,7 @@
       </c>
       <c r="K26" s="53">
         <f t="shared" si="5"/>
-        <v>-87248000</v>
+        <v>-82328000</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -16623,7 +16632,7 @@
       </c>
       <c r="G27" s="36">
         <f t="shared" si="1"/>
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="H27" s="36">
         <f t="shared" si="2"/>
@@ -16631,15 +16640,15 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" si="3"/>
-        <v>105678290</v>
+        <v>99696500</v>
       </c>
       <c r="J27" s="53">
         <f t="shared" si="4"/>
-        <v>56928890</v>
+        <v>53706500</v>
       </c>
       <c r="K27" s="53">
         <f t="shared" si="5"/>
-        <v>48749400</v>
+        <v>45990000</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -16664,7 +16673,7 @@
       </c>
       <c r="G28" s="36">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="H28" s="36">
         <f t="shared" si="2"/>
@@ -16672,11 +16681,11 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" si="3"/>
-        <v>-116909000</v>
+        <v>-110279000</v>
       </c>
       <c r="J28" s="53">
         <f t="shared" si="4"/>
-        <v>-116909000</v>
+        <v>-110279000</v>
       </c>
       <c r="K28" s="53">
         <f t="shared" si="5"/>
@@ -16705,7 +16714,7 @@
       </c>
       <c r="G29" s="36">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="H29" s="36">
         <f t="shared" si="2"/>
@@ -16713,7 +16722,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" si="3"/>
-        <v>-264764500</v>
+        <v>-249749500</v>
       </c>
       <c r="J29" s="53">
         <f t="shared" si="4"/>
@@ -16721,7 +16730,7 @@
       </c>
       <c r="K29" s="53">
         <f t="shared" si="5"/>
-        <v>-264764500</v>
+        <v>-249749500</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -16746,7 +16755,7 @@
       </c>
       <c r="G30" s="36">
         <f t="shared" si="1"/>
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="H30" s="36">
         <f t="shared" si="2"/>
@@ -16754,11 +16763,11 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" si="3"/>
-        <v>-7935000000</v>
+        <v>-7485000000</v>
       </c>
       <c r="J30" s="53">
         <f t="shared" si="4"/>
-        <v>-7935000000</v>
+        <v>-7485000000</v>
       </c>
       <c r="K30" s="53">
         <f t="shared" si="5"/>
@@ -16787,7 +16796,7 @@
       </c>
       <c r="G31" s="36">
         <f t="shared" si="1"/>
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="H31" s="36">
         <f t="shared" si="2"/>
@@ -16795,7 +16804,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" si="3"/>
-        <v>-1541580800</v>
+        <v>-1451253800</v>
       </c>
       <c r="J31" s="53">
         <f t="shared" si="4"/>
@@ -16803,7 +16812,7 @@
       </c>
       <c r="K31" s="53">
         <f t="shared" si="5"/>
-        <v>-1541580800</v>
+        <v>-1451253800</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -16828,7 +16837,7 @@
       </c>
       <c r="G32" s="36">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H32" s="36">
         <f t="shared" si="2"/>
@@ -16836,7 +16845,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" si="3"/>
-        <v>-1533009000</v>
+        <v>-1442832000</v>
       </c>
       <c r="J32" s="53">
         <f t="shared" si="4"/>
@@ -16844,7 +16853,7 @@
       </c>
       <c r="K32" s="53">
         <f t="shared" si="5"/>
-        <v>-1533009000</v>
+        <v>-1442832000</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -16869,7 +16878,7 @@
       </c>
       <c r="G33" s="36">
         <f t="shared" si="1"/>
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="H33" s="36">
         <f t="shared" si="2"/>
@@ -16877,7 +16886,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" si="3"/>
-        <v>-455809500</v>
+        <v>-428944500</v>
       </c>
       <c r="J33" s="53">
         <f t="shared" si="4"/>
@@ -16885,7 +16894,7 @@
       </c>
       <c r="K33" s="53">
         <f t="shared" si="5"/>
-        <v>-455809500</v>
+        <v>-428944500</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -16910,7 +16919,7 @@
       </c>
       <c r="G34" s="36">
         <f t="shared" si="1"/>
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="H34" s="36">
         <f t="shared" si="2"/>
@@ -16922,11 +16931,11 @@
       </c>
       <c r="J34" s="53">
         <f t="shared" si="4"/>
-        <v>509000000</v>
+        <v>479000000</v>
       </c>
       <c r="K34" s="53">
         <f t="shared" si="5"/>
-        <v>-509000000</v>
+        <v>-479000000</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -16951,7 +16960,7 @@
       </c>
       <c r="G35" s="36">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="H35" s="36">
         <f t="shared" si="2"/>
@@ -16959,15 +16968,15 @@
       </c>
       <c r="I35" s="11">
         <f t="shared" si="3"/>
-        <v>26183528</v>
+        <v>24609368</v>
       </c>
       <c r="J35" s="53">
         <f t="shared" si="4"/>
-        <v>-10809837</v>
+        <v>-10159947</v>
       </c>
       <c r="K35" s="53">
         <f t="shared" si="5"/>
-        <v>36993365</v>
+        <v>34769315</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -16992,7 +17001,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="H36" s="36">
         <f t="shared" si="2"/>
@@ -17004,11 +17013,11 @@
       </c>
       <c r="J36" s="53">
         <f t="shared" si="4"/>
-        <v>10831500</v>
+        <v>10181610</v>
       </c>
       <c r="K36" s="53">
         <f t="shared" si="5"/>
-        <v>-10831500</v>
+        <v>-10181610</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -17033,7 +17042,7 @@
       </c>
       <c r="G37" s="36">
         <f t="shared" si="1"/>
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="H37" s="36">
         <f t="shared" si="2"/>
@@ -17041,7 +17050,7 @@
       </c>
       <c r="I37" s="11">
         <f t="shared" si="3"/>
-        <v>-26950000</v>
+        <v>-25300000</v>
       </c>
       <c r="J37" s="53">
         <f t="shared" si="4"/>
@@ -17049,7 +17058,7 @@
       </c>
       <c r="K37" s="53">
         <f t="shared" si="5"/>
-        <v>-26950000</v>
+        <v>-25300000</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -17074,7 +17083,7 @@
       </c>
       <c r="G38" s="36">
         <f t="shared" si="1"/>
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="H38" s="36">
         <f t="shared" si="2"/>
@@ -17082,11 +17091,11 @@
       </c>
       <c r="I38" s="11">
         <f t="shared" si="3"/>
-        <v>1464000000</v>
+        <v>1374000000</v>
       </c>
       <c r="J38" s="53">
         <f t="shared" si="4"/>
-        <v>1464000000</v>
+        <v>1374000000</v>
       </c>
       <c r="K38" s="53">
         <f t="shared" si="5"/>
@@ -17115,7 +17124,7 @@
       </c>
       <c r="G39" s="36">
         <f t="shared" si="1"/>
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="H39" s="36">
         <f t="shared" si="2"/>
@@ -17123,11 +17132,11 @@
       </c>
       <c r="I39" s="11">
         <f t="shared" si="3"/>
-        <v>1217500000</v>
+        <v>1142500000</v>
       </c>
       <c r="J39" s="53">
         <f t="shared" si="4"/>
-        <v>1217500000</v>
+        <v>1142500000</v>
       </c>
       <c r="K39" s="53">
         <f t="shared" si="5"/>
@@ -17156,7 +17165,7 @@
       </c>
       <c r="G40" s="36">
         <f t="shared" si="1"/>
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="H40" s="36">
         <f t="shared" si="2"/>
@@ -17164,7 +17173,7 @@
       </c>
       <c r="I40" s="11">
         <f t="shared" si="3"/>
-        <v>-24400000</v>
+        <v>-22900000</v>
       </c>
       <c r="J40" s="53">
         <f t="shared" si="4"/>
@@ -17172,7 +17181,7 @@
       </c>
       <c r="K40" s="53">
         <f t="shared" si="5"/>
-        <v>-24400000</v>
+        <v>-22900000</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -17197,7 +17206,7 @@
       </c>
       <c r="G41" s="36">
         <f t="shared" si="1"/>
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="H41" s="36">
         <f t="shared" si="2"/>
@@ -17205,7 +17214,7 @@
       </c>
       <c r="I41" s="11">
         <f t="shared" si="3"/>
-        <v>1461000000</v>
+        <v>1371000000</v>
       </c>
       <c r="J41" s="53">
         <f t="shared" si="4"/>
@@ -17213,7 +17222,7 @@
       </c>
       <c r="K41" s="53">
         <f t="shared" si="5"/>
-        <v>1461000000</v>
+        <v>1371000000</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -17238,7 +17247,7 @@
       </c>
       <c r="G42" s="36">
         <f t="shared" si="1"/>
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="H42" s="36">
         <f t="shared" si="2"/>
@@ -17246,7 +17255,7 @@
       </c>
       <c r="I42" s="11">
         <f t="shared" si="3"/>
-        <v>-43262000</v>
+        <v>-40586000</v>
       </c>
       <c r="J42" s="53">
         <f t="shared" si="4"/>
@@ -17254,7 +17263,7 @@
       </c>
       <c r="K42" s="53">
         <f t="shared" si="5"/>
-        <v>-43262000</v>
+        <v>-40586000</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -17279,7 +17288,7 @@
       </c>
       <c r="G43" s="36">
         <f t="shared" si="1"/>
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="H43" s="36">
         <f t="shared" si="2"/>
@@ -17287,7 +17296,7 @@
       </c>
       <c r="I43" s="11">
         <f t="shared" si="3"/>
-        <v>-96200000</v>
+        <v>-90200000</v>
       </c>
       <c r="J43" s="53">
         <f t="shared" si="4"/>
@@ -17295,7 +17304,7 @@
       </c>
       <c r="K43" s="53">
         <f t="shared" si="5"/>
-        <v>-96200000</v>
+        <v>-90200000</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -17320,7 +17329,7 @@
       </c>
       <c r="G44" s="36">
         <f t="shared" si="1"/>
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="H44" s="36">
         <f t="shared" si="2"/>
@@ -17328,7 +17337,7 @@
       </c>
       <c r="I44" s="11">
         <f t="shared" si="3"/>
-        <v>-95800000</v>
+        <v>-89800000</v>
       </c>
       <c r="J44" s="53">
         <f t="shared" si="4"/>
@@ -17336,7 +17345,7 @@
       </c>
       <c r="K44" s="53">
         <f t="shared" si="5"/>
-        <v>-95800000</v>
+        <v>-89800000</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -17361,7 +17370,7 @@
       </c>
       <c r="G45" s="36">
         <f t="shared" si="1"/>
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="H45" s="36">
         <f t="shared" si="2"/>
@@ -17369,7 +17378,7 @@
       </c>
       <c r="I45" s="11">
         <f t="shared" si="3"/>
-        <v>-268240000</v>
+        <v>-251440000</v>
       </c>
       <c r="J45" s="53">
         <f t="shared" si="4"/>
@@ -17377,7 +17386,7 @@
       </c>
       <c r="K45" s="53">
         <f t="shared" si="5"/>
-        <v>-268240000</v>
+        <v>-251440000</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -17402,7 +17411,7 @@
       </c>
       <c r="G46" s="36">
         <f t="shared" si="1"/>
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="H46" s="36">
         <f t="shared" si="2"/>
@@ -17410,7 +17419,7 @@
       </c>
       <c r="I46" s="11">
         <f t="shared" si="3"/>
-        <v>-335112500</v>
+        <v>-313947500</v>
       </c>
       <c r="J46" s="53">
         <f t="shared" si="4"/>
@@ -17418,7 +17427,7 @@
       </c>
       <c r="K46" s="53">
         <f t="shared" si="5"/>
-        <v>-335112500</v>
+        <v>-313947500</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -17443,7 +17452,7 @@
       </c>
       <c r="G47" s="36">
         <f t="shared" si="1"/>
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="H47" s="36">
         <f t="shared" si="2"/>
@@ -17451,15 +17460,15 @@
       </c>
       <c r="I47" s="11">
         <f t="shared" si="3"/>
-        <v>19283472</v>
+        <v>18047352</v>
       </c>
       <c r="J47" s="53">
         <f t="shared" si="4"/>
-        <v>3141684</v>
+        <v>2940294</v>
       </c>
       <c r="K47" s="53">
         <f t="shared" si="5"/>
-        <v>16141788</v>
+        <v>15107058</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -17484,7 +17493,7 @@
       </c>
       <c r="G48" s="36">
         <f t="shared" si="1"/>
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="H48" s="36">
         <f t="shared" si="2"/>
@@ -17492,7 +17501,7 @@
       </c>
       <c r="I48" s="11">
         <f t="shared" si="3"/>
-        <v>797799600</v>
+        <v>746658600</v>
       </c>
       <c r="J48" s="53">
         <f t="shared" si="4"/>
@@ -17500,7 +17509,7 @@
       </c>
       <c r="K48" s="53">
         <f t="shared" si="5"/>
-        <v>797799600</v>
+        <v>746658600</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -17525,7 +17534,7 @@
       </c>
       <c r="G49" s="36">
         <f t="shared" si="1"/>
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="H49" s="36">
         <f t="shared" si="2"/>
@@ -17533,7 +17542,7 @@
       </c>
       <c r="I49" s="11">
         <f t="shared" si="3"/>
-        <v>-71300000</v>
+        <v>-66650000</v>
       </c>
       <c r="J49" s="53">
         <f t="shared" si="4"/>
@@ -17541,7 +17550,7 @@
       </c>
       <c r="K49" s="53">
         <f t="shared" si="5"/>
-        <v>-71300000</v>
+        <v>-66650000</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -17566,7 +17575,7 @@
       </c>
       <c r="G50" s="36">
         <f t="shared" si="1"/>
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="H50" s="36">
         <f t="shared" si="2"/>
@@ -17574,7 +17583,7 @@
       </c>
       <c r="I50" s="11">
         <f t="shared" si="3"/>
-        <v>-63480000</v>
+        <v>-59340000</v>
       </c>
       <c r="J50" s="53">
         <f t="shared" si="4"/>
@@ -17582,7 +17591,7 @@
       </c>
       <c r="K50" s="53">
         <f t="shared" si="5"/>
-        <v>-63480000</v>
+        <v>-59340000</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -17607,7 +17616,7 @@
       </c>
       <c r="G51" s="36">
         <f t="shared" si="1"/>
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="H51" s="36">
         <f t="shared" si="2"/>
@@ -17615,7 +17624,7 @@
       </c>
       <c r="I51" s="11">
         <f t="shared" si="3"/>
-        <v>-340400000</v>
+        <v>-318200000</v>
       </c>
       <c r="J51" s="53">
         <f t="shared" si="4"/>
@@ -17623,7 +17632,7 @@
       </c>
       <c r="K51" s="53">
         <f t="shared" si="5"/>
-        <v>-340400000</v>
+        <v>-318200000</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -17648,7 +17657,7 @@
       </c>
       <c r="G52" s="36">
         <f t="shared" si="1"/>
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="H52" s="36">
         <f t="shared" si="2"/>
@@ -17656,7 +17665,7 @@
       </c>
       <c r="I52" s="11">
         <f t="shared" si="3"/>
-        <v>-92000000</v>
+        <v>-86000000</v>
       </c>
       <c r="J52" s="53">
         <f t="shared" si="4"/>
@@ -17664,7 +17673,7 @@
       </c>
       <c r="K52" s="53">
         <f t="shared" si="5"/>
-        <v>-92000000</v>
+        <v>-86000000</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -17689,7 +17698,7 @@
       </c>
       <c r="G53" s="36">
         <f t="shared" si="1"/>
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="H53" s="36">
         <f t="shared" si="2"/>
@@ -17697,7 +17706,7 @@
       </c>
       <c r="I53" s="11">
         <f t="shared" si="3"/>
-        <v>-484245000</v>
+        <v>-452595000</v>
       </c>
       <c r="J53" s="53">
         <f t="shared" si="4"/>
@@ -17705,7 +17714,7 @@
       </c>
       <c r="K53" s="53">
         <f t="shared" si="5"/>
-        <v>-484245000</v>
+        <v>-452595000</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -17730,7 +17739,7 @@
       </c>
       <c r="G54" s="36">
         <f t="shared" si="1"/>
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="H54" s="36">
         <f t="shared" si="2"/>
@@ -17738,7 +17747,7 @@
       </c>
       <c r="I54" s="11">
         <f t="shared" si="3"/>
-        <v>-91800000</v>
+        <v>-85800000</v>
       </c>
       <c r="J54" s="53">
         <f t="shared" si="4"/>
@@ -17746,7 +17755,7 @@
       </c>
       <c r="K54" s="53">
         <f t="shared" si="5"/>
-        <v>-91800000</v>
+        <v>-85800000</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -17771,7 +17780,7 @@
       </c>
       <c r="G55" s="36">
         <f t="shared" si="1"/>
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="H55" s="36">
         <f t="shared" si="2"/>
@@ -17779,7 +17788,7 @@
       </c>
       <c r="I55" s="11">
         <f t="shared" si="3"/>
-        <v>-459229500</v>
+        <v>-429214500</v>
       </c>
       <c r="J55" s="53">
         <f t="shared" si="4"/>
@@ -17787,7 +17796,7 @@
       </c>
       <c r="K55" s="53">
         <f t="shared" si="5"/>
-        <v>-459229500</v>
+        <v>-429214500</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -17812,7 +17821,7 @@
       </c>
       <c r="G56" s="36">
         <f t="shared" si="1"/>
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="H56" s="36">
         <f t="shared" si="2"/>
@@ -17820,7 +17829,7 @@
       </c>
       <c r="I56" s="11">
         <f t="shared" si="3"/>
-        <v>-17442000</v>
+        <v>-16302000</v>
       </c>
       <c r="J56" s="53">
         <f t="shared" si="4"/>
@@ -17828,7 +17837,7 @@
       </c>
       <c r="K56" s="53">
         <f t="shared" si="5"/>
-        <v>-17442000</v>
+        <v>-16302000</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -17853,7 +17862,7 @@
       </c>
       <c r="G57" s="36">
         <f t="shared" si="1"/>
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="H57" s="36">
         <f t="shared" si="2"/>
@@ -17861,7 +17870,7 @@
       </c>
       <c r="I57" s="11">
         <f t="shared" si="3"/>
-        <v>-48195000</v>
+        <v>-45045000</v>
       </c>
       <c r="J57" s="53">
         <f t="shared" si="4"/>
@@ -17869,7 +17878,7 @@
       </c>
       <c r="K57" s="53">
         <f t="shared" si="5"/>
-        <v>-48195000</v>
+        <v>-45045000</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -17894,7 +17903,7 @@
       </c>
       <c r="G58" s="36">
         <f t="shared" si="1"/>
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="H58" s="36">
         <f t="shared" si="2"/>
@@ -17902,7 +17911,7 @@
       </c>
       <c r="I58" s="11">
         <f t="shared" si="3"/>
-        <v>-27540000</v>
+        <v>-25740000</v>
       </c>
       <c r="J58" s="53">
         <f t="shared" si="4"/>
@@ -17910,7 +17919,7 @@
       </c>
       <c r="K58" s="53">
         <f t="shared" si="5"/>
-        <v>-27540000</v>
+        <v>-25740000</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -17935,7 +17944,7 @@
       </c>
       <c r="G59" s="36">
         <f t="shared" si="1"/>
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="H59" s="36">
         <f t="shared" si="2"/>
@@ -17943,11 +17952,11 @@
       </c>
       <c r="I59" s="11">
         <f t="shared" si="3"/>
-        <v>455000000</v>
+        <v>425000000</v>
       </c>
       <c r="J59" s="53">
         <f t="shared" si="4"/>
-        <v>455000000</v>
+        <v>425000000</v>
       </c>
       <c r="K59" s="53">
         <f t="shared" si="5"/>
@@ -17976,7 +17985,7 @@
       </c>
       <c r="G60" s="36">
         <f t="shared" si="1"/>
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="H60" s="36">
         <f t="shared" si="2"/>
@@ -17984,11 +17993,11 @@
       </c>
       <c r="I60" s="11">
         <f t="shared" si="3"/>
-        <v>1589000000</v>
+        <v>1484000000</v>
       </c>
       <c r="J60" s="53">
         <f t="shared" si="4"/>
-        <v>1589000000</v>
+        <v>1484000000</v>
       </c>
       <c r="K60" s="53">
         <f t="shared" si="5"/>
@@ -18017,7 +18026,7 @@
       </c>
       <c r="G61" s="36">
         <f t="shared" si="1"/>
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="H61" s="36">
         <f t="shared" si="2"/>
@@ -18025,11 +18034,11 @@
       </c>
       <c r="I61" s="11">
         <f t="shared" si="3"/>
-        <v>452000000</v>
+        <v>422000000</v>
       </c>
       <c r="J61" s="53">
         <f t="shared" si="4"/>
-        <v>452000000</v>
+        <v>422000000</v>
       </c>
       <c r="K61" s="53">
         <f t="shared" si="5"/>
@@ -18058,7 +18067,7 @@
       </c>
       <c r="G62" s="36">
         <f t="shared" si="1"/>
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="H62" s="36">
         <f t="shared" si="2"/>
@@ -18066,11 +18075,11 @@
       </c>
       <c r="I62" s="11">
         <f t="shared" si="3"/>
-        <v>1356000000</v>
+        <v>1266000000</v>
       </c>
       <c r="J62" s="53">
         <f t="shared" si="4"/>
-        <v>1356000000</v>
+        <v>1266000000</v>
       </c>
       <c r="K62" s="53">
         <f t="shared" si="5"/>
@@ -18099,7 +18108,7 @@
       </c>
       <c r="G63" s="36">
         <f t="shared" si="1"/>
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="H63" s="36">
         <f t="shared" si="2"/>
@@ -18107,7 +18116,7 @@
       </c>
       <c r="I63" s="11">
         <f t="shared" si="3"/>
-        <v>-90200000</v>
+        <v>-84200000</v>
       </c>
       <c r="J63" s="53">
         <f t="shared" si="4"/>
@@ -18115,7 +18124,7 @@
       </c>
       <c r="K63" s="53">
         <f t="shared" si="5"/>
-        <v>-90200000</v>
+        <v>-84200000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -18140,7 +18149,7 @@
       </c>
       <c r="G64" s="36">
         <f t="shared" si="1"/>
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="H64" s="36">
         <f t="shared" si="2"/>
@@ -18148,7 +18157,7 @@
       </c>
       <c r="I64" s="11">
         <f t="shared" si="3"/>
-        <v>-22300000</v>
+        <v>-20800000</v>
       </c>
       <c r="J64" s="53">
         <f t="shared" si="4"/>
@@ -18156,7 +18165,7 @@
       </c>
       <c r="K64" s="53">
         <f t="shared" si="5"/>
-        <v>-22300000</v>
+        <v>-20800000</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -18181,7 +18190,7 @@
       </c>
       <c r="G65" s="36">
         <f t="shared" si="1"/>
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="H65" s="36">
         <f t="shared" si="2"/>
@@ -18189,7 +18198,7 @@
       </c>
       <c r="I65" s="11">
         <f t="shared" si="3"/>
-        <v>-88400000</v>
+        <v>-82400000</v>
       </c>
       <c r="J65" s="53">
         <f t="shared" si="4"/>
@@ -18197,7 +18206,7 @@
       </c>
       <c r="K65" s="53">
         <f t="shared" si="5"/>
-        <v>-88400000</v>
+        <v>-82400000</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -18222,7 +18231,7 @@
       </c>
       <c r="G66" s="36">
         <f t="shared" si="1"/>
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="H66" s="36">
         <f t="shared" si="2"/>
@@ -18230,7 +18239,7 @@
       </c>
       <c r="I66" s="11">
         <f t="shared" si="3"/>
-        <v>-74630000</v>
+        <v>-69530000</v>
       </c>
       <c r="J66" s="53">
         <f t="shared" si="4"/>
@@ -18238,7 +18247,7 @@
       </c>
       <c r="K66" s="53">
         <f t="shared" si="5"/>
-        <v>-74630000</v>
+        <v>-69530000</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -18263,7 +18272,7 @@
       </c>
       <c r="G67" s="36">
         <f t="shared" ref="G67:G143" si="7">G68+F67</f>
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="H67" s="36">
         <f t="shared" ref="H67:H131" si="8">IF(B67&gt;0,1,0)</f>
@@ -18271,15 +18280,15 @@
       </c>
       <c r="I67" s="11">
         <f t="shared" ref="I67:I119" si="9">B67*(G67-H67)</f>
-        <v>39909025</v>
+        <v>37169275</v>
       </c>
       <c r="J67" s="53">
         <f t="shared" ref="J67:J131" si="10">C67*(G67-H67)</f>
-        <v>28720951</v>
+        <v>26749261</v>
       </c>
       <c r="K67" s="53">
         <f t="shared" ref="K67:K131" si="11">D67*(G67-H67)</f>
-        <v>11188074</v>
+        <v>10420014</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -18304,7 +18313,7 @@
       </c>
       <c r="G68" s="36">
         <f t="shared" si="7"/>
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="H68" s="36">
         <f t="shared" si="8"/>
@@ -18312,7 +18321,7 @@
       </c>
       <c r="I68" s="11">
         <f t="shared" si="9"/>
-        <v>-60900000</v>
+        <v>-56550000</v>
       </c>
       <c r="J68" s="53">
         <f t="shared" si="10"/>
@@ -18320,7 +18329,7 @@
       </c>
       <c r="K68" s="53">
         <f t="shared" si="11"/>
-        <v>-60900000</v>
+        <v>-56550000</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -18345,7 +18354,7 @@
       </c>
       <c r="G69" s="36">
         <f t="shared" si="7"/>
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="H69" s="36">
         <f t="shared" si="8"/>
@@ -18353,7 +18362,7 @@
       </c>
       <c r="I69" s="11">
         <f t="shared" si="9"/>
-        <v>403760000</v>
+        <v>374360000</v>
       </c>
       <c r="J69" s="53">
         <f t="shared" si="10"/>
@@ -18361,7 +18370,7 @@
       </c>
       <c r="K69" s="53">
         <f t="shared" si="11"/>
-        <v>403760000</v>
+        <v>374360000</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -18386,7 +18395,7 @@
       </c>
       <c r="G70" s="36">
         <f t="shared" si="7"/>
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="H70" s="36">
         <f t="shared" si="8"/>
@@ -18394,7 +18403,7 @@
       </c>
       <c r="I70" s="11">
         <f t="shared" si="9"/>
-        <v>-18860000</v>
+        <v>-17480000</v>
       </c>
       <c r="J70" s="53">
         <f t="shared" si="10"/>
@@ -18402,7 +18411,7 @@
       </c>
       <c r="K70" s="53">
         <f t="shared" si="11"/>
-        <v>-18860000</v>
+        <v>-17480000</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -18427,7 +18436,7 @@
       </c>
       <c r="G71" s="36">
         <f t="shared" si="7"/>
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="H71" s="36">
         <f t="shared" si="8"/>
@@ -18435,15 +18444,15 @@
       </c>
       <c r="I71" s="11">
         <f t="shared" si="9"/>
-        <v>46942566</v>
+        <v>43482426</v>
       </c>
       <c r="J71" s="53">
         <f t="shared" si="10"/>
-        <v>42251484</v>
+        <v>39137124</v>
       </c>
       <c r="K71" s="53">
         <f t="shared" si="11"/>
-        <v>4691082</v>
+        <v>4345302</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -18468,7 +18477,7 @@
       </c>
       <c r="G72" s="36">
         <f t="shared" si="7"/>
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="H72" s="36">
         <f t="shared" si="8"/>
@@ -18476,7 +18485,7 @@
       </c>
       <c r="I72" s="11">
         <f t="shared" si="9"/>
-        <v>-61851383</v>
+        <v>-57292313</v>
       </c>
       <c r="J72" s="53">
         <f t="shared" si="10"/>
@@ -18484,7 +18493,7 @@
       </c>
       <c r="K72" s="53">
         <f t="shared" si="11"/>
-        <v>-61851383</v>
+        <v>-57292313</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -18509,7 +18518,7 @@
       </c>
       <c r="G73" s="36">
         <f t="shared" si="7"/>
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="H73" s="36">
         <f t="shared" si="8"/>
@@ -18517,7 +18526,7 @@
       </c>
       <c r="I73" s="11">
         <f t="shared" si="9"/>
-        <v>-327033000</v>
+        <v>-302868000</v>
       </c>
       <c r="J73" s="53">
         <f t="shared" si="10"/>
@@ -18525,7 +18534,7 @@
       </c>
       <c r="K73" s="53">
         <f t="shared" si="11"/>
-        <v>-327033000</v>
+        <v>-302868000</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -18550,7 +18559,7 @@
       </c>
       <c r="G74" s="36">
         <f t="shared" si="7"/>
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="H74" s="36">
         <f t="shared" si="8"/>
@@ -18558,7 +18567,7 @@
       </c>
       <c r="I74" s="11">
         <f t="shared" si="9"/>
-        <v>2784010000</v>
+        <v>2574160000</v>
       </c>
       <c r="J74" s="53">
         <f t="shared" si="10"/>
@@ -18566,7 +18575,7 @@
       </c>
       <c r="K74" s="53">
         <f t="shared" si="11"/>
-        <v>2784010000</v>
+        <v>2574160000</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -18591,7 +18600,7 @@
       </c>
       <c r="G75" s="36">
         <f t="shared" si="7"/>
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="H75" s="36">
         <f t="shared" si="8"/>
@@ -18599,7 +18608,7 @@
       </c>
       <c r="I75" s="11">
         <f t="shared" si="9"/>
-        <v>1191000000</v>
+        <v>1101000000</v>
       </c>
       <c r="J75" s="53">
         <f t="shared" si="10"/>
@@ -18607,7 +18616,7 @@
       </c>
       <c r="K75" s="53">
         <f t="shared" si="11"/>
-        <v>1191000000</v>
+        <v>1101000000</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -18632,7 +18641,7 @@
       </c>
       <c r="G76" s="36">
         <f t="shared" si="7"/>
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="H76" s="36">
         <f t="shared" si="8"/>
@@ -18640,7 +18649,7 @@
       </c>
       <c r="I76" s="11">
         <f t="shared" si="9"/>
-        <v>1185000000</v>
+        <v>1095000000</v>
       </c>
       <c r="J76" s="53">
         <f t="shared" si="10"/>
@@ -18648,7 +18657,7 @@
       </c>
       <c r="K76" s="53">
         <f t="shared" si="11"/>
-        <v>1185000000</v>
+        <v>1095000000</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -18673,7 +18682,7 @@
       </c>
       <c r="G77" s="36">
         <f t="shared" si="7"/>
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="H77" s="36">
         <f t="shared" si="8"/>
@@ -18681,7 +18690,7 @@
       </c>
       <c r="I77" s="11">
         <f t="shared" si="9"/>
-        <v>1182000000</v>
+        <v>1092000000</v>
       </c>
       <c r="J77" s="53">
         <f t="shared" si="10"/>
@@ -18689,7 +18698,7 @@
       </c>
       <c r="K77" s="53">
         <f t="shared" si="11"/>
-        <v>1182000000</v>
+        <v>1092000000</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -18714,7 +18723,7 @@
       </c>
       <c r="G78" s="36">
         <f t="shared" si="7"/>
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="H78" s="36">
         <f t="shared" si="8"/>
@@ -18722,11 +18731,11 @@
       </c>
       <c r="I78" s="11">
         <f t="shared" si="9"/>
-        <v>-1260800000</v>
+        <v>-1164800000</v>
       </c>
       <c r="J78" s="53">
         <f t="shared" si="10"/>
-        <v>-1260800000</v>
+        <v>-1164800000</v>
       </c>
       <c r="K78" s="53">
         <f t="shared" si="11"/>
@@ -18755,7 +18764,7 @@
       </c>
       <c r="G79" s="36">
         <f t="shared" si="7"/>
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="H79" s="36">
         <f t="shared" si="8"/>
@@ -18763,11 +18772,11 @@
       </c>
       <c r="I79" s="11">
         <f t="shared" si="9"/>
-        <v>-314400000</v>
+        <v>-290400000</v>
       </c>
       <c r="J79" s="53">
         <f t="shared" si="10"/>
-        <v>-314400000</v>
+        <v>-290400000</v>
       </c>
       <c r="K79" s="53">
         <f t="shared" si="11"/>
@@ -18796,7 +18805,7 @@
       </c>
       <c r="G80" s="36">
         <f t="shared" si="7"/>
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="H80" s="36">
         <f t="shared" si="8"/>
@@ -18804,7 +18813,7 @@
       </c>
       <c r="I80" s="11">
         <f t="shared" si="9"/>
-        <v>-18970056</v>
+        <v>-17518266</v>
       </c>
       <c r="J80" s="53">
         <f t="shared" si="10"/>
@@ -18812,7 +18821,7 @@
       </c>
       <c r="K80" s="53">
         <f t="shared" si="11"/>
-        <v>-18970056</v>
+        <v>-17518266</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -18837,7 +18846,7 @@
       </c>
       <c r="G81" s="36">
         <f t="shared" si="7"/>
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="H81" s="36">
         <f t="shared" si="8"/>
@@ -18845,7 +18854,7 @@
       </c>
       <c r="I81" s="11">
         <f t="shared" si="9"/>
-        <v>-54740000</v>
+        <v>-50540000</v>
       </c>
       <c r="J81" s="53">
         <f t="shared" si="10"/>
@@ -18853,7 +18862,7 @@
       </c>
       <c r="K81" s="53">
         <f t="shared" si="11"/>
-        <v>-54740000</v>
+        <v>-50540000</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -18878,7 +18887,7 @@
       </c>
       <c r="G82" s="36">
         <f t="shared" si="7"/>
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="H82" s="36">
         <f t="shared" si="8"/>
@@ -18886,7 +18895,7 @@
       </c>
       <c r="I82" s="11">
         <f t="shared" si="9"/>
-        <v>-97500000</v>
+        <v>-90000000</v>
       </c>
       <c r="J82" s="53">
         <f t="shared" si="10"/>
@@ -18894,7 +18903,7 @@
       </c>
       <c r="K82" s="53">
         <f t="shared" si="11"/>
-        <v>-97500000</v>
+        <v>-90000000</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -18919,7 +18928,7 @@
       </c>
       <c r="G83" s="36">
         <f t="shared" si="7"/>
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="H83" s="36">
         <f t="shared" si="8"/>
@@ -18927,7 +18936,7 @@
       </c>
       <c r="I83" s="11">
         <f t="shared" si="9"/>
-        <v>-77800000</v>
+        <v>-71800000</v>
       </c>
       <c r="J83" s="53">
         <f t="shared" si="10"/>
@@ -18935,7 +18944,7 @@
       </c>
       <c r="K83" s="53">
         <f t="shared" si="11"/>
-        <v>-77800000</v>
+        <v>-71800000</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -18960,7 +18969,7 @@
       </c>
       <c r="G84" s="36">
         <f t="shared" si="7"/>
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="H84" s="36">
         <f t="shared" si="8"/>
@@ -18968,7 +18977,7 @@
       </c>
       <c r="I84" s="11">
         <f t="shared" si="9"/>
-        <v>629552000</v>
+        <v>580496000</v>
       </c>
       <c r="J84" s="53">
         <f t="shared" si="10"/>
@@ -18976,7 +18985,7 @@
       </c>
       <c r="K84" s="53">
         <f t="shared" si="11"/>
-        <v>629552000</v>
+        <v>580496000</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -18990,7 +18999,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="3">
-        <f t="shared" ref="D85:D133" si="12">B85-C85</f>
+        <f t="shared" ref="D85:D135" si="12">B85-C85</f>
         <v>2500000</v>
       </c>
       <c r="E85" s="20" t="s">
@@ -19001,7 +19010,7 @@
       </c>
       <c r="G85" s="36">
         <f t="shared" si="7"/>
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="H85" s="36">
         <f t="shared" si="8"/>
@@ -19009,7 +19018,7 @@
       </c>
       <c r="I85" s="11">
         <f t="shared" si="9"/>
-        <v>952500000</v>
+        <v>877500000</v>
       </c>
       <c r="J85" s="53">
         <f t="shared" si="10"/>
@@ -19017,7 +19026,7 @@
       </c>
       <c r="K85" s="53">
         <f t="shared" si="11"/>
-        <v>952500000</v>
+        <v>877500000</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -19042,7 +19051,7 @@
       </c>
       <c r="G86" s="36">
         <f t="shared" si="7"/>
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="H86" s="36">
         <f t="shared" si="8"/>
@@ -19050,15 +19059,15 @@
       </c>
       <c r="I86" s="11">
         <f t="shared" si="9"/>
-        <v>70235100</v>
+        <v>64646100</v>
       </c>
       <c r="J86" s="53">
         <f t="shared" si="10"/>
-        <v>32026150</v>
+        <v>29477650</v>
       </c>
       <c r="K86" s="53">
         <f t="shared" si="11"/>
-        <v>38208950</v>
+        <v>35168450</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -19083,7 +19092,7 @@
       </c>
       <c r="G87" s="36">
         <f t="shared" si="7"/>
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="H87" s="36">
         <f t="shared" si="8"/>
@@ -19091,7 +19100,7 @@
       </c>
       <c r="I87" s="11">
         <f t="shared" si="9"/>
-        <v>-75000000</v>
+        <v>-69000000</v>
       </c>
       <c r="J87" s="53">
         <f t="shared" si="10"/>
@@ -19099,7 +19108,7 @@
       </c>
       <c r="K87" s="53">
         <f t="shared" si="11"/>
-        <v>-75000000</v>
+        <v>-69000000</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -19124,7 +19133,7 @@
       </c>
       <c r="G88" s="36">
         <f t="shared" si="7"/>
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="H88" s="36">
         <f t="shared" si="8"/>
@@ -19132,15 +19141,15 @@
       </c>
       <c r="I88" s="11">
         <f t="shared" si="9"/>
-        <v>-44132000</v>
+        <v>-40592000</v>
       </c>
       <c r="J88" s="53">
         <f t="shared" si="10"/>
-        <v>-25806000</v>
+        <v>-23736000</v>
       </c>
       <c r="K88" s="53">
         <f t="shared" si="11"/>
-        <v>-18326000</v>
+        <v>-16856000</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -19165,7 +19174,7 @@
       </c>
       <c r="G89" s="36">
         <f t="shared" si="7"/>
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="H89" s="36">
         <f t="shared" si="8"/>
@@ -19173,7 +19182,7 @@
       </c>
       <c r="I89" s="11">
         <f t="shared" si="9"/>
-        <v>-1171529400</v>
+        <v>-1075502400</v>
       </c>
       <c r="J89" s="53">
         <f t="shared" si="10"/>
@@ -19181,7 +19190,7 @@
       </c>
       <c r="K89" s="53">
         <f t="shared" si="11"/>
-        <v>-1171529400</v>
+        <v>-1075502400</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -19206,7 +19215,7 @@
       </c>
       <c r="G90" s="36">
         <f t="shared" si="7"/>
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="H90" s="36">
         <f t="shared" si="8"/>
@@ -19214,7 +19223,7 @@
       </c>
       <c r="I90" s="11">
         <f t="shared" si="9"/>
-        <v>-1168328500</v>
+        <v>-1072301500</v>
       </c>
       <c r="J90" s="53">
         <f t="shared" si="10"/>
@@ -19222,7 +19231,7 @@
       </c>
       <c r="K90" s="53">
         <f t="shared" si="11"/>
-        <v>-1168328500</v>
+        <v>-1072301500</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -19247,7 +19256,7 @@
       </c>
       <c r="G91" s="36">
         <f t="shared" si="7"/>
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="H91" s="36">
         <f t="shared" si="8"/>
@@ -19255,7 +19264,7 @@
       </c>
       <c r="I91" s="11">
         <f t="shared" si="9"/>
-        <v>-1165127600</v>
+        <v>-1069100600</v>
       </c>
       <c r="J91" s="53">
         <f t="shared" si="10"/>
@@ -19263,7 +19272,7 @@
       </c>
       <c r="K91" s="53">
         <f t="shared" si="11"/>
-        <v>-1165127600</v>
+        <v>-1069100600</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -19288,7 +19297,7 @@
       </c>
       <c r="G92" s="36">
         <f t="shared" si="7"/>
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="H92" s="36">
         <f t="shared" si="8"/>
@@ -19296,7 +19305,7 @@
       </c>
       <c r="I92" s="11">
         <f t="shared" si="9"/>
-        <v>-1161926700</v>
+        <v>-1065899700</v>
       </c>
       <c r="J92" s="53">
         <f t="shared" si="10"/>
@@ -19304,7 +19313,7 @@
       </c>
       <c r="K92" s="53">
         <f t="shared" si="11"/>
-        <v>-1161926700</v>
+        <v>-1065899700</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -19329,7 +19338,7 @@
       </c>
       <c r="G93" s="36">
         <f t="shared" si="7"/>
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="H93" s="36">
         <f t="shared" si="8"/>
@@ -19337,7 +19346,7 @@
       </c>
       <c r="I93" s="11">
         <f t="shared" si="9"/>
-        <v>-1158725800</v>
+        <v>-1062698800</v>
       </c>
       <c r="J93" s="53">
         <f t="shared" si="10"/>
@@ -19345,7 +19354,7 @@
       </c>
       <c r="K93" s="53">
         <f t="shared" si="11"/>
-        <v>-1158725800</v>
+        <v>-1062698800</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -19370,7 +19379,7 @@
       </c>
       <c r="G94" s="36">
         <f t="shared" si="7"/>
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="H94" s="36">
         <f t="shared" si="8"/>
@@ -19378,7 +19387,7 @@
       </c>
       <c r="I94" s="11">
         <f t="shared" si="9"/>
-        <v>-1155524900</v>
+        <v>-1059497900</v>
       </c>
       <c r="J94" s="53">
         <f t="shared" si="10"/>
@@ -19386,7 +19395,7 @@
       </c>
       <c r="K94" s="53">
         <f t="shared" si="11"/>
-        <v>-1155524900</v>
+        <v>-1059497900</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -19411,7 +19420,7 @@
       </c>
       <c r="G95" s="36">
         <f t="shared" si="7"/>
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="H95" s="36">
         <f t="shared" si="8"/>
@@ -19419,7 +19428,7 @@
       </c>
       <c r="I95" s="11">
         <f t="shared" si="9"/>
-        <v>-429577964</v>
+        <v>-393680084</v>
       </c>
       <c r="J95" s="53">
         <f t="shared" si="10"/>
@@ -19427,7 +19436,7 @@
       </c>
       <c r="K95" s="53">
         <f t="shared" si="11"/>
-        <v>-429577964</v>
+        <v>-393680084</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -19452,7 +19461,7 @@
       </c>
       <c r="G96" s="36">
         <f t="shared" si="7"/>
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="H96" s="36">
         <f t="shared" si="8"/>
@@ -19460,7 +19469,7 @@
       </c>
       <c r="I96" s="11">
         <f t="shared" si="9"/>
-        <v>-69800000</v>
+        <v>-63800000</v>
       </c>
       <c r="J96" s="53">
         <f t="shared" si="10"/>
@@ -19468,7 +19477,7 @@
       </c>
       <c r="K96" s="53">
         <f t="shared" si="11"/>
-        <v>-69800000</v>
+        <v>-63800000</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -19493,7 +19502,7 @@
       </c>
       <c r="G97" s="36">
         <f t="shared" si="7"/>
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="H97" s="36">
         <f t="shared" si="8"/>
@@ -19501,15 +19510,15 @@
       </c>
       <c r="I97" s="11">
         <f t="shared" si="9"/>
-        <v>55366626</v>
+        <v>50579886</v>
       </c>
       <c r="J97" s="53">
         <f t="shared" si="10"/>
-        <v>23917322</v>
+        <v>21849542</v>
       </c>
       <c r="K97" s="53">
         <f t="shared" si="11"/>
-        <v>31449304</v>
+        <v>28730344</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -19534,7 +19543,7 @@
       </c>
       <c r="G98" s="36">
         <f t="shared" si="7"/>
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="H98" s="36">
         <f t="shared" si="8"/>
@@ -19542,7 +19551,7 @@
       </c>
       <c r="I98" s="11">
         <f t="shared" si="9"/>
-        <v>39113856</v>
+        <v>35682816</v>
       </c>
       <c r="J98" s="53">
         <f t="shared" si="10"/>
@@ -19550,7 +19559,7 @@
       </c>
       <c r="K98" s="53">
         <f t="shared" si="11"/>
-        <v>39113856</v>
+        <v>35682816</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -19575,7 +19584,7 @@
       </c>
       <c r="G99" s="36">
         <f t="shared" si="7"/>
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="H99" s="36">
         <f t="shared" si="8"/>
@@ -19583,7 +19592,7 @@
       </c>
       <c r="I99" s="11">
         <f t="shared" si="9"/>
-        <v>-450500000</v>
+        <v>-410750000</v>
       </c>
       <c r="J99" s="53">
         <f t="shared" si="10"/>
@@ -19591,7 +19600,7 @@
       </c>
       <c r="K99" s="53">
         <f t="shared" si="11"/>
-        <v>-450500000</v>
+        <v>-410750000</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -19616,7 +19625,7 @@
       </c>
       <c r="G100" s="36">
         <f t="shared" si="7"/>
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="H100" s="36">
         <f t="shared" si="8"/>
@@ -19624,7 +19633,7 @@
       </c>
       <c r="I100" s="11">
         <f t="shared" si="9"/>
-        <v>442550000</v>
+        <v>402800000</v>
       </c>
       <c r="J100" s="53">
         <f t="shared" si="10"/>
@@ -19632,7 +19641,7 @@
       </c>
       <c r="K100" s="53">
         <f t="shared" si="11"/>
-        <v>442550000</v>
+        <v>402800000</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -19657,7 +19666,7 @@
       </c>
       <c r="G101" s="36">
         <f t="shared" si="7"/>
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="H101" s="36">
         <f t="shared" si="8"/>
@@ -19665,11 +19674,11 @@
       </c>
       <c r="I101" s="11">
         <f t="shared" si="9"/>
-        <v>21189865</v>
+        <v>19184515</v>
       </c>
       <c r="J101" s="53">
         <f t="shared" si="10"/>
-        <v>21189865</v>
+        <v>19184515</v>
       </c>
       <c r="K101" s="53">
         <f t="shared" si="11"/>
@@ -19698,7 +19707,7 @@
       </c>
       <c r="G102" s="36">
         <f t="shared" si="7"/>
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="H102" s="36">
         <f t="shared" si="8"/>
@@ -19706,7 +19715,7 @@
       </c>
       <c r="I102" s="11">
         <f t="shared" si="9"/>
-        <v>942000000</v>
+        <v>852000000</v>
       </c>
       <c r="J102" s="53">
         <f t="shared" si="10"/>
@@ -19714,7 +19723,7 @@
       </c>
       <c r="K102" s="53">
         <f t="shared" si="11"/>
-        <v>942000000</v>
+        <v>852000000</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -19739,7 +19748,7 @@
       </c>
       <c r="G103" s="36">
         <f t="shared" si="7"/>
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="H103" s="36">
         <f t="shared" si="8"/>
@@ -19747,11 +19756,11 @@
       </c>
       <c r="I103" s="11">
         <f t="shared" si="9"/>
-        <v>-308000000</v>
+        <v>-278000000</v>
       </c>
       <c r="J103" s="53">
         <f t="shared" si="10"/>
-        <v>-308000000</v>
+        <v>-278000000</v>
       </c>
       <c r="K103" s="53">
         <f t="shared" si="11"/>
@@ -19780,7 +19789,7 @@
       </c>
       <c r="G104" s="36">
         <f t="shared" si="7"/>
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="H104" s="36">
         <f t="shared" si="8"/>
@@ -19788,11 +19797,11 @@
       </c>
       <c r="I104" s="11">
         <f t="shared" si="9"/>
-        <v>891000000</v>
+        <v>801000000</v>
       </c>
       <c r="J104" s="53">
         <f t="shared" si="10"/>
-        <v>891000000</v>
+        <v>801000000</v>
       </c>
       <c r="K104" s="53">
         <f t="shared" si="11"/>
@@ -19821,7 +19830,7 @@
       </c>
       <c r="G105" s="36">
         <f t="shared" si="7"/>
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="H105" s="36">
         <f t="shared" si="8"/>
@@ -19829,11 +19838,11 @@
       </c>
       <c r="I105" s="11">
         <f t="shared" si="9"/>
-        <v>331520000</v>
+        <v>297920000</v>
       </c>
       <c r="J105" s="53">
         <f t="shared" si="10"/>
-        <v>331520000</v>
+        <v>297920000</v>
       </c>
       <c r="K105" s="53">
         <f t="shared" si="11"/>
@@ -19862,7 +19871,7 @@
       </c>
       <c r="G106" s="36">
         <f t="shared" si="7"/>
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="H106" s="36">
         <f t="shared" si="8"/>
@@ -19870,7 +19879,7 @@
       </c>
       <c r="I106" s="11">
         <f t="shared" si="9"/>
-        <v>-891000000</v>
+        <v>-801000000</v>
       </c>
       <c r="J106" s="53">
         <f t="shared" si="10"/>
@@ -19878,7 +19887,7 @@
       </c>
       <c r="K106" s="53">
         <f t="shared" si="11"/>
-        <v>-891000000</v>
+        <v>-801000000</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -19903,7 +19912,7 @@
       </c>
       <c r="G107" s="36">
         <f t="shared" si="7"/>
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="H107" s="36">
         <f t="shared" si="8"/>
@@ -19911,15 +19920,15 @@
       </c>
       <c r="I107" s="11">
         <f t="shared" si="9"/>
-        <v>25971778</v>
+        <v>23256958</v>
       </c>
       <c r="J107" s="53">
         <f t="shared" si="10"/>
-        <v>21558005</v>
+        <v>19304555</v>
       </c>
       <c r="K107" s="53">
         <f t="shared" si="11"/>
-        <v>4413773</v>
+        <v>3952403</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -19944,7 +19953,7 @@
       </c>
       <c r="G108" s="36">
         <f t="shared" si="7"/>
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="H108" s="36">
         <f t="shared" si="8"/>
@@ -19952,7 +19961,7 @@
       </c>
       <c r="I108" s="11">
         <f t="shared" si="9"/>
-        <v>-486400200</v>
+        <v>-435379200</v>
       </c>
       <c r="J108" s="53">
         <f t="shared" si="10"/>
@@ -19960,7 +19969,7 @@
       </c>
       <c r="K108" s="53">
         <f t="shared" si="11"/>
-        <v>-486400200</v>
+        <v>-435379200</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -19985,7 +19994,7 @@
       </c>
       <c r="G109" s="36">
         <f t="shared" si="7"/>
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="H109" s="36">
         <f t="shared" si="8"/>
@@ -19993,7 +20002,7 @@
       </c>
       <c r="I109" s="11">
         <f t="shared" si="9"/>
-        <v>-282141000</v>
+        <v>-252126000</v>
       </c>
       <c r="J109" s="53">
         <f t="shared" si="10"/>
@@ -20001,7 +20010,7 @@
       </c>
       <c r="K109" s="53">
         <f t="shared" si="11"/>
-        <v>-282141000</v>
+        <v>-252126000</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -20026,7 +20035,7 @@
       </c>
       <c r="G110" s="36">
         <f t="shared" si="7"/>
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="H110" s="36">
         <f t="shared" si="8"/>
@@ -20034,7 +20043,7 @@
       </c>
       <c r="I110" s="11">
         <f t="shared" si="9"/>
-        <v>5560000000</v>
+        <v>4960000000</v>
       </c>
       <c r="J110" s="53">
         <f t="shared" si="10"/>
@@ -20042,7 +20051,7 @@
       </c>
       <c r="K110" s="53">
         <f t="shared" si="11"/>
-        <v>5560000000</v>
+        <v>4960000000</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -20067,7 +20076,7 @@
       </c>
       <c r="G111" s="36">
         <f t="shared" si="7"/>
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="H111" s="36">
         <f t="shared" si="8"/>
@@ -20075,15 +20084,15 @@
       </c>
       <c r="I111" s="11">
         <f t="shared" si="9"/>
-        <v>45066924</v>
+        <v>39826584</v>
       </c>
       <c r="J111" s="53">
         <f t="shared" si="10"/>
-        <v>22539654</v>
+        <v>19918764</v>
       </c>
       <c r="K111" s="53">
         <f t="shared" si="11"/>
-        <v>22527270</v>
+        <v>19907820</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -20108,7 +20117,7 @@
       </c>
       <c r="G112" s="36">
         <f t="shared" si="7"/>
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="H112" s="36">
         <f t="shared" si="8"/>
@@ -20116,7 +20125,7 @@
       </c>
       <c r="I112" s="11">
         <f t="shared" si="9"/>
-        <v>-6901200000</v>
+        <v>-6049200000</v>
       </c>
       <c r="J112" s="53">
         <f t="shared" si="10"/>
@@ -20124,7 +20133,7 @@
       </c>
       <c r="K112" s="53">
         <f t="shared" si="11"/>
-        <v>-6901200000</v>
+        <v>-6049200000</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -20149,7 +20158,7 @@
       </c>
       <c r="G113" s="36">
         <f t="shared" si="7"/>
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="H113" s="36">
         <f t="shared" si="8"/>
@@ -20157,15 +20166,15 @@
       </c>
       <c r="I113" s="11">
         <f t="shared" si="9"/>
-        <v>37010080</v>
+        <v>32118880</v>
       </c>
       <c r="J113" s="53">
         <f t="shared" si="10"/>
-        <v>27809997</v>
+        <v>24134667</v>
       </c>
       <c r="K113" s="53">
         <f t="shared" si="11"/>
-        <v>9200083</v>
+        <v>7984213</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -20190,7 +20199,7 @@
       </c>
       <c r="G114" s="36">
         <f t="shared" si="7"/>
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="H114" s="36">
         <f t="shared" si="8"/>
@@ -20198,15 +20207,15 @@
       </c>
       <c r="I114" s="11">
         <f t="shared" si="9"/>
-        <v>-1299600</v>
+        <v>-1128600</v>
       </c>
       <c r="J114" s="53">
         <f t="shared" si="10"/>
-        <v>-570000</v>
+        <v>-495000</v>
       </c>
       <c r="K114" s="53">
         <f t="shared" si="11"/>
-        <v>-729600</v>
+        <v>-633600</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -20231,7 +20240,7 @@
       </c>
       <c r="G115" s="36">
         <f t="shared" si="7"/>
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="H115" s="36">
         <f t="shared" si="8"/>
@@ -20243,11 +20252,11 @@
       </c>
       <c r="J115" s="53">
         <f t="shared" si="10"/>
-        <v>107500000</v>
+        <v>92500000</v>
       </c>
       <c r="K115" s="53">
         <f t="shared" si="11"/>
-        <v>-107500000</v>
+        <v>-92500000</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -20272,7 +20281,7 @@
       </c>
       <c r="G116" s="36">
         <f t="shared" si="7"/>
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="H116" s="36">
         <f t="shared" si="8"/>
@@ -20280,7 +20289,7 @@
       </c>
       <c r="I116" s="11">
         <f t="shared" si="9"/>
-        <v>-33120000</v>
+        <v>-28320000</v>
       </c>
       <c r="J116" s="53">
         <f t="shared" si="10"/>
@@ -20288,7 +20297,7 @@
       </c>
       <c r="K116" s="53">
         <f t="shared" si="11"/>
-        <v>-33120000</v>
+        <v>-28320000</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -20313,7 +20322,7 @@
       </c>
       <c r="G117" s="36">
         <f t="shared" si="7"/>
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="H117" s="36">
         <f t="shared" si="8"/>
@@ -20321,15 +20330,15 @@
       </c>
       <c r="I117" s="11">
         <f t="shared" si="9"/>
-        <v>291560</v>
+        <v>247160</v>
       </c>
       <c r="J117" s="53">
         <f t="shared" si="10"/>
-        <v>21067377</v>
+        <v>17859147</v>
       </c>
       <c r="K117" s="53">
         <f t="shared" si="11"/>
-        <v>-20775817</v>
+        <v>-17611987</v>
       </c>
       <c r="N117" s="3"/>
     </row>
@@ -20355,7 +20364,7 @@
       </c>
       <c r="G118" s="36">
         <f t="shared" si="7"/>
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="H118" s="36">
         <f t="shared" si="8"/>
@@ -20363,7 +20372,7 @@
       </c>
       <c r="I118" s="11">
         <f t="shared" si="9"/>
-        <v>6894912500</v>
+        <v>5712927500</v>
       </c>
       <c r="J118" s="53">
         <f t="shared" si="10"/>
@@ -20371,7 +20380,7 @@
       </c>
       <c r="K118" s="53">
         <f t="shared" si="11"/>
-        <v>6894912500</v>
+        <v>5712927500</v>
       </c>
       <c r="O118" s="7"/>
     </row>
@@ -20397,7 +20406,7 @@
       </c>
       <c r="G119" s="36">
         <f t="shared" si="7"/>
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="H119" s="36">
         <f t="shared" si="8"/>
@@ -20405,15 +20414,15 @@
       </c>
       <c r="I119" s="11">
         <f t="shared" si="9"/>
-        <v>15856486</v>
+        <v>12990856</v>
       </c>
       <c r="J119" s="53">
         <f t="shared" si="10"/>
-        <v>18268964</v>
+        <v>14967344</v>
       </c>
       <c r="K119" s="53">
         <f t="shared" si="11"/>
-        <v>-2412478</v>
+        <v>-1976488</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -20438,7 +20447,7 @@
       </c>
       <c r="G120" s="36">
         <f t="shared" si="7"/>
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="H120" s="11">
         <f t="shared" si="8"/>
@@ -20446,7 +20455,7 @@
       </c>
       <c r="I120" s="11">
         <f t="shared" ref="I120:I143" si="13">B120*(G120-H120)</f>
-        <v>324000000</v>
+        <v>264000000</v>
       </c>
       <c r="J120" s="11">
         <f t="shared" si="10"/>
@@ -20454,7 +20463,7 @@
       </c>
       <c r="K120" s="11">
         <f t="shared" si="11"/>
-        <v>324000000</v>
+        <v>264000000</v>
       </c>
       <c r="N120" s="7"/>
     </row>
@@ -20480,7 +20489,7 @@
       </c>
       <c r="G121" s="36">
         <f t="shared" si="7"/>
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="H121" s="11">
         <f t="shared" si="8"/>
@@ -20488,7 +20497,7 @@
       </c>
       <c r="I121" s="11">
         <f t="shared" si="13"/>
-        <v>353600000</v>
+        <v>275600000</v>
       </c>
       <c r="J121" s="11">
         <f t="shared" si="10"/>
@@ -20496,7 +20505,7 @@
       </c>
       <c r="K121" s="11">
         <f t="shared" si="11"/>
-        <v>353600000</v>
+        <v>275600000</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
@@ -20521,7 +20530,7 @@
       </c>
       <c r="G122" s="36">
         <f t="shared" si="7"/>
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="H122" s="11">
         <f t="shared" si="8"/>
@@ -20529,15 +20538,15 @@
       </c>
       <c r="I122" s="11">
         <f t="shared" si="13"/>
-        <v>51914385</v>
+        <v>40377855</v>
       </c>
       <c r="J122" s="11">
         <f t="shared" si="10"/>
-        <v>14972580</v>
+        <v>11645340</v>
       </c>
       <c r="K122" s="11">
         <f t="shared" si="11"/>
-        <v>36941805</v>
+        <v>28732515</v>
       </c>
       <c r="N122" t="s">
         <v>25</v>
@@ -20565,7 +20574,7 @@
       </c>
       <c r="G123" s="36">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="H123" s="11">
         <f t="shared" si="8"/>
@@ -20577,11 +20586,11 @@
       </c>
       <c r="J123" s="11">
         <f t="shared" si="10"/>
-        <v>108000000</v>
+        <v>84000000</v>
       </c>
       <c r="K123" s="11">
         <f t="shared" si="11"/>
-        <v>-108000000</v>
+        <v>-84000000</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
@@ -20606,7 +20615,7 @@
       </c>
       <c r="G124" s="36">
         <f t="shared" si="7"/>
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="H124" s="11">
         <f t="shared" si="8"/>
@@ -20614,7 +20623,7 @@
       </c>
       <c r="I124" s="11">
         <f t="shared" si="13"/>
-        <v>-363000000</v>
+        <v>-273000000</v>
       </c>
       <c r="J124" s="11">
         <f t="shared" si="10"/>
@@ -20622,7 +20631,7 @@
       </c>
       <c r="K124" s="11">
         <f t="shared" si="11"/>
-        <v>-363000000</v>
+        <v>-273000000</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -20647,7 +20656,7 @@
       </c>
       <c r="G125" s="36">
         <f t="shared" si="7"/>
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="H125" s="11">
         <f t="shared" si="8"/>
@@ -20655,15 +20664,15 @@
       </c>
       <c r="I125" s="11">
         <f t="shared" si="13"/>
-        <v>42074550</v>
+        <v>30053250</v>
       </c>
       <c r="J125" s="11">
         <f t="shared" si="10"/>
-        <v>12481875</v>
+        <v>8915625</v>
       </c>
       <c r="K125" s="11">
         <f t="shared" si="11"/>
-        <v>29592675</v>
+        <v>21137625</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
@@ -20688,7 +20697,7 @@
       </c>
       <c r="G126" s="36">
         <f t="shared" si="7"/>
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="H126" s="11">
         <f t="shared" si="8"/>
@@ -20696,7 +20705,7 @@
       </c>
       <c r="I126" s="11">
         <f t="shared" si="13"/>
-        <v>4410000000</v>
+        <v>3150000000</v>
       </c>
       <c r="J126" s="11">
         <f t="shared" si="10"/>
@@ -20704,7 +20713,7 @@
       </c>
       <c r="K126" s="11">
         <f t="shared" si="11"/>
-        <v>4410000000</v>
+        <v>3150000000</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
@@ -20729,7 +20738,7 @@
       </c>
       <c r="G127" s="36">
         <f t="shared" si="7"/>
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="H127" s="11">
         <f t="shared" si="8"/>
@@ -20737,7 +20746,7 @@
       </c>
       <c r="I127" s="11">
         <f t="shared" si="13"/>
-        <v>-405000</v>
+        <v>-255000</v>
       </c>
       <c r="J127" s="11">
         <f t="shared" si="10"/>
@@ -20745,7 +20754,7 @@
       </c>
       <c r="K127" s="11">
         <f t="shared" si="11"/>
-        <v>-405000</v>
+        <v>-255000</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
@@ -20770,7 +20779,7 @@
       </c>
       <c r="G128" s="36">
         <f t="shared" si="7"/>
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H128" s="11">
         <f t="shared" si="8"/>
@@ -20778,15 +20787,15 @@
       </c>
       <c r="I128" s="11">
         <f t="shared" si="13"/>
-        <v>57081676</v>
+        <v>33940456</v>
       </c>
       <c r="J128" s="11">
         <f t="shared" si="10"/>
-        <v>8931578</v>
+        <v>5310668</v>
       </c>
       <c r="K128" s="11">
         <f t="shared" si="11"/>
-        <v>48150098</v>
+        <v>28629788</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -20811,7 +20820,7 @@
       </c>
       <c r="G129" s="36">
         <f t="shared" si="7"/>
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H129" s="11">
         <f t="shared" si="8"/>
@@ -20819,7 +20828,7 @@
       </c>
       <c r="I129" s="11">
         <f t="shared" si="13"/>
-        <v>177500000</v>
+        <v>102500000</v>
       </c>
       <c r="J129" s="11">
         <f t="shared" si="10"/>
@@ -20827,7 +20836,7 @@
       </c>
       <c r="K129" s="11">
         <f t="shared" si="11"/>
-        <v>177500000</v>
+        <v>102500000</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -20852,7 +20861,7 @@
       </c>
       <c r="G130" s="36">
         <f t="shared" si="7"/>
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="H130" s="11">
         <f t="shared" si="8"/>
@@ -20860,11 +20869,11 @@
       </c>
       <c r="I130" s="11">
         <f t="shared" si="13"/>
-        <v>-58000000</v>
+        <v>-28000000</v>
       </c>
       <c r="J130" s="11">
         <f t="shared" si="10"/>
-        <v>-58000000</v>
+        <v>-28000000</v>
       </c>
       <c r="K130" s="11">
         <f t="shared" si="11"/>
@@ -20893,7 +20902,7 @@
       </c>
       <c r="G131" s="36">
         <f t="shared" si="7"/>
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H131" s="11">
         <f t="shared" si="8"/>
@@ -20901,7 +20910,7 @@
       </c>
       <c r="I131" s="11">
         <f t="shared" si="13"/>
-        <v>-2650000000</v>
+        <v>-1150000000</v>
       </c>
       <c r="J131" s="11">
         <f t="shared" si="10"/>
@@ -20909,7 +20918,7 @@
       </c>
       <c r="K131" s="11">
         <f t="shared" si="11"/>
-        <v>-2650000000</v>
+        <v>-1150000000</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -20934,7 +20943,7 @@
       </c>
       <c r="G132" s="36">
         <f t="shared" si="7"/>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H132" s="11">
         <f t="shared" ref="H132:H143" si="14">IF(B132&gt;0,1,0)</f>
@@ -20942,15 +20951,15 @@
       </c>
       <c r="I132" s="11">
         <f t="shared" si="13"/>
-        <v>27028628</v>
+        <v>8600018</v>
       </c>
       <c r="J132" s="11">
         <f t="shared" ref="J132:J143" si="15">C132*(G132-H132)</f>
-        <v>4662724</v>
+        <v>1483594</v>
       </c>
       <c r="K132" s="11">
         <f t="shared" ref="K132:K143" si="16">D132*(G132-H132)</f>
-        <v>22365904</v>
+        <v>7116424</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -20971,11 +20980,11 @@
         <v>781</v>
       </c>
       <c r="F133" s="11">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="G133" s="36">
         <f t="shared" si="7"/>
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H133" s="11">
         <f t="shared" si="14"/>
@@ -20983,7 +20992,7 @@
       </c>
       <c r="I133" s="11">
         <f t="shared" si="13"/>
-        <v>-49638700</v>
+        <v>-13317700</v>
       </c>
       <c r="J133" s="11">
         <f t="shared" si="15"/>
@@ -20991,19 +21000,32 @@
       </c>
       <c r="K133" s="11">
         <f t="shared" si="16"/>
-        <v>-49638700</v>
+        <v>-13317700</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="11"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
+      <c r="A134" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="B134" s="18">
+        <v>-65000</v>
+      </c>
+      <c r="C134" s="18">
+        <v>0</v>
+      </c>
+      <c r="D134" s="18">
+        <f t="shared" si="12"/>
+        <v>-65000</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="F134" s="11">
+        <v>0</v>
+      </c>
       <c r="G134" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H134" s="11">
         <f t="shared" si="14"/>
@@ -21011,7 +21033,7 @@
       </c>
       <c r="I134" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-130000</v>
       </c>
       <c r="J134" s="11">
         <f t="shared" si="15"/>
@@ -21019,19 +21041,32 @@
       </c>
       <c r="K134" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-130000</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="11"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
+      <c r="A135" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="B135" s="18">
+        <v>-32300</v>
+      </c>
+      <c r="C135" s="18">
+        <v>0</v>
+      </c>
+      <c r="D135" s="18">
+        <f t="shared" si="12"/>
+        <v>-32300</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="F135" s="11">
+        <v>2</v>
+      </c>
       <c r="G135" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H135" s="11">
         <f t="shared" si="14"/>
@@ -21039,7 +21074,7 @@
       </c>
       <c r="I135" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-64600</v>
       </c>
       <c r="J135" s="11">
         <f t="shared" si="15"/>
@@ -21047,7 +21082,7 @@
       </c>
       <c r="K135" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-64600</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -21286,7 +21321,7 @@
       <c r="A144" s="11"/>
       <c r="B144" s="29">
         <f>SUM(B2:B143)</f>
-        <v>35607069</v>
+        <v>35509769</v>
       </c>
       <c r="C144" s="29">
         <f>SUM(C2:C142)</f>
@@ -21294,7 +21329,7 @@
       </c>
       <c r="D144" s="29">
         <f>SUM(D2:D142)</f>
-        <v>23457100</v>
+        <v>23359800</v>
       </c>
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
@@ -21302,15 +21337,15 @@
       <c r="H144" s="11"/>
       <c r="I144" s="29">
         <f>SUM(I2:I143)</f>
-        <v>14562599321</v>
+        <v>13494192651</v>
       </c>
       <c r="J144" s="29">
         <f>SUM(J2:J143)</f>
-        <v>5797240335</v>
+        <v>5432741265</v>
       </c>
       <c r="K144" s="29">
         <f>SUM(K2:K143)</f>
-        <v>8765358986</v>
+        <v>8061451386</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -21362,15 +21397,15 @@
       <c r="H147" s="11"/>
       <c r="I147" s="3">
         <f>I144/G2</f>
-        <v>24030691.948844884</v>
+        <v>23427417.796875</v>
       </c>
       <c r="J147" s="29">
         <f>J144/G2</f>
-        <v>9566403.1930693071</v>
+        <v>9431842.473958334</v>
       </c>
       <c r="K147" s="29">
         <f>K144/G2</f>
-        <v>14464288.755775578</v>
+        <v>13995575.322916666</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -21395,11 +21430,11 @@
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J151">
         <f>J144/I144*1448696</f>
-        <v>576712.89989021327</v>
+        <v>583242.78770817735</v>
       </c>
       <c r="K151">
         <f>K144/I144*1448696</f>
-        <v>871983.10010978684</v>
+        <v>865453.21229182265</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -29806,8 +29841,8 @@
   <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32872,7 +32907,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G160" sqref="G160"/>
+      <selection pane="bottomLeft" activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37182,8 +37217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37579,11 +37614,11 @@
       </c>
       <c r="F10" s="72">
         <f>K16</f>
-        <v>63075846</v>
+        <v>62925846</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="0"/>
-        <v>2290575.5808270946</v>
+        <v>2440575.5808270946</v>
       </c>
       <c r="H10" s="11"/>
       <c r="J10" s="2" t="s">
@@ -37626,7 +37661,7 @@
         <v>459</v>
       </c>
       <c r="K11" s="43">
-        <v>180000</v>
+        <v>30000</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>748</v>
@@ -37780,7 +37815,7 @@
       </c>
       <c r="K16" s="3">
         <f>SUM(K7:K13)</f>
-        <v>63075846</v>
+        <v>62925846</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="11" t="s">
@@ -37821,7 +37856,7 @@
       </c>
       <c r="K17" s="3">
         <f>K7+K8+K11</f>
-        <v>64075846</v>
+        <v>63925846</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="11" t="s">
@@ -37829,7 +37864,7 @@
       </c>
       <c r="N17" s="29">
         <f>سارا!D144</f>
-        <v>23457100</v>
+        <v>23359800</v>
       </c>
       <c r="P17" s="28"/>
       <c r="Q17" s="25"/>
@@ -37862,7 +37897,7 @@
       </c>
       <c r="K18" s="1">
         <f>K16+N7</f>
-        <v>120075846</v>
+        <v>119925846</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>786</v>
@@ -38170,7 +38205,7 @@
       </c>
       <c r="N25" s="29">
         <f>SUM(N16:N23)</f>
-        <v>133533207</v>
+        <v>133435907</v>
       </c>
       <c r="P25" s="11"/>
       <c r="Q25" s="29"/>
@@ -40202,8 +40237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40707,7 +40742,7 @@
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G29" s="11">
         <f t="shared" ref="G29:G40" si="6">$I$44-I29</f>
-        <v>60000</v>
+        <v>61000</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>574</v>
@@ -40722,7 +40757,7 @@
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G30" s="11">
         <f t="shared" si="6"/>
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>575</v>
@@ -40737,7 +40772,7 @@
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G31" s="11">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>738</v>
@@ -40752,7 +40787,7 @@
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G32" s="11">
         <f t="shared" si="6"/>
-        <v>40000</v>
+        <v>41000</v>
       </c>
       <c r="H32" s="61">
         <v>34617</v>
@@ -40767,7 +40802,7 @@
     <row r="33" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G33" s="11">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>738</v>
@@ -40782,7 +40817,7 @@
     <row r="34" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G34" s="11">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>738</v>
@@ -40797,7 +40832,7 @@
     <row r="35" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G35" s="11">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>738</v>
@@ -40815,7 +40850,7 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="6"/>
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>664</v>
@@ -40833,7 +40868,7 @@
     <row r="37" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G37" s="11">
         <f t="shared" si="6"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>673</v>
@@ -40848,7 +40883,7 @@
     <row r="38" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G38" s="11">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>737</v>
@@ -40863,7 +40898,7 @@
     <row r="39" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G39" s="11">
         <f t="shared" si="6"/>
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>777</v>
@@ -40878,7 +40913,7 @@
     <row r="40" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G40" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>775</v>
@@ -40920,7 +40955,7 @@
     <row r="41" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G41" s="11">
         <f t="shared" ref="G41:G43" si="7">$I$44-I41</f>
-        <v>225000</v>
+        <v>226000</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11">
@@ -40970,7 +41005,7 @@
     <row r="42" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G42" s="11">
         <f t="shared" si="7"/>
-        <v>225000</v>
+        <v>226000</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>25</v>
@@ -41023,7 +41058,7 @@
     <row r="43" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G43" s="11">
         <f t="shared" si="7"/>
-        <v>225000</v>
+        <v>226000</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11">
@@ -41043,7 +41078,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11">
-        <v>225000</v>
+        <v>226000</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>578</v>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="804">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2448,6 +2448,9 @@
   </si>
   <si>
     <t>مریم دکتر فرحت و دارو مادرش</t>
+  </si>
+  <si>
+    <t>روز 17 آبان برای بیمارستان دادم به مریم</t>
   </si>
 </sst>
 </file>
@@ -3133,8 +3136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4207,9 +4210,11 @@
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D33" s="42">
-        <v>0</v>
-      </c>
-      <c r="E33" s="41"/>
+        <v>-30000</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>803</v>
+      </c>
       <c r="O33">
         <v>30</v>
       </c>
@@ -4273,7 +4278,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>7974922</v>
+        <v>7944922</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -37217,7 +37222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="806">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2451,6 +2451,12 @@
   </si>
   <si>
     <t>روز 17 آبان برای بیمارستان دادم به مریم</t>
+  </si>
+  <si>
+    <t>17/8/1396</t>
+  </si>
+  <si>
+    <t>مریم نقدی از کیفم برداشت و پیرهن خرید</t>
   </si>
 </sst>
 </file>
@@ -3136,8 +3142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4227,9 +4233,11 @@
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D34" s="42">
-        <v>0</v>
-      </c>
-      <c r="E34" s="41"/>
+        <v>-100000</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>805</v>
+      </c>
       <c r="P34" t="s">
         <v>60</v>
       </c>
@@ -4278,7 +4286,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>7944922</v>
+        <v>7844922</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -15531,7 +15539,7 @@
   <dimension ref="A1:O153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B134" sqref="B134:B135"/>
     </sheetView>
   </sheetViews>
@@ -29846,7 +29854,7 @@
   <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
@@ -32911,8 +32919,8 @@
   <dimension ref="A1:L184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A160" sqref="A160"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32962,7 +32970,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -32970,7 +32978,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>50477400</v>
+        <v>50767500</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -32988,7 +32996,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -32996,7 +33004,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1560000000</v>
+        <v>1569000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -33012,7 +33020,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -33020,7 +33028,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-103600000</v>
+        <v>-104200000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -33036,7 +33044,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -33044,7 +33052,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-51600000</v>
+        <v>-51900000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -33060,7 +33068,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -33068,7 +33076,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-28325000</v>
+        <v>-28490000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -33084,7 +33092,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -33092,7 +33100,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-102800000</v>
+        <v>-103400000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -33108,7 +33116,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -33116,7 +33124,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-102000000</v>
+        <v>-102600000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -33132,7 +33140,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -33140,7 +33148,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-475250000</v>
+        <v>-478101500</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -33156,7 +33164,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -33164,7 +33172,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>996000000</v>
+        <v>1002000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -33180,7 +33188,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -33188,7 +33196,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-529305000</v>
+        <v>-532500000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -33204,7 +33212,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -33212,7 +33220,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-22230000</v>
+        <v>-22365000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -33228,7 +33236,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -33236,7 +33244,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-986345100</v>
+        <v>-992347200</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -33252,7 +33260,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -33260,7 +33268,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-97800000</v>
+        <v>-98400000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -33276,7 +33284,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -33284,7 +33292,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>972000000</v>
+        <v>978000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -33300,7 +33308,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -33308,7 +33316,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>972000000</v>
+        <v>978000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -33324,7 +33332,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -33332,7 +33340,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>583200000</v>
+        <v>586800000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -33348,7 +33356,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -33356,7 +33364,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>486000000</v>
+        <v>489000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -33372,7 +33380,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -33380,7 +33388,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1455000000</v>
+        <v>1464000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -33399,7 +33407,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -33407,7 +33415,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-210292200</v>
+        <v>-211590300</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -33423,7 +33431,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -33431,7 +33439,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-210292200</v>
+        <v>-211590300</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -33447,7 +33455,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -33455,7 +33463,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-210292200</v>
+        <v>-211590300</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -33471,7 +33479,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -33479,7 +33487,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-210292200</v>
+        <v>-211590300</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -33495,7 +33503,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -33503,7 +33511,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-210292200</v>
+        <v>-211590300</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -33519,7 +33527,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -33527,7 +33535,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-97200000</v>
+        <v>-97800000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -33543,7 +33551,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -33551,7 +33559,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1452000000</v>
+        <v>1461000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -33567,7 +33575,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -33575,7 +33583,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-96600000</v>
+        <v>-97200000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -33591,7 +33599,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -33599,7 +33607,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>962000000</v>
+        <v>968000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -33615,7 +33623,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -33623,7 +33631,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-3367384800</v>
+        <v>-3388387200</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -33639,7 +33647,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -33647,7 +33655,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1440432000</v>
+        <v>-1449434700</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -33663,7 +33671,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -33671,7 +33679,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-812336100</v>
+        <v>-817423800</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -33687,7 +33695,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -33695,7 +33703,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>472292500</v>
+        <v>475275400</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -33711,7 +33719,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -33719,7 +33727,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>16457679</v>
+        <v>16562952</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>378</v>
@@ -33737,7 +33745,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -33745,7 +33753,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-398650000</v>
+        <v>-401200000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -33761,7 +33769,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -33769,7 +33777,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-87820500</v>
+        <v>-88392000</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -33785,7 +33793,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -33793,7 +33801,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>91800000</v>
+        <v>92400000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -33809,7 +33817,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -33817,7 +33825,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-92000000</v>
+        <v>-92600000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -33833,7 +33841,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -33841,7 +33849,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>131452222</v>
+        <v>132354640</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>398</v>
@@ -33859,7 +33867,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -33867,7 +33875,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-41515000</v>
+        <v>-41800000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -33883,7 +33891,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -33891,7 +33899,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-38501011</v>
+        <v>-38765320</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -33907,7 +33915,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -33915,7 +33923,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-51840000</v>
+        <v>-52200000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -33931,7 +33939,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -33939,7 +33947,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>409083436</v>
+        <v>412084048</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>399</v>
@@ -33957,7 +33965,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -33965,7 +33973,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-32480000</v>
+        <v>-32720000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -33981,7 +33989,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -33989,7 +33997,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-84833658</v>
+        <v>-85466745</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -34005,7 +34013,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -34013,7 +34021,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-80200000</v>
+        <v>-80800000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -34029,7 +34037,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -34037,7 +34045,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-38000000</v>
+        <v>-38285000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -34053,7 +34061,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -34061,7 +34069,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-17910000</v>
+        <v>-18045000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -34077,7 +34085,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -34085,7 +34093,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-25543640</v>
+        <v>-25736180</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -34101,7 +34109,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -34109,7 +34117,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-10856180</v>
+        <v>-10938632</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -34125,7 +34133,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -34133,7 +34141,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-55554000</v>
+        <v>-55977000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -34149,7 +34157,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -34157,7 +34165,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-10537924</v>
+        <v>-10618162</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -34173,7 +34181,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -34181,7 +34189,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-20946900</v>
+        <v>-21106800</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -34197,7 +34205,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -34205,7 +34213,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>391000000</v>
+        <v>394000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -34221,7 +34229,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -34229,7 +34237,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-8106000</v>
+        <v>-8169000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -34245,7 +34253,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -34253,7 +34261,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-377492500</v>
+        <v>-380434000</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -34269,7 +34277,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -34277,7 +34285,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-17325000</v>
+        <v>-17460000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -34293,7 +34301,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -34301,7 +34309,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>1114925119</v>
+        <v>1123940686</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>400</v>
@@ -34319,7 +34327,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -34327,7 +34335,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>742000000</v>
+        <v>748000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -34343,7 +34351,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -34351,7 +34359,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>740000000</v>
+        <v>746000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -34367,7 +34375,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -34375,7 +34383,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-2597556500</v>
+        <v>-2618561000</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -34391,7 +34399,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -34399,7 +34407,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>1038000000</v>
+        <v>1047000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -34415,7 +34423,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -34423,7 +34431,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-9379714</v>
+        <v>-9461041</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -34439,7 +34447,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -34447,7 +34455,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-11414194</v>
+        <v>-11513161</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -34463,7 +34471,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -34471,7 +34479,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>1035000000</v>
+        <v>1044000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -34487,7 +34495,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -34495,7 +34503,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>1024650000</v>
+        <v>1033560000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -34511,7 +34519,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -34519,7 +34527,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>345000000</v>
+        <v>348000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -34535,7 +34543,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -34543,7 +34551,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F170" si="5">B67*(D67-E67)</f>
-        <v>10350000</v>
+        <v>10440000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -34559,7 +34567,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -34567,7 +34575,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>10320000000</v>
+        <v>10410000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -34583,7 +34591,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -34591,7 +34599,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-68800000</v>
+        <v>-69400000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -34607,7 +34615,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -34615,7 +34623,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>480200000</v>
+        <v>484400000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -34631,7 +34639,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -34639,7 +34647,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>891800000</v>
+        <v>899600000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -34655,7 +34663,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -34663,7 +34671,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-344000000</v>
+        <v>-347000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -34679,7 +34687,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -34687,7 +34695,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>5115000000</v>
+        <v>5160000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -34703,7 +34711,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -34711,7 +34719,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-5056415400</v>
+        <v>-5101428000</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -34727,7 +34735,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -34735,7 +34743,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-1005000000</v>
+        <v>-1014000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -34751,7 +34759,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -34759,7 +34767,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-67000000</v>
+        <v>-67600000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -34775,7 +34783,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -34783,7 +34791,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-4021005000</v>
+        <v>-4057014000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -34799,7 +34807,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -34807,7 +34815,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-993297900</v>
+        <v>-1002300600</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -34823,7 +34831,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -34831,7 +34839,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>7475000000</v>
+        <v>7544000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -34847,7 +34855,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -34855,7 +34863,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-192760500</v>
+        <v>-194562000</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -34871,7 +34879,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -34879,7 +34887,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-64200000</v>
+        <v>-64800000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -34895,7 +34903,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -34903,7 +34911,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>90347499</v>
+        <v>91197162</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -34921,7 +34929,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -34929,7 +34937,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-64000000</v>
+        <v>-64600000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -34945,7 +34953,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -34953,7 +34961,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>634000000</v>
+        <v>640000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -34969,7 +34977,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -34977,7 +34985,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-63000000</v>
+        <v>-63600000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -34993,7 +35001,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -35001,7 +35009,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-61800000</v>
+        <v>-62400000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -35017,7 +35025,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -35025,7 +35033,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-406775000</v>
+        <v>-410750000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -35041,7 +35049,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -35049,7 +35057,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-146000000</v>
+        <v>-147500000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -35065,7 +35073,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -35073,7 +35081,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-35040000</v>
+        <v>-35400000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -35089,7 +35097,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -35097,7 +35105,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>123751245</v>
+        <v>125035860</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -35115,7 +35123,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -35123,7 +35131,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-861574000</v>
+        <v>-870580000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>340</v>
@@ -35141,7 +35149,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -35149,7 +35157,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-58425000</v>
+        <v>-59040000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>341</v>
@@ -35167,7 +35175,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -35175,7 +35183,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-99892500</v>
+        <v>-100944000</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>338</v>
@@ -35193,7 +35201,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -35201,7 +35209,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>273000000</v>
+        <v>276000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>336</v>
@@ -35219,7 +35227,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -35227,7 +35235,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>2412000000</v>
+        <v>2439000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>348</v>
@@ -35246,7 +35254,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -35254,7 +35262,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-6942000000</v>
+        <v>-7020000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>350</v>
@@ -35272,7 +35280,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -35280,7 +35288,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-6942000000</v>
+        <v>-7020000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -35296,7 +35304,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -35304,7 +35312,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>6916000000</v>
+        <v>6994000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -35320,7 +35328,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -35328,7 +35336,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-53400000</v>
+        <v>-54000000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -35347,7 +35355,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -35355,7 +35363,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>7708800000</v>
+        <v>7796400000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -35371,7 +35379,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -35379,7 +35387,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>103585755</v>
+        <v>104785590</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>403</v>
@@ -35397,7 +35405,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -35405,7 +35413,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>516000000</v>
+        <v>522000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>405</v>
@@ -35423,7 +35431,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -35431,7 +35439,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>1927500000</v>
+        <v>1950000000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>413</v>
@@ -35449,7 +35457,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -35457,7 +35465,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-17028000000</v>
+        <v>-17226000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>427</v>
@@ -35475,7 +35483,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -35483,7 +35491,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-37410000</v>
+        <v>-37845000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>428</v>
@@ -35501,7 +35509,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -35509,7 +35517,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>1530000000</v>
+        <v>1548000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>429</v>
@@ -35527,7 +35535,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -35535,7 +35543,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-1525498600</v>
+        <v>-1543516300</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>439</v>
@@ -35553,7 +35561,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -35561,7 +35569,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>1500000000</v>
+        <v>1518000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>447</v>
@@ -35579,7 +35587,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -35587,7 +35595,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-28680000</v>
+        <v>-29040000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>462</v>
@@ -35605,7 +35613,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -35613,7 +35621,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>948000000</v>
+        <v>960000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>464</v>
@@ -35631,7 +35639,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -35639,7 +35647,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>660800000</v>
+        <v>669200000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>469</v>
@@ -35657,7 +35665,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -35665,7 +35673,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-46600000</v>
+        <v>-47200000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>475</v>
@@ -35683,7 +35691,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -35691,7 +35699,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>16703610</v>
+        <v>16920540</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>503</v>
@@ -35709,7 +35717,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -35717,7 +35725,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-43000000</v>
+        <v>-43600000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>462</v>
@@ -35738,7 +35746,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -35746,7 +35754,7 @@
       </c>
       <c r="F115" s="23">
         <f t="shared" si="5"/>
-        <v>-2354000000</v>
+        <v>-2387000000</v>
       </c>
       <c r="G115" s="23" t="s">
         <v>504</v>
@@ -35764,7 +35772,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -35772,7 +35780,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-42800000</v>
+        <v>-43400000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>462</v>
@@ -35793,7 +35801,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -35801,7 +35809,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-95506000</v>
+        <v>-96857500</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>506</v>
@@ -35819,7 +35827,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -35827,7 +35835,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-42400000</v>
+        <v>-43000000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>507</v>
@@ -35848,7 +35856,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -35856,7 +35864,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-31837300</v>
+        <v>-32300950</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>510</v>
@@ -35874,7 +35882,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -35882,7 +35890,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-65920</v>
+        <v>-66880</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>511</v>
@@ -35900,7 +35908,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -35908,7 +35916,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-88560000</v>
+        <v>-89856000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>513</v>
@@ -35926,7 +35934,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -35934,7 +35942,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>14660514</v>
+        <v>14882643</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>515</v>
@@ -35952,7 +35960,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -35960,7 +35968,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-9256000</v>
+        <v>-9412000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>539</v>
@@ -35978,7 +35986,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -35986,7 +35994,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>161432</v>
+        <v>164993</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>590</v>
@@ -36004,7 +36012,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -36012,7 +36020,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>324000000</v>
+        <v>331200000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>588</v>
@@ -36030,7 +36038,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -36038,7 +36046,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>178592400</v>
+        <v>182620800</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>597</v>
@@ -36056,7 +36064,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -36064,7 +36072,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>178592400</v>
+        <v>182620800</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>598</v>
@@ -36082,7 +36090,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -36090,7 +36098,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-24400000</v>
+        <v>-25000000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -36108,7 +36116,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -36116,7 +36124,7 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-1874160</v>
+        <v>-1921014</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>607</v>
@@ -36137,7 +36145,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -36145,7 +36153,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-23800000</v>
+        <v>-24400000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>507</v>
@@ -36163,7 +36171,7 @@
       </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D155" si="6">D132+C131</f>
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E171" si="7">IF(B131&gt;0,1,0)</f>
@@ -36171,7 +36179,7 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-23600000</v>
+        <v>-24200000</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>611</v>
@@ -36189,7 +36197,7 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -36197,7 +36205,7 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>-45630000</v>
+        <v>-46800000</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>613</v>
@@ -36215,7 +36223,7 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -36223,7 +36231,7 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>-2866500</v>
+        <v>-2940000</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>614</v>
@@ -36241,7 +36249,7 @@
       </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -36249,7 +36257,7 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>-11020000</v>
+        <v>-11305000</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>462</v>
@@ -36267,7 +36275,7 @@
       </c>
       <c r="D135" s="11">
         <f t="shared" si="6"/>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="7"/>
@@ -36275,7 +36283,7 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="5"/>
-        <v>-22400000</v>
+        <v>-23000000</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>618</v>
@@ -36293,7 +36301,7 @@
       </c>
       <c r="D136" s="11">
         <f t="shared" si="6"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="7"/>
@@ -36301,7 +36309,7 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="5"/>
-        <v>5450000000</v>
+        <v>5600000000</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>621</v>
@@ -36319,7 +36327,7 @@
       </c>
       <c r="D137" s="11">
         <f t="shared" si="6"/>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E137" s="11">
         <f t="shared" si="7"/>
@@ -36327,7 +36335,7 @@
       </c>
       <c r="F137" s="11">
         <f t="shared" si="5"/>
-        <v>1296000000</v>
+        <v>1332000000</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>621</v>
@@ -36345,7 +36353,7 @@
       </c>
       <c r="D138" s="11">
         <f t="shared" si="6"/>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E138" s="11">
         <f t="shared" si="7"/>
@@ -36353,7 +36361,7 @@
       </c>
       <c r="F138" s="11">
         <f t="shared" si="5"/>
-        <v>212000000</v>
+        <v>218000000</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>630</v>
@@ -36371,7 +36379,7 @@
       </c>
       <c r="D139" s="11">
         <f t="shared" si="6"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E139" s="11">
         <f t="shared" si="7"/>
@@ -36379,7 +36387,7 @@
       </c>
       <c r="F139" s="11">
         <f t="shared" si="5"/>
-        <v>9191490</v>
+        <v>9454104</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>378</v>
@@ -36397,7 +36405,7 @@
       </c>
       <c r="D140" s="11">
         <f t="shared" si="6"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E140" s="11">
         <f t="shared" si="7"/>
@@ -36405,7 +36413,7 @@
       </c>
       <c r="F140" s="11">
         <f t="shared" si="5"/>
-        <v>-279083700</v>
+        <v>-288086400</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>672</v>
@@ -36423,7 +36431,7 @@
       </c>
       <c r="D141" s="11">
         <f t="shared" si="6"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E141" s="11">
         <f t="shared" si="7"/>
@@ -36431,7 +36439,7 @@
       </c>
       <c r="F141" s="11">
         <f t="shared" si="5"/>
-        <v>-276082800</v>
+        <v>-285085500</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>672</v>
@@ -36452,7 +36460,7 @@
       </c>
       <c r="D142" s="11">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E142" s="11">
         <f t="shared" si="7"/>
@@ -36460,7 +36468,7 @@
       </c>
       <c r="F142" s="11">
         <f t="shared" si="5"/>
-        <v>44549850</v>
+        <v>46355925</v>
       </c>
       <c r="G142" s="11" t="s">
         <v>696</v>
@@ -36478,7 +36486,7 @@
       </c>
       <c r="D143" s="11">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E143" s="11">
         <f t="shared" si="7"/>
@@ -36486,7 +36494,7 @@
       </c>
       <c r="F143" s="11">
         <f t="shared" si="5"/>
-        <v>-3450000000</v>
+        <v>-3588000000</v>
       </c>
       <c r="G143" s="11" t="s">
         <v>699</v>
@@ -36504,7 +36512,7 @@
       </c>
       <c r="D144" s="11">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E144" s="11">
         <f t="shared" si="7"/>
@@ -36512,7 +36520,7 @@
       </c>
       <c r="F144" s="11">
         <f t="shared" si="5"/>
-        <v>6626601</v>
+        <v>7088922</v>
       </c>
       <c r="G144" s="11" t="s">
         <v>722</v>
@@ -36530,7 +36538,7 @@
       </c>
       <c r="D145" s="11">
         <f t="shared" si="6"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E145" s="11">
         <f t="shared" si="7"/>
@@ -36538,7 +36546,7 @@
       </c>
       <c r="F145" s="11">
         <f t="shared" si="5"/>
-        <v>126000000</v>
+        <v>135000000</v>
       </c>
       <c r="G145" s="11" t="s">
         <v>729</v>
@@ -36556,7 +36564,7 @@
       </c>
       <c r="D146" s="11">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E146" s="11">
         <f t="shared" si="7"/>
@@ -36564,7 +36572,7 @@
       </c>
       <c r="F146" s="11">
         <f t="shared" si="5"/>
-        <v>-8000000</v>
+        <v>-8600000</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>158</v>
@@ -36582,7 +36590,7 @@
       </c>
       <c r="D147" s="11">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E147" s="11">
         <f t="shared" si="7"/>
@@ -36590,7 +36598,7 @@
       </c>
       <c r="F147" s="11">
         <f t="shared" si="5"/>
-        <v>-7000000</v>
+        <v>-7600000</v>
       </c>
       <c r="G147" s="11" t="s">
         <v>158</v>
@@ -36611,7 +36619,7 @@
       </c>
       <c r="D148" s="11">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E148" s="11">
         <f t="shared" si="7"/>
@@ -36619,7 +36627,7 @@
       </c>
       <c r="F148" s="11">
         <f t="shared" si="5"/>
-        <v>-6800000</v>
+        <v>-7400000</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>158</v>
@@ -36637,7 +36645,7 @@
       </c>
       <c r="D149" s="11">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E149" s="11">
         <f t="shared" si="7"/>
@@ -36645,7 +36653,7 @@
       </c>
       <c r="F149" s="11">
         <f t="shared" si="5"/>
-        <v>-6000000</v>
+        <v>-6600000</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>158</v>
@@ -36663,7 +36671,7 @@
       </c>
       <c r="D150" s="11">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E150" s="11">
         <f t="shared" si="7"/>
@@ -36671,7 +36679,7 @@
       </c>
       <c r="F150" s="11">
         <f t="shared" si="5"/>
-        <v>674055200</v>
+        <v>746275400</v>
       </c>
       <c r="G150" s="11" t="s">
         <v>740</v>
@@ -36689,7 +36697,7 @@
       </c>
       <c r="D151" s="11">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E151" s="11">
         <f t="shared" si="7"/>
@@ -36697,7 +36705,7 @@
       </c>
       <c r="F151" s="11">
         <f t="shared" si="5"/>
-        <v>-5400000</v>
+        <v>-6000000</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>158</v>
@@ -36715,7 +36723,7 @@
       </c>
       <c r="D152" s="11">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E152" s="11">
         <f t="shared" si="7"/>
@@ -36723,7 +36731,7 @@
       </c>
       <c r="F152" s="11">
         <f t="shared" si="5"/>
-        <v>-630000000</v>
+        <v>-720000000</v>
       </c>
       <c r="G152" s="11" t="s">
         <v>753</v>
@@ -36741,7 +36749,7 @@
       </c>
       <c r="D153" s="11">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E153" s="11">
         <f t="shared" si="7"/>
@@ -36749,7 +36757,7 @@
       </c>
       <c r="F153" s="11">
         <f t="shared" si="5"/>
-        <v>-1040000</v>
+        <v>-1196000</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>761</v>
@@ -36767,7 +36775,7 @@
       </c>
       <c r="D154" s="11">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E154" s="11">
         <f t="shared" si="7"/>
@@ -36775,7 +36783,7 @@
       </c>
       <c r="F154" s="11">
         <f t="shared" si="5"/>
-        <v>-2720000</v>
+        <v>-3128000</v>
       </c>
       <c r="G154" s="11" t="s">
         <v>762</v>
@@ -36793,7 +36801,7 @@
       </c>
       <c r="D155" s="11">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E155" s="11">
         <f t="shared" si="7"/>
@@ -36801,7 +36809,7 @@
       </c>
       <c r="F155" s="11">
         <f t="shared" si="5"/>
-        <v>42000000</v>
+        <v>51000000</v>
       </c>
       <c r="G155" s="11" t="s">
         <v>767</v>
@@ -36819,7 +36827,7 @@
       </c>
       <c r="D156" s="11">
         <f>D157+C156</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E156" s="11">
         <f t="shared" si="7"/>
@@ -36827,7 +36835,7 @@
       </c>
       <c r="F156" s="11">
         <f t="shared" si="5"/>
-        <v>2458339</v>
+        <v>3025648</v>
       </c>
       <c r="G156" s="11" t="s">
         <v>768</v>
@@ -36845,7 +36853,7 @@
       </c>
       <c r="D157" s="11">
         <f t="shared" ref="D157:D171" si="8">D158+C157</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E157" s="11">
         <f t="shared" si="7"/>
@@ -36853,7 +36861,7 @@
       </c>
       <c r="F157" s="11">
         <f t="shared" si="5"/>
-        <v>314960100</v>
+        <v>387643200</v>
       </c>
       <c r="G157" s="11" t="s">
         <v>769</v>
@@ -36871,7 +36879,7 @@
       </c>
       <c r="D158" s="11">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E158" s="11">
         <f t="shared" si="7"/>
@@ -36879,7 +36887,7 @@
       </c>
       <c r="F158" s="11">
         <f t="shared" si="5"/>
-        <v>121476000</v>
+        <v>194361600</v>
       </c>
       <c r="G158" s="11" t="s">
         <v>783</v>
@@ -36897,7 +36905,7 @@
       </c>
       <c r="D159" s="11">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E159" s="11">
         <f t="shared" si="7"/>
@@ -36905,7 +36913,7 @@
       </c>
       <c r="F159" s="11">
         <f t="shared" si="5"/>
-        <v>-1206000</v>
+        <v>-1809000</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>796</v>
@@ -36919,11 +36927,11 @@
         <v>-200000</v>
       </c>
       <c r="C160" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D160" s="11">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E160" s="11">
         <f t="shared" si="7"/>
@@ -36931,19 +36939,25 @@
       </c>
       <c r="F160" s="11">
         <f t="shared" si="5"/>
-        <v>-200000</v>
+        <v>-800000</v>
       </c>
       <c r="G160" s="11" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="11"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="11"/>
+      <c r="A161" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="B161" s="3">
+        <v>-200000</v>
+      </c>
+      <c r="C161" s="11">
+        <v>1</v>
+      </c>
       <c r="D161" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" s="11">
         <f t="shared" si="7"/>
@@ -36951,9 +36965,11 @@
       </c>
       <c r="F161" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G161" s="11"/>
+        <v>-200000</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
@@ -37147,14 +37163,14 @@
       <c r="A172" s="11"/>
       <c r="B172" s="29">
         <f>SUM(B2:B170)</f>
-        <v>63845846</v>
+        <v>63645846</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
       <c r="F172" s="29">
         <f>SUM(F2:F170)</f>
-        <v>8466246790</v>
+        <v>8657584328</v>
       </c>
       <c r="G172" s="11"/>
     </row>
@@ -37188,7 +37204,7 @@
       <c r="E175" s="11"/>
       <c r="F175" s="3">
         <f>F172/D2</f>
-        <v>16187852.370936902</v>
+        <v>16459285.794676807</v>
       </c>
       <c r="G175" s="11"/>
     </row>
@@ -37222,8 +37238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37510,7 +37526,7 @@
       </c>
       <c r="K7" s="43">
         <f>'مسکن ایلیا'!B172</f>
-        <v>63845846</v>
+        <v>63645846</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>745</v>
@@ -37619,11 +37635,11 @@
       </c>
       <c r="F10" s="72">
         <f>K16</f>
-        <v>62925846</v>
+        <v>62775846</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="0"/>
-        <v>2440575.5808270946</v>
+        <v>2590575.5808270946</v>
       </c>
       <c r="H10" s="11"/>
       <c r="J10" s="2" t="s">
@@ -37666,7 +37682,7 @@
         <v>459</v>
       </c>
       <c r="K11" s="43">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>748</v>
@@ -37820,7 +37836,7 @@
       </c>
       <c r="K16" s="3">
         <f>SUM(K7:K13)</f>
-        <v>62925846</v>
+        <v>62775846</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="11" t="s">
@@ -37861,7 +37877,7 @@
       </c>
       <c r="K17" s="3">
         <f>K7+K8+K11</f>
-        <v>63925846</v>
+        <v>63775846</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="11" t="s">
@@ -37902,7 +37918,7 @@
       </c>
       <c r="K18" s="1">
         <f>K16+N7</f>
-        <v>119925846</v>
+        <v>119775846</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>786</v>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="آبان 96" sheetId="27" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="807">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2457,6 +2457,9 @@
   </si>
   <si>
     <t>مریم نقدی از کیفم برداشت و پیرهن خرید</t>
+  </si>
+  <si>
+    <t>21/8/1396</t>
   </si>
 </sst>
 </file>
@@ -32918,9 +32921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B164" sqref="B164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32970,7 +32973,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -32978,7 +32981,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>50767500</v>
+        <v>51154300</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -32996,7 +32999,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -33004,7 +33007,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1569000000</v>
+        <v>1581000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -33020,7 +33023,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -33028,7 +33031,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-104200000</v>
+        <v>-105000000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -33044,7 +33047,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -33052,7 +33055,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-51900000</v>
+        <v>-52300000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -33068,7 +33071,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -33076,7 +33079,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-28490000</v>
+        <v>-28710000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -33092,7 +33095,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -33100,7 +33103,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-103400000</v>
+        <v>-104200000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -33116,7 +33119,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -33124,7 +33127,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-102600000</v>
+        <v>-103400000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -33140,7 +33143,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -33148,7 +33151,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-478101500</v>
+        <v>-481903500</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -33164,7 +33167,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -33172,7 +33175,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>1002000000</v>
+        <v>1010000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -33188,7 +33191,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -33196,7 +33199,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-532500000</v>
+        <v>-536760000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -33212,7 +33215,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -33220,7 +33223,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-22365000</v>
+        <v>-22545000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -33236,7 +33239,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -33244,7 +33247,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-992347200</v>
+        <v>-1000350000</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -33260,7 +33263,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -33268,7 +33271,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-98400000</v>
+        <v>-99200000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -33284,7 +33287,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -33292,7 +33295,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>978000000</v>
+        <v>986000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -33308,7 +33311,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -33316,7 +33319,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>978000000</v>
+        <v>986000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -33332,7 +33335,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -33340,7 +33343,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>586800000</v>
+        <v>591600000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -33356,7 +33359,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -33364,7 +33367,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>489000000</v>
+        <v>493000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -33380,7 +33383,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -33388,7 +33391,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1464000000</v>
+        <v>1476000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -33407,7 +33410,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -33415,7 +33418,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-211590300</v>
+        <v>-213321100</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -33431,7 +33434,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -33439,7 +33442,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-211590300</v>
+        <v>-213321100</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -33455,7 +33458,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -33463,7 +33466,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-211590300</v>
+        <v>-213321100</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -33479,7 +33482,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -33487,7 +33490,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-211590300</v>
+        <v>-213321100</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -33503,7 +33506,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -33511,7 +33514,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-211590300</v>
+        <v>-213321100</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -33527,7 +33530,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -33535,7 +33538,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-97800000</v>
+        <v>-98600000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -33551,7 +33554,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -33559,7 +33562,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1461000000</v>
+        <v>1473000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -33575,7 +33578,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -33583,7 +33586,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-97200000</v>
+        <v>-98000000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -33599,7 +33602,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -33607,7 +33610,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>968000000</v>
+        <v>976000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -33623,7 +33626,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -33631,7 +33634,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-3388387200</v>
+        <v>-3416390400</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -33647,7 +33650,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -33655,7 +33658,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1449434700</v>
+        <v>-1461438300</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -33671,7 +33674,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -33679,7 +33682,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-817423800</v>
+        <v>-824207400</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -33695,7 +33698,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -33703,7 +33706,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>475275400</v>
+        <v>479252600</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -33719,7 +33722,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -33727,7 +33730,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>16562952</v>
+        <v>16703316</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>378</v>
@@ -33745,7 +33748,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -33753,7 +33756,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-401200000</v>
+        <v>-404600000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -33769,7 +33772,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -33777,7 +33780,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-88392000</v>
+        <v>-89154000</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -33793,7 +33796,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -33801,7 +33804,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>92400000</v>
+        <v>93200000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -33817,7 +33820,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -33825,7 +33828,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-92600000</v>
+        <v>-93400000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -33841,7 +33844,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -33849,7 +33852,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>132354640</v>
+        <v>133557864</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>398</v>
@@ -33867,7 +33870,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -33875,7 +33878,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-41800000</v>
+        <v>-42180000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -33891,7 +33894,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -33899,7 +33902,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-38765320</v>
+        <v>-39117732</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -33915,7 +33918,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -33923,7 +33926,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-52200000</v>
+        <v>-52680000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -33939,7 +33942,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -33947,7 +33950,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>412084048</v>
+        <v>416084864</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>399</v>
@@ -33965,7 +33968,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -33973,7 +33976,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-32720000</v>
+        <v>-33040000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -33989,7 +33992,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -33997,7 +34000,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-85466745</v>
+        <v>-86310861</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -34013,7 +34016,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -34021,7 +34024,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-80800000</v>
+        <v>-81600000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -34037,7 +34040,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -34045,7 +34048,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-38285000</v>
+        <v>-38665000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -34061,7 +34064,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -34069,7 +34072,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-18045000</v>
+        <v>-18225000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -34085,7 +34088,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -34093,7 +34096,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-25736180</v>
+        <v>-25992900</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -34109,7 +34112,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -34117,7 +34120,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-10938632</v>
+        <v>-11048568</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -34133,7 +34136,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -34141,7 +34144,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-55977000</v>
+        <v>-56541000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -34157,7 +34160,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -34165,7 +34168,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-10618162</v>
+        <v>-10725146</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -34181,7 +34184,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -34189,7 +34192,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-21106800</v>
+        <v>-21320000</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -34205,7 +34208,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -34213,7 +34216,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>394000000</v>
+        <v>398000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -34229,7 +34232,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -34237,7 +34240,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-8169000</v>
+        <v>-8253000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -34253,7 +34256,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -34261,7 +34264,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-380434000</v>
+        <v>-384356000</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -34277,7 +34280,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -34285,7 +34288,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-17460000</v>
+        <v>-17640000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -34301,7 +34304,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -34309,7 +34312,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>1123940686</v>
+        <v>1135961442</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>400</v>
@@ -34327,7 +34330,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -34335,7 +34338,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>748000000</v>
+        <v>756000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -34351,7 +34354,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -34359,7 +34362,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>746000000</v>
+        <v>754000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -34375,7 +34378,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -34383,7 +34386,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-2618561000</v>
+        <v>-2646567000</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -34399,7 +34402,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -34407,7 +34410,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>1047000000</v>
+        <v>1059000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -34423,7 +34426,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -34431,7 +34434,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-9461041</v>
+        <v>-9569477</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -34447,7 +34450,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -34455,7 +34458,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-11513161</v>
+        <v>-11645117</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -34471,7 +34474,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -34479,7 +34482,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>1044000000</v>
+        <v>1056000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -34495,7 +34498,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -34503,7 +34506,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>1033560000</v>
+        <v>1045440000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -34519,7 +34522,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -34527,7 +34530,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>348000000</v>
+        <v>352000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -34543,7 +34546,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -34551,7 +34554,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F170" si="5">B67*(D67-E67)</f>
-        <v>10440000</v>
+        <v>10560000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -34567,7 +34570,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -34575,7 +34578,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>10410000000</v>
+        <v>10530000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -34591,7 +34594,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -34599,7 +34602,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-69400000</v>
+        <v>-70200000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -34615,7 +34618,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -34623,7 +34626,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>484400000</v>
+        <v>490000000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -34639,7 +34642,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -34647,7 +34650,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>899600000</v>
+        <v>910000000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -34663,7 +34666,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -34671,7 +34674,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-347000000</v>
+        <v>-351000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -34687,7 +34690,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -34695,7 +34698,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>5160000000</v>
+        <v>5220000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -34711,7 +34714,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -34719,7 +34722,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-5101428000</v>
+        <v>-5161444800</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -34735,7 +34738,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -34743,7 +34746,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-1014000000</v>
+        <v>-1026000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -34759,7 +34762,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -34767,7 +34770,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-67600000</v>
+        <v>-68400000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -34783,7 +34786,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -34791,7 +34794,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-4057014000</v>
+        <v>-4105026000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -34807,7 +34810,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -34815,7 +34818,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-1002300600</v>
+        <v>-1014304200</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -34831,7 +34834,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -34839,7 +34842,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>7544000000</v>
+        <v>7636000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -34855,7 +34858,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -34863,7 +34866,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-194562000</v>
+        <v>-196964000</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -34879,7 +34882,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -34887,7 +34890,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-64800000</v>
+        <v>-65600000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -34903,7 +34906,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -34911,7 +34914,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>91197162</v>
+        <v>92330046</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -34929,7 +34932,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -34937,7 +34940,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-64600000</v>
+        <v>-65400000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -34953,7 +34956,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -34961,7 +34964,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>640000000</v>
+        <v>648000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -34977,7 +34980,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -34985,7 +34988,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-63600000</v>
+        <v>-64400000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -35001,7 +35004,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -35009,7 +35012,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-62400000</v>
+        <v>-63200000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -35025,7 +35028,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -35033,7 +35036,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-410750000</v>
+        <v>-416050000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -35049,7 +35052,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -35057,7 +35060,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-147500000</v>
+        <v>-149500000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -35073,7 +35076,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -35081,7 +35084,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-35400000</v>
+        <v>-35880000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -35097,7 +35100,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -35105,7 +35108,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>125035860</v>
+        <v>126748680</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -35123,7 +35126,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -35131,7 +35134,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-870580000</v>
+        <v>-882588000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>340</v>
@@ -35149,7 +35152,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -35157,7 +35160,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-59040000</v>
+        <v>-59860000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>341</v>
@@ -35175,7 +35178,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -35183,7 +35186,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-100944000</v>
+        <v>-102346000</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>338</v>
@@ -35201,7 +35204,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -35209,7 +35212,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>276000000</v>
+        <v>280000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>336</v>
@@ -35227,7 +35230,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -35235,7 +35238,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>2439000000</v>
+        <v>2475000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>348</v>
@@ -35254,7 +35257,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -35262,7 +35265,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-7020000000</v>
+        <v>-7124000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>350</v>
@@ -35280,7 +35283,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -35288,7 +35291,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-7020000000</v>
+        <v>-7124000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -35304,7 +35307,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -35312,7 +35315,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>6994000000</v>
+        <v>7098000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -35328,7 +35331,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -35336,7 +35339,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-54000000</v>
+        <v>-54800000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -35355,7 +35358,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -35363,7 +35366,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>7796400000</v>
+        <v>7913200000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -35379,7 +35382,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -35387,7 +35390,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>104785590</v>
+        <v>106385370</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>403</v>
@@ -35405,7 +35408,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -35413,7 +35416,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>522000000</v>
+        <v>530000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>405</v>
@@ -35431,7 +35434,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -35439,7 +35442,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>1950000000</v>
+        <v>1980000000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>413</v>
@@ -35457,7 +35460,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -35465,7 +35468,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-17226000000</v>
+        <v>-17490000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>427</v>
@@ -35483,7 +35486,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -35491,7 +35494,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-37845000</v>
+        <v>-38425000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>428</v>
@@ -35509,7 +35512,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -35517,7 +35520,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>1548000000</v>
+        <v>1572000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>429</v>
@@ -35535,7 +35538,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -35543,7 +35546,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-1543516300</v>
+        <v>-1567539900</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>439</v>
@@ -35561,7 +35564,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -35569,7 +35572,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>1518000000</v>
+        <v>1542000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>447</v>
@@ -35587,7 +35590,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -35595,7 +35598,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-29040000</v>
+        <v>-29520000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>462</v>
@@ -35613,7 +35616,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -35621,7 +35624,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>960000000</v>
+        <v>976000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>464</v>
@@ -35639,7 +35642,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -35647,7 +35650,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>669200000</v>
+        <v>680400000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>469</v>
@@ -35665,7 +35668,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -35673,7 +35676,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-47200000</v>
+        <v>-48000000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>475</v>
@@ -35691,7 +35694,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -35699,7 +35702,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>16920540</v>
+        <v>17209780</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>503</v>
@@ -35717,7 +35720,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -35725,7 +35728,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-43600000</v>
+        <v>-44400000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>462</v>
@@ -35746,7 +35749,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -35754,7 +35757,7 @@
       </c>
       <c r="F115" s="23">
         <f t="shared" si="5"/>
-        <v>-2387000000</v>
+        <v>-2431000000</v>
       </c>
       <c r="G115" s="23" t="s">
         <v>504</v>
@@ -35772,7 +35775,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -35780,7 +35783,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-43400000</v>
+        <v>-44200000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>462</v>
@@ -35801,7 +35804,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -35809,7 +35812,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-96857500</v>
+        <v>-98659500</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>506</v>
@@ -35827,7 +35830,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -35835,7 +35838,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-43000000</v>
+        <v>-43800000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>507</v>
@@ -35856,7 +35859,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -35864,7 +35867,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-32300950</v>
+        <v>-32919150</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>510</v>
@@ -35882,7 +35885,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -35890,7 +35893,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-66880</v>
+        <v>-68160</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>511</v>
@@ -35908,7 +35911,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -35916,7 +35919,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-89856000</v>
+        <v>-91584000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>513</v>
@@ -35934,7 +35937,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -35942,7 +35945,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>14882643</v>
+        <v>15178815</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>515</v>
@@ -35960,7 +35963,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -35968,7 +35971,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-9412000</v>
+        <v>-9620000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>539</v>
@@ -35986,7 +35989,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -35994,7 +35997,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>164993</v>
+        <v>169741</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>590</v>
@@ -36012,7 +36015,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -36020,7 +36023,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>331200000</v>
+        <v>340800000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>588</v>
@@ -36038,7 +36041,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -36046,7 +36049,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>182620800</v>
+        <v>187992000</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>597</v>
@@ -36064,7 +36067,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -36072,7 +36075,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>182620800</v>
+        <v>187992000</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>598</v>
@@ -36090,7 +36093,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -36098,7 +36101,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-25000000</v>
+        <v>-25800000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -36116,7 +36119,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -36124,7 +36127,7 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-1921014</v>
+        <v>-1983486</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>607</v>
@@ -36145,7 +36148,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -36153,7 +36156,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-24400000</v>
+        <v>-25200000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>507</v>
@@ -36171,7 +36174,7 @@
       </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D155" si="6">D132+C131</f>
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E171" si="7">IF(B131&gt;0,1,0)</f>
@@ -36179,7 +36182,7 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-24200000</v>
+        <v>-25000000</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>611</v>
@@ -36197,7 +36200,7 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -36205,7 +36208,7 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>-46800000</v>
+        <v>-48360000</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>613</v>
@@ -36223,7 +36226,7 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -36231,7 +36234,7 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>-2940000</v>
+        <v>-3038000</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>614</v>
@@ -36249,7 +36252,7 @@
       </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -36257,7 +36260,7 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>-11305000</v>
+        <v>-11685000</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>462</v>
@@ -36275,7 +36278,7 @@
       </c>
       <c r="D135" s="11">
         <f t="shared" si="6"/>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="7"/>
@@ -36283,7 +36286,7 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="5"/>
-        <v>-23000000</v>
+        <v>-23800000</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>618</v>
@@ -36301,7 +36304,7 @@
       </c>
       <c r="D136" s="11">
         <f t="shared" si="6"/>
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="7"/>
@@ -36309,7 +36312,7 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="5"/>
-        <v>5600000000</v>
+        <v>5800000000</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>621</v>
@@ -36327,7 +36330,7 @@
       </c>
       <c r="D137" s="11">
         <f t="shared" si="6"/>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E137" s="11">
         <f t="shared" si="7"/>
@@ -36335,7 +36338,7 @@
       </c>
       <c r="F137" s="11">
         <f t="shared" si="5"/>
-        <v>1332000000</v>
+        <v>1380000000</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>621</v>
@@ -36353,7 +36356,7 @@
       </c>
       <c r="D138" s="11">
         <f t="shared" si="6"/>
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E138" s="11">
         <f t="shared" si="7"/>
@@ -36361,7 +36364,7 @@
       </c>
       <c r="F138" s="11">
         <f t="shared" si="5"/>
-        <v>218000000</v>
+        <v>226000000</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>630</v>
@@ -36379,7 +36382,7 @@
       </c>
       <c r="D139" s="11">
         <f t="shared" si="6"/>
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E139" s="11">
         <f t="shared" si="7"/>
@@ -36387,7 +36390,7 @@
       </c>
       <c r="F139" s="11">
         <f t="shared" si="5"/>
-        <v>9454104</v>
+        <v>9804256</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>378</v>
@@ -36405,7 +36408,7 @@
       </c>
       <c r="D140" s="11">
         <f t="shared" si="6"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E140" s="11">
         <f t="shared" si="7"/>
@@ -36413,7 +36416,7 @@
       </c>
       <c r="F140" s="11">
         <f t="shared" si="5"/>
-        <v>-288086400</v>
+        <v>-300090000</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>672</v>
@@ -36431,7 +36434,7 @@
       </c>
       <c r="D141" s="11">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E141" s="11">
         <f t="shared" si="7"/>
@@ -36439,7 +36442,7 @@
       </c>
       <c r="F141" s="11">
         <f t="shared" si="5"/>
-        <v>-285085500</v>
+        <v>-297089100</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>672</v>
@@ -36460,7 +36463,7 @@
       </c>
       <c r="D142" s="11">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E142" s="11">
         <f t="shared" si="7"/>
@@ -36468,7 +36471,7 @@
       </c>
       <c r="F142" s="11">
         <f t="shared" si="5"/>
-        <v>46355925</v>
+        <v>48764025</v>
       </c>
       <c r="G142" s="11" t="s">
         <v>696</v>
@@ -36486,7 +36489,7 @@
       </c>
       <c r="D143" s="11">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E143" s="11">
         <f t="shared" si="7"/>
@@ -36494,7 +36497,7 @@
       </c>
       <c r="F143" s="11">
         <f t="shared" si="5"/>
-        <v>-3588000000</v>
+        <v>-3772000000</v>
       </c>
       <c r="G143" s="11" t="s">
         <v>699</v>
@@ -36512,7 +36515,7 @@
       </c>
       <c r="D144" s="11">
         <f t="shared" si="6"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E144" s="11">
         <f t="shared" si="7"/>
@@ -36520,7 +36523,7 @@
       </c>
       <c r="F144" s="11">
         <f t="shared" si="5"/>
-        <v>7088922</v>
+        <v>7705350</v>
       </c>
       <c r="G144" s="11" t="s">
         <v>722</v>
@@ -36538,7 +36541,7 @@
       </c>
       <c r="D145" s="11">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E145" s="11">
         <f t="shared" si="7"/>
@@ -36546,7 +36549,7 @@
       </c>
       <c r="F145" s="11">
         <f t="shared" si="5"/>
-        <v>135000000</v>
+        <v>147000000</v>
       </c>
       <c r="G145" s="11" t="s">
         <v>729</v>
@@ -36564,7 +36567,7 @@
       </c>
       <c r="D146" s="11">
         <f t="shared" si="6"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E146" s="11">
         <f t="shared" si="7"/>
@@ -36572,7 +36575,7 @@
       </c>
       <c r="F146" s="11">
         <f t="shared" si="5"/>
-        <v>-8600000</v>
+        <v>-9400000</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>158</v>
@@ -36590,7 +36593,7 @@
       </c>
       <c r="D147" s="11">
         <f t="shared" si="6"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E147" s="11">
         <f t="shared" si="7"/>
@@ -36598,7 +36601,7 @@
       </c>
       <c r="F147" s="11">
         <f t="shared" si="5"/>
-        <v>-7600000</v>
+        <v>-8400000</v>
       </c>
       <c r="G147" s="11" t="s">
         <v>158</v>
@@ -36619,7 +36622,7 @@
       </c>
       <c r="D148" s="11">
         <f t="shared" si="6"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E148" s="11">
         <f t="shared" si="7"/>
@@ -36627,7 +36630,7 @@
       </c>
       <c r="F148" s="11">
         <f t="shared" si="5"/>
-        <v>-7400000</v>
+        <v>-8200000</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>158</v>
@@ -36645,7 +36648,7 @@
       </c>
       <c r="D149" s="11">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E149" s="11">
         <f t="shared" si="7"/>
@@ -36653,7 +36656,7 @@
       </c>
       <c r="F149" s="11">
         <f t="shared" si="5"/>
-        <v>-6600000</v>
+        <v>-7400000</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>158</v>
@@ -36671,7 +36674,7 @@
       </c>
       <c r="D150" s="11">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E150" s="11">
         <f t="shared" si="7"/>
@@ -36679,7 +36682,7 @@
       </c>
       <c r="F150" s="11">
         <f t="shared" si="5"/>
-        <v>746275400</v>
+        <v>842569000</v>
       </c>
       <c r="G150" s="11" t="s">
         <v>740</v>
@@ -36697,7 +36700,7 @@
       </c>
       <c r="D151" s="11">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E151" s="11">
         <f t="shared" si="7"/>
@@ -36705,7 +36708,7 @@
       </c>
       <c r="F151" s="11">
         <f t="shared" si="5"/>
-        <v>-6000000</v>
+        <v>-6800000</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>158</v>
@@ -36723,7 +36726,7 @@
       </c>
       <c r="D152" s="11">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E152" s="11">
         <f t="shared" si="7"/>
@@ -36731,7 +36734,7 @@
       </c>
       <c r="F152" s="11">
         <f t="shared" si="5"/>
-        <v>-720000000</v>
+        <v>-840000000</v>
       </c>
       <c r="G152" s="11" t="s">
         <v>753</v>
@@ -36749,7 +36752,7 @@
       </c>
       <c r="D153" s="11">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E153" s="11">
         <f t="shared" si="7"/>
@@ -36757,7 +36760,7 @@
       </c>
       <c r="F153" s="11">
         <f t="shared" si="5"/>
-        <v>-1196000</v>
+        <v>-1404000</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>761</v>
@@ -36775,7 +36778,7 @@
       </c>
       <c r="D154" s="11">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E154" s="11">
         <f t="shared" si="7"/>
@@ -36783,7 +36786,7 @@
       </c>
       <c r="F154" s="11">
         <f t="shared" si="5"/>
-        <v>-3128000</v>
+        <v>-3672000</v>
       </c>
       <c r="G154" s="11" t="s">
         <v>762</v>
@@ -36801,7 +36804,7 @@
       </c>
       <c r="D155" s="11">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E155" s="11">
         <f t="shared" si="7"/>
@@ -36809,7 +36812,7 @@
       </c>
       <c r="F155" s="11">
         <f t="shared" si="5"/>
-        <v>51000000</v>
+        <v>63000000</v>
       </c>
       <c r="G155" s="11" t="s">
         <v>767</v>
@@ -36827,7 +36830,7 @@
       </c>
       <c r="D156" s="11">
         <f>D157+C156</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E156" s="11">
         <f t="shared" si="7"/>
@@ -36835,7 +36838,7 @@
       </c>
       <c r="F156" s="11">
         <f t="shared" si="5"/>
-        <v>3025648</v>
+        <v>3782060</v>
       </c>
       <c r="G156" s="11" t="s">
         <v>768</v>
@@ -36853,7 +36856,7 @@
       </c>
       <c r="D157" s="11">
         <f t="shared" ref="D157:D171" si="8">D158+C157</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E157" s="11">
         <f t="shared" si="7"/>
@@ -36861,7 +36864,7 @@
       </c>
       <c r="F157" s="11">
         <f t="shared" si="5"/>
-        <v>387643200</v>
+        <v>484554000</v>
       </c>
       <c r="G157" s="11" t="s">
         <v>769</v>
@@ -36879,7 +36882,7 @@
       </c>
       <c r="D158" s="11">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E158" s="11">
         <f t="shared" si="7"/>
@@ -36887,7 +36890,7 @@
       </c>
       <c r="F158" s="11">
         <f t="shared" si="5"/>
-        <v>194361600</v>
+        <v>291542400</v>
       </c>
       <c r="G158" s="11" t="s">
         <v>783</v>
@@ -36905,7 +36908,7 @@
       </c>
       <c r="D159" s="11">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E159" s="11">
         <f t="shared" si="7"/>
@@ -36913,7 +36916,7 @@
       </c>
       <c r="F159" s="11">
         <f t="shared" si="5"/>
-        <v>-1809000</v>
+        <v>-2613000</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>796</v>
@@ -36931,7 +36934,7 @@
       </c>
       <c r="D160" s="11">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E160" s="11">
         <f t="shared" si="7"/>
@@ -36939,7 +36942,7 @@
       </c>
       <c r="F160" s="11">
         <f t="shared" si="5"/>
-        <v>-800000</v>
+        <v>-1600000</v>
       </c>
       <c r="G160" s="11" t="s">
         <v>798</v>
@@ -36953,11 +36956,11 @@
         <v>-200000</v>
       </c>
       <c r="C161" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D161" s="11">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E161" s="11">
         <f t="shared" si="7"/>
@@ -36965,19 +36968,25 @@
       </c>
       <c r="F161" s="11">
         <f t="shared" si="5"/>
-        <v>-200000</v>
+        <v>-1000000</v>
       </c>
       <c r="G161" s="11" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="11"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="11"/>
+      <c r="A162" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="B162" s="3">
+        <v>-200000</v>
+      </c>
+      <c r="C162" s="11">
+        <v>1</v>
+      </c>
       <c r="D162" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" s="11">
         <f t="shared" si="7"/>
@@ -36985,9 +36994,11 @@
       </c>
       <c r="F162" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G162" s="11"/>
+        <v>-200000</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
@@ -37163,14 +37174,14 @@
       <c r="A172" s="11"/>
       <c r="B172" s="29">
         <f>SUM(B2:B170)</f>
-        <v>63645846</v>
+        <v>63445846</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
       <c r="F172" s="29">
         <f>SUM(F2:F170)</f>
-        <v>8657584328</v>
+        <v>8911967712</v>
       </c>
       <c r="G172" s="11"/>
     </row>
@@ -37204,7 +37215,7 @@
       <c r="E175" s="11"/>
       <c r="F175" s="3">
         <f>F172/D2</f>
-        <v>16459285.794676807</v>
+        <v>16815033.418867923</v>
       </c>
       <c r="G175" s="11"/>
     </row>
@@ -37238,7 +37249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -37526,7 +37537,7 @@
       </c>
       <c r="K7" s="43">
         <f>'مسکن ایلیا'!B172</f>
-        <v>63645846</v>
+        <v>63445846</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>745</v>
@@ -37635,11 +37646,11 @@
       </c>
       <c r="F10" s="72">
         <f>K16</f>
-        <v>62775846</v>
+        <v>62575846</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="0"/>
-        <v>2590575.5808270946</v>
+        <v>2790575.5808270946</v>
       </c>
       <c r="H10" s="11"/>
       <c r="J10" s="2" t="s">
@@ -37836,7 +37847,7 @@
       </c>
       <c r="K16" s="3">
         <f>SUM(K7:K13)</f>
-        <v>62775846</v>
+        <v>62575846</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="11" t="s">
@@ -37877,7 +37888,7 @@
       </c>
       <c r="K17" s="3">
         <f>K7+K8+K11</f>
-        <v>63775846</v>
+        <v>63575846</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="11" t="s">
@@ -37918,7 +37929,7 @@
       </c>
       <c r="K18" s="1">
         <f>K16+N7</f>
-        <v>119775846</v>
+        <v>119575846</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>786</v>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="آبان 96" sheetId="27" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="810">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2460,6 +2460,15 @@
   </si>
   <si>
     <t>21/8/1396</t>
+  </si>
+  <si>
+    <t>24/8/1396</t>
+  </si>
+  <si>
+    <t>22/8/1396</t>
+  </si>
+  <si>
+    <t>مریم به سارا کارت به کارت کرد</t>
   </si>
 </sst>
 </file>
@@ -3145,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3358,30 +3367,32 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>0</v>
+      <c r="A6" s="17" t="s">
+        <v>808</v>
       </c>
       <c r="B6" s="18">
-        <v>0</v>
+        <v>-1000000</v>
       </c>
       <c r="C6" s="18">
-        <v>0</v>
+        <v>-1000000</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="19" t="s">
+        <v>809</v>
+      </c>
       <c r="F6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-9000000</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-9000000</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
@@ -4041,11 +4052,11 @@
       </c>
       <c r="B24" s="3">
         <f>SUM(B2:B22)</f>
-        <v>35509770</v>
+        <v>34509770</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C22)</f>
-        <v>12149969</v>
+        <v>11149969</v>
       </c>
       <c r="D24" s="3">
         <f>SUM(D2:D22)</f>
@@ -4065,11 +4076,11 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G25" s="18">
         <f>SUM(G2:G23)</f>
-        <v>1070786513</v>
+        <v>1061786513</v>
       </c>
       <c r="H25" s="18">
         <f>SUM(H2:H23)</f>
-        <v>364393099</v>
+        <v>355393099</v>
       </c>
       <c r="I25" s="18">
         <f>SUM(I2:I23)</f>
@@ -4157,11 +4168,11 @@
       </c>
       <c r="H30" s="18">
         <f>G30*H25/G25</f>
-        <v>209044.41818031471</v>
+        <v>205609.46850660647</v>
       </c>
       <c r="I30" s="18">
         <f>G30*I25/G25</f>
-        <v>405242.58181968529</v>
+        <v>408677.53149339353</v>
       </c>
       <c r="O30">
         <v>27</v>
@@ -15542,8 +15553,8 @@
   <dimension ref="A1:O153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B134" sqref="B134:B135"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15620,7 +15631,7 @@
       </c>
       <c r="G2" s="36">
         <f>G3+F2</f>
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="H2" s="36">
         <f>IF(B2&gt;0,1,0)</f>
@@ -15628,11 +15639,11 @@
       </c>
       <c r="I2" s="11">
         <f>B2*(G2-H2)</f>
-        <v>9602500</v>
+        <v>9719400</v>
       </c>
       <c r="J2" s="53">
         <f>C2*(G2-H2)</f>
-        <v>9602500</v>
+        <v>9719400</v>
       </c>
       <c r="K2" s="53">
         <f>D2*(G2-H2)</f>
@@ -15661,7 +15672,7 @@
       </c>
       <c r="G3" s="36">
         <f t="shared" ref="G3:G66" si="1">G4+F3</f>
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="H3" s="36">
         <f t="shared" ref="H3:H66" si="2">IF(B3&gt;0,1,0)</f>
@@ -15669,15 +15680,15 @@
       </c>
       <c r="I3" s="11">
         <f t="shared" ref="I3:I66" si="3">B3*(G3-H3)</f>
-        <v>11422600000</v>
+        <v>11561900000</v>
       </c>
       <c r="J3" s="53">
         <f t="shared" ref="J3:J66" si="4">C3*(G3-H3)</f>
-        <v>6536138000</v>
+        <v>6615847000</v>
       </c>
       <c r="K3" s="53">
         <f t="shared" ref="K3:K66" si="5">D3*(G3-H3)</f>
-        <v>4886462000</v>
+        <v>4946053000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -15702,7 +15713,7 @@
       </c>
       <c r="G4" s="36">
         <f t="shared" si="1"/>
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="H4" s="36">
         <f t="shared" si="2"/>
@@ -15714,11 +15725,11 @@
       </c>
       <c r="J4" s="53">
         <f t="shared" si="4"/>
-        <v>4887500</v>
+        <v>4947000</v>
       </c>
       <c r="K4" s="53">
         <f t="shared" si="5"/>
-        <v>-4887500</v>
+        <v>-4947000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -15743,7 +15754,7 @@
       </c>
       <c r="G5" s="36">
         <f t="shared" si="1"/>
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H5" s="36">
         <f t="shared" si="2"/>
@@ -15751,7 +15762,7 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" si="3"/>
-        <v>1144000000</v>
+        <v>1158000000</v>
       </c>
       <c r="J5" s="53">
         <f t="shared" si="4"/>
@@ -15759,7 +15770,7 @@
       </c>
       <c r="K5" s="53">
         <f t="shared" si="5"/>
-        <v>1144000000</v>
+        <v>1158000000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -15784,7 +15795,7 @@
       </c>
       <c r="G6" s="36">
         <f t="shared" si="1"/>
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="H6" s="36">
         <f t="shared" si="2"/>
@@ -15792,7 +15803,7 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" si="3"/>
-        <v>-2830000</v>
+        <v>-2865000</v>
       </c>
       <c r="J6" s="53">
         <f t="shared" si="4"/>
@@ -15800,7 +15811,7 @@
       </c>
       <c r="K6" s="53">
         <f t="shared" si="5"/>
-        <v>-2830000</v>
+        <v>-2865000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -15825,7 +15836,7 @@
       </c>
       <c r="G7" s="36">
         <f t="shared" si="1"/>
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="H7" s="36">
         <f t="shared" si="2"/>
@@ -15833,7 +15844,7 @@
       </c>
       <c r="I7" s="11">
         <f t="shared" si="3"/>
-        <v>-674681000</v>
+        <v>-683084500</v>
       </c>
       <c r="J7" s="53">
         <f t="shared" si="4"/>
@@ -15841,7 +15852,7 @@
       </c>
       <c r="K7" s="53">
         <f t="shared" si="5"/>
-        <v>-674681000</v>
+        <v>-683084500</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -15866,7 +15877,7 @@
       </c>
       <c r="G8" s="36">
         <f t="shared" si="1"/>
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="H8" s="36">
         <f t="shared" si="2"/>
@@ -15874,7 +15885,7 @@
       </c>
       <c r="I8" s="11">
         <f t="shared" si="3"/>
-        <v>-112200000</v>
+        <v>-113600000</v>
       </c>
       <c r="J8" s="53">
         <f t="shared" si="4"/>
@@ -15882,7 +15893,7 @@
       </c>
       <c r="K8" s="53">
         <f t="shared" si="5"/>
-        <v>-112200000</v>
+        <v>-113600000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -15907,7 +15918,7 @@
       </c>
       <c r="G9" s="36">
         <f t="shared" si="1"/>
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="H9" s="36">
         <f t="shared" si="2"/>
@@ -15915,7 +15926,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" si="3"/>
-        <v>-394374500</v>
+        <v>-399313000</v>
       </c>
       <c r="J9" s="53">
         <f t="shared" si="4"/>
@@ -15923,7 +15934,7 @@
       </c>
       <c r="K9" s="53">
         <f t="shared" si="5"/>
-        <v>-394374500</v>
+        <v>-399313000</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -15948,7 +15959,7 @@
       </c>
       <c r="G10" s="36">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="H10" s="36">
         <f t="shared" si="2"/>
@@ -15956,7 +15967,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" si="3"/>
-        <v>-110000000</v>
+        <v>-111400000</v>
       </c>
       <c r="J10" s="53">
         <f t="shared" si="4"/>
@@ -15964,7 +15975,7 @@
       </c>
       <c r="K10" s="53">
         <f t="shared" si="5"/>
-        <v>-110000000</v>
+        <v>-111400000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -15989,7 +16000,7 @@
       </c>
       <c r="G11" s="36">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="H11" s="36">
         <f t="shared" si="2"/>
@@ -15997,7 +16008,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" si="3"/>
-        <v>549000000</v>
+        <v>556000000</v>
       </c>
       <c r="J11" s="53">
         <f t="shared" si="4"/>
@@ -16005,7 +16016,7 @@
       </c>
       <c r="K11" s="53">
         <f t="shared" si="5"/>
-        <v>549000000</v>
+        <v>556000000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -16030,7 +16041,7 @@
       </c>
       <c r="G12" s="36">
         <f t="shared" si="1"/>
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="H12" s="36">
         <f t="shared" si="2"/>
@@ -16038,7 +16049,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" si="3"/>
-        <v>-163800000</v>
+        <v>-165900000</v>
       </c>
       <c r="J12" s="53">
         <f t="shared" si="4"/>
@@ -16046,7 +16057,7 @@
       </c>
       <c r="K12" s="53">
         <f t="shared" si="5"/>
-        <v>-163800000</v>
+        <v>-165900000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -16071,7 +16082,7 @@
       </c>
       <c r="G13" s="36">
         <f t="shared" si="1"/>
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="H13" s="36">
         <f t="shared" si="2"/>
@@ -16079,7 +16090,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" si="3"/>
-        <v>-33542000</v>
+        <v>-33976000</v>
       </c>
       <c r="J13" s="53">
         <f t="shared" si="4"/>
@@ -16087,7 +16098,7 @@
       </c>
       <c r="K13" s="53">
         <f t="shared" si="5"/>
-        <v>-33542000</v>
+        <v>-33976000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -16112,7 +16123,7 @@
       </c>
       <c r="G14" s="36">
         <f t="shared" si="1"/>
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="H14" s="36">
         <f t="shared" si="2"/>
@@ -16120,7 +16131,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" si="3"/>
-        <v>1080000000</v>
+        <v>1094000000</v>
       </c>
       <c r="J14" s="53">
         <f t="shared" si="4"/>
@@ -16128,7 +16139,7 @@
       </c>
       <c r="K14" s="53">
         <f t="shared" si="5"/>
-        <v>1080000000</v>
+        <v>1094000000</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -16153,7 +16164,7 @@
       </c>
       <c r="G15" s="36">
         <f t="shared" si="1"/>
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="H15" s="36">
         <f t="shared" si="2"/>
@@ -16161,7 +16172,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" si="3"/>
-        <v>970200000</v>
+        <v>982800000</v>
       </c>
       <c r="J15" s="53">
         <f t="shared" si="4"/>
@@ -16169,7 +16180,7 @@
       </c>
       <c r="K15" s="53">
         <f t="shared" si="5"/>
-        <v>970200000</v>
+        <v>982800000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -16194,7 +16205,7 @@
       </c>
       <c r="G16" s="36">
         <f t="shared" si="1"/>
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="H16" s="36">
         <f t="shared" si="2"/>
@@ -16202,7 +16213,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" si="3"/>
-        <v>-108000000</v>
+        <v>-109400000</v>
       </c>
       <c r="J16" s="53">
         <f t="shared" si="4"/>
@@ -16210,7 +16221,7 @@
       </c>
       <c r="K16" s="53">
         <f t="shared" si="5"/>
-        <v>-108000000</v>
+        <v>-109400000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -16235,7 +16246,7 @@
       </c>
       <c r="G17" s="36">
         <f t="shared" si="1"/>
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="H17" s="36">
         <f t="shared" si="2"/>
@@ -16243,7 +16254,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" si="3"/>
-        <v>-1072000000</v>
+        <v>-1086000000</v>
       </c>
       <c r="J17" s="53">
         <f t="shared" si="4"/>
@@ -16251,7 +16262,7 @@
       </c>
       <c r="K17" s="53">
         <f t="shared" si="5"/>
-        <v>-1072000000</v>
+        <v>-1086000000</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -16279,7 +16290,7 @@
       </c>
       <c r="G18" s="36">
         <f t="shared" si="1"/>
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="H18" s="36">
         <f t="shared" si="2"/>
@@ -16287,7 +16298,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" si="3"/>
-        <v>-160500000</v>
+        <v>-162600000</v>
       </c>
       <c r="J18" s="53">
         <f t="shared" si="4"/>
@@ -16295,7 +16306,7 @@
       </c>
       <c r="K18" s="53">
         <f t="shared" si="5"/>
-        <v>-160500000</v>
+        <v>-162600000</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -16320,7 +16331,7 @@
       </c>
       <c r="G19" s="36">
         <f t="shared" si="1"/>
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="H19" s="36">
         <f t="shared" si="2"/>
@@ -16328,7 +16339,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" si="3"/>
-        <v>-106800000</v>
+        <v>-108200000</v>
       </c>
       <c r="J19" s="53">
         <f t="shared" si="4"/>
@@ -16336,7 +16347,7 @@
       </c>
       <c r="K19" s="53">
         <f t="shared" si="5"/>
-        <v>-106800000</v>
+        <v>-108200000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -16361,7 +16372,7 @@
       </c>
       <c r="G20" s="36">
         <f t="shared" si="1"/>
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="H20" s="36">
         <f t="shared" si="2"/>
@@ -16369,15 +16380,15 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" si="3"/>
-        <v>143948259</v>
+        <v>145845882</v>
       </c>
       <c r="J20" s="53">
         <f t="shared" si="4"/>
-        <v>78297012</v>
+        <v>79329176</v>
       </c>
       <c r="K20" s="53">
         <f t="shared" si="5"/>
-        <v>65651247</v>
+        <v>66516706</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -16402,7 +16413,7 @@
       </c>
       <c r="G21" s="36">
         <f t="shared" si="1"/>
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="H21" s="36">
         <f t="shared" si="2"/>
@@ -16410,7 +16421,7 @@
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>-798021000</v>
+        <v>-808560900</v>
       </c>
       <c r="J21" s="53">
         <f t="shared" si="4"/>
@@ -16418,7 +16429,7 @@
       </c>
       <c r="K21" s="53">
         <f t="shared" si="5"/>
-        <v>-798021000</v>
+        <v>-808560900</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -16443,7 +16454,7 @@
       </c>
       <c r="G22" s="36">
         <f t="shared" si="1"/>
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="H22" s="36">
         <f t="shared" si="2"/>
@@ -16451,7 +16462,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" si="3"/>
-        <v>1578000000</v>
+        <v>1599000000</v>
       </c>
       <c r="J22" s="53">
         <f t="shared" si="4"/>
@@ -16459,7 +16470,7 @@
       </c>
       <c r="K22" s="53">
         <f t="shared" si="5"/>
-        <v>1578000000</v>
+        <v>1599000000</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -16484,7 +16495,7 @@
       </c>
       <c r="G23" s="36">
         <f t="shared" si="1"/>
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="H23" s="36">
         <f t="shared" si="2"/>
@@ -16492,7 +16503,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" si="3"/>
-        <v>525000000</v>
+        <v>532000000</v>
       </c>
       <c r="J23" s="53">
         <f t="shared" si="4"/>
@@ -16500,7 +16511,7 @@
       </c>
       <c r="K23" s="53">
         <f t="shared" si="5"/>
-        <v>525000000</v>
+        <v>532000000</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -16525,7 +16536,7 @@
       </c>
       <c r="G24" s="36">
         <f t="shared" si="1"/>
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="H24" s="36">
         <f t="shared" si="2"/>
@@ -16533,7 +16544,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" si="3"/>
-        <v>-1575472500</v>
+        <v>-1596478800</v>
       </c>
       <c r="J24" s="53">
         <f t="shared" si="4"/>
@@ -16541,7 +16552,7 @@
       </c>
       <c r="K24" s="53">
         <f t="shared" si="5"/>
-        <v>-1575472500</v>
+        <v>-1596478800</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -16566,7 +16577,7 @@
       </c>
       <c r="G25" s="36">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="H25" s="36">
         <f t="shared" si="2"/>
@@ -16574,7 +16585,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" si="3"/>
-        <v>763500000</v>
+        <v>774000000</v>
       </c>
       <c r="J25" s="53">
         <f t="shared" si="4"/>
@@ -16582,7 +16593,7 @@
       </c>
       <c r="K25" s="53">
         <f t="shared" si="5"/>
-        <v>763500000</v>
+        <v>774000000</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -16607,7 +16618,7 @@
       </c>
       <c r="G26" s="36">
         <f t="shared" si="1"/>
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="H26" s="36">
         <f t="shared" si="2"/>
@@ -16615,7 +16626,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" si="3"/>
-        <v>-82328000</v>
+        <v>-83476000</v>
       </c>
       <c r="J26" s="53">
         <f t="shared" si="4"/>
@@ -16623,7 +16634,7 @@
       </c>
       <c r="K26" s="53">
         <f t="shared" si="5"/>
-        <v>-82328000</v>
+        <v>-83476000</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -16648,7 +16659,7 @@
       </c>
       <c r="G27" s="36">
         <f t="shared" si="1"/>
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="H27" s="36">
         <f t="shared" si="2"/>
@@ -16656,15 +16667,15 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" si="3"/>
-        <v>99696500</v>
+        <v>101092251</v>
       </c>
       <c r="J27" s="53">
         <f t="shared" si="4"/>
-        <v>53706500</v>
+        <v>54458391</v>
       </c>
       <c r="K27" s="53">
         <f t="shared" si="5"/>
-        <v>45990000</v>
+        <v>46633860</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -16689,7 +16700,7 @@
       </c>
       <c r="G28" s="36">
         <f t="shared" si="1"/>
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="H28" s="36">
         <f t="shared" si="2"/>
@@ -16697,11 +16708,11 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" si="3"/>
-        <v>-110279000</v>
+        <v>-111826000</v>
       </c>
       <c r="J28" s="53">
         <f t="shared" si="4"/>
-        <v>-110279000</v>
+        <v>-111826000</v>
       </c>
       <c r="K28" s="53">
         <f t="shared" si="5"/>
@@ -16730,7 +16741,7 @@
       </c>
       <c r="G29" s="36">
         <f t="shared" si="1"/>
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="H29" s="36">
         <f t="shared" si="2"/>
@@ -16738,7 +16749,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" si="3"/>
-        <v>-249749500</v>
+        <v>-253253000</v>
       </c>
       <c r="J29" s="53">
         <f t="shared" si="4"/>
@@ -16746,7 +16757,7 @@
       </c>
       <c r="K29" s="53">
         <f t="shared" si="5"/>
-        <v>-249749500</v>
+        <v>-253253000</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -16771,7 +16782,7 @@
       </c>
       <c r="G30" s="36">
         <f t="shared" si="1"/>
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="H30" s="36">
         <f t="shared" si="2"/>
@@ -16779,11 +16790,11 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" si="3"/>
-        <v>-7485000000</v>
+        <v>-7590000000</v>
       </c>
       <c r="J30" s="53">
         <f t="shared" si="4"/>
-        <v>-7485000000</v>
+        <v>-7590000000</v>
       </c>
       <c r="K30" s="53">
         <f t="shared" si="5"/>
@@ -16812,7 +16823,7 @@
       </c>
       <c r="G31" s="36">
         <f t="shared" si="1"/>
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="H31" s="36">
         <f t="shared" si="2"/>
@@ -16820,7 +16831,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" si="3"/>
-        <v>-1451253800</v>
+        <v>-1472330100</v>
       </c>
       <c r="J31" s="53">
         <f t="shared" si="4"/>
@@ -16828,7 +16839,7 @@
       </c>
       <c r="K31" s="53">
         <f t="shared" si="5"/>
-        <v>-1451253800</v>
+        <v>-1472330100</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -16853,7 +16864,7 @@
       </c>
       <c r="G32" s="36">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="H32" s="36">
         <f t="shared" si="2"/>
@@ -16861,7 +16872,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" si="3"/>
-        <v>-1442832000</v>
+        <v>-1463873300</v>
       </c>
       <c r="J32" s="53">
         <f t="shared" si="4"/>
@@ -16869,7 +16880,7 @@
       </c>
       <c r="K32" s="53">
         <f t="shared" si="5"/>
-        <v>-1442832000</v>
+        <v>-1463873300</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -16894,7 +16905,7 @@
       </c>
       <c r="G33" s="36">
         <f t="shared" si="1"/>
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="H33" s="36">
         <f t="shared" si="2"/>
@@ -16902,7 +16913,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" si="3"/>
-        <v>-428944500</v>
+        <v>-435213000</v>
       </c>
       <c r="J33" s="53">
         <f t="shared" si="4"/>
@@ -16910,7 +16921,7 @@
       </c>
       <c r="K33" s="53">
         <f t="shared" si="5"/>
-        <v>-428944500</v>
+        <v>-435213000</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -16935,7 +16946,7 @@
       </c>
       <c r="G34" s="36">
         <f t="shared" si="1"/>
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="H34" s="36">
         <f t="shared" si="2"/>
@@ -16947,11 +16958,11 @@
       </c>
       <c r="J34" s="53">
         <f t="shared" si="4"/>
-        <v>479000000</v>
+        <v>486000000</v>
       </c>
       <c r="K34" s="53">
         <f t="shared" si="5"/>
-        <v>-479000000</v>
+        <v>-486000000</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -16976,7 +16987,7 @@
       </c>
       <c r="G35" s="36">
         <f t="shared" si="1"/>
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="H35" s="36">
         <f t="shared" si="2"/>
@@ -16984,15 +16995,15 @@
       </c>
       <c r="I35" s="11">
         <f t="shared" si="3"/>
-        <v>24609368</v>
+        <v>24976672</v>
       </c>
       <c r="J35" s="53">
         <f t="shared" si="4"/>
-        <v>-10159947</v>
+        <v>-10311588</v>
       </c>
       <c r="K35" s="53">
         <f t="shared" si="5"/>
-        <v>34769315</v>
+        <v>35288260</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -17017,7 +17028,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="1"/>
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="H36" s="36">
         <f t="shared" si="2"/>
@@ -17029,11 +17040,11 @@
       </c>
       <c r="J36" s="53">
         <f t="shared" si="4"/>
-        <v>10181610</v>
+        <v>10333251</v>
       </c>
       <c r="K36" s="53">
         <f t="shared" si="5"/>
-        <v>-10181610</v>
+        <v>-10333251</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -17058,7 +17069,7 @@
       </c>
       <c r="G37" s="36">
         <f t="shared" si="1"/>
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="H37" s="36">
         <f t="shared" si="2"/>
@@ -17066,7 +17077,7 @@
       </c>
       <c r="I37" s="11">
         <f t="shared" si="3"/>
-        <v>-25300000</v>
+        <v>-25685000</v>
       </c>
       <c r="J37" s="53">
         <f t="shared" si="4"/>
@@ -17074,7 +17085,7 @@
       </c>
       <c r="K37" s="53">
         <f t="shared" si="5"/>
-        <v>-25300000</v>
+        <v>-25685000</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -17099,7 +17110,7 @@
       </c>
       <c r="G38" s="36">
         <f t="shared" si="1"/>
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="H38" s="36">
         <f t="shared" si="2"/>
@@ -17107,11 +17118,11 @@
       </c>
       <c r="I38" s="11">
         <f t="shared" si="3"/>
-        <v>1374000000</v>
+        <v>1395000000</v>
       </c>
       <c r="J38" s="53">
         <f t="shared" si="4"/>
-        <v>1374000000</v>
+        <v>1395000000</v>
       </c>
       <c r="K38" s="53">
         <f t="shared" si="5"/>
@@ -17140,7 +17151,7 @@
       </c>
       <c r="G39" s="36">
         <f t="shared" si="1"/>
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H39" s="36">
         <f t="shared" si="2"/>
@@ -17148,11 +17159,11 @@
       </c>
       <c r="I39" s="11">
         <f t="shared" si="3"/>
-        <v>1142500000</v>
+        <v>1160000000</v>
       </c>
       <c r="J39" s="53">
         <f t="shared" si="4"/>
-        <v>1142500000</v>
+        <v>1160000000</v>
       </c>
       <c r="K39" s="53">
         <f t="shared" si="5"/>
@@ -17181,7 +17192,7 @@
       </c>
       <c r="G40" s="36">
         <f t="shared" si="1"/>
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H40" s="36">
         <f t="shared" si="2"/>
@@ -17189,7 +17200,7 @@
       </c>
       <c r="I40" s="11">
         <f t="shared" si="3"/>
-        <v>-22900000</v>
+        <v>-23250000</v>
       </c>
       <c r="J40" s="53">
         <f t="shared" si="4"/>
@@ -17197,7 +17208,7 @@
       </c>
       <c r="K40" s="53">
         <f t="shared" si="5"/>
-        <v>-22900000</v>
+        <v>-23250000</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -17222,7 +17233,7 @@
       </c>
       <c r="G41" s="36">
         <f t="shared" si="1"/>
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H41" s="36">
         <f t="shared" si="2"/>
@@ -17230,7 +17241,7 @@
       </c>
       <c r="I41" s="11">
         <f t="shared" si="3"/>
-        <v>1371000000</v>
+        <v>1392000000</v>
       </c>
       <c r="J41" s="53">
         <f t="shared" si="4"/>
@@ -17238,7 +17249,7 @@
       </c>
       <c r="K41" s="53">
         <f t="shared" si="5"/>
-        <v>1371000000</v>
+        <v>1392000000</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -17263,7 +17274,7 @@
       </c>
       <c r="G42" s="36">
         <f t="shared" si="1"/>
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="H42" s="36">
         <f t="shared" si="2"/>
@@ -17271,7 +17282,7 @@
       </c>
       <c r="I42" s="11">
         <f t="shared" si="3"/>
-        <v>-40586000</v>
+        <v>-41210400</v>
       </c>
       <c r="J42" s="53">
         <f t="shared" si="4"/>
@@ -17279,7 +17290,7 @@
       </c>
       <c r="K42" s="53">
         <f t="shared" si="5"/>
-        <v>-40586000</v>
+        <v>-41210400</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -17304,7 +17315,7 @@
       </c>
       <c r="G43" s="36">
         <f t="shared" si="1"/>
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="H43" s="36">
         <f t="shared" si="2"/>
@@ -17312,7 +17323,7 @@
       </c>
       <c r="I43" s="11">
         <f t="shared" si="3"/>
-        <v>-90200000</v>
+        <v>-91600000</v>
       </c>
       <c r="J43" s="53">
         <f t="shared" si="4"/>
@@ -17320,7 +17331,7 @@
       </c>
       <c r="K43" s="53">
         <f t="shared" si="5"/>
-        <v>-90200000</v>
+        <v>-91600000</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -17345,7 +17356,7 @@
       </c>
       <c r="G44" s="36">
         <f t="shared" si="1"/>
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="H44" s="36">
         <f t="shared" si="2"/>
@@ -17353,7 +17364,7 @@
       </c>
       <c r="I44" s="11">
         <f t="shared" si="3"/>
-        <v>-89800000</v>
+        <v>-91200000</v>
       </c>
       <c r="J44" s="53">
         <f t="shared" si="4"/>
@@ -17361,7 +17372,7 @@
       </c>
       <c r="K44" s="53">
         <f t="shared" si="5"/>
-        <v>-89800000</v>
+        <v>-91200000</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -17386,7 +17397,7 @@
       </c>
       <c r="G45" s="36">
         <f t="shared" si="1"/>
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="H45" s="36">
         <f t="shared" si="2"/>
@@ -17394,7 +17405,7 @@
       </c>
       <c r="I45" s="11">
         <f t="shared" si="3"/>
-        <v>-251440000</v>
+        <v>-255360000</v>
       </c>
       <c r="J45" s="53">
         <f t="shared" si="4"/>
@@ -17402,7 +17413,7 @@
       </c>
       <c r="K45" s="53">
         <f t="shared" si="5"/>
-        <v>-251440000</v>
+        <v>-255360000</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -17427,7 +17438,7 @@
       </c>
       <c r="G46" s="36">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="H46" s="36">
         <f t="shared" si="2"/>
@@ -17435,7 +17446,7 @@
       </c>
       <c r="I46" s="11">
         <f t="shared" si="3"/>
-        <v>-313947500</v>
+        <v>-318886000</v>
       </c>
       <c r="J46" s="53">
         <f t="shared" si="4"/>
@@ -17443,7 +17454,7 @@
       </c>
       <c r="K46" s="53">
         <f t="shared" si="5"/>
-        <v>-313947500</v>
+        <v>-318886000</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -17468,7 +17479,7 @@
       </c>
       <c r="G47" s="36">
         <f t="shared" si="1"/>
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="H47" s="36">
         <f t="shared" si="2"/>
@@ -17476,15 +17487,15 @@
       </c>
       <c r="I47" s="11">
         <f t="shared" si="3"/>
-        <v>18047352</v>
+        <v>18335780</v>
       </c>
       <c r="J47" s="53">
         <f t="shared" si="4"/>
-        <v>2940294</v>
+        <v>2987285</v>
       </c>
       <c r="K47" s="53">
         <f t="shared" si="5"/>
-        <v>15107058</v>
+        <v>15348495</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -17509,7 +17520,7 @@
       </c>
       <c r="G48" s="36">
         <f t="shared" si="1"/>
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="H48" s="36">
         <f t="shared" si="2"/>
@@ -17517,7 +17528,7 @@
       </c>
       <c r="I48" s="11">
         <f t="shared" si="3"/>
-        <v>746658600</v>
+        <v>758591500</v>
       </c>
       <c r="J48" s="53">
         <f t="shared" si="4"/>
@@ -17525,7 +17536,7 @@
       </c>
       <c r="K48" s="53">
         <f t="shared" si="5"/>
-        <v>746658600</v>
+        <v>758591500</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -17550,7 +17561,7 @@
       </c>
       <c r="G49" s="36">
         <f t="shared" si="1"/>
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="H49" s="36">
         <f t="shared" si="2"/>
@@ -17558,7 +17569,7 @@
       </c>
       <c r="I49" s="11">
         <f t="shared" si="3"/>
-        <v>-66650000</v>
+        <v>-67735000</v>
       </c>
       <c r="J49" s="53">
         <f t="shared" si="4"/>
@@ -17566,7 +17577,7 @@
       </c>
       <c r="K49" s="53">
         <f t="shared" si="5"/>
-        <v>-66650000</v>
+        <v>-67735000</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -17591,7 +17602,7 @@
       </c>
       <c r="G50" s="36">
         <f t="shared" si="1"/>
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="H50" s="36">
         <f t="shared" si="2"/>
@@ -17599,7 +17610,7 @@
       </c>
       <c r="I50" s="11">
         <f t="shared" si="3"/>
-        <v>-59340000</v>
+        <v>-60306000</v>
       </c>
       <c r="J50" s="53">
         <f t="shared" si="4"/>
@@ -17607,7 +17618,7 @@
       </c>
       <c r="K50" s="53">
         <f t="shared" si="5"/>
-        <v>-59340000</v>
+        <v>-60306000</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -17632,7 +17643,7 @@
       </c>
       <c r="G51" s="36">
         <f t="shared" si="1"/>
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="H51" s="36">
         <f t="shared" si="2"/>
@@ -17640,7 +17651,7 @@
       </c>
       <c r="I51" s="11">
         <f t="shared" si="3"/>
-        <v>-318200000</v>
+        <v>-323380000</v>
       </c>
       <c r="J51" s="53">
         <f t="shared" si="4"/>
@@ -17648,7 +17659,7 @@
       </c>
       <c r="K51" s="53">
         <f t="shared" si="5"/>
-        <v>-318200000</v>
+        <v>-323380000</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -17673,7 +17684,7 @@
       </c>
       <c r="G52" s="36">
         <f t="shared" si="1"/>
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="H52" s="36">
         <f t="shared" si="2"/>
@@ -17681,7 +17692,7 @@
       </c>
       <c r="I52" s="11">
         <f t="shared" si="3"/>
-        <v>-86000000</v>
+        <v>-87400000</v>
       </c>
       <c r="J52" s="53">
         <f t="shared" si="4"/>
@@ -17689,7 +17700,7 @@
       </c>
       <c r="K52" s="53">
         <f t="shared" si="5"/>
-        <v>-86000000</v>
+        <v>-87400000</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -17714,7 +17725,7 @@
       </c>
       <c r="G53" s="36">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="H53" s="36">
         <f t="shared" si="2"/>
@@ -17722,7 +17733,7 @@
       </c>
       <c r="I53" s="11">
         <f t="shared" si="3"/>
-        <v>-452595000</v>
+        <v>-459980000</v>
       </c>
       <c r="J53" s="53">
         <f t="shared" si="4"/>
@@ -17730,7 +17741,7 @@
       </c>
       <c r="K53" s="53">
         <f t="shared" si="5"/>
-        <v>-452595000</v>
+        <v>-459980000</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -17755,7 +17766,7 @@
       </c>
       <c r="G54" s="36">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="H54" s="36">
         <f t="shared" si="2"/>
@@ -17763,7 +17774,7 @@
       </c>
       <c r="I54" s="11">
         <f t="shared" si="3"/>
-        <v>-85800000</v>
+        <v>-87200000</v>
       </c>
       <c r="J54" s="53">
         <f t="shared" si="4"/>
@@ -17771,7 +17782,7 @@
       </c>
       <c r="K54" s="53">
         <f t="shared" si="5"/>
-        <v>-85800000</v>
+        <v>-87200000</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -17796,7 +17807,7 @@
       </c>
       <c r="G55" s="36">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="H55" s="36">
         <f t="shared" si="2"/>
@@ -17804,7 +17815,7 @@
       </c>
       <c r="I55" s="11">
         <f t="shared" si="3"/>
-        <v>-429214500</v>
+        <v>-436218000</v>
       </c>
       <c r="J55" s="53">
         <f t="shared" si="4"/>
@@ -17812,7 +17823,7 @@
       </c>
       <c r="K55" s="53">
         <f t="shared" si="5"/>
-        <v>-429214500</v>
+        <v>-436218000</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -17837,7 +17848,7 @@
       </c>
       <c r="G56" s="36">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="H56" s="36">
         <f t="shared" si="2"/>
@@ -17845,7 +17856,7 @@
       </c>
       <c r="I56" s="11">
         <f t="shared" si="3"/>
-        <v>-16302000</v>
+        <v>-16568000</v>
       </c>
       <c r="J56" s="53">
         <f t="shared" si="4"/>
@@ -17853,7 +17864,7 @@
       </c>
       <c r="K56" s="53">
         <f t="shared" si="5"/>
-        <v>-16302000</v>
+        <v>-16568000</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -17878,7 +17889,7 @@
       </c>
       <c r="G57" s="36">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="H57" s="36">
         <f t="shared" si="2"/>
@@ -17886,7 +17897,7 @@
       </c>
       <c r="I57" s="11">
         <f t="shared" si="3"/>
-        <v>-45045000</v>
+        <v>-45780000</v>
       </c>
       <c r="J57" s="53">
         <f t="shared" si="4"/>
@@ -17894,7 +17905,7 @@
       </c>
       <c r="K57" s="53">
         <f t="shared" si="5"/>
-        <v>-45045000</v>
+        <v>-45780000</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -17919,7 +17930,7 @@
       </c>
       <c r="G58" s="36">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="H58" s="36">
         <f t="shared" si="2"/>
@@ -17927,7 +17938,7 @@
       </c>
       <c r="I58" s="11">
         <f t="shared" si="3"/>
-        <v>-25740000</v>
+        <v>-26160000</v>
       </c>
       <c r="J58" s="53">
         <f t="shared" si="4"/>
@@ -17935,7 +17946,7 @@
       </c>
       <c r="K58" s="53">
         <f t="shared" si="5"/>
-        <v>-25740000</v>
+        <v>-26160000</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -17960,7 +17971,7 @@
       </c>
       <c r="G59" s="36">
         <f t="shared" si="1"/>
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="H59" s="36">
         <f t="shared" si="2"/>
@@ -17968,11 +17979,11 @@
       </c>
       <c r="I59" s="11">
         <f t="shared" si="3"/>
-        <v>425000000</v>
+        <v>432000000</v>
       </c>
       <c r="J59" s="53">
         <f t="shared" si="4"/>
-        <v>425000000</v>
+        <v>432000000</v>
       </c>
       <c r="K59" s="53">
         <f t="shared" si="5"/>
@@ -18001,7 +18012,7 @@
       </c>
       <c r="G60" s="36">
         <f t="shared" si="1"/>
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="H60" s="36">
         <f t="shared" si="2"/>
@@ -18009,11 +18020,11 @@
       </c>
       <c r="I60" s="11">
         <f t="shared" si="3"/>
-        <v>1484000000</v>
+        <v>1508500000</v>
       </c>
       <c r="J60" s="53">
         <f t="shared" si="4"/>
-        <v>1484000000</v>
+        <v>1508500000</v>
       </c>
       <c r="K60" s="53">
         <f t="shared" si="5"/>
@@ -18042,7 +18053,7 @@
       </c>
       <c r="G61" s="36">
         <f t="shared" si="1"/>
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="H61" s="36">
         <f t="shared" si="2"/>
@@ -18050,11 +18061,11 @@
       </c>
       <c r="I61" s="11">
         <f t="shared" si="3"/>
-        <v>422000000</v>
+        <v>429000000</v>
       </c>
       <c r="J61" s="53">
         <f t="shared" si="4"/>
-        <v>422000000</v>
+        <v>429000000</v>
       </c>
       <c r="K61" s="53">
         <f t="shared" si="5"/>
@@ -18083,7 +18094,7 @@
       </c>
       <c r="G62" s="36">
         <f t="shared" si="1"/>
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="H62" s="36">
         <f t="shared" si="2"/>
@@ -18091,11 +18102,11 @@
       </c>
       <c r="I62" s="11">
         <f t="shared" si="3"/>
-        <v>1266000000</v>
+        <v>1287000000</v>
       </c>
       <c r="J62" s="53">
         <f t="shared" si="4"/>
-        <v>1266000000</v>
+        <v>1287000000</v>
       </c>
       <c r="K62" s="53">
         <f t="shared" si="5"/>
@@ -18124,7 +18135,7 @@
       </c>
       <c r="G63" s="36">
         <f t="shared" si="1"/>
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="H63" s="36">
         <f t="shared" si="2"/>
@@ -18132,7 +18143,7 @@
       </c>
       <c r="I63" s="11">
         <f t="shared" si="3"/>
-        <v>-84200000</v>
+        <v>-85600000</v>
       </c>
       <c r="J63" s="53">
         <f t="shared" si="4"/>
@@ -18140,7 +18151,7 @@
       </c>
       <c r="K63" s="53">
         <f t="shared" si="5"/>
-        <v>-84200000</v>
+        <v>-85600000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -18165,7 +18176,7 @@
       </c>
       <c r="G64" s="36">
         <f t="shared" si="1"/>
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="H64" s="36">
         <f t="shared" si="2"/>
@@ -18173,7 +18184,7 @@
       </c>
       <c r="I64" s="11">
         <f t="shared" si="3"/>
-        <v>-20800000</v>
+        <v>-21150000</v>
       </c>
       <c r="J64" s="53">
         <f t="shared" si="4"/>
@@ -18181,7 +18192,7 @@
       </c>
       <c r="K64" s="53">
         <f t="shared" si="5"/>
-        <v>-20800000</v>
+        <v>-21150000</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -18206,7 +18217,7 @@
       </c>
       <c r="G65" s="36">
         <f t="shared" si="1"/>
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="H65" s="36">
         <f t="shared" si="2"/>
@@ -18214,7 +18225,7 @@
       </c>
       <c r="I65" s="11">
         <f t="shared" si="3"/>
-        <v>-82400000</v>
+        <v>-83800000</v>
       </c>
       <c r="J65" s="53">
         <f t="shared" si="4"/>
@@ -18222,7 +18233,7 @@
       </c>
       <c r="K65" s="53">
         <f t="shared" si="5"/>
-        <v>-82400000</v>
+        <v>-83800000</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -18247,7 +18258,7 @@
       </c>
       <c r="G66" s="36">
         <f t="shared" si="1"/>
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="H66" s="36">
         <f t="shared" si="2"/>
@@ -18255,7 +18266,7 @@
       </c>
       <c r="I66" s="11">
         <f t="shared" si="3"/>
-        <v>-69530000</v>
+        <v>-70720000</v>
       </c>
       <c r="J66" s="53">
         <f t="shared" si="4"/>
@@ -18263,7 +18274,7 @@
       </c>
       <c r="K66" s="53">
         <f t="shared" si="5"/>
-        <v>-69530000</v>
+        <v>-70720000</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -18288,7 +18299,7 @@
       </c>
       <c r="G67" s="36">
         <f t="shared" ref="G67:G143" si="7">G68+F67</f>
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="H67" s="36">
         <f t="shared" ref="H67:H131" si="8">IF(B67&gt;0,1,0)</f>
@@ -18296,15 +18307,15 @@
       </c>
       <c r="I67" s="11">
         <f t="shared" ref="I67:I119" si="9">B67*(G67-H67)</f>
-        <v>37169275</v>
+        <v>37808550</v>
       </c>
       <c r="J67" s="53">
         <f t="shared" ref="J67:J131" si="10">C67*(G67-H67)</f>
-        <v>26749261</v>
+        <v>27209322</v>
       </c>
       <c r="K67" s="53">
         <f t="shared" ref="K67:K131" si="11">D67*(G67-H67)</f>
-        <v>10420014</v>
+        <v>10599228</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -18329,7 +18340,7 @@
       </c>
       <c r="G68" s="36">
         <f t="shared" si="7"/>
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="H68" s="36">
         <f t="shared" si="8"/>
@@ -18337,7 +18348,7 @@
       </c>
       <c r="I68" s="11">
         <f t="shared" si="9"/>
-        <v>-56550000</v>
+        <v>-57565000</v>
       </c>
       <c r="J68" s="53">
         <f t="shared" si="10"/>
@@ -18345,7 +18356,7 @@
       </c>
       <c r="K68" s="53">
         <f t="shared" si="11"/>
-        <v>-56550000</v>
+        <v>-57565000</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -18370,7 +18381,7 @@
       </c>
       <c r="G69" s="36">
         <f t="shared" si="7"/>
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H69" s="36">
         <f t="shared" si="8"/>
@@ -18378,7 +18389,7 @@
       </c>
       <c r="I69" s="11">
         <f t="shared" si="9"/>
-        <v>374360000</v>
+        <v>381220000</v>
       </c>
       <c r="J69" s="53">
         <f t="shared" si="10"/>
@@ -18386,7 +18397,7 @@
       </c>
       <c r="K69" s="53">
         <f t="shared" si="11"/>
-        <v>374360000</v>
+        <v>381220000</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -18411,7 +18422,7 @@
       </c>
       <c r="G70" s="36">
         <f t="shared" si="7"/>
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H70" s="36">
         <f t="shared" si="8"/>
@@ -18419,7 +18430,7 @@
       </c>
       <c r="I70" s="11">
         <f t="shared" si="9"/>
-        <v>-17480000</v>
+        <v>-17802000</v>
       </c>
       <c r="J70" s="53">
         <f t="shared" si="10"/>
@@ -18427,7 +18438,7 @@
       </c>
       <c r="K70" s="53">
         <f t="shared" si="11"/>
-        <v>-17480000</v>
+        <v>-17802000</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -18452,7 +18463,7 @@
       </c>
       <c r="G71" s="36">
         <f t="shared" si="7"/>
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="H71" s="36">
         <f t="shared" si="8"/>
@@ -18460,15 +18471,15 @@
       </c>
       <c r="I71" s="11">
         <f t="shared" si="9"/>
-        <v>43482426</v>
+        <v>44289792</v>
       </c>
       <c r="J71" s="53">
         <f t="shared" si="10"/>
-        <v>39137124</v>
+        <v>39863808</v>
       </c>
       <c r="K71" s="53">
         <f t="shared" si="11"/>
-        <v>4345302</v>
+        <v>4425984</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -18493,7 +18504,7 @@
       </c>
       <c r="G72" s="36">
         <f t="shared" si="7"/>
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="H72" s="36">
         <f t="shared" si="8"/>
@@ -18501,7 +18512,7 @@
       </c>
       <c r="I72" s="11">
         <f t="shared" si="9"/>
-        <v>-57292313</v>
+        <v>-58356096</v>
       </c>
       <c r="J72" s="53">
         <f t="shared" si="10"/>
@@ -18509,7 +18520,7 @@
       </c>
       <c r="K72" s="53">
         <f t="shared" si="11"/>
-        <v>-57292313</v>
+        <v>-58356096</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -18534,7 +18545,7 @@
       </c>
       <c r="G73" s="36">
         <f t="shared" si="7"/>
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H73" s="36">
         <f t="shared" si="8"/>
@@ -18542,7 +18553,7 @@
       </c>
       <c r="I73" s="11">
         <f t="shared" si="9"/>
-        <v>-302868000</v>
+        <v>-308506500</v>
       </c>
       <c r="J73" s="53">
         <f t="shared" si="10"/>
@@ -18550,7 +18561,7 @@
       </c>
       <c r="K73" s="53">
         <f t="shared" si="11"/>
-        <v>-302868000</v>
+        <v>-308506500</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -18575,7 +18586,7 @@
       </c>
       <c r="G74" s="36">
         <f t="shared" si="7"/>
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="H74" s="36">
         <f t="shared" si="8"/>
@@ -18583,7 +18594,7 @@
       </c>
       <c r="I74" s="11">
         <f t="shared" si="9"/>
-        <v>2574160000</v>
+        <v>2623125000</v>
       </c>
       <c r="J74" s="53">
         <f t="shared" si="10"/>
@@ -18591,7 +18602,7 @@
       </c>
       <c r="K74" s="53">
         <f t="shared" si="11"/>
-        <v>2574160000</v>
+        <v>2623125000</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -18616,7 +18627,7 @@
       </c>
       <c r="G75" s="36">
         <f t="shared" si="7"/>
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H75" s="36">
         <f t="shared" si="8"/>
@@ -18624,7 +18635,7 @@
       </c>
       <c r="I75" s="11">
         <f t="shared" si="9"/>
-        <v>1101000000</v>
+        <v>1122000000</v>
       </c>
       <c r="J75" s="53">
         <f t="shared" si="10"/>
@@ -18632,7 +18643,7 @@
       </c>
       <c r="K75" s="53">
         <f t="shared" si="11"/>
-        <v>1101000000</v>
+        <v>1122000000</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -18657,7 +18668,7 @@
       </c>
       <c r="G76" s="36">
         <f t="shared" si="7"/>
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="H76" s="36">
         <f t="shared" si="8"/>
@@ -18665,7 +18676,7 @@
       </c>
       <c r="I76" s="11">
         <f t="shared" si="9"/>
-        <v>1095000000</v>
+        <v>1116000000</v>
       </c>
       <c r="J76" s="53">
         <f t="shared" si="10"/>
@@ -18673,7 +18684,7 @@
       </c>
       <c r="K76" s="53">
         <f t="shared" si="11"/>
-        <v>1095000000</v>
+        <v>1116000000</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -18698,7 +18709,7 @@
       </c>
       <c r="G77" s="36">
         <f t="shared" si="7"/>
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="H77" s="36">
         <f t="shared" si="8"/>
@@ -18706,7 +18717,7 @@
       </c>
       <c r="I77" s="11">
         <f t="shared" si="9"/>
-        <v>1092000000</v>
+        <v>1113000000</v>
       </c>
       <c r="J77" s="53">
         <f t="shared" si="10"/>
@@ -18714,7 +18725,7 @@
       </c>
       <c r="K77" s="53">
         <f t="shared" si="11"/>
-        <v>1092000000</v>
+        <v>1113000000</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -18739,7 +18750,7 @@
       </c>
       <c r="G78" s="36">
         <f t="shared" si="7"/>
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H78" s="36">
         <f t="shared" si="8"/>
@@ -18747,11 +18758,11 @@
       </c>
       <c r="I78" s="11">
         <f t="shared" si="9"/>
-        <v>-1164800000</v>
+        <v>-1187200000</v>
       </c>
       <c r="J78" s="53">
         <f t="shared" si="10"/>
-        <v>-1164800000</v>
+        <v>-1187200000</v>
       </c>
       <c r="K78" s="53">
         <f t="shared" si="11"/>
@@ -18780,7 +18791,7 @@
       </c>
       <c r="G79" s="36">
         <f t="shared" si="7"/>
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="H79" s="36">
         <f t="shared" si="8"/>
@@ -18788,11 +18799,11 @@
       </c>
       <c r="I79" s="11">
         <f t="shared" si="9"/>
-        <v>-290400000</v>
+        <v>-296000000</v>
       </c>
       <c r="J79" s="53">
         <f t="shared" si="10"/>
-        <v>-290400000</v>
+        <v>-296000000</v>
       </c>
       <c r="K79" s="53">
         <f t="shared" si="11"/>
@@ -18821,7 +18832,7 @@
       </c>
       <c r="G80" s="36">
         <f t="shared" si="7"/>
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H80" s="36">
         <f t="shared" si="8"/>
@@ -18829,7 +18840,7 @@
       </c>
       <c r="I80" s="11">
         <f t="shared" si="9"/>
-        <v>-17518266</v>
+        <v>-17857017</v>
       </c>
       <c r="J80" s="53">
         <f t="shared" si="10"/>
@@ -18837,7 +18848,7 @@
       </c>
       <c r="K80" s="53">
         <f t="shared" si="11"/>
-        <v>-17518266</v>
+        <v>-17857017</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -18862,7 +18873,7 @@
       </c>
       <c r="G81" s="36">
         <f t="shared" si="7"/>
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="H81" s="36">
         <f t="shared" si="8"/>
@@ -18870,7 +18881,7 @@
       </c>
       <c r="I81" s="11">
         <f t="shared" si="9"/>
-        <v>-50540000</v>
+        <v>-51520000</v>
       </c>
       <c r="J81" s="53">
         <f t="shared" si="10"/>
@@ -18878,7 +18889,7 @@
       </c>
       <c r="K81" s="53">
         <f t="shared" si="11"/>
-        <v>-50540000</v>
+        <v>-51520000</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -18903,7 +18914,7 @@
       </c>
       <c r="G82" s="36">
         <f t="shared" si="7"/>
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="H82" s="36">
         <f t="shared" si="8"/>
@@ -18911,7 +18922,7 @@
       </c>
       <c r="I82" s="11">
         <f t="shared" si="9"/>
-        <v>-90000000</v>
+        <v>-91750000</v>
       </c>
       <c r="J82" s="53">
         <f t="shared" si="10"/>
@@ -18919,7 +18930,7 @@
       </c>
       <c r="K82" s="53">
         <f t="shared" si="11"/>
-        <v>-90000000</v>
+        <v>-91750000</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -18944,7 +18955,7 @@
       </c>
       <c r="G83" s="36">
         <f t="shared" si="7"/>
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="H83" s="36">
         <f t="shared" si="8"/>
@@ -18952,7 +18963,7 @@
       </c>
       <c r="I83" s="11">
         <f t="shared" si="9"/>
-        <v>-71800000</v>
+        <v>-73200000</v>
       </c>
       <c r="J83" s="53">
         <f t="shared" si="10"/>
@@ -18960,7 +18971,7 @@
       </c>
       <c r="K83" s="53">
         <f t="shared" si="11"/>
-        <v>-71800000</v>
+        <v>-73200000</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -18985,7 +18996,7 @@
       </c>
       <c r="G84" s="36">
         <f t="shared" si="7"/>
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="H84" s="36">
         <f t="shared" si="8"/>
@@ -18993,7 +19004,7 @@
       </c>
       <c r="I84" s="11">
         <f t="shared" si="9"/>
-        <v>580496000</v>
+        <v>591942400</v>
       </c>
       <c r="J84" s="53">
         <f t="shared" si="10"/>
@@ -19001,7 +19012,7 @@
       </c>
       <c r="K84" s="53">
         <f t="shared" si="11"/>
-        <v>580496000</v>
+        <v>591942400</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -19015,7 +19026,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="3">
-        <f t="shared" ref="D85:D135" si="12">B85-C85</f>
+        <f t="shared" ref="D85:D136" si="12">B85-C85</f>
         <v>2500000</v>
       </c>
       <c r="E85" s="20" t="s">
@@ -19026,7 +19037,7 @@
       </c>
       <c r="G85" s="36">
         <f t="shared" si="7"/>
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="H85" s="36">
         <f t="shared" si="8"/>
@@ -19034,7 +19045,7 @@
       </c>
       <c r="I85" s="11">
         <f t="shared" si="9"/>
-        <v>877500000</v>
+        <v>895000000</v>
       </c>
       <c r="J85" s="53">
         <f t="shared" si="10"/>
@@ -19042,7 +19053,7 @@
       </c>
       <c r="K85" s="53">
         <f t="shared" si="11"/>
-        <v>877500000</v>
+        <v>895000000</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -19067,7 +19078,7 @@
       </c>
       <c r="G86" s="36">
         <f t="shared" si="7"/>
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H86" s="36">
         <f t="shared" si="8"/>
@@ -19075,15 +19086,15 @@
       </c>
       <c r="I86" s="11">
         <f t="shared" si="9"/>
-        <v>64646100</v>
+        <v>65950200</v>
       </c>
       <c r="J86" s="53">
         <f t="shared" si="10"/>
-        <v>29477650</v>
+        <v>30072300</v>
       </c>
       <c r="K86" s="53">
         <f t="shared" si="11"/>
-        <v>35168450</v>
+        <v>35877900</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -19108,7 +19119,7 @@
       </c>
       <c r="G87" s="36">
         <f t="shared" si="7"/>
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="H87" s="36">
         <f t="shared" si="8"/>
@@ -19116,7 +19127,7 @@
       </c>
       <c r="I87" s="11">
         <f t="shared" si="9"/>
-        <v>-69000000</v>
+        <v>-70400000</v>
       </c>
       <c r="J87" s="53">
         <f t="shared" si="10"/>
@@ -19124,7 +19135,7 @@
       </c>
       <c r="K87" s="53">
         <f t="shared" si="11"/>
-        <v>-69000000</v>
+        <v>-70400000</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -19149,7 +19160,7 @@
       </c>
       <c r="G88" s="36">
         <f t="shared" si="7"/>
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H88" s="36">
         <f t="shared" si="8"/>
@@ -19157,15 +19168,15 @@
       </c>
       <c r="I88" s="11">
         <f t="shared" si="9"/>
-        <v>-40592000</v>
+        <v>-41418000</v>
       </c>
       <c r="J88" s="53">
         <f t="shared" si="10"/>
-        <v>-23736000</v>
+        <v>-24219000</v>
       </c>
       <c r="K88" s="53">
         <f t="shared" si="11"/>
-        <v>-16856000</v>
+        <v>-17199000</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -19190,7 +19201,7 @@
       </c>
       <c r="G89" s="36">
         <f t="shared" si="7"/>
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="H89" s="36">
         <f t="shared" si="8"/>
@@ -19198,7 +19209,7 @@
       </c>
       <c r="I89" s="11">
         <f t="shared" si="9"/>
-        <v>-1075502400</v>
+        <v>-1097908700</v>
       </c>
       <c r="J89" s="53">
         <f t="shared" si="10"/>
@@ -19206,7 +19217,7 @@
       </c>
       <c r="K89" s="53">
         <f t="shared" si="11"/>
-        <v>-1075502400</v>
+        <v>-1097908700</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -19231,7 +19242,7 @@
       </c>
       <c r="G90" s="36">
         <f t="shared" si="7"/>
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H90" s="36">
         <f t="shared" si="8"/>
@@ -19239,7 +19250,7 @@
       </c>
       <c r="I90" s="11">
         <f t="shared" si="9"/>
-        <v>-1072301500</v>
+        <v>-1094707800</v>
       </c>
       <c r="J90" s="53">
         <f t="shared" si="10"/>
@@ -19247,7 +19258,7 @@
       </c>
       <c r="K90" s="53">
         <f t="shared" si="11"/>
-        <v>-1072301500</v>
+        <v>-1094707800</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -19272,7 +19283,7 @@
       </c>
       <c r="G91" s="36">
         <f t="shared" si="7"/>
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H91" s="36">
         <f t="shared" si="8"/>
@@ -19280,7 +19291,7 @@
       </c>
       <c r="I91" s="11">
         <f t="shared" si="9"/>
-        <v>-1069100600</v>
+        <v>-1091506900</v>
       </c>
       <c r="J91" s="53">
         <f t="shared" si="10"/>
@@ -19288,7 +19299,7 @@
       </c>
       <c r="K91" s="53">
         <f t="shared" si="11"/>
-        <v>-1069100600</v>
+        <v>-1091506900</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -19313,7 +19324,7 @@
       </c>
       <c r="G92" s="36">
         <f t="shared" si="7"/>
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H92" s="36">
         <f t="shared" si="8"/>
@@ -19321,7 +19332,7 @@
       </c>
       <c r="I92" s="11">
         <f t="shared" si="9"/>
-        <v>-1065899700</v>
+        <v>-1088306000</v>
       </c>
       <c r="J92" s="53">
         <f t="shared" si="10"/>
@@ -19329,7 +19340,7 @@
       </c>
       <c r="K92" s="53">
         <f t="shared" si="11"/>
-        <v>-1065899700</v>
+        <v>-1088306000</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -19354,7 +19365,7 @@
       </c>
       <c r="G93" s="36">
         <f t="shared" si="7"/>
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="H93" s="36">
         <f t="shared" si="8"/>
@@ -19362,7 +19373,7 @@
       </c>
       <c r="I93" s="11">
         <f t="shared" si="9"/>
-        <v>-1062698800</v>
+        <v>-1085105100</v>
       </c>
       <c r="J93" s="53">
         <f t="shared" si="10"/>
@@ -19370,7 +19381,7 @@
       </c>
       <c r="K93" s="53">
         <f t="shared" si="11"/>
-        <v>-1062698800</v>
+        <v>-1085105100</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -19395,7 +19406,7 @@
       </c>
       <c r="G94" s="36">
         <f t="shared" si="7"/>
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H94" s="36">
         <f t="shared" si="8"/>
@@ -19403,7 +19414,7 @@
       </c>
       <c r="I94" s="11">
         <f t="shared" si="9"/>
-        <v>-1059497900</v>
+        <v>-1081904200</v>
       </c>
       <c r="J94" s="53">
         <f t="shared" si="10"/>
@@ -19411,7 +19422,7 @@
       </c>
       <c r="K94" s="53">
         <f t="shared" si="11"/>
-        <v>-1059497900</v>
+        <v>-1081904200</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -19436,7 +19447,7 @@
       </c>
       <c r="G95" s="36">
         <f t="shared" si="7"/>
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="H95" s="36">
         <f t="shared" si="8"/>
@@ -19444,7 +19455,7 @@
       </c>
       <c r="I95" s="11">
         <f t="shared" si="9"/>
-        <v>-393680084</v>
+        <v>-402056256</v>
       </c>
       <c r="J95" s="53">
         <f t="shared" si="10"/>
@@ -19452,7 +19463,7 @@
       </c>
       <c r="K95" s="53">
         <f t="shared" si="11"/>
-        <v>-393680084</v>
+        <v>-402056256</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -19477,7 +19488,7 @@
       </c>
       <c r="G96" s="36">
         <f t="shared" si="7"/>
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="H96" s="36">
         <f t="shared" si="8"/>
@@ -19485,7 +19496,7 @@
       </c>
       <c r="I96" s="11">
         <f t="shared" si="9"/>
-        <v>-63800000</v>
+        <v>-65200000</v>
       </c>
       <c r="J96" s="53">
         <f t="shared" si="10"/>
@@ -19493,7 +19504,7 @@
       </c>
       <c r="K96" s="53">
         <f t="shared" si="11"/>
-        <v>-63800000</v>
+        <v>-65200000</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -19518,7 +19529,7 @@
       </c>
       <c r="G97" s="36">
         <f t="shared" si="7"/>
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H97" s="36">
         <f t="shared" si="8"/>
@@ -19526,15 +19537,15 @@
       </c>
       <c r="I97" s="11">
         <f t="shared" si="9"/>
-        <v>50579886</v>
+        <v>51696792</v>
       </c>
       <c r="J97" s="53">
         <f t="shared" si="10"/>
-        <v>21849542</v>
+        <v>22332024</v>
       </c>
       <c r="K97" s="53">
         <f t="shared" si="11"/>
-        <v>28730344</v>
+        <v>29364768</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -19559,7 +19570,7 @@
       </c>
       <c r="G98" s="36">
         <f t="shared" si="7"/>
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H98" s="36">
         <f t="shared" si="8"/>
@@ -19567,7 +19578,7 @@
       </c>
       <c r="I98" s="11">
         <f t="shared" si="9"/>
-        <v>35682816</v>
+        <v>36483392</v>
       </c>
       <c r="J98" s="53">
         <f t="shared" si="10"/>
@@ -19575,7 +19586,7 @@
       </c>
       <c r="K98" s="53">
         <f t="shared" si="11"/>
-        <v>35682816</v>
+        <v>36483392</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -19600,7 +19611,7 @@
       </c>
       <c r="G99" s="36">
         <f t="shared" si="7"/>
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H99" s="36">
         <f t="shared" si="8"/>
@@ -19608,7 +19619,7 @@
       </c>
       <c r="I99" s="11">
         <f t="shared" si="9"/>
-        <v>-410750000</v>
+        <v>-420025000</v>
       </c>
       <c r="J99" s="53">
         <f t="shared" si="10"/>
@@ -19616,7 +19627,7 @@
       </c>
       <c r="K99" s="53">
         <f t="shared" si="11"/>
-        <v>-410750000</v>
+        <v>-420025000</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -19641,7 +19652,7 @@
       </c>
       <c r="G100" s="36">
         <f t="shared" si="7"/>
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H100" s="36">
         <f t="shared" si="8"/>
@@ -19649,7 +19660,7 @@
       </c>
       <c r="I100" s="11">
         <f t="shared" si="9"/>
-        <v>402800000</v>
+        <v>412075000</v>
       </c>
       <c r="J100" s="53">
         <f t="shared" si="10"/>
@@ -19657,7 +19668,7 @@
       </c>
       <c r="K100" s="53">
         <f t="shared" si="11"/>
-        <v>402800000</v>
+        <v>412075000</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -19682,7 +19693,7 @@
       </c>
       <c r="G101" s="36">
         <f t="shared" si="7"/>
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H101" s="36">
         <f t="shared" si="8"/>
@@ -19690,11 +19701,11 @@
       </c>
       <c r="I101" s="11">
         <f t="shared" si="9"/>
-        <v>19184515</v>
+        <v>19652430</v>
       </c>
       <c r="J101" s="53">
         <f t="shared" si="10"/>
-        <v>19184515</v>
+        <v>19652430</v>
       </c>
       <c r="K101" s="53">
         <f t="shared" si="11"/>
@@ -19723,7 +19734,7 @@
       </c>
       <c r="G102" s="36">
         <f t="shared" si="7"/>
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H102" s="36">
         <f t="shared" si="8"/>
@@ -19731,7 +19742,7 @@
       </c>
       <c r="I102" s="11">
         <f t="shared" si="9"/>
-        <v>852000000</v>
+        <v>873000000</v>
       </c>
       <c r="J102" s="53">
         <f t="shared" si="10"/>
@@ -19739,7 +19750,7 @@
       </c>
       <c r="K102" s="53">
         <f t="shared" si="11"/>
-        <v>852000000</v>
+        <v>873000000</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -19764,7 +19775,7 @@
       </c>
       <c r="G103" s="36">
         <f t="shared" si="7"/>
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H103" s="36">
         <f t="shared" si="8"/>
@@ -19772,11 +19783,11 @@
       </c>
       <c r="I103" s="11">
         <f t="shared" si="9"/>
-        <v>-278000000</v>
+        <v>-285000000</v>
       </c>
       <c r="J103" s="53">
         <f t="shared" si="10"/>
-        <v>-278000000</v>
+        <v>-285000000</v>
       </c>
       <c r="K103" s="53">
         <f t="shared" si="11"/>
@@ -19805,7 +19816,7 @@
       </c>
       <c r="G104" s="36">
         <f t="shared" si="7"/>
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H104" s="36">
         <f t="shared" si="8"/>
@@ -19813,11 +19824,11 @@
       </c>
       <c r="I104" s="11">
         <f t="shared" si="9"/>
-        <v>801000000</v>
+        <v>822000000</v>
       </c>
       <c r="J104" s="53">
         <f t="shared" si="10"/>
-        <v>801000000</v>
+        <v>822000000</v>
       </c>
       <c r="K104" s="53">
         <f t="shared" si="11"/>
@@ -19846,7 +19857,7 @@
       </c>
       <c r="G105" s="36">
         <f t="shared" si="7"/>
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="H105" s="36">
         <f t="shared" si="8"/>
@@ -19854,11 +19865,11 @@
       </c>
       <c r="I105" s="11">
         <f t="shared" si="9"/>
-        <v>297920000</v>
+        <v>305760000</v>
       </c>
       <c r="J105" s="53">
         <f t="shared" si="10"/>
-        <v>297920000</v>
+        <v>305760000</v>
       </c>
       <c r="K105" s="53">
         <f t="shared" si="11"/>
@@ -19887,7 +19898,7 @@
       </c>
       <c r="G106" s="36">
         <f t="shared" si="7"/>
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="H106" s="36">
         <f t="shared" si="8"/>
@@ -19895,7 +19906,7 @@
       </c>
       <c r="I106" s="11">
         <f t="shared" si="9"/>
-        <v>-801000000</v>
+        <v>-822000000</v>
       </c>
       <c r="J106" s="53">
         <f t="shared" si="10"/>
@@ -19903,7 +19914,7 @@
       </c>
       <c r="K106" s="53">
         <f t="shared" si="11"/>
-        <v>-801000000</v>
+        <v>-822000000</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -19928,7 +19939,7 @@
       </c>
       <c r="G107" s="36">
         <f t="shared" si="7"/>
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="H107" s="36">
         <f t="shared" si="8"/>
@@ -19936,15 +19947,15 @@
       </c>
       <c r="I107" s="11">
         <f t="shared" si="9"/>
-        <v>23256958</v>
+        <v>23890416</v>
       </c>
       <c r="J107" s="53">
         <f t="shared" si="10"/>
-        <v>19304555</v>
+        <v>19830360</v>
       </c>
       <c r="K107" s="53">
         <f t="shared" si="11"/>
-        <v>3952403</v>
+        <v>4060056</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -19969,7 +19980,7 @@
       </c>
       <c r="G108" s="36">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="H108" s="36">
         <f t="shared" si="8"/>
@@ -19977,7 +19988,7 @@
       </c>
       <c r="I108" s="11">
         <f t="shared" si="9"/>
-        <v>-435379200</v>
+        <v>-447284100</v>
       </c>
       <c r="J108" s="53">
         <f t="shared" si="10"/>
@@ -19985,7 +19996,7 @@
       </c>
       <c r="K108" s="53">
         <f t="shared" si="11"/>
-        <v>-435379200</v>
+        <v>-447284100</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -20010,7 +20021,7 @@
       </c>
       <c r="G109" s="36">
         <f t="shared" si="7"/>
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="H109" s="36">
         <f t="shared" si="8"/>
@@ -20018,7 +20029,7 @@
       </c>
       <c r="I109" s="11">
         <f t="shared" si="9"/>
-        <v>-252126000</v>
+        <v>-259129500</v>
       </c>
       <c r="J109" s="53">
         <f t="shared" si="10"/>
@@ -20026,7 +20037,7 @@
       </c>
       <c r="K109" s="53">
         <f t="shared" si="11"/>
-        <v>-252126000</v>
+        <v>-259129500</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -20051,7 +20062,7 @@
       </c>
       <c r="G110" s="36">
         <f t="shared" si="7"/>
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H110" s="36">
         <f t="shared" si="8"/>
@@ -20059,7 +20070,7 @@
       </c>
       <c r="I110" s="11">
         <f t="shared" si="9"/>
-        <v>4960000000</v>
+        <v>5100000000</v>
       </c>
       <c r="J110" s="53">
         <f t="shared" si="10"/>
@@ -20067,7 +20078,7 @@
       </c>
       <c r="K110" s="53">
         <f t="shared" si="11"/>
-        <v>4960000000</v>
+        <v>5100000000</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -20092,7 +20103,7 @@
       </c>
       <c r="G111" s="36">
         <f t="shared" si="7"/>
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H111" s="36">
         <f t="shared" si="8"/>
@@ -20100,15 +20111,15 @@
       </c>
       <c r="I111" s="11">
         <f t="shared" si="9"/>
-        <v>39826584</v>
+        <v>41049330</v>
       </c>
       <c r="J111" s="53">
         <f t="shared" si="10"/>
-        <v>19918764</v>
+        <v>20530305</v>
       </c>
       <c r="K111" s="53">
         <f t="shared" si="11"/>
-        <v>19907820</v>
+        <v>20519025</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -20133,7 +20144,7 @@
       </c>
       <c r="G112" s="36">
         <f t="shared" si="7"/>
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H112" s="36">
         <f t="shared" si="8"/>
@@ -20141,7 +20152,7 @@
       </c>
       <c r="I112" s="11">
         <f t="shared" si="9"/>
-        <v>-6049200000</v>
+        <v>-6248000000</v>
       </c>
       <c r="J112" s="53">
         <f t="shared" si="10"/>
@@ -20149,7 +20160,7 @@
       </c>
       <c r="K112" s="53">
         <f t="shared" si="11"/>
-        <v>-6049200000</v>
+        <v>-6248000000</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -20174,7 +20185,7 @@
       </c>
       <c r="G113" s="36">
         <f t="shared" si="7"/>
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H113" s="36">
         <f t="shared" si="8"/>
@@ -20182,15 +20193,15 @@
       </c>
       <c r="I113" s="11">
         <f t="shared" si="9"/>
-        <v>32118880</v>
+        <v>33260160</v>
       </c>
       <c r="J113" s="53">
         <f t="shared" si="10"/>
-        <v>24134667</v>
+        <v>24992244</v>
       </c>
       <c r="K113" s="53">
         <f t="shared" si="11"/>
-        <v>7984213</v>
+        <v>8267916</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -20215,7 +20226,7 @@
       </c>
       <c r="G114" s="36">
         <f t="shared" si="7"/>
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H114" s="36">
         <f t="shared" si="8"/>
@@ -20223,15 +20234,15 @@
       </c>
       <c r="I114" s="11">
         <f t="shared" si="9"/>
-        <v>-1128600</v>
+        <v>-1168500</v>
       </c>
       <c r="J114" s="53">
         <f t="shared" si="10"/>
-        <v>-495000</v>
+        <v>-512500</v>
       </c>
       <c r="K114" s="53">
         <f t="shared" si="11"/>
-        <v>-633600</v>
+        <v>-656000</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -20256,7 +20267,7 @@
       </c>
       <c r="G115" s="36">
         <f t="shared" si="7"/>
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H115" s="36">
         <f t="shared" si="8"/>
@@ -20268,11 +20279,11 @@
       </c>
       <c r="J115" s="53">
         <f t="shared" si="10"/>
-        <v>92500000</v>
+        <v>96000000</v>
       </c>
       <c r="K115" s="53">
         <f t="shared" si="11"/>
-        <v>-92500000</v>
+        <v>-96000000</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -20297,7 +20308,7 @@
       </c>
       <c r="G116" s="36">
         <f t="shared" si="7"/>
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H116" s="36">
         <f t="shared" si="8"/>
@@ -20305,7 +20316,7 @@
       </c>
       <c r="I116" s="11">
         <f t="shared" si="9"/>
-        <v>-28320000</v>
+        <v>-29440000</v>
       </c>
       <c r="J116" s="53">
         <f t="shared" si="10"/>
@@ -20313,7 +20324,7 @@
       </c>
       <c r="K116" s="53">
         <f t="shared" si="11"/>
-        <v>-28320000</v>
+        <v>-29440000</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -20338,7 +20349,7 @@
       </c>
       <c r="G117" s="36">
         <f t="shared" si="7"/>
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H117" s="36">
         <f t="shared" si="8"/>
@@ -20346,15 +20357,15 @@
       </c>
       <c r="I117" s="11">
         <f t="shared" si="9"/>
-        <v>247160</v>
+        <v>257520</v>
       </c>
       <c r="J117" s="53">
         <f t="shared" si="10"/>
-        <v>17859147</v>
+        <v>18607734</v>
       </c>
       <c r="K117" s="53">
         <f t="shared" si="11"/>
-        <v>-17611987</v>
+        <v>-18350214</v>
       </c>
       <c r="N117" s="3"/>
     </row>
@@ -20380,7 +20391,7 @@
       </c>
       <c r="G118" s="36">
         <f t="shared" si="7"/>
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H118" s="36">
         <f t="shared" si="8"/>
@@ -20388,7 +20399,7 @@
       </c>
       <c r="I118" s="11">
         <f t="shared" si="9"/>
-        <v>5712927500</v>
+        <v>5988724000</v>
       </c>
       <c r="J118" s="53">
         <f t="shared" si="10"/>
@@ -20396,7 +20407,7 @@
       </c>
       <c r="K118" s="53">
         <f t="shared" si="11"/>
-        <v>5712927500</v>
+        <v>5988724000</v>
       </c>
       <c r="O118" s="7"/>
     </row>
@@ -20422,7 +20433,7 @@
       </c>
       <c r="G119" s="36">
         <f t="shared" si="7"/>
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H119" s="36">
         <f t="shared" si="8"/>
@@ -20430,15 +20441,15 @@
       </c>
       <c r="I119" s="11">
         <f t="shared" si="9"/>
-        <v>12990856</v>
+        <v>13659503</v>
       </c>
       <c r="J119" s="53">
         <f t="shared" si="10"/>
-        <v>14967344</v>
+        <v>15737722</v>
       </c>
       <c r="K119" s="53">
         <f t="shared" si="11"/>
-        <v>-1976488</v>
+        <v>-2078219</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -20463,7 +20474,7 @@
       </c>
       <c r="G120" s="36">
         <f t="shared" si="7"/>
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H120" s="11">
         <f t="shared" si="8"/>
@@ -20471,7 +20482,7 @@
       </c>
       <c r="I120" s="11">
         <f t="shared" ref="I120:I143" si="13">B120*(G120-H120)</f>
-        <v>264000000</v>
+        <v>278000000</v>
       </c>
       <c r="J120" s="11">
         <f t="shared" si="10"/>
@@ -20479,7 +20490,7 @@
       </c>
       <c r="K120" s="11">
         <f t="shared" si="11"/>
-        <v>264000000</v>
+        <v>278000000</v>
       </c>
       <c r="N120" s="7"/>
     </row>
@@ -20505,7 +20516,7 @@
       </c>
       <c r="G121" s="36">
         <f t="shared" si="7"/>
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H121" s="11">
         <f t="shared" si="8"/>
@@ -20513,7 +20524,7 @@
       </c>
       <c r="I121" s="11">
         <f t="shared" si="13"/>
-        <v>275600000</v>
+        <v>293800000</v>
       </c>
       <c r="J121" s="11">
         <f t="shared" si="10"/>
@@ -20521,7 +20532,7 @@
       </c>
       <c r="K121" s="11">
         <f t="shared" si="11"/>
-        <v>275600000</v>
+        <v>293800000</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
@@ -20546,7 +20557,7 @@
       </c>
       <c r="G122" s="36">
         <f t="shared" si="7"/>
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H122" s="11">
         <f t="shared" si="8"/>
@@ -20554,15 +20565,15 @@
       </c>
       <c r="I122" s="11">
         <f t="shared" si="13"/>
-        <v>40377855</v>
+        <v>43069712</v>
       </c>
       <c r="J122" s="11">
         <f t="shared" si="10"/>
-        <v>11645340</v>
+        <v>12421696</v>
       </c>
       <c r="K122" s="11">
         <f t="shared" si="11"/>
-        <v>28732515</v>
+        <v>30648016</v>
       </c>
       <c r="N122" t="s">
         <v>25</v>
@@ -20590,7 +20601,7 @@
       </c>
       <c r="G123" s="36">
         <f t="shared" si="7"/>
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H123" s="11">
         <f t="shared" si="8"/>
@@ -20602,11 +20613,11 @@
       </c>
       <c r="J123" s="11">
         <f t="shared" si="10"/>
-        <v>84000000</v>
+        <v>89600000</v>
       </c>
       <c r="K123" s="11">
         <f t="shared" si="11"/>
-        <v>-84000000</v>
+        <v>-89600000</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
@@ -20631,7 +20642,7 @@
       </c>
       <c r="G124" s="36">
         <f t="shared" si="7"/>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H124" s="11">
         <f t="shared" si="8"/>
@@ -20639,7 +20650,7 @@
       </c>
       <c r="I124" s="11">
         <f t="shared" si="13"/>
-        <v>-273000000</v>
+        <v>-294000000</v>
       </c>
       <c r="J124" s="11">
         <f t="shared" si="10"/>
@@ -20647,7 +20658,7 @@
       </c>
       <c r="K124" s="11">
         <f t="shared" si="11"/>
-        <v>-273000000</v>
+        <v>-294000000</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -20672,7 +20683,7 @@
       </c>
       <c r="G125" s="36">
         <f t="shared" si="7"/>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H125" s="11">
         <f t="shared" si="8"/>
@@ -20680,15 +20691,15 @@
       </c>
       <c r="I125" s="11">
         <f t="shared" si="13"/>
-        <v>30053250</v>
+        <v>32858220</v>
       </c>
       <c r="J125" s="11">
         <f t="shared" si="10"/>
-        <v>8915625</v>
+        <v>9747750</v>
       </c>
       <c r="K125" s="11">
         <f t="shared" si="11"/>
-        <v>21137625</v>
+        <v>23110470</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
@@ -20713,7 +20724,7 @@
       </c>
       <c r="G126" s="36">
         <f t="shared" si="7"/>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H126" s="11">
         <f t="shared" si="8"/>
@@ -20721,7 +20732,7 @@
       </c>
       <c r="I126" s="11">
         <f t="shared" si="13"/>
-        <v>3150000000</v>
+        <v>3444000000</v>
       </c>
       <c r="J126" s="11">
         <f t="shared" si="10"/>
@@ -20729,7 +20740,7 @@
       </c>
       <c r="K126" s="11">
         <f t="shared" si="11"/>
-        <v>3150000000</v>
+        <v>3444000000</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
@@ -20754,7 +20765,7 @@
       </c>
       <c r="G127" s="36">
         <f t="shared" si="7"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H127" s="11">
         <f t="shared" si="8"/>
@@ -20762,7 +20773,7 @@
       </c>
       <c r="I127" s="11">
         <f t="shared" si="13"/>
-        <v>-255000</v>
+        <v>-290000</v>
       </c>
       <c r="J127" s="11">
         <f t="shared" si="10"/>
@@ -20770,7 +20781,7 @@
       </c>
       <c r="K127" s="11">
         <f t="shared" si="11"/>
-        <v>-255000</v>
+        <v>-290000</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
@@ -20795,7 +20806,7 @@
       </c>
       <c r="G128" s="36">
         <f t="shared" si="7"/>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H128" s="11">
         <f t="shared" si="8"/>
@@ -20803,15 +20814,15 @@
       </c>
       <c r="I128" s="11">
         <f t="shared" si="13"/>
-        <v>33940456</v>
+        <v>39340074</v>
       </c>
       <c r="J128" s="11">
         <f t="shared" si="10"/>
-        <v>5310668</v>
+        <v>6155547</v>
       </c>
       <c r="K128" s="11">
         <f t="shared" si="11"/>
-        <v>28629788</v>
+        <v>33184527</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -20836,7 +20847,7 @@
       </c>
       <c r="G129" s="36">
         <f t="shared" si="7"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H129" s="11">
         <f t="shared" si="8"/>
@@ -20844,7 +20855,7 @@
       </c>
       <c r="I129" s="11">
         <f t="shared" si="13"/>
-        <v>102500000</v>
+        <v>120000000</v>
       </c>
       <c r="J129" s="11">
         <f t="shared" si="10"/>
@@ -20852,7 +20863,7 @@
       </c>
       <c r="K129" s="11">
         <f t="shared" si="11"/>
-        <v>102500000</v>
+        <v>120000000</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -20877,7 +20888,7 @@
       </c>
       <c r="G130" s="36">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H130" s="11">
         <f t="shared" si="8"/>
@@ -20885,11 +20896,11 @@
       </c>
       <c r="I130" s="11">
         <f t="shared" si="13"/>
-        <v>-28000000</v>
+        <v>-35000000</v>
       </c>
       <c r="J130" s="11">
         <f t="shared" si="10"/>
-        <v>-28000000</v>
+        <v>-35000000</v>
       </c>
       <c r="K130" s="11">
         <f t="shared" si="11"/>
@@ -20918,7 +20929,7 @@
       </c>
       <c r="G131" s="36">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H131" s="11">
         <f t="shared" si="8"/>
@@ -20926,7 +20937,7 @@
       </c>
       <c r="I131" s="11">
         <f t="shared" si="13"/>
-        <v>-1150000000</v>
+        <v>-1500000000</v>
       </c>
       <c r="J131" s="11">
         <f t="shared" si="10"/>
@@ -20934,7 +20945,7 @@
       </c>
       <c r="K131" s="11">
         <f t="shared" si="11"/>
-        <v>-1150000000</v>
+        <v>-1500000000</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -20959,7 +20970,7 @@
       </c>
       <c r="G132" s="36">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H132" s="11">
         <f t="shared" ref="H132:H143" si="14">IF(B132&gt;0,1,0)</f>
@@ -20967,15 +20978,15 @@
       </c>
       <c r="I132" s="11">
         <f t="shared" si="13"/>
-        <v>8600018</v>
+        <v>12900027</v>
       </c>
       <c r="J132" s="11">
         <f t="shared" ref="J132:J143" si="15">C132*(G132-H132)</f>
-        <v>1483594</v>
+        <v>2225391</v>
       </c>
       <c r="K132" s="11">
         <f t="shared" ref="K132:K143" si="16">D132*(G132-H132)</f>
-        <v>7116424</v>
+        <v>10674636</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -21000,7 +21011,7 @@
       </c>
       <c r="G133" s="36">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H133" s="11">
         <f t="shared" si="14"/>
@@ -21008,7 +21019,7 @@
       </c>
       <c r="I133" s="11">
         <f t="shared" si="13"/>
-        <v>-13317700</v>
+        <v>-21792600</v>
       </c>
       <c r="J133" s="11">
         <f t="shared" si="15"/>
@@ -21016,7 +21027,7 @@
       </c>
       <c r="K133" s="11">
         <f t="shared" si="16"/>
-        <v>-13317700</v>
+        <v>-21792600</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -21041,7 +21052,7 @@
       </c>
       <c r="G134" s="36">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H134" s="11">
         <f t="shared" si="14"/>
@@ -21049,7 +21060,7 @@
       </c>
       <c r="I134" s="11">
         <f t="shared" si="13"/>
-        <v>-130000</v>
+        <v>-585000</v>
       </c>
       <c r="J134" s="11">
         <f t="shared" si="15"/>
@@ -21057,7 +21068,7 @@
       </c>
       <c r="K134" s="11">
         <f t="shared" si="16"/>
-        <v>-130000</v>
+        <v>-585000</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -21078,11 +21089,11 @@
         <v>801</v>
       </c>
       <c r="F135" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G135" s="36">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H135" s="11">
         <f t="shared" si="14"/>
@@ -21090,7 +21101,7 @@
       </c>
       <c r="I135" s="11">
         <f t="shared" si="13"/>
-        <v>-64600</v>
+        <v>-290700</v>
       </c>
       <c r="J135" s="11">
         <f t="shared" si="15"/>
@@ -21098,21 +21109,32 @@
       </c>
       <c r="K135" s="11">
         <f t="shared" si="16"/>
-        <v>-64600</v>
+        <v>-290700</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B136" s="18"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
+        <v>808</v>
+      </c>
+      <c r="B136" s="18">
+        <v>-1000000</v>
+      </c>
+      <c r="C136" s="18">
+        <v>-1000000</v>
+      </c>
+      <c r="D136" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="F136" s="11">
+        <v>1</v>
+      </c>
       <c r="G136" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" s="11">
         <f t="shared" si="14"/>
@@ -21120,11 +21142,11 @@
       </c>
       <c r="I136" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-1000000</v>
       </c>
       <c r="J136" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-1000000</v>
       </c>
       <c r="K136" s="11">
         <f t="shared" si="16"/>
@@ -21337,11 +21359,11 @@
       <c r="A144" s="11"/>
       <c r="B144" s="29">
         <f>SUM(B2:B143)</f>
-        <v>35509769</v>
+        <v>34509769</v>
       </c>
       <c r="C144" s="29">
         <f>SUM(C2:C142)</f>
-        <v>12149969</v>
+        <v>11149969</v>
       </c>
       <c r="D144" s="29">
         <f>SUM(D2:D142)</f>
@@ -21353,15 +21375,15 @@
       <c r="H144" s="11"/>
       <c r="I144" s="29">
         <f>SUM(I2:I143)</f>
-        <v>13494192651</v>
+        <v>13741761034</v>
       </c>
       <c r="J144" s="29">
         <f>SUM(J2:J143)</f>
-        <v>5432741265</v>
+        <v>5516791048</v>
       </c>
       <c r="K144" s="29">
         <f>SUM(K2:K143)</f>
-        <v>8061451386</v>
+        <v>8224969986</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -21413,15 +21435,15 @@
       <c r="H147" s="11"/>
       <c r="I147" s="3">
         <f>I144/G2</f>
-        <v>23427417.796875</v>
+        <v>23570773.643224701</v>
       </c>
       <c r="J147" s="29">
         <f>J144/G2</f>
-        <v>9431842.473958334</v>
+        <v>9462763.3756432254</v>
       </c>
       <c r="K147" s="29">
         <f>K144/G2</f>
-        <v>13995575.322916666</v>
+        <v>14108010.267581476</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -21446,11 +21468,11 @@
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J151">
         <f>J144/I144*1448696</f>
-        <v>583242.78770817735</v>
+        <v>581595.99081217789</v>
       </c>
       <c r="K151">
         <f>K144/I144*1448696</f>
-        <v>865453.21229182265</v>
+        <v>867100.00918782211</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -32921,9 +32943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G164" sqref="G164"/>
+      <selection pane="bottomLeft" activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32973,7 +32995,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -32981,7 +33003,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>51154300</v>
+        <v>51444400</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -32999,7 +33021,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -33007,7 +33029,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1581000000</v>
+        <v>1590000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -33023,7 +33045,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -33031,7 +33053,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-105000000</v>
+        <v>-105600000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -33047,7 +33069,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -33055,7 +33077,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-52300000</v>
+        <v>-52600000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -33071,7 +33093,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -33079,7 +33101,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-28710000</v>
+        <v>-28875000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -33095,7 +33117,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -33103,7 +33125,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-104200000</v>
+        <v>-104800000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -33119,7 +33141,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -33127,7 +33149,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-103400000</v>
+        <v>-104000000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -33143,7 +33165,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -33151,7 +33173,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-481903500</v>
+        <v>-484755000</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -33167,7 +33189,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -33175,7 +33197,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>1010000000</v>
+        <v>1016000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -33191,7 +33213,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -33199,7 +33221,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-536760000</v>
+        <v>-539955000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -33215,7 +33237,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -33223,7 +33245,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-22545000</v>
+        <v>-22680000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -33239,7 +33261,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -33247,7 +33269,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-1000350000</v>
+        <v>-1006352100</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -33263,7 +33285,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -33271,7 +33293,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-99200000</v>
+        <v>-99800000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -33287,7 +33309,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -33295,7 +33317,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>986000000</v>
+        <v>992000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -33311,7 +33333,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -33319,7 +33341,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>986000000</v>
+        <v>992000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -33335,7 +33357,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -33343,7 +33365,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>591600000</v>
+        <v>595200000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -33359,7 +33381,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -33367,7 +33389,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>493000000</v>
+        <v>496000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -33383,7 +33405,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -33391,7 +33413,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1476000000</v>
+        <v>1485000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -33410,7 +33432,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -33418,7 +33440,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-213321100</v>
+        <v>-214619200</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -33434,7 +33456,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -33442,7 +33464,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-213321100</v>
+        <v>-214619200</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -33458,7 +33480,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -33466,7 +33488,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-213321100</v>
+        <v>-214619200</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -33482,7 +33504,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -33490,7 +33512,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-213321100</v>
+        <v>-214619200</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -33506,7 +33528,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -33514,7 +33536,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-213321100</v>
+        <v>-214619200</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -33530,7 +33552,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -33538,7 +33560,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-98600000</v>
+        <v>-99200000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -33554,7 +33576,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -33562,7 +33584,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1473000000</v>
+        <v>1482000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -33578,7 +33600,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -33586,7 +33608,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-98000000</v>
+        <v>-98600000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -33602,7 +33624,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -33610,7 +33632,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>976000000</v>
+        <v>982000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -33626,7 +33648,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -33634,7 +33656,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-3416390400</v>
+        <v>-3437392800</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -33650,7 +33672,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -33658,7 +33680,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1461438300</v>
+        <v>-1470441000</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -33674,7 +33696,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -33682,7 +33704,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-824207400</v>
+        <v>-829295100</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -33698,7 +33720,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -33706,7 +33728,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>479252600</v>
+        <v>482235500</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -33722,7 +33744,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -33730,7 +33752,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>16703316</v>
+        <v>16808589</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>378</v>
@@ -33748,7 +33770,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -33756,7 +33778,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-404600000</v>
+        <v>-407150000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -33772,7 +33794,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -33780,7 +33802,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-89154000</v>
+        <v>-89725500</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -33796,7 +33818,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -33804,7 +33826,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>93200000</v>
+        <v>93800000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -33820,7 +33842,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -33828,7 +33850,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-93400000</v>
+        <v>-94000000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -33844,7 +33866,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -33852,7 +33874,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>133557864</v>
+        <v>134460282</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>398</v>
@@ -33870,7 +33892,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -33878,7 +33900,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-42180000</v>
+        <v>-42465000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -33894,7 +33916,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -33902,7 +33924,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-39117732</v>
+        <v>-39382041</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -33918,7 +33940,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -33926,7 +33948,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-52680000</v>
+        <v>-53040000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -33942,7 +33964,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -33950,7 +33972,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>416084864</v>
+        <v>419085476</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>399</v>
@@ -33968,7 +33990,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -33976,7 +33998,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-33040000</v>
+        <v>-33280000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -33992,7 +34014,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -34000,7 +34022,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-86310861</v>
+        <v>-86943948</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -34016,7 +34038,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -34024,7 +34046,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-81600000</v>
+        <v>-82200000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -34040,7 +34062,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -34048,7 +34070,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-38665000</v>
+        <v>-38950000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -34064,7 +34086,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -34072,7 +34094,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-18225000</v>
+        <v>-18360000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -34088,7 +34110,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -34096,7 +34118,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-25992900</v>
+        <v>-26185440</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -34112,7 +34134,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -34120,7 +34142,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-11048568</v>
+        <v>-11131020</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -34136,7 +34158,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -34144,7 +34166,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-56541000</v>
+        <v>-56964000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -34160,7 +34182,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -34168,7 +34190,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-10725146</v>
+        <v>-10805384</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -34184,7 +34206,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -34192,7 +34214,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-21320000</v>
+        <v>-21479900</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -34208,7 +34230,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -34216,7 +34238,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>398000000</v>
+        <v>401000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -34232,7 +34254,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -34240,7 +34262,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-8253000</v>
+        <v>-8316000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -34256,7 +34278,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -34264,7 +34286,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-384356000</v>
+        <v>-387297500</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -34280,7 +34302,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -34288,7 +34310,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-17640000</v>
+        <v>-17775000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -34304,7 +34326,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -34312,7 +34334,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>1135961442</v>
+        <v>1144977009</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>400</v>
@@ -34330,7 +34352,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -34338,7 +34360,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>756000000</v>
+        <v>762000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -34354,7 +34376,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -34362,7 +34384,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>754000000</v>
+        <v>760000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -34378,7 +34400,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -34386,7 +34408,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-2646567000</v>
+        <v>-2667571500</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -34402,7 +34424,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -34410,7 +34432,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>1059000000</v>
+        <v>1068000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -34426,7 +34448,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -34434,7 +34456,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-9569477</v>
+        <v>-9650804</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -34450,7 +34472,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -34458,7 +34480,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-11645117</v>
+        <v>-11744084</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -34474,7 +34496,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -34482,7 +34504,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>1056000000</v>
+        <v>1065000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -34498,7 +34520,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -34506,7 +34528,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>1045440000</v>
+        <v>1054350000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -34522,7 +34544,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -34530,7 +34552,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>352000000</v>
+        <v>355000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -34546,7 +34568,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -34554,7 +34576,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F170" si="5">B67*(D67-E67)</f>
-        <v>10560000</v>
+        <v>10650000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -34570,7 +34592,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -34578,7 +34600,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>10530000000</v>
+        <v>10620000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -34594,7 +34616,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -34602,7 +34624,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-70200000</v>
+        <v>-70800000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -34618,7 +34640,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -34626,7 +34648,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>490000000</v>
+        <v>494200000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -34642,7 +34664,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -34650,7 +34672,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>910000000</v>
+        <v>917800000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -34666,7 +34688,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -34674,7 +34696,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-351000000</v>
+        <v>-354000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -34690,7 +34712,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -34698,7 +34720,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>5220000000</v>
+        <v>5265000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -34714,7 +34736,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -34722,7 +34744,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-5161444800</v>
+        <v>-5206457400</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -34738,7 +34760,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -34746,7 +34768,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-1026000000</v>
+        <v>-1035000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -34762,7 +34784,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -34770,7 +34792,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-68400000</v>
+        <v>-69000000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -34786,7 +34808,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -34794,7 +34816,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-4105026000</v>
+        <v>-4141035000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -34810,7 +34832,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -34818,7 +34840,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-1014304200</v>
+        <v>-1023306900</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -34834,7 +34856,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -34842,7 +34864,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>7636000000</v>
+        <v>7705000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -34858,7 +34880,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -34866,7 +34888,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-196964000</v>
+        <v>-198765500</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -34882,7 +34904,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -34890,7 +34912,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-65600000</v>
+        <v>-66200000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -34906,7 +34928,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -34914,7 +34936,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>92330046</v>
+        <v>93179709</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -34932,7 +34954,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -34940,7 +34962,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-65400000</v>
+        <v>-66000000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -34956,7 +34978,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -34964,7 +34986,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>648000000</v>
+        <v>654000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -34980,7 +35002,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -34988,7 +35010,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-64400000</v>
+        <v>-65000000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -35004,7 +35026,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -35012,7 +35034,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-63200000</v>
+        <v>-63800000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -35028,7 +35050,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -35036,7 +35058,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-416050000</v>
+        <v>-420025000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -35052,7 +35074,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -35060,7 +35082,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-149500000</v>
+        <v>-151000000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -35076,7 +35098,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -35084,7 +35106,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-35880000</v>
+        <v>-36240000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -35100,7 +35122,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -35108,7 +35130,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>126748680</v>
+        <v>128033295</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -35126,7 +35148,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -35134,7 +35156,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-882588000</v>
+        <v>-891594000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>340</v>
@@ -35152,7 +35174,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -35160,7 +35182,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-59860000</v>
+        <v>-60475000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>341</v>
@@ -35178,7 +35200,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -35186,7 +35208,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-102346000</v>
+        <v>-103397500</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>338</v>
@@ -35204,7 +35226,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -35212,7 +35234,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>280000000</v>
+        <v>283000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>336</v>
@@ -35230,7 +35252,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -35238,7 +35260,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>2475000000</v>
+        <v>2502000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>348</v>
@@ -35257,7 +35279,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -35265,7 +35287,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-7124000000</v>
+        <v>-7202000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>350</v>
@@ -35283,7 +35305,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -35291,7 +35313,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-7124000000</v>
+        <v>-7202000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -35307,7 +35329,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -35315,7 +35337,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>7098000000</v>
+        <v>7176000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -35331,7 +35353,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -35339,7 +35361,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-54800000</v>
+        <v>-55400000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -35358,7 +35380,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -35366,7 +35388,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>7913200000</v>
+        <v>8000800000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -35382,7 +35404,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -35390,7 +35412,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>106385370</v>
+        <v>107585205</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>403</v>
@@ -35408,7 +35430,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -35416,7 +35438,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>530000000</v>
+        <v>536000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>405</v>
@@ -35434,7 +35456,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -35442,7 +35464,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>1980000000</v>
+        <v>2002500000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>413</v>
@@ -35460,7 +35482,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -35468,7 +35490,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-17490000000</v>
+        <v>-17688000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>427</v>
@@ -35486,7 +35508,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -35494,7 +35516,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-38425000</v>
+        <v>-38860000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>428</v>
@@ -35512,7 +35534,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -35520,7 +35542,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>1572000000</v>
+        <v>1590000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>429</v>
@@ -35538,7 +35560,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -35546,7 +35568,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-1567539900</v>
+        <v>-1585557600</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>439</v>
@@ -35564,7 +35586,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -35572,7 +35594,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>1542000000</v>
+        <v>1560000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>447</v>
@@ -35590,7 +35612,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -35598,7 +35620,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-29520000</v>
+        <v>-29880000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>462</v>
@@ -35616,7 +35638,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -35624,7 +35646,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>976000000</v>
+        <v>988000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>464</v>
@@ -35642,7 +35664,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -35650,7 +35672,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>680400000</v>
+        <v>688800000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>469</v>
@@ -35668,7 +35690,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -35676,7 +35698,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-48000000</v>
+        <v>-48600000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>475</v>
@@ -35694,7 +35716,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -35702,7 +35724,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>17209780</v>
+        <v>17426710</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>503</v>
@@ -35720,7 +35742,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -35728,7 +35750,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-44400000</v>
+        <v>-45000000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>462</v>
@@ -35749,7 +35771,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -35757,7 +35779,7 @@
       </c>
       <c r="F115" s="23">
         <f t="shared" si="5"/>
-        <v>-2431000000</v>
+        <v>-2464000000</v>
       </c>
       <c r="G115" s="23" t="s">
         <v>504</v>
@@ -35775,7 +35797,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -35783,7 +35805,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-44200000</v>
+        <v>-44800000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>462</v>
@@ -35804,7 +35826,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -35812,7 +35834,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-98659500</v>
+        <v>-100011000</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>506</v>
@@ -35830,7 +35852,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -35838,7 +35860,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-43800000</v>
+        <v>-44400000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>507</v>
@@ -35859,7 +35881,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -35867,7 +35889,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-32919150</v>
+        <v>-33382800</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>510</v>
@@ -35885,7 +35907,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -35893,7 +35915,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-68160</v>
+        <v>-69120</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>511</v>
@@ -35911,7 +35933,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -35919,7 +35941,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-91584000</v>
+        <v>-92880000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>513</v>
@@ -35937,7 +35959,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -35945,7 +35967,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>15178815</v>
+        <v>15400944</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>515</v>
@@ -35963,7 +35985,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -35971,7 +35993,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-9620000</v>
+        <v>-9776000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>539</v>
@@ -35989,7 +36011,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -35997,7 +36019,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>169741</v>
+        <v>173302</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>590</v>
@@ -36015,7 +36037,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -36023,7 +36045,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>340800000</v>
+        <v>348000000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>588</v>
@@ -36041,7 +36063,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -36049,7 +36071,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>187992000</v>
+        <v>192020400</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>597</v>
@@ -36067,7 +36089,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -36075,7 +36097,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>187992000</v>
+        <v>192020400</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>598</v>
@@ -36093,7 +36115,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -36101,7 +36123,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-25800000</v>
+        <v>-26400000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -36119,7 +36141,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -36127,7 +36149,7 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-1983486</v>
+        <v>-2030340</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>607</v>
@@ -36148,7 +36170,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -36156,7 +36178,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-25200000</v>
+        <v>-25800000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>507</v>
@@ -36174,7 +36196,7 @@
       </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D155" si="6">D132+C131</f>
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E171" si="7">IF(B131&gt;0,1,0)</f>
@@ -36182,7 +36204,7 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-25000000</v>
+        <v>-25600000</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>611</v>
@@ -36200,7 +36222,7 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -36208,7 +36230,7 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>-48360000</v>
+        <v>-49530000</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>613</v>
@@ -36226,7 +36248,7 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -36234,7 +36256,7 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>-3038000</v>
+        <v>-3111500</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>614</v>
@@ -36252,7 +36274,7 @@
       </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -36260,7 +36282,7 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>-11685000</v>
+        <v>-11970000</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>462</v>
@@ -36278,7 +36300,7 @@
       </c>
       <c r="D135" s="11">
         <f t="shared" si="6"/>
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="7"/>
@@ -36286,7 +36308,7 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="5"/>
-        <v>-23800000</v>
+        <v>-24400000</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>618</v>
@@ -36304,7 +36326,7 @@
       </c>
       <c r="D136" s="11">
         <f t="shared" si="6"/>
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="7"/>
@@ -36312,7 +36334,7 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="5"/>
-        <v>5800000000</v>
+        <v>5950000000</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>621</v>
@@ -36330,7 +36352,7 @@
       </c>
       <c r="D137" s="11">
         <f t="shared" si="6"/>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E137" s="11">
         <f t="shared" si="7"/>
@@ -36338,7 +36360,7 @@
       </c>
       <c r="F137" s="11">
         <f t="shared" si="5"/>
-        <v>1380000000</v>
+        <v>1416000000</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>621</v>
@@ -36356,7 +36378,7 @@
       </c>
       <c r="D138" s="11">
         <f t="shared" si="6"/>
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E138" s="11">
         <f t="shared" si="7"/>
@@ -36364,7 +36386,7 @@
       </c>
       <c r="F138" s="11">
         <f t="shared" si="5"/>
-        <v>226000000</v>
+        <v>232000000</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>630</v>
@@ -36382,7 +36404,7 @@
       </c>
       <c r="D139" s="11">
         <f t="shared" si="6"/>
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E139" s="11">
         <f t="shared" si="7"/>
@@ -36390,7 +36412,7 @@
       </c>
       <c r="F139" s="11">
         <f t="shared" si="5"/>
-        <v>9804256</v>
+        <v>10066870</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>378</v>
@@ -36408,7 +36430,7 @@
       </c>
       <c r="D140" s="11">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E140" s="11">
         <f t="shared" si="7"/>
@@ -36416,7 +36438,7 @@
       </c>
       <c r="F140" s="11">
         <f t="shared" si="5"/>
-        <v>-300090000</v>
+        <v>-309092700</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>672</v>
@@ -36434,7 +36456,7 @@
       </c>
       <c r="D141" s="11">
         <f t="shared" si="6"/>
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E141" s="11">
         <f t="shared" si="7"/>
@@ -36442,7 +36464,7 @@
       </c>
       <c r="F141" s="11">
         <f t="shared" si="5"/>
-        <v>-297089100</v>
+        <v>-306091800</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>672</v>
@@ -36463,7 +36485,7 @@
       </c>
       <c r="D142" s="11">
         <f t="shared" si="6"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E142" s="11">
         <f t="shared" si="7"/>
@@ -36471,7 +36493,7 @@
       </c>
       <c r="F142" s="11">
         <f t="shared" si="5"/>
-        <v>48764025</v>
+        <v>50570100</v>
       </c>
       <c r="G142" s="11" t="s">
         <v>696</v>
@@ -36489,7 +36511,7 @@
       </c>
       <c r="D143" s="11">
         <f t="shared" si="6"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E143" s="11">
         <f t="shared" si="7"/>
@@ -36497,7 +36519,7 @@
       </c>
       <c r="F143" s="11">
         <f t="shared" si="5"/>
-        <v>-3772000000</v>
+        <v>-3910000000</v>
       </c>
       <c r="G143" s="11" t="s">
         <v>699</v>
@@ -36515,7 +36537,7 @@
       </c>
       <c r="D144" s="11">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E144" s="11">
         <f t="shared" si="7"/>
@@ -36523,7 +36545,7 @@
       </c>
       <c r="F144" s="11">
         <f t="shared" si="5"/>
-        <v>7705350</v>
+        <v>8167671</v>
       </c>
       <c r="G144" s="11" t="s">
         <v>722</v>
@@ -36541,7 +36563,7 @@
       </c>
       <c r="D145" s="11">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E145" s="11">
         <f t="shared" si="7"/>
@@ -36549,7 +36571,7 @@
       </c>
       <c r="F145" s="11">
         <f t="shared" si="5"/>
-        <v>147000000</v>
+        <v>156000000</v>
       </c>
       <c r="G145" s="11" t="s">
         <v>729</v>
@@ -36567,7 +36589,7 @@
       </c>
       <c r="D146" s="11">
         <f t="shared" si="6"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E146" s="11">
         <f t="shared" si="7"/>
@@ -36575,7 +36597,7 @@
       </c>
       <c r="F146" s="11">
         <f t="shared" si="5"/>
-        <v>-9400000</v>
+        <v>-10000000</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>158</v>
@@ -36593,7 +36615,7 @@
       </c>
       <c r="D147" s="11">
         <f t="shared" si="6"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E147" s="11">
         <f t="shared" si="7"/>
@@ -36601,7 +36623,7 @@
       </c>
       <c r="F147" s="11">
         <f t="shared" si="5"/>
-        <v>-8400000</v>
+        <v>-9000000</v>
       </c>
       <c r="G147" s="11" t="s">
         <v>158</v>
@@ -36622,7 +36644,7 @@
       </c>
       <c r="D148" s="11">
         <f t="shared" si="6"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E148" s="11">
         <f t="shared" si="7"/>
@@ -36630,7 +36652,7 @@
       </c>
       <c r="F148" s="11">
         <f t="shared" si="5"/>
-        <v>-8200000</v>
+        <v>-8800000</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>158</v>
@@ -36648,7 +36670,7 @@
       </c>
       <c r="D149" s="11">
         <f t="shared" si="6"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E149" s="11">
         <f t="shared" si="7"/>
@@ -36656,7 +36678,7 @@
       </c>
       <c r="F149" s="11">
         <f t="shared" si="5"/>
-        <v>-7400000</v>
+        <v>-8000000</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>158</v>
@@ -36674,7 +36696,7 @@
       </c>
       <c r="D150" s="11">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E150" s="11">
         <f t="shared" si="7"/>
@@ -36682,7 +36704,7 @@
       </c>
       <c r="F150" s="11">
         <f t="shared" si="5"/>
-        <v>842569000</v>
+        <v>914789200</v>
       </c>
       <c r="G150" s="11" t="s">
         <v>740</v>
@@ -36700,7 +36722,7 @@
       </c>
       <c r="D151" s="11">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E151" s="11">
         <f t="shared" si="7"/>
@@ -36708,7 +36730,7 @@
       </c>
       <c r="F151" s="11">
         <f t="shared" si="5"/>
-        <v>-6800000</v>
+        <v>-7400000</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>158</v>
@@ -36726,7 +36748,7 @@
       </c>
       <c r="D152" s="11">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E152" s="11">
         <f t="shared" si="7"/>
@@ -36734,7 +36756,7 @@
       </c>
       <c r="F152" s="11">
         <f t="shared" si="5"/>
-        <v>-840000000</v>
+        <v>-930000000</v>
       </c>
       <c r="G152" s="11" t="s">
         <v>753</v>
@@ -36752,7 +36774,7 @@
       </c>
       <c r="D153" s="11">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E153" s="11">
         <f t="shared" si="7"/>
@@ -36760,7 +36782,7 @@
       </c>
       <c r="F153" s="11">
         <f t="shared" si="5"/>
-        <v>-1404000</v>
+        <v>-1560000</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>761</v>
@@ -36778,7 +36800,7 @@
       </c>
       <c r="D154" s="11">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E154" s="11">
         <f t="shared" si="7"/>
@@ -36786,7 +36808,7 @@
       </c>
       <c r="F154" s="11">
         <f t="shared" si="5"/>
-        <v>-3672000</v>
+        <v>-4080000</v>
       </c>
       <c r="G154" s="11" t="s">
         <v>762</v>
@@ -36804,7 +36826,7 @@
       </c>
       <c r="D155" s="11">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E155" s="11">
         <f t="shared" si="7"/>
@@ -36812,7 +36834,7 @@
       </c>
       <c r="F155" s="11">
         <f t="shared" si="5"/>
-        <v>63000000</v>
+        <v>72000000</v>
       </c>
       <c r="G155" s="11" t="s">
         <v>767</v>
@@ -36830,7 +36852,7 @@
       </c>
       <c r="D156" s="11">
         <f>D157+C156</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E156" s="11">
         <f t="shared" si="7"/>
@@ -36838,7 +36860,7 @@
       </c>
       <c r="F156" s="11">
         <f t="shared" si="5"/>
-        <v>3782060</v>
+        <v>4349369</v>
       </c>
       <c r="G156" s="11" t="s">
         <v>768</v>
@@ -36856,7 +36878,7 @@
       </c>
       <c r="D157" s="11">
         <f t="shared" ref="D157:D171" si="8">D158+C157</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E157" s="11">
         <f t="shared" si="7"/>
@@ -36864,7 +36886,7 @@
       </c>
       <c r="F157" s="11">
         <f t="shared" si="5"/>
-        <v>484554000</v>
+        <v>557237100</v>
       </c>
       <c r="G157" s="11" t="s">
         <v>769</v>
@@ -36882,7 +36904,7 @@
       </c>
       <c r="D158" s="11">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E158" s="11">
         <f t="shared" si="7"/>
@@ -36890,7 +36912,7 @@
       </c>
       <c r="F158" s="11">
         <f t="shared" si="5"/>
-        <v>291542400</v>
+        <v>364428000</v>
       </c>
       <c r="G158" s="11" t="s">
         <v>783</v>
@@ -36908,7 +36930,7 @@
       </c>
       <c r="D159" s="11">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E159" s="11">
         <f t="shared" si="7"/>
@@ -36916,7 +36938,7 @@
       </c>
       <c r="F159" s="11">
         <f t="shared" si="5"/>
-        <v>-2613000</v>
+        <v>-3216000</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>796</v>
@@ -36934,7 +36956,7 @@
       </c>
       <c r="D160" s="11">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E160" s="11">
         <f t="shared" si="7"/>
@@ -36942,7 +36964,7 @@
       </c>
       <c r="F160" s="11">
         <f t="shared" si="5"/>
-        <v>-1600000</v>
+        <v>-2200000</v>
       </c>
       <c r="G160" s="11" t="s">
         <v>798</v>
@@ -36960,7 +36982,7 @@
       </c>
       <c r="D161" s="11">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E161" s="11">
         <f t="shared" si="7"/>
@@ -36968,7 +36990,7 @@
       </c>
       <c r="F161" s="11">
         <f t="shared" si="5"/>
-        <v>-1000000</v>
+        <v>-1600000</v>
       </c>
       <c r="G161" s="11" t="s">
         <v>798</v>
@@ -36982,11 +37004,11 @@
         <v>-200000</v>
       </c>
       <c r="C162" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D162" s="11">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E162" s="11">
         <f t="shared" si="7"/>
@@ -36994,19 +37016,25 @@
       </c>
       <c r="F162" s="11">
         <f t="shared" si="5"/>
-        <v>-200000</v>
+        <v>-800000</v>
       </c>
       <c r="G162" s="11" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="11"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="11"/>
+      <c r="A163" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="B163" s="3">
+        <v>-200000</v>
+      </c>
+      <c r="C163" s="11">
+        <v>1</v>
+      </c>
       <c r="D163" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" s="11">
         <f t="shared" si="7"/>
@@ -37014,9 +37042,11 @@
       </c>
       <c r="F163" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G163" s="11"/>
+        <v>-200000</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
@@ -37174,14 +37204,14 @@
       <c r="A172" s="11"/>
       <c r="B172" s="29">
         <f>SUM(B2:B170)</f>
-        <v>63445846</v>
+        <v>63245846</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
       <c r="F172" s="29">
         <f>SUM(F2:F170)</f>
-        <v>8911967712</v>
+        <v>9102105250</v>
       </c>
       <c r="G172" s="11"/>
     </row>
@@ -37215,7 +37245,7 @@
       <c r="E175" s="11"/>
       <c r="F175" s="3">
         <f>F172/D2</f>
-        <v>16815033.418867923</v>
+        <v>17077120.544090055</v>
       </c>
       <c r="G175" s="11"/>
     </row>
@@ -37249,8 +37279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37537,7 +37567,7 @@
       </c>
       <c r="K7" s="43">
         <f>'مسکن ایلیا'!B172</f>
-        <v>63445846</v>
+        <v>63245846</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>745</v>
@@ -37646,11 +37676,11 @@
       </c>
       <c r="F10" s="72">
         <f>K16</f>
-        <v>62575846</v>
+        <v>62595846</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="0"/>
-        <v>2790575.5808270946</v>
+        <v>2770575.5808270946</v>
       </c>
       <c r="H10" s="11"/>
       <c r="J10" s="2" t="s">
@@ -37693,7 +37723,7 @@
         <v>459</v>
       </c>
       <c r="K11" s="43">
-        <v>80000</v>
+        <v>300000</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>748</v>
@@ -37847,7 +37877,7 @@
       </c>
       <c r="K16" s="3">
         <f>SUM(K7:K13)</f>
-        <v>62575846</v>
+        <v>62595846</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="11" t="s">
@@ -37888,7 +37918,7 @@
       </c>
       <c r="K17" s="3">
         <f>K7+K8+K11</f>
-        <v>63575846</v>
+        <v>63595846</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="11" t="s">
@@ -37929,7 +37959,7 @@
       </c>
       <c r="K18" s="1">
         <f>K16+N7</f>
-        <v>119575846</v>
+        <v>119595846</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>786</v>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="811">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2469,6 +2469,9 @@
   </si>
   <si>
     <t>مریم به سارا کارت به کارت کرد</t>
+  </si>
+  <si>
+    <t>مریم پوشک به زلزله زده گان</t>
   </si>
 </sst>
 </file>
@@ -3154,8 +3157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4261,9 +4264,11 @@
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D35" s="42">
-        <v>0</v>
-      </c>
-      <c r="E35" s="41"/>
+        <v>-50000</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D36" s="42">
@@ -4300,7 +4305,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>7844922</v>
+        <v>7794922</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -15552,8 +15557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
@@ -29879,8 +29884,8 @@
   <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29957,7 +29962,7 @@
       </c>
       <c r="E2" s="11">
         <f>D2+E3</f>
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="F2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -29965,7 +29970,7 @@
       </c>
       <c r="G2" s="11">
         <f>B2*(E2-F2)</f>
-        <v>17000000</v>
+        <v>18500000</v>
       </c>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
@@ -29999,7 +30004,7 @@
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="0">D3+E4</f>
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F38" si="1">IF(B3&gt;0,1,0)</f>
@@ -30007,7 +30012,7 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G23" si="2">B3*(E3-F3)</f>
-        <v>1008000000</v>
+        <v>1098000000</v>
       </c>
       <c r="J3" s="25"/>
       <c r="K3" s="26"/>
@@ -30041,7 +30046,7 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="1"/>
@@ -30049,7 +30054,7 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="2"/>
-        <v>1005000000</v>
+        <v>1095000000</v>
       </c>
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
@@ -30076,7 +30081,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
@@ -30084,7 +30089,7 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="2"/>
-        <v>5025000000</v>
+        <v>5475000000</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -30123,7 +30128,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
@@ -30131,7 +30136,7 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="2"/>
-        <v>1002000000</v>
+        <v>1092000000</v>
       </c>
       <c r="K6" t="s">
         <v>288</v>
@@ -30170,7 +30175,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
@@ -30178,7 +30183,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="2"/>
-        <v>-1002000000</v>
+        <v>-1092000000</v>
       </c>
       <c r="K7" t="s">
         <v>289</v>
@@ -30220,7 +30225,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
@@ -30228,7 +30233,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="2"/>
-        <v>-66800000</v>
+        <v>-72800000</v>
       </c>
       <c r="K8" t="s">
         <v>290</v>
@@ -30270,7 +30275,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
@@ -30278,7 +30283,7 @@
       </c>
       <c r="G9" s="11">
         <f>B9*(E9-F9)</f>
-        <v>999000000</v>
+        <v>1089000000</v>
       </c>
       <c r="K9" t="s">
         <v>291</v>
@@ -30320,7 +30325,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
@@ -30328,7 +30333,7 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="2"/>
-        <v>996000000</v>
+        <v>1086000000</v>
       </c>
       <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
@@ -30355,7 +30360,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
@@ -30363,7 +30368,7 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="2"/>
-        <v>8300000000</v>
+        <v>9050000000</v>
       </c>
       <c r="K11" t="s">
         <v>296</v>
@@ -30396,7 +30401,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="1"/>
@@ -30404,7 +30409,7 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="2"/>
-        <v>328450570</v>
+        <v>358400470</v>
       </c>
       <c r="K12" t="s">
         <v>297</v>
@@ -30437,7 +30442,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
@@ -30445,7 +30450,7 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="2"/>
-        <v>987000000</v>
+        <v>1077000000</v>
       </c>
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
@@ -30472,7 +30477,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
@@ -30480,7 +30485,7 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="2"/>
-        <v>391870584</v>
+        <v>427603464</v>
       </c>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
@@ -30507,7 +30512,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="1"/>
@@ -30515,7 +30520,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>634000000</v>
+        <v>694000000</v>
       </c>
       <c r="U15" s="25"/>
       <c r="V15" s="26"/>
@@ -30538,7 +30543,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="1"/>
@@ -30546,7 +30551,7 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="2"/>
-        <v>915000000</v>
+        <v>1005000000</v>
       </c>
       <c r="U16" s="25"/>
       <c r="V16" s="26"/>
@@ -30569,7 +30574,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
@@ -30577,7 +30582,7 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="2"/>
-        <v>912000000</v>
+        <v>1002000000</v>
       </c>
       <c r="U17" s="25"/>
       <c r="V17" s="26"/>
@@ -30600,7 +30605,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="1"/>
@@ -30608,7 +30613,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="2"/>
-        <v>575700000</v>
+        <v>632700000</v>
       </c>
       <c r="U18" s="25"/>
       <c r="V18" s="26"/>
@@ -30633,7 +30638,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
@@ -30641,7 +30646,7 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="2"/>
-        <v>231699744</v>
+        <v>255835134</v>
       </c>
       <c r="U19" s="25"/>
       <c r="V19" s="26"/>
@@ -30666,7 +30671,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
@@ -30674,7 +30679,7 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="2"/>
-        <v>861000000</v>
+        <v>951000000</v>
       </c>
       <c r="U20" s="25"/>
       <c r="V20" s="26"/>
@@ -30699,7 +30704,7 @@
       </c>
       <c r="E21" s="11">
         <f>D21+E22</f>
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
@@ -30707,7 +30712,7 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="2"/>
-        <v>140500000</v>
+        <v>155500000</v>
       </c>
       <c r="U21" s="25"/>
       <c r="V21" s="26"/>
@@ -30732,7 +30737,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
@@ -30740,7 +30745,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="2"/>
-        <v>-804000000</v>
+        <v>-894000000</v>
       </c>
       <c r="U22" s="25"/>
       <c r="V22" s="26"/>
@@ -30765,7 +30770,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
@@ -30773,7 +30778,7 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="2"/>
-        <v>777000000</v>
+        <v>867000000</v>
       </c>
       <c r="U23" s="25"/>
       <c r="V23" s="26"/>
@@ -30798,7 +30803,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
@@ -30806,7 +30811,7 @@
       </c>
       <c r="G24" s="11">
         <f>B24*(E24-F24)</f>
-        <v>163388337</v>
+        <v>182313627</v>
       </c>
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
@@ -30831,7 +30836,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
@@ -30839,7 +30844,7 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" ref="G25:G30" si="3">B25*(E25-F25)</f>
-        <v>-825832200</v>
+        <v>-921859200</v>
       </c>
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
@@ -30864,7 +30869,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
@@ -30872,7 +30877,7 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="3"/>
-        <v>-768230400</v>
+        <v>-858257400</v>
       </c>
       <c r="U26" s="25"/>
       <c r="V26" s="25"/>
@@ -30897,7 +30902,7 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
@@ -30905,7 +30910,7 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="3"/>
-        <v>253000000</v>
+        <v>283000000</v>
       </c>
       <c r="U27" s="25"/>
       <c r="V27" s="25"/>
@@ -30930,7 +30935,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
@@ -30938,7 +30943,7 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="3"/>
-        <v>1518000000</v>
+        <v>1698000000</v>
       </c>
       <c r="U28" s="25"/>
       <c r="V28" s="25"/>
@@ -30963,7 +30968,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
@@ -30971,7 +30976,7 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="3"/>
-        <v>1467400000</v>
+        <v>1641400000</v>
       </c>
       <c r="U29" s="25"/>
       <c r="V29" s="28"/>
@@ -30996,7 +31001,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
@@ -31004,7 +31009,7 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="3"/>
-        <v>-1270000</v>
+        <v>-1420000</v>
       </c>
       <c r="U30" s="25"/>
       <c r="V30" s="25"/>
@@ -31029,7 +31034,7 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
@@ -31037,7 +31042,7 @@
       </c>
       <c r="G31" s="11">
         <f>B31*(E31-F31)</f>
-        <v>-6578000000</v>
+        <v>-7358000000</v>
       </c>
       <c r="U31" s="25"/>
       <c r="V31" s="25"/>
@@ -31062,7 +31067,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
@@ -31070,7 +31075,7 @@
       </c>
       <c r="G32" s="11">
         <f>B32*(E32-F32)</f>
-        <v>-6576200000</v>
+        <v>-7362200000</v>
       </c>
       <c r="U32" s="25"/>
       <c r="V32" s="25"/>
@@ -31095,7 +31100,7 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
@@ -31103,7 +31108,7 @@
       </c>
       <c r="G33" s="11">
         <f>B33*(E33-F33)</f>
-        <v>75538155</v>
+        <v>85348305</v>
       </c>
       <c r="U33" s="25"/>
       <c r="V33" s="25"/>
@@ -31128,7 +31133,7 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
@@ -31136,7 +31141,7 @@
       </c>
       <c r="G34" s="11">
         <f t="shared" ref="G34:G104" si="4">B34*(E34-F34)</f>
-        <v>6049200000</v>
+        <v>6901200000</v>
       </c>
       <c r="V34" s="25"/>
       <c r="W34" s="26"/>
@@ -31157,7 +31162,7 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
@@ -31165,7 +31170,7 @@
       </c>
       <c r="G35" s="12">
         <f t="shared" si="4"/>
-        <v>2343000000</v>
+        <v>2673000000</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -31183,7 +31188,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="1"/>
@@ -31191,7 +31196,7 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="4"/>
-        <v>82902798</v>
+        <v>95463828</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -31209,7 +31214,7 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
@@ -31217,7 +31222,7 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="4"/>
-        <v>-179100</v>
+        <v>-206100</v>
       </c>
       <c r="J37" s="60"/>
     </row>
@@ -31236,7 +31241,7 @@
       </c>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="1"/>
@@ -31244,7 +31249,7 @@
       </c>
       <c r="G38" s="12">
         <f t="shared" si="4"/>
-        <v>394000000</v>
+        <v>454000000</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -31264,7 +31269,7 @@
       </c>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="F39" s="11">
         <f>IF(B39&gt;0,1,0)</f>
@@ -31272,7 +31277,7 @@
       </c>
       <c r="G39" s="11">
         <f t="shared" si="4"/>
-        <v>394000000</v>
+        <v>454000000</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -31290,7 +31295,7 @@
       </c>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="F40" s="11">
         <f>IF(B40&gt;0,1,0)</f>
@@ -31298,7 +31303,7 @@
       </c>
       <c r="G40" s="11">
         <f t="shared" si="4"/>
-        <v>-36800000</v>
+        <v>-42800000</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -31316,7 +31321,7 @@
       </c>
       <c r="E41" s="11">
         <f t="shared" si="0"/>
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="F41" s="11">
         <f>IF(B41&gt;0,1,0)</f>
@@ -31324,7 +31329,7 @@
       </c>
       <c r="G41" s="11">
         <f t="shared" si="4"/>
-        <v>-114080000</v>
+        <v>-132680000</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -31342,7 +31347,7 @@
       </c>
       <c r="E42" s="11">
         <f t="shared" si="0"/>
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="F42" s="11">
         <f t="shared" ref="F42:F104" si="5">IF(B42&gt;0,1,0)</f>
@@ -31350,7 +31355,7 @@
       </c>
       <c r="G42" s="11">
         <f t="shared" si="4"/>
-        <v>-22080000</v>
+        <v>-25680000</v>
       </c>
       <c r="J42" s="7"/>
     </row>
@@ -31369,7 +31374,7 @@
       </c>
       <c r="E43" s="11">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="5"/>
@@ -31377,7 +31382,7 @@
       </c>
       <c r="G43" s="11">
         <f t="shared" si="4"/>
-        <v>117650000</v>
+        <v>137150000</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -31395,7 +31400,7 @@
       </c>
       <c r="E44" s="11">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="5"/>
@@ -31403,7 +31408,7 @@
       </c>
       <c r="G44" s="11">
         <f t="shared" si="4"/>
-        <v>-910000</v>
+        <v>-1060000</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -31421,7 +31426,7 @@
       </c>
       <c r="E45" s="11">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="5"/>
@@ -31429,7 +31434,7 @@
       </c>
       <c r="G45" s="11">
         <f t="shared" si="4"/>
-        <v>5249000000</v>
+        <v>6119000000</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -31447,7 +31452,7 @@
       </c>
       <c r="E46" s="11">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="5"/>
@@ -31455,7 +31460,7 @@
       </c>
       <c r="G46" s="11">
         <f t="shared" si="4"/>
-        <v>-35600000</v>
+        <v>-41600000</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -31473,7 +31478,7 @@
       </c>
       <c r="E47" s="11">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="5"/>
@@ -31481,7 +31486,7 @@
       </c>
       <c r="G47" s="11">
         <f t="shared" si="4"/>
-        <v>-35000000</v>
+        <v>-41000000</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
@@ -31499,7 +31504,7 @@
       </c>
       <c r="E48" s="11">
         <f t="shared" si="0"/>
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="5"/>
@@ -31507,7 +31512,7 @@
       </c>
       <c r="G48" s="11">
         <f t="shared" si="4"/>
-        <v>-34800000</v>
+        <v>-40800000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -31525,7 +31530,7 @@
       </c>
       <c r="E49" s="11">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="5"/>
@@ -31533,7 +31538,7 @@
       </c>
       <c r="G49" s="11">
         <f t="shared" si="4"/>
-        <v>504000000</v>
+        <v>594000000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -31551,7 +31556,7 @@
       </c>
       <c r="E50" s="11">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="5"/>
@@ -31559,7 +31564,7 @@
       </c>
       <c r="G50" s="12">
         <f t="shared" si="4"/>
-        <v>504000000</v>
+        <v>594000000</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -31577,7 +31582,7 @@
       </c>
       <c r="E51" s="11">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="5"/>
@@ -31585,7 +31590,7 @@
       </c>
       <c r="G51" s="11">
         <f t="shared" si="4"/>
-        <v>127888099</v>
+        <v>150862009</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -31603,7 +31608,7 @@
       </c>
       <c r="E52" s="11">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="5"/>
@@ -31611,7 +31616,7 @@
       </c>
       <c r="G52" s="11">
         <f t="shared" si="4"/>
-        <v>-33600000</v>
+        <v>-39600000</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -31629,7 +31634,7 @@
       </c>
       <c r="E53" s="11">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="5"/>
@@ -31637,7 +31642,7 @@
       </c>
       <c r="G53" s="11">
         <f t="shared" si="4"/>
-        <v>-64480500</v>
+        <v>-76495500</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -31655,7 +31660,7 @@
       </c>
       <c r="E54" s="11">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="5"/>
@@ -31663,7 +31668,7 @@
       </c>
       <c r="G54" s="11">
         <f t="shared" si="4"/>
-        <v>-152060192</v>
+        <v>-182072072</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -31681,7 +31686,7 @@
       </c>
       <c r="E55" s="11">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="5"/>
@@ -31689,7 +31694,7 @@
       </c>
       <c r="G55" s="11">
         <f t="shared" si="4"/>
-        <v>-5840000000</v>
+        <v>-7040000000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -31707,7 +31712,7 @@
       </c>
       <c r="E56" s="11">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="5"/>
@@ -31715,7 +31720,7 @@
       </c>
       <c r="G56" s="11">
         <f t="shared" si="4"/>
-        <v>117728672</v>
+        <v>143698232</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -31733,7 +31738,7 @@
       </c>
       <c r="E57" s="11">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F57" s="11">
         <f t="shared" si="5"/>
@@ -31741,7 +31746,7 @@
       </c>
       <c r="G57" s="11">
         <f t="shared" si="4"/>
-        <v>-5522000000</v>
+        <v>-7028000000</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -31759,7 +31764,7 @@
       </c>
       <c r="E58" s="11">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="F58" s="11">
         <f t="shared" si="5"/>
@@ -31767,7 +31772,7 @@
       </c>
       <c r="G58" s="11">
         <f t="shared" si="4"/>
-        <v>-1329854500</v>
+        <v>-1695869500</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -31785,7 +31790,7 @@
       </c>
       <c r="E59" s="11">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F59" s="11">
         <f t="shared" si="5"/>
@@ -31793,7 +31798,7 @@
       </c>
       <c r="G59" s="11">
         <f t="shared" si="4"/>
-        <v>56165130</v>
+        <v>72212310</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -31811,7 +31816,7 @@
       </c>
       <c r="E60" s="11">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="F60" s="11">
         <f t="shared" si="5"/>
@@ -31819,7 +31824,7 @@
       </c>
       <c r="G60" s="11">
         <f t="shared" si="4"/>
-        <v>-35490000</v>
+        <v>-45630000</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -31837,7 +31842,7 @@
       </c>
       <c r="E61" s="11">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="F61" s="11">
         <f t="shared" si="5"/>
@@ -31845,7 +31850,7 @@
       </c>
       <c r="G61" s="11">
         <f t="shared" si="4"/>
-        <v>-15450000</v>
+        <v>-19950000</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -31863,7 +31868,7 @@
       </c>
       <c r="E62" s="11">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="F62" s="11">
         <f t="shared" si="5"/>
@@ -31871,7 +31876,7 @@
       </c>
       <c r="G62" s="11">
         <f t="shared" si="4"/>
-        <v>-9900000</v>
+        <v>-12900000</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -31889,7 +31894,7 @@
       </c>
       <c r="E63" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F63" s="11">
         <f t="shared" si="5"/>
@@ -31897,7 +31902,7 @@
       </c>
       <c r="G63" s="11">
         <f t="shared" si="4"/>
-        <v>-19000000</v>
+        <v>-25000000</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -31915,7 +31920,7 @@
       </c>
       <c r="E64" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="5"/>
@@ -31923,7 +31928,7 @@
       </c>
       <c r="G64" s="11">
         <f t="shared" si="4"/>
-        <v>-8265000</v>
+        <v>-10875000</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -31941,7 +31946,7 @@
       </c>
       <c r="E65" s="11">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F65" s="11">
         <f t="shared" si="5"/>
@@ -31949,7 +31954,7 @@
       </c>
       <c r="G65" s="11">
         <f t="shared" si="4"/>
-        <v>-2499770</v>
+        <v>-3323870</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -31967,7 +31972,7 @@
       </c>
       <c r="E66" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F66" s="11">
         <f t="shared" si="5"/>
@@ -31975,7 +31980,7 @@
       </c>
       <c r="G66" s="11">
         <f t="shared" si="4"/>
-        <v>-30060000</v>
+        <v>-40080000</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -31993,7 +31998,7 @@
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E104" si="6">D67+E68</f>
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F67" s="11">
         <f t="shared" si="5"/>
@@ -32001,7 +32006,7 @@
       </c>
       <c r="G67" s="11">
         <f t="shared" si="4"/>
-        <v>-1700000</v>
+        <v>-2300000</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -32019,7 +32024,7 @@
       </c>
       <c r="E68" s="11">
         <f t="shared" si="6"/>
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
@@ -32027,7 +32032,7 @@
       </c>
       <c r="G68" s="11">
         <f t="shared" si="4"/>
-        <v>-25242000</v>
+        <v>-34257000</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -32045,7 +32050,7 @@
       </c>
       <c r="E69" s="11">
         <f t="shared" si="6"/>
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
@@ -32053,7 +32058,7 @@
       </c>
       <c r="G69" s="11">
         <f t="shared" si="4"/>
-        <v>-8400000</v>
+        <v>-11400000</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -32071,7 +32076,7 @@
       </c>
       <c r="E70" s="11">
         <f t="shared" si="6"/>
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
@@ -32079,7 +32084,7 @@
       </c>
       <c r="G70" s="11">
         <f t="shared" si="4"/>
-        <v>-15800000</v>
+        <v>-21800000</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -32097,7 +32102,7 @@
       </c>
       <c r="E71" s="11">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
@@ -32105,7 +32110,7 @@
       </c>
       <c r="G71" s="11">
         <f t="shared" si="4"/>
-        <v>1138786</v>
+        <v>1600456</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -32123,7 +32128,7 @@
       </c>
       <c r="E72" s="11">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
@@ -32131,7 +32136,7 @@
       </c>
       <c r="G72" s="11">
         <f t="shared" si="4"/>
-        <v>296000000</v>
+        <v>416000000</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -32149,7 +32154,7 @@
       </c>
       <c r="E73" s="11">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
@@ -32157,7 +32162,7 @@
       </c>
       <c r="G73" s="11">
         <f t="shared" si="4"/>
-        <v>192400000</v>
+        <v>270400000</v>
       </c>
       <c r="J73" t="s">
         <v>25</v>
@@ -32178,7 +32183,7 @@
       </c>
       <c r="E74" s="11">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
@@ -32186,7 +32191,7 @@
       </c>
       <c r="G74" s="11">
         <f t="shared" si="4"/>
-        <v>222000000</v>
+        <v>312000000</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -32204,7 +32209,7 @@
       </c>
       <c r="E75" s="11">
         <f t="shared" si="6"/>
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
@@ -32212,7 +32217,7 @@
       </c>
       <c r="G75" s="11">
         <f t="shared" si="4"/>
-        <v>-14400000</v>
+        <v>-20400000</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -32230,7 +32235,7 @@
       </c>
       <c r="E76" s="11">
         <f t="shared" si="6"/>
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
@@ -32238,7 +32243,7 @@
       </c>
       <c r="G76" s="11">
         <f t="shared" si="4"/>
-        <v>-138048300</v>
+        <v>-198069300</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -32256,7 +32261,7 @@
       </c>
       <c r="E77" s="11">
         <f t="shared" si="6"/>
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
@@ -32264,7 +32269,7 @@
       </c>
       <c r="G77" s="11">
         <f t="shared" si="4"/>
-        <v>-13800000</v>
+        <v>-19800000</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -32282,7 +32287,7 @@
       </c>
       <c r="E78" s="11">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
@@ -32290,7 +32295,7 @@
       </c>
       <c r="G78" s="11">
         <f t="shared" si="4"/>
-        <v>128000000</v>
+        <v>188000000</v>
       </c>
       <c r="J78" t="s">
         <v>25</v>
@@ -32311,7 +32316,7 @@
       </c>
       <c r="E79" s="11">
         <f t="shared" si="6"/>
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
@@ -32319,7 +32324,7 @@
       </c>
       <c r="G79" s="11">
         <f t="shared" si="4"/>
-        <v>-57028500</v>
+        <v>-87043500</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -32337,7 +32342,7 @@
       </c>
       <c r="E80" s="11">
         <f t="shared" si="6"/>
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
@@ -32345,7 +32350,7 @@
       </c>
       <c r="G80" s="11">
         <f t="shared" si="4"/>
-        <v>-8091150</v>
+        <v>-12349650</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -32363,7 +32368,7 @@
       </c>
       <c r="E81" s="11">
         <f t="shared" si="6"/>
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
@@ -32371,7 +32376,7 @@
       </c>
       <c r="G81" s="11">
         <f t="shared" si="4"/>
-        <v>-48627000</v>
+        <v>-75642000</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -32389,7 +32394,7 @@
       </c>
       <c r="E82" s="11">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
@@ -32397,7 +32402,7 @@
       </c>
       <c r="G82" s="11">
         <f t="shared" si="4"/>
-        <v>3493793</v>
+        <v>5931323</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -32415,7 +32420,7 @@
       </c>
       <c r="E83" s="11">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
@@ -32423,7 +32428,7 @@
       </c>
       <c r="G83" s="11">
         <f t="shared" si="4"/>
-        <v>1050000000</v>
+        <v>2550000000</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -32441,7 +32446,7 @@
       </c>
       <c r="E84" s="11">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
@@ -32449,7 +32454,7 @@
       </c>
       <c r="G84" s="11">
         <f t="shared" si="4"/>
-        <v>600000000</v>
+        <v>1500000000</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -32467,7 +32472,7 @@
       </c>
       <c r="E85" s="11">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
@@ -32475,7 +32480,7 @@
       </c>
       <c r="G85" s="11">
         <f t="shared" si="4"/>
-        <v>-1522500000</v>
+        <v>-3697500000</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -32493,7 +32498,7 @@
       </c>
       <c r="E86" s="11">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
@@ -32501,7 +32506,7 @@
       </c>
       <c r="G86" s="11">
         <f t="shared" si="4"/>
-        <v>-5620000</v>
+        <v>-14050000</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -32519,7 +32524,7 @@
       </c>
       <c r="E87" s="11">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
@@ -32527,7 +32532,7 @@
       </c>
       <c r="G87" s="11">
         <f t="shared" si="4"/>
-        <v>35000000</v>
+        <v>110000000</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -32545,7 +32550,7 @@
       </c>
       <c r="E88" s="11">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
@@ -32553,7 +32558,7 @@
       </c>
       <c r="G88" s="11">
         <f t="shared" si="4"/>
-        <v>1018420</v>
+        <v>3368620</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -32567,11 +32572,11 @@
         <v>779</v>
       </c>
       <c r="D89" s="11">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
@@ -32579,7 +32584,7 @@
       </c>
       <c r="G89" s="11">
         <f t="shared" si="4"/>
-        <v>120000000</v>
+        <v>570000000</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -32872,7 +32877,7 @@
       <c r="F105" s="11"/>
       <c r="G105" s="29">
         <f>SUM(G2:G104)</f>
-        <v>15348434476</v>
+        <v>16334717686</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -32906,7 +32911,7 @@
       <c r="F108" s="11"/>
       <c r="G108" s="3">
         <f>G105/E2</f>
-        <v>45010071.777126096</v>
+        <v>44028888.641509436</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -32944,7 +32949,7 @@
   <dimension ref="A1:L184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
@@ -37280,7 +37285,7 @@
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37676,18 +37681,18 @@
       </c>
       <c r="F10" s="72">
         <f>K16</f>
-        <v>62595846</v>
+        <v>62765846</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="0"/>
-        <v>2770575.5808270946</v>
+        <v>2600575.5808270946</v>
       </c>
       <c r="H10" s="11"/>
       <c r="J10" s="2" t="s">
         <v>85</v>
       </c>
       <c r="K10" s="43">
-        <v>-8000000</v>
+        <v>-7800000</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>747</v>
@@ -37723,7 +37728,7 @@
         <v>459</v>
       </c>
       <c r="K11" s="43">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>748</v>
@@ -37877,7 +37882,7 @@
       </c>
       <c r="K16" s="3">
         <f>SUM(K7:K13)</f>
-        <v>62595846</v>
+        <v>62765846</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="11" t="s">
@@ -37918,7 +37923,7 @@
       </c>
       <c r="K17" s="3">
         <f>K7+K8+K11</f>
-        <v>63595846</v>
+        <v>63565846</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="11" t="s">
@@ -37959,7 +37964,7 @@
       </c>
       <c r="K18" s="1">
         <f>K16+N7</f>
-        <v>119595846</v>
+        <v>119765846</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>786</v>
@@ -38106,7 +38111,7 @@
         <v>795</v>
       </c>
       <c r="N21" s="29">
-        <v>2000000</v>
+        <v>1800000</v>
       </c>
       <c r="P21" s="29"/>
       <c r="Q21" s="29"/>
@@ -38267,7 +38272,7 @@
       </c>
       <c r="N25" s="29">
         <f>SUM(N16:N23)</f>
-        <v>133435907</v>
+        <v>133235907</v>
       </c>
       <c r="P25" s="11"/>
       <c r="Q25" s="29"/>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="آذر 96" sheetId="28" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="815">
   <si>
     <t>18/1/95</t>
   </si>
@@ -3170,8 +3170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3269,11 +3269,11 @@
         <v>290900</v>
       </c>
       <c r="C3" s="39">
-        <v>97368</v>
+        <v>97359</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D22" si="0">B3-C3</f>
-        <v>193532</v>
+        <v>193541</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>813</v>
@@ -3287,11 +3287,11 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H23" si="2">C3*F3</f>
-        <v>2823672</v>
+        <v>2823411</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I23" si="3">D3*F3</f>
-        <v>5612428</v>
+        <v>5612689</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -4062,11 +4062,11 @@
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C22)</f>
-        <v>11247337</v>
+        <v>11247328</v>
       </c>
       <c r="D24" s="3">
         <f>SUM(D2:D22)</f>
-        <v>23553333</v>
+        <v>23553342</v>
       </c>
       <c r="E24" s="2"/>
       <c r="O24">
@@ -4086,11 +4086,11 @@
       </c>
       <c r="H25" s="18">
         <f>SUM(H2:H23)</f>
-        <v>337322742</v>
+        <v>337322481</v>
       </c>
       <c r="I25" s="18">
         <f>SUM(I2:I23)</f>
-        <v>706406458</v>
+        <v>706406719</v>
       </c>
       <c r="O25">
         <v>22</v>
@@ -4174,11 +4174,11 @@
       </c>
       <c r="H30" s="18">
         <f>G30*H25/G25</f>
-        <v>94015.943644960775</v>
+        <v>94015.87090109197</v>
       </c>
       <c r="I30" s="18">
         <f>G30*I25/G25</f>
-        <v>196884.05635503921</v>
+        <v>196884.12909890804</v>
       </c>
       <c r="O30">
         <v>27</v>
@@ -15470,8 +15470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16480,15 +16480,15 @@
         <v>95</v>
       </c>
       <c r="G30" s="18">
-        <v>290900</v>
+        <v>290873</v>
       </c>
       <c r="H30" s="18">
         <f>G30*H25/G25</f>
-        <v>97367.833583604763</v>
+        <v>97358.796349136712</v>
       </c>
       <c r="I30" s="18">
         <f>G30*I25/G25</f>
-        <v>193532.16641639522</v>
+        <v>193514.20365086329</v>
       </c>
       <c r="O30">
         <v>27</v>
@@ -26317,7 +26317,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
+      <selection pane="bottomLeft" activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26394,7 +26394,7 @@
       </c>
       <c r="G2" s="36">
         <f>G3+F2</f>
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="H2" s="36">
         <f>IF(B2&gt;0,1,0)</f>
@@ -26402,11 +26402,11 @@
       </c>
       <c r="I2" s="11">
         <f>B2*(G2-H2)</f>
-        <v>9719400</v>
+        <v>9869700</v>
       </c>
       <c r="J2" s="53">
         <f>C2*(G2-H2)</f>
-        <v>9719400</v>
+        <v>9869700</v>
       </c>
       <c r="K2" s="53">
         <f>D2*(G2-H2)</f>
@@ -26435,7 +26435,7 @@
       </c>
       <c r="G3" s="36">
         <f t="shared" ref="G3:G66" si="1">G4+F3</f>
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="H3" s="36">
         <f t="shared" ref="H3:H66" si="2">IF(B3&gt;0,1,0)</f>
@@ -26443,15 +26443,15 @@
       </c>
       <c r="I3" s="11">
         <f t="shared" ref="I3:I66" si="3">B3*(G3-H3)</f>
-        <v>11561900000</v>
+        <v>11741000000</v>
       </c>
       <c r="J3" s="53">
         <f t="shared" ref="J3:J66" si="4">C3*(G3-H3)</f>
-        <v>6615847000</v>
+        <v>6718330000</v>
       </c>
       <c r="K3" s="53">
         <f t="shared" ref="K3:K66" si="5">D3*(G3-H3)</f>
-        <v>4946053000</v>
+        <v>5022670000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -26476,7 +26476,7 @@
       </c>
       <c r="G4" s="36">
         <f t="shared" si="1"/>
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="H4" s="36">
         <f t="shared" si="2"/>
@@ -26488,11 +26488,11 @@
       </c>
       <c r="J4" s="53">
         <f t="shared" si="4"/>
-        <v>4947000</v>
+        <v>5023500</v>
       </c>
       <c r="K4" s="53">
         <f t="shared" si="5"/>
-        <v>-4947000</v>
+        <v>-5023500</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -26517,7 +26517,7 @@
       </c>
       <c r="G5" s="36">
         <f t="shared" si="1"/>
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="H5" s="36">
         <f t="shared" si="2"/>
@@ -26525,7 +26525,7 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" si="3"/>
-        <v>1158000000</v>
+        <v>1176000000</v>
       </c>
       <c r="J5" s="53">
         <f t="shared" si="4"/>
@@ -26533,7 +26533,7 @@
       </c>
       <c r="K5" s="53">
         <f t="shared" si="5"/>
-        <v>1158000000</v>
+        <v>1176000000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -26558,7 +26558,7 @@
       </c>
       <c r="G6" s="36">
         <f t="shared" si="1"/>
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="H6" s="36">
         <f t="shared" si="2"/>
@@ -26566,7 +26566,7 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" si="3"/>
-        <v>-2865000</v>
+        <v>-2910000</v>
       </c>
       <c r="J6" s="53">
         <f t="shared" si="4"/>
@@ -26574,7 +26574,7 @@
       </c>
       <c r="K6" s="53">
         <f t="shared" si="5"/>
-        <v>-2865000</v>
+        <v>-2910000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -26599,7 +26599,7 @@
       </c>
       <c r="G7" s="36">
         <f t="shared" si="1"/>
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="H7" s="36">
         <f t="shared" si="2"/>
@@ -26607,7 +26607,7 @@
       </c>
       <c r="I7" s="11">
         <f t="shared" si="3"/>
-        <v>-683084500</v>
+        <v>-693889000</v>
       </c>
       <c r="J7" s="53">
         <f t="shared" si="4"/>
@@ -26615,7 +26615,7 @@
       </c>
       <c r="K7" s="53">
         <f t="shared" si="5"/>
-        <v>-683084500</v>
+        <v>-693889000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -26640,7 +26640,7 @@
       </c>
       <c r="G8" s="36">
         <f t="shared" si="1"/>
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="H8" s="36">
         <f t="shared" si="2"/>
@@ -26648,7 +26648,7 @@
       </c>
       <c r="I8" s="11">
         <f t="shared" si="3"/>
-        <v>-113600000</v>
+        <v>-115400000</v>
       </c>
       <c r="J8" s="53">
         <f t="shared" si="4"/>
@@ -26656,7 +26656,7 @@
       </c>
       <c r="K8" s="53">
         <f t="shared" si="5"/>
-        <v>-113600000</v>
+        <v>-115400000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -26681,7 +26681,7 @@
       </c>
       <c r="G9" s="36">
         <f t="shared" si="1"/>
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="H9" s="36">
         <f t="shared" si="2"/>
@@ -26689,7 +26689,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" si="3"/>
-        <v>-399313000</v>
+        <v>-405662500</v>
       </c>
       <c r="J9" s="53">
         <f t="shared" si="4"/>
@@ -26697,7 +26697,7 @@
       </c>
       <c r="K9" s="53">
         <f t="shared" si="5"/>
-        <v>-399313000</v>
+        <v>-405662500</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -26722,7 +26722,7 @@
       </c>
       <c r="G10" s="36">
         <f t="shared" si="1"/>
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="H10" s="36">
         <f t="shared" si="2"/>
@@ -26730,7 +26730,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" si="3"/>
-        <v>-111400000</v>
+        <v>-113200000</v>
       </c>
       <c r="J10" s="53">
         <f t="shared" si="4"/>
@@ -26738,7 +26738,7 @@
       </c>
       <c r="K10" s="53">
         <f t="shared" si="5"/>
-        <v>-111400000</v>
+        <v>-113200000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -26763,7 +26763,7 @@
       </c>
       <c r="G11" s="36">
         <f t="shared" si="1"/>
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="H11" s="36">
         <f t="shared" si="2"/>
@@ -26771,7 +26771,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" si="3"/>
-        <v>556000000</v>
+        <v>565000000</v>
       </c>
       <c r="J11" s="53">
         <f t="shared" si="4"/>
@@ -26779,7 +26779,7 @@
       </c>
       <c r="K11" s="53">
         <f t="shared" si="5"/>
-        <v>556000000</v>
+        <v>565000000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -26804,7 +26804,7 @@
       </c>
       <c r="G12" s="36">
         <f t="shared" si="1"/>
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="H12" s="36">
         <f t="shared" si="2"/>
@@ -26812,7 +26812,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" si="3"/>
-        <v>-165900000</v>
+        <v>-168600000</v>
       </c>
       <c r="J12" s="53">
         <f t="shared" si="4"/>
@@ -26820,7 +26820,7 @@
       </c>
       <c r="K12" s="53">
         <f t="shared" si="5"/>
-        <v>-165900000</v>
+        <v>-168600000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -26845,7 +26845,7 @@
       </c>
       <c r="G13" s="36">
         <f t="shared" si="1"/>
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="H13" s="36">
         <f t="shared" si="2"/>
@@ -26853,7 +26853,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" si="3"/>
-        <v>-33976000</v>
+        <v>-34534000</v>
       </c>
       <c r="J13" s="53">
         <f t="shared" si="4"/>
@@ -26861,7 +26861,7 @@
       </c>
       <c r="K13" s="53">
         <f t="shared" si="5"/>
-        <v>-33976000</v>
+        <v>-34534000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -26886,7 +26886,7 @@
       </c>
       <c r="G14" s="36">
         <f t="shared" si="1"/>
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="H14" s="36">
         <f t="shared" si="2"/>
@@ -26894,7 +26894,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" si="3"/>
-        <v>1094000000</v>
+        <v>1112000000</v>
       </c>
       <c r="J14" s="53">
         <f t="shared" si="4"/>
@@ -26902,7 +26902,7 @@
       </c>
       <c r="K14" s="53">
         <f t="shared" si="5"/>
-        <v>1094000000</v>
+        <v>1112000000</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -26927,7 +26927,7 @@
       </c>
       <c r="G15" s="36">
         <f t="shared" si="1"/>
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="H15" s="36">
         <f t="shared" si="2"/>
@@ -26935,7 +26935,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" si="3"/>
-        <v>982800000</v>
+        <v>999000000</v>
       </c>
       <c r="J15" s="53">
         <f t="shared" si="4"/>
@@ -26943,7 +26943,7 @@
       </c>
       <c r="K15" s="53">
         <f t="shared" si="5"/>
-        <v>982800000</v>
+        <v>999000000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -26968,7 +26968,7 @@
       </c>
       <c r="G16" s="36">
         <f t="shared" si="1"/>
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="H16" s="36">
         <f t="shared" si="2"/>
@@ -26976,7 +26976,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" si="3"/>
-        <v>-109400000</v>
+        <v>-111200000</v>
       </c>
       <c r="J16" s="53">
         <f t="shared" si="4"/>
@@ -26984,7 +26984,7 @@
       </c>
       <c r="K16" s="53">
         <f t="shared" si="5"/>
-        <v>-109400000</v>
+        <v>-111200000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -27009,7 +27009,7 @@
       </c>
       <c r="G17" s="36">
         <f t="shared" si="1"/>
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="H17" s="36">
         <f t="shared" si="2"/>
@@ -27017,7 +27017,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" si="3"/>
-        <v>-1086000000</v>
+        <v>-1104000000</v>
       </c>
       <c r="J17" s="53">
         <f t="shared" si="4"/>
@@ -27025,7 +27025,7 @@
       </c>
       <c r="K17" s="53">
         <f t="shared" si="5"/>
-        <v>-1086000000</v>
+        <v>-1104000000</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -27053,7 +27053,7 @@
       </c>
       <c r="G18" s="36">
         <f t="shared" si="1"/>
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="H18" s="36">
         <f t="shared" si="2"/>
@@ -27061,7 +27061,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" si="3"/>
-        <v>-162600000</v>
+        <v>-165300000</v>
       </c>
       <c r="J18" s="53">
         <f t="shared" si="4"/>
@@ -27069,7 +27069,7 @@
       </c>
       <c r="K18" s="53">
         <f t="shared" si="5"/>
-        <v>-162600000</v>
+        <v>-165300000</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -27094,7 +27094,7 @@
       </c>
       <c r="G19" s="36">
         <f t="shared" si="1"/>
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="H19" s="36">
         <f t="shared" si="2"/>
@@ -27102,7 +27102,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" si="3"/>
-        <v>-108200000</v>
+        <v>-110000000</v>
       </c>
       <c r="J19" s="53">
         <f t="shared" si="4"/>
@@ -27110,7 +27110,7 @@
       </c>
       <c r="K19" s="53">
         <f t="shared" si="5"/>
-        <v>-108200000</v>
+        <v>-110000000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -27135,7 +27135,7 @@
       </c>
       <c r="G20" s="36">
         <f t="shared" si="1"/>
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="H20" s="36">
         <f t="shared" si="2"/>
@@ -27143,15 +27143,15 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" si="3"/>
-        <v>145845882</v>
+        <v>148285683</v>
       </c>
       <c r="J20" s="53">
         <f t="shared" si="4"/>
-        <v>79329176</v>
+        <v>80656244</v>
       </c>
       <c r="K20" s="53">
         <f t="shared" si="5"/>
-        <v>66516706</v>
+        <v>67629439</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -27176,7 +27176,7 @@
       </c>
       <c r="G21" s="36">
         <f t="shared" si="1"/>
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="H21" s="36">
         <f t="shared" si="2"/>
@@ -27184,7 +27184,7 @@
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>-808560900</v>
+        <v>-822112200</v>
       </c>
       <c r="J21" s="53">
         <f t="shared" si="4"/>
@@ -27192,7 +27192,7 @@
       </c>
       <c r="K21" s="53">
         <f t="shared" si="5"/>
-        <v>-808560900</v>
+        <v>-822112200</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -27217,7 +27217,7 @@
       </c>
       <c r="G22" s="36">
         <f t="shared" si="1"/>
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="H22" s="36">
         <f t="shared" si="2"/>
@@ -27225,7 +27225,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" si="3"/>
-        <v>1599000000</v>
+        <v>1626000000</v>
       </c>
       <c r="J22" s="53">
         <f t="shared" si="4"/>
@@ -27233,7 +27233,7 @@
       </c>
       <c r="K22" s="53">
         <f t="shared" si="5"/>
-        <v>1599000000</v>
+        <v>1626000000</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -27258,7 +27258,7 @@
       </c>
       <c r="G23" s="36">
         <f t="shared" si="1"/>
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="H23" s="36">
         <f t="shared" si="2"/>
@@ -27266,7 +27266,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" si="3"/>
-        <v>532000000</v>
+        <v>541000000</v>
       </c>
       <c r="J23" s="53">
         <f t="shared" si="4"/>
@@ -27274,7 +27274,7 @@
       </c>
       <c r="K23" s="53">
         <f t="shared" si="5"/>
-        <v>532000000</v>
+        <v>541000000</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -27299,7 +27299,7 @@
       </c>
       <c r="G24" s="36">
         <f t="shared" si="1"/>
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="H24" s="36">
         <f t="shared" si="2"/>
@@ -27307,7 +27307,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" si="3"/>
-        <v>-1596478800</v>
+        <v>-1623486900</v>
       </c>
       <c r="J24" s="53">
         <f t="shared" si="4"/>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K24" s="53">
         <f t="shared" si="5"/>
-        <v>-1596478800</v>
+        <v>-1623486900</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -27340,7 +27340,7 @@
       </c>
       <c r="G25" s="36">
         <f t="shared" si="1"/>
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="H25" s="36">
         <f t="shared" si="2"/>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" si="3"/>
-        <v>774000000</v>
+        <v>787500000</v>
       </c>
       <c r="J25" s="53">
         <f t="shared" si="4"/>
@@ -27356,7 +27356,7 @@
       </c>
       <c r="K25" s="53">
         <f t="shared" si="5"/>
-        <v>774000000</v>
+        <v>787500000</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -27381,7 +27381,7 @@
       </c>
       <c r="G26" s="36">
         <f t="shared" si="1"/>
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="H26" s="36">
         <f t="shared" si="2"/>
@@ -27389,7 +27389,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" si="3"/>
-        <v>-83476000</v>
+        <v>-84952000</v>
       </c>
       <c r="J26" s="53">
         <f t="shared" si="4"/>
@@ -27397,7 +27397,7 @@
       </c>
       <c r="K26" s="53">
         <f t="shared" si="5"/>
-        <v>-83476000</v>
+        <v>-84952000</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -27422,7 +27422,7 @@
       </c>
       <c r="G27" s="36">
         <f t="shared" si="1"/>
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="H27" s="36">
         <f t="shared" si="2"/>
@@ -27430,15 +27430,15 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" si="3"/>
-        <v>101092251</v>
+        <v>102886788</v>
       </c>
       <c r="J27" s="53">
         <f t="shared" si="4"/>
-        <v>54458391</v>
+        <v>55425108</v>
       </c>
       <c r="K27" s="53">
         <f t="shared" si="5"/>
-        <v>46633860</v>
+        <v>47461680</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -27463,7 +27463,7 @@
       </c>
       <c r="G28" s="36">
         <f t="shared" si="1"/>
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="H28" s="36">
         <f t="shared" si="2"/>
@@ -27471,11 +27471,11 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" si="3"/>
-        <v>-111826000</v>
+        <v>-113815000</v>
       </c>
       <c r="J28" s="53">
         <f t="shared" si="4"/>
-        <v>-111826000</v>
+        <v>-113815000</v>
       </c>
       <c r="K28" s="53">
         <f t="shared" si="5"/>
@@ -27504,7 +27504,7 @@
       </c>
       <c r="G29" s="36">
         <f t="shared" si="1"/>
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="H29" s="36">
         <f t="shared" si="2"/>
@@ -27512,7 +27512,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" si="3"/>
-        <v>-253253000</v>
+        <v>-257757500</v>
       </c>
       <c r="J29" s="53">
         <f t="shared" si="4"/>
@@ -27520,7 +27520,7 @@
       </c>
       <c r="K29" s="53">
         <f t="shared" si="5"/>
-        <v>-253253000</v>
+        <v>-257757500</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -27545,7 +27545,7 @@
       </c>
       <c r="G30" s="36">
         <f t="shared" si="1"/>
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="H30" s="36">
         <f t="shared" si="2"/>
@@ -27553,11 +27553,11 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" si="3"/>
-        <v>-7590000000</v>
+        <v>-7725000000</v>
       </c>
       <c r="J30" s="53">
         <f t="shared" si="4"/>
-        <v>-7590000000</v>
+        <v>-7725000000</v>
       </c>
       <c r="K30" s="53">
         <f t="shared" si="5"/>
@@ -27586,7 +27586,7 @@
       </c>
       <c r="G31" s="36">
         <f t="shared" si="1"/>
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="H31" s="36">
         <f t="shared" si="2"/>
@@ -27594,7 +27594,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" si="3"/>
-        <v>-1472330100</v>
+        <v>-1499428200</v>
       </c>
       <c r="J31" s="53">
         <f t="shared" si="4"/>
@@ -27602,7 +27602,7 @@
       </c>
       <c r="K31" s="53">
         <f t="shared" si="5"/>
-        <v>-1472330100</v>
+        <v>-1499428200</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -27627,7 +27627,7 @@
       </c>
       <c r="G32" s="36">
         <f t="shared" si="1"/>
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="H32" s="36">
         <f t="shared" si="2"/>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" si="3"/>
-        <v>-1463873300</v>
+        <v>-1490926400</v>
       </c>
       <c r="J32" s="53">
         <f t="shared" si="4"/>
@@ -27643,7 +27643,7 @@
       </c>
       <c r="K32" s="53">
         <f t="shared" si="5"/>
-        <v>-1463873300</v>
+        <v>-1490926400</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -27668,7 +27668,7 @@
       </c>
       <c r="G33" s="36">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="H33" s="36">
         <f t="shared" si="2"/>
@@ -27676,7 +27676,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" si="3"/>
-        <v>-435213000</v>
+        <v>-443272500</v>
       </c>
       <c r="J33" s="53">
         <f t="shared" si="4"/>
@@ -27684,7 +27684,7 @@
       </c>
       <c r="K33" s="53">
         <f t="shared" si="5"/>
-        <v>-435213000</v>
+        <v>-443272500</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -27709,7 +27709,7 @@
       </c>
       <c r="G34" s="36">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="H34" s="36">
         <f t="shared" si="2"/>
@@ -27721,11 +27721,11 @@
       </c>
       <c r="J34" s="53">
         <f t="shared" si="4"/>
-        <v>486000000</v>
+        <v>495000000</v>
       </c>
       <c r="K34" s="53">
         <f t="shared" si="5"/>
-        <v>-486000000</v>
+        <v>-495000000</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -27750,7 +27750,7 @@
       </c>
       <c r="G35" s="36">
         <f t="shared" si="1"/>
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="H35" s="36">
         <f t="shared" si="2"/>
@@ -27758,15 +27758,15 @@
       </c>
       <c r="I35" s="11">
         <f t="shared" si="3"/>
-        <v>24976672</v>
+        <v>25448920</v>
       </c>
       <c r="J35" s="53">
         <f t="shared" si="4"/>
-        <v>-10311588</v>
+        <v>-10506555</v>
       </c>
       <c r="K35" s="53">
         <f t="shared" si="5"/>
-        <v>35288260</v>
+        <v>35955475</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -27791,7 +27791,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="1"/>
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="H36" s="36">
         <f t="shared" si="2"/>
@@ -27803,11 +27803,11 @@
       </c>
       <c r="J36" s="53">
         <f t="shared" si="4"/>
-        <v>10333251</v>
+        <v>10528218</v>
       </c>
       <c r="K36" s="53">
         <f t="shared" si="5"/>
-        <v>-10333251</v>
+        <v>-10528218</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -27832,7 +27832,7 @@
       </c>
       <c r="G37" s="36">
         <f t="shared" si="1"/>
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="H37" s="36">
         <f t="shared" si="2"/>
@@ -27840,7 +27840,7 @@
       </c>
       <c r="I37" s="11">
         <f t="shared" si="3"/>
-        <v>-25685000</v>
+        <v>-26180000</v>
       </c>
       <c r="J37" s="53">
         <f t="shared" si="4"/>
@@ -27848,7 +27848,7 @@
       </c>
       <c r="K37" s="53">
         <f t="shared" si="5"/>
-        <v>-25685000</v>
+        <v>-26180000</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -27873,7 +27873,7 @@
       </c>
       <c r="G38" s="36">
         <f t="shared" si="1"/>
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="H38" s="36">
         <f t="shared" si="2"/>
@@ -27881,11 +27881,11 @@
       </c>
       <c r="I38" s="11">
         <f t="shared" si="3"/>
-        <v>1395000000</v>
+        <v>1422000000</v>
       </c>
       <c r="J38" s="53">
         <f t="shared" si="4"/>
-        <v>1395000000</v>
+        <v>1422000000</v>
       </c>
       <c r="K38" s="53">
         <f t="shared" si="5"/>
@@ -27914,7 +27914,7 @@
       </c>
       <c r="G39" s="36">
         <f t="shared" si="1"/>
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="H39" s="36">
         <f t="shared" si="2"/>
@@ -27922,11 +27922,11 @@
       </c>
       <c r="I39" s="11">
         <f t="shared" si="3"/>
-        <v>1160000000</v>
+        <v>1182500000</v>
       </c>
       <c r="J39" s="53">
         <f t="shared" si="4"/>
-        <v>1160000000</v>
+        <v>1182500000</v>
       </c>
       <c r="K39" s="53">
         <f t="shared" si="5"/>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="G40" s="36">
         <f t="shared" si="1"/>
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="H40" s="36">
         <f t="shared" si="2"/>
@@ -27963,7 +27963,7 @@
       </c>
       <c r="I40" s="11">
         <f t="shared" si="3"/>
-        <v>-23250000</v>
+        <v>-23700000</v>
       </c>
       <c r="J40" s="53">
         <f t="shared" si="4"/>
@@ -27971,7 +27971,7 @@
       </c>
       <c r="K40" s="53">
         <f t="shared" si="5"/>
-        <v>-23250000</v>
+        <v>-23700000</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -27996,7 +27996,7 @@
       </c>
       <c r="G41" s="36">
         <f t="shared" si="1"/>
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="H41" s="36">
         <f t="shared" si="2"/>
@@ -28004,7 +28004,7 @@
       </c>
       <c r="I41" s="11">
         <f t="shared" si="3"/>
-        <v>1392000000</v>
+        <v>1419000000</v>
       </c>
       <c r="J41" s="53">
         <f t="shared" si="4"/>
@@ -28012,7 +28012,7 @@
       </c>
       <c r="K41" s="53">
         <f t="shared" si="5"/>
-        <v>1392000000</v>
+        <v>1419000000</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -28037,7 +28037,7 @@
       </c>
       <c r="G42" s="36">
         <f t="shared" si="1"/>
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="H42" s="36">
         <f t="shared" si="2"/>
@@ -28045,7 +28045,7 @@
       </c>
       <c r="I42" s="11">
         <f t="shared" si="3"/>
-        <v>-41210400</v>
+        <v>-42013200</v>
       </c>
       <c r="J42" s="53">
         <f t="shared" si="4"/>
@@ -28053,7 +28053,7 @@
       </c>
       <c r="K42" s="53">
         <f t="shared" si="5"/>
-        <v>-41210400</v>
+        <v>-42013200</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -28078,7 +28078,7 @@
       </c>
       <c r="G43" s="36">
         <f t="shared" si="1"/>
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="H43" s="36">
         <f t="shared" si="2"/>
@@ -28086,7 +28086,7 @@
       </c>
       <c r="I43" s="11">
         <f t="shared" si="3"/>
-        <v>-91600000</v>
+        <v>-93400000</v>
       </c>
       <c r="J43" s="53">
         <f t="shared" si="4"/>
@@ -28094,7 +28094,7 @@
       </c>
       <c r="K43" s="53">
         <f t="shared" si="5"/>
-        <v>-91600000</v>
+        <v>-93400000</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -28119,7 +28119,7 @@
       </c>
       <c r="G44" s="36">
         <f t="shared" si="1"/>
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H44" s="36">
         <f t="shared" si="2"/>
@@ -28127,7 +28127,7 @@
       </c>
       <c r="I44" s="11">
         <f t="shared" si="3"/>
-        <v>-91200000</v>
+        <v>-93000000</v>
       </c>
       <c r="J44" s="53">
         <f t="shared" si="4"/>
@@ -28135,7 +28135,7 @@
       </c>
       <c r="K44" s="53">
         <f t="shared" si="5"/>
-        <v>-91200000</v>
+        <v>-93000000</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -28160,7 +28160,7 @@
       </c>
       <c r="G45" s="36">
         <f t="shared" si="1"/>
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H45" s="36">
         <f t="shared" si="2"/>
@@ -28168,7 +28168,7 @@
       </c>
       <c r="I45" s="11">
         <f t="shared" si="3"/>
-        <v>-255360000</v>
+        <v>-260400000</v>
       </c>
       <c r="J45" s="53">
         <f t="shared" si="4"/>
@@ -28176,7 +28176,7 @@
       </c>
       <c r="K45" s="53">
         <f t="shared" si="5"/>
-        <v>-255360000</v>
+        <v>-260400000</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -28201,7 +28201,7 @@
       </c>
       <c r="G46" s="36">
         <f t="shared" si="1"/>
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="H46" s="36">
         <f t="shared" si="2"/>
@@ -28209,7 +28209,7 @@
       </c>
       <c r="I46" s="11">
         <f t="shared" si="3"/>
-        <v>-318886000</v>
+        <v>-325235500</v>
       </c>
       <c r="J46" s="53">
         <f t="shared" si="4"/>
@@ -28217,7 +28217,7 @@
       </c>
       <c r="K46" s="53">
         <f t="shared" si="5"/>
-        <v>-318886000</v>
+        <v>-325235500</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -28242,7 +28242,7 @@
       </c>
       <c r="G47" s="36">
         <f t="shared" si="1"/>
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="H47" s="36">
         <f t="shared" si="2"/>
@@ -28250,15 +28250,15 @@
       </c>
       <c r="I47" s="11">
         <f t="shared" si="3"/>
-        <v>18335780</v>
+        <v>18706616</v>
       </c>
       <c r="J47" s="53">
         <f t="shared" si="4"/>
-        <v>2987285</v>
+        <v>3047702</v>
       </c>
       <c r="K47" s="53">
         <f t="shared" si="5"/>
-        <v>15348495</v>
+        <v>15658914</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -28283,7 +28283,7 @@
       </c>
       <c r="G48" s="36">
         <f t="shared" si="1"/>
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="H48" s="36">
         <f t="shared" si="2"/>
@@ -28291,7 +28291,7 @@
       </c>
       <c r="I48" s="11">
         <f t="shared" si="3"/>
-        <v>758591500</v>
+        <v>773933800</v>
       </c>
       <c r="J48" s="53">
         <f t="shared" si="4"/>
@@ -28299,7 +28299,7 @@
       </c>
       <c r="K48" s="53">
         <f t="shared" si="5"/>
-        <v>758591500</v>
+        <v>773933800</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -28324,7 +28324,7 @@
       </c>
       <c r="G49" s="36">
         <f t="shared" si="1"/>
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="H49" s="36">
         <f t="shared" si="2"/>
@@ -28332,7 +28332,7 @@
       </c>
       <c r="I49" s="11">
         <f t="shared" si="3"/>
-        <v>-67735000</v>
+        <v>-69130000</v>
       </c>
       <c r="J49" s="53">
         <f t="shared" si="4"/>
@@ -28340,7 +28340,7 @@
       </c>
       <c r="K49" s="53">
         <f t="shared" si="5"/>
-        <v>-67735000</v>
+        <v>-69130000</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -28365,7 +28365,7 @@
       </c>
       <c r="G50" s="36">
         <f t="shared" si="1"/>
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="H50" s="36">
         <f t="shared" si="2"/>
@@ -28373,7 +28373,7 @@
       </c>
       <c r="I50" s="11">
         <f t="shared" si="3"/>
-        <v>-60306000</v>
+        <v>-61548000</v>
       </c>
       <c r="J50" s="53">
         <f t="shared" si="4"/>
@@ -28381,7 +28381,7 @@
       </c>
       <c r="K50" s="53">
         <f t="shared" si="5"/>
-        <v>-60306000</v>
+        <v>-61548000</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -28406,7 +28406,7 @@
       </c>
       <c r="G51" s="36">
         <f t="shared" si="1"/>
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="H51" s="36">
         <f t="shared" si="2"/>
@@ -28414,7 +28414,7 @@
       </c>
       <c r="I51" s="11">
         <f t="shared" si="3"/>
-        <v>-323380000</v>
+        <v>-330040000</v>
       </c>
       <c r="J51" s="53">
         <f t="shared" si="4"/>
@@ -28422,7 +28422,7 @@
       </c>
       <c r="K51" s="53">
         <f t="shared" si="5"/>
-        <v>-323380000</v>
+        <v>-330040000</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -28447,7 +28447,7 @@
       </c>
       <c r="G52" s="36">
         <f t="shared" si="1"/>
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="H52" s="36">
         <f t="shared" si="2"/>
@@ -28455,7 +28455,7 @@
       </c>
       <c r="I52" s="11">
         <f t="shared" si="3"/>
-        <v>-87400000</v>
+        <v>-89200000</v>
       </c>
       <c r="J52" s="53">
         <f t="shared" si="4"/>
@@ -28463,7 +28463,7 @@
       </c>
       <c r="K52" s="53">
         <f t="shared" si="5"/>
-        <v>-87400000</v>
+        <v>-89200000</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -28488,7 +28488,7 @@
       </c>
       <c r="G53" s="36">
         <f t="shared" si="1"/>
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="H53" s="36">
         <f t="shared" si="2"/>
@@ -28496,7 +28496,7 @@
       </c>
       <c r="I53" s="11">
         <f t="shared" si="3"/>
-        <v>-459980000</v>
+        <v>-469475000</v>
       </c>
       <c r="J53" s="53">
         <f t="shared" si="4"/>
@@ -28504,7 +28504,7 @@
       </c>
       <c r="K53" s="53">
         <f t="shared" si="5"/>
-        <v>-459980000</v>
+        <v>-469475000</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -28529,7 +28529,7 @@
       </c>
       <c r="G54" s="36">
         <f t="shared" si="1"/>
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="H54" s="36">
         <f t="shared" si="2"/>
@@ -28537,7 +28537,7 @@
       </c>
       <c r="I54" s="11">
         <f t="shared" si="3"/>
-        <v>-87200000</v>
+        <v>-89000000</v>
       </c>
       <c r="J54" s="53">
         <f t="shared" si="4"/>
@@ -28545,7 +28545,7 @@
       </c>
       <c r="K54" s="53">
         <f t="shared" si="5"/>
-        <v>-87200000</v>
+        <v>-89000000</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -28570,7 +28570,7 @@
       </c>
       <c r="G55" s="36">
         <f t="shared" si="1"/>
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="H55" s="36">
         <f t="shared" si="2"/>
@@ -28578,7 +28578,7 @@
       </c>
       <c r="I55" s="11">
         <f t="shared" si="3"/>
-        <v>-436218000</v>
+        <v>-445222500</v>
       </c>
       <c r="J55" s="53">
         <f t="shared" si="4"/>
@@ -28586,7 +28586,7 @@
       </c>
       <c r="K55" s="53">
         <f t="shared" si="5"/>
-        <v>-436218000</v>
+        <v>-445222500</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -28611,7 +28611,7 @@
       </c>
       <c r="G56" s="36">
         <f t="shared" si="1"/>
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="H56" s="36">
         <f t="shared" si="2"/>
@@ -28619,7 +28619,7 @@
       </c>
       <c r="I56" s="11">
         <f t="shared" si="3"/>
-        <v>-16568000</v>
+        <v>-16910000</v>
       </c>
       <c r="J56" s="53">
         <f t="shared" si="4"/>
@@ -28627,7 +28627,7 @@
       </c>
       <c r="K56" s="53">
         <f t="shared" si="5"/>
-        <v>-16568000</v>
+        <v>-16910000</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -28652,7 +28652,7 @@
       </c>
       <c r="G57" s="36">
         <f t="shared" si="1"/>
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="H57" s="36">
         <f t="shared" si="2"/>
@@ -28660,7 +28660,7 @@
       </c>
       <c r="I57" s="11">
         <f t="shared" si="3"/>
-        <v>-45780000</v>
+        <v>-46725000</v>
       </c>
       <c r="J57" s="53">
         <f t="shared" si="4"/>
@@ -28668,7 +28668,7 @@
       </c>
       <c r="K57" s="53">
         <f t="shared" si="5"/>
-        <v>-45780000</v>
+        <v>-46725000</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -28693,7 +28693,7 @@
       </c>
       <c r="G58" s="36">
         <f t="shared" si="1"/>
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="H58" s="36">
         <f t="shared" si="2"/>
@@ -28701,7 +28701,7 @@
       </c>
       <c r="I58" s="11">
         <f t="shared" si="3"/>
-        <v>-26160000</v>
+        <v>-26700000</v>
       </c>
       <c r="J58" s="53">
         <f t="shared" si="4"/>
@@ -28709,7 +28709,7 @@
       </c>
       <c r="K58" s="53">
         <f t="shared" si="5"/>
-        <v>-26160000</v>
+        <v>-26700000</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -28734,7 +28734,7 @@
       </c>
       <c r="G59" s="36">
         <f t="shared" si="1"/>
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="H59" s="36">
         <f t="shared" si="2"/>
@@ -28742,11 +28742,11 @@
       </c>
       <c r="I59" s="11">
         <f t="shared" si="3"/>
-        <v>432000000</v>
+        <v>441000000</v>
       </c>
       <c r="J59" s="53">
         <f t="shared" si="4"/>
-        <v>432000000</v>
+        <v>441000000</v>
       </c>
       <c r="K59" s="53">
         <f t="shared" si="5"/>
@@ -28775,7 +28775,7 @@
       </c>
       <c r="G60" s="36">
         <f t="shared" si="1"/>
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H60" s="36">
         <f t="shared" si="2"/>
@@ -28783,11 +28783,11 @@
       </c>
       <c r="I60" s="11">
         <f t="shared" si="3"/>
-        <v>1508500000</v>
+        <v>1540000000</v>
       </c>
       <c r="J60" s="53">
         <f t="shared" si="4"/>
-        <v>1508500000</v>
+        <v>1540000000</v>
       </c>
       <c r="K60" s="53">
         <f t="shared" si="5"/>
@@ -28816,7 +28816,7 @@
       </c>
       <c r="G61" s="36">
         <f t="shared" si="1"/>
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="H61" s="36">
         <f t="shared" si="2"/>
@@ -28824,11 +28824,11 @@
       </c>
       <c r="I61" s="11">
         <f t="shared" si="3"/>
-        <v>429000000</v>
+        <v>438000000</v>
       </c>
       <c r="J61" s="53">
         <f t="shared" si="4"/>
-        <v>429000000</v>
+        <v>438000000</v>
       </c>
       <c r="K61" s="53">
         <f t="shared" si="5"/>
@@ -28857,7 +28857,7 @@
       </c>
       <c r="G62" s="36">
         <f t="shared" si="1"/>
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="H62" s="36">
         <f t="shared" si="2"/>
@@ -28865,11 +28865,11 @@
       </c>
       <c r="I62" s="11">
         <f t="shared" si="3"/>
-        <v>1287000000</v>
+        <v>1314000000</v>
       </c>
       <c r="J62" s="53">
         <f t="shared" si="4"/>
-        <v>1287000000</v>
+        <v>1314000000</v>
       </c>
       <c r="K62" s="53">
         <f t="shared" si="5"/>
@@ -28898,7 +28898,7 @@
       </c>
       <c r="G63" s="36">
         <f t="shared" si="1"/>
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="H63" s="36">
         <f t="shared" si="2"/>
@@ -28906,7 +28906,7 @@
       </c>
       <c r="I63" s="11">
         <f t="shared" si="3"/>
-        <v>-85600000</v>
+        <v>-87400000</v>
       </c>
       <c r="J63" s="53">
         <f t="shared" si="4"/>
@@ -28914,7 +28914,7 @@
       </c>
       <c r="K63" s="53">
         <f t="shared" si="5"/>
-        <v>-85600000</v>
+        <v>-87400000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -28939,7 +28939,7 @@
       </c>
       <c r="G64" s="36">
         <f t="shared" si="1"/>
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H64" s="36">
         <f t="shared" si="2"/>
@@ -28947,7 +28947,7 @@
       </c>
       <c r="I64" s="11">
         <f t="shared" si="3"/>
-        <v>-21150000</v>
+        <v>-21600000</v>
       </c>
       <c r="J64" s="53">
         <f t="shared" si="4"/>
@@ -28955,7 +28955,7 @@
       </c>
       <c r="K64" s="53">
         <f t="shared" si="5"/>
-        <v>-21150000</v>
+        <v>-21600000</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -28980,7 +28980,7 @@
       </c>
       <c r="G65" s="36">
         <f t="shared" si="1"/>
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="H65" s="36">
         <f t="shared" si="2"/>
@@ -28988,7 +28988,7 @@
       </c>
       <c r="I65" s="11">
         <f t="shared" si="3"/>
-        <v>-83800000</v>
+        <v>-85600000</v>
       </c>
       <c r="J65" s="53">
         <f t="shared" si="4"/>
@@ -28996,7 +28996,7 @@
       </c>
       <c r="K65" s="53">
         <f t="shared" si="5"/>
-        <v>-83800000</v>
+        <v>-85600000</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -29021,7 +29021,7 @@
       </c>
       <c r="G66" s="36">
         <f t="shared" si="1"/>
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="H66" s="36">
         <f t="shared" si="2"/>
@@ -29029,7 +29029,7 @@
       </c>
       <c r="I66" s="11">
         <f t="shared" si="3"/>
-        <v>-70720000</v>
+        <v>-72250000</v>
       </c>
       <c r="J66" s="53">
         <f t="shared" si="4"/>
@@ -29037,7 +29037,7 @@
       </c>
       <c r="K66" s="53">
         <f t="shared" si="5"/>
-        <v>-70720000</v>
+        <v>-72250000</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -29062,7 +29062,7 @@
       </c>
       <c r="G67" s="36">
         <f t="shared" ref="G67:G143" si="7">G68+F67</f>
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="H67" s="36">
         <f t="shared" ref="H67:H131" si="8">IF(B67&gt;0,1,0)</f>
@@ -29070,15 +29070,15 @@
       </c>
       <c r="I67" s="11">
         <f t="shared" ref="I67:I119" si="9">B67*(G67-H67)</f>
-        <v>37808550</v>
+        <v>38630475</v>
       </c>
       <c r="J67" s="53">
         <f t="shared" ref="J67:J131" si="10">C67*(G67-H67)</f>
-        <v>27209322</v>
+        <v>27800829</v>
       </c>
       <c r="K67" s="53">
         <f t="shared" ref="K67:K131" si="11">D67*(G67-H67)</f>
-        <v>10599228</v>
+        <v>10829646</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -29103,7 +29103,7 @@
       </c>
       <c r="G68" s="36">
         <f t="shared" si="7"/>
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="H68" s="36">
         <f t="shared" si="8"/>
@@ -29111,7 +29111,7 @@
       </c>
       <c r="I68" s="11">
         <f t="shared" si="9"/>
-        <v>-57565000</v>
+        <v>-58870000</v>
       </c>
       <c r="J68" s="53">
         <f t="shared" si="10"/>
@@ -29119,7 +29119,7 @@
       </c>
       <c r="K68" s="53">
         <f t="shared" si="11"/>
-        <v>-57565000</v>
+        <v>-58870000</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -29144,7 +29144,7 @@
       </c>
       <c r="G69" s="36">
         <f t="shared" si="7"/>
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="H69" s="36">
         <f t="shared" si="8"/>
@@ -29152,7 +29152,7 @@
       </c>
       <c r="I69" s="11">
         <f t="shared" si="9"/>
-        <v>381220000</v>
+        <v>390040000</v>
       </c>
       <c r="J69" s="53">
         <f t="shared" si="10"/>
@@ -29160,7 +29160,7 @@
       </c>
       <c r="K69" s="53">
         <f t="shared" si="11"/>
-        <v>381220000</v>
+        <v>390040000</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -29185,7 +29185,7 @@
       </c>
       <c r="G70" s="36">
         <f t="shared" si="7"/>
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H70" s="36">
         <f t="shared" si="8"/>
@@ -29193,7 +29193,7 @@
       </c>
       <c r="I70" s="11">
         <f t="shared" si="9"/>
-        <v>-17802000</v>
+        <v>-18216000</v>
       </c>
       <c r="J70" s="53">
         <f t="shared" si="10"/>
@@ -29201,7 +29201,7 @@
       </c>
       <c r="K70" s="53">
         <f t="shared" si="11"/>
-        <v>-17802000</v>
+        <v>-18216000</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -29226,7 +29226,7 @@
       </c>
       <c r="G71" s="36">
         <f t="shared" si="7"/>
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="H71" s="36">
         <f t="shared" si="8"/>
@@ -29234,15 +29234,15 @@
       </c>
       <c r="I71" s="11">
         <f t="shared" si="9"/>
-        <v>44289792</v>
+        <v>45327834</v>
       </c>
       <c r="J71" s="53">
         <f t="shared" si="10"/>
-        <v>39863808</v>
+        <v>40798116</v>
       </c>
       <c r="K71" s="53">
         <f t="shared" si="11"/>
-        <v>4425984</v>
+        <v>4529718</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -29267,7 +29267,7 @@
       </c>
       <c r="G72" s="36">
         <f t="shared" si="7"/>
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="H72" s="36">
         <f t="shared" si="8"/>
@@ -29275,7 +29275,7 @@
       </c>
       <c r="I72" s="11">
         <f t="shared" si="9"/>
-        <v>-58356096</v>
+        <v>-59723817</v>
       </c>
       <c r="J72" s="53">
         <f t="shared" si="10"/>
@@ -29283,7 +29283,7 @@
       </c>
       <c r="K72" s="53">
         <f t="shared" si="11"/>
-        <v>-58356096</v>
+        <v>-59723817</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -29308,7 +29308,7 @@
       </c>
       <c r="G73" s="36">
         <f t="shared" si="7"/>
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="H73" s="36">
         <f t="shared" si="8"/>
@@ -29316,7 +29316,7 @@
       </c>
       <c r="I73" s="11">
         <f t="shared" si="9"/>
-        <v>-308506500</v>
+        <v>-315756000</v>
       </c>
       <c r="J73" s="53">
         <f t="shared" si="10"/>
@@ -29324,7 +29324,7 @@
       </c>
       <c r="K73" s="53">
         <f t="shared" si="11"/>
-        <v>-308506500</v>
+        <v>-315756000</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -29349,7 +29349,7 @@
       </c>
       <c r="G74" s="36">
         <f t="shared" si="7"/>
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="H74" s="36">
         <f t="shared" si="8"/>
@@ -29357,7 +29357,7 @@
       </c>
       <c r="I74" s="11">
         <f t="shared" si="9"/>
-        <v>2623125000</v>
+        <v>2686080000</v>
       </c>
       <c r="J74" s="53">
         <f t="shared" si="10"/>
@@ -29365,7 +29365,7 @@
       </c>
       <c r="K74" s="53">
         <f t="shared" si="11"/>
-        <v>2623125000</v>
+        <v>2686080000</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -29390,7 +29390,7 @@
       </c>
       <c r="G75" s="36">
         <f t="shared" si="7"/>
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="H75" s="36">
         <f t="shared" si="8"/>
@@ -29398,7 +29398,7 @@
       </c>
       <c r="I75" s="11">
         <f t="shared" si="9"/>
-        <v>1122000000</v>
+        <v>1149000000</v>
       </c>
       <c r="J75" s="53">
         <f t="shared" si="10"/>
@@ -29406,7 +29406,7 @@
       </c>
       <c r="K75" s="53">
         <f t="shared" si="11"/>
-        <v>1122000000</v>
+        <v>1149000000</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -29431,7 +29431,7 @@
       </c>
       <c r="G76" s="36">
         <f t="shared" si="7"/>
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="H76" s="36">
         <f t="shared" si="8"/>
@@ -29439,7 +29439,7 @@
       </c>
       <c r="I76" s="11">
         <f t="shared" si="9"/>
-        <v>1116000000</v>
+        <v>1143000000</v>
       </c>
       <c r="J76" s="53">
         <f t="shared" si="10"/>
@@ -29447,7 +29447,7 @@
       </c>
       <c r="K76" s="53">
         <f t="shared" si="11"/>
-        <v>1116000000</v>
+        <v>1143000000</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -29472,7 +29472,7 @@
       </c>
       <c r="G77" s="36">
         <f t="shared" si="7"/>
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="H77" s="36">
         <f t="shared" si="8"/>
@@ -29480,7 +29480,7 @@
       </c>
       <c r="I77" s="11">
         <f t="shared" si="9"/>
-        <v>1113000000</v>
+        <v>1140000000</v>
       </c>
       <c r="J77" s="53">
         <f t="shared" si="10"/>
@@ -29488,7 +29488,7 @@
       </c>
       <c r="K77" s="53">
         <f t="shared" si="11"/>
-        <v>1113000000</v>
+        <v>1140000000</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -29513,7 +29513,7 @@
       </c>
       <c r="G78" s="36">
         <f t="shared" si="7"/>
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="H78" s="36">
         <f t="shared" si="8"/>
@@ -29521,11 +29521,11 @@
       </c>
       <c r="I78" s="11">
         <f t="shared" si="9"/>
-        <v>-1187200000</v>
+        <v>-1216000000</v>
       </c>
       <c r="J78" s="53">
         <f t="shared" si="10"/>
-        <v>-1187200000</v>
+        <v>-1216000000</v>
       </c>
       <c r="K78" s="53">
         <f t="shared" si="11"/>
@@ -29554,7 +29554,7 @@
       </c>
       <c r="G79" s="36">
         <f t="shared" si="7"/>
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="H79" s="36">
         <f t="shared" si="8"/>
@@ -29562,11 +29562,11 @@
       </c>
       <c r="I79" s="11">
         <f t="shared" si="9"/>
-        <v>-296000000</v>
+        <v>-303200000</v>
       </c>
       <c r="J79" s="53">
         <f t="shared" si="10"/>
-        <v>-296000000</v>
+        <v>-303200000</v>
       </c>
       <c r="K79" s="53">
         <f t="shared" si="11"/>
@@ -29595,7 +29595,7 @@
       </c>
       <c r="G80" s="36">
         <f t="shared" si="7"/>
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="H80" s="36">
         <f t="shared" si="8"/>
@@ -29603,7 +29603,7 @@
       </c>
       <c r="I80" s="11">
         <f t="shared" si="9"/>
-        <v>-17857017</v>
+        <v>-18292554</v>
       </c>
       <c r="J80" s="53">
         <f t="shared" si="10"/>
@@ -29611,7 +29611,7 @@
       </c>
       <c r="K80" s="53">
         <f t="shared" si="11"/>
-        <v>-17857017</v>
+        <v>-18292554</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -29636,7 +29636,7 @@
       </c>
       <c r="G81" s="36">
         <f t="shared" si="7"/>
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H81" s="36">
         <f t="shared" si="8"/>
@@ -29644,7 +29644,7 @@
       </c>
       <c r="I81" s="11">
         <f t="shared" si="9"/>
-        <v>-51520000</v>
+        <v>-52780000</v>
       </c>
       <c r="J81" s="53">
         <f t="shared" si="10"/>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="K81" s="53">
         <f t="shared" si="11"/>
-        <v>-51520000</v>
+        <v>-52780000</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -29677,7 +29677,7 @@
       </c>
       <c r="G82" s="36">
         <f t="shared" si="7"/>
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H82" s="36">
         <f t="shared" si="8"/>
@@ -29685,7 +29685,7 @@
       </c>
       <c r="I82" s="11">
         <f t="shared" si="9"/>
-        <v>-91750000</v>
+        <v>-94000000</v>
       </c>
       <c r="J82" s="53">
         <f t="shared" si="10"/>
@@ -29693,7 +29693,7 @@
       </c>
       <c r="K82" s="53">
         <f t="shared" si="11"/>
-        <v>-91750000</v>
+        <v>-94000000</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -29718,7 +29718,7 @@
       </c>
       <c r="G83" s="36">
         <f t="shared" si="7"/>
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="H83" s="36">
         <f t="shared" si="8"/>
@@ -29726,7 +29726,7 @@
       </c>
       <c r="I83" s="11">
         <f t="shared" si="9"/>
-        <v>-73200000</v>
+        <v>-75000000</v>
       </c>
       <c r="J83" s="53">
         <f t="shared" si="10"/>
@@ -29734,7 +29734,7 @@
       </c>
       <c r="K83" s="53">
         <f t="shared" si="11"/>
-        <v>-73200000</v>
+        <v>-75000000</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -29759,7 +29759,7 @@
       </c>
       <c r="G84" s="36">
         <f t="shared" si="7"/>
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="H84" s="36">
         <f t="shared" si="8"/>
@@ -29767,7 +29767,7 @@
       </c>
       <c r="I84" s="11">
         <f t="shared" si="9"/>
-        <v>591942400</v>
+        <v>606659200</v>
       </c>
       <c r="J84" s="53">
         <f t="shared" si="10"/>
@@ -29775,7 +29775,7 @@
       </c>
       <c r="K84" s="53">
         <f t="shared" si="11"/>
-        <v>591942400</v>
+        <v>606659200</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -29789,7 +29789,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="3">
-        <f t="shared" ref="D85:D136" si="12">B85-C85</f>
+        <f t="shared" ref="D85:D137" si="12">B85-C85</f>
         <v>2500000</v>
       </c>
       <c r="E85" s="20" t="s">
@@ -29800,7 +29800,7 @@
       </c>
       <c r="G85" s="36">
         <f t="shared" si="7"/>
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H85" s="36">
         <f t="shared" si="8"/>
@@ -29808,7 +29808,7 @@
       </c>
       <c r="I85" s="11">
         <f t="shared" si="9"/>
-        <v>895000000</v>
+        <v>917500000</v>
       </c>
       <c r="J85" s="53">
         <f t="shared" si="10"/>
@@ -29816,7 +29816,7 @@
       </c>
       <c r="K85" s="53">
         <f t="shared" si="11"/>
-        <v>895000000</v>
+        <v>917500000</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -29841,7 +29841,7 @@
       </c>
       <c r="G86" s="36">
         <f t="shared" si="7"/>
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="H86" s="36">
         <f t="shared" si="8"/>
@@ -29849,15 +29849,15 @@
       </c>
       <c r="I86" s="11">
         <f t="shared" si="9"/>
-        <v>65950200</v>
+        <v>67626900</v>
       </c>
       <c r="J86" s="53">
         <f t="shared" si="10"/>
-        <v>30072300</v>
+        <v>30836850</v>
       </c>
       <c r="K86" s="53">
         <f t="shared" si="11"/>
-        <v>35877900</v>
+        <v>36790050</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -29882,7 +29882,7 @@
       </c>
       <c r="G87" s="36">
         <f t="shared" si="7"/>
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="H87" s="36">
         <f t="shared" si="8"/>
@@ -29890,7 +29890,7 @@
       </c>
       <c r="I87" s="11">
         <f t="shared" si="9"/>
-        <v>-70400000</v>
+        <v>-72200000</v>
       </c>
       <c r="J87" s="53">
         <f t="shared" si="10"/>
@@ -29898,7 +29898,7 @@
       </c>
       <c r="K87" s="53">
         <f t="shared" si="11"/>
-        <v>-70400000</v>
+        <v>-72200000</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -29923,7 +29923,7 @@
       </c>
       <c r="G88" s="36">
         <f t="shared" si="7"/>
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="H88" s="36">
         <f t="shared" si="8"/>
@@ -29931,15 +29931,15 @@
       </c>
       <c r="I88" s="11">
         <f t="shared" si="9"/>
-        <v>-41418000</v>
+        <v>-42480000</v>
       </c>
       <c r="J88" s="53">
         <f t="shared" si="10"/>
-        <v>-24219000</v>
+        <v>-24840000</v>
       </c>
       <c r="K88" s="53">
         <f t="shared" si="11"/>
-        <v>-17199000</v>
+        <v>-17640000</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -29964,7 +29964,7 @@
       </c>
       <c r="G89" s="36">
         <f t="shared" si="7"/>
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H89" s="36">
         <f t="shared" si="8"/>
@@ -29972,7 +29972,7 @@
       </c>
       <c r="I89" s="11">
         <f t="shared" si="9"/>
-        <v>-1097908700</v>
+        <v>-1126716800</v>
       </c>
       <c r="J89" s="53">
         <f t="shared" si="10"/>
@@ -29980,7 +29980,7 @@
       </c>
       <c r="K89" s="53">
         <f t="shared" si="11"/>
-        <v>-1097908700</v>
+        <v>-1126716800</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -30005,7 +30005,7 @@
       </c>
       <c r="G90" s="36">
         <f t="shared" si="7"/>
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H90" s="36">
         <f t="shared" si="8"/>
@@ -30013,7 +30013,7 @@
       </c>
       <c r="I90" s="11">
         <f t="shared" si="9"/>
-        <v>-1094707800</v>
+        <v>-1123515900</v>
       </c>
       <c r="J90" s="53">
         <f t="shared" si="10"/>
@@ -30021,7 +30021,7 @@
       </c>
       <c r="K90" s="53">
         <f t="shared" si="11"/>
-        <v>-1094707800</v>
+        <v>-1123515900</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -30046,7 +30046,7 @@
       </c>
       <c r="G91" s="36">
         <f t="shared" si="7"/>
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="H91" s="36">
         <f t="shared" si="8"/>
@@ -30054,7 +30054,7 @@
       </c>
       <c r="I91" s="11">
         <f t="shared" si="9"/>
-        <v>-1091506900</v>
+        <v>-1120315000</v>
       </c>
       <c r="J91" s="53">
         <f t="shared" si="10"/>
@@ -30062,7 +30062,7 @@
       </c>
       <c r="K91" s="53">
         <f t="shared" si="11"/>
-        <v>-1091506900</v>
+        <v>-1120315000</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -30087,7 +30087,7 @@
       </c>
       <c r="G92" s="36">
         <f t="shared" si="7"/>
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H92" s="36">
         <f t="shared" si="8"/>
@@ -30095,7 +30095,7 @@
       </c>
       <c r="I92" s="11">
         <f t="shared" si="9"/>
-        <v>-1088306000</v>
+        <v>-1117114100</v>
       </c>
       <c r="J92" s="53">
         <f t="shared" si="10"/>
@@ -30103,7 +30103,7 @@
       </c>
       <c r="K92" s="53">
         <f t="shared" si="11"/>
-        <v>-1088306000</v>
+        <v>-1117114100</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -30128,7 +30128,7 @@
       </c>
       <c r="G93" s="36">
         <f t="shared" si="7"/>
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H93" s="36">
         <f t="shared" si="8"/>
@@ -30136,7 +30136,7 @@
       </c>
       <c r="I93" s="11">
         <f t="shared" si="9"/>
-        <v>-1085105100</v>
+        <v>-1113913200</v>
       </c>
       <c r="J93" s="53">
         <f t="shared" si="10"/>
@@ -30144,7 +30144,7 @@
       </c>
       <c r="K93" s="53">
         <f t="shared" si="11"/>
-        <v>-1085105100</v>
+        <v>-1113913200</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -30169,7 +30169,7 @@
       </c>
       <c r="G94" s="36">
         <f t="shared" si="7"/>
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="H94" s="36">
         <f t="shared" si="8"/>
@@ -30177,7 +30177,7 @@
       </c>
       <c r="I94" s="11">
         <f t="shared" si="9"/>
-        <v>-1081904200</v>
+        <v>-1110712300</v>
       </c>
       <c r="J94" s="53">
         <f t="shared" si="10"/>
@@ -30185,7 +30185,7 @@
       </c>
       <c r="K94" s="53">
         <f t="shared" si="11"/>
-        <v>-1081904200</v>
+        <v>-1110712300</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -30210,7 +30210,7 @@
       </c>
       <c r="G95" s="36">
         <f t="shared" si="7"/>
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="H95" s="36">
         <f t="shared" si="8"/>
@@ -30218,7 +30218,7 @@
       </c>
       <c r="I95" s="11">
         <f t="shared" si="9"/>
-        <v>-402056256</v>
+        <v>-412825620</v>
       </c>
       <c r="J95" s="53">
         <f t="shared" si="10"/>
@@ -30226,7 +30226,7 @@
       </c>
       <c r="K95" s="53">
         <f t="shared" si="11"/>
-        <v>-402056256</v>
+        <v>-412825620</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -30251,7 +30251,7 @@
       </c>
       <c r="G96" s="36">
         <f t="shared" si="7"/>
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H96" s="36">
         <f t="shared" si="8"/>
@@ -30259,7 +30259,7 @@
       </c>
       <c r="I96" s="11">
         <f t="shared" si="9"/>
-        <v>-65200000</v>
+        <v>-67000000</v>
       </c>
       <c r="J96" s="53">
         <f t="shared" si="10"/>
@@ -30267,7 +30267,7 @@
       </c>
       <c r="K96" s="53">
         <f t="shared" si="11"/>
-        <v>-65200000</v>
+        <v>-67000000</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -30292,7 +30292,7 @@
       </c>
       <c r="G97" s="36">
         <f t="shared" si="7"/>
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H97" s="36">
         <f t="shared" si="8"/>
@@ -30300,15 +30300,15 @@
       </c>
       <c r="I97" s="11">
         <f t="shared" si="9"/>
-        <v>51696792</v>
+        <v>53132814</v>
       </c>
       <c r="J97" s="53">
         <f t="shared" si="10"/>
-        <v>22332024</v>
+        <v>22952358</v>
       </c>
       <c r="K97" s="53">
         <f t="shared" si="11"/>
-        <v>29364768</v>
+        <v>30180456</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -30333,7 +30333,7 @@
       </c>
       <c r="G98" s="36">
         <f t="shared" si="7"/>
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="H98" s="36">
         <f t="shared" si="8"/>
@@ -30341,7 +30341,7 @@
       </c>
       <c r="I98" s="11">
         <f t="shared" si="9"/>
-        <v>36483392</v>
+        <v>37512704</v>
       </c>
       <c r="J98" s="53">
         <f t="shared" si="10"/>
@@ -30349,7 +30349,7 @@
       </c>
       <c r="K98" s="53">
         <f t="shared" si="11"/>
-        <v>36483392</v>
+        <v>37512704</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -30374,7 +30374,7 @@
       </c>
       <c r="G99" s="36">
         <f t="shared" si="7"/>
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="H99" s="36">
         <f t="shared" si="8"/>
@@ -30382,7 +30382,7 @@
       </c>
       <c r="I99" s="11">
         <f t="shared" si="9"/>
-        <v>-420025000</v>
+        <v>-431950000</v>
       </c>
       <c r="J99" s="53">
         <f t="shared" si="10"/>
@@ -30390,7 +30390,7 @@
       </c>
       <c r="K99" s="53">
         <f t="shared" si="11"/>
-        <v>-420025000</v>
+        <v>-431950000</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -30415,7 +30415,7 @@
       </c>
       <c r="G100" s="36">
         <f t="shared" si="7"/>
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="H100" s="36">
         <f t="shared" si="8"/>
@@ -30423,7 +30423,7 @@
       </c>
       <c r="I100" s="11">
         <f t="shared" si="9"/>
-        <v>412075000</v>
+        <v>424000000</v>
       </c>
       <c r="J100" s="53">
         <f t="shared" si="10"/>
@@ -30431,7 +30431,7 @@
       </c>
       <c r="K100" s="53">
         <f t="shared" si="11"/>
-        <v>412075000</v>
+        <v>424000000</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -30456,7 +30456,7 @@
       </c>
       <c r="G101" s="36">
         <f t="shared" si="7"/>
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="H101" s="36">
         <f t="shared" si="8"/>
@@ -30464,11 +30464,11 @@
       </c>
       <c r="I101" s="11">
         <f t="shared" si="9"/>
-        <v>19652430</v>
+        <v>20254035</v>
       </c>
       <c r="J101" s="53">
         <f t="shared" si="10"/>
-        <v>19652430</v>
+        <v>20254035</v>
       </c>
       <c r="K101" s="53">
         <f t="shared" si="11"/>
@@ -30497,7 +30497,7 @@
       </c>
       <c r="G102" s="36">
         <f t="shared" si="7"/>
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="H102" s="36">
         <f t="shared" si="8"/>
@@ -30505,7 +30505,7 @@
       </c>
       <c r="I102" s="11">
         <f t="shared" si="9"/>
-        <v>873000000</v>
+        <v>900000000</v>
       </c>
       <c r="J102" s="53">
         <f t="shared" si="10"/>
@@ -30513,7 +30513,7 @@
       </c>
       <c r="K102" s="53">
         <f t="shared" si="11"/>
-        <v>873000000</v>
+        <v>900000000</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -30538,7 +30538,7 @@
       </c>
       <c r="G103" s="36">
         <f t="shared" si="7"/>
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="H103" s="36">
         <f t="shared" si="8"/>
@@ -30546,11 +30546,11 @@
       </c>
       <c r="I103" s="11">
         <f t="shared" si="9"/>
-        <v>-285000000</v>
+        <v>-294000000</v>
       </c>
       <c r="J103" s="53">
         <f t="shared" si="10"/>
-        <v>-285000000</v>
+        <v>-294000000</v>
       </c>
       <c r="K103" s="53">
         <f t="shared" si="11"/>
@@ -30579,7 +30579,7 @@
       </c>
       <c r="G104" s="36">
         <f t="shared" si="7"/>
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="H104" s="36">
         <f t="shared" si="8"/>
@@ -30587,11 +30587,11 @@
       </c>
       <c r="I104" s="11">
         <f t="shared" si="9"/>
-        <v>822000000</v>
+        <v>849000000</v>
       </c>
       <c r="J104" s="53">
         <f t="shared" si="10"/>
-        <v>822000000</v>
+        <v>849000000</v>
       </c>
       <c r="K104" s="53">
         <f t="shared" si="11"/>
@@ -30620,7 +30620,7 @@
       </c>
       <c r="G105" s="36">
         <f t="shared" si="7"/>
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H105" s="36">
         <f t="shared" si="8"/>
@@ -30628,11 +30628,11 @@
       </c>
       <c r="I105" s="11">
         <f t="shared" si="9"/>
-        <v>305760000</v>
+        <v>315840000</v>
       </c>
       <c r="J105" s="53">
         <f t="shared" si="10"/>
-        <v>305760000</v>
+        <v>315840000</v>
       </c>
       <c r="K105" s="53">
         <f t="shared" si="11"/>
@@ -30661,7 +30661,7 @@
       </c>
       <c r="G106" s="36">
         <f t="shared" si="7"/>
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H106" s="36">
         <f t="shared" si="8"/>
@@ -30669,7 +30669,7 @@
       </c>
       <c r="I106" s="11">
         <f t="shared" si="9"/>
-        <v>-822000000</v>
+        <v>-849000000</v>
       </c>
       <c r="J106" s="53">
         <f t="shared" si="10"/>
@@ -30677,7 +30677,7 @@
       </c>
       <c r="K106" s="53">
         <f t="shared" si="11"/>
-        <v>-822000000</v>
+        <v>-849000000</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -30702,7 +30702,7 @@
       </c>
       <c r="G107" s="36">
         <f t="shared" si="7"/>
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H107" s="36">
         <f t="shared" si="8"/>
@@ -30710,15 +30710,15 @@
       </c>
       <c r="I107" s="11">
         <f t="shared" si="9"/>
-        <v>23890416</v>
+        <v>24704862</v>
       </c>
       <c r="J107" s="53">
         <f t="shared" si="10"/>
-        <v>19830360</v>
+        <v>20506395</v>
       </c>
       <c r="K107" s="53">
         <f t="shared" si="11"/>
-        <v>4060056</v>
+        <v>4198467</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -30743,7 +30743,7 @@
       </c>
       <c r="G108" s="36">
         <f t="shared" si="7"/>
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H108" s="36">
         <f t="shared" si="8"/>
@@ -30751,7 +30751,7 @@
       </c>
       <c r="I108" s="11">
         <f t="shared" si="9"/>
-        <v>-447284100</v>
+        <v>-462590400</v>
       </c>
       <c r="J108" s="53">
         <f t="shared" si="10"/>
@@ -30759,7 +30759,7 @@
       </c>
       <c r="K108" s="53">
         <f t="shared" si="11"/>
-        <v>-447284100</v>
+        <v>-462590400</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -30784,7 +30784,7 @@
       </c>
       <c r="G109" s="36">
         <f t="shared" si="7"/>
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="H109" s="36">
         <f t="shared" si="8"/>
@@ -30792,7 +30792,7 @@
       </c>
       <c r="I109" s="11">
         <f t="shared" si="9"/>
-        <v>-259129500</v>
+        <v>-268134000</v>
       </c>
       <c r="J109" s="53">
         <f t="shared" si="10"/>
@@ -30800,7 +30800,7 @@
       </c>
       <c r="K109" s="53">
         <f t="shared" si="11"/>
-        <v>-259129500</v>
+        <v>-268134000</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -30825,7 +30825,7 @@
       </c>
       <c r="G110" s="36">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H110" s="36">
         <f t="shared" si="8"/>
@@ -30833,7 +30833,7 @@
       </c>
       <c r="I110" s="11">
         <f t="shared" si="9"/>
-        <v>5100000000</v>
+        <v>5280000000</v>
       </c>
       <c r="J110" s="53">
         <f t="shared" si="10"/>
@@ -30841,7 +30841,7 @@
       </c>
       <c r="K110" s="53">
         <f t="shared" si="11"/>
-        <v>5100000000</v>
+        <v>5280000000</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -30866,7 +30866,7 @@
       </c>
       <c r="G111" s="36">
         <f t="shared" si="7"/>
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H111" s="36">
         <f t="shared" si="8"/>
@@ -30874,15 +30874,15 @@
       </c>
       <c r="I111" s="11">
         <f t="shared" si="9"/>
-        <v>41049330</v>
+        <v>42621432</v>
       </c>
       <c r="J111" s="53">
         <f t="shared" si="10"/>
-        <v>20530305</v>
+        <v>21316572</v>
       </c>
       <c r="K111" s="53">
         <f t="shared" si="11"/>
-        <v>20519025</v>
+        <v>21304860</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -30907,7 +30907,7 @@
       </c>
       <c r="G112" s="36">
         <f t="shared" si="7"/>
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="H112" s="36">
         <f t="shared" si="8"/>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="I112" s="11">
         <f t="shared" si="9"/>
-        <v>-6248000000</v>
+        <v>-6503600000</v>
       </c>
       <c r="J112" s="53">
         <f t="shared" si="10"/>
@@ -30923,7 +30923,7 @@
       </c>
       <c r="K112" s="53">
         <f t="shared" si="11"/>
-        <v>-6248000000</v>
+        <v>-6503600000</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -30948,7 +30948,7 @@
       </c>
       <c r="G113" s="36">
         <f t="shared" si="7"/>
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="H113" s="36">
         <f t="shared" si="8"/>
@@ -30956,15 +30956,15 @@
       </c>
       <c r="I113" s="11">
         <f t="shared" si="9"/>
-        <v>33260160</v>
+        <v>34727520</v>
       </c>
       <c r="J113" s="53">
         <f t="shared" si="10"/>
-        <v>24992244</v>
+        <v>26094843</v>
       </c>
       <c r="K113" s="53">
         <f t="shared" si="11"/>
-        <v>8267916</v>
+        <v>8632677</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -30989,7 +30989,7 @@
       </c>
       <c r="G114" s="36">
         <f t="shared" si="7"/>
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="H114" s="36">
         <f t="shared" si="8"/>
@@ -30997,15 +30997,15 @@
       </c>
       <c r="I114" s="11">
         <f t="shared" si="9"/>
-        <v>-1168500</v>
+        <v>-1219800</v>
       </c>
       <c r="J114" s="53">
         <f t="shared" si="10"/>
-        <v>-512500</v>
+        <v>-535000</v>
       </c>
       <c r="K114" s="53">
         <f t="shared" si="11"/>
-        <v>-656000</v>
+        <v>-684800</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -31030,7 +31030,7 @@
       </c>
       <c r="G115" s="36">
         <f t="shared" si="7"/>
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H115" s="36">
         <f t="shared" si="8"/>
@@ -31042,11 +31042,11 @@
       </c>
       <c r="J115" s="53">
         <f t="shared" si="10"/>
-        <v>96000000</v>
+        <v>100500000</v>
       </c>
       <c r="K115" s="53">
         <f t="shared" si="11"/>
-        <v>-96000000</v>
+        <v>-100500000</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -31071,7 +31071,7 @@
       </c>
       <c r="G116" s="36">
         <f t="shared" si="7"/>
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="H116" s="36">
         <f t="shared" si="8"/>
@@ -31079,7 +31079,7 @@
       </c>
       <c r="I116" s="11">
         <f t="shared" si="9"/>
-        <v>-29440000</v>
+        <v>-30880000</v>
       </c>
       <c r="J116" s="53">
         <f t="shared" si="10"/>
@@ -31087,7 +31087,7 @@
       </c>
       <c r="K116" s="53">
         <f t="shared" si="11"/>
-        <v>-29440000</v>
+        <v>-30880000</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -31112,7 +31112,7 @@
       </c>
       <c r="G117" s="36">
         <f t="shared" si="7"/>
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="H117" s="36">
         <f t="shared" si="8"/>
@@ -31120,15 +31120,15 @@
       </c>
       <c r="I117" s="11">
         <f t="shared" si="9"/>
-        <v>257520</v>
+        <v>270840</v>
       </c>
       <c r="J117" s="53">
         <f t="shared" si="10"/>
-        <v>18607734</v>
+        <v>19570203</v>
       </c>
       <c r="K117" s="53">
         <f t="shared" si="11"/>
-        <v>-18350214</v>
+        <v>-19299363</v>
       </c>
       <c r="N117" s="3"/>
     </row>
@@ -31154,7 +31154,7 @@
       </c>
       <c r="G118" s="36">
         <f t="shared" si="7"/>
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="H118" s="36">
         <f t="shared" si="8"/>
@@ -31162,7 +31162,7 @@
       </c>
       <c r="I118" s="11">
         <f t="shared" si="9"/>
-        <v>5988724000</v>
+        <v>6343319500</v>
       </c>
       <c r="J118" s="53">
         <f t="shared" si="10"/>
@@ -31170,7 +31170,7 @@
       </c>
       <c r="K118" s="53">
         <f t="shared" si="11"/>
-        <v>5988724000</v>
+        <v>6343319500</v>
       </c>
       <c r="O118" s="7"/>
     </row>
@@ -31196,7 +31196,7 @@
       </c>
       <c r="G119" s="36">
         <f t="shared" si="7"/>
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="H119" s="36">
         <f t="shared" si="8"/>
@@ -31204,15 +31204,15 @@
       </c>
       <c r="I119" s="11">
         <f t="shared" si="9"/>
-        <v>13659503</v>
+        <v>14519192</v>
       </c>
       <c r="J119" s="53">
         <f t="shared" si="10"/>
-        <v>15737722</v>
+        <v>16728208</v>
       </c>
       <c r="K119" s="53">
         <f t="shared" si="11"/>
-        <v>-2078219</v>
+        <v>-2209016</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -31237,7 +31237,7 @@
       </c>
       <c r="G120" s="36">
         <f t="shared" si="7"/>
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H120" s="11">
         <f t="shared" si="8"/>
@@ -31245,7 +31245,7 @@
       </c>
       <c r="I120" s="11">
         <f t="shared" ref="I120:I143" si="13">B120*(G120-H120)</f>
-        <v>278000000</v>
+        <v>296000000</v>
       </c>
       <c r="J120" s="11">
         <f t="shared" si="10"/>
@@ -31253,7 +31253,7 @@
       </c>
       <c r="K120" s="11">
         <f t="shared" si="11"/>
-        <v>278000000</v>
+        <v>296000000</v>
       </c>
       <c r="N120" s="7"/>
     </row>
@@ -31279,7 +31279,7 @@
       </c>
       <c r="G121" s="36">
         <f t="shared" si="7"/>
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H121" s="11">
         <f t="shared" si="8"/>
@@ -31287,7 +31287,7 @@
       </c>
       <c r="I121" s="11">
         <f t="shared" si="13"/>
-        <v>293800000</v>
+        <v>317200000</v>
       </c>
       <c r="J121" s="11">
         <f t="shared" si="10"/>
@@ -31295,7 +31295,7 @@
       </c>
       <c r="K121" s="11">
         <f t="shared" si="11"/>
-        <v>293800000</v>
+        <v>317200000</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
@@ -31320,7 +31320,7 @@
       </c>
       <c r="G122" s="36">
         <f t="shared" si="7"/>
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H122" s="11">
         <f t="shared" si="8"/>
@@ -31328,15 +31328,15 @@
       </c>
       <c r="I122" s="11">
         <f t="shared" si="13"/>
-        <v>43069712</v>
+        <v>46530671</v>
       </c>
       <c r="J122" s="11">
         <f t="shared" si="10"/>
-        <v>12421696</v>
+        <v>13419868</v>
       </c>
       <c r="K122" s="11">
         <f t="shared" si="11"/>
-        <v>30648016</v>
+        <v>33110803</v>
       </c>
       <c r="N122" t="s">
         <v>25</v>
@@ -31364,7 +31364,7 @@
       </c>
       <c r="G123" s="36">
         <f t="shared" si="7"/>
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H123" s="11">
         <f t="shared" si="8"/>
@@ -31376,11 +31376,11 @@
       </c>
       <c r="J123" s="11">
         <f t="shared" si="10"/>
-        <v>89600000</v>
+        <v>96800000</v>
       </c>
       <c r="K123" s="11">
         <f t="shared" si="11"/>
-        <v>-89600000</v>
+        <v>-96800000</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
@@ -31405,7 +31405,7 @@
       </c>
       <c r="G124" s="36">
         <f t="shared" si="7"/>
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H124" s="11">
         <f t="shared" si="8"/>
@@ -31413,7 +31413,7 @@
       </c>
       <c r="I124" s="11">
         <f t="shared" si="13"/>
-        <v>-294000000</v>
+        <v>-321000000</v>
       </c>
       <c r="J124" s="11">
         <f t="shared" si="10"/>
@@ -31421,7 +31421,7 @@
       </c>
       <c r="K124" s="11">
         <f t="shared" si="11"/>
-        <v>-294000000</v>
+        <v>-321000000</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -31446,7 +31446,7 @@
       </c>
       <c r="G125" s="36">
         <f t="shared" si="7"/>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H125" s="11">
         <f t="shared" si="8"/>
@@ -31454,15 +31454,15 @@
       </c>
       <c r="I125" s="11">
         <f t="shared" si="13"/>
-        <v>32858220</v>
+        <v>36464610</v>
       </c>
       <c r="J125" s="11">
         <f t="shared" si="10"/>
-        <v>9747750</v>
+        <v>10817625</v>
       </c>
       <c r="K125" s="11">
         <f t="shared" si="11"/>
-        <v>23110470</v>
+        <v>25646985</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
@@ -31487,7 +31487,7 @@
       </c>
       <c r="G126" s="36">
         <f t="shared" si="7"/>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H126" s="11">
         <f t="shared" si="8"/>
@@ -31495,7 +31495,7 @@
       </c>
       <c r="I126" s="11">
         <f t="shared" si="13"/>
-        <v>3444000000</v>
+        <v>3822000000</v>
       </c>
       <c r="J126" s="11">
         <f t="shared" si="10"/>
@@ -31503,7 +31503,7 @@
       </c>
       <c r="K126" s="11">
         <f t="shared" si="11"/>
-        <v>3444000000</v>
+        <v>3822000000</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
@@ -31528,7 +31528,7 @@
       </c>
       <c r="G127" s="36">
         <f t="shared" si="7"/>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H127" s="11">
         <f t="shared" si="8"/>
@@ -31536,7 +31536,7 @@
       </c>
       <c r="I127" s="11">
         <f t="shared" si="13"/>
-        <v>-290000</v>
+        <v>-335000</v>
       </c>
       <c r="J127" s="11">
         <f t="shared" si="10"/>
@@ -31544,7 +31544,7 @@
       </c>
       <c r="K127" s="11">
         <f t="shared" si="11"/>
-        <v>-290000</v>
+        <v>-335000</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
@@ -31569,7 +31569,7 @@
       </c>
       <c r="G128" s="36">
         <f t="shared" si="7"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H128" s="11">
         <f t="shared" si="8"/>
@@ -31577,15 +31577,15 @@
       </c>
       <c r="I128" s="11">
         <f t="shared" si="13"/>
-        <v>39340074</v>
+        <v>46282440</v>
       </c>
       <c r="J128" s="11">
         <f t="shared" si="10"/>
-        <v>6155547</v>
+        <v>7241820</v>
       </c>
       <c r="K128" s="11">
         <f t="shared" si="11"/>
-        <v>33184527</v>
+        <v>39040620</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -31610,7 +31610,7 @@
       </c>
       <c r="G129" s="36">
         <f t="shared" si="7"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H129" s="11">
         <f t="shared" si="8"/>
@@ -31618,7 +31618,7 @@
       </c>
       <c r="I129" s="11">
         <f t="shared" si="13"/>
-        <v>120000000</v>
+        <v>142500000</v>
       </c>
       <c r="J129" s="11">
         <f t="shared" si="10"/>
@@ -31626,7 +31626,7 @@
       </c>
       <c r="K129" s="11">
         <f t="shared" si="11"/>
-        <v>120000000</v>
+        <v>142500000</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -31651,7 +31651,7 @@
       </c>
       <c r="G130" s="36">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H130" s="11">
         <f t="shared" si="8"/>
@@ -31659,11 +31659,11 @@
       </c>
       <c r="I130" s="11">
         <f t="shared" si="13"/>
-        <v>-35000000</v>
+        <v>-44000000</v>
       </c>
       <c r="J130" s="11">
         <f t="shared" si="10"/>
-        <v>-35000000</v>
+        <v>-44000000</v>
       </c>
       <c r="K130" s="11">
         <f t="shared" si="11"/>
@@ -31692,7 +31692,7 @@
       </c>
       <c r="G131" s="36">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H131" s="11">
         <f t="shared" si="8"/>
@@ -31700,7 +31700,7 @@
       </c>
       <c r="I131" s="11">
         <f t="shared" si="13"/>
-        <v>-1500000000</v>
+        <v>-1950000000</v>
       </c>
       <c r="J131" s="11">
         <f t="shared" si="10"/>
@@ -31708,7 +31708,7 @@
       </c>
       <c r="K131" s="11">
         <f t="shared" si="11"/>
-        <v>-1500000000</v>
+        <v>-1950000000</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -31733,7 +31733,7 @@
       </c>
       <c r="G132" s="36">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H132" s="11">
         <f t="shared" ref="H132:H143" si="14">IF(B132&gt;0,1,0)</f>
@@ -31741,15 +31741,15 @@
       </c>
       <c r="I132" s="11">
         <f t="shared" si="13"/>
-        <v>12900027</v>
+        <v>18428610</v>
       </c>
       <c r="J132" s="11">
         <f t="shared" ref="J132:J143" si="15">C132*(G132-H132)</f>
-        <v>2225391</v>
+        <v>3179130</v>
       </c>
       <c r="K132" s="11">
         <f t="shared" ref="K132:K143" si="16">D132*(G132-H132)</f>
-        <v>10674636</v>
+        <v>15249480</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -31774,7 +31774,7 @@
       </c>
       <c r="G133" s="36">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H133" s="11">
         <f t="shared" si="14"/>
@@ -31782,7 +31782,7 @@
       </c>
       <c r="I133" s="11">
         <f t="shared" si="13"/>
-        <v>-21792600</v>
+        <v>-32688900</v>
       </c>
       <c r="J133" s="11">
         <f t="shared" si="15"/>
@@ -31790,7 +31790,7 @@
       </c>
       <c r="K133" s="11">
         <f t="shared" si="16"/>
-        <v>-21792600</v>
+        <v>-32688900</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -31815,7 +31815,7 @@
       </c>
       <c r="G134" s="36">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H134" s="11">
         <f t="shared" si="14"/>
@@ -31823,7 +31823,7 @@
       </c>
       <c r="I134" s="11">
         <f t="shared" si="13"/>
-        <v>-585000</v>
+        <v>-1170000</v>
       </c>
       <c r="J134" s="11">
         <f t="shared" si="15"/>
@@ -31831,7 +31831,7 @@
       </c>
       <c r="K134" s="11">
         <f t="shared" si="16"/>
-        <v>-585000</v>
+        <v>-1170000</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -31856,7 +31856,7 @@
       </c>
       <c r="G135" s="36">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H135" s="11">
         <f t="shared" si="14"/>
@@ -31864,7 +31864,7 @@
       </c>
       <c r="I135" s="11">
         <f t="shared" si="13"/>
-        <v>-290700</v>
+        <v>-581400</v>
       </c>
       <c r="J135" s="11">
         <f t="shared" si="15"/>
@@ -31872,7 +31872,7 @@
       </c>
       <c r="K135" s="11">
         <f t="shared" si="16"/>
-        <v>-290700</v>
+        <v>-581400</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -31893,11 +31893,11 @@
         <v>809</v>
       </c>
       <c r="F136" s="11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G136" s="36">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H136" s="11">
         <f t="shared" si="14"/>
@@ -31905,11 +31905,11 @@
       </c>
       <c r="I136" s="11">
         <f t="shared" si="13"/>
-        <v>-1000000</v>
+        <v>-10000000</v>
       </c>
       <c r="J136" s="11">
         <f t="shared" si="15"/>
-        <v>-1000000</v>
+        <v>-10000000</v>
       </c>
       <c r="K136" s="11">
         <f t="shared" si="16"/>
@@ -31917,19 +31917,32 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="11"/>
+      <c r="A137" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B137" s="18">
+        <v>290873</v>
+      </c>
+      <c r="C137" s="18">
+        <v>97359</v>
+      </c>
+      <c r="D137" s="18">
+        <f t="shared" si="12"/>
+        <v>193514</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F137" s="11">
+        <v>1</v>
+      </c>
       <c r="G137" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" s="11">
         <f t="shared" si="13"/>
@@ -32122,15 +32135,15 @@
       <c r="A144" s="11"/>
       <c r="B144" s="29">
         <f>SUM(B2:B143)</f>
-        <v>34509769</v>
+        <v>34800642</v>
       </c>
       <c r="C144" s="29">
         <f>SUM(C2:C142)</f>
-        <v>11149969</v>
+        <v>11247328</v>
       </c>
       <c r="D144" s="29">
         <f>SUM(D2:D142)</f>
-        <v>23359800</v>
+        <v>23553314</v>
       </c>
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
@@ -32138,15 +32151,15 @@
       <c r="H144" s="11"/>
       <c r="I144" s="29">
         <f>SUM(I2:I143)</f>
-        <v>13741761034</v>
+        <v>14052348955</v>
       </c>
       <c r="J144" s="29">
         <f>SUM(J2:J143)</f>
-        <v>5516791048</v>
+        <v>5617140769</v>
       </c>
       <c r="K144" s="29">
         <f>SUM(K2:K143)</f>
-        <v>8224969986</v>
+        <v>8435208186</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -32198,15 +32211,15 @@
       <c r="H147" s="11"/>
       <c r="I147" s="3">
         <f>I144/G2</f>
-        <v>23570773.643224701</v>
+        <v>23737075.9375</v>
       </c>
       <c r="J147" s="29">
         <f>J144/G2</f>
-        <v>9462763.3756432254</v>
+        <v>9488413.4611486495</v>
       </c>
       <c r="K147" s="29">
         <f>K144/G2</f>
-        <v>14108010.267581476</v>
+        <v>14248662.476351351</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -32231,11 +32244,11 @@
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J151">
         <f>J144/I144*1448696</f>
-        <v>581595.99081217789</v>
+        <v>579086.76973124768</v>
       </c>
       <c r="K151">
         <f>K144/I144*1448696</f>
-        <v>867100.00918782211</v>
+        <v>869609.23026875232</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -32251,8 +32264,8 @@
   <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32329,7 +32342,7 @@
       </c>
       <c r="E2" s="11">
         <f>D2+E3</f>
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -32337,7 +32350,7 @@
       </c>
       <c r="G2" s="11">
         <f>B2*(E2-F2)</f>
-        <v>18500000</v>
+        <v>17850000</v>
       </c>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
@@ -32371,7 +32384,7 @@
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="0">D3+E4</f>
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F38" si="1">IF(B3&gt;0,1,0)</f>
@@ -32379,7 +32392,7 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G23" si="2">B3*(E3-F3)</f>
-        <v>1098000000</v>
+        <v>1059000000</v>
       </c>
       <c r="J3" s="25"/>
       <c r="K3" s="26"/>
@@ -32413,7 +32426,7 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="1"/>
@@ -32421,7 +32434,7 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="2"/>
-        <v>1095000000</v>
+        <v>1056000000</v>
       </c>
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
@@ -32448,7 +32461,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
@@ -32456,7 +32469,7 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="2"/>
-        <v>5475000000</v>
+        <v>5280000000</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -32495,7 +32508,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
@@ -32503,7 +32516,7 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="2"/>
-        <v>1092000000</v>
+        <v>1053000000</v>
       </c>
       <c r="K6" t="s">
         <v>288</v>
@@ -32542,7 +32555,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
@@ -32550,7 +32563,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="2"/>
-        <v>-1092000000</v>
+        <v>-1053000000</v>
       </c>
       <c r="K7" t="s">
         <v>289</v>
@@ -32592,7 +32605,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
@@ -32600,7 +32613,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="2"/>
-        <v>-72800000</v>
+        <v>-70200000</v>
       </c>
       <c r="K8" t="s">
         <v>290</v>
@@ -32642,7 +32655,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
@@ -32650,7 +32663,7 @@
       </c>
       <c r="G9" s="11">
         <f>B9*(E9-F9)</f>
-        <v>1089000000</v>
+        <v>1050000000</v>
       </c>
       <c r="K9" t="s">
         <v>291</v>
@@ -32692,7 +32705,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
@@ -32700,7 +32713,7 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="2"/>
-        <v>1086000000</v>
+        <v>1047000000</v>
       </c>
       <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
@@ -32727,7 +32740,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
@@ -32735,7 +32748,7 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="2"/>
-        <v>9050000000</v>
+        <v>8725000000</v>
       </c>
       <c r="K11" t="s">
         <v>296</v>
@@ -32768,7 +32781,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="1"/>
@@ -32776,7 +32789,7 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="2"/>
-        <v>358400470</v>
+        <v>345422180</v>
       </c>
       <c r="K12" t="s">
         <v>297</v>
@@ -32809,7 +32822,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
@@ -32817,7 +32830,7 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="2"/>
-        <v>1077000000</v>
+        <v>1038000000</v>
       </c>
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
@@ -32844,7 +32857,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
@@ -32852,7 +32865,7 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="2"/>
-        <v>427603464</v>
+        <v>412119216</v>
       </c>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
@@ -32879,7 +32892,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="1"/>
@@ -32887,7 +32900,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>694000000</v>
+        <v>668000000</v>
       </c>
       <c r="U15" s="25"/>
       <c r="V15" s="26"/>
@@ -32910,7 +32923,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="1"/>
@@ -32918,7 +32931,7 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="2"/>
-        <v>1005000000</v>
+        <v>966000000</v>
       </c>
       <c r="U16" s="25"/>
       <c r="V16" s="26"/>
@@ -32941,7 +32954,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
@@ -32949,7 +32962,7 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="2"/>
-        <v>1002000000</v>
+        <v>963000000</v>
       </c>
       <c r="U17" s="25"/>
       <c r="V17" s="26"/>
@@ -32972,7 +32985,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="1"/>
@@ -32980,7 +32993,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="2"/>
-        <v>632700000</v>
+        <v>608000000</v>
       </c>
       <c r="U18" s="25"/>
       <c r="V18" s="26"/>
@@ -33005,7 +33018,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
@@ -33013,7 +33026,7 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="2"/>
-        <v>255835134</v>
+        <v>245376465</v>
       </c>
       <c r="U19" s="25"/>
       <c r="V19" s="26"/>
@@ -33038,7 +33051,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
@@ -33046,7 +33059,7 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="2"/>
-        <v>951000000</v>
+        <v>912000000</v>
       </c>
       <c r="U20" s="25"/>
       <c r="V20" s="26"/>
@@ -33071,7 +33084,7 @@
       </c>
       <c r="E21" s="11">
         <f>D21+E22</f>
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
@@ -33079,7 +33092,7 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="2"/>
-        <v>155500000</v>
+        <v>149000000</v>
       </c>
       <c r="U21" s="25"/>
       <c r="V21" s="26"/>
@@ -33104,7 +33117,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
@@ -33112,7 +33125,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="2"/>
-        <v>-894000000</v>
+        <v>-855000000</v>
       </c>
       <c r="U22" s="25"/>
       <c r="V22" s="26"/>
@@ -33137,7 +33150,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
@@ -33145,7 +33158,7 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="2"/>
-        <v>867000000</v>
+        <v>828000000</v>
       </c>
       <c r="U23" s="25"/>
       <c r="V23" s="26"/>
@@ -33170,7 +33183,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
@@ -33178,7 +33191,7 @@
       </c>
       <c r="G24" s="11">
         <f>B24*(E24-F24)</f>
-        <v>182313627</v>
+        <v>174112668</v>
       </c>
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
@@ -33203,7 +33216,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
@@ -33211,7 +33224,7 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" ref="G25:G30" si="3">B25*(E25-F25)</f>
-        <v>-921859200</v>
+        <v>-880247500</v>
       </c>
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
@@ -33236,7 +33249,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
@@ -33244,7 +33257,7 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="3"/>
-        <v>-858257400</v>
+        <v>-819245700</v>
       </c>
       <c r="U26" s="25"/>
       <c r="V26" s="25"/>
@@ -33269,7 +33282,7 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
@@ -33277,7 +33290,7 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="3"/>
-        <v>283000000</v>
+        <v>270000000</v>
       </c>
       <c r="U27" s="25"/>
       <c r="V27" s="25"/>
@@ -33302,7 +33315,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
@@ -33310,7 +33323,7 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="3"/>
-        <v>1698000000</v>
+        <v>1620000000</v>
       </c>
       <c r="U28" s="25"/>
       <c r="V28" s="25"/>
@@ -33335,7 +33348,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
@@ -33343,7 +33356,7 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="3"/>
-        <v>1641400000</v>
+        <v>1566000000</v>
       </c>
       <c r="U29" s="25"/>
       <c r="V29" s="28"/>
@@ -33368,7 +33381,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
@@ -33376,7 +33389,7 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="3"/>
-        <v>-1420000</v>
+        <v>-1355000</v>
       </c>
       <c r="U30" s="25"/>
       <c r="V30" s="25"/>
@@ -33401,7 +33414,7 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
@@ -33409,7 +33422,7 @@
       </c>
       <c r="G31" s="11">
         <f>B31*(E31-F31)</f>
-        <v>-7358000000</v>
+        <v>-7020000000</v>
       </c>
       <c r="U31" s="25"/>
       <c r="V31" s="25"/>
@@ -33434,7 +33447,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
@@ -33442,7 +33455,7 @@
       </c>
       <c r="G32" s="11">
         <f>B32*(E32-F32)</f>
-        <v>-7362200000</v>
+        <v>-7021600000</v>
       </c>
       <c r="U32" s="25"/>
       <c r="V32" s="25"/>
@@ -33467,7 +33480,7 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
@@ -33475,7 +33488,7 @@
       </c>
       <c r="G33" s="11">
         <f>B33*(E33-F33)</f>
-        <v>85348305</v>
+        <v>81097240</v>
       </c>
       <c r="U33" s="25"/>
       <c r="V33" s="25"/>
@@ -33500,7 +33513,7 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
@@ -33508,7 +33521,7 @@
       </c>
       <c r="G34" s="11">
         <f t="shared" ref="G34:G104" si="4">B34*(E34-F34)</f>
-        <v>6901200000</v>
+        <v>6532000000</v>
       </c>
       <c r="V34" s="25"/>
       <c r="W34" s="26"/>
@@ -33529,7 +33542,7 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
@@ -33537,7 +33550,7 @@
       </c>
       <c r="G35" s="12">
         <f t="shared" si="4"/>
-        <v>2673000000</v>
+        <v>2530000000</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -33555,7 +33568,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="1"/>
@@ -33563,7 +33576,7 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="4"/>
-        <v>95463828</v>
+        <v>90020715</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -33581,7 +33594,7 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
@@ -33589,7 +33602,7 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="4"/>
-        <v>-206100</v>
+        <v>-194400</v>
       </c>
       <c r="J37" s="60"/>
     </row>
@@ -33608,7 +33621,7 @@
       </c>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="1"/>
@@ -33616,7 +33629,7 @@
       </c>
       <c r="G38" s="12">
         <f t="shared" si="4"/>
-        <v>454000000</v>
+        <v>428000000</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -33636,7 +33649,7 @@
       </c>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F39" s="11">
         <f>IF(B39&gt;0,1,0)</f>
@@ -33644,7 +33657,7 @@
       </c>
       <c r="G39" s="11">
         <f t="shared" si="4"/>
-        <v>454000000</v>
+        <v>428000000</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -33662,7 +33675,7 @@
       </c>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F40" s="11">
         <f>IF(B40&gt;0,1,0)</f>
@@ -33670,7 +33683,7 @@
       </c>
       <c r="G40" s="11">
         <f t="shared" si="4"/>
-        <v>-42800000</v>
+        <v>-40200000</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -33688,7 +33701,7 @@
       </c>
       <c r="E41" s="11">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F41" s="11">
         <f>IF(B41&gt;0,1,0)</f>
@@ -33696,7 +33709,7 @@
       </c>
       <c r="G41" s="11">
         <f t="shared" si="4"/>
-        <v>-132680000</v>
+        <v>-124620000</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -33714,7 +33727,7 @@
       </c>
       <c r="E42" s="11">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F42" s="11">
         <f t="shared" ref="F42:F104" si="5">IF(B42&gt;0,1,0)</f>
@@ -33722,7 +33735,7 @@
       </c>
       <c r="G42" s="11">
         <f t="shared" si="4"/>
-        <v>-25680000</v>
+        <v>-24120000</v>
       </c>
       <c r="J42" s="7"/>
     </row>
@@ -33741,7 +33754,7 @@
       </c>
       <c r="E43" s="11">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="5"/>
@@ -33749,7 +33762,7 @@
       </c>
       <c r="G43" s="11">
         <f t="shared" si="4"/>
-        <v>137150000</v>
+        <v>128700000</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -33767,7 +33780,7 @@
       </c>
       <c r="E44" s="11">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="5"/>
@@ -33775,7 +33788,7 @@
       </c>
       <c r="G44" s="11">
         <f t="shared" si="4"/>
-        <v>-1060000</v>
+        <v>-995000</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -33793,7 +33806,7 @@
       </c>
       <c r="E45" s="11">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="5"/>
@@ -33801,7 +33814,7 @@
       </c>
       <c r="G45" s="11">
         <f t="shared" si="4"/>
-        <v>6119000000</v>
+        <v>5742000000</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -33819,7 +33832,7 @@
       </c>
       <c r="E46" s="11">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="5"/>
@@ -33827,7 +33840,7 @@
       </c>
       <c r="G46" s="11">
         <f t="shared" si="4"/>
-        <v>-41600000</v>
+        <v>-39000000</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -33845,7 +33858,7 @@
       </c>
       <c r="E47" s="11">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="5"/>
@@ -33853,7 +33866,7 @@
       </c>
       <c r="G47" s="11">
         <f t="shared" si="4"/>
-        <v>-41000000</v>
+        <v>-38400000</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
@@ -33871,7 +33884,7 @@
       </c>
       <c r="E48" s="11">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="5"/>
@@ -33879,7 +33892,7 @@
       </c>
       <c r="G48" s="11">
         <f t="shared" si="4"/>
-        <v>-40800000</v>
+        <v>-38200000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -33897,7 +33910,7 @@
       </c>
       <c r="E49" s="11">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="5"/>
@@ -33905,7 +33918,7 @@
       </c>
       <c r="G49" s="11">
         <f t="shared" si="4"/>
-        <v>594000000</v>
+        <v>555000000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -33923,7 +33936,7 @@
       </c>
       <c r="E50" s="11">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="5"/>
@@ -33931,7 +33944,7 @@
       </c>
       <c r="G50" s="12">
         <f t="shared" si="4"/>
-        <v>594000000</v>
+        <v>555000000</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -33949,7 +33962,7 @@
       </c>
       <c r="E51" s="11">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="5"/>
@@ -33957,7 +33970,7 @@
       </c>
       <c r="G51" s="11">
         <f t="shared" si="4"/>
-        <v>150862009</v>
+        <v>140906648</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -33975,7 +33988,7 @@
       </c>
       <c r="E52" s="11">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="5"/>
@@ -33983,7 +33996,7 @@
       </c>
       <c r="G52" s="11">
         <f t="shared" si="4"/>
-        <v>-39600000</v>
+        <v>-37000000</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -34001,7 +34014,7 @@
       </c>
       <c r="E53" s="11">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="5"/>
@@ -34009,7 +34022,7 @@
       </c>
       <c r="G53" s="11">
         <f t="shared" si="4"/>
-        <v>-76495500</v>
+        <v>-71289000</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -34027,7 +34040,7 @@
       </c>
       <c r="E54" s="11">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="5"/>
@@ -34035,7 +34048,7 @@
       </c>
       <c r="G54" s="11">
         <f t="shared" si="4"/>
-        <v>-182072072</v>
+        <v>-169066924</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -34053,7 +34066,7 @@
       </c>
       <c r="E55" s="11">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="5"/>
@@ -34061,7 +34074,7 @@
       </c>
       <c r="G55" s="11">
         <f t="shared" si="4"/>
-        <v>-7040000000</v>
+        <v>-6520000000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -34079,7 +34092,7 @@
       </c>
       <c r="E56" s="11">
         <f t="shared" si="0"/>
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="5"/>
@@ -34087,7 +34100,7 @@
       </c>
       <c r="G56" s="11">
         <f t="shared" si="4"/>
-        <v>143698232</v>
+        <v>132444756</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -34105,7 +34118,7 @@
       </c>
       <c r="E57" s="11">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F57" s="11">
         <f t="shared" si="5"/>
@@ -34113,7 +34126,7 @@
       </c>
       <c r="G57" s="11">
         <f t="shared" si="4"/>
-        <v>-7028000000</v>
+        <v>-6375400000</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -34131,7 +34144,7 @@
       </c>
       <c r="E58" s="11">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F58" s="11">
         <f t="shared" si="5"/>
@@ -34139,7 +34152,7 @@
       </c>
       <c r="G58" s="11">
         <f t="shared" si="4"/>
-        <v>-1695869500</v>
+        <v>-1537263000</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -34157,7 +34170,7 @@
       </c>
       <c r="E59" s="11">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F59" s="11">
         <f t="shared" si="5"/>
@@ -34165,7 +34178,7 @@
       </c>
       <c r="G59" s="11">
         <f t="shared" si="4"/>
-        <v>72212310</v>
+        <v>65258532</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -34183,7 +34196,7 @@
       </c>
       <c r="E60" s="11">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F60" s="11">
         <f t="shared" si="5"/>
@@ -34191,7 +34204,7 @@
       </c>
       <c r="G60" s="11">
         <f t="shared" si="4"/>
-        <v>-45630000</v>
+        <v>-41236000</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -34209,7 +34222,7 @@
       </c>
       <c r="E61" s="11">
         <f t="shared" si="0"/>
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F61" s="11">
         <f t="shared" si="5"/>
@@ -34217,7 +34230,7 @@
       </c>
       <c r="G61" s="11">
         <f t="shared" si="4"/>
-        <v>-19950000</v>
+        <v>-18000000</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -34235,7 +34248,7 @@
       </c>
       <c r="E62" s="11">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F62" s="11">
         <f t="shared" si="5"/>
@@ -34243,7 +34256,7 @@
       </c>
       <c r="G62" s="11">
         <f t="shared" si="4"/>
-        <v>-12900000</v>
+        <v>-11600000</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -34261,7 +34274,7 @@
       </c>
       <c r="E63" s="11">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F63" s="11">
         <f t="shared" si="5"/>
@@ -34269,7 +34282,7 @@
       </c>
       <c r="G63" s="11">
         <f t="shared" si="4"/>
-        <v>-25000000</v>
+        <v>-22400000</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -34287,7 +34300,7 @@
       </c>
       <c r="E64" s="11">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="5"/>
@@ -34295,7 +34308,7 @@
       </c>
       <c r="G64" s="11">
         <f t="shared" si="4"/>
-        <v>-10875000</v>
+        <v>-9744000</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -34313,7 +34326,7 @@
       </c>
       <c r="E65" s="11">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F65" s="11">
         <f t="shared" si="5"/>
@@ -34321,7 +34334,7 @@
       </c>
       <c r="G65" s="11">
         <f t="shared" si="4"/>
-        <v>-3323870</v>
+        <v>-2966760</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -34339,7 +34352,7 @@
       </c>
       <c r="E66" s="11">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F66" s="11">
         <f t="shared" si="5"/>
@@ -34347,7 +34360,7 @@
       </c>
       <c r="G66" s="11">
         <f t="shared" si="4"/>
-        <v>-40080000</v>
+        <v>-35738000</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -34365,7 +34378,7 @@
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E104" si="6">D67+E68</f>
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F67" s="11">
         <f t="shared" si="5"/>
@@ -34373,7 +34386,7 @@
       </c>
       <c r="G67" s="11">
         <f t="shared" si="4"/>
-        <v>-2300000</v>
+        <v>-2040000</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -34391,7 +34404,7 @@
       </c>
       <c r="E68" s="11">
         <f t="shared" si="6"/>
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
@@ -34399,7 +34412,7 @@
       </c>
       <c r="G68" s="11">
         <f t="shared" si="4"/>
-        <v>-34257000</v>
+        <v>-30350500</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -34417,7 +34430,7 @@
       </c>
       <c r="E69" s="11">
         <f t="shared" si="6"/>
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
@@ -34425,7 +34438,7 @@
       </c>
       <c r="G69" s="11">
         <f t="shared" si="4"/>
-        <v>-11400000</v>
+        <v>-10100000</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -34443,7 +34456,7 @@
       </c>
       <c r="E70" s="11">
         <f t="shared" si="6"/>
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
@@ -34451,7 +34464,7 @@
       </c>
       <c r="G70" s="11">
         <f t="shared" si="4"/>
-        <v>-21800000</v>
+        <v>-19200000</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -34469,7 +34482,7 @@
       </c>
       <c r="E71" s="11">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
@@ -34477,7 +34490,7 @@
       </c>
       <c r="G71" s="11">
         <f t="shared" si="4"/>
-        <v>1600456</v>
+        <v>1400399</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -34495,7 +34508,7 @@
       </c>
       <c r="E72" s="11">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
@@ -34503,7 +34516,7 @@
       </c>
       <c r="G72" s="11">
         <f t="shared" si="4"/>
-        <v>416000000</v>
+        <v>364000000</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -34521,7 +34534,7 @@
       </c>
       <c r="E73" s="11">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
@@ -34529,7 +34542,7 @@
       </c>
       <c r="G73" s="11">
         <f t="shared" si="4"/>
-        <v>270400000</v>
+        <v>236600000</v>
       </c>
       <c r="J73" t="s">
         <v>25</v>
@@ -34550,7 +34563,7 @@
       </c>
       <c r="E74" s="11">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
@@ -34558,7 +34571,7 @@
       </c>
       <c r="G74" s="11">
         <f t="shared" si="4"/>
-        <v>312000000</v>
+        <v>273000000</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -34576,7 +34589,7 @@
       </c>
       <c r="E75" s="11">
         <f t="shared" si="6"/>
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
@@ -34584,7 +34597,7 @@
       </c>
       <c r="G75" s="11">
         <f t="shared" si="4"/>
-        <v>-20400000</v>
+        <v>-17800000</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -34602,7 +34615,7 @@
       </c>
       <c r="E76" s="11">
         <f t="shared" si="6"/>
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
@@ -34610,7 +34623,7 @@
       </c>
       <c r="G76" s="11">
         <f t="shared" si="4"/>
-        <v>-198069300</v>
+        <v>-172060200</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -34628,7 +34641,7 @@
       </c>
       <c r="E77" s="11">
         <f t="shared" si="6"/>
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
@@ -34636,7 +34649,7 @@
       </c>
       <c r="G77" s="11">
         <f t="shared" si="4"/>
-        <v>-19800000</v>
+        <v>-17200000</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -34654,7 +34667,7 @@
       </c>
       <c r="E78" s="11">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
@@ -34662,7 +34675,7 @@
       </c>
       <c r="G78" s="11">
         <f t="shared" si="4"/>
-        <v>188000000</v>
+        <v>162000000</v>
       </c>
       <c r="J78" t="s">
         <v>25</v>
@@ -34683,7 +34696,7 @@
       </c>
       <c r="E79" s="11">
         <f t="shared" si="6"/>
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
@@ -34691,7 +34704,7 @@
       </c>
       <c r="G79" s="11">
         <f t="shared" si="4"/>
-        <v>-87043500</v>
+        <v>-74037000</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -34709,7 +34722,7 @@
       </c>
       <c r="E80" s="11">
         <f t="shared" si="6"/>
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
@@ -34717,7 +34730,7 @@
       </c>
       <c r="G80" s="11">
         <f t="shared" si="4"/>
-        <v>-12349650</v>
+        <v>-10504300</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -34735,7 +34748,7 @@
       </c>
       <c r="E81" s="11">
         <f t="shared" si="6"/>
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
@@ -34743,7 +34756,7 @@
       </c>
       <c r="G81" s="11">
         <f t="shared" si="4"/>
-        <v>-75642000</v>
+        <v>-63935500</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -34761,7 +34774,7 @@
       </c>
       <c r="E82" s="11">
         <f t="shared" si="6"/>
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
@@ -34769,7 +34782,7 @@
       </c>
       <c r="G82" s="11">
         <f t="shared" si="4"/>
-        <v>5931323</v>
+        <v>4875060</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -34787,7 +34800,7 @@
       </c>
       <c r="E83" s="11">
         <f t="shared" si="6"/>
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
@@ -34795,7 +34808,7 @@
       </c>
       <c r="G83" s="11">
         <f t="shared" si="4"/>
-        <v>2550000000</v>
+        <v>1900000000</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -34813,7 +34826,7 @@
       </c>
       <c r="E84" s="11">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
@@ -34821,7 +34834,7 @@
       </c>
       <c r="G84" s="11">
         <f t="shared" si="4"/>
-        <v>1500000000</v>
+        <v>1110000000</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -34839,7 +34852,7 @@
       </c>
       <c r="E85" s="11">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
@@ -34847,7 +34860,7 @@
       </c>
       <c r="G85" s="11">
         <f t="shared" si="4"/>
-        <v>-3697500000</v>
+        <v>-2755000000</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -34865,7 +34878,7 @@
       </c>
       <c r="E86" s="11">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
@@ -34873,7 +34886,7 @@
       </c>
       <c r="G86" s="11">
         <f t="shared" si="4"/>
-        <v>-14050000</v>
+        <v>-10397000</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -34891,7 +34904,7 @@
       </c>
       <c r="E87" s="11">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
@@ -34899,7 +34912,7 @@
       </c>
       <c r="G87" s="11">
         <f t="shared" si="4"/>
-        <v>110000000</v>
+        <v>77500000</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -34917,7 +34930,7 @@
       </c>
       <c r="E88" s="11">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
@@ -34925,7 +34938,7 @@
       </c>
       <c r="G88" s="11">
         <f t="shared" si="4"/>
-        <v>3368620</v>
+        <v>2350200</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -34939,11 +34952,11 @@
         <v>779</v>
       </c>
       <c r="D89" s="11">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="6"/>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
@@ -34951,21 +34964,29 @@
       </c>
       <c r="G89" s="11">
         <f t="shared" si="4"/>
-        <v>570000000</v>
+        <v>375000000</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
+      <c r="A90" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B90" s="38">
+        <v>244846</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="D90" s="11">
+        <v>1</v>
+      </c>
       <c r="E90" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="11">
         <f t="shared" si="4"/>
@@ -35236,7 +35257,7 @@
       <c r="A105" s="11"/>
       <c r="B105" s="29">
         <f>SUM(B2:B104)</f>
-        <v>32876107</v>
+        <v>33120953</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -35244,7 +35265,7 @@
       <c r="F105" s="11"/>
       <c r="G105" s="29">
         <f>SUM(G2:G104)</f>
-        <v>16334717686</v>
+        <v>15907328295</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -35278,7 +35299,7 @@
       <c r="F108" s="11"/>
       <c r="G108" s="3">
         <f>G105/E2</f>
-        <v>44028888.641509436</v>
+        <v>44433877.918994412</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -35315,7 +35336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G165" sqref="G165"/>
     </sheetView>
@@ -39659,8 +39680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40056,11 +40077,11 @@
       </c>
       <c r="F10" s="72">
         <f>K16</f>
-        <v>63223520</v>
+        <v>63103520</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="0"/>
-        <v>2142901.5808270946</v>
+        <v>2262901.5808270946</v>
       </c>
       <c r="H10" s="11"/>
       <c r="J10" s="2" t="s">
@@ -40103,7 +40124,7 @@
         <v>459</v>
       </c>
       <c r="K11" s="43">
-        <v>270000</v>
+        <v>150000</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>748</v>
@@ -40257,7 +40278,7 @@
       </c>
       <c r="K16" s="3">
         <f>SUM(K7:K13)</f>
-        <v>63223520</v>
+        <v>63103520</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="11" t="s">
@@ -40265,7 +40286,7 @@
       </c>
       <c r="N16" s="29">
         <f>'مسکن مریم یاران'!B105</f>
-        <v>32876107</v>
+        <v>33120953</v>
       </c>
       <c r="P16" s="28"/>
       <c r="Q16" s="25"/>
@@ -40298,7 +40319,7 @@
       </c>
       <c r="K17" s="3">
         <f>K7+K8+K11</f>
-        <v>64023520</v>
+        <v>63903520</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="11" t="s">
@@ -40306,7 +40327,7 @@
       </c>
       <c r="N17" s="29">
         <f>سارا!D144</f>
-        <v>23359800</v>
+        <v>23553314</v>
       </c>
       <c r="P17" s="28"/>
       <c r="Q17" s="25"/>
@@ -40339,7 +40360,7 @@
       </c>
       <c r="K18" s="1">
         <f>K16+N7</f>
-        <v>120223520</v>
+        <v>120103520</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>786</v>
@@ -40647,7 +40668,7 @@
       </c>
       <c r="N25" s="29">
         <f>SUM(N16:N23)</f>
-        <v>133235907</v>
+        <v>133674267</v>
       </c>
       <c r="P25" s="11"/>
       <c r="Q25" s="29"/>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="آذر 96" sheetId="28" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="816">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2485,6 +2485,9 @@
   </si>
   <si>
     <t>30/8/1396</t>
+  </si>
+  <si>
+    <t>با حقوق آبان</t>
   </si>
 </sst>
 </file>
@@ -35336,7 +35339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G165" sqref="G165"/>
     </sheetView>
@@ -39680,8 +39683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39762,7 +39765,7 @@
         <v>52000000</v>
       </c>
       <c r="G2" s="29">
-        <f t="shared" ref="G2:G10" si="0">E2-F2</f>
+        <f t="shared" ref="G2:G11" si="0">E2-F2</f>
         <v>0</v>
       </c>
       <c r="H2" s="11" t="s">
@@ -40075,15 +40078,16 @@
         <f t="shared" si="2"/>
         <v>65366421.580827095</v>
       </c>
-      <c r="F10" s="72">
-        <f>K16</f>
-        <v>63103520</v>
+      <c r="F10" s="45">
+        <v>66253520</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="0"/>
-        <v>2262901.5808270946</v>
-      </c>
-      <c r="H10" s="11"/>
+        <v>-887098.41917290539</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>815</v>
+      </c>
       <c r="J10" s="2" t="s">
         <v>85</v>
       </c>
@@ -40117,14 +40121,20 @@
         <f t="shared" si="2"/>
         <v>67215178.36525768</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="29"/>
+      <c r="F11" s="72">
+        <f>K16</f>
+        <v>66253520</v>
+      </c>
+      <c r="G11" s="29">
+        <f t="shared" si="0"/>
+        <v>961658.36525768042</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="J11" s="2" t="s">
         <v>459</v>
       </c>
       <c r="K11" s="43">
-        <v>150000</v>
+        <v>3300000</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>748</v>
@@ -40278,7 +40288,7 @@
       </c>
       <c r="K16" s="3">
         <f>SUM(K7:K13)</f>
-        <v>63103520</v>
+        <v>66253520</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="11" t="s">
@@ -40319,7 +40329,7 @@
       </c>
       <c r="K17" s="3">
         <f>K7+K8+K11</f>
-        <v>63903520</v>
+        <v>67053520</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="11" t="s">
@@ -40360,7 +40370,7 @@
       </c>
       <c r="K18" s="1">
         <f>K16+N7</f>
-        <v>120103520</v>
+        <v>123253520</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>786</v>
@@ -40466,11 +40476,11 @@
         <v>6000000</v>
       </c>
       <c r="R20" s="11">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="S20" s="29">
         <f>Q20*R20</f>
-        <v>6000000</v>
+        <v>180000000</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>791</v>
@@ -40675,7 +40685,7 @@
       <c r="R25" s="29"/>
       <c r="S25" s="29">
         <f>SUM(S19:S22)</f>
-        <v>486000000</v>
+        <v>660000000</v>
       </c>
       <c r="T25" s="11"/>
     </row>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="آذر 96" sheetId="28" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="818">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2488,6 +2488,12 @@
   </si>
   <si>
     <t>با حقوق آبان</t>
+  </si>
+  <si>
+    <t>4/9/1396</t>
+  </si>
+  <si>
+    <t>حقوق آبان علی</t>
   </si>
 </sst>
 </file>
@@ -32267,8 +32273,8 @@
   <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35339,9 +35345,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G165" sqref="G165"/>
+      <selection pane="bottomLeft" activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35391,7 +35397,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -35399,7 +35405,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>52121300</v>
+        <v>52411400</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -35417,7 +35423,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -35425,7 +35431,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1611000000</v>
+        <v>1620000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -35441,7 +35447,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -35449,7 +35455,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-107000000</v>
+        <v>-107600000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -35465,7 +35471,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -35473,7 +35479,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-53300000</v>
+        <v>-53600000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -35489,7 +35495,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -35497,7 +35503,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-29260000</v>
+        <v>-29425000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -35513,7 +35519,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -35521,7 +35527,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-106200000</v>
+        <v>-106800000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -35537,7 +35543,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -35545,7 +35551,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-105400000</v>
+        <v>-106000000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -35561,7 +35567,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -35569,7 +35575,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-491408500</v>
+        <v>-494260000</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -35585,7 +35591,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -35593,7 +35599,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>1030000000</v>
+        <v>1036000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -35609,7 +35615,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -35617,7 +35623,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-547410000</v>
+        <v>-550605000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -35633,7 +35639,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -35641,7 +35647,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-22995000</v>
+        <v>-23130000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -35657,7 +35663,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -35665,7 +35671,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-1020357000</v>
+        <v>-1026359100</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -35681,7 +35687,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -35689,7 +35695,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-101200000</v>
+        <v>-101800000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -35705,7 +35711,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -35713,7 +35719,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>1006000000</v>
+        <v>1012000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -35729,7 +35735,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -35737,7 +35743,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>1006000000</v>
+        <v>1012000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -35753,7 +35759,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -35761,7 +35767,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>603600000</v>
+        <v>607200000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -35777,7 +35783,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -35785,7 +35791,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>503000000</v>
+        <v>506000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -35801,7 +35807,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -35809,7 +35815,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1506000000</v>
+        <v>1515000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -35828,7 +35834,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -35836,7 +35842,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-217648100</v>
+        <v>-218946200</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -35852,7 +35858,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -35860,7 +35866,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-217648100</v>
+        <v>-218946200</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -35876,7 +35882,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -35884,7 +35890,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-217648100</v>
+        <v>-218946200</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -35900,7 +35906,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -35908,7 +35914,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-217648100</v>
+        <v>-218946200</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -35924,7 +35930,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -35932,7 +35938,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-217648100</v>
+        <v>-218946200</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -35948,7 +35954,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -35956,7 +35962,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-100600000</v>
+        <v>-101200000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -35972,7 +35978,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -35980,7 +35986,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1503000000</v>
+        <v>1512000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -35996,7 +36002,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -36004,7 +36010,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-100000000</v>
+        <v>-100600000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -36020,7 +36026,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -36028,7 +36034,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>996000000</v>
+        <v>1002000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -36044,7 +36050,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -36052,7 +36058,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-3486398400</v>
+        <v>-3507400800</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -36068,7 +36074,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -36076,7 +36082,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1491447300</v>
+        <v>-1500450000</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -36092,7 +36098,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -36100,7 +36106,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-841166400</v>
+        <v>-846254100</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -36116,7 +36122,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -36124,7 +36130,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>489195600</v>
+        <v>492178500</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -36140,7 +36146,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -36148,7 +36154,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>17054226</v>
+        <v>17159499</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>378</v>
@@ -36166,7 +36172,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -36174,7 +36180,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-413100000</v>
+        <v>-415650000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -36190,7 +36196,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -36198,7 +36204,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-91059000</v>
+        <v>-91630500</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -36214,7 +36220,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -36222,7 +36228,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>95200000</v>
+        <v>95800000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -36238,7 +36244,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -36246,7 +36252,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-95400000</v>
+        <v>-96000000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -36262,7 +36268,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -36270,7 +36276,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>136565924</v>
+        <v>137468342</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>398</v>
@@ -36288,7 +36294,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -36296,7 +36302,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-43130000</v>
+        <v>-43415000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -36312,7 +36318,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -36320,7 +36326,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-39998762</v>
+        <v>-40263071</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -36336,7 +36342,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -36344,7 +36350,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-53880000</v>
+        <v>-54240000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -36360,7 +36366,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -36368,7 +36374,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>426086904</v>
+        <v>429087516</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>399</v>
@@ -36386,7 +36392,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -36394,7 +36400,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-33840000</v>
+        <v>-34080000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -36410,7 +36416,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -36418,7 +36424,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-88421151</v>
+        <v>-89054238</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -36434,7 +36440,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -36442,7 +36448,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-83600000</v>
+        <v>-84200000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -36458,7 +36464,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -36466,7 +36472,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-39615000</v>
+        <v>-39900000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -36482,7 +36488,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -36490,7 +36496,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-18675000</v>
+        <v>-18810000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -36506,7 +36512,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -36514,7 +36520,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-26634700</v>
+        <v>-26827240</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -36530,7 +36536,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -36538,7 +36544,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-11323408</v>
+        <v>-11405860</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -36554,7 +36560,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -36562,7 +36568,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-57951000</v>
+        <v>-58374000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -36578,7 +36584,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -36586,7 +36592,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-10992606</v>
+        <v>-11072844</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -36602,7 +36608,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -36610,7 +36616,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-21853000</v>
+        <v>-22012900</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -36626,7 +36632,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -36634,7 +36640,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>408000000</v>
+        <v>411000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -36650,7 +36656,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -36658,7 +36664,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-8463000</v>
+        <v>-8526000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -36674,7 +36680,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -36682,7 +36688,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-394161000</v>
+        <v>-397102500</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -36698,7 +36704,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -36706,7 +36712,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-18090000</v>
+        <v>-18225000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -36722,7 +36728,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -36730,7 +36736,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>1166013332</v>
+        <v>1175028899</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>400</v>
@@ -36748,7 +36754,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -36756,7 +36762,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>776000000</v>
+        <v>782000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -36772,7 +36778,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -36780,7 +36786,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>774000000</v>
+        <v>780000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -36796,7 +36802,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -36804,7 +36810,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-2716582000</v>
+        <v>-2737586500</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -36820,7 +36826,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -36828,7 +36834,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>1089000000</v>
+        <v>1098000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -36844,7 +36850,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -36852,7 +36858,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-9840567</v>
+        <v>-9921894</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -36868,7 +36874,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -36876,7 +36882,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-11975007</v>
+        <v>-12073974</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -36892,7 +36898,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -36900,7 +36906,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>1086000000</v>
+        <v>1095000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -36916,7 +36922,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -36924,7 +36930,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>1075140000</v>
+        <v>1084050000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -36940,7 +36946,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -36948,7 +36954,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>362000000</v>
+        <v>365000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -36964,7 +36970,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -36972,7 +36978,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F170" si="5">B67*(D67-E67)</f>
-        <v>10860000</v>
+        <v>10950000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -36988,7 +36994,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -36996,7 +37002,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>10830000000</v>
+        <v>10920000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -37012,7 +37018,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -37020,7 +37026,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-72200000</v>
+        <v>-72800000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -37036,7 +37042,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -37044,7 +37050,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>504000000</v>
+        <v>508200000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -37060,7 +37066,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -37068,7 +37074,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>936000000</v>
+        <v>943800000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -37084,7 +37090,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -37092,7 +37098,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-361000000</v>
+        <v>-364000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -37108,7 +37114,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -37116,7 +37122,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>5370000000</v>
+        <v>5415000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -37132,7 +37138,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -37140,7 +37146,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-5311486800</v>
+        <v>-5356499400</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -37156,7 +37162,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -37164,7 +37170,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-1056000000</v>
+        <v>-1065000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -37180,7 +37186,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -37188,7 +37194,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-70400000</v>
+        <v>-71000000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -37204,7 +37210,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -37212,7 +37218,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-4225056000</v>
+        <v>-4261065000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -37228,7 +37234,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -37236,7 +37242,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-1044313200</v>
+        <v>-1053315900</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -37252,7 +37258,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -37260,7 +37266,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>7866000000</v>
+        <v>7935000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -37276,7 +37282,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -37284,7 +37290,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-202969000</v>
+        <v>-204770500</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -37300,7 +37306,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -37308,7 +37314,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-67600000</v>
+        <v>-68200000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -37324,7 +37330,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -37332,7 +37338,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>95162256</v>
+        <v>96011919</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -37350,7 +37356,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -37358,7 +37364,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-67400000</v>
+        <v>-68000000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -37374,7 +37380,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -37382,7 +37388,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>668000000</v>
+        <v>674000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -37398,7 +37404,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -37406,7 +37412,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-66400000</v>
+        <v>-67000000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -37422,7 +37428,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -37430,7 +37436,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-65200000</v>
+        <v>-65800000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -37446,7 +37452,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -37454,7 +37460,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-429300000</v>
+        <v>-433275000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -37470,7 +37476,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -37478,7 +37484,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-154500000</v>
+        <v>-156000000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -37494,7 +37500,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -37502,7 +37508,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-37080000</v>
+        <v>-37440000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -37518,7 +37524,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -37526,7 +37532,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>131030730</v>
+        <v>132315345</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -37544,7 +37550,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -37552,7 +37558,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-912608000</v>
+        <v>-921614000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>340</v>
@@ -37570,7 +37576,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -37578,7 +37584,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-61910000</v>
+        <v>-62525000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>341</v>
@@ -37596,7 +37602,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -37604,7 +37610,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-105851000</v>
+        <v>-106902500</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>338</v>
@@ -37622,7 +37628,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -37630,7 +37636,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>290000000</v>
+        <v>293000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>336</v>
@@ -37648,7 +37654,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -37656,7 +37662,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>2565000000</v>
+        <v>2592000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>348</v>
@@ -37675,7 +37681,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -37683,7 +37689,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-7384000000</v>
+        <v>-7462000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>350</v>
@@ -37701,7 +37707,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -37709,7 +37715,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-7384000000</v>
+        <v>-7462000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -37725,7 +37731,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -37733,7 +37739,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>7358000000</v>
+        <v>7436000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -37749,7 +37755,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -37757,7 +37763,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-56800000</v>
+        <v>-57400000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -37776,7 +37782,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -37784,7 +37790,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>8205200000</v>
+        <v>8292800000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -37800,7 +37806,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -37808,7 +37814,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>110384820</v>
+        <v>111584655</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>403</v>
@@ -37826,7 +37832,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -37834,7 +37840,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>550000000</v>
+        <v>556000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>405</v>
@@ -37852,7 +37858,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -37860,7 +37866,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>2055000000</v>
+        <v>2077500000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>413</v>
@@ -37878,7 +37884,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -37886,7 +37892,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-18150000000</v>
+        <v>-18348000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>427</v>
@@ -37904,7 +37910,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -37912,7 +37918,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-39875000</v>
+        <v>-40310000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>428</v>
@@ -37930,7 +37936,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -37938,7 +37944,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>1632000000</v>
+        <v>1650000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>429</v>
@@ -37956,7 +37962,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -37964,7 +37970,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-1627598900</v>
+        <v>-1645616600</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>439</v>
@@ -37982,7 +37988,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -37990,7 +37996,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>1602000000</v>
+        <v>1620000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>447</v>
@@ -38008,7 +38014,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -38016,7 +38022,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-30720000</v>
+        <v>-31080000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>462</v>
@@ -38034,7 +38040,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -38042,7 +38048,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>1016000000</v>
+        <v>1028000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>464</v>
@@ -38060,7 +38066,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -38068,7 +38074,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>708400000</v>
+        <v>716800000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>469</v>
@@ -38086,7 +38092,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -38094,7 +38100,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-50000000</v>
+        <v>-50600000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>475</v>
@@ -38112,7 +38118,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -38120,7 +38126,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>17932880</v>
+        <v>18149810</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>503</v>
@@ -38138,7 +38144,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -38146,7 +38152,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-46400000</v>
+        <v>-47000000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>462</v>
@@ -38167,7 +38173,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -38175,7 +38181,7 @@
       </c>
       <c r="F115" s="23">
         <f t="shared" si="5"/>
-        <v>-2541000000</v>
+        <v>-2574000000</v>
       </c>
       <c r="G115" s="23" t="s">
         <v>504</v>
@@ -38193,7 +38199,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -38201,7 +38207,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-46200000</v>
+        <v>-46800000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>462</v>
@@ -38222,7 +38228,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -38230,7 +38236,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-103164500</v>
+        <v>-104516000</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>506</v>
@@ -38248,7 +38254,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -38256,7 +38262,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-45800000</v>
+        <v>-46400000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>507</v>
@@ -38277,7 +38283,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -38285,7 +38291,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-34464650</v>
+        <v>-34928300</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>510</v>
@@ -38303,7 +38309,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -38311,7 +38317,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-71360</v>
+        <v>-72320</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>511</v>
@@ -38329,7 +38335,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -38337,7 +38343,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-95904000</v>
+        <v>-97200000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>513</v>
@@ -38355,7 +38361,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -38363,7 +38369,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>15919245</v>
+        <v>16141374</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>515</v>
@@ -38381,7 +38387,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -38389,7 +38395,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-10140000</v>
+        <v>-10296000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>539</v>
@@ -38407,7 +38413,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -38415,7 +38421,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>181611</v>
+        <v>185172</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>590</v>
@@ -38433,7 +38439,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -38441,7 +38447,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>364800000</v>
+        <v>372000000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>588</v>
@@ -38459,7 +38465,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -38467,7 +38473,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>201420000</v>
+        <v>205448400</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>597</v>
@@ -38485,7 +38491,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -38493,7 +38499,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>201420000</v>
+        <v>205448400</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>598</v>
@@ -38511,7 +38517,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -38519,7 +38525,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-27800000</v>
+        <v>-28400000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -38537,7 +38543,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -38545,7 +38551,7 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-2139666</v>
+        <v>-2186520</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>607</v>
@@ -38566,7 +38572,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -38574,7 +38580,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-27200000</v>
+        <v>-27800000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>507</v>
@@ -38592,7 +38598,7 @@
       </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D155" si="6">D132+C131</f>
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E171" si="7">IF(B131&gt;0,1,0)</f>
@@ -38600,7 +38606,7 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-27000000</v>
+        <v>-27600000</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>611</v>
@@ -38618,7 +38624,7 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -38626,7 +38632,7 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>-52260000</v>
+        <v>-53430000</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>613</v>
@@ -38644,7 +38650,7 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -38652,7 +38658,7 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>-3283000</v>
+        <v>-3356500</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>614</v>
@@ -38670,7 +38676,7 @@
       </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -38678,7 +38684,7 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>-12635000</v>
+        <v>-12920000</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>462</v>
@@ -38696,7 +38702,7 @@
       </c>
       <c r="D135" s="11">
         <f t="shared" si="6"/>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="7"/>
@@ -38704,7 +38710,7 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="5"/>
-        <v>-25800000</v>
+        <v>-26400000</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>618</v>
@@ -38722,7 +38728,7 @@
       </c>
       <c r="D136" s="11">
         <f t="shared" si="6"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="7"/>
@@ -38730,7 +38736,7 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="5"/>
-        <v>6300000000</v>
+        <v>6450000000</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>621</v>
@@ -38748,7 +38754,7 @@
       </c>
       <c r="D137" s="11">
         <f t="shared" si="6"/>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E137" s="11">
         <f t="shared" si="7"/>
@@ -38756,7 +38762,7 @@
       </c>
       <c r="F137" s="11">
         <f t="shared" si="5"/>
-        <v>1500000000</v>
+        <v>1536000000</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>621</v>
@@ -38774,7 +38780,7 @@
       </c>
       <c r="D138" s="11">
         <f t="shared" si="6"/>
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E138" s="11">
         <f t="shared" si="7"/>
@@ -38782,7 +38788,7 @@
       </c>
       <c r="F138" s="11">
         <f t="shared" si="5"/>
-        <v>246000000</v>
+        <v>252000000</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>630</v>
@@ -38800,7 +38806,7 @@
       </c>
       <c r="D139" s="11">
         <f t="shared" si="6"/>
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E139" s="11">
         <f t="shared" si="7"/>
@@ -38808,7 +38814,7 @@
       </c>
       <c r="F139" s="11">
         <f t="shared" si="5"/>
-        <v>10679636</v>
+        <v>10942250</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>378</v>
@@ -38826,7 +38832,7 @@
       </c>
       <c r="D140" s="11">
         <f t="shared" si="6"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E140" s="11">
         <f t="shared" si="7"/>
@@ -38834,7 +38840,7 @@
       </c>
       <c r="F140" s="11">
         <f t="shared" si="5"/>
-        <v>-330099000</v>
+        <v>-339101700</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>672</v>
@@ -38852,7 +38858,7 @@
       </c>
       <c r="D141" s="11">
         <f t="shared" si="6"/>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E141" s="11">
         <f t="shared" si="7"/>
@@ -38860,7 +38866,7 @@
       </c>
       <c r="F141" s="11">
         <f t="shared" si="5"/>
-        <v>-327098100</v>
+        <v>-336100800</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>672</v>
@@ -38881,7 +38887,7 @@
       </c>
       <c r="D142" s="11">
         <f t="shared" si="6"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E142" s="11">
         <f t="shared" si="7"/>
@@ -38889,7 +38895,7 @@
       </c>
       <c r="F142" s="11">
         <f t="shared" si="5"/>
-        <v>54784275</v>
+        <v>56590350</v>
       </c>
       <c r="G142" s="11" t="s">
         <v>696</v>
@@ -38907,7 +38913,7 @@
       </c>
       <c r="D143" s="11">
         <f t="shared" si="6"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E143" s="11">
         <f t="shared" si="7"/>
@@ -38915,7 +38921,7 @@
       </c>
       <c r="F143" s="11">
         <f t="shared" si="5"/>
-        <v>-4232000000</v>
+        <v>-4370000000</v>
       </c>
       <c r="G143" s="11" t="s">
         <v>699</v>
@@ -38933,7 +38939,7 @@
       </c>
       <c r="D144" s="11">
         <f t="shared" si="6"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E144" s="11">
         <f t="shared" si="7"/>
@@ -38941,7 +38947,7 @@
       </c>
       <c r="F144" s="11">
         <f t="shared" si="5"/>
-        <v>9246420</v>
+        <v>9708741</v>
       </c>
       <c r="G144" s="11" t="s">
         <v>722</v>
@@ -38959,7 +38965,7 @@
       </c>
       <c r="D145" s="11">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E145" s="11">
         <f t="shared" si="7"/>
@@ -38967,7 +38973,7 @@
       </c>
       <c r="F145" s="11">
         <f t="shared" si="5"/>
-        <v>177000000</v>
+        <v>186000000</v>
       </c>
       <c r="G145" s="11" t="s">
         <v>729</v>
@@ -38985,7 +38991,7 @@
       </c>
       <c r="D146" s="11">
         <f t="shared" si="6"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E146" s="11">
         <f t="shared" si="7"/>
@@ -38993,7 +38999,7 @@
       </c>
       <c r="F146" s="11">
         <f t="shared" si="5"/>
-        <v>-11400000</v>
+        <v>-12000000</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>158</v>
@@ -39011,7 +39017,7 @@
       </c>
       <c r="D147" s="11">
         <f t="shared" si="6"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E147" s="11">
         <f t="shared" si="7"/>
@@ -39019,7 +39025,7 @@
       </c>
       <c r="F147" s="11">
         <f t="shared" si="5"/>
-        <v>-10400000</v>
+        <v>-11000000</v>
       </c>
       <c r="G147" s="11" t="s">
         <v>158</v>
@@ -39040,7 +39046,7 @@
       </c>
       <c r="D148" s="11">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E148" s="11">
         <f t="shared" si="7"/>
@@ -39048,7 +39054,7 @@
       </c>
       <c r="F148" s="11">
         <f t="shared" si="5"/>
-        <v>-10200000</v>
+        <v>-10800000</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>158</v>
@@ -39066,7 +39072,7 @@
       </c>
       <c r="D149" s="11">
         <f t="shared" si="6"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E149" s="11">
         <f t="shared" si="7"/>
@@ -39074,7 +39080,7 @@
       </c>
       <c r="F149" s="11">
         <f t="shared" si="5"/>
-        <v>-9400000</v>
+        <v>-10000000</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>158</v>
@@ -39092,7 +39098,7 @@
       </c>
       <c r="D150" s="11">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E150" s="11">
         <f t="shared" si="7"/>
@@ -39100,7 +39106,7 @@
       </c>
       <c r="F150" s="11">
         <f t="shared" si="5"/>
-        <v>1083303000</v>
+        <v>1155523200</v>
       </c>
       <c r="G150" s="11" t="s">
         <v>740</v>
@@ -39118,7 +39124,7 @@
       </c>
       <c r="D151" s="11">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E151" s="11">
         <f t="shared" si="7"/>
@@ -39126,7 +39132,7 @@
       </c>
       <c r="F151" s="11">
         <f t="shared" si="5"/>
-        <v>-8800000</v>
+        <v>-9400000</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>158</v>
@@ -39144,7 +39150,7 @@
       </c>
       <c r="D152" s="11">
         <f t="shared" si="6"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E152" s="11">
         <f t="shared" si="7"/>
@@ -39152,7 +39158,7 @@
       </c>
       <c r="F152" s="11">
         <f t="shared" si="5"/>
-        <v>-1140000000</v>
+        <v>-1230000000</v>
       </c>
       <c r="G152" s="11" t="s">
         <v>753</v>
@@ -39170,7 +39176,7 @@
       </c>
       <c r="D153" s="11">
         <f t="shared" si="6"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E153" s="11">
         <f t="shared" si="7"/>
@@ -39178,7 +39184,7 @@
       </c>
       <c r="F153" s="11">
         <f t="shared" si="5"/>
-        <v>-1924000</v>
+        <v>-2080000</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>761</v>
@@ -39196,7 +39202,7 @@
       </c>
       <c r="D154" s="11">
         <f t="shared" si="6"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E154" s="11">
         <f t="shared" si="7"/>
@@ -39204,7 +39210,7 @@
       </c>
       <c r="F154" s="11">
         <f t="shared" si="5"/>
-        <v>-5032000</v>
+        <v>-5440000</v>
       </c>
       <c r="G154" s="11" t="s">
         <v>762</v>
@@ -39222,7 +39228,7 @@
       </c>
       <c r="D155" s="11">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E155" s="11">
         <f t="shared" si="7"/>
@@ -39230,7 +39236,7 @@
       </c>
       <c r="F155" s="11">
         <f t="shared" si="5"/>
-        <v>93000000</v>
+        <v>102000000</v>
       </c>
       <c r="G155" s="11" t="s">
         <v>767</v>
@@ -39248,7 +39254,7 @@
       </c>
       <c r="D156" s="11">
         <f>D157+C156</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E156" s="11">
         <f t="shared" si="7"/>
@@ -39256,7 +39262,7 @@
       </c>
       <c r="F156" s="11">
         <f t="shared" si="5"/>
-        <v>5673090</v>
+        <v>6240399</v>
       </c>
       <c r="G156" s="11" t="s">
         <v>768</v>
@@ -39274,7 +39280,7 @@
       </c>
       <c r="D157" s="11">
         <f t="shared" ref="D157:D171" si="8">D158+C157</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E157" s="11">
         <f t="shared" si="7"/>
@@ -39282,7 +39288,7 @@
       </c>
       <c r="F157" s="11">
         <f t="shared" si="5"/>
-        <v>726831000</v>
+        <v>799514100</v>
       </c>
       <c r="G157" s="11" t="s">
         <v>769</v>
@@ -39300,7 +39306,7 @@
       </c>
       <c r="D158" s="11">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E158" s="11">
         <f t="shared" si="7"/>
@@ -39308,7 +39314,7 @@
       </c>
       <c r="F158" s="11">
         <f t="shared" si="5"/>
-        <v>534494400</v>
+        <v>607380000</v>
       </c>
       <c r="G158" s="11" t="s">
         <v>783</v>
@@ -39326,7 +39332,7 @@
       </c>
       <c r="D159" s="11">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E159" s="11">
         <f t="shared" si="7"/>
@@ -39334,7 +39340,7 @@
       </c>
       <c r="F159" s="11">
         <f t="shared" si="5"/>
-        <v>-4623000</v>
+        <v>-5226000</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>796</v>
@@ -39352,7 +39358,7 @@
       </c>
       <c r="D160" s="11">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E160" s="11">
         <f t="shared" si="7"/>
@@ -39360,7 +39366,7 @@
       </c>
       <c r="F160" s="11">
         <f t="shared" si="5"/>
-        <v>-3600000</v>
+        <v>-4200000</v>
       </c>
       <c r="G160" s="11" t="s">
         <v>798</v>
@@ -39378,7 +39384,7 @@
       </c>
       <c r="D161" s="11">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E161" s="11">
         <f t="shared" si="7"/>
@@ -39386,7 +39392,7 @@
       </c>
       <c r="F161" s="11">
         <f t="shared" si="5"/>
-        <v>-3000000</v>
+        <v>-3600000</v>
       </c>
       <c r="G161" s="11" t="s">
         <v>798</v>
@@ -39404,7 +39410,7 @@
       </c>
       <c r="D162" s="11">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E162" s="11">
         <f t="shared" si="7"/>
@@ -39412,7 +39418,7 @@
       </c>
       <c r="F162" s="11">
         <f t="shared" si="5"/>
-        <v>-2200000</v>
+        <v>-2800000</v>
       </c>
       <c r="G162" s="11" t="s">
         <v>798</v>
@@ -39430,7 +39436,7 @@
       </c>
       <c r="D163" s="11">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E163" s="11">
         <f t="shared" si="7"/>
@@ -39438,7 +39444,7 @@
       </c>
       <c r="F163" s="11">
         <f t="shared" si="5"/>
-        <v>-1600000</v>
+        <v>-2200000</v>
       </c>
       <c r="G163" s="11" t="s">
         <v>798</v>
@@ -39452,11 +39458,11 @@
         <v>457674</v>
       </c>
       <c r="C164" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D164" s="11">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E164" s="11">
         <f t="shared" si="7"/>
@@ -39464,7 +39470,7 @@
       </c>
       <c r="F164" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1373022</v>
       </c>
       <c r="G164" s="11" t="s">
         <v>811</v>
@@ -39472,23 +39478,29 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="11"/>
+        <v>816</v>
+      </c>
+      <c r="B165" s="3">
+        <v>2700000</v>
+      </c>
+      <c r="C165" s="11">
+        <v>1</v>
+      </c>
       <c r="D165" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G165" s="11"/>
+      <c r="G165" s="11" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
@@ -39608,14 +39620,14 @@
       <c r="A172" s="11"/>
       <c r="B172" s="29">
         <f>SUM(B2:B170)</f>
-        <v>63703520</v>
+        <v>66403520</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
       <c r="F172" s="29">
         <f>SUM(F2:F170)</f>
-        <v>9544826172</v>
+        <v>9735936732</v>
       </c>
       <c r="G172" s="11"/>
     </row>
@@ -39649,7 +39661,7 @@
       <c r="E175" s="11"/>
       <c r="F175" s="3">
         <f>F172/D2</f>
-        <v>17675604.022222221</v>
+        <v>17929901.900552485</v>
       </c>
       <c r="G175" s="11"/>
     </row>
@@ -39683,7 +39695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -39971,7 +39983,7 @@
       </c>
       <c r="K7" s="43">
         <f>'مسکن ایلیا'!B172</f>
-        <v>63703520</v>
+        <v>66403520</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>745</v>
@@ -40123,11 +40135,11 @@
       </c>
       <c r="F11" s="72">
         <f>K16</f>
-        <v>66253520</v>
+        <v>68953520</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="0"/>
-        <v>961658.36525768042</v>
+        <v>-1738341.6347423196</v>
       </c>
       <c r="H11" s="11"/>
       <c r="J11" s="2" t="s">
@@ -40288,7 +40300,7 @@
       </c>
       <c r="K16" s="3">
         <f>SUM(K7:K13)</f>
-        <v>66253520</v>
+        <v>68953520</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="11" t="s">
@@ -40329,7 +40341,7 @@
       </c>
       <c r="K17" s="3">
         <f>K7+K8+K11</f>
-        <v>67053520</v>
+        <v>69753520</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="11" t="s">
@@ -40370,7 +40382,7 @@
       </c>
       <c r="K18" s="1">
         <f>K16+N7</f>
-        <v>123253520</v>
+        <v>125953520</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>786</v>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="آذر 96" sheetId="28" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="820">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2494,6 +2494,12 @@
   </si>
   <si>
     <t>حقوق آبان علی</t>
+  </si>
+  <si>
+    <t>حقوق آبان مریم</t>
+  </si>
+  <si>
+    <t>تاریخ 4/9/96 2.5 میلیون برگرداند</t>
   </si>
 </sst>
 </file>
@@ -32273,7 +32279,7 @@
   <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -35343,11 +35349,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L184"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G166" sqref="G166"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36977,7 +36983,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="11">
-        <f t="shared" ref="F67:F170" si="5">B67*(D67-E67)</f>
+        <f t="shared" ref="F67:F185" si="5">B67*(D67-E67)</f>
         <v>10950000</v>
       </c>
       <c r="G67" s="11"/>
@@ -38601,7 +38607,7 @@
         <v>138</v>
       </c>
       <c r="E131" s="11">
-        <f t="shared" ref="E131:E171" si="7">IF(B131&gt;0,1,0)</f>
+        <f t="shared" ref="E131:E186" si="7">IF(B131&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="F131" s="11">
@@ -39279,7 +39285,7 @@
         <v>8</v>
       </c>
       <c r="D157" s="11">
-        <f t="shared" ref="D157:D171" si="8">D158+C157</f>
+        <f t="shared" ref="D157:D186" si="8">D158+C157</f>
         <v>34</v>
       </c>
       <c r="E157" s="11">
@@ -39484,7 +39490,7 @@
         <v>2700000</v>
       </c>
       <c r="C165" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" s="11">
         <f t="shared" si="8"/>
@@ -39503,25 +39509,35 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="11"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="11"/>
+      <c r="A166" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="B166" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="C166" s="11">
+        <v>1</v>
+      </c>
       <c r="D166" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G166" s="11"/>
+      <c r="G166" s="11" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="11"/>
+      <c r="A167" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="B167" s="3"/>
       <c r="C167" s="11"/>
       <c r="D167" s="11">
@@ -39539,9 +39555,7 @@
       <c r="G167" s="11"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="A168" s="11"/>
       <c r="B168" s="3"/>
       <c r="C168" s="11"/>
       <c r="D168" s="11">
@@ -39578,12 +39592,8 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
-      <c r="B170" s="3">
-        <v>0</v>
-      </c>
-      <c r="C170" s="11">
-        <v>0</v>
-      </c>
+      <c r="B170" s="3"/>
+      <c r="C170" s="11"/>
       <c r="D170" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -39611,78 +39621,356 @@
         <v>0</v>
       </c>
       <c r="F171" s="11">
-        <f t="shared" ref="F171" si="9">B171*(D171-E171)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G171" s="11"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
-      <c r="B172" s="29">
-        <f>SUM(B2:B170)</f>
-        <v>66403520</v>
-      </c>
+      <c r="B172" s="3"/>
       <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
-      <c r="E172" s="11"/>
-      <c r="F172" s="29">
-        <f>SUM(F2:F170)</f>
-        <v>9735936732</v>
+      <c r="D172" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E172" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F172" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="G172" s="11"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
-      <c r="B173" s="11" t="s">
-        <v>283</v>
-      </c>
+      <c r="B173" s="3"/>
       <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="11"/>
-      <c r="F173" s="11" t="s">
-        <v>284</v>
+      <c r="D173" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E173" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F173" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="G173" s="11"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
+      <c r="B174" s="3"/>
       <c r="C174" s="11"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="11"/>
-      <c r="F174" s="11"/>
+      <c r="D174" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E174" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F174" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G174" s="11"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
+      <c r="B175" s="3"/>
       <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="11"/>
-      <c r="F175" s="3">
-        <f>F172/D2</f>
-        <v>17929901.900552485</v>
+      <c r="D175" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E175" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F175" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="G175" s="11"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
+      <c r="B176" s="3"/>
       <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11"/>
-      <c r="F176" s="11" t="s">
+      <c r="D176" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E176" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F176" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G176" s="11"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B177" s="3"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E177" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F177" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G177" s="11"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="11"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E178" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F178" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G178" s="11"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="11"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E179" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F179" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G179" s="11"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="11"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E180" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F180" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G180" s="11"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="11"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E181" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F181" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G181" s="11"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="11"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E182" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F182" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G182" s="11"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B183" s="3"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E183" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F183" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G183" s="11"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="11"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E184" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F184" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G184" s="11"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="11"/>
+      <c r="B185" s="3">
+        <v>0</v>
+      </c>
+      <c r="C185" s="11">
+        <v>0</v>
+      </c>
+      <c r="D185" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E185" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F185" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G185" s="11"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="11"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E186" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F186" s="11">
+        <f t="shared" ref="F186" si="9">B186*(D186-E186)</f>
+        <v>0</v>
+      </c>
+      <c r="G186" s="11"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="11"/>
+      <c r="B187" s="29">
+        <f>SUM(B2:B185)</f>
+        <v>68903520</v>
+      </c>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="29">
+        <f>SUM(F2:F185)</f>
+        <v>9735936732</v>
+      </c>
+      <c r="G187" s="11"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="11"/>
+      <c r="B188" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="G188" s="11"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="11"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="3">
+        <f>F187/D2</f>
+        <v>17929901.900552485</v>
+      </c>
+      <c r="G190" s="11"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="11"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="G176" s="11"/>
-    </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D181" t="s">
+      <c r="G191" s="11"/>
+    </row>
+    <row r="196" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="4:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="E184" s="22" t="s">
+    <row r="199" spans="4:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E199" s="22" t="s">
         <v>564</v>
       </c>
     </row>
@@ -39695,8 +39983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39982,8 +40270,8 @@
         <v>301</v>
       </c>
       <c r="K7" s="43">
-        <f>'مسکن ایلیا'!B172</f>
-        <v>66403520</v>
+        <f>'مسکن ایلیا'!B187</f>
+        <v>68903520</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>745</v>
@@ -40135,18 +40423,18 @@
       </c>
       <c r="F11" s="72">
         <f>K16</f>
-        <v>68953520</v>
+        <v>66153520</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="0"/>
-        <v>-1738341.6347423196</v>
+        <v>1061658.3652576804</v>
       </c>
       <c r="H11" s="11"/>
       <c r="J11" s="2" t="s">
         <v>459</v>
       </c>
       <c r="K11" s="43">
-        <v>3300000</v>
+        <v>500000</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>748</v>
@@ -40182,7 +40470,7 @@
         <v>763</v>
       </c>
       <c r="K12" s="43">
-        <v>6000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -40300,7 +40588,7 @@
       </c>
       <c r="K16" s="3">
         <f>SUM(K7:K13)</f>
-        <v>68953520</v>
+        <v>66153520</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="11" t="s">
@@ -40341,7 +40629,7 @@
       </c>
       <c r="K17" s="3">
         <f>K7+K8+K11</f>
-        <v>69753520</v>
+        <v>69453520</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="11" t="s">
@@ -40382,7 +40670,7 @@
       </c>
       <c r="K18" s="1">
         <f>K16+N7</f>
-        <v>125953520</v>
+        <v>123153520</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>786</v>
@@ -40488,11 +40776,11 @@
         <v>6000000</v>
       </c>
       <c r="R20" s="11">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S20" s="29">
         <f>Q20*R20</f>
-        <v>180000000</v>
+        <v>150000000</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>791</v>
@@ -40529,13 +40817,24 @@
         <v>795</v>
       </c>
       <c r="N21" s="29">
-        <v>1800000</v>
-      </c>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="11"/>
+        <v>4300000</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>816</v>
+      </c>
+      <c r="Q21" s="29">
+        <v>3500000</v>
+      </c>
+      <c r="R21" s="11">
+        <v>16</v>
+      </c>
+      <c r="S21" s="29">
+        <f>Q21*R21</f>
+        <v>56000000</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="62">
@@ -40570,7 +40869,7 @@
         <v>787</v>
       </c>
       <c r="N22" s="29">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
@@ -40690,14 +40989,14 @@
       </c>
       <c r="N25" s="29">
         <f>SUM(N16:N23)</f>
-        <v>133674267</v>
+        <v>136324267</v>
       </c>
       <c r="P25" s="11"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
       <c r="S25" s="29">
         <f>SUM(S19:S22)</f>
-        <v>660000000</v>
+        <v>686000000</v>
       </c>
       <c r="T25" s="11"/>
     </row>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="821">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2500,6 +2500,9 @@
   </si>
   <si>
     <t>تاریخ 4/9/96 2.5 میلیون برگرداند</t>
+  </si>
+  <si>
+    <t>مبلغ 120 دادم و 110 گرفتم</t>
   </si>
 </sst>
 </file>
@@ -3185,8 +3188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4207,9 +4210,11 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D31" s="42">
-        <v>0</v>
-      </c>
-      <c r="E31" s="54"/>
+        <v>-10000</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>820</v>
+      </c>
       <c r="G31" s="9" t="s">
         <v>812</v>
       </c>
@@ -4313,7 +4318,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>7794922</v>
+        <v>7784922</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -39983,8 +39988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40423,18 +40428,18 @@
       </c>
       <c r="F11" s="72">
         <f>K16</f>
-        <v>66153520</v>
+        <v>65823520</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="0"/>
-        <v>1061658.3652576804</v>
+        <v>1391658.3652576804</v>
       </c>
       <c r="H11" s="11"/>
       <c r="J11" s="2" t="s">
         <v>459</v>
       </c>
       <c r="K11" s="43">
-        <v>500000</v>
+        <v>170000</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>748</v>
@@ -40588,7 +40593,7 @@
       </c>
       <c r="K16" s="3">
         <f>SUM(K7:K13)</f>
-        <v>66153520</v>
+        <v>65823520</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="11" t="s">
@@ -40629,7 +40634,7 @@
       </c>
       <c r="K17" s="3">
         <f>K7+K8+K11</f>
-        <v>69453520</v>
+        <v>69123520</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="11" t="s">
@@ -40670,7 +40675,7 @@
       </c>
       <c r="K18" s="1">
         <f>K16+N7</f>
-        <v>123153520</v>
+        <v>122823520</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>786</v>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="828">
   <si>
     <t>18/1/95</t>
   </si>
@@ -1482,12 +1482,6 @@
     <t>هزینه اتومبیل</t>
   </si>
   <si>
-    <t>بنزین</t>
-  </si>
-  <si>
-    <t>سال 96</t>
-  </si>
-  <si>
     <t>روغن</t>
   </si>
   <si>
@@ -2091,9 +2085,6 @@
     <t>امتیاز 75 روز اول</t>
   </si>
   <si>
-    <t>برای اینکه در 18 ماه اوراق تعلق بگیرد باید از تاریخ 1/6/1396 مبلغ  42.5 میلیون در حساب اضافه کرد</t>
-  </si>
-  <si>
     <t>کسری امتیاز</t>
   </si>
   <si>
@@ -2503,6 +2494,36 @@
   </si>
   <si>
     <t>مبلغ 120 دادم و 110 گرفتم</t>
+  </si>
+  <si>
+    <t>روغن گیربکس</t>
+  </si>
+  <si>
+    <t>10/1/1396</t>
+  </si>
+  <si>
+    <t>پلوس سمت شاگرد</t>
+  </si>
+  <si>
+    <t>صفحه کلاچ</t>
+  </si>
+  <si>
+    <t>نشتی گیری روغن ریزی</t>
+  </si>
+  <si>
+    <t>کوبش فنر عقب</t>
+  </si>
+  <si>
+    <t>سنسور فشار روغن کنار فیلتر روغن</t>
+  </si>
+  <si>
+    <t>چراغ جلو شاگرد</t>
+  </si>
+  <si>
+    <t>سال 97</t>
+  </si>
+  <si>
+    <t>بیمه</t>
   </si>
 </sst>
 </file>
@@ -2677,7 +2698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2814,12 +2835,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3246,7 +3261,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B2" s="3">
         <f>'آبان 96'!B24</f>
@@ -3281,7 +3296,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B3" s="39">
         <v>290900</v>
@@ -3294,7 +3309,7 @@
         <v>193541</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -3314,7 +3329,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -3354,7 +3369,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -3394,7 +3409,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B6" s="18">
         <v>0</v>
@@ -4213,10 +4228,10 @@
         <v>-10000</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>38</v>
@@ -15552,7 +15567,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B2" s="3">
         <f>مهر96!B24</f>
@@ -15587,7 +15602,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B3" s="39">
         <v>614287</v>
@@ -15600,7 +15615,7 @@
         <v>508316</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -15620,7 +15635,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B4" s="18">
         <v>-1210700</v>
@@ -15633,7 +15648,7 @@
         <v>-1210700</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F4">
         <v>26</v>
@@ -15662,7 +15677,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B5" s="18">
         <v>-97300</v>
@@ -15675,7 +15690,7 @@
         <v>-97300</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F5">
         <v>17</v>
@@ -15704,7 +15719,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B6" s="18">
         <v>-1000000</v>
@@ -15717,7 +15732,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -16525,10 +16540,10 @@
         <v>-170000</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>38</v>
@@ -16552,7 +16567,7 @@
         <v>295200</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="O32">
         <v>29</v>
@@ -16569,7 +16584,7 @@
         <v>-30000</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="O33">
         <v>30</v>
@@ -16586,7 +16601,7 @@
         <v>-100000</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="P34" t="s">
         <v>60</v>
@@ -16600,7 +16615,7 @@
         <v>-50000</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -18051,7 +18066,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B3" s="39">
         <v>174678</v>
@@ -18093,7 +18108,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B4" s="18">
         <v>-28400000</v>
@@ -18106,7 +18121,7 @@
         <v>-28400000</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -19021,7 +19036,7 @@
         <v>220000</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -19038,7 +19053,7 @@
         <v>-450000</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -19272,7 +19287,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B3" s="39">
         <v>163040</v>
@@ -19285,7 +19300,7 @@
         <v>40529</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -19314,7 +19329,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B4" s="18">
         <v>-5700</v>
@@ -19327,7 +19342,7 @@
         <v>-3200</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F4">
         <v>31</v>
@@ -19356,7 +19371,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -19369,7 +19384,7 @@
         <v>-500000</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F5">
         <v>17</v>
@@ -19398,7 +19413,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B6" s="18">
         <v>-160000</v>
@@ -19411,7 +19426,7 @@
         <v>-160000</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -20263,7 +20278,7 @@
         <v>150000</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>411</v>
@@ -20290,7 +20305,7 @@
         <v>200000</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -20304,7 +20319,7 @@
         <v>620000</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
@@ -20312,7 +20327,7 @@
         <v>5000</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
@@ -20320,7 +20335,7 @@
         <v>-800000</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
@@ -20336,7 +20351,7 @@
         <v>160000</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
@@ -20344,7 +20359,7 @@
         <v>200000</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
@@ -20352,7 +20367,7 @@
         <v>255000</v>
       </c>
       <c r="E40" s="41" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
@@ -20360,7 +20375,7 @@
         <v>-200000</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
@@ -20471,7 +20486,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B2" s="3">
         <f>'اردیبهشت 96'!B25</f>
@@ -20515,7 +20530,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B3" s="39">
         <v>1481</v>
@@ -20528,7 +20543,7 @@
         <v>-105460</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -20557,7 +20572,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B4" s="18">
         <v>39399500</v>
@@ -20570,7 +20585,7 @@
         <v>39399500</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -21459,7 +21474,7 @@
         <v>200000</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>411</v>
@@ -21486,7 +21501,7 @@
         <v>-50000</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -21503,7 +21518,7 @@
         <v>120000</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -21517,7 +21532,7 @@
         <v>-40000</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -21525,7 +21540,7 @@
         <v>200000</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -21533,7 +21548,7 @@
         <v>1000000</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -21541,7 +21556,7 @@
         <v>600000</v>
       </c>
       <c r="E37" s="41" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -21549,7 +21564,7 @@
         <v>-40000</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.25">
@@ -21665,7 +21680,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B2" s="3">
         <f>'خرداد 96'!B24</f>
@@ -21709,7 +21724,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B3" s="39">
         <v>95521</v>
@@ -21722,7 +21737,7 @@
         <v>-14533</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -21751,7 +21766,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B4" s="18">
         <v>2000000</v>
@@ -21764,7 +21779,7 @@
         <v>2000000</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F4">
         <v>26</v>
@@ -21793,7 +21808,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B5" s="18">
         <v>2600000</v>
@@ -21806,7 +21821,7 @@
         <v>2600000</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22654,7 +22669,7 @@
         <v>1342800</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>411</v>
@@ -22681,7 +22696,7 @@
         <v>-44000</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -22698,7 +22713,7 @@
         <v>-25000</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -22712,7 +22727,7 @@
         <v>-13000</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -22720,7 +22735,7 @@
         <v>200000</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -22728,7 +22743,7 @@
         <v>-120000</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -22736,7 +22751,7 @@
         <v>200000</v>
       </c>
       <c r="E37" s="41" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -22859,7 +22874,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B2" s="3">
         <f>'تیر 96'!B24</f>
@@ -22903,7 +22918,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B3" s="39">
         <v>384551</v>
@@ -22916,7 +22931,7 @@
         <v>273643</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -22945,7 +22960,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -22958,7 +22973,7 @@
         <v>-800000</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -22987,7 +23002,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B5" s="18">
         <v>-3000000</v>
@@ -23000,7 +23015,7 @@
         <v>-3000000</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F5">
         <v>16</v>
@@ -23848,7 +23863,7 @@
         <v>-65000</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>411</v>
@@ -23875,7 +23890,7 @@
         <v>-28000</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -23892,7 +23907,7 @@
         <v>100000</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -23906,7 +23921,7 @@
         <v>200000</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -23914,7 +23929,7 @@
         <v>27470</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -23922,7 +23937,7 @@
         <v>334000</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -23930,7 +23945,7 @@
         <v>400000</v>
       </c>
       <c r="E37" s="41" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -23938,7 +23953,7 @@
         <v>200000</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.25">
@@ -24039,7 +24054,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B2" s="3">
         <f>'مرداد 96'!B24</f>
@@ -24083,7 +24098,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B3" s="39">
         <v>400710</v>
@@ -24096,7 +24111,7 @@
         <v>281835</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -24125,7 +24140,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B4" s="18">
         <v>42000000</v>
@@ -24138,7 +24153,7 @@
         <v>42000000</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -24167,7 +24182,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B5" s="18">
         <v>-5000</v>
@@ -25028,7 +25043,7 @@
         <v>-3000000</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>411</v>
@@ -25055,7 +25070,7 @@
         <v>200000</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -25072,7 +25087,7 @@
         <v>2200700</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -25086,7 +25101,7 @@
         <v>-2000000</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -25094,7 +25109,7 @@
         <v>141950</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -25102,7 +25117,7 @@
         <v>800500</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -25110,7 +25125,7 @@
         <v>-100000</v>
       </c>
       <c r="E37" s="41" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -25222,7 +25237,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B2" s="3">
         <f>'شهریور 96'!B24</f>
@@ -25257,7 +25272,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B3" s="39">
         <v>771374</v>
@@ -25270,7 +25285,7 @@
         <v>650677</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -25290,7 +25305,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B4" s="18">
         <v>2500000</v>
@@ -25303,7 +25318,7 @@
         <v>2500000</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F4">
         <v>26</v>
@@ -25332,7 +25347,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B5" s="18">
         <v>-1000000</v>
@@ -25345,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F5">
         <v>13</v>
@@ -25374,7 +25389,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B6" s="18">
         <v>-50000000</v>
@@ -25387,7 +25402,7 @@
         <v>-50000000</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -26195,7 +26210,7 @@
         <v>-30000</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>411</v>
@@ -26222,7 +26237,7 @@
         <v>-10000</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="O32">
         <v>29</v>
@@ -26239,7 +26254,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="O33">
         <v>30</v>
@@ -26256,7 +26271,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="P34" t="s">
         <v>60</v>
@@ -26270,7 +26285,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -26278,7 +26293,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -26286,7 +26301,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="41" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -26368,7 +26383,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>25</v>
@@ -26389,7 +26404,7 @@
         <v>36</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -30866,7 +30881,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B111" s="39">
         <v>174678</v>
@@ -30907,7 +30922,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B112" s="18">
         <v>-28400000</v>
@@ -30920,7 +30935,7 @@
         <v>-28400000</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F112" s="36">
         <v>15</v>
@@ -30948,7 +30963,7 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B113" s="39">
         <v>163040</v>
@@ -30961,7 +30976,7 @@
         <v>40529</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F113" s="36">
         <v>0</v>
@@ -30989,7 +31004,7 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B114" s="18">
         <v>-5700</v>
@@ -31002,7 +31017,7 @@
         <v>-3200</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F114" s="36">
         <v>13</v>
@@ -31030,7 +31045,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B115" s="18">
         <v>0</v>
@@ -31043,7 +31058,7 @@
         <v>-500000</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F115" s="36">
         <v>8</v>
@@ -31071,7 +31086,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B116" s="18">
         <v>-160000</v>
@@ -31084,7 +31099,7 @@
         <v>-160000</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F116" s="36">
         <v>9</v>
@@ -31112,7 +31127,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B117" s="39">
         <v>1480</v>
@@ -31125,7 +31140,7 @@
         <v>-105461</v>
       </c>
       <c r="E117" s="23" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F117" s="36">
         <v>22</v>
@@ -31154,7 +31169,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B118" s="18">
         <v>39399500</v>
@@ -31167,7 +31182,7 @@
         <v>39399500</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F118" s="36">
         <v>9</v>
@@ -31196,7 +31211,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B119" s="39">
         <v>95521</v>
@@ -31209,7 +31224,7 @@
         <v>-14533</v>
       </c>
       <c r="E119" s="23" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F119" s="36">
         <v>4</v>
@@ -31237,7 +31252,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B120" s="18">
         <v>2000000</v>
@@ -31250,7 +31265,7 @@
         <v>2000000</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F120" s="11">
         <v>26</v>
@@ -31279,7 +31294,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B121" s="18">
         <v>2600000</v>
@@ -31292,7 +31307,7 @@
         <v>2600000</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F121" s="11">
         <v>1</v>
@@ -31320,7 +31335,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B122" s="39">
         <v>384551</v>
@@ -31333,7 +31348,7 @@
         <v>273643</v>
       </c>
       <c r="E122" s="23" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F122" s="11">
         <v>1</v>
@@ -31364,7 +31379,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B123" s="18">
         <v>0</v>
@@ -31377,7 +31392,7 @@
         <v>-800000</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F123" s="11">
         <v>14</v>
@@ -31405,7 +31420,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B124" s="18">
         <v>-3000000</v>
@@ -31418,7 +31433,7 @@
         <v>-3000000</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F124" s="11">
         <v>15</v>
@@ -31446,7 +31461,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B125" s="18">
         <v>400710</v>
@@ -31459,7 +31474,7 @@
         <v>281835</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F125" s="11">
         <v>0</v>
@@ -31487,7 +31502,7 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B126" s="18">
         <v>42000000</v>
@@ -31500,7 +31515,7 @@
         <v>42000000</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F126" s="11">
         <v>25</v>
@@ -31528,7 +31543,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B127" s="18">
         <v>-5000</v>
@@ -31569,7 +31584,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B128" s="18">
         <v>771374</v>
@@ -31582,7 +31597,7 @@
         <v>650677</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F128" s="11">
         <v>3</v>
@@ -31610,7 +31625,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B129" s="18">
         <v>2500000</v>
@@ -31623,7 +31638,7 @@
         <v>2500000</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F129" s="11">
         <v>14</v>
@@ -31651,7 +31666,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B130" s="18">
         <v>-1000000</v>
@@ -31664,7 +31679,7 @@
         <v>0</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F130" s="11">
         <v>5</v>
@@ -31692,7 +31707,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B131" s="18">
         <v>-50000000</v>
@@ -31705,7 +31720,7 @@
         <v>-50000000</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F131" s="11">
         <v>8</v>
@@ -31733,7 +31748,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B132" s="18">
         <v>614287</v>
@@ -31774,7 +31789,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B133" s="18">
         <v>-1210700</v>
@@ -31787,7 +31802,7 @@
         <v>-1210700</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F133" s="11">
         <v>9</v>
@@ -31815,7 +31830,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B134" s="18">
         <v>-65000</v>
@@ -31828,7 +31843,7 @@
         <v>-65000</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F134" s="11">
         <v>0</v>
@@ -31856,7 +31871,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B135" s="18">
         <v>-32300</v>
@@ -31869,7 +31884,7 @@
         <v>-32300</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F135" s="11">
         <v>8</v>
@@ -31897,7 +31912,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B136" s="18">
         <v>-1000000</v>
@@ -31910,7 +31925,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F136" s="11">
         <v>9</v>
@@ -31938,7 +31953,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B137" s="18">
         <v>290873</v>
@@ -32188,23 +32203,23 @@
         <v>283</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="I145" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="J145" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="K145" s="11" t="s">
         <v>490</v>
-      </c>
-      <c r="J145" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="K145" s="11" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -32252,13 +32267,13 @@
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
       <c r="I148" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="J148" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="K148" s="11" t="s">
         <v>496</v>
-      </c>
-      <c r="J148" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="K148" s="11" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -32692,10 +32707,10 @@
         <v>410021971552</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="N9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="O9" t="s">
         <v>295</v>
@@ -33493,7 +33508,7 @@
         <v>327005</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D33" s="11">
         <v>18</v>
@@ -33520,13 +33535,13 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B34" s="38">
         <v>28400000</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D34" s="11">
         <v>0</v>
@@ -33549,13 +33564,13 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="B35" s="57">
+        <v>11000000</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>500</v>
-      </c>
-      <c r="B35" s="59">
-        <v>11000000</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>502</v>
       </c>
       <c r="D35" s="11">
         <v>15</v>
@@ -33575,13 +33590,13 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B36" s="38">
         <v>418701</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D36" s="11">
         <v>0</v>
@@ -33601,13 +33616,13 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B37" s="38">
         <v>-900</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D37" s="11">
         <v>1</v>
@@ -33624,17 +33639,17 @@
         <f t="shared" si="4"/>
         <v>-194400</v>
       </c>
-      <c r="J37" s="60"/>
+      <c r="J37" s="58"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="B38" s="59">
+        <v>518</v>
+      </c>
+      <c r="B38" s="57">
         <v>2000000</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D38" s="11">
         <v>0</v>
@@ -33656,13 +33671,13 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B39" s="38">
         <v>2000000</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D39" s="11">
         <v>14</v>
@@ -33682,13 +33697,13 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B40" s="38">
         <v>-200000</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D40" s="11">
         <v>0</v>
@@ -33708,13 +33723,13 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B41" s="38">
         <v>-620000</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D41" s="11">
         <v>0</v>
@@ -33734,13 +33749,13 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B42" s="38">
         <v>-120000</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -33761,13 +33776,13 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B43" s="38">
         <v>650000</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D43" s="11">
         <v>0</v>
@@ -33787,7 +33802,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B44" s="38">
         <v>-5000</v>
@@ -33813,13 +33828,13 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B45" s="38">
         <v>29000000</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D45" s="11">
         <v>4</v>
@@ -33839,13 +33854,13 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B46" s="38">
         <v>-200000</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D46" s="11">
         <v>3</v>
@@ -33865,13 +33880,13 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B47" s="38">
         <v>-200000</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D47" s="11">
         <v>1</v>
@@ -33891,7 +33906,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B48" s="38">
         <v>-200000</v>
@@ -33917,13 +33932,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B49" s="38">
         <v>3000000</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D49" s="11">
         <v>0</v>
@@ -33943,13 +33958,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="B50" s="57">
+        <v>3000000</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>548</v>
-      </c>
-      <c r="B50" s="59">
-        <v>3000000</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>550</v>
       </c>
       <c r="D50" s="11">
         <v>1</v>
@@ -33969,13 +33984,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B51" s="38">
         <v>765797</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D51" s="11">
         <v>0</v>
@@ -33995,7 +34010,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B52" s="38">
         <v>-200000</v>
@@ -34021,13 +34036,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B53" s="38">
         <v>-400500</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D53" s="11">
         <v>9</v>
@@ -34047,13 +34062,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B54" s="38">
         <v>-1000396</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D54" s="11">
         <v>6</v>
@@ -34073,13 +34088,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B55" s="38">
         <v>-40000000</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D55" s="11">
         <v>9</v>
@@ -34099,13 +34114,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B56" s="38">
         <v>865652</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D56" s="11">
         <v>27</v>
@@ -34125,13 +34140,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B57" s="38">
         <v>-50200000</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D57" s="11">
         <v>1</v>
@@ -34151,13 +34166,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B58" s="38">
         <v>-12200500</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D58" s="11">
         <v>3</v>
@@ -34177,13 +34192,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B59" s="38">
         <v>534906</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D59" s="11">
         <v>1</v>
@@ -34203,13 +34218,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B60" s="38">
         <v>-338000</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -34229,13 +34244,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B61" s="38">
         <v>-150000</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D61" s="11">
         <v>4</v>
@@ -34255,7 +34270,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B62" s="38">
         <v>-100000</v>
@@ -34281,7 +34296,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B63" s="38">
         <v>-200000</v>
@@ -34313,7 +34328,7 @@
         <v>-87000</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D64" s="11">
         <v>4</v>
@@ -34333,13 +34348,13 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B65" s="38">
         <v>-27470</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D65" s="11">
         <v>1</v>
@@ -34359,13 +34374,13 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B66" s="38">
         <v>-334000</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D66" s="11">
         <v>5</v>
@@ -34385,13 +34400,13 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B67" s="38">
         <v>-20000</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D67" s="11">
         <v>1</v>
@@ -34411,13 +34426,13 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B68" s="38">
         <v>-300500</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D68" s="11">
         <v>0</v>
@@ -34437,13 +34452,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B69" s="38">
         <v>-100000</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D69" s="11">
         <v>5</v>
@@ -34463,7 +34478,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B70" s="38">
         <v>-200000</v>
@@ -34489,13 +34504,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B71" s="38">
         <v>15389</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D71" s="11">
         <v>0</v>
@@ -34515,13 +34530,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B72" s="38">
         <v>4000000</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D72" s="11">
         <v>0</v>
@@ -34541,13 +34556,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B73" s="38">
         <v>2600000</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D73" s="11">
         <v>0</v>
@@ -34570,13 +34585,13 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B74" s="38">
         <v>3000000</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D74" s="11">
         <v>3</v>
@@ -34596,7 +34611,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B75" s="38">
         <v>-200000</v>
@@ -34622,13 +34637,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B76" s="38">
         <v>-2000700</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D76" s="11">
         <v>0</v>
@@ -34648,7 +34663,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B77" s="38">
         <v>-200000</v>
@@ -34674,13 +34689,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B78" s="38">
         <v>2000000</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D78" s="11">
         <v>8</v>
@@ -34703,13 +34718,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B79" s="38">
         <v>-1000500</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D79" s="11">
         <v>0</v>
@@ -34729,13 +34744,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B80" s="38">
         <v>-141950</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D80" s="11">
         <v>3</v>
@@ -34755,13 +34770,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B81" s="38">
         <v>-900500</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D81" s="11">
         <v>10</v>
@@ -34781,13 +34796,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B82" s="38">
         <v>81251</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D82" s="11">
         <v>22</v>
@@ -34807,13 +34822,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B83" s="38">
         <v>50000000</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D83" s="11">
         <v>1</v>
@@ -34833,13 +34848,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B84" s="38">
         <v>30000000</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D84" s="11">
         <v>0</v>
@@ -34859,13 +34874,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B85" s="38">
         <v>-72500000</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D85" s="11">
         <v>1</v>
@@ -34885,13 +34900,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B86" s="38">
         <v>-281000</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D86" s="11">
         <v>5</v>
@@ -34911,13 +34926,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B87" s="38">
         <v>2500000</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D87" s="11">
         <v>1</v>
@@ -34937,13 +34952,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B88" s="38">
         <v>78340</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D88" s="11">
         <v>5</v>
@@ -34963,13 +34978,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B89" s="38">
         <v>15000000</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D89" s="11">
         <v>25</v>
@@ -34989,13 +35004,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B90" s="38">
         <v>244846</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D90" s="11">
         <v>1</v>
@@ -35338,7 +35353,7 @@
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G116" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
@@ -38140,12 +38155,12 @@
         <v>18149810</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B114" s="3">
         <v>-200000</v>
@@ -38174,7 +38189,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B115" s="35">
         <v>-11000000</v>
@@ -38195,12 +38210,12 @@
         <v>-2574000000</v>
       </c>
       <c r="G115" s="23" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B116" s="3">
         <v>-200000</v>
@@ -38229,7 +38244,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B117" s="3">
         <v>-450500</v>
@@ -38250,12 +38265,12 @@
         <v>-104516000</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B118" s="3">
         <v>-200000</v>
@@ -38276,7 +38291,7 @@
         <v>-46400000</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J118" t="s">
         <v>25</v>
@@ -38284,7 +38299,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B119" s="3">
         <v>-154550</v>
@@ -38305,12 +38320,12 @@
         <v>-34928300</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B120" s="3">
         <v>-320</v>
@@ -38331,12 +38346,12 @@
         <v>-72320</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B121" s="3">
         <v>-432000</v>
@@ -38357,12 +38372,12 @@
         <v>-97200000</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B122" s="3">
         <v>74043</v>
@@ -38383,12 +38398,12 @@
         <v>16141374</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B123" s="3">
         <v>-52000</v>
@@ -38409,12 +38424,12 @@
         <v>-10296000</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B124" s="3">
         <v>1187</v>
@@ -38435,12 +38450,12 @@
         <v>185172</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B125" s="3">
         <v>2400000</v>
@@ -38461,12 +38476,12 @@
         <v>372000000</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B126" s="3">
         <v>1342800</v>
@@ -38487,12 +38502,12 @@
         <v>205448400</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B127" s="3">
         <v>1342800</v>
@@ -38513,12 +38528,12 @@
         <v>205448400</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B128" s="3">
         <v>-200000</v>
@@ -38544,7 +38559,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B129" s="3">
         <v>-15618</v>
@@ -38565,7 +38580,7 @@
         <v>-2186520</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K129" t="s">
         <v>25</v>
@@ -38573,7 +38588,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B130" s="3">
         <v>-200000</v>
@@ -38594,12 +38609,12 @@
         <v>-27800000</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B131" s="3">
         <v>-200000</v>
@@ -38620,12 +38635,12 @@
         <v>-27600000</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B132" s="3">
         <v>-390000</v>
@@ -38646,12 +38661,12 @@
         <v>-53430000</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B133" s="3">
         <v>-24500</v>
@@ -38672,12 +38687,12 @@
         <v>-3356500</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B134" s="3">
         <v>-95000</v>
@@ -38703,7 +38718,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B135" s="3">
         <v>-200000</v>
@@ -38724,12 +38739,12 @@
         <v>-26400000</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B136" s="3">
         <v>50000000</v>
@@ -38750,12 +38765,12 @@
         <v>6450000000</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B137" s="3">
         <v>12000000</v>
@@ -38776,12 +38791,12 @@
         <v>1536000000</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B138" s="3">
         <v>2000000</v>
@@ -38802,12 +38817,12 @@
         <v>252000000</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B139" s="3">
         <v>87538</v>
@@ -38833,7 +38848,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B140" s="3">
         <v>-3000900</v>
@@ -38854,12 +38869,12 @@
         <v>-339101700</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B141" s="3">
         <v>-3000900</v>
@@ -38880,7 +38895,7 @@
         <v>-336100800</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="K141" t="s">
         <v>25</v>
@@ -38888,7 +38903,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B142" s="3">
         <v>602025</v>
@@ -38909,12 +38924,12 @@
         <v>56590350</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B143" s="3">
         <v>-46000000</v>
@@ -38935,12 +38950,12 @@
         <v>-4370000000</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B144" s="3">
         <v>154107</v>
@@ -38961,12 +38976,12 @@
         <v>9708741</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B145" s="3">
         <v>3000000</v>
@@ -38987,12 +39002,12 @@
         <v>186000000</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B146" s="3">
         <v>-200000</v>
@@ -39018,7 +39033,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B147" s="3">
         <v>-200000</v>
@@ -39047,7 +39062,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B148" s="3">
         <v>-200000</v>
@@ -39073,7 +39088,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B149" s="3">
         <v>-200000</v>
@@ -39099,7 +39114,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B150" s="3">
         <v>24073400</v>
@@ -39120,12 +39135,12 @@
         <v>1155523200</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B151" s="3">
         <v>-200000</v>
@@ -39151,7 +39166,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B152" s="3">
         <v>-30000000</v>
@@ -39172,12 +39187,12 @@
         <v>-1230000000</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B153" s="3">
         <v>-52000</v>
@@ -39198,12 +39213,12 @@
         <v>-2080000</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B154" s="3">
         <v>-136000</v>
@@ -39224,12 +39239,12 @@
         <v>-5440000</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B155" s="3">
         <v>3000000</v>
@@ -39250,12 +39265,12 @@
         <v>102000000</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B156" s="3">
         <v>189103</v>
@@ -39276,12 +39291,12 @@
         <v>6240399</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B157" s="3">
         <v>24227700</v>
@@ -39302,12 +39317,12 @@
         <v>799514100</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B158" s="3">
         <v>24295200</v>
@@ -39328,12 +39343,12 @@
         <v>607380000</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B159" s="3">
         <v>-201000</v>
@@ -39354,12 +39369,12 @@
         <v>-5226000</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B160" s="3">
         <v>-200000</v>
@@ -39380,12 +39395,12 @@
         <v>-4200000</v>
       </c>
       <c r="G160" s="11" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B161" s="3">
         <v>-200000</v>
@@ -39406,12 +39421,12 @@
         <v>-3600000</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B162" s="3">
         <v>-200000</v>
@@ -39432,12 +39447,12 @@
         <v>-2800000</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B163" s="3">
         <v>-200000</v>
@@ -39458,12 +39473,12 @@
         <v>-2200000</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B164" s="3">
         <v>457674</v>
@@ -39484,12 +39499,12 @@
         <v>1373022</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B165" s="3">
         <v>2700000</v>
@@ -39510,12 +39525,12 @@
         <v>0</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B166" s="3">
         <v>2500000</v>
@@ -39536,7 +39551,7 @@
         <v>0</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -39976,7 +39991,7 @@
     </row>
     <row r="199" spans="4:5" ht="75" x14ac:dyDescent="0.25">
       <c r="E199" s="22" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -39988,8 +40003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40006,7 +40021,7 @@
     <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.85546875" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="16.140625" bestFit="1" customWidth="1"/>
@@ -40022,13 +40037,13 @@
         <v>449</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>450</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>457</v>
@@ -40046,7 +40061,7 @@
         <v>453</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>455</v>
@@ -40074,7 +40089,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K2" s="11">
         <v>1.01</v>
@@ -40114,10 +40129,10 @@
         <v>-460000</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="N3" s="29">
         <v>38000000</v>
@@ -40150,7 +40165,7 @@
         <v>-884200</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>303</v>
@@ -40186,14 +40201,14 @@
         <v>-1271834</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>454</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="N5" s="29">
         <v>14500000</v>
@@ -40218,7 +40233,7 @@
         <f t="shared" si="2"/>
         <v>58377879.82</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="66">
         <v>60000000</v>
       </c>
       <c r="G6" s="29">
@@ -40226,7 +40241,7 @@
         <v>-1622120.1799999997</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>8</v>
@@ -40261,7 +40276,7 @@
         <f t="shared" si="2"/>
         <v>60065739.421400003</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="66">
         <v>56000000</v>
       </c>
       <c r="G7" s="29">
@@ -40269,7 +40284,7 @@
         <v>4065739.4214000031</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>301</v>
@@ -40279,7 +40294,7 @@
         <v>68903520</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="N7" s="29">
         <v>57000000</v>
@@ -40304,7 +40319,7 @@
         <f t="shared" si="2"/>
         <v>61792559.234878004</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="66">
         <v>58000000</v>
       </c>
       <c r="G8" s="29">
@@ -40312,7 +40327,7 @@
         <v>3792559.2348780036</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>456</v>
@@ -40343,7 +40358,7 @@
         <f t="shared" si="2"/>
         <v>63559170.494876064</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="66">
         <v>63664843</v>
       </c>
       <c r="G9" s="29">
@@ -40351,10 +40366,10 @@
         <v>-105672.50512393564</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="K9" s="43">
         <v>1000000</v>
@@ -40391,7 +40406,7 @@
         <v>-887098.41917290539</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>85</v>
@@ -40400,7 +40415,7 @@
         <v>-7800000</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="N10" s="29">
         <f>SUM(N2:N6)</f>
@@ -40426,7 +40441,7 @@
         <f t="shared" si="2"/>
         <v>67215178.36525768</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="70">
         <f>K16</f>
         <v>65823520</v>
       </c>
@@ -40442,7 +40457,7 @@
         <v>170000</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="N11" s="29">
         <f>SUM(N2:N9)</f>
@@ -40472,7 +40487,7 @@
       <c r="G12" s="29"/>
       <c r="H12" s="11"/>
       <c r="J12" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K12" s="43">
         <v>3500000</v>
@@ -40536,7 +40551,7 @@
       <c r="T14" s="25"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="62">
+      <c r="A15" s="60">
         <v>97</v>
       </c>
       <c r="B15" s="11">
@@ -40562,12 +40577,12 @@
       <c r="L15" s="25"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="62">
+      <c r="A16" s="60">
         <v>97</v>
       </c>
       <c r="B16" s="11">
@@ -40589,7 +40604,7 @@
       <c r="G16" s="29"/>
       <c r="H16" s="11"/>
       <c r="J16" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K16" s="3">
         <f>SUM(K7:K13)</f>
@@ -40597,7 +40612,7 @@
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="11" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="N16" s="29">
         <f>'مسکن مریم یاران'!B105</f>
@@ -40608,7 +40623,7 @@
       <c r="R16" s="25"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="62">
+      <c r="A17" s="60">
         <v>97</v>
       </c>
       <c r="B17" s="11">
@@ -40630,7 +40645,7 @@
       <c r="G17" s="29"/>
       <c r="H17" s="11"/>
       <c r="J17" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K17" s="3">
         <f>K7+K8+K11</f>
@@ -40638,7 +40653,7 @@
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N17" s="29">
         <f>سارا!D144</f>
@@ -40649,7 +40664,7 @@
       <c r="R17" s="25"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="62">
+      <c r="A18" s="60">
         <v>97</v>
       </c>
       <c r="B18" s="11">
@@ -40670,15 +40685,15 @@
       <c r="F18" s="3"/>
       <c r="G18" s="29"/>
       <c r="H18" s="11"/>
-      <c r="J18" s="58" t="s">
-        <v>746</v>
+      <c r="J18" s="56" t="s">
+        <v>743</v>
       </c>
       <c r="K18" s="1">
         <f>K16+N7</f>
         <v>122823520</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="N18" s="29">
         <v>65000000</v>
@@ -40692,15 +40707,15 @@
       <c r="R18" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="S18" s="73" t="s">
+      <c r="S18" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="T18" s="73" t="s">
+      <c r="T18" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="62">
+      <c r="A19" s="60">
         <v>97</v>
       </c>
       <c r="B19" s="11">
@@ -40722,13 +40737,13 @@
       <c r="G19" s="29"/>
       <c r="H19" s="11"/>
       <c r="M19" s="11" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="N19" s="29">
         <v>5500000</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="Q19" s="29">
         <v>30000000</v>
@@ -40741,11 +40756,11 @@
         <v>480000000</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="62">
+      <c r="A20" s="60">
         <v>97</v>
       </c>
       <c r="B20" s="11">
@@ -40769,13 +40784,13 @@
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
       <c r="M20" s="11" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="N20" s="29">
         <v>3300000</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="Q20" s="29">
         <v>6000000</v>
@@ -40788,11 +40803,11 @@
         <v>150000000</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="62">
+      <c r="A21" s="60">
         <v>97</v>
       </c>
       <c r="B21" s="11">
@@ -40819,13 +40834,13 @@
         <v>306</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="N21" s="29">
         <v>4300000</v>
       </c>
       <c r="P21" s="29" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="Q21" s="29">
         <v>3500000</v>
@@ -40838,11 +40853,11 @@
         <v>56000000</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="62">
+      <c r="A22" s="60">
         <v>97</v>
       </c>
       <c r="B22" s="11">
@@ -40871,10 +40886,10 @@
         <v>70000</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="N22" s="29">
-        <v>350000</v>
+        <v>100000</v>
       </c>
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
@@ -40883,7 +40898,7 @@
       <c r="T22" s="11"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="62">
+      <c r="A23" s="60">
         <v>97</v>
       </c>
       <c r="B23" s="11">
@@ -40912,7 +40927,7 @@
         <v>100000</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="N23" s="29">
         <v>1200000</v>
@@ -40924,7 +40939,7 @@
       <c r="T23" s="11"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="62">
+      <c r="A24" s="60">
         <v>97</v>
       </c>
       <c r="B24" s="11">
@@ -40961,7 +40976,7 @@
       <c r="T24" s="11"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="62">
+      <c r="A25" s="60">
         <v>97</v>
       </c>
       <c r="B25" s="11">
@@ -40994,7 +41009,7 @@
       </c>
       <c r="N25" s="29">
         <f>SUM(N16:N23)</f>
-        <v>136324267</v>
+        <v>136074267</v>
       </c>
       <c r="P25" s="11"/>
       <c r="Q25" s="29"/>
@@ -41006,7 +41021,7 @@
       <c r="T25" s="11"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="62">
+      <c r="A26" s="60">
         <v>97</v>
       </c>
       <c r="B26" s="11">
@@ -41037,7 +41052,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
-      <c r="S26" s="73" t="s">
+      <c r="S26" s="71" t="s">
         <v>6</v>
       </c>
       <c r="T26" s="29"/>
@@ -41046,7 +41061,7 @@
       <c r="W26" s="25"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="63">
+      <c r="A27" s="61">
         <v>98</v>
       </c>
       <c r="B27" s="11">
@@ -41085,7 +41100,7 @@
       <c r="W27" s="25"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="63">
+      <c r="A28" s="61">
         <v>98</v>
       </c>
       <c r="B28" s="11">
@@ -41118,13 +41133,13 @@
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
       <c r="T28" s="11" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="V28" s="25"/>
       <c r="W28" s="25"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="63">
+      <c r="A29" s="61">
         <v>98</v>
       </c>
       <c r="B29" s="11">
@@ -41157,13 +41172,13 @@
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="V29" s="25"/>
       <c r="W29" s="25"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="63">
+      <c r="A30" s="61">
         <v>98</v>
       </c>
       <c r="B30" s="11">
@@ -41198,7 +41213,7 @@
       <c r="V30" s="25"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="63">
+      <c r="A31" s="61">
         <v>98</v>
       </c>
       <c r="B31" s="11">
@@ -41228,7 +41243,7 @@
       </c>
       <c r="M31" s="25"/>
       <c r="N31" s="48" t="s">
-        <v>481</v>
+        <v>826</v>
       </c>
       <c r="O31" s="48" t="s">
         <v>479</v>
@@ -41237,7 +41252,7 @@
       <c r="V31" s="25"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="63">
+      <c r="A32" s="61">
         <v>98</v>
       </c>
       <c r="B32" s="11">
@@ -41265,17 +41280,17 @@
       <c r="L32" s="1">
         <v>50000</v>
       </c>
-      <c r="N32" s="56">
-        <v>400000</v>
-      </c>
-      <c r="O32" s="57" t="s">
-        <v>480</v>
+      <c r="N32" s="47">
+        <v>500000</v>
+      </c>
+      <c r="O32" s="48" t="s">
+        <v>482</v>
       </c>
       <c r="V32" s="25"/>
       <c r="W32" s="25"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="63">
+      <c r="A33" s="61">
         <v>98</v>
       </c>
       <c r="B33" s="11">
@@ -41304,14 +41319,14 @@
         <v>90000</v>
       </c>
       <c r="N33" s="47">
-        <v>500000</v>
+        <v>130000</v>
       </c>
       <c r="O33" s="48" t="s">
-        <v>484</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="63">
+      <c r="A34" s="61">
         <v>98</v>
       </c>
       <c r="B34" s="11">
@@ -41339,14 +41354,14 @@
         <v>50000</v>
       </c>
       <c r="N34" s="47">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="O34" s="48" t="s">
-        <v>563</v>
+        <v>821</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="63">
+      <c r="A35" s="61">
         <v>98</v>
       </c>
       <c r="B35" s="11">
@@ -41374,14 +41389,14 @@
         <v>150000</v>
       </c>
       <c r="N35" s="47">
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="O35" s="48" t="s">
-        <v>485</v>
+        <v>822</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="63">
+      <c r="A36" s="61">
         <v>98</v>
       </c>
       <c r="B36" s="11">
@@ -41409,17 +41424,17 @@
         <v>15000</v>
       </c>
       <c r="N36" s="47">
-        <v>140000</v>
+        <v>500000</v>
       </c>
       <c r="O36" s="48" t="s">
-        <v>316</v>
+        <v>823</v>
       </c>
       <c r="V36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="63">
+      <c r="A37" s="61">
         <v>98</v>
       </c>
       <c r="B37" s="11">
@@ -41447,15 +41462,14 @@
         <v>20000</v>
       </c>
       <c r="N37" s="47">
-        <f>SUM(N32:N36)</f>
-        <v>1420000</v>
+        <v>30000</v>
       </c>
       <c r="O37" s="48" t="s">
-        <v>6</v>
+        <v>824</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="63">
+      <c r="A38" s="61">
         <v>98</v>
       </c>
       <c r="B38" s="11">
@@ -41482,9 +41496,15 @@
       <c r="L38" s="1">
         <v>40000</v>
       </c>
+      <c r="N38" s="47">
+        <v>75000</v>
+      </c>
+      <c r="O38" s="48" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="64">
+      <c r="A39" s="62">
         <v>99</v>
       </c>
       <c r="B39" s="11">
@@ -41511,9 +41531,15 @@
       <c r="L39" s="1">
         <v>150000</v>
       </c>
+      <c r="N39" s="47">
+        <v>450000</v>
+      </c>
+      <c r="O39" s="48" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="64">
+      <c r="A40" s="62">
         <v>99</v>
       </c>
       <c r="B40" s="11">
@@ -41540,9 +41566,15 @@
       <c r="L40" s="1">
         <v>75000</v>
       </c>
+      <c r="N40" s="47">
+        <v>500000</v>
+      </c>
+      <c r="O40" s="48" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="64">
+      <c r="A41" s="62">
         <v>99</v>
       </c>
       <c r="B41" s="11">
@@ -41569,9 +41601,15 @@
       <c r="L41" s="1">
         <v>140000</v>
       </c>
+      <c r="N41" s="47">
+        <v>250000</v>
+      </c>
+      <c r="O41" s="48" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="64">
+      <c r="A42" s="62">
         <v>99</v>
       </c>
       <c r="B42" s="11">
@@ -41593,14 +41631,20 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="K42" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L42" s="3">
         <v>500000</v>
       </c>
+      <c r="N42" s="47">
+        <v>140000</v>
+      </c>
+      <c r="O42" s="48" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="64">
+      <c r="A43" s="62">
         <v>99</v>
       </c>
       <c r="B43" s="11">
@@ -41623,9 +41667,16 @@
       <c r="H43" s="11"/>
       <c r="K43" s="2"/>
       <c r="L43" s="3"/>
+      <c r="N43" s="47">
+        <f>SUM(N32:N42)</f>
+        <v>3375000</v>
+      </c>
+      <c r="O43" s="48" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="64">
+      <c r="A44" s="62">
         <v>99</v>
       </c>
       <c r="B44" s="11">
@@ -41650,7 +41701,7 @@
       <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="64">
+      <c r="A45" s="62">
         <v>99</v>
       </c>
       <c r="B45" s="11">
@@ -41680,7 +41731,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="64">
+      <c r="A46" s="62">
         <v>99</v>
       </c>
       <c r="B46" s="11">
@@ -41710,7 +41761,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="64">
+      <c r="A47" s="62">
         <v>99</v>
       </c>
       <c r="B47" s="11">
@@ -41733,32 +41784,32 @@
       <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="66">
+      <c r="A48" s="64">
         <v>99</v>
       </c>
-      <c r="B48" s="66">
+      <c r="B48" s="64">
         <v>46</v>
       </c>
-      <c r="C48" s="67">
+      <c r="C48" s="65">
         <f t="shared" si="5"/>
         <v>4694432.2416918864</v>
       </c>
-      <c r="D48" s="67">
+      <c r="D48" s="65">
         <f t="shared" si="6"/>
         <v>3912026.8680765736</v>
       </c>
-      <c r="E48" s="67">
+      <c r="E48" s="65">
         <f t="shared" si="4"/>
         <v>174611408.78440517</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="64">
+      <c r="A49" s="62">
         <v>99</v>
       </c>
       <c r="B49" s="11">
@@ -41781,7 +41832,7 @@
       <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="64">
+      <c r="A50" s="62">
         <v>99</v>
       </c>
       <c r="B50" s="11">
@@ -41804,7 +41855,7 @@
       <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="65">
+      <c r="A51" s="63">
         <v>1400</v>
       </c>
       <c r="B51" s="11">
@@ -41827,7 +41878,7 @@
       <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="65">
+      <c r="A52" s="63">
         <v>1400</v>
       </c>
       <c r="B52" s="11">
@@ -41850,7 +41901,7 @@
       <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="65">
+      <c r="A53" s="63">
         <v>1400</v>
       </c>
       <c r="B53" s="11">
@@ -41873,7 +41924,7 @@
       <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="65">
+      <c r="A54" s="63">
         <v>1400</v>
       </c>
       <c r="B54" s="11">
@@ -41896,7 +41947,7 @@
       <c r="H54" s="11"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="65">
+      <c r="A55" s="63">
         <v>1400</v>
       </c>
       <c r="B55" s="11">
@@ -41919,7 +41970,7 @@
       <c r="H55" s="11"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="65">
+      <c r="A56" s="63">
         <v>1400</v>
       </c>
       <c r="B56" s="11">
@@ -41942,7 +41993,7 @@
       <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="65">
+      <c r="A57" s="63">
         <v>1400</v>
       </c>
       <c r="B57" s="11">
@@ -41965,7 +42016,7 @@
       <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="65">
+      <c r="A58" s="63">
         <v>1400</v>
       </c>
       <c r="B58" s="11">
@@ -41988,7 +42039,7 @@
       <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="65">
+      <c r="A59" s="63">
         <v>1400</v>
       </c>
       <c r="B59" s="11">
@@ -42011,7 +42062,7 @@
       <c r="H59" s="11"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="65">
+      <c r="A60" s="63">
         <v>1400</v>
       </c>
       <c r="B60" s="11">
@@ -42034,7 +42085,7 @@
       <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="65">
+      <c r="A61" s="63">
         <v>1400</v>
       </c>
       <c r="B61" s="11">
@@ -42057,7 +42108,7 @@
       <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="65">
+      <c r="A62" s="63">
         <v>1400</v>
       </c>
       <c r="B62" s="11">
@@ -43026,8 +43077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43252,16 +43303,16 @@
       </c>
       <c r="D12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="O12" s="70" t="s">
+      <c r="O12" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="P12" s="70" t="s">
+      <c r="P12" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="Q12" s="70" t="s">
+      <c r="Q12" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="R12" s="70" t="s">
+      <c r="R12" s="68" t="s">
         <v>235</v>
       </c>
       <c r="S12" s="11"/>
@@ -43276,13 +43327,13 @@
       </c>
       <c r="D13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="O13" s="71">
+      <c r="O13" s="69">
         <v>6</v>
       </c>
-      <c r="P13" s="71">
+      <c r="P13" s="69">
         <v>36</v>
       </c>
-      <c r="Q13" s="70">
+      <c r="Q13" s="68">
         <v>0.5</v>
       </c>
       <c r="R13" s="11">
@@ -43307,13 +43358,13 @@
       </c>
       <c r="D14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="O14" s="71">
+      <c r="O14" s="69">
         <v>9</v>
       </c>
-      <c r="P14" s="71">
+      <c r="P14" s="69">
         <v>37</v>
       </c>
-      <c r="Q14" s="70">
+      <c r="Q14" s="68">
         <v>0.75</v>
       </c>
       <c r="R14" s="11">
@@ -43338,13 +43389,13 @@
       </c>
       <c r="D15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="O15" s="71">
+      <c r="O15" s="69">
         <v>12</v>
       </c>
-      <c r="P15" s="71">
+      <c r="P15" s="69">
         <v>38</v>
       </c>
-      <c r="Q15" s="70">
+      <c r="Q15" s="68">
         <v>1</v>
       </c>
       <c r="R15" s="11">
@@ -43369,13 +43420,13 @@
       </c>
       <c r="D16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="O16" s="71">
+      <c r="O16" s="69">
         <v>18</v>
       </c>
-      <c r="P16" s="71">
+      <c r="P16" s="69">
         <v>41</v>
       </c>
-      <c r="Q16" s="70">
+      <c r="Q16" s="68">
         <v>2</v>
       </c>
       <c r="R16" s="11">
@@ -43400,13 +43451,13 @@
       </c>
       <c r="D17" s="18"/>
       <c r="F17" s="18"/>
-      <c r="O17" s="71">
+      <c r="O17" s="69">
         <v>24</v>
       </c>
-      <c r="P17" s="71">
+      <c r="P17" s="69">
         <v>44</v>
       </c>
-      <c r="Q17" s="70">
+      <c r="Q17" s="68">
         <v>3</v>
       </c>
       <c r="R17" s="11">
@@ -43431,13 +43482,13 @@
       </c>
       <c r="D18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="O18" s="71">
+      <c r="O18" s="69">
         <v>30</v>
       </c>
-      <c r="P18" s="71">
+      <c r="P18" s="69">
         <v>47</v>
       </c>
-      <c r="Q18" s="70">
+      <c r="Q18" s="68">
         <v>4</v>
       </c>
       <c r="R18" s="11">
@@ -43462,13 +43513,13 @@
       </c>
       <c r="D19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="O19" s="71">
+      <c r="O19" s="69">
         <v>36</v>
       </c>
-      <c r="P19" s="71">
+      <c r="P19" s="69">
         <v>50</v>
       </c>
-      <c r="Q19" s="70">
+      <c r="Q19" s="68">
         <v>5</v>
       </c>
       <c r="R19" s="11">
@@ -43516,246 +43567,248 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G28" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>180</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G29" s="11">
-        <f t="shared" ref="G29:G40" si="6">$I$44-I29</f>
-        <v>61000</v>
+        <f>$I$47-I29</f>
+        <v>61500</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I29" s="11">
         <v>165000</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G30" s="11">
-        <f t="shared" si="6"/>
-        <v>26000</v>
+        <f>$I$47-I30</f>
+        <v>26500</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I30" s="11">
         <v>200000</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G31" s="11">
-        <f t="shared" si="6"/>
-        <v>1500</v>
+        <f>$I$47-I31</f>
+        <v>2000</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="I31" s="11">
         <v>224500</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G32" s="11">
-        <f t="shared" si="6"/>
-        <v>41000</v>
-      </c>
-      <c r="H32" s="61">
+        <f>$I$47-I32</f>
+        <v>41500</v>
+      </c>
+      <c r="H32" s="59">
         <v>34617</v>
       </c>
       <c r="I32" s="11">
         <v>185000</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G33" s="11">
-        <f t="shared" si="6"/>
-        <v>1500</v>
+        <f>$I$47-I33</f>
+        <v>2000</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="I33" s="11">
         <v>224500</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G34" s="11">
-        <f t="shared" si="6"/>
-        <v>1500</v>
+        <f>$I$47-I34</f>
+        <v>2000</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="I34" s="11">
         <v>224500</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G35" s="11">
-        <f t="shared" si="6"/>
-        <v>1500</v>
+        <f>$I$47-I35</f>
+        <v>2000</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="I35" s="11">
         <v>224500</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="36" spans="6:23" ht="75" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="36" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>25</v>
       </c>
       <c r="G36" s="11">
-        <f t="shared" si="6"/>
-        <v>7000</v>
+        <f>$I$47-I36</f>
+        <v>7500</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="I36" s="11">
         <v>219000</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="O36" s="22" t="s">
-        <v>683</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="O36" s="22"/>
     </row>
     <row r="37" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G37" s="11">
-        <f t="shared" si="6"/>
-        <v>8000</v>
+        <f>$I$47-I37</f>
+        <v>8500</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I37" s="11">
         <v>218000</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="38" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G38" s="11">
-        <f t="shared" si="6"/>
-        <v>1500</v>
+        <f>$I$47-I38</f>
+        <v>2000</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I38" s="11">
         <v>224500</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="39" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G39" s="11">
-        <f t="shared" si="6"/>
-        <v>36000</v>
+        <f>$I$47-I39</f>
+        <v>36500</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="I39" s="11">
         <v>190000</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="40" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G40" s="11">
-        <f t="shared" si="6"/>
-        <v>1000</v>
+        <f>$I$47-I40</f>
+        <v>1500</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="I40" s="11">
         <v>225000</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="O40" t="s">
+        <v>635</v>
+      </c>
+      <c r="P40" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>633</v>
+      </c>
+      <c r="R40" t="s">
+        <v>636</v>
+      </c>
+      <c r="S40" t="s">
+        <v>679</v>
+      </c>
+      <c r="T40" t="s">
+        <v>680</v>
+      </c>
+      <c r="U40" t="s">
         <v>637</v>
       </c>
-      <c r="P40" t="s">
-        <v>636</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>635</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="V40" t="s">
         <v>638</v>
       </c>
-      <c r="S40" t="s">
-        <v>681</v>
-      </c>
-      <c r="T40" t="s">
-        <v>682</v>
-      </c>
-      <c r="U40" t="s">
+      <c r="W40" t="s">
         <v>639</v>
-      </c>
-      <c r="V40" t="s">
-        <v>640</v>
-      </c>
-      <c r="W40" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="41" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G41" s="11">
-        <f t="shared" ref="G41:G43" si="7">$I$44-I41</f>
-        <v>226000</v>
-      </c>
-      <c r="H41" s="11"/>
+        <f>$I$47-I41</f>
+        <v>10500</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>819</v>
+      </c>
       <c r="I41" s="11">
-        <v>0</v>
-      </c>
-      <c r="J41" s="11"/>
+        <v>216000</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>818</v>
+      </c>
       <c r="M41" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N41" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="O41" s="18">
         <v>8000000000</v>
@@ -43793,23 +43846,23 @@
     </row>
     <row r="42" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G42" s="11">
-        <f t="shared" si="7"/>
-        <v>226000</v>
+        <f>$I$47-I42</f>
+        <v>10500</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>25</v>
+        <v>819</v>
       </c>
       <c r="I42" s="11">
-        <v>0</v>
+        <v>216000</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>25</v>
+        <v>820</v>
       </c>
       <c r="M42" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N42" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="O42" s="18">
         <v>6300000000</v>
@@ -43845,15 +43898,12 @@
       </c>
     </row>
     <row r="43" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="G43" s="11">
-        <f t="shared" si="7"/>
-        <v>226000</v>
-      </c>
+      <c r="G43" s="11"/>
       <c r="H43" s="11"/>
-      <c r="I43" s="11">
-        <v>0</v>
-      </c>
-      <c r="J43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="Q43" s="7">
         <f>Q41+Q42</f>
         <v>100437000</v>
@@ -43866,50 +43916,57 @@
     <row r="44" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="11">
-        <v>226000</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>578</v>
-      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
     </row>
     <row r="45" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
+      <c r="J45" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="S45" s="7">
         <f>S42-Q42</f>
         <v>42063000</v>
       </c>
     </row>
     <row r="46" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="G46" s="11"/>
+      <c r="G46" s="11">
+        <f>$I$47-I46</f>
+        <v>226500</v>
+      </c>
       <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
+      <c r="I47" s="11">
+        <v>226500</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="50" spans="15:21" x14ac:dyDescent="0.25">
       <c r="P50" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="Q50" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="R50" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="S50" t="s">
         <v>282</v>
       </c>
       <c r="U50" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="51" spans="15:21" x14ac:dyDescent="0.25">
@@ -43921,11 +43978,11 @@
       </c>
     </row>
     <row r="52" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O52" s="69" t="s">
-        <v>650</v>
+      <c r="O52" s="67" t="s">
+        <v>648</v>
       </c>
       <c r="P52" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="Q52" s="18">
         <v>5500000</v>
@@ -43934,7 +43991,7 @@
         <v>107</v>
       </c>
       <c r="S52" s="18">
-        <f t="shared" ref="S52:S58" si="8">Q52*R52</f>
+        <f t="shared" ref="S52:S58" si="6">Q52*R52</f>
         <v>588500000</v>
       </c>
       <c r="U52" s="7">
@@ -43943,11 +44000,11 @@
       </c>
     </row>
     <row r="53" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O53" s="69" t="s">
-        <v>651</v>
+      <c r="O53" s="67" t="s">
+        <v>649</v>
       </c>
       <c r="P53" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Q53" s="18">
         <v>5500000</v>
@@ -43956,16 +44013,16 @@
         <v>76</v>
       </c>
       <c r="S53" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>418000000</v>
       </c>
     </row>
     <row r="54" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O54" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="P54" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="Q54" s="18">
         <v>5500000</v>
@@ -43974,16 +44031,16 @@
         <v>46</v>
       </c>
       <c r="S54" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>253000000</v>
       </c>
     </row>
     <row r="55" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O55" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="P55" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="Q55" s="18">
         <v>5500000</v>
@@ -43992,7 +44049,7 @@
         <v>15</v>
       </c>
       <c r="S55" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>82500000</v>
       </c>
       <c r="U55" s="7">
@@ -44002,10 +44059,10 @@
     </row>
     <row r="56" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O56" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="P56" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="Q56" s="18">
         <v>5500000</v>
@@ -44014,16 +44071,16 @@
         <v>30</v>
       </c>
       <c r="S56" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>165000000</v>
       </c>
     </row>
     <row r="57" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O57" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="P57" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="Q57" s="18">
         <v>24000000</v>
@@ -44032,14 +44089,14 @@
         <v>59</v>
       </c>
       <c r="S57" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1416000000</v>
       </c>
     </row>
     <row r="58" spans="15:21" x14ac:dyDescent="0.25">
       <c r="Q58" s="18"/>
       <c r="S58" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -44087,7 +44144,7 @@
         <v>10</v>
       </c>
       <c r="Q74">
-        <f t="shared" ref="Q74:Q76" si="9">O74*P74</f>
+        <f t="shared" ref="Q74:Q76" si="7">O74*P74</f>
         <v>750</v>
       </c>
     </row>
@@ -44099,7 +44156,7 @@
         <v>5.5</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>247.5</v>
       </c>
     </row>
@@ -44111,7 +44168,7 @@
         <v>10</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
     </row>

--- a/AudioDemo/finance/finance.xlsx
+++ b/AudioDemo/finance/finance.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="832">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2524,6 +2524,18 @@
   </si>
   <si>
     <t>بیمه</t>
+  </si>
+  <si>
+    <t>نقد به مریم دادم</t>
+  </si>
+  <si>
+    <t>11/9/1396</t>
+  </si>
+  <si>
+    <t>شمع</t>
+  </si>
+  <si>
+    <t>12/9/1396</t>
   </si>
 </sst>
 </file>
@@ -3203,8 +3215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4252,9 +4264,11 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="D32" s="42">
-        <v>0</v>
-      </c>
-      <c r="E32" s="41"/>
+        <v>-150000</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>828</v>
+      </c>
       <c r="O32">
         <v>29</v>
       </c>
@@ -4333,7 +4347,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>7784922</v>
+        <v>7634922</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -32299,7 +32313,7 @@
   <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -35373,7 +35387,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G170" sqref="G170"/>
+      <selection pane="bottomLeft" activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35423,7 +35437,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -35431,7 +35445,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>52411400</v>
+        <v>53185000</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -35449,7 +35463,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -35457,7 +35471,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1620000000</v>
+        <v>1644000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -35473,7 +35487,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -35481,7 +35495,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-107600000</v>
+        <v>-109200000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -35497,7 +35511,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -35505,7 +35519,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-53600000</v>
+        <v>-54400000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -35521,7 +35535,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -35529,7 +35543,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-29425000</v>
+        <v>-29865000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -35545,7 +35559,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -35553,7 +35567,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-106800000</v>
+        <v>-108400000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -35569,7 +35583,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -35577,7 +35591,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-106000000</v>
+        <v>-107600000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -35593,7 +35607,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -35601,7 +35615,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-494260000</v>
+        <v>-501864000</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -35617,7 +35631,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -35625,7 +35639,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>1036000000</v>
+        <v>1052000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -35641,7 +35655,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -35649,7 +35663,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-550605000</v>
+        <v>-559125000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -35665,7 +35679,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -35673,7 +35687,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-23130000</v>
+        <v>-23490000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -35689,7 +35703,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -35697,7 +35711,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-1026359100</v>
+        <v>-1042364700</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -35713,7 +35727,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -35721,7 +35735,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-101800000</v>
+        <v>-103400000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -35737,7 +35751,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -35745,7 +35759,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>1012000000</v>
+        <v>1028000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -35761,7 +35775,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -35769,7 +35783,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>1012000000</v>
+        <v>1028000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -35785,7 +35799,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -35793,7 +35807,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>607200000</v>
+        <v>616800000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -35809,7 +35823,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -35817,7 +35831,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>506000000</v>
+        <v>514000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -35833,7 +35847,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -35841,7 +35855,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1515000000</v>
+        <v>1539000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -35860,7 +35874,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -35868,7 +35882,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-218946200</v>
+        <v>-222407800</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -35884,7 +35898,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -35892,7 +35906,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-218946200</v>
+        <v>-222407800</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -35908,7 +35922,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -35916,7 +35930,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-218946200</v>
+        <v>-222407800</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -35932,7 +35946,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -35940,7 +35954,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-218946200</v>
+        <v>-222407800</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -35956,7 +35970,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -35964,7 +35978,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-218946200</v>
+        <v>-222407800</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -35980,7 +35994,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -35988,7 +36002,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-101200000</v>
+        <v>-102800000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -36004,7 +36018,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -36012,7 +36026,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1512000000</v>
+        <v>1536000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -36028,7 +36042,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -36036,7 +36050,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-100600000</v>
+        <v>-102200000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -36052,7 +36066,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -36060,7 +36074,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>1002000000</v>
+        <v>1018000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -36076,7 +36090,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -36084,7 +36098,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-3507400800</v>
+        <v>-3563407200</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -36100,7 +36114,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -36108,7 +36122,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1500450000</v>
+        <v>-1524457200</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -36124,7 +36138,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -36132,7 +36146,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-846254100</v>
+        <v>-859821300</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -36148,7 +36162,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -36156,7 +36170,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>492178500</v>
+        <v>500132900</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -36172,7 +36186,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -36180,7 +36194,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>17159499</v>
+        <v>17440227</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>378</v>
@@ -36198,7 +36212,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -36206,7 +36220,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-415650000</v>
+        <v>-422450000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -36222,7 +36236,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -36230,7 +36244,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-91630500</v>
+        <v>-93154500</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -36246,7 +36260,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -36254,7 +36268,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>95800000</v>
+        <v>97400000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -36270,7 +36284,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -36278,7 +36292,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-96000000</v>
+        <v>-97600000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -36294,7 +36308,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -36302,7 +36316,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>137468342</v>
+        <v>139874790</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>398</v>
@@ -36320,7 +36334,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -36328,7 +36342,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-43415000</v>
+        <v>-44175000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -36344,7 +36358,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -36352,7 +36366,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-40263071</v>
+        <v>-40967895</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -36368,7 +36382,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -36376,7 +36390,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-54240000</v>
+        <v>-55200000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -36392,7 +36406,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -36400,7 +36414,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>429087516</v>
+        <v>437089148</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>399</v>
@@ -36418,7 +36432,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -36426,7 +36440,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-34080000</v>
+        <v>-34720000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -36442,7 +36456,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -36450,7 +36464,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-89054238</v>
+        <v>-90742470</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -36466,7 +36480,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -36474,7 +36488,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-84200000</v>
+        <v>-85800000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -36490,7 +36504,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -36498,7 +36512,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-39900000</v>
+        <v>-40660000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -36514,7 +36528,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -36522,7 +36536,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-18810000</v>
+        <v>-19170000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -36538,7 +36552,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -36546,7 +36560,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-26827240</v>
+        <v>-27340680</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -36562,7 +36576,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -36570,7 +36584,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-11405860</v>
+        <v>-11625732</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -36586,7 +36600,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -36594,7 +36608,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-58374000</v>
+        <v>-59502000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -36610,7 +36624,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -36618,7 +36632,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-11072844</v>
+        <v>-11286812</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -36634,7 +36648,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -36642,7 +36656,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-22012900</v>
+        <v>-22439300</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -36658,7 +36672,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -36666,7 +36680,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>411000000</v>
+        <v>419000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -36682,7 +36696,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -36690,7 +36704,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-8526000</v>
+        <v>-8694000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -36706,7 +36720,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -36714,7 +36728,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-397102500</v>
+        <v>-404946500</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -36730,7 +36744,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -36738,7 +36752,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-18225000</v>
+        <v>-18585000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -36754,7 +36768,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -36762,7 +36776,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>1175028899</v>
+        <v>1199070411</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>400</v>
@@ -36780,7 +36794,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -36788,7 +36802,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>782000000</v>
+        <v>798000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -36804,7 +36818,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -36812,7 +36826,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>780000000</v>
+        <v>796000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -36828,7 +36842,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -36836,7 +36850,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-2737586500</v>
+        <v>-2793598500</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -36852,7 +36866,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -36860,7 +36874,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>1098000000</v>
+        <v>1122000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -36876,7 +36890,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -36884,7 +36898,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-9921894</v>
+        <v>-10138766</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -36900,7 +36914,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -36908,7 +36922,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-12073974</v>
+        <v>-12337886</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -36924,7 +36938,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -36932,7 +36946,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>1095000000</v>
+        <v>1119000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -36948,7 +36962,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -36956,7 +36970,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>1084050000</v>
+        <v>1107810000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -36972,7 +36986,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -36980,7 +36994,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>365000000</v>
+        <v>373000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -36996,7 +37010,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -37004,7 +37018,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F185" si="5">B67*(D67-E67)</f>
-        <v>10950000</v>
+        <v>11190000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -37020,7 +37034,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -37028,7 +37042,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>10920000000</v>
+        <v>11160000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -37044,7 +37058,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -37052,7 +37066,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-72800000</v>
+        <v>-74400000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -37068,7 +37082,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -37076,7 +37090,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>508200000</v>
+        <v>519400000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -37092,7 +37106,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -37100,7 +37114,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>943800000</v>
+        <v>964600000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -37116,7 +37130,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -37124,7 +37138,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-364000000</v>
+        <v>-372000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -37140,7 +37154,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -37148,7 +37162,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>5415000000</v>
+        <v>5535000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -37164,7 +37178,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -37172,7 +37186,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-5356499400</v>
+        <v>-5476533000</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -37188,7 +37202,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -37196,7 +37210,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-1065000000</v>
+        <v>-1089000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -37212,7 +37226,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -37220,7 +37234,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-71000000</v>
+        <v>-72600000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -37236,7 +37250,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -37244,7 +37258,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-4261065000</v>
+        <v>-4357089000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -37260,7 +37274,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -37268,7 +37282,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-1053315900</v>
+        <v>-1077323100</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -37284,7 +37298,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -37292,7 +37306,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>7935000000</v>
+        <v>8119000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -37308,7 +37322,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -37316,7 +37330,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-204770500</v>
+        <v>-209574500</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -37332,7 +37346,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -37340,7 +37354,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-68200000</v>
+        <v>-69800000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -37356,7 +37370,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -37364,7 +37378,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>96011919</v>
+        <v>98277687</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -37382,7 +37396,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -37390,7 +37404,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-68000000</v>
+        <v>-69600000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -37406,7 +37420,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -37414,7 +37428,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>674000000</v>
+        <v>690000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -37430,7 +37444,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -37438,7 +37452,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-67000000</v>
+        <v>-68600000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -37454,7 +37468,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -37462,7 +37476,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-65800000</v>
+        <v>-67400000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -37478,7 +37492,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -37486,7 +37500,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-433275000</v>
+        <v>-443875000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -37502,7 +37516,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -37510,7 +37524,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-156000000</v>
+        <v>-160000000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -37526,7 +37540,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -37534,7 +37548,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-37440000</v>
+        <v>-38400000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -37550,7 +37564,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -37558,7 +37572,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>132315345</v>
+        <v>135740985</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -37576,7 +37590,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -37584,7 +37598,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-921614000</v>
+        <v>-945630000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>340</v>
@@ -37602,7 +37616,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -37610,7 +37624,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-62525000